--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="conflicts" sheetId="1" r:id="rId1"/>
+    <sheet name="dynamics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
   <si>
     <t>saldo</t>
   </si>
@@ -154,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,6 +173,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,55 +559,55 @@
         <v>2018</v>
       </c>
       <c r="E5" s="1">
-        <v>-103.9999999999999</v>
+        <v>-151</v>
       </c>
       <c r="F5" s="1">
-        <v>10975.999999999991</v>
+        <v>11226.999999999991</v>
       </c>
       <c r="G5" s="5">
-        <v>0.26412172011661811</v>
+        <v>0.24547964727888119</v>
       </c>
       <c r="H5" s="6">
-        <v>40188.841560000001</v>
+        <v>38152.560480000007</v>
       </c>
       <c r="I5" s="5">
-        <v>1.041390306122449</v>
+        <v>1.051928386924379</v>
       </c>
       <c r="J5" s="5">
-        <v>5.1202623906705519E-2</v>
+        <v>5.005789614322613E-2</v>
       </c>
       <c r="K5" s="5">
-        <v>38.846618969569967</v>
+        <v>26.825564115079711</v>
       </c>
       <c r="L5" s="5">
         <v>35.1</v>
       </c>
       <c r="M5" s="5">
-        <v>5.2842565597667297E-3</v>
+        <v>5.1661173955642329E-3</v>
       </c>
       <c r="N5" s="5">
-        <v>4.0087463556851147E-3</v>
+        <v>3.2956266144116729E-3</v>
       </c>
       <c r="O5" s="5">
-        <v>2.5883746355685109E-2</v>
+        <v>2.5011133873697321E-2</v>
       </c>
       <c r="P5" s="5">
-        <v>0.1223578717201162</v>
+        <v>0.12710430212879489</v>
       </c>
       <c r="Q5" s="5">
-        <v>0.36570699708454812</v>
+        <v>0.36109379175202633</v>
       </c>
       <c r="R5" s="5">
-        <v>8.0551890761661724</v>
+        <v>7.495136403313432</v>
       </c>
       <c r="S5" s="5">
-        <v>1.8221574344023279E-3</v>
+        <v>1.78141979157388E-3</v>
       </c>
       <c r="T5" s="5">
-        <v>7.6166180758017496E-2</v>
+        <v>8.2479736349870852E-2</v>
       </c>
       <c r="U5" s="5">
-        <v>192.3621306915087</v>
+        <v>155.1901168112586</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -733,23 +740,23 @@
       </c>
       <c r="G13" s="5">
         <f>AVERAGE(G5:G7)</f>
-        <v>0.19302966763622972</v>
+        <v>0.18681564335698408</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ref="H13:U13" si="0">AVERAGE(H5:H7)</f>
-        <v>27580.104170000002</v>
+        <v>26901.343810000002</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>0.91037301030725892</v>
+        <v>0.91388570390790225</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="0"/>
-        <v>3.6799066502154233E-2</v>
+        <v>3.6417490580994437E-2</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="0"/>
-        <v>53.96798996849617</v>
+        <v>49.960971683666081</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="0"/>
@@ -757,43 +764,1334 @@
       </c>
       <c r="M13" s="5">
         <f t="shared" si="0"/>
-        <v>3.6773106328510954E-3</v>
+        <v>3.6379309114502635E-3</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="0"/>
-        <v>3.5315299384838287E-3</v>
+        <v>3.2938233580593473E-3</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="0"/>
-        <v>1.4315384349936983E-2</v>
+        <v>1.4024513522607722E-2</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="0"/>
-        <v>1.849035285518396</v>
+        <v>1.8506174289879558</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="0"/>
-        <v>1.1703441257798104</v>
+        <v>1.1688063906689699</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="0"/>
-        <v>34.088191915652452</v>
+        <v>33.901507691368209</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" si="0"/>
-        <v>9.2164755089834153E-4</v>
+        <v>9.0806833662219219E-4</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="0"/>
-        <v>6.1568603949972843E-2</v>
+        <v>6.3673122480590635E-2</v>
       </c>
       <c r="U13" s="5">
         <f t="shared" si="0"/>
-        <v>150.70084005264169</v>
+        <v>138.31016875922501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:V22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-151</v>
+      </c>
+      <c r="G5" s="1">
+        <v>11226.999999999991</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.24547964727888119</v>
+      </c>
+      <c r="I5" s="6">
+        <v>38152.560480000007</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.051928386924379</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5.005789614322613E-2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>26.825564115079711</v>
+      </c>
+      <c r="M5" s="5">
+        <v>35.1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5.1661173955642329E-3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3.2956266144116729E-3</v>
+      </c>
+      <c r="P5" s="5">
+        <v>2.5011133873697321E-2</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.12710430212879489</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.36109379175202633</v>
+      </c>
+      <c r="S5" s="5">
+        <v>7.495136403313432</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1.78141979157388E-3</v>
+      </c>
+      <c r="U5" s="5">
+        <v>8.2479736349870852E-2</v>
+      </c>
+      <c r="V5" s="5">
+        <v>155.1901168112586</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <f>E5+1</f>
+        <v>2019</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-103.9999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10975.999999999991</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.26412172011661811</v>
+      </c>
+      <c r="I6" s="6">
+        <v>40188.841560000001</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1.041390306122449</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5.1202623906705519E-2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>38.846618969569967</v>
+      </c>
+      <c r="M6" s="5">
+        <v>35.1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>5.2842565597667297E-3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>4.0087463556851147E-3</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2.5883746355685109E-2</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.1223578717201162</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.36570699708454812</v>
+      </c>
+      <c r="S6" s="5">
+        <v>8.0551890761661724</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1.8221574344023279E-3</v>
+      </c>
+      <c r="U6" s="5">
+        <v>7.6166180758017496E-2</v>
+      </c>
+      <c r="V6" s="5">
+        <v>192.3621306915087</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:E9" si="0">E6+1</f>
+        <v>2020</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-63</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10781</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.29691123272423708</v>
+      </c>
+      <c r="I7" s="6">
+        <v>42527.635199999997</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.0827845283368891</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5.9178183841944128E-2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>44.046922756701598</v>
+      </c>
+      <c r="M7" s="5">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="N7" s="5">
+        <v>5.56534644281603E-3</v>
+      </c>
+      <c r="O7" s="5">
+        <v>4.6377887023467028E-3</v>
+      </c>
+      <c r="P7" s="5">
+        <v>2.609219923940263E-2</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.114089602077729</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.37770151191911677</v>
+      </c>
+      <c r="S7" s="5">
+        <v>6.8356837399127786</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1.855115480938685E-3</v>
+      </c>
+      <c r="U7" s="5">
+        <v>7.5874223170392358E-2</v>
+      </c>
+      <c r="V7" s="5">
+        <v>193.49202203135141</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-189</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10622</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.2909998117115421</v>
+      </c>
+      <c r="I8" s="6">
+        <v>39098.872060000002</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.1452645452833741</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5.0273018263980389E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>49.976597689700633</v>
+      </c>
+      <c r="M8" s="5">
+        <v>36.9</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5.4603652796083261E-3</v>
+      </c>
+      <c r="O8" s="5">
+        <v>4.6130672189794572E-3</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2.648277160610053E-2</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.16239879495386761</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.36414987761250212</v>
+      </c>
+      <c r="S8" s="5">
+        <v>6.9253979664846144</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1.882884579175292E-3</v>
+      </c>
+      <c r="U8" s="5">
+        <v>7.7009979288269623E-2</v>
+      </c>
+      <c r="V8" s="5">
+        <v>324.06683953116169</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-145.99999999999989</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10321</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.25937409165778508</v>
+      </c>
+      <c r="I9" s="6">
+        <v>34020.492150000013</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.180680166650518</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4.8832477473113048E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>48.568372207150468</v>
+      </c>
+      <c r="M9" s="5">
+        <v>39.4</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5.7165003391143922E-3</v>
+      </c>
+      <c r="O9" s="5">
+        <v>4.9413816490649926E-3</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2.7400445693246761E-2</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.123437651390368</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.37428543745761073</v>
+      </c>
+      <c r="S9" s="5">
+        <v>5.3667613603332702</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1.9377967251235301E-3</v>
+      </c>
+      <c r="U9" s="5">
+        <v>7.4702063753512252E-2</v>
+      </c>
+      <c r="V9" s="5">
+        <v>123.02946509543639</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F18" s="1">
+        <v>366</v>
+      </c>
+      <c r="G18" s="1">
+        <v>104868</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.12923866193691119</v>
+      </c>
+      <c r="I18" s="6">
+        <v>21774.82372</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.55524087424190405</v>
+      </c>
+      <c r="K18" s="5">
+        <v>2.3753671281992579E-2</v>
+      </c>
+      <c r="L18" s="5">
+        <v>41.83570650074379</v>
+      </c>
+      <c r="M18" s="5">
+        <v>23.7</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1.792729908074902E-3</v>
+      </c>
+      <c r="O18" s="5">
+        <v>3.22309951558148E-3</v>
+      </c>
+      <c r="P18" s="5">
+        <v>9.0799862684517608E-3</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>7.41546515619636</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1.6437559598733651</v>
+      </c>
+      <c r="S18" s="5">
+        <v>83.436602513636146</v>
+      </c>
+      <c r="T18" s="5">
+        <v>3.3375290841820111E-4</v>
+      </c>
+      <c r="U18" s="5">
+        <v>3.5520845253080059E-2</v>
+      </c>
+      <c r="V18" s="5">
+        <v>103.97836369378641</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1">
+        <f>E18+1</f>
+        <v>2019</v>
+      </c>
+      <c r="F19" s="1">
+        <v>162</v>
+      </c>
+      <c r="G19" s="1">
+        <v>104887</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.12524907757872761</v>
+      </c>
+      <c r="I19" s="6">
+        <v>22273.591049999999</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.59726848894524565</v>
+      </c>
+      <c r="K19" s="5">
+        <v>2.7238837987548489E-2</v>
+      </c>
+      <c r="L19" s="5">
+        <v>46.477940552404007</v>
+      </c>
+      <c r="M19" s="5">
+        <v>24.3</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1.792405159838672E-3</v>
+      </c>
+      <c r="O19" s="5">
+        <v>3.0318342597271219E-3</v>
+      </c>
+      <c r="P19" s="5">
+        <v>9.0135097771887728E-3</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>8.4583599492787478</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1.6687082288558159</v>
+      </c>
+      <c r="S19" s="5">
+        <v>90.032854400450006</v>
+      </c>
+      <c r="T19" s="5">
+        <v>3.336924499699669E-4</v>
+      </c>
+      <c r="U19" s="5">
+        <v>3.5514410746803712E-2</v>
+      </c>
+      <c r="V19" s="5">
+        <v>116.9703480519988</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F20" s="1">
+        <v>274</v>
+      </c>
+      <c r="G20" s="1">
+        <v>104592</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.12624292488909281</v>
+      </c>
+      <c r="I20" s="6">
+        <v>22054.816080000001</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.65259962521034098</v>
+      </c>
+      <c r="K20" s="5">
+        <v>2.6082300749579301E-2</v>
+      </c>
+      <c r="L20" s="5">
+        <v>44.6939184465351</v>
+      </c>
+      <c r="M20" s="5">
+        <v>24.8</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1.807021569527294E-3</v>
+      </c>
+      <c r="O20" s="5">
+        <v>2.849166284228228E-3</v>
+      </c>
+      <c r="P20" s="5">
+        <v>9.1068150527764905E-3</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>5.9626548875631027</v>
+      </c>
+      <c r="R20" s="5">
+        <v>1.9119446037937891</v>
+      </c>
+      <c r="S20" s="5">
+        <v>99.140991877007764</v>
+      </c>
+      <c r="T20" s="5">
+        <v>3.3463362398653739E-4</v>
+      </c>
+      <c r="U20" s="5">
+        <v>3.5614578552852993E-2</v>
+      </c>
+      <c r="V20" s="5">
+        <v>113.8009073129876</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F21" s="1">
+        <v>682</v>
+      </c>
+      <c r="G21" s="1">
+        <v>104087</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.12942058086024191</v>
+      </c>
+      <c r="I21" s="6">
+        <v>21098.202539999998</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.67966028418534485</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2.6910180906357169E-2</v>
+      </c>
+      <c r="L21" s="5">
+        <v>46.062382042618189</v>
+      </c>
+      <c r="M21" s="5">
+        <v>25.2</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1.8253960629089001E-3</v>
+      </c>
+      <c r="O21" s="5">
+        <v>3.0935659592456191E-3</v>
+      </c>
+      <c r="P21" s="5">
+        <v>9.1404306013238793E-3</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>5.9230931816653376</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1.909571800513032</v>
+      </c>
+      <c r="S21" s="5">
+        <v>99.217091574356033</v>
+      </c>
+      <c r="T21" s="5">
+        <v>3.3625716948321968E-4</v>
+      </c>
+      <c r="U21" s="5">
+        <v>3.5835406919211797E-2</v>
+      </c>
+      <c r="V21" s="5">
+        <v>124.7215645498477</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F22" s="6">
+        <v>230.99999999999989</v>
+      </c>
+      <c r="G22" s="6">
+        <v>101303</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.1301540921789088</v>
+      </c>
+      <c r="I22" s="6">
+        <v>19630.4133</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.71502225995281454</v>
+      </c>
+      <c r="K22" s="5">
+        <v>3.0226153223497799E-2</v>
+      </c>
+      <c r="L22" s="5">
+        <v>44.866399511860457</v>
+      </c>
+      <c r="M22" s="5">
+        <v>26.55</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1.7867190507684749E-3</v>
+      </c>
+      <c r="O22" s="5">
+        <v>3.6622804852768269E-3</v>
+      </c>
+      <c r="P22" s="5">
+        <v>9.3432573566429363E-3</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.62133401774873231</v>
+      </c>
+      <c r="R22" s="5">
+        <v>2.1298443284009361</v>
+      </c>
+      <c r="S22" s="5">
+        <v>80.193313110174415</v>
+      </c>
+      <c r="T22" s="5">
+        <v>3.4549815898838042E-4</v>
+      </c>
+      <c r="U22" s="5">
+        <v>3.6770875492334869E-2</v>
+      </c>
+      <c r="V22" s="5">
+        <v>121.75934634857801</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I5:I9">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K9">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L9">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M9">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N9">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O9">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P9">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q9">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R9">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S9">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T9">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U9">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V9">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H9">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I13 I15:I16">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:M13 M15:M16">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13 H15:H16">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J13 J15:J16">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:K13 K15:K16">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L13 L15:L16">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N13 N15:N16">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:O13 O15:O16">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:P13 P15:P16">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q13 Q15:Q16">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:R13 R15:R16">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12:S13 S15:S16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:U13 U15:U16">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12:V13 V15:V16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I22">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H22">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I22">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V18:V22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18:S22">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18:R22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:Q22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
   <si>
     <t>saldo</t>
   </si>
@@ -104,12 +104,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,18 +163,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -178,7 +186,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +475,7 @@
   <dimension ref="B4:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:U6"/>
+      <selection activeCell="B7" sqref="B7:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,10 +818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:V22"/>
+  <dimension ref="C4:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +900,7 @@
       </c>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -951,13 +962,13 @@
       </c>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="9">
         <f>E5+1</f>
         <v>2019</v>
       </c>
@@ -1014,13 +1025,13 @@
       </c>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="9">
         <f t="shared" ref="E7:E9" si="0">E6+1</f>
         <v>2020</v>
       </c>
@@ -1077,13 +1088,13 @@
       </c>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
@@ -1140,9 +1151,7 @@
       </c>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1336,9 +1345,7 @@
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1398,9 +1405,7 @@
       </c>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1461,9 +1466,7 @@
       </c>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1523,9 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1585,7 +1586,7 @@
       </c>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1646,8 +1647,432 @@
         <v>121.75934634857801</v>
       </c>
     </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-174</v>
+      </c>
+      <c r="G30" s="1">
+        <v>62285</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.1843300955286184</v>
+      </c>
+      <c r="I30" s="6">
+        <v>23722.23559</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.70405394557277023</v>
+      </c>
+      <c r="K30" s="5">
+        <v>2.5158545396162781E-2</v>
+      </c>
+      <c r="L30" s="5">
+        <v>49.705922240667903</v>
+      </c>
+      <c r="M30" s="5">
+        <v>38.08</v>
+      </c>
+      <c r="N30" s="5">
+        <v>4.6399614674479924E-3</v>
+      </c>
+      <c r="O30" s="5">
+        <v>2.5848920285782991E-3</v>
+      </c>
+      <c r="P30" s="5">
+        <v>7.6053624468170418E-3</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>4.1744721843140402</v>
+      </c>
+      <c r="R30" s="5">
+        <v>2.1145545476438952</v>
+      </c>
+      <c r="S30" s="5">
+        <v>27.909615021273179</v>
+      </c>
+      <c r="T30" s="5">
+        <v>5.6193304969093564E-4</v>
+      </c>
+      <c r="U30" s="5">
+        <v>7.7145380107570036E-2</v>
+      </c>
+      <c r="V30" s="5">
+        <v>151.97994264622301</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-226</v>
+      </c>
+      <c r="G31" s="1">
+        <v>62095</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.18400837426523869</v>
+      </c>
+      <c r="I31" s="6">
+        <v>25215.29996</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.72163620259280137</v>
+      </c>
+      <c r="K31" s="5">
+        <v>2.5235526209839751E-2</v>
+      </c>
+      <c r="L31" s="5">
+        <v>65.087287814477833</v>
+      </c>
+      <c r="M31" s="5">
+        <v>39.35</v>
+      </c>
+      <c r="N31" s="5">
+        <v>4.7024720186810247E-3</v>
+      </c>
+      <c r="O31" s="5">
+        <v>2.6250100652226321E-3</v>
+      </c>
+      <c r="P31" s="5">
+        <v>7.6286335453740117E-3</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>4.5825750865609143</v>
+      </c>
+      <c r="R31" s="5">
+        <v>1.9810781866494891</v>
+      </c>
+      <c r="S31" s="5">
+        <v>27.674213711248889</v>
+      </c>
+      <c r="T31" s="5">
+        <v>5.9586118044931016E-4</v>
+      </c>
+      <c r="U31" s="5">
+        <v>7.9088493437474844E-2</v>
+      </c>
+      <c r="V31" s="5">
+        <v>181.50892349786611</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F32" s="1">
+        <v>410.99999999999989</v>
+      </c>
+      <c r="G32" s="1">
+        <v>61897.000000000007</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.18803819248105719</v>
+      </c>
+      <c r="I32" s="6">
+        <v>25807.079600000001</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.73187715075044013</v>
+      </c>
+      <c r="K32" s="5">
+        <v>2.6124044784076761E-2</v>
+      </c>
+      <c r="L32" s="5">
+        <v>73.524101455159382</v>
+      </c>
+      <c r="M32" s="5">
+        <v>41.49</v>
+      </c>
+      <c r="N32" s="5">
+        <v>3.7320063977252299E-3</v>
+      </c>
+      <c r="O32" s="5">
+        <v>2.6818747273696518E-3</v>
+      </c>
+      <c r="P32" s="5">
+        <v>7.6885794141880789E-3</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>4.5936636670597917</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1.798357917185001</v>
+      </c>
+      <c r="S32" s="5">
+        <v>28.663272890447001</v>
+      </c>
+      <c r="T32" s="5">
+        <v>5.9776725851010419E-4</v>
+      </c>
+      <c r="U32" s="5">
+        <v>7.9406110150734288E-2</v>
+      </c>
+      <c r="V32" s="5">
+        <v>174.8046333148618</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F33" s="1">
+        <v>947</v>
+      </c>
+      <c r="G33" s="1">
+        <v>62157</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.1923033608443136</v>
+      </c>
+      <c r="I33" s="6">
+        <v>28223.238239999999</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.89260742957349914</v>
+      </c>
+      <c r="K33" s="5">
+        <v>2.7848834403204781E-2</v>
+      </c>
+      <c r="L33" s="5">
+        <v>81.158354302813848</v>
+      </c>
+      <c r="M33" s="5">
+        <v>42.74</v>
+      </c>
+      <c r="N33" s="5">
+        <v>4.0220731373779052E-3</v>
+      </c>
+      <c r="O33" s="5">
+        <v>2.81545119616454E-3</v>
+      </c>
+      <c r="P33" s="5">
+        <v>7.6564184243126223E-3</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>4.3867786411828114</v>
+      </c>
+      <c r="R33" s="5">
+        <v>1.486720240680856</v>
+      </c>
+      <c r="S33" s="5">
+        <v>25.929583203822549</v>
+      </c>
+      <c r="T33" s="5">
+        <v>6.1135511688144382E-4</v>
+      </c>
+      <c r="U33" s="5">
+        <v>7.9090046173399611E-2</v>
+      </c>
+      <c r="V33" s="5">
+        <v>291.37254943192238</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F34" s="1">
+        <v>975</v>
+      </c>
+      <c r="G34" s="1">
+        <v>63620.999999999993</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.18481319061316229</v>
+      </c>
+      <c r="I34" s="6">
+        <v>22921.057649999999</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.97470646484651291</v>
+      </c>
+      <c r="K34" s="5">
+        <v>2.8968422376259389E-2</v>
+      </c>
+      <c r="L34" s="5">
+        <v>78.190951424058085</v>
+      </c>
+      <c r="M34" s="5">
+        <v>47.9</v>
+      </c>
+      <c r="N34" s="5">
+        <v>3.9609562880180823E-3</v>
+      </c>
+      <c r="O34" s="5">
+        <v>2.9235629744895431E-3</v>
+      </c>
+      <c r="P34" s="5">
+        <v>7.7191493374829017E-3</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>4.8034139670863398</v>
+      </c>
+      <c r="R34" s="5">
+        <v>1.015481051853947</v>
+      </c>
+      <c r="S34" s="5">
+        <v>14.01607356061678</v>
+      </c>
+      <c r="T34" s="5">
+        <v>5.9728705930431629E-4</v>
+      </c>
+      <c r="U34" s="5">
+        <v>7.1768755599566178E-2</v>
+      </c>
+      <c r="V34" s="5">
+        <v>137.9810431178384</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I5:I9">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K9">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L9">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M9">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N9">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O9">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -1659,7 +2084,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K9">
+  <conditionalFormatting sqref="P5:P9">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q9">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -1671,7 +2108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L9">
+  <conditionalFormatting sqref="R5:R9">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -1683,7 +2120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M9">
+  <conditionalFormatting sqref="S5:S9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -1695,7 +2132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N9">
+  <conditionalFormatting sqref="T5:T9">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -1707,7 +2144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O9">
+  <conditionalFormatting sqref="U5:U9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -1719,7 +2156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P9">
+  <conditionalFormatting sqref="V5:V9">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -1731,7 +2168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q9">
+  <conditionalFormatting sqref="H5:H9">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -1743,7 +2180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R9">
+  <conditionalFormatting sqref="I12:I13 I15:I16">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -1755,7 +2192,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S9">
+  <conditionalFormatting sqref="M12:M13 M15:M16">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -1767,7 +2204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T9">
+  <conditionalFormatting sqref="H12:H13 H15:H16">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -1779,7 +2216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U9">
+  <conditionalFormatting sqref="J12:J13 J15:J16">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -1791,7 +2228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V9">
+  <conditionalFormatting sqref="K12:K13 K15:K16">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -1803,7 +2240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H9">
+  <conditionalFormatting sqref="L12:L13 L15:L16">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -1815,7 +2252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13 I15:I16">
+  <conditionalFormatting sqref="N12:N13 N15:N16">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -1827,7 +2264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M13 M15:M16">
+  <conditionalFormatting sqref="O12:O13 O15:O16">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -1839,7 +2276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13 H15:H16">
+  <conditionalFormatting sqref="P12:P13 P15:P16">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -1851,7 +2288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J13 J15:J16">
+  <conditionalFormatting sqref="Q12:Q13 Q15:Q16">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -1863,7 +2300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K13 K15:K16">
+  <conditionalFormatting sqref="R12:R13 R15:R16">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -1875,7 +2312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L13 L15:L16">
+  <conditionalFormatting sqref="S12:S13 S15:S16">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -1887,7 +2324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N13 N15:N16">
+  <conditionalFormatting sqref="U12:U13 U15:U16">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1899,7 +2336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O13 O15:O16">
+  <conditionalFormatting sqref="V12:V13 V15:V16">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1911,7 +2348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P13 P15:P16">
+  <conditionalFormatting sqref="I20:I22">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1923,7 +2360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13 Q15:Q16">
+  <conditionalFormatting sqref="H20:H22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1935,7 +2372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R13 R15:R16">
+  <conditionalFormatting sqref="I18:I22">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1947,7 +2384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S13 S15:S16">
+  <conditionalFormatting sqref="V18:V22">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1959,7 +2396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U13 U15:U16">
+  <conditionalFormatting sqref="S18:S22">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1971,7 +2408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V12:V13 V15:V16">
+  <conditionalFormatting sqref="R18:R22">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1983,7 +2420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I22">
+  <conditionalFormatting sqref="L18:L22">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1995,7 +2432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H22">
+  <conditionalFormatting sqref="Q18:Q22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2007,7 +2444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I22">
+  <conditionalFormatting sqref="J5:J9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2019,7 +2456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V22">
+  <conditionalFormatting sqref="I30:I34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2031,7 +2468,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S18:S22">
+  <conditionalFormatting sqref="L30:L34">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2043,7 +2480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R18:R22">
+  <conditionalFormatting sqref="V30:V34">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2055,7 +2492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L22">
+  <conditionalFormatting sqref="Q30:Q34">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2067,7 +2504,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:Q22">
+  <conditionalFormatting sqref="R30:R34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2079,7 +2516,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J9">
+  <conditionalFormatting sqref="S30:S34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="conflicts" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:U7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,6 +749,10 @@
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="F13" s="5">
+        <f>AVERAGE(F5:F7)</f>
+        <v>58716.999999999993</v>
+      </c>
       <c r="G13" s="5">
         <f>AVERAGE(G5:G7)</f>
         <v>0.18681564335698408</v>
@@ -820,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
   <si>
     <t>saldo</t>
   </si>
@@ -95,6 +95,63 @@
   </si>
   <si>
     <t>Средний профиль</t>
+  </si>
+  <si>
+    <t>oktmo</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>средний профиль</t>
   </si>
 </sst>
 </file>
@@ -163,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,6 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:U13"/>
+  <dimension ref="B4:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,76 +803,748 @@
         <v>137.9810431178384</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F9" s="5">
         <f>AVERAGE(F5:F7)</f>
         <v>58716.999999999993</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G9" s="5">
         <f>AVERAGE(G5:G7)</f>
         <v>0.18681564335698408</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" ref="H13:U13" si="0">AVERAGE(H5:H7)</f>
+      <c r="H9" s="5">
+        <f>AVERAGE(H5:H7)</f>
         <v>26901.343810000002</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I9" s="5">
+        <f>AVERAGE(I5:I7)</f>
+        <v>0.91388570390790225</v>
+      </c>
+      <c r="J9" s="5">
+        <f>AVERAGE(J5:J7)</f>
+        <v>3.6417490580994437E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <f>AVERAGE(K5:K7)</f>
+        <v>49.960971683666081</v>
+      </c>
+      <c r="L9" s="5">
+        <f>AVERAGE(L5:L7)</f>
+        <v>36.516666666666673</v>
+      </c>
+      <c r="M9" s="5">
+        <f>AVERAGE(M5:M7)</f>
+        <v>3.6379309114502635E-3</v>
+      </c>
+      <c r="N9" s="5">
+        <f>AVERAGE(N5:N7)</f>
+        <v>3.2938233580593473E-3</v>
+      </c>
+      <c r="O9" s="5">
+        <f>AVERAGE(O5:O7)</f>
+        <v>1.4024513522607722E-2</v>
+      </c>
+      <c r="P9" s="5">
+        <f>AVERAGE(P5:P7)</f>
+        <v>1.8506174289879558</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>AVERAGE(Q5:Q7)</f>
+        <v>1.1688063906689699</v>
+      </c>
+      <c r="R9" s="5">
+        <f>AVERAGE(R5:R7)</f>
+        <v>33.901507691368209</v>
+      </c>
+      <c r="S9" s="5">
+        <f>AVERAGE(S5:S7)</f>
+        <v>9.0806833662219219E-4</v>
+      </c>
+      <c r="T9" s="5">
+        <f>AVERAGE(T5:T7)</f>
+        <v>6.3673122480590635E-2</v>
+      </c>
+      <c r="U9" s="5">
+        <f>AVERAGE(U5:U7)</f>
+        <v>138.31016875922501</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>11635000</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F14" s="7">
+        <v>6.2260000000000003E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6.1740000000000003E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4.3060000000000001E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>3.4329999999999999E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2.5440000000000001E-2</v>
+      </c>
+      <c r="L14" s="7">
+        <v>5.4260000000000003E-2</v>
+      </c>
+      <c r="M14" s="7">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7.51E-2</v>
+      </c>
+      <c r="O14" s="7">
+        <v>6.4939999999999998E-2</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.108</v>
+      </c>
+      <c r="S14" s="7">
+        <v>7.2400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>11635000</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F15" s="7">
+        <v>6.9639999999999994E-2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4.7329999999999997E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>3.6650000000000002E-2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3.848E-2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="M15" s="7">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>7.4770000000000003E-2</v>
+      </c>
+      <c r="O15" s="7">
+        <v>6.726E-2</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>9.393E-2</v>
+      </c>
+      <c r="R15" s="7">
+        <v>7.5870000000000007E-2</v>
+      </c>
+      <c r="S15" s="7">
+        <v>5.2670000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>3623000</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4.6170000000000003E-2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6.055E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4.7149999999999997E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>5.2979999999999999E-2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>7.5130000000000002E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7.3849999999999999E-2</v>
+      </c>
+      <c r="O17" s="7">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="R17" s="7">
+        <v>8.6360000000000006E-2</v>
+      </c>
+      <c r="S17" s="7">
+        <v>8.0600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>3623000</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5.3560000000000003E-2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7.324E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6.1920000000000003E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>5.1569999999999998E-2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>6.1370000000000001E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>7.4770000000000003E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>8.1850000000000006E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="O18" s="7">
+        <v>7.3849999999999999E-2</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0.1183</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>6.8049999999999999E-2</v>
+      </c>
+      <c r="R18" s="7">
+        <v>7.3359999999999995E-2</v>
+      </c>
+      <c r="S18" s="7">
+        <v>5.8200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>65722000</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F20" s="7">
+        <v>6.6159999999999997E-2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6.9949999999999998E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5.2249999999999998E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4.614E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>6.8049999999999999E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0.11645999999999999</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="R20" s="7">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="S20" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>65722000</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F21" s="7">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>6.2869999999999995E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>5.1029999999999999E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="O21" s="7">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.10485999999999999</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>5.9749999999999998E-2</v>
+      </c>
+      <c r="R21" s="7">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="S21" s="7">
+        <v>5.5019999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="7">
+        <f>AVERAGE(F14,F17,F20)</f>
+        <v>5.8196666666666667E-2</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" ref="G25:S25" si="0">AVERAGE(G14,G17,G20)</f>
+        <v>7.1566666666666667E-2</v>
+      </c>
+      <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>0.91388570390790225</v>
-      </c>
-      <c r="J13" s="5">
+        <v>6.6796666666666671E-2</v>
+      </c>
+      <c r="I25" s="7">
         <f t="shared" si="0"/>
-        <v>3.6417490580994437E-2</v>
-      </c>
-      <c r="K13" s="5">
+        <v>5.1953333333333331E-2</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="0"/>
-        <v>49.960971683666081</v>
-      </c>
-      <c r="L13" s="5">
+        <v>4.2540000000000001E-2</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="0"/>
-        <v>36.516666666666673</v>
-      </c>
-      <c r="M13" s="5">
+        <v>4.0973333333333334E-2</v>
+      </c>
+      <c r="L25" s="7">
         <f t="shared" si="0"/>
-        <v>3.6379309114502635E-3</v>
-      </c>
-      <c r="N13" s="5">
+        <v>6.2136666666666673E-2</v>
+      </c>
+      <c r="M25" s="7">
         <f t="shared" si="0"/>
-        <v>3.2938233580593473E-3</v>
-      </c>
-      <c r="O13" s="5">
+        <v>7.4543333333333336E-2</v>
+      </c>
+      <c r="N25" s="7">
         <f t="shared" si="0"/>
-        <v>1.4024513522607722E-2</v>
-      </c>
-      <c r="P13" s="5">
+        <v>7.535E-2</v>
+      </c>
+      <c r="O25" s="7">
         <f t="shared" si="0"/>
-        <v>1.8506174289879558</v>
-      </c>
-      <c r="Q13" s="5">
+        <v>6.9646666666666662E-2</v>
+      </c>
+      <c r="P25" s="7">
         <f t="shared" si="0"/>
-        <v>1.1688063906689699</v>
-      </c>
-      <c r="R13" s="5">
+        <v>0.13522000000000001</v>
+      </c>
+      <c r="Q25" s="7">
         <f t="shared" si="0"/>
-        <v>33.901507691368209</v>
-      </c>
-      <c r="S13" s="5">
+        <v>8.1633333333333336E-2</v>
+      </c>
+      <c r="R25" s="7">
         <f t="shared" si="0"/>
-        <v>9.0806833662219219E-4</v>
-      </c>
-      <c r="T13" s="5">
-        <f t="shared" si="0"/>
-        <v>6.3673122480590635E-2</v>
-      </c>
-      <c r="U13" s="5">
-        <f t="shared" si="0"/>
-        <v>138.31016875922501</v>
+        <v>9.1553333333333334E-2</v>
+      </c>
+      <c r="S25" s="7">
+        <f>AVERAGE(S14,S17,S20)</f>
+        <v>7.7900000000000011E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7">
+        <f>AVERAGE(F15,F18,F21)</f>
+        <v>6.5433333333333329E-2</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" ref="G26:S26" si="1">AVERAGE(G15,G18,G21)</f>
+        <v>8.0166666666666664E-2</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>7.3579999999999993E-2</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7373333333333332E-2</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="1"/>
+        <v>4.6416666666666662E-2</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="1"/>
+        <v>5.1016666666666662E-2</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="1"/>
+        <v>7.3390000000000011E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="1"/>
+        <v>8.1316666666666676E-2</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="1"/>
+        <v>7.5023333333333331E-2</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="1"/>
+        <v>7.0103333333333337E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.12418666666666667</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="1"/>
+        <v>7.3910000000000003E-2</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" si="1"/>
+        <v>7.277666666666667E-2</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="1"/>
+        <v>5.5296666666666661E-2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F14:S14">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:S15">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:S17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:S18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:S20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:S21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -824,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="conflicts" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,67 +808,67 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <f>AVERAGE(F5:F7)</f>
+        <f t="shared" ref="F9:U9" si="0">AVERAGE(F5:F7)</f>
         <v>58716.999999999993</v>
       </c>
       <c r="G9" s="5">
-        <f>AVERAGE(G5:G7)</f>
+        <f t="shared" si="0"/>
         <v>0.18681564335698408</v>
       </c>
       <c r="H9" s="5">
-        <f>AVERAGE(H5:H7)</f>
+        <f t="shared" si="0"/>
         <v>26901.343810000002</v>
       </c>
       <c r="I9" s="5">
-        <f>AVERAGE(I5:I7)</f>
+        <f t="shared" si="0"/>
         <v>0.91388570390790225</v>
       </c>
       <c r="J9" s="5">
-        <f>AVERAGE(J5:J7)</f>
+        <f t="shared" si="0"/>
         <v>3.6417490580994437E-2</v>
       </c>
       <c r="K9" s="5">
-        <f>AVERAGE(K5:K7)</f>
+        <f t="shared" si="0"/>
         <v>49.960971683666081</v>
       </c>
       <c r="L9" s="5">
-        <f>AVERAGE(L5:L7)</f>
+        <f t="shared" si="0"/>
         <v>36.516666666666673</v>
       </c>
       <c r="M9" s="5">
-        <f>AVERAGE(M5:M7)</f>
+        <f t="shared" si="0"/>
         <v>3.6379309114502635E-3</v>
       </c>
       <c r="N9" s="5">
-        <f>AVERAGE(N5:N7)</f>
+        <f t="shared" si="0"/>
         <v>3.2938233580593473E-3</v>
       </c>
       <c r="O9" s="5">
-        <f>AVERAGE(O5:O7)</f>
+        <f t="shared" si="0"/>
         <v>1.4024513522607722E-2</v>
       </c>
       <c r="P9" s="5">
-        <f>AVERAGE(P5:P7)</f>
+        <f t="shared" si="0"/>
         <v>1.8506174289879558</v>
       </c>
       <c r="Q9" s="5">
-        <f>AVERAGE(Q5:Q7)</f>
+        <f t="shared" si="0"/>
         <v>1.1688063906689699</v>
       </c>
       <c r="R9" s="5">
-        <f>AVERAGE(R5:R7)</f>
+        <f t="shared" si="0"/>
         <v>33.901507691368209</v>
       </c>
       <c r="S9" s="5">
-        <f>AVERAGE(S5:S7)</f>
+        <f t="shared" si="0"/>
         <v>9.0806833662219219E-4</v>
       </c>
       <c r="T9" s="5">
-        <f>AVERAGE(T5:T7)</f>
+        <f t="shared" si="0"/>
         <v>6.3673122480590635E-2</v>
       </c>
       <c r="U9" s="5">
-        <f>AVERAGE(U5:U7)</f>
+        <f t="shared" si="0"/>
         <v>138.31016875922501</v>
       </c>
     </row>
@@ -1356,51 +1356,51 @@
         <v>5.8196666666666667E-2</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" ref="G25:S25" si="0">AVERAGE(G14,G17,G20)</f>
+        <f t="shared" ref="G25:R25" si="1">AVERAGE(G14,G17,G20)</f>
         <v>7.1566666666666667E-2</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6796666666666671E-2</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1953333333333331E-2</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2540000000000001E-2</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0973333333333334E-2</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2136666666666673E-2</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4543333333333336E-2</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.535E-2</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9646666666666662E-2</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13522000000000001</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1633333333333336E-2</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1553333333333334E-2</v>
       </c>
       <c r="S25" s="7">
@@ -1420,55 +1420,55 @@
         <v>6.5433333333333329E-2</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" ref="G26:S26" si="1">AVERAGE(G15,G18,G21)</f>
+        <f t="shared" ref="G26:S26" si="2">AVERAGE(G15,G18,G21)</f>
         <v>8.0166666666666664E-2</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3579999999999993E-2</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7373333333333332E-2</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6416666666666662E-2</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1016666666666662E-2</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3390000000000011E-2</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1316666666666676E-2</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5023333333333331E-2</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0103333333333337E-2</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12418666666666667</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3910000000000003E-2</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.277666666666667E-2</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5296666666666661E-2</v>
       </c>
     </row>
@@ -1554,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2747,18 +2747,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:I9">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K9">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L9">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -2770,55 +2770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L9">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M9">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N9">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O9">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P9">
+  <conditionalFormatting sqref="Q5:Q9">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -2830,7 +2782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q9">
+  <conditionalFormatting sqref="R5:R9">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -2842,7 +2794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R9">
+  <conditionalFormatting sqref="S5:S9">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -2854,31 +2806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S9">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T9">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U9">
+  <conditionalFormatting sqref="V5:V9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -2890,19 +2818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V9">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H9">
+  <conditionalFormatting sqref="I12:I13 I15:I16">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2914,7 +2830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13 I15:I16">
+  <conditionalFormatting sqref="M12:M13 M15:M16">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2926,7 +2842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M13 M15:M16">
+  <conditionalFormatting sqref="H12:H13 H15:H16">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2938,7 +2854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13 H15:H16">
+  <conditionalFormatting sqref="J12:J13 J15:J16">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2950,7 +2866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J13 J15:J16">
+  <conditionalFormatting sqref="K12:K13 K15:K16">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2962,7 +2878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K13 K15:K16">
+  <conditionalFormatting sqref="L12:L13 L15:L16">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2974,7 +2890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L13 L15:L16">
+  <conditionalFormatting sqref="N12:N13 N15:N16">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2986,7 +2902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N13 N15:N16">
+  <conditionalFormatting sqref="O12:O13 O15:O16">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2998,7 +2914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O13 O15:O16">
+  <conditionalFormatting sqref="P12:P13 P15:P16">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3010,7 +2926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P13 P15:P16">
+  <conditionalFormatting sqref="Q12:Q13 Q15:Q16">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3022,7 +2938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13 Q15:Q16">
+  <conditionalFormatting sqref="R12:R13 R15:R16">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3034,7 +2950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R13 R15:R16">
+  <conditionalFormatting sqref="S12:S13 S15:S16">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3046,7 +2962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S13 S15:S16">
+  <conditionalFormatting sqref="U12:U13 U15:U16">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3058,7 +2974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U13 U15:U16">
+  <conditionalFormatting sqref="V12:V13 V15:V16">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3070,7 +2986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V12:V13 V15:V16">
+  <conditionalFormatting sqref="I20:I22">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3082,19 +2998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I22">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H22">
+  <conditionalFormatting sqref="I18:I22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3106,7 +3010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I22">
+  <conditionalFormatting sqref="V18:V22">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3118,7 +3022,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V22">
+  <conditionalFormatting sqref="S18:S22">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3130,7 +3034,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S18:S22">
+  <conditionalFormatting sqref="R18:R22">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3142,7 +3046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R18:R22">
+  <conditionalFormatting sqref="L18:L22">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3154,7 +3058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L22">
+  <conditionalFormatting sqref="Q18:Q22">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3166,19 +3070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:Q22">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J9">
+  <conditionalFormatting sqref="I30:I34">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3190,7 +3082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I34">
+  <conditionalFormatting sqref="L30:L34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3202,7 +3094,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:L34">
+  <conditionalFormatting sqref="V30:V34">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3214,7 +3106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30:V34">
+  <conditionalFormatting sqref="Q30:Q34">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3226,7 +3118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30:Q34">
+  <conditionalFormatting sqref="R30:R34">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3238,20 +3130,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30:R34">
+  <conditionalFormatting sqref="S30:S34">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30:S34">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="conflicts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="44">
   <si>
     <t>saldo</t>
   </si>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:U26"/>
+  <dimension ref="B4:AL26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,9 +553,20 @@
     <col min="15" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.28515625" customWidth="1"/>
     <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" customWidth="1"/>
+    <col min="29" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
@@ -616,8 +627,53 @@
       <c r="U4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
@@ -678,8 +734,66 @@
       <c r="U5" s="5">
         <v>155.1901168112586</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X5" s="1">
+        <f>F5*G5</f>
+        <v>2755.9999999999968</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>38152.560480000007</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>$F5*I5</f>
+        <v>11809.999999999993</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" ref="AA5:AL5" si="0">$F5*J5</f>
+        <v>561.99999999999932</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="0"/>
+        <v>301170.60831999965</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>35.1</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="0"/>
+        <v>57.999999999999595</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" si="0"/>
+        <v>36.999999999999822</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="0"/>
+        <v>280.79999999999961</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" si="0"/>
+        <v>1426.9999999999791</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="0"/>
+        <v>4053.9999999999964</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" si="0"/>
+        <v>84147.896399999838</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" si="0"/>
+        <v>19.999999999999936</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="0"/>
+        <v>925.99999999999932</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="0"/>
+        <v>1742319.441439999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -740,8 +854,66 @@
       <c r="U6" s="5">
         <v>121.75934634857801</v>
       </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X6" s="1">
+        <f t="shared" ref="X6:X7" si="1">F6*G6</f>
+        <v>13184.999999999998</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>19630.4133</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" ref="Z6:Z7" si="2">$F6*I6</f>
+        <v>72433.899999999965</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" ref="AA6:AA7" si="3">$F6*J6</f>
+        <v>3061.9999999999977</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" ref="AB6:AB7" si="4">$F6*K6</f>
+        <v>4545100.8697499996</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>26.55</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" ref="AD6:AD7" si="5">$F6*M6</f>
+        <v>180.99999999999881</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" ref="AE6:AE7" si="6">$F6*N6</f>
+        <v>370.99999999999841</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" ref="AF6:AF7" si="7">$F6*O6</f>
+        <v>946.49999999999943</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" ref="AG6:AG7" si="8">$F6*P6</f>
+        <v>62942.999999999833</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" ref="AH6:AH7" si="9">$F6*Q6</f>
+        <v>215759.62000000002</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" ref="AI6:AI7" si="10">$F6*R6</f>
+        <v>8123823.1979999989</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" ref="AJ6:AJ7" si="11">$F6*S6</f>
+        <v>34.999999999999901</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" ref="AK6:AK7" si="12">$F6*T6</f>
+        <v>3724.9999999999991</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" ref="AL6:AL7" si="13">$F6*U6</f>
+        <v>12334587.063149998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -802,77 +974,260 @@
       <c r="U7" s="5">
         <v>137.9810431178384</v>
       </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X7" s="1">
+        <f t="shared" si="1"/>
+        <v>11757.999999999996</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>22921.057649999999</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="2"/>
+        <v>62011.799999999988</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="3"/>
+        <v>1842.9999999999984</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="4"/>
+        <v>4974586.5205499986</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>47.9</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="5"/>
+        <v>251.99999999999838</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="6"/>
+        <v>185.9999999999992</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="7"/>
+        <v>491.09999999999962</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="8"/>
+        <v>305598</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="9"/>
+        <v>64605.919999999955</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="10"/>
+        <v>891716.61600000004</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="11"/>
+        <v>37.999999999999901</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="12"/>
+        <v>4565.9999999999991</v>
+      </c>
+      <c r="AL7" s="1">
+        <f t="shared" si="13"/>
+        <v>8778491.9441999961</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ref="F9:U9" si="0">AVERAGE(F5:F7)</f>
+        <f t="shared" ref="F9:U9" si="14">AVERAGE(F5:F7)</f>
         <v>58716.999999999993</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0.18681564335698408</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>26901.343810000002</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0.91388570390790225</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>3.6417490580994437E-2</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>49.960971683666081</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>36.516666666666673</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>3.6379309114502635E-3</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>3.2938233580593473E-3</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>1.4024513522607722E-2</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>1.8506174289879558</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>1.1688063906689699</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>33.901507691368209</v>
       </c>
       <c r="S9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>9.0806833662219219E-4</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>6.3673122480590635E-2</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>138.31016875922501</v>
       </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X9" s="7">
+        <f t="shared" ref="X9:AL9" si="15">AVERAGE(X5:X7)</f>
+        <v>9232.9999999999982</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" si="15"/>
+        <v>26901.343810000002</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="15"/>
+        <v>48751.899999999987</v>
+      </c>
+      <c r="AA9" s="7">
+        <f t="shared" si="15"/>
+        <v>1822.3333333333319</v>
+      </c>
+      <c r="AB9" s="7">
+        <f t="shared" si="15"/>
+        <v>3273619.3328733328</v>
+      </c>
+      <c r="AC9" s="7">
+        <f t="shared" si="15"/>
+        <v>36.516666666666673</v>
+      </c>
+      <c r="AD9" s="7">
+        <f t="shared" si="15"/>
+        <v>163.66666666666561</v>
+      </c>
+      <c r="AE9" s="7">
+        <f t="shared" si="15"/>
+        <v>197.99999999999918</v>
+      </c>
+      <c r="AF9" s="7">
+        <f t="shared" si="15"/>
+        <v>572.79999999999961</v>
+      </c>
+      <c r="AG9" s="7">
+        <f t="shared" si="15"/>
+        <v>123322.66666666661</v>
+      </c>
+      <c r="AH9" s="7">
+        <f t="shared" si="15"/>
+        <v>94806.513333333321</v>
+      </c>
+      <c r="AI9" s="7">
+        <f t="shared" si="15"/>
+        <v>3033229.2367999996</v>
+      </c>
+      <c r="AJ9" s="7">
+        <f t="shared" si="15"/>
+        <v>30.999999999999915</v>
+      </c>
+      <c r="AK9" s="7">
+        <f t="shared" si="15"/>
+        <v>3072.3333333333321</v>
+      </c>
+      <c r="AL9" s="7">
+        <f t="shared" si="15"/>
+        <v>7618466.1495966641</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="X11" s="7">
+        <f>X9/$F9</f>
+        <v>0.15724577209326088</v>
+      </c>
+      <c r="Y11" s="7">
+        <f t="shared" ref="Y11:AL11" si="16">Y9/$F9</f>
+        <v>0.45815255905444768</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" si="16"/>
+        <v>0.83028594785155907</v>
+      </c>
+      <c r="AA11" s="7">
+        <f t="shared" si="16"/>
+        <v>3.1035872632003202E-2</v>
+      </c>
+      <c r="AB11" s="7">
+        <f t="shared" si="16"/>
+        <v>55.752496429881177</v>
+      </c>
+      <c r="AC11" s="7">
+        <f t="shared" si="16"/>
+        <v>6.2190961164001362E-4</v>
+      </c>
+      <c r="AD11" s="7">
+        <f t="shared" si="16"/>
+        <v>2.787381280832904E-3</v>
+      </c>
+      <c r="AE11" s="7">
+        <f t="shared" si="16"/>
+        <v>3.3721068855697531E-3</v>
+      </c>
+      <c r="AF11" s="7">
+        <f t="shared" si="16"/>
+        <v>9.7552667881533398E-3</v>
+      </c>
+      <c r="AG11" s="7">
+        <f t="shared" si="16"/>
+        <v>2.1002889566337966</v>
+      </c>
+      <c r="AH11" s="7">
+        <f t="shared" si="16"/>
+        <v>1.6146348303444205</v>
+      </c>
+      <c r="AI11" s="7">
+        <f t="shared" si="16"/>
+        <v>51.658450479418228</v>
+      </c>
+      <c r="AJ11" s="7">
+        <f t="shared" si="16"/>
+        <v>5.2795612854880051E-4</v>
+      </c>
+      <c r="AK11" s="7">
+        <f t="shared" si="16"/>
+        <v>5.2324426202519418E-2</v>
+      </c>
+      <c r="AL11" s="7">
+        <f t="shared" si="16"/>
+        <v>129.74889980068235</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -928,7 +1283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11635000</v>
       </c>
@@ -984,7 +1339,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>11635000</v>
       </c>
@@ -1040,7 +1395,7 @@
         <v>5.2670000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -1356,51 +1711,51 @@
         <v>5.8196666666666667E-2</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" ref="G25:R25" si="1">AVERAGE(G14,G17,G20)</f>
+        <f t="shared" ref="G25:R25" si="17">AVERAGE(G14,G17,G20)</f>
         <v>7.1566666666666667E-2</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>6.6796666666666671E-2</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>5.1953333333333331E-2</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>4.2540000000000001E-2</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>4.0973333333333334E-2</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>6.2136666666666673E-2</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>7.4543333333333336E-2</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>7.535E-2</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>6.9646666666666662E-2</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>0.13522000000000001</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>8.1633333333333336E-2</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>9.1553333333333334E-2</v>
       </c>
       <c r="S25" s="7">
@@ -1420,55 +1775,55 @@
         <v>6.5433333333333329E-2</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" ref="G26:S26" si="2">AVERAGE(G15,G18,G21)</f>
+        <f t="shared" ref="G26:S26" si="18">AVERAGE(G15,G18,G21)</f>
         <v>8.0166666666666664E-2</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>7.3579999999999993E-2</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>5.7373333333333332E-2</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>4.6416666666666662E-2</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>5.1016666666666662E-2</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>7.3390000000000011E-2</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>8.1316666666666676E-2</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>7.5023333333333331E-2</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>7.0103333333333337E-2</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0.12418666666666667</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>7.3910000000000003E-2</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>7.277666666666667E-2</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>5.5296666666666661E-2</v>
       </c>
     </row>
@@ -1554,7 +1909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="conflicts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="50">
   <si>
     <t>saldo</t>
   </si>
@@ -152,6 +152,24 @@
   </si>
   <si>
     <t>средний профиль</t>
+  </si>
+  <si>
+    <t>этнический</t>
+  </si>
+  <si>
+    <t>Бессоновский МР</t>
+  </si>
+  <si>
+    <t>2019 (2018)</t>
+  </si>
+  <si>
+    <t>2022 (2023)</t>
+  </si>
+  <si>
+    <t>2014 (2013)</t>
+  </si>
+  <si>
+    <t>Пугачевский МР</t>
   </si>
 </sst>
 </file>
@@ -161,12 +179,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,18 +246,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -243,13 +269,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,17 +559,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AL26"/>
+  <dimension ref="B4:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
@@ -920,8 +950,8 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1">
-        <v>2022</v>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="1">
         <v>975</v>
@@ -1034,6 +1064,9 @@
       </c>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1411,7 +1444,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>3623000</v>
       </c>
@@ -1467,7 +1500,7 @@
         <v>8.0600000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>3623000</v>
       </c>
@@ -1523,7 +1556,7 @@
         <v>5.8200000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1539,7 +1572,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>65722000</v>
       </c>
@@ -1595,7 +1628,7 @@
         <v>8.0699999999999994E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>65722000</v>
       </c>
@@ -1651,7 +1684,7 @@
         <v>5.5019999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -1667,7 +1700,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -1683,7 +1716,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -1699,7 +1732,10 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>43</v>
       </c>
@@ -1763,7 +1799,10 @@
         <v>7.7900000000000011E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>43</v>
       </c>
@@ -1827,8 +1866,218 @@
         <v>5.5296666666666661E-2</v>
       </c>
     </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-400</v>
+      </c>
+      <c r="F31" s="1">
+        <v>48561</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.13216367043512281</v>
+      </c>
+      <c r="H31" s="6">
+        <v>22502.496999999999</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.27060810115112938</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1.383826527460307E-2</v>
+      </c>
+      <c r="K31" s="5">
+        <v>29.993051069376651</v>
+      </c>
+      <c r="L31" s="5">
+        <v>30.14</v>
+      </c>
+      <c r="M31" s="5">
+        <v>2.1622289491567159E-3</v>
+      </c>
+      <c r="N31" s="5">
+        <v>2.4917114556948891E-3</v>
+      </c>
+      <c r="O31" s="5">
+        <v>1.190667408002305E-2</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.25711991103972193</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>1.9074271534770699</v>
+      </c>
+      <c r="R31" s="5">
+        <v>203.3529541525092</v>
+      </c>
+      <c r="S31" s="5">
+        <v>3.9126047651407418E-4</v>
+      </c>
+      <c r="T31" s="5">
+        <v>4.1473610510491948E-2</v>
+      </c>
+      <c r="U31" s="5">
+        <v>214.15723321986769</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="6">
+        <v>-136</v>
+      </c>
+      <c r="F32" s="6">
+        <v>59861.999999999993</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.1683705856803982</v>
+      </c>
+      <c r="H32" s="6">
+        <v>18717.5</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.44555644649360188</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1.9879055160201789E-2</v>
+      </c>
+      <c r="K32" s="5">
+        <v>20.074214025592191</v>
+      </c>
+      <c r="L32" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="M32" s="5">
+        <v>1.7707393672112409E-3</v>
+      </c>
+      <c r="N32" s="5">
+        <v>2.489058167117694E-3</v>
+      </c>
+      <c r="O32" s="5">
+        <v>1.0804851157662609E-2</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1.093247803280879</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1.183322976178544</v>
+      </c>
+      <c r="R32" s="5">
+        <v>72.625054291537197</v>
+      </c>
+      <c r="S32" s="5">
+        <v>7.1831879990644969E-4</v>
+      </c>
+      <c r="T32" s="5">
+        <v>4.6406735491630748E-2</v>
+      </c>
+      <c r="U32" s="5">
+        <v>45.439470782800392</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F14:S14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:S15">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:S17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1840,7 +2089,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:S15">
+  <conditionalFormatting sqref="F18:S18">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1852,7 +2101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:S17">
+  <conditionalFormatting sqref="F20:S20">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1864,32 +2113,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:S18">
+  <conditionalFormatting sqref="F21:S21">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:S20">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:S21">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1907,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:V34"/>
+  <dimension ref="C4:V44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,11 +2143,13 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3100,9 +3327,369 @@
         <v>137.9810431178384</v>
       </c>
     </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F40" s="6">
+        <v>-136</v>
+      </c>
+      <c r="G40" s="6">
+        <v>59861.999999999993</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.1683705856803982</v>
+      </c>
+      <c r="I40" s="6">
+        <v>18717.5</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.44555644649360188</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1.9879055160201789E-2</v>
+      </c>
+      <c r="L40" s="5">
+        <v>20.074214025592191</v>
+      </c>
+      <c r="M40" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1.7707393672112409E-3</v>
+      </c>
+      <c r="O40" s="5">
+        <v>2.489058167117694E-3</v>
+      </c>
+      <c r="P40" s="5">
+        <v>1.0804851157662609E-2</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>1.093247803280879</v>
+      </c>
+      <c r="R40" s="5">
+        <v>1.183322976178544</v>
+      </c>
+      <c r="S40" s="5">
+        <v>72.625054291537197</v>
+      </c>
+      <c r="T40" s="5">
+        <v>7.1831879990644969E-4</v>
+      </c>
+      <c r="U40" s="5">
+        <v>4.6406735491630748E-2</v>
+      </c>
+      <c r="V40" s="5">
+        <v>45.439470782800392</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F41" s="6">
+        <v>-131.99999999999989</v>
+      </c>
+      <c r="G41" s="6">
+        <v>59649</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.16354004258244059</v>
+      </c>
+      <c r="I41" s="6">
+        <v>16455.829679999999</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.46832805244010789</v>
+      </c>
+      <c r="K41" s="5">
+        <v>2.0452983285553811E-2</v>
+      </c>
+      <c r="L41" s="5">
+        <v>19.883605225066638</v>
+      </c>
+      <c r="M41" s="5">
+        <v>23.64</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1.810591962983442E-3</v>
+      </c>
+      <c r="O41" s="5">
+        <v>2.5817700212912098E-3</v>
+      </c>
+      <c r="P41" s="5">
+        <v>1.0752904491273941E-2</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0.94551459370651614</v>
+      </c>
+      <c r="R41" s="5">
+        <v>1.203360827507586</v>
+      </c>
+      <c r="S41" s="5">
+        <v>61.270966499019252</v>
+      </c>
+      <c r="T41" s="5">
+        <v>7.3764857751177563E-4</v>
+      </c>
+      <c r="U41" s="5">
+        <v>4.6572448825629928E-2</v>
+      </c>
+      <c r="V41" s="5">
+        <v>35.729470777548642</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F42" s="6">
+        <v>-338</v>
+      </c>
+      <c r="G42" s="6">
+        <v>59349</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.16355793694923251</v>
+      </c>
+      <c r="I42" s="6">
+        <v>16506.97249</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.47685049453234252</v>
+      </c>
+      <c r="K42" s="5">
+        <v>2.1230349289794261E-2</v>
+      </c>
+      <c r="L42" s="5">
+        <v>19.00027140659488</v>
+      </c>
+      <c r="M42" s="5">
+        <v>23.93</v>
+      </c>
+      <c r="N42" s="5">
+        <v>1.8197442248394969E-3</v>
+      </c>
+      <c r="O42" s="5">
+        <v>2.628519435879279E-3</v>
+      </c>
+      <c r="P42" s="5">
+        <v>1.370368498205529E-2</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>0.94261065898330221</v>
+      </c>
+      <c r="R42" s="5">
+        <v>1.032858683381354</v>
+      </c>
+      <c r="S42" s="5">
+        <v>92.807506382584336</v>
+      </c>
+      <c r="T42" s="5">
+        <v>7.2452779322313625E-4</v>
+      </c>
+      <c r="U42" s="5">
+        <v>4.6807865338927362E-2</v>
+      </c>
+      <c r="V42" s="5">
+        <v>54.735426532544722</v>
+      </c>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F43" s="6">
+        <v>-283.99999999999989</v>
+      </c>
+      <c r="G43" s="6">
+        <v>58748.999999999993</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.16527940901121721</v>
+      </c>
+      <c r="I43" s="6">
+        <v>16496.860799999999</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.46437896815264929</v>
+      </c>
+      <c r="K43" s="5">
+        <v>2.4170624180837111E-2</v>
+      </c>
+      <c r="L43" s="5">
+        <v>27.61631721612282</v>
+      </c>
+      <c r="M43" s="5">
+        <v>24.29</v>
+      </c>
+      <c r="N43" s="5">
+        <v>1.8553507293741049E-3</v>
+      </c>
+      <c r="O43" s="5">
+        <v>2.6213212139780989E-3</v>
+      </c>
+      <c r="P43" s="5">
+        <v>1.384874636164019E-2</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0.94990553030689784</v>
+      </c>
+      <c r="R43" s="5">
+        <v>1.0285073788490009</v>
+      </c>
+      <c r="S43" s="5">
+        <v>83.891458903130243</v>
+      </c>
+      <c r="T43" s="5">
+        <v>7.1490578563039218E-4</v>
+      </c>
+      <c r="U43" s="5">
+        <v>4.6383768234352918E-2</v>
+      </c>
+      <c r="V43" s="5">
+        <v>51.596050464348288</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F44" s="6">
+        <v>-200</v>
+      </c>
+      <c r="G44" s="6">
+        <v>58223</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.16632602236229671</v>
+      </c>
+      <c r="I44" s="6">
+        <v>17553.456320000001</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.51243838345670956</v>
+      </c>
+      <c r="K44" s="5">
+        <v>2.5247754323892601E-2</v>
+      </c>
+      <c r="L44" s="5">
+        <v>31.013134193016509</v>
+      </c>
+      <c r="M44" s="5">
+        <v>24.63</v>
+      </c>
+      <c r="N44" s="5">
+        <v>1.9236384246775211E-3</v>
+      </c>
+      <c r="O44" s="5">
+        <v>2.0266904831423918E-3</v>
+      </c>
+      <c r="P44" s="5">
+        <v>1.3973859127836059E-2</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>0.96616457413736812</v>
+      </c>
+      <c r="R44" s="5">
+        <v>1.006624529824983</v>
+      </c>
+      <c r="S44" s="5">
+        <v>71.350700176906003</v>
+      </c>
+      <c r="T44" s="5">
+        <v>6.6983838002163945E-4</v>
+      </c>
+      <c r="U44" s="5">
+        <v>4.7472648266149109E-2</v>
+      </c>
+      <c r="V44" s="5">
+        <v>64.228522375006435</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I5:I9">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3114,6 +3701,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L9">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q9">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R9">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3125,19 +3736,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q9">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R9">
+  <conditionalFormatting sqref="S5:S9">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V9">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I13 I15:I16">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3149,7 +3772,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S9">
+  <conditionalFormatting sqref="M12:M13 M15:M16">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3161,7 +3784,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V9">
+  <conditionalFormatting sqref="H12:H13 H15:H16">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J13 J15:J16">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:K13 K15:K16">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3173,7 +3820,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13 I15:I16">
+  <conditionalFormatting sqref="L12:L13 L15:L16">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N13 N15:N16">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3185,7 +3844,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M13 M15:M16">
+  <conditionalFormatting sqref="O12:O13 O15:O16">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3197,7 +3856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13 H15:H16">
+  <conditionalFormatting sqref="P12:P13 P15:P16">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3209,7 +3868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J13 J15:J16">
+  <conditionalFormatting sqref="Q12:Q13 Q15:Q16">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3221,7 +3880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K13 K15:K16">
+  <conditionalFormatting sqref="R12:R13 R15:R16">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3233,7 +3892,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L13 L15:L16">
+  <conditionalFormatting sqref="S12:S13 S15:S16">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3245,7 +3904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N13 N15:N16">
+  <conditionalFormatting sqref="U12:U13 U15:U16">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3257,7 +3916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O13 O15:O16">
+  <conditionalFormatting sqref="V12:V13 V15:V16">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3269,7 +3928,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P13 P15:P16">
+  <conditionalFormatting sqref="I20:I22">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3281,19 +3940,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13 Q15:Q16">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R13 R15:R16">
+  <conditionalFormatting sqref="I18:I22">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3305,7 +3952,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S13 S15:S16">
+  <conditionalFormatting sqref="V18:V22">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3317,7 +3964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U13 U15:U16">
+  <conditionalFormatting sqref="S18:S22">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3329,7 +3976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V12:V13 V15:V16">
+  <conditionalFormatting sqref="R18:R22">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3341,7 +3988,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I22">
+  <conditionalFormatting sqref="L18:L22">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3353,19 +4000,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V22">
+  <conditionalFormatting sqref="Q18:Q22">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:I34">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3377,7 +4024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S18:S22">
+  <conditionalFormatting sqref="L30:L34">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3389,7 +4036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R18:R22">
+  <conditionalFormatting sqref="V30:V34">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3401,7 +4048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L22">
+  <conditionalFormatting sqref="Q30:Q34">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3413,7 +4060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:Q22">
+  <conditionalFormatting sqref="R30:R34">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3425,19 +4072,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I34">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30:L34">
+  <conditionalFormatting sqref="S30:S34">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:I44">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3449,7 +4096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30:V34">
+  <conditionalFormatting sqref="L40:L44">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3461,7 +4108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30:Q34">
+  <conditionalFormatting sqref="V40:V44">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3473,7 +4120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30:R34">
+  <conditionalFormatting sqref="S40:S44">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3485,8 +4132,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30:S34">
+  <conditionalFormatting sqref="Q40:Q44">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R40:R44">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="conflicts" sheetId="1" r:id="rId1"/>
-    <sheet name="dynamics" sheetId="2" r:id="rId2"/>
+    <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
+    <sheet name="ethnic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="50">
   <si>
     <t>saldo</t>
   </si>
@@ -179,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +225,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,6 +285,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AL32"/>
+  <dimension ref="B4:AL51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:U32"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,131 +1939,1252 @@
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>46</v>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2018</v>
       </c>
       <c r="E31" s="1">
-        <v>-400</v>
+        <v>-151</v>
       </c>
       <c r="F31" s="1">
-        <v>48561</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0.13216367043512281</v>
+        <v>11226.999999999991</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.24547964727888119</v>
       </c>
       <c r="H31" s="6">
-        <v>22502.496999999999</v>
+        <v>38152.560480000007</v>
       </c>
       <c r="I31" s="5">
-        <v>0.27060810115112938</v>
+        <v>1.051928386924379</v>
       </c>
       <c r="J31" s="5">
-        <v>1.383826527460307E-2</v>
+        <v>5.005789614322613E-2</v>
       </c>
       <c r="K31" s="5">
-        <v>29.993051069376651</v>
+        <v>26.825564115079711</v>
       </c>
       <c r="L31" s="5">
-        <v>30.14</v>
+        <v>35.1</v>
       </c>
       <c r="M31" s="5">
-        <v>2.1622289491567159E-3</v>
+        <v>5.1661173955642329E-3</v>
       </c>
       <c r="N31" s="5">
-        <v>2.4917114556948891E-3</v>
+        <v>3.2956266144116729E-3</v>
       </c>
       <c r="O31" s="5">
-        <v>1.190667408002305E-2</v>
+        <v>2.5011133873697321E-2</v>
       </c>
       <c r="P31" s="5">
-        <v>0.25711991103972193</v>
+        <v>0.12710430212879489</v>
       </c>
       <c r="Q31" s="5">
-        <v>1.9074271534770699</v>
+        <v>0.36109379175202633</v>
       </c>
       <c r="R31" s="5">
-        <v>203.3529541525092</v>
+        <v>7.495136403313432</v>
       </c>
       <c r="S31" s="5">
-        <v>3.9126047651407418E-4</v>
+        <v>1.78141979157388E-3</v>
       </c>
       <c r="T31" s="5">
-        <v>4.1473610510491948E-2</v>
+        <v>8.2479736349870852E-2</v>
       </c>
       <c r="U31" s="5">
-        <v>214.15723321986769</v>
+        <v>155.1901168112586</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="6">
-        <v>-136</v>
-      </c>
-      <c r="F32" s="6">
-        <v>59861.999999999993</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0.1683705856803982</v>
+      <c r="B32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="9">
+        <f>D31+1</f>
+        <v>2019</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-103.9999999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10975.999999999991</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.26412172011661811</v>
       </c>
       <c r="H32" s="6">
-        <v>18717.5</v>
+        <v>40188.841560000001</v>
       </c>
       <c r="I32" s="5">
-        <v>0.44555644649360188</v>
+        <v>1.041390306122449</v>
       </c>
       <c r="J32" s="5">
-        <v>1.9879055160201789E-2</v>
+        <v>5.1202623906705519E-2</v>
       </c>
       <c r="K32" s="5">
-        <v>20.074214025592191</v>
+        <v>38.846618969569967</v>
       </c>
       <c r="L32" s="5">
-        <v>23.4</v>
+        <v>35.1</v>
       </c>
       <c r="M32" s="5">
-        <v>1.7707393672112409E-3</v>
+        <v>5.2842565597667297E-3</v>
       </c>
       <c r="N32" s="5">
-        <v>2.489058167117694E-3</v>
+        <v>4.0087463556851147E-3</v>
       </c>
       <c r="O32" s="5">
-        <v>1.0804851157662609E-2</v>
+        <v>2.5883746355685109E-2</v>
       </c>
       <c r="P32" s="5">
-        <v>1.093247803280879</v>
+        <v>0.1223578717201162</v>
       </c>
       <c r="Q32" s="5">
-        <v>1.183322976178544</v>
+        <v>0.36570699708454812</v>
       </c>
       <c r="R32" s="5">
-        <v>72.625054291537197</v>
+        <v>8.0551890761661724</v>
       </c>
       <c r="S32" s="5">
-        <v>7.1831879990644969E-4</v>
+        <v>1.8221574344023279E-3</v>
       </c>
       <c r="T32" s="5">
-        <v>4.6406735491630748E-2</v>
+        <v>7.6166180758017496E-2</v>
       </c>
       <c r="U32" s="5">
-        <v>45.439470782800392</v>
+        <v>192.3621306915087</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" ref="D33:D35" si="19">D32+1</f>
+        <v>2020</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-63</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10781</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.29691123272423708</v>
+      </c>
+      <c r="H33" s="6">
+        <v>42527.635199999997</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1.0827845283368891</v>
+      </c>
+      <c r="J33" s="5">
+        <v>5.9178183841944128E-2</v>
+      </c>
+      <c r="K33" s="5">
+        <v>44.046922756701598</v>
+      </c>
+      <c r="L33" s="5">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M33" s="5">
+        <v>5.56534644281603E-3</v>
+      </c>
+      <c r="N33" s="5">
+        <v>4.6377887023467028E-3</v>
+      </c>
+      <c r="O33" s="5">
+        <v>2.609219923940263E-2</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.114089602077729</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0.37770151191911677</v>
+      </c>
+      <c r="R33" s="5">
+        <v>6.8356837399127786</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1.855115480938685E-3</v>
+      </c>
+      <c r="T33" s="5">
+        <v>7.5874223170392358E-2</v>
+      </c>
+      <c r="U33" s="5">
+        <v>193.49202203135141</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="19"/>
+        <v>2021</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-189</v>
+      </c>
+      <c r="F34" s="1">
+        <v>10622</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.2909998117115421</v>
+      </c>
+      <c r="H34" s="6">
+        <v>39098.872060000002</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1.1452645452833741</v>
+      </c>
+      <c r="J34" s="5">
+        <v>5.0273018263980389E-2</v>
+      </c>
+      <c r="K34" s="5">
+        <v>49.976597689700633</v>
+      </c>
+      <c r="L34" s="5">
+        <v>36.9</v>
+      </c>
+      <c r="M34" s="5">
+        <v>5.4603652796083261E-3</v>
+      </c>
+      <c r="N34" s="5">
+        <v>4.6130672189794572E-3</v>
+      </c>
+      <c r="O34" s="5">
+        <v>2.648277160610053E-2</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.16239879495386761</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0.36414987761250212</v>
+      </c>
+      <c r="R34" s="5">
+        <v>6.9253979664846144</v>
+      </c>
+      <c r="S34" s="5">
+        <v>1.882884579175292E-3</v>
+      </c>
+      <c r="T34" s="5">
+        <v>7.7009979288269623E-2</v>
+      </c>
+      <c r="U34" s="5">
+        <v>324.06683953116169</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="19"/>
+        <v>2022</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-145.99999999999989</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10321</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.25937409165778508</v>
+      </c>
+      <c r="H35" s="6">
+        <v>34020.492150000013</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1.180680166650518</v>
+      </c>
+      <c r="J35" s="5">
+        <v>4.8832477473113048E-2</v>
+      </c>
+      <c r="K35" s="5">
+        <v>48.568372207150468</v>
+      </c>
+      <c r="L35" s="5">
+        <v>39.4</v>
+      </c>
+      <c r="M35" s="5">
+        <v>5.7165003391143922E-3</v>
+      </c>
+      <c r="N35" s="5">
+        <v>4.9413816490649926E-3</v>
+      </c>
+      <c r="O35" s="5">
+        <v>2.7400445693246761E-2</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.123437651390368</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0.37428543745761073</v>
+      </c>
+      <c r="R35" s="5">
+        <v>5.3667613603332702</v>
+      </c>
+      <c r="S35" s="5">
+        <v>1.9377967251235301E-3</v>
+      </c>
+      <c r="T35" s="5">
+        <v>7.4702063753512252E-2</v>
+      </c>
+      <c r="U35" s="5">
+        <v>123.02946509543639</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E39" s="1">
+        <v>366</v>
+      </c>
+      <c r="F39" s="1">
+        <v>104868</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.12923866193691119</v>
+      </c>
+      <c r="H39" s="6">
+        <v>21774.82372</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.55524087424190405</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2.3753671281992579E-2</v>
+      </c>
+      <c r="K39" s="5">
+        <v>41.83570650074379</v>
+      </c>
+      <c r="L39" s="5">
+        <v>23.7</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1.792729908074902E-3</v>
+      </c>
+      <c r="N39" s="5">
+        <v>3.22309951558148E-3</v>
+      </c>
+      <c r="O39" s="5">
+        <v>9.0799862684517608E-3</v>
+      </c>
+      <c r="P39" s="5">
+        <v>7.41546515619636</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>1.6437559598733651</v>
+      </c>
+      <c r="R39" s="5">
+        <v>83.436602513636146</v>
+      </c>
+      <c r="S39" s="5">
+        <v>3.3375290841820111E-4</v>
+      </c>
+      <c r="T39" s="5">
+        <v>3.5520845253080059E-2</v>
+      </c>
+      <c r="U39" s="5">
+        <v>103.97836369378641</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1">
+        <f>D39+1</f>
+        <v>2019</v>
+      </c>
+      <c r="E40" s="1">
+        <v>162</v>
+      </c>
+      <c r="F40" s="1">
+        <v>104887</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.12524907757872761</v>
+      </c>
+      <c r="H40" s="6">
+        <v>22273.591049999999</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.59726848894524565</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2.7238837987548489E-2</v>
+      </c>
+      <c r="K40" s="5">
+        <v>46.477940552404007</v>
+      </c>
+      <c r="L40" s="5">
+        <v>24.3</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1.792405159838672E-3</v>
+      </c>
+      <c r="N40" s="5">
+        <v>3.0318342597271219E-3</v>
+      </c>
+      <c r="O40" s="5">
+        <v>9.0135097771887728E-3</v>
+      </c>
+      <c r="P40" s="5">
+        <v>8.4583599492787478</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>1.6687082288558159</v>
+      </c>
+      <c r="R40" s="5">
+        <v>90.032854400450006</v>
+      </c>
+      <c r="S40" s="5">
+        <v>3.336924499699669E-4</v>
+      </c>
+      <c r="T40" s="5">
+        <v>3.5514410746803712E-2</v>
+      </c>
+      <c r="U40" s="5">
+        <v>116.9703480519988</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E41" s="1">
+        <v>274</v>
+      </c>
+      <c r="F41" s="1">
+        <v>104592</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.12624292488909281</v>
+      </c>
+      <c r="H41" s="6">
+        <v>22054.816080000001</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.65259962521034098</v>
+      </c>
+      <c r="J41" s="5">
+        <v>2.6082300749579301E-2</v>
+      </c>
+      <c r="K41" s="5">
+        <v>44.6939184465351</v>
+      </c>
+      <c r="L41" s="5">
+        <v>24.8</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1.807021569527294E-3</v>
+      </c>
+      <c r="N41" s="5">
+        <v>2.849166284228228E-3</v>
+      </c>
+      <c r="O41" s="5">
+        <v>9.1068150527764905E-3</v>
+      </c>
+      <c r="P41" s="5">
+        <v>5.9626548875631027</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>1.9119446037937891</v>
+      </c>
+      <c r="R41" s="5">
+        <v>99.140991877007764</v>
+      </c>
+      <c r="S41" s="5">
+        <v>3.3463362398653739E-4</v>
+      </c>
+      <c r="T41" s="5">
+        <v>3.5614578552852993E-2</v>
+      </c>
+      <c r="U41" s="5">
+        <v>113.8009073129876</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E42" s="1">
+        <v>682</v>
+      </c>
+      <c r="F42" s="1">
+        <v>104087</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.12942058086024191</v>
+      </c>
+      <c r="H42" s="6">
+        <v>21098.202539999998</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.67966028418534485</v>
+      </c>
+      <c r="J42" s="5">
+        <v>2.6910180906357169E-2</v>
+      </c>
+      <c r="K42" s="5">
+        <v>46.062382042618189</v>
+      </c>
+      <c r="L42" s="5">
+        <v>25.2</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1.8253960629089001E-3</v>
+      </c>
+      <c r="N42" s="5">
+        <v>3.0935659592456191E-3</v>
+      </c>
+      <c r="O42" s="5">
+        <v>9.1404306013238793E-3</v>
+      </c>
+      <c r="P42" s="5">
+        <v>5.9230931816653376</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>1.909571800513032</v>
+      </c>
+      <c r="R42" s="5">
+        <v>99.217091574356033</v>
+      </c>
+      <c r="S42" s="5">
+        <v>3.3625716948321968E-4</v>
+      </c>
+      <c r="T42" s="5">
+        <v>3.5835406919211797E-2</v>
+      </c>
+      <c r="U42" s="5">
+        <v>124.7215645498477</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2022</v>
+      </c>
+      <c r="E43" s="6">
+        <v>230.99999999999989</v>
+      </c>
+      <c r="F43" s="6">
+        <v>101303</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.1301540921789088</v>
+      </c>
+      <c r="H43" s="6">
+        <v>19630.4133</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.71502225995281454</v>
+      </c>
+      <c r="J43" s="5">
+        <v>3.0226153223497799E-2</v>
+      </c>
+      <c r="K43" s="5">
+        <v>44.866399511860457</v>
+      </c>
+      <c r="L43" s="5">
+        <v>26.55</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1.7867190507684749E-3</v>
+      </c>
+      <c r="N43" s="5">
+        <v>3.6622804852768269E-3</v>
+      </c>
+      <c r="O43" s="5">
+        <v>9.3432573566429363E-3</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0.62133401774873231</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>2.1298443284009361</v>
+      </c>
+      <c r="R43" s="5">
+        <v>80.193313110174415</v>
+      </c>
+      <c r="S43" s="5">
+        <v>3.4549815898838042E-4</v>
+      </c>
+      <c r="T43" s="5">
+        <v>3.6770875492334869E-2</v>
+      </c>
+      <c r="U43" s="5">
+        <v>121.75934634857801</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-174</v>
+      </c>
+      <c r="F47" s="1">
+        <v>62285</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.1843300955286184</v>
+      </c>
+      <c r="H47" s="6">
+        <v>23722.23559</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.70405394557277023</v>
+      </c>
+      <c r="J47" s="5">
+        <v>2.5158545396162781E-2</v>
+      </c>
+      <c r="K47" s="5">
+        <v>49.705922240667903</v>
+      </c>
+      <c r="L47" s="5">
+        <v>38.08</v>
+      </c>
+      <c r="M47" s="5">
+        <v>4.6399614674479924E-3</v>
+      </c>
+      <c r="N47" s="5">
+        <v>2.5848920285782991E-3</v>
+      </c>
+      <c r="O47" s="5">
+        <v>7.6053624468170418E-3</v>
+      </c>
+      <c r="P47" s="5">
+        <v>4.1744721843140402</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>2.1145545476438952</v>
+      </c>
+      <c r="R47" s="5">
+        <v>27.909615021273179</v>
+      </c>
+      <c r="S47" s="5">
+        <v>5.6193304969093564E-4</v>
+      </c>
+      <c r="T47" s="5">
+        <v>7.7145380107570036E-2</v>
+      </c>
+      <c r="U47" s="5">
+        <v>151.97994264622301</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-226</v>
+      </c>
+      <c r="F48" s="1">
+        <v>62095</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.18400837426523869</v>
+      </c>
+      <c r="H48" s="6">
+        <v>25215.29996</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.72163620259280137</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2.5235526209839751E-2</v>
+      </c>
+      <c r="K48" s="5">
+        <v>65.087287814477833</v>
+      </c>
+      <c r="L48" s="5">
+        <v>39.35</v>
+      </c>
+      <c r="M48" s="5">
+        <v>4.7024720186810247E-3</v>
+      </c>
+      <c r="N48" s="5">
+        <v>2.6250100652226321E-3</v>
+      </c>
+      <c r="O48" s="5">
+        <v>7.6286335453740117E-3</v>
+      </c>
+      <c r="P48" s="5">
+        <v>4.5825750865609143</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>1.9810781866494891</v>
+      </c>
+      <c r="R48" s="5">
+        <v>27.674213711248889</v>
+      </c>
+      <c r="S48" s="5">
+        <v>5.9586118044931016E-4</v>
+      </c>
+      <c r="T48" s="5">
+        <v>7.9088493437474844E-2</v>
+      </c>
+      <c r="U48" s="5">
+        <v>181.50892349786611</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E49" s="1">
+        <v>410.99999999999989</v>
+      </c>
+      <c r="F49" s="1">
+        <v>61897.000000000007</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.18803819248105719</v>
+      </c>
+      <c r="H49" s="6">
+        <v>25807.079600000001</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.73187715075044013</v>
+      </c>
+      <c r="J49" s="5">
+        <v>2.6124044784076761E-2</v>
+      </c>
+      <c r="K49" s="5">
+        <v>73.524101455159382</v>
+      </c>
+      <c r="L49" s="5">
+        <v>41.49</v>
+      </c>
+      <c r="M49" s="5">
+        <v>3.7320063977252299E-3</v>
+      </c>
+      <c r="N49" s="5">
+        <v>2.6818747273696518E-3</v>
+      </c>
+      <c r="O49" s="5">
+        <v>7.6885794141880789E-3</v>
+      </c>
+      <c r="P49" s="5">
+        <v>4.5936636670597917</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>1.798357917185001</v>
+      </c>
+      <c r="R49" s="5">
+        <v>28.663272890447001</v>
+      </c>
+      <c r="S49" s="5">
+        <v>5.9776725851010419E-4</v>
+      </c>
+      <c r="T49" s="5">
+        <v>7.9406110150734288E-2</v>
+      </c>
+      <c r="U49" s="5">
+        <v>174.8046333148618</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E50" s="1">
+        <v>947</v>
+      </c>
+      <c r="F50" s="1">
+        <v>62157</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.1923033608443136</v>
+      </c>
+      <c r="H50" s="6">
+        <v>28223.238239999999</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.89260742957349914</v>
+      </c>
+      <c r="J50" s="5">
+        <v>2.7848834403204781E-2</v>
+      </c>
+      <c r="K50" s="5">
+        <v>81.158354302813848</v>
+      </c>
+      <c r="L50" s="5">
+        <v>42.74</v>
+      </c>
+      <c r="M50" s="5">
+        <v>4.0220731373779052E-3</v>
+      </c>
+      <c r="N50" s="5">
+        <v>2.81545119616454E-3</v>
+      </c>
+      <c r="O50" s="5">
+        <v>7.6564184243126223E-3</v>
+      </c>
+      <c r="P50" s="5">
+        <v>4.3867786411828114</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>1.486720240680856</v>
+      </c>
+      <c r="R50" s="5">
+        <v>25.929583203822549</v>
+      </c>
+      <c r="S50" s="5">
+        <v>6.1135511688144382E-4</v>
+      </c>
+      <c r="T50" s="5">
+        <v>7.9090046173399611E-2</v>
+      </c>
+      <c r="U50" s="5">
+        <v>291.37254943192238</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E51" s="1">
+        <v>975</v>
+      </c>
+      <c r="F51" s="1">
+        <v>63620.999999999993</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.18481319061316229</v>
+      </c>
+      <c r="H51" s="6">
+        <v>22921.057649999999</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.97470646484651291</v>
+      </c>
+      <c r="J51" s="5">
+        <v>2.8968422376259389E-2</v>
+      </c>
+      <c r="K51" s="5">
+        <v>78.190951424058085</v>
+      </c>
+      <c r="L51" s="5">
+        <v>47.9</v>
+      </c>
+      <c r="M51" s="5">
+        <v>3.9609562880180823E-3</v>
+      </c>
+      <c r="N51" s="5">
+        <v>2.9235629744895431E-3</v>
+      </c>
+      <c r="O51" s="5">
+        <v>7.7191493374829017E-3</v>
+      </c>
+      <c r="P51" s="5">
+        <v>4.8034139670863398</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>1.015481051853947</v>
+      </c>
+      <c r="R51" s="5">
+        <v>14.01607356061678</v>
+      </c>
+      <c r="S51" s="5">
+        <v>5.9728705930431629E-4</v>
+      </c>
+      <c r="T51" s="5">
+        <v>7.1768755599566178E-2</v>
+      </c>
+      <c r="U51" s="5">
+        <v>137.9810431178384</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:S14">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:S15">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:S17">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:S18">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:S20">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:S21">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H35">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:K35">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31:P35">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31:Q35">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31:R35">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31:U35">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H43">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H43">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U39:U43">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R39:R43">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q39:Q43">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:K43">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2065,7 +3196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:S15">
+  <conditionalFormatting sqref="P39:P43">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2077,7 +3208,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:S17">
+  <conditionalFormatting sqref="H47:H51">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2089,7 +3220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:S18">
+  <conditionalFormatting sqref="K47:K51">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2101,7 +3232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:S20">
+  <conditionalFormatting sqref="U47:U51">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2113,8 +3244,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:S21">
+  <conditionalFormatting sqref="P47:P51">
     <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q47:Q51">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R47:R51">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2132,17 +3287,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:V44"/>
+  <dimension ref="C4:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
@@ -2151,9 +3306,10 @@
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
     <col min="13" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2214,337 +3370,633 @@
       <c r="V4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2018</v>
+      <c r="X4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="1">
-        <v>-151</v>
+        <v>-400</v>
       </c>
       <c r="G5" s="1">
-        <v>11226.999999999991</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.24547964727888119</v>
+        <v>48561</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.13216367043512281</v>
       </c>
       <c r="I5" s="6">
-        <v>38152.560480000007</v>
+        <v>22502.496999999999</v>
       </c>
       <c r="J5" s="5">
-        <v>1.051928386924379</v>
+        <v>0.27060810115112938</v>
       </c>
       <c r="K5" s="5">
-        <v>5.005789614322613E-2</v>
+        <v>1.383826527460307E-2</v>
       </c>
       <c r="L5" s="5">
-        <v>26.825564115079711</v>
+        <v>29.993051069376651</v>
       </c>
       <c r="M5" s="5">
-        <v>35.1</v>
+        <v>30.14</v>
       </c>
       <c r="N5" s="5">
-        <v>5.1661173955642329E-3</v>
+        <v>2.1622289491567159E-3</v>
       </c>
       <c r="O5" s="5">
-        <v>3.2956266144116729E-3</v>
+        <v>2.4917114556948891E-3</v>
       </c>
       <c r="P5" s="5">
-        <v>2.5011133873697321E-2</v>
+        <v>1.190667408002305E-2</v>
       </c>
       <c r="Q5" s="5">
-        <v>0.12710430212879489</v>
+        <v>0.25711991103972193</v>
       </c>
       <c r="R5" s="5">
-        <v>0.36109379175202633</v>
+        <v>1.9074271534770699</v>
       </c>
       <c r="S5" s="5">
-        <v>7.495136403313432</v>
+        <v>203.3529541525092</v>
       </c>
       <c r="T5" s="5">
-        <v>1.78141979157388E-3</v>
+        <v>3.9126047651407418E-4</v>
       </c>
       <c r="U5" s="5">
-        <v>8.2479736349870852E-2</v>
+        <v>4.1473610510491948E-2</v>
       </c>
       <c r="V5" s="5">
-        <v>155.1901168112586</v>
-      </c>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9">
-        <f>E5+1</f>
+        <v>214.15723321986769</v>
+      </c>
+      <c r="X5" s="1">
+        <f>$G5*H5</f>
+        <v>6417.9999999999991</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>22502.496999999999</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" ref="Y5:AL5" si="0">$G5*J5</f>
+        <v>13140.999999999995</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="0"/>
+        <v>671.99999999999966</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="0"/>
+        <v>1456492.5529799995</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>30.14</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="0"/>
+        <v>104.99999999999928</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" si="0"/>
+        <v>120.99999999999952</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="0"/>
+        <v>578.19999999999936</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" si="0"/>
+        <v>12485.999999999936</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="0"/>
+        <v>92626.569999999992</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" si="0"/>
+        <v>9875022.8065999988</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" si="0"/>
+        <v>18.999999999999957</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="0"/>
+        <v>2013.9999999999995</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="0"/>
+        <v>10399689.402389996</v>
+      </c>
+    </row>
+    <row r="6" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-136</v>
+      </c>
+      <c r="G6" s="6">
+        <v>59861.999999999993</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.1683705856803982</v>
+      </c>
+      <c r="I6" s="6">
+        <v>18717.5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.44555644649360188</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1.9879055160201789E-2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>20.074214025592191</v>
+      </c>
+      <c r="M6" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1.7707393672112409E-3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>2.489058167117694E-3</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1.0804851157662609E-2</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1.093247803280879</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1.183322976178544</v>
+      </c>
+      <c r="S6" s="5">
+        <v>72.625054291537197</v>
+      </c>
+      <c r="T6" s="5">
+        <v>7.1831879990644969E-4</v>
+      </c>
+      <c r="U6" s="5">
+        <v>4.6406735491630748E-2</v>
+      </c>
+      <c r="V6" s="5">
+        <v>45.439470782800392</v>
+      </c>
+      <c r="X6" s="1">
+        <f>$G6*H6</f>
+        <v>10078.999999999996</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>18717.5</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" ref="Z6" si="1">$G6*J6</f>
+        <v>26671.899999999991</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" ref="AA6" si="2">$G6*K6</f>
+        <v>1189.9999999999993</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" ref="AB6" si="3">$G6*L6</f>
+        <v>1201682.5999999996</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" ref="AD6" si="4">$G6*N6</f>
+        <v>105.99999999999929</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" ref="AE6" si="5">$G6*O6</f>
+        <v>148.99999999999937</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" ref="AF6" si="6">$G6*P6</f>
+        <v>646.79999999999905</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" ref="AG6" si="7">$G6*Q6</f>
+        <v>65443.999999999971</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" ref="AH6" si="8">$G6*R6</f>
+        <v>70836.079999999987</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" ref="AI6" si="9">$G6*S6</f>
+        <v>4347480.9999999991</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" ref="AJ6" si="10">$G6*T6</f>
+        <v>42.999999999999886</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" ref="AK6" si="11">$G6*U6</f>
+        <v>2777.9999999999995</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" ref="AL6" si="12">$G6*V6</f>
+        <v>2720097.5999999968</v>
+      </c>
+    </row>
+    <row r="8" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <f>AVERAGE(G5:G6)</f>
+        <v>54211.5</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="X8" s="1">
+        <f>AVERAGE(X5:X6)</f>
+        <v>8248.4999999999982</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" ref="Y8:AL10" si="13">AVERAGE(Y5:Y6)</f>
+        <v>20609.998500000002</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="13"/>
+        <v>19906.449999999993</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="13"/>
+        <v>930.99999999999955</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="13"/>
+        <v>1329087.5764899994</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="13"/>
+        <v>26.77</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="13"/>
+        <v>105.49999999999929</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="13"/>
+        <v>134.99999999999943</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="13"/>
+        <v>612.4999999999992</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="13"/>
+        <v>38964.999999999956</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="13"/>
+        <v>81731.324999999983</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="13"/>
+        <v>7111251.9032999985</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="13"/>
+        <v>30.999999999999922</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="13"/>
+        <v>2395.9999999999995</v>
+      </c>
+      <c r="AL8" s="1">
+        <f t="shared" si="13"/>
+        <v>6559893.5011949968</v>
+      </c>
+    </row>
+    <row r="9" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" s="1">
+        <f>X8/$G8</f>
+        <v>0.15215406325226194</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="13"/>
+        <v>20609.998500000002</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" ref="Y10:AL10" si="14">Z8/$G8</f>
+        <v>0.3671997638877359</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="14"/>
+        <v>1.7173477952095027E-2</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="14"/>
+        <v>24.516709120574038</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" si="13"/>
+        <v>26.77</v>
+      </c>
+      <c r="AD10" s="1">
+        <f t="shared" si="14"/>
+        <v>1.946081550962421E-3</v>
+      </c>
+      <c r="AE10" s="1">
+        <f t="shared" si="14"/>
+        <v>2.4902465344068957E-3</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="14"/>
+        <v>1.1298340757957246E-2</v>
+      </c>
+      <c r="AG10" s="1">
+        <f t="shared" si="14"/>
+        <v>0.71875893491233334</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="14"/>
+        <v>1.5076381395091445</v>
+      </c>
+      <c r="AI10" s="1">
+        <f t="shared" si="14"/>
+        <v>131.17607709249879</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f t="shared" si="14"/>
+        <v>5.7183438938232523E-4</v>
+      </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="14"/>
+        <v>4.4197264418066269E-2</v>
+      </c>
+      <c r="AL10" s="1">
+        <f t="shared" si="14"/>
+        <v>121.00557079577206</v>
+      </c>
+    </row>
+    <row r="11" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>56613000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
         <v>2019</v>
       </c>
-      <c r="F6" s="1">
-        <v>-103.9999999999999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>10975.999999999991</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.26412172011661811</v>
-      </c>
-      <c r="I6" s="6">
-        <v>40188.841560000001</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1.041390306122449</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5.1202623906705519E-2</v>
-      </c>
-      <c r="L6" s="5">
-        <v>38.846618969569967</v>
-      </c>
-      <c r="M6" s="5">
-        <v>35.1</v>
-      </c>
-      <c r="N6" s="5">
-        <v>5.2842565597667297E-3</v>
-      </c>
-      <c r="O6" s="5">
-        <v>4.0087463556851147E-3</v>
-      </c>
-      <c r="P6" s="5">
-        <v>2.5883746355685109E-2</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0.1223578717201162</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0.36570699708454812</v>
-      </c>
-      <c r="S6" s="5">
-        <v>8.0551890761661724</v>
-      </c>
-      <c r="T6" s="5">
-        <v>1.8221574344023279E-3</v>
-      </c>
-      <c r="U6" s="5">
-        <v>7.6166180758017496E-2</v>
-      </c>
-      <c r="V6" s="5">
-        <v>192.3621306915087</v>
-      </c>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" ref="E7:E9" si="0">E6+1</f>
-        <v>2020</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-63</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10781</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.29691123272423708</v>
-      </c>
-      <c r="I7" s="6">
-        <v>42527.635199999997</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1.0827845283368891</v>
-      </c>
-      <c r="K7" s="5">
-        <v>5.9178183841944128E-2</v>
-      </c>
-      <c r="L7" s="5">
-        <v>44.046922756701598</v>
-      </c>
-      <c r="M7" s="5">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="N7" s="5">
-        <v>5.56534644281603E-3</v>
-      </c>
-      <c r="O7" s="5">
-        <v>4.6377887023467028E-3</v>
-      </c>
-      <c r="P7" s="5">
-        <v>2.609219923940263E-2</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0.114089602077729</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0.37770151191911677</v>
-      </c>
-      <c r="S7" s="5">
-        <v>6.8356837399127786</v>
-      </c>
-      <c r="T7" s="5">
-        <v>1.855115480938685E-3</v>
-      </c>
-      <c r="U7" s="5">
-        <v>7.5874223170392358E-2</v>
-      </c>
-      <c r="V7" s="5">
-        <v>193.49202203135141</v>
-      </c>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-189</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10622</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.2909998117115421</v>
-      </c>
-      <c r="I8" s="6">
-        <v>39098.872060000002</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1.1452645452833741</v>
-      </c>
-      <c r="K8" s="5">
-        <v>5.0273018263980389E-2</v>
-      </c>
-      <c r="L8" s="5">
-        <v>49.976597689700633</v>
-      </c>
-      <c r="M8" s="5">
-        <v>36.9</v>
-      </c>
-      <c r="N8" s="5">
-        <v>5.4603652796083261E-3</v>
-      </c>
-      <c r="O8" s="5">
-        <v>4.6130672189794572E-3</v>
-      </c>
-      <c r="P8" s="5">
-        <v>2.648277160610053E-2</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0.16239879495386761</v>
-      </c>
-      <c r="R8" s="5">
-        <v>0.36414987761250212</v>
-      </c>
-      <c r="S8" s="5">
-        <v>6.9253979664846144</v>
-      </c>
-      <c r="T8" s="5">
-        <v>1.882884579175292E-3</v>
-      </c>
-      <c r="U8" s="5">
-        <v>7.7009979288269623E-2</v>
-      </c>
-      <c r="V8" s="5">
-        <v>324.06683953116169</v>
-      </c>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-145.99999999999989</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10321</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.25937409165778508</v>
-      </c>
-      <c r="I9" s="6">
-        <v>34020.492150000013</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1.180680166650518</v>
-      </c>
-      <c r="K9" s="5">
-        <v>4.8832477473113048E-2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>48.568372207150468</v>
-      </c>
-      <c r="M9" s="5">
-        <v>39.4</v>
-      </c>
-      <c r="N9" s="5">
-        <v>5.7165003391143922E-3</v>
-      </c>
-      <c r="O9" s="5">
-        <v>4.9413816490649926E-3</v>
-      </c>
-      <c r="P9" s="5">
-        <v>2.7400445693246761E-2</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.123437651390368</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0.37428543745761073</v>
-      </c>
-      <c r="S9" s="5">
-        <v>5.3667613603332702</v>
-      </c>
-      <c r="T9" s="5">
-        <v>1.9377967251235301E-3</v>
-      </c>
-      <c r="U9" s="5">
-        <v>7.4702063753512252E-2</v>
-      </c>
-      <c r="V9" s="5">
-        <v>123.02946509543639</v>
-      </c>
-    </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="H12" s="1"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="G11" s="7">
+        <v>5.5329999999999997E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5.4960000000000002E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>4.0250000000000001E-2</v>
+      </c>
+      <c r="L11" s="7">
+        <v>5.5660000000000001E-2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <v>7.0739999999999997E-2</v>
+      </c>
+      <c r="P11" s="7">
+        <v>6.4449999999999993E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="R11" s="7">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="S11" s="7">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="T11" s="7">
+        <v>7.5560000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>56613000</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4.938E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="L12" s="7">
+        <v>6.0729999999999999E-2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9.0149999999999994E-2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="O12" s="7">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="P12" s="7">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="R12" s="7">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="S12" s="7">
+        <v>7.4160000000000004E-2</v>
+      </c>
+      <c r="T12" s="7">
+        <v>5.7099999999999998E-2</v>
+      </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:38" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
@@ -2561,27 +4013,121 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+    <row r="14" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>63637000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5.8259999999999999E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5.9630000000000002E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5.1119999999999999E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>5.3339999999999999E-2</v>
+      </c>
+      <c r="L14" s="7">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7.46E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="O14" s="7">
+        <v>6.5729999999999997E-2</v>
+      </c>
+      <c r="P14" s="7">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="R14" s="7">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="S14" s="7">
+        <v>7.0739999999999997E-2</v>
+      </c>
+      <c r="T14" s="7">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>63637000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G15" s="7">
+        <v>5.8840000000000003E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>5.5359999999999999E-2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>8.856E-2</v>
+      </c>
+      <c r="M15" s="7">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>8.3860000000000004E-2</v>
+      </c>
+      <c r="O15" s="7">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="P15" s="7">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.1512</v>
+      </c>
+      <c r="R15" s="7">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="S15" s="7">
+        <v>5.7770000000000002E-2</v>
+      </c>
+      <c r="T15" s="7">
+        <v>2.9919999999999999E-2</v>
+      </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:38" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
@@ -2599,1108 +4145,585 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F18" s="1">
-        <v>366</v>
-      </c>
-      <c r="G18" s="1">
-        <v>104868</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0.12923866193691119</v>
-      </c>
-      <c r="I18" s="6">
-        <v>21774.82372</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0.55524087424190405</v>
-      </c>
-      <c r="K18" s="5">
-        <v>2.3753671281992579E-2</v>
-      </c>
-      <c r="L18" s="5">
-        <v>41.83570650074379</v>
-      </c>
-      <c r="M18" s="5">
-        <v>23.7</v>
-      </c>
-      <c r="N18" s="5">
-        <v>1.792729908074902E-3</v>
-      </c>
-      <c r="O18" s="5">
-        <v>3.22309951558148E-3</v>
-      </c>
-      <c r="P18" s="5">
-        <v>9.0799862684517608E-3</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>7.41546515619636</v>
-      </c>
-      <c r="R18" s="5">
-        <v>1.6437559598733651</v>
-      </c>
-      <c r="S18" s="5">
-        <v>83.436602513636146</v>
-      </c>
-      <c r="T18" s="5">
-        <v>3.3375290841820111E-4</v>
-      </c>
-      <c r="U18" s="5">
-        <v>3.5520845253080059E-2</v>
-      </c>
-      <c r="V18" s="5">
-        <v>103.97836369378641</v>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7">
+        <f>AVERAGE(G14,G11)</f>
+        <v>5.6794999999999998E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:T18" si="15">AVERAGE(H14,H11)</f>
+        <v>5.8865000000000001E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="15"/>
+        <v>5.3040000000000004E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="15"/>
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="15"/>
+        <v>4.6795000000000003E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="15"/>
+        <v>6.498000000000001E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="15"/>
+        <v>7.8550000000000009E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="15"/>
+        <v>7.5250000000000011E-2</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="15"/>
+        <v>6.823499999999999E-2</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="15"/>
+        <v>6.7674999999999999E-2</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="15"/>
+        <v>0.15275</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="15"/>
+        <v>8.8650000000000007E-2</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="15"/>
+        <v>8.1320000000000003E-2</v>
+      </c>
+      <c r="T18" s="7">
+        <f t="shared" si="15"/>
+        <v>5.9730000000000005E-2</v>
       </c>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1">
-        <f>E18+1</f>
-        <v>2019</v>
-      </c>
-      <c r="F19" s="1">
-        <v>162</v>
-      </c>
-      <c r="G19" s="1">
-        <v>104887</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.12524907757872761</v>
-      </c>
-      <c r="I19" s="6">
-        <v>22273.591049999999</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0.59726848894524565</v>
-      </c>
-      <c r="K19" s="5">
-        <v>2.7238837987548489E-2</v>
-      </c>
-      <c r="L19" s="5">
-        <v>46.477940552404007</v>
-      </c>
-      <c r="M19" s="5">
-        <v>24.3</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1.792405159838672E-3</v>
-      </c>
-      <c r="O19" s="5">
-        <v>3.0318342597271219E-3</v>
-      </c>
-      <c r="P19" s="5">
-        <v>9.0135097771887728E-3</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>8.4583599492787478</v>
-      </c>
-      <c r="R19" s="5">
-        <v>1.6687082288558159</v>
-      </c>
-      <c r="S19" s="5">
-        <v>90.032854400450006</v>
-      </c>
-      <c r="T19" s="5">
-        <v>3.336924499699669E-4</v>
-      </c>
-      <c r="U19" s="5">
-        <v>3.5514410746803712E-2</v>
-      </c>
-      <c r="V19" s="5">
-        <v>116.9703480519988</v>
-      </c>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F20" s="1">
-        <v>274</v>
-      </c>
-      <c r="G20" s="1">
-        <v>104592</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.12624292488909281</v>
-      </c>
-      <c r="I20" s="6">
-        <v>22054.816080000001</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0.65259962521034098</v>
-      </c>
-      <c r="K20" s="5">
-        <v>2.6082300749579301E-2</v>
-      </c>
-      <c r="L20" s="5">
-        <v>44.6939184465351</v>
-      </c>
-      <c r="M20" s="5">
-        <v>24.8</v>
-      </c>
-      <c r="N20" s="5">
-        <v>1.807021569527294E-3</v>
-      </c>
-      <c r="O20" s="5">
-        <v>2.849166284228228E-3</v>
-      </c>
-      <c r="P20" s="5">
-        <v>9.1068150527764905E-3</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>5.9626548875631027</v>
-      </c>
-      <c r="R20" s="5">
-        <v>1.9119446037937891</v>
-      </c>
-      <c r="S20" s="5">
-        <v>99.140991877007764</v>
-      </c>
-      <c r="T20" s="5">
-        <v>3.3463362398653739E-4</v>
-      </c>
-      <c r="U20" s="5">
-        <v>3.5614578552852993E-2</v>
-      </c>
-      <c r="V20" s="5">
-        <v>113.8009073129876</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-      <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F21" s="1">
-        <v>682</v>
-      </c>
-      <c r="G21" s="1">
-        <v>104087</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.12942058086024191</v>
-      </c>
-      <c r="I21" s="6">
-        <v>21098.202539999998</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0.67966028418534485</v>
-      </c>
-      <c r="K21" s="5">
-        <v>2.6910180906357169E-2</v>
-      </c>
-      <c r="L21" s="5">
-        <v>46.062382042618189</v>
-      </c>
-      <c r="M21" s="5">
-        <v>25.2</v>
-      </c>
-      <c r="N21" s="5">
-        <v>1.8253960629089001E-3</v>
-      </c>
-      <c r="O21" s="5">
-        <v>3.0935659592456191E-3</v>
-      </c>
-      <c r="P21" s="5">
-        <v>9.1404306013238793E-3</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>5.9230931816653376</v>
-      </c>
-      <c r="R21" s="5">
-        <v>1.909571800513032</v>
-      </c>
-      <c r="S21" s="5">
-        <v>99.217091574356033</v>
-      </c>
-      <c r="T21" s="5">
-        <v>3.3625716948321968E-4</v>
-      </c>
-      <c r="U21" s="5">
-        <v>3.5835406919211797E-2</v>
-      </c>
-      <c r="V21" s="5">
-        <v>124.7215645498477</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="8">
-        <v>2022</v>
-      </c>
-      <c r="F22" s="6">
-        <v>230.99999999999989</v>
-      </c>
-      <c r="G22" s="6">
-        <v>101303</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.1301540921789088</v>
-      </c>
-      <c r="I22" s="6">
-        <v>19630.4133</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.71502225995281454</v>
-      </c>
-      <c r="K22" s="5">
-        <v>3.0226153223497799E-2</v>
-      </c>
-      <c r="L22" s="5">
-        <v>44.866399511860457</v>
-      </c>
-      <c r="M22" s="5">
-        <v>26.55</v>
-      </c>
-      <c r="N22" s="5">
-        <v>1.7867190507684749E-3</v>
-      </c>
-      <c r="O22" s="5">
-        <v>3.6622804852768269E-3</v>
-      </c>
-      <c r="P22" s="5">
-        <v>9.3432573566429363E-3</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>0.62133401774873231</v>
-      </c>
-      <c r="R22" s="5">
-        <v>2.1298443284009361</v>
-      </c>
-      <c r="S22" s="5">
-        <v>80.193313110174415</v>
-      </c>
-      <c r="T22" s="5">
-        <v>3.4549815898838042E-4</v>
-      </c>
-      <c r="U22" s="5">
-        <v>3.6770875492334869E-2</v>
-      </c>
-      <c r="V22" s="5">
-        <v>121.75934634857801</v>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7">
+        <f>AVERAGE(G15,G12)</f>
+        <v>6.0020000000000004E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" ref="H19:T19" si="16">AVERAGE(H15,H12)</f>
+        <v>6.225E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="16"/>
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="16"/>
+        <v>4.8189999999999997E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="16"/>
+        <v>4.8930000000000001E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="16"/>
+        <v>7.4645000000000003E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="16"/>
+        <v>9.1124999999999998E-2</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="16"/>
+        <v>8.448E-2</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="16"/>
+        <v>7.4749999999999997E-2</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="16"/>
+        <v>6.9349999999999995E-2</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="16"/>
+        <v>0.14055000000000001</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="16"/>
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="16"/>
+        <v>6.5964999999999996E-2</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" si="16"/>
+        <v>4.351E-2</v>
       </c>
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
     </row>
     <row r="30" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
-      <c r="D30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F32" s="6">
+        <v>-136</v>
+      </c>
+      <c r="G32" s="6">
+        <v>59861.999999999993</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.1683705856803982</v>
+      </c>
+      <c r="I32" s="6">
+        <v>18717.5</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.44555644649360188</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1.9879055160201789E-2</v>
+      </c>
+      <c r="L32" s="5">
+        <v>20.074214025592191</v>
+      </c>
+      <c r="M32" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1.7707393672112409E-3</v>
+      </c>
+      <c r="O32" s="5">
+        <v>2.489058167117694E-3</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1.0804851157662609E-2</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1.093247803280879</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1.183322976178544</v>
+      </c>
+      <c r="S32" s="5">
+        <v>72.625054291537197</v>
+      </c>
+      <c r="T32" s="5">
+        <v>7.1831879990644969E-4</v>
+      </c>
+      <c r="U32" s="5">
+        <v>4.6406735491630748E-2</v>
+      </c>
+      <c r="V32" s="5">
+        <v>45.439470782800392</v>
+      </c>
+    </row>
+    <row r="33" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F33" s="6">
+        <v>-131.99999999999989</v>
+      </c>
+      <c r="G33" s="6">
+        <v>59649</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.16354004258244059</v>
+      </c>
+      <c r="I33" s="6">
+        <v>16455.829679999999</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.46832805244010789</v>
+      </c>
+      <c r="K33" s="5">
+        <v>2.0452983285553811E-2</v>
+      </c>
+      <c r="L33" s="5">
+        <v>19.883605225066638</v>
+      </c>
+      <c r="M33" s="5">
+        <v>23.64</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1.810591962983442E-3</v>
+      </c>
+      <c r="O33" s="5">
+        <v>2.5817700212912098E-3</v>
+      </c>
+      <c r="P33" s="5">
+        <v>1.0752904491273941E-2</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0.94551459370651614</v>
+      </c>
+      <c r="R33" s="5">
+        <v>1.203360827507586</v>
+      </c>
+      <c r="S33" s="5">
+        <v>61.270966499019252</v>
+      </c>
+      <c r="T33" s="5">
+        <v>7.3764857751177563E-4</v>
+      </c>
+      <c r="U33" s="5">
+        <v>4.6572448825629928E-2</v>
+      </c>
+      <c r="V33" s="5">
+        <v>35.729470777548642</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F34" s="6">
+        <v>-338</v>
+      </c>
+      <c r="G34" s="6">
+        <v>59349</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.16355793694923251</v>
+      </c>
+      <c r="I34" s="6">
+        <v>16506.97249</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.47685049453234252</v>
+      </c>
+      <c r="K34" s="5">
+        <v>2.1230349289794261E-2</v>
+      </c>
+      <c r="L34" s="5">
+        <v>19.00027140659488</v>
+      </c>
+      <c r="M34" s="5">
+        <v>23.93</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1.8197442248394969E-3</v>
+      </c>
+      <c r="O34" s="5">
+        <v>2.628519435879279E-3</v>
+      </c>
+      <c r="P34" s="5">
+        <v>1.370368498205529E-2</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0.94261065898330221</v>
+      </c>
+      <c r="R34" s="5">
+        <v>1.032858683381354</v>
+      </c>
+      <c r="S34" s="5">
+        <v>92.807506382584336</v>
+      </c>
+      <c r="T34" s="5">
+        <v>7.2452779322313625E-4</v>
+      </c>
+      <c r="U34" s="5">
+        <v>4.6807865338927362E-2</v>
+      </c>
+      <c r="V34" s="5">
+        <v>54.735426532544722</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="1">
         <v>2017</v>
       </c>
-      <c r="F30" s="1">
-        <v>-174</v>
-      </c>
-      <c r="G30" s="1">
-        <v>62285</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0.1843300955286184</v>
-      </c>
-      <c r="I30" s="6">
-        <v>23722.23559</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0.70405394557277023</v>
-      </c>
-      <c r="K30" s="5">
-        <v>2.5158545396162781E-2</v>
-      </c>
-      <c r="L30" s="5">
-        <v>49.705922240667903</v>
-      </c>
-      <c r="M30" s="5">
-        <v>38.08</v>
-      </c>
-      <c r="N30" s="5">
-        <v>4.6399614674479924E-3</v>
-      </c>
-      <c r="O30" s="5">
-        <v>2.5848920285782991E-3</v>
-      </c>
-      <c r="P30" s="5">
-        <v>7.6053624468170418E-3</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>4.1744721843140402</v>
-      </c>
-      <c r="R30" s="5">
-        <v>2.1145545476438952</v>
-      </c>
-      <c r="S30" s="5">
-        <v>27.909615021273179</v>
-      </c>
-      <c r="T30" s="5">
-        <v>5.6193304969093564E-4</v>
-      </c>
-      <c r="U30" s="5">
-        <v>7.7145380107570036E-2</v>
-      </c>
-      <c r="V30" s="5">
-        <v>151.97994264622301</v>
-      </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-      <c r="D31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="F35" s="6">
+        <v>-283.99999999999989</v>
+      </c>
+      <c r="G35" s="6">
+        <v>58748.999999999993</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.16527940901121721</v>
+      </c>
+      <c r="I35" s="6">
+        <v>16496.860799999999</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.46437896815264929</v>
+      </c>
+      <c r="K35" s="5">
+        <v>2.4170624180837111E-2</v>
+      </c>
+      <c r="L35" s="5">
+        <v>27.61631721612282</v>
+      </c>
+      <c r="M35" s="5">
+        <v>24.29</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1.8553507293741049E-3</v>
+      </c>
+      <c r="O35" s="5">
+        <v>2.6213212139780989E-3</v>
+      </c>
+      <c r="P35" s="5">
+        <v>1.384874636164019E-2</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0.94990553030689784</v>
+      </c>
+      <c r="R35" s="5">
+        <v>1.0285073788490009</v>
+      </c>
+      <c r="S35" s="5">
+        <v>83.891458903130243</v>
+      </c>
+      <c r="T35" s="5">
+        <v>7.1490578563039218E-4</v>
+      </c>
+      <c r="U35" s="5">
+        <v>4.6383768234352918E-2</v>
+      </c>
+      <c r="V35" s="5">
+        <v>51.596050464348288</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="1">
         <v>2018</v>
       </c>
-      <c r="F31" s="1">
-        <v>-226</v>
-      </c>
-      <c r="G31" s="1">
-        <v>62095</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0.18400837426523869</v>
-      </c>
-      <c r="I31" s="6">
-        <v>25215.29996</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0.72163620259280137</v>
-      </c>
-      <c r="K31" s="5">
-        <v>2.5235526209839751E-2</v>
-      </c>
-      <c r="L31" s="5">
-        <v>65.087287814477833</v>
-      </c>
-      <c r="M31" s="5">
-        <v>39.35</v>
-      </c>
-      <c r="N31" s="5">
-        <v>4.7024720186810247E-3</v>
-      </c>
-      <c r="O31" s="5">
-        <v>2.6250100652226321E-3</v>
-      </c>
-      <c r="P31" s="5">
-        <v>7.6286335453740117E-3</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>4.5825750865609143</v>
-      </c>
-      <c r="R31" s="5">
-        <v>1.9810781866494891</v>
-      </c>
-      <c r="S31" s="5">
-        <v>27.674213711248889</v>
-      </c>
-      <c r="T31" s="5">
-        <v>5.9586118044931016E-4</v>
-      </c>
-      <c r="U31" s="5">
-        <v>7.9088493437474844E-2</v>
-      </c>
-      <c r="V31" s="5">
-        <v>181.50892349786611</v>
-      </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F32" s="1">
-        <v>410.99999999999989</v>
-      </c>
-      <c r="G32" s="1">
-        <v>61897.000000000007</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0.18803819248105719</v>
-      </c>
-      <c r="I32" s="6">
-        <v>25807.079600000001</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0.73187715075044013</v>
-      </c>
-      <c r="K32" s="5">
-        <v>2.6124044784076761E-2</v>
-      </c>
-      <c r="L32" s="5">
-        <v>73.524101455159382</v>
-      </c>
-      <c r="M32" s="5">
-        <v>41.49</v>
-      </c>
-      <c r="N32" s="5">
-        <v>3.7320063977252299E-3</v>
-      </c>
-      <c r="O32" s="5">
-        <v>2.6818747273696518E-3</v>
-      </c>
-      <c r="P32" s="5">
-        <v>7.6885794141880789E-3</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>4.5936636670597917</v>
-      </c>
-      <c r="R32" s="5">
-        <v>1.798357917185001</v>
-      </c>
-      <c r="S32" s="5">
-        <v>28.663272890447001</v>
-      </c>
-      <c r="T32" s="5">
-        <v>5.9776725851010419E-4</v>
-      </c>
-      <c r="U32" s="5">
-        <v>7.9406110150734288E-2</v>
-      </c>
-      <c r="V32" s="5">
-        <v>174.8046333148618</v>
-      </c>
-    </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F33" s="1">
-        <v>947</v>
-      </c>
-      <c r="G33" s="1">
-        <v>62157</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0.1923033608443136</v>
-      </c>
-      <c r="I33" s="6">
-        <v>28223.238239999999</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0.89260742957349914</v>
-      </c>
-      <c r="K33" s="5">
-        <v>2.7848834403204781E-2</v>
-      </c>
-      <c r="L33" s="5">
-        <v>81.158354302813848</v>
-      </c>
-      <c r="M33" s="5">
-        <v>42.74</v>
-      </c>
-      <c r="N33" s="5">
-        <v>4.0220731373779052E-3</v>
-      </c>
-      <c r="O33" s="5">
-        <v>2.81545119616454E-3</v>
-      </c>
-      <c r="P33" s="5">
-        <v>7.6564184243126223E-3</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>4.3867786411828114</v>
-      </c>
-      <c r="R33" s="5">
-        <v>1.486720240680856</v>
-      </c>
-      <c r="S33" s="5">
-        <v>25.929583203822549</v>
-      </c>
-      <c r="T33" s="5">
-        <v>6.1135511688144382E-4</v>
-      </c>
-      <c r="U33" s="5">
-        <v>7.9090046173399611E-2</v>
-      </c>
-      <c r="V33" s="5">
-        <v>291.37254943192238</v>
-      </c>
-    </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2022</v>
-      </c>
-      <c r="F34" s="1">
-        <v>975</v>
-      </c>
-      <c r="G34" s="1">
-        <v>63620.999999999993</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0.18481319061316229</v>
-      </c>
-      <c r="I34" s="6">
-        <v>22921.057649999999</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0.97470646484651291</v>
-      </c>
-      <c r="K34" s="5">
-        <v>2.8968422376259389E-2</v>
-      </c>
-      <c r="L34" s="5">
-        <v>78.190951424058085</v>
-      </c>
-      <c r="M34" s="5">
-        <v>47.9</v>
-      </c>
-      <c r="N34" s="5">
-        <v>3.9609562880180823E-3</v>
-      </c>
-      <c r="O34" s="5">
-        <v>2.9235629744895431E-3</v>
-      </c>
-      <c r="P34" s="5">
-        <v>7.7191493374829017E-3</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>4.8034139670863398</v>
-      </c>
-      <c r="R34" s="5">
-        <v>1.015481051853947</v>
-      </c>
-      <c r="S34" s="5">
-        <v>14.01607356061678</v>
-      </c>
-      <c r="T34" s="5">
-        <v>5.9728705930431629E-4</v>
-      </c>
-      <c r="U34" s="5">
-        <v>7.1768755599566178E-2</v>
-      </c>
-      <c r="V34" s="5">
-        <v>137.9810431178384</v>
-      </c>
-    </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F40" s="6">
-        <v>-136</v>
-      </c>
-      <c r="G40" s="6">
-        <v>59861.999999999993</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0.1683705856803982</v>
-      </c>
-      <c r="I40" s="6">
-        <v>18717.5</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0.44555644649360188</v>
-      </c>
-      <c r="K40" s="5">
-        <v>1.9879055160201789E-2</v>
-      </c>
-      <c r="L40" s="5">
-        <v>20.074214025592191</v>
-      </c>
-      <c r="M40" s="5">
-        <v>23.4</v>
-      </c>
-      <c r="N40" s="5">
-        <v>1.7707393672112409E-3</v>
-      </c>
-      <c r="O40" s="5">
-        <v>2.489058167117694E-3</v>
-      </c>
-      <c r="P40" s="5">
-        <v>1.0804851157662609E-2</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>1.093247803280879</v>
-      </c>
-      <c r="R40" s="5">
-        <v>1.183322976178544</v>
-      </c>
-      <c r="S40" s="5">
-        <v>72.625054291537197</v>
-      </c>
-      <c r="T40" s="5">
-        <v>7.1831879990644969E-4</v>
-      </c>
-      <c r="U40" s="5">
-        <v>4.6406735491630748E-2</v>
-      </c>
-      <c r="V40" s="5">
-        <v>45.439470782800392</v>
-      </c>
-    </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F41" s="6">
-        <v>-131.99999999999989</v>
-      </c>
-      <c r="G41" s="6">
-        <v>59649</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0.16354004258244059</v>
-      </c>
-      <c r="I41" s="6">
-        <v>16455.829679999999</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0.46832805244010789</v>
-      </c>
-      <c r="K41" s="5">
-        <v>2.0452983285553811E-2</v>
-      </c>
-      <c r="L41" s="5">
-        <v>19.883605225066638</v>
-      </c>
-      <c r="M41" s="5">
-        <v>23.64</v>
-      </c>
-      <c r="N41" s="5">
-        <v>1.810591962983442E-3</v>
-      </c>
-      <c r="O41" s="5">
-        <v>2.5817700212912098E-3</v>
-      </c>
-      <c r="P41" s="5">
-        <v>1.0752904491273941E-2</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0.94551459370651614</v>
-      </c>
-      <c r="R41" s="5">
-        <v>1.203360827507586</v>
-      </c>
-      <c r="S41" s="5">
-        <v>61.270966499019252</v>
-      </c>
-      <c r="T41" s="5">
-        <v>7.3764857751177563E-4</v>
-      </c>
-      <c r="U41" s="5">
-        <v>4.6572448825629928E-2</v>
-      </c>
-      <c r="V41" s="5">
-        <v>35.729470777548642</v>
-      </c>
-    </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F42" s="6">
-        <v>-338</v>
-      </c>
-      <c r="G42" s="6">
-        <v>59349</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0.16355793694923251</v>
-      </c>
-      <c r="I42" s="6">
-        <v>16506.97249</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0.47685049453234252</v>
-      </c>
-      <c r="K42" s="5">
-        <v>2.1230349289794261E-2</v>
-      </c>
-      <c r="L42" s="5">
-        <v>19.00027140659488</v>
-      </c>
-      <c r="M42" s="5">
-        <v>23.93</v>
-      </c>
-      <c r="N42" s="5">
-        <v>1.8197442248394969E-3</v>
-      </c>
-      <c r="O42" s="5">
-        <v>2.628519435879279E-3</v>
-      </c>
-      <c r="P42" s="5">
-        <v>1.370368498205529E-2</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0.94261065898330221</v>
-      </c>
-      <c r="R42" s="5">
-        <v>1.032858683381354</v>
-      </c>
-      <c r="S42" s="5">
-        <v>92.807506382584336</v>
-      </c>
-      <c r="T42" s="5">
-        <v>7.2452779322313625E-4</v>
-      </c>
-      <c r="U42" s="5">
-        <v>4.6807865338927362E-2</v>
-      </c>
-      <c r="V42" s="5">
-        <v>54.735426532544722</v>
-      </c>
-    </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F43" s="6">
-        <v>-283.99999999999989</v>
-      </c>
-      <c r="G43" s="6">
-        <v>58748.999999999993</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0.16527940901121721</v>
-      </c>
-      <c r="I43" s="6">
-        <v>16496.860799999999</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0.46437896815264929</v>
-      </c>
-      <c r="K43" s="5">
-        <v>2.4170624180837111E-2</v>
-      </c>
-      <c r="L43" s="5">
-        <v>27.61631721612282</v>
-      </c>
-      <c r="M43" s="5">
-        <v>24.29</v>
-      </c>
-      <c r="N43" s="5">
-        <v>1.8553507293741049E-3</v>
-      </c>
-      <c r="O43" s="5">
-        <v>2.6213212139780989E-3</v>
-      </c>
-      <c r="P43" s="5">
-        <v>1.384874636164019E-2</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>0.94990553030689784</v>
-      </c>
-      <c r="R43" s="5">
-        <v>1.0285073788490009</v>
-      </c>
-      <c r="S43" s="5">
-        <v>83.891458903130243</v>
-      </c>
-      <c r="T43" s="5">
-        <v>7.1490578563039218E-4</v>
-      </c>
-      <c r="U43" s="5">
-        <v>4.6383768234352918E-2</v>
-      </c>
-      <c r="V43" s="5">
-        <v>51.596050464348288</v>
-      </c>
-    </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="F36" s="6">
         <v>-200</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G36" s="6">
         <v>58223</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H36" s="5">
         <v>0.16632602236229671</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I36" s="6">
         <v>17553.456320000001</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J36" s="5">
         <v>0.51243838345670956</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K36" s="5">
         <v>2.5247754323892601E-2</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L36" s="5">
         <v>31.013134193016509</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M36" s="5">
         <v>24.63</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N36" s="5">
         <v>1.9236384246775211E-3</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O36" s="5">
         <v>2.0266904831423918E-3</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P36" s="5">
         <v>1.3973859127836059E-2</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="Q36" s="5">
         <v>0.96616457413736812</v>
       </c>
-      <c r="R44" s="5">
+      <c r="R36" s="5">
         <v>1.006624529824983</v>
       </c>
-      <c r="S44" s="5">
+      <c r="S36" s="5">
         <v>71.350700176906003</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T36" s="5">
         <v>6.6983838002163945E-4</v>
       </c>
-      <c r="U44" s="5">
+      <c r="U36" s="5">
         <v>4.7472648266149109E-2</v>
       </c>
-      <c r="V44" s="5">
+      <c r="V36" s="5">
         <v>64.228522375006435</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I5:I9">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L9">
+  <conditionalFormatting sqref="I8:I9">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L9">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -3712,7 +4735,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q9">
+  <conditionalFormatting sqref="R8:R9">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:S9">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8:V9">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3724,19 +4771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R9">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S9">
+  <conditionalFormatting sqref="I13 I16">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3748,7 +4783,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V9">
+  <conditionalFormatting sqref="M13 M16">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13 H16">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13 J16">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3760,7 +4819,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13 I15:I16">
+  <conditionalFormatting sqref="K13 K16">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13 L16">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3772,7 +4843,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M13 M15:M16">
+  <conditionalFormatting sqref="N16 N13">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3784,7 +4855,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13 H15:H16">
+  <conditionalFormatting sqref="O16 O13">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -3796,7 +4867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J13 J15:J16">
+  <conditionalFormatting sqref="P13 P16">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3808,7 +4879,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K13 K15:K16">
+  <conditionalFormatting sqref="Q13 Q16">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3820,7 +4891,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L13 L15:L16">
+  <conditionalFormatting sqref="R13 R16">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3832,7 +4903,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N13 N15:N16">
+  <conditionalFormatting sqref="S13 S16">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3844,7 +4915,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O13 O15:O16">
+  <conditionalFormatting sqref="U12:U13 U15:U16">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3856,7 +4927,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P13 P15:P16">
+  <conditionalFormatting sqref="V12:V13 V15:V16">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3868,103 +4939,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13 Q15:Q16">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R13 R15:R16">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S13 S15:S16">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U13 U15:U16">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V12:V13 V15:V16">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I22">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I22">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V22">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18:S22">
+  <conditionalFormatting sqref="I30">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3976,7 +4951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R18:R22">
+  <conditionalFormatting sqref="L30">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3988,7 +4963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L22">
+  <conditionalFormatting sqref="V30">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -4000,7 +4975,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:Q22">
+  <conditionalFormatting sqref="Q30">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -4012,7 +4987,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I34">
+  <conditionalFormatting sqref="R30">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4024,19 +5011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:L34">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V30:V34">
+  <conditionalFormatting sqref="I32:I36">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4048,7 +5023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30:Q34">
+  <conditionalFormatting sqref="L32:L36">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4060,7 +5035,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30:R34">
+  <conditionalFormatting sqref="V32:V36">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4072,7 +5047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30:S34">
+  <conditionalFormatting sqref="S32:S36">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4084,7 +5059,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:I44">
+  <conditionalFormatting sqref="Q32:Q36">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:R36">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4096,19 +5083,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:L44">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V40:V44">
+  <conditionalFormatting sqref="G11:T11">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4120,7 +5095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S40:S44">
+  <conditionalFormatting sqref="G12:T12">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4132,7 +5107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q40:Q44">
+  <conditionalFormatting sqref="G14:T14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4144,7 +5119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:R44">
+  <conditionalFormatting sqref="G15:T15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
     <sheet name="ethnic" sheetId="2" r:id="rId2"/>
+    <sheet name="anti-industrial" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="53">
   <si>
     <t>saldo</t>
   </si>
@@ -171,6 +172,15 @@
   <si>
     <t>Пугачевский МР</t>
   </si>
+  <si>
+    <t>анти-промыш</t>
+  </si>
+  <si>
+    <t>Ишимбайский МР</t>
+  </si>
+  <si>
+    <t>Абзелиловский МР</t>
+  </si>
 </sst>
 </file>
 
@@ -179,12 +189,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,18 +271,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -276,18 +294,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3290,7 +3312,7 @@
   <dimension ref="C4:AL36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,7 +3507,7 @@
         <v>22502.496999999999</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" ref="Y5:AL5" si="0">$G5*J5</f>
+        <f t="shared" ref="Z5:AL5" si="0">$G5*J5</f>
         <v>13140.999999999995</v>
       </c>
       <c r="AA5" s="1">
@@ -3654,6 +3676,72 @@
       <c r="AL6" s="1">
         <f t="shared" ref="AL6" si="12">$G6*V6</f>
         <v>2720097.5999999968</v>
+      </c>
+    </row>
+    <row r="7" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <f>AVERAGE(G5:G6)</f>
+        <v>54211.5</v>
+      </c>
+      <c r="X7" s="1">
+        <f>AVERAGE(X5:X6)</f>
+        <v>8248.4999999999982</v>
+      </c>
+      <c r="Y7" s="1">
+        <f>AVERAGE(Y5:Y6)</f>
+        <v>20609.998500000002</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>AVERAGE(Z5:Z6)</f>
+        <v>19906.449999999993</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>AVERAGE(AA5:AA6)</f>
+        <v>930.99999999999955</v>
+      </c>
+      <c r="AB7" s="1">
+        <f>AVERAGE(AB5:AB6)</f>
+        <v>1329087.5764899994</v>
+      </c>
+      <c r="AC7" s="1">
+        <f>AVERAGE(AC5:AC6)</f>
+        <v>26.77</v>
+      </c>
+      <c r="AD7" s="1">
+        <f>AVERAGE(AD5:AD6)</f>
+        <v>105.49999999999929</v>
+      </c>
+      <c r="AE7" s="1">
+        <f>AVERAGE(AE5:AE6)</f>
+        <v>134.99999999999943</v>
+      </c>
+      <c r="AF7" s="1">
+        <f>AVERAGE(AF5:AF6)</f>
+        <v>612.4999999999992</v>
+      </c>
+      <c r="AG7" s="1">
+        <f>AVERAGE(AG5:AG6)</f>
+        <v>38964.999999999956</v>
+      </c>
+      <c r="AH7" s="1">
+        <f>AVERAGE(AH5:AH6)</f>
+        <v>81731.324999999983</v>
+      </c>
+      <c r="AI7" s="1">
+        <f>AVERAGE(AI5:AI6)</f>
+        <v>7111251.9032999985</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f>AVERAGE(AJ5:AJ6)</f>
+        <v>30.999999999999922</v>
+      </c>
+      <c r="AK7" s="1">
+        <f>AVERAGE(AK5:AK6)</f>
+        <v>2395.9999999999995</v>
+      </c>
+      <c r="AL7" s="1">
+        <f>AVERAGE(AL5:AL6)</f>
+        <v>6559893.5011949968</v>
       </c>
     </row>
     <row r="8" spans="3:38" x14ac:dyDescent="0.25">
@@ -3661,10 +3749,6 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <f>AVERAGE(G5:G6)</f>
-        <v>54211.5</v>
-      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
@@ -3680,66 +3764,6 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="X8" s="1">
-        <f>AVERAGE(X5:X6)</f>
-        <v>8248.4999999999982</v>
-      </c>
-      <c r="Y8" s="1">
-        <f t="shared" ref="Y8:AL10" si="13">AVERAGE(Y5:Y6)</f>
-        <v>20609.998500000002</v>
-      </c>
-      <c r="Z8" s="1">
-        <f t="shared" si="13"/>
-        <v>19906.449999999993</v>
-      </c>
-      <c r="AA8" s="1">
-        <f t="shared" si="13"/>
-        <v>930.99999999999955</v>
-      </c>
-      <c r="AB8" s="1">
-        <f t="shared" si="13"/>
-        <v>1329087.5764899994</v>
-      </c>
-      <c r="AC8" s="1">
-        <f t="shared" si="13"/>
-        <v>26.77</v>
-      </c>
-      <c r="AD8" s="1">
-        <f t="shared" si="13"/>
-        <v>105.49999999999929</v>
-      </c>
-      <c r="AE8" s="1">
-        <f t="shared" si="13"/>
-        <v>134.99999999999943</v>
-      </c>
-      <c r="AF8" s="1">
-        <f t="shared" si="13"/>
-        <v>612.4999999999992</v>
-      </c>
-      <c r="AG8" s="1">
-        <f t="shared" si="13"/>
-        <v>38964.999999999956</v>
-      </c>
-      <c r="AH8" s="1">
-        <f t="shared" si="13"/>
-        <v>81731.324999999983</v>
-      </c>
-      <c r="AI8" s="1">
-        <f t="shared" si="13"/>
-        <v>7111251.9032999985</v>
-      </c>
-      <c r="AJ8" s="1">
-        <f t="shared" si="13"/>
-        <v>30.999999999999922</v>
-      </c>
-      <c r="AK8" s="1">
-        <f t="shared" si="13"/>
-        <v>2395.9999999999995</v>
-      </c>
-      <c r="AL8" s="1">
-        <f t="shared" si="13"/>
-        <v>6559893.5011949968</v>
-      </c>
     </row>
     <row r="9" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
@@ -3762,6 +3786,69 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
+      <c r="W9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="1">
+        <f>X7/$G7</f>
+        <v>0.15215406325226194</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>AVERAGE(Y7:Y7)</f>
+        <v>20609.998500000002</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>Z7/$G7</f>
+        <v>0.3671997638877359</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>AA7/$G7</f>
+        <v>1.7173477952095027E-2</v>
+      </c>
+      <c r="AB9" s="1">
+        <f>AB7/$G7</f>
+        <v>24.516709120574038</v>
+      </c>
+      <c r="AC9" s="1">
+        <f>AVERAGE(AC7:AC7)</f>
+        <v>26.77</v>
+      </c>
+      <c r="AD9" s="1">
+        <f>AD7/$G7</f>
+        <v>1.946081550962421E-3</v>
+      </c>
+      <c r="AE9" s="1">
+        <f>AE7/$G7</f>
+        <v>2.4902465344068957E-3</v>
+      </c>
+      <c r="AF9" s="1">
+        <f>AF7/$G7</f>
+        <v>1.1298340757957246E-2</v>
+      </c>
+      <c r="AG9" s="1">
+        <f>AG7/$G7</f>
+        <v>0.71875893491233334</v>
+      </c>
+      <c r="AH9" s="1">
+        <f>AH7/$G7</f>
+        <v>1.5076381395091445</v>
+      </c>
+      <c r="AI9" s="1">
+        <f>AI7/$G7</f>
+        <v>131.17607709249879</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f>AJ7/$G7</f>
+        <v>5.7183438938232523E-4</v>
+      </c>
+      <c r="AK9" s="1">
+        <f>AK7/$G7</f>
+        <v>4.4197264418066269E-2</v>
+      </c>
+      <c r="AL9" s="1">
+        <f>AL7/$G7</f>
+        <v>121.00557079577206</v>
+      </c>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
@@ -3817,69 +3904,6 @@
       </c>
       <c r="T10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10" s="1">
-        <f>X8/$G8</f>
-        <v>0.15215406325226194</v>
-      </c>
-      <c r="Y10" s="1">
-        <f t="shared" si="13"/>
-        <v>20609.998500000002</v>
-      </c>
-      <c r="Z10" s="1">
-        <f t="shared" ref="Y10:AL10" si="14">Z8/$G8</f>
-        <v>0.3671997638877359</v>
-      </c>
-      <c r="AA10" s="1">
-        <f t="shared" si="14"/>
-        <v>1.7173477952095027E-2</v>
-      </c>
-      <c r="AB10" s="1">
-        <f t="shared" si="14"/>
-        <v>24.516709120574038</v>
-      </c>
-      <c r="AC10" s="1">
-        <f t="shared" si="13"/>
-        <v>26.77</v>
-      </c>
-      <c r="AD10" s="1">
-        <f t="shared" si="14"/>
-        <v>1.946081550962421E-3</v>
-      </c>
-      <c r="AE10" s="1">
-        <f t="shared" si="14"/>
-        <v>2.4902465344068957E-3</v>
-      </c>
-      <c r="AF10" s="1">
-        <f t="shared" si="14"/>
-        <v>1.1298340757957246E-2</v>
-      </c>
-      <c r="AG10" s="1">
-        <f t="shared" si="14"/>
-        <v>0.71875893491233334</v>
-      </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="14"/>
-        <v>1.5076381395091445</v>
-      </c>
-      <c r="AI10" s="1">
-        <f t="shared" si="14"/>
-        <v>131.17607709249879</v>
-      </c>
-      <c r="AJ10" s="1">
-        <f t="shared" si="14"/>
-        <v>5.7183438938232523E-4</v>
-      </c>
-      <c r="AK10" s="1">
-        <f t="shared" si="14"/>
-        <v>4.4197264418066269E-2</v>
-      </c>
-      <c r="AL10" s="1">
-        <f t="shared" si="14"/>
-        <v>121.00557079577206</v>
       </c>
     </row>
     <row r="11" spans="3:38" x14ac:dyDescent="0.25">
@@ -4178,55 +4202,55 @@
         <v>5.6794999999999998E-2</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:T18" si="15">AVERAGE(H14,H11)</f>
+        <f t="shared" ref="H18:T18" si="13">AVERAGE(H14,H11)</f>
         <v>5.8865000000000001E-2</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>5.3040000000000004E-2</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4.6795000000000003E-2</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>6.498000000000001E-2</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>7.8550000000000009E-2</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>7.5250000000000011E-2</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>6.823499999999999E-2</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>6.7674999999999999E-2</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0.15275</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>8.8650000000000007E-2</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>8.1320000000000003E-2</v>
       </c>
       <c r="T18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>5.9730000000000005E-2</v>
       </c>
     </row>
@@ -4242,55 +4266,55 @@
         <v>6.0020000000000004E-2</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" ref="H19:T19" si="16">AVERAGE(H15,H12)</f>
+        <f t="shared" ref="H19:T19" si="14">AVERAGE(H15,H12)</f>
         <v>6.225E-2</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.8189999999999997E-2</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.8930000000000001E-2</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>7.4645000000000003E-2</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>9.1124999999999998E-2</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>8.448E-2</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>7.4749999999999997E-2</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>6.9349999999999995E-2</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.14055000000000001</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>6.5964999999999996E-2</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.351E-2</v>
       </c>
     </row>
@@ -4843,7 +4867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16 N13">
+  <conditionalFormatting sqref="N13 N16">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -4855,7 +4879,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O16 O13">
+  <conditionalFormatting sqref="O13 O16">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -5120,6 +5144,1387 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:T15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:AL28"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-151.99999999999989</v>
+      </c>
+      <c r="G5" s="1">
+        <v>85939</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.15749543280699099</v>
+      </c>
+      <c r="I5" s="1">
+        <v>24720.091919999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.81039690943576237</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.8396769801836171E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>32.194688077822633</v>
+      </c>
+      <c r="M5" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6.539522219248496E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.5715914776760149E-3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.0555161219004169E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.1495013905211819</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.66520904362396571</v>
+      </c>
+      <c r="S5" s="1">
+        <v>22.581482595794672</v>
+      </c>
+      <c r="T5" s="1">
+        <v>7.4471427407812321E-4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>6.0112405310743661E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>153.74505778284589</v>
+      </c>
+      <c r="X5" s="1">
+        <f>$G5*H5</f>
+        <v>13534.999999999998</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>24720.091919999999</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" ref="Y5:AL5" si="0">$G5*J5</f>
+        <v>69644.699999999983</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="0"/>
+        <v>1580.9999999999986</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="0"/>
+        <v>2766779.2987199994</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="0"/>
+        <v>561.99999999999648</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" si="0"/>
+        <v>220.99999999999903</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="0"/>
+        <v>907.09999999999934</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" si="0"/>
+        <v>98786.999999999854</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="0"/>
+        <v>57167.399999999987</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" si="0"/>
+        <v>1940630.0327999983</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" si="0"/>
+        <v>63.999999999999829</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="0"/>
+        <v>5165.9999999999991</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="0"/>
+        <v>13212696.520799993</v>
+      </c>
+    </row>
+    <row r="6" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-449.99999999999989</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44386</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.11616275402153831</v>
+      </c>
+      <c r="I6" s="1">
+        <v>21819.183840000002</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.43312530978236369</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3.4515387734871332E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>23.330135132699489</v>
+      </c>
+      <c r="M6" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3.807506871536046E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2.343081151714495E-3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.4168882079935099E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.863042400756993</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.49934596494390132</v>
+      </c>
+      <c r="S6" s="1">
+        <v>56.510477592033467</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1.622133105033115E-3</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4.9587707835804067E-2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>33.696300743477607</v>
+      </c>
+      <c r="X6" s="1">
+        <f>$G6*H6</f>
+        <v>5155.9999999999991</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>21819.183840000002</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" ref="Z6" si="1">$G6*J6</f>
+        <v>19224.699999999993</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" ref="AA6" si="2">$G6*K6</f>
+        <v>1531.9999999999989</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" ref="AB6" si="3">$G6*L6</f>
+        <v>1035531.3779999996</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" ref="AD6" si="4">$G6*N6</f>
+        <v>168.99999999999895</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" ref="AE6" si="5">$G6*O6</f>
+        <v>103.99999999999957</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" ref="AF6" si="6">$G6*P6</f>
+        <v>628.8999999999993</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" ref="AG6" si="7">$G6*Q6</f>
+        <v>127078.9999999999</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" ref="AH6" si="8">$G6*R6</f>
+        <v>22163.970000000005</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" ref="AI6" si="9">$G6*S6</f>
+        <v>2508274.0583999977</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" ref="AJ6" si="10">$G6*T6</f>
+        <v>71.999999999999844</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" ref="AK6" si="11">$G6*U6</f>
+        <v>2200.9999999999991</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" ref="AL6" si="12">$G6*V6</f>
+        <v>1495644.004799997</v>
+      </c>
+    </row>
+    <row r="7" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <f>AVERAGE(G5:G6)</f>
+        <v>65162.5</v>
+      </c>
+      <c r="X7" s="1">
+        <f>AVERAGE(X5:X6)</f>
+        <v>9345.4999999999982</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" ref="Y7:AL8" si="13">AVERAGE(Y5:Y6)</f>
+        <v>23269.637880000002</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="13"/>
+        <v>44434.69999999999</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="13"/>
+        <v>1556.4999999999986</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="13"/>
+        <v>1901155.3383599995</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="13"/>
+        <v>29.299999999999997</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="13"/>
+        <v>365.49999999999773</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="13"/>
+        <v>162.49999999999932</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="13"/>
+        <v>767.99999999999932</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="13"/>
+        <v>112932.99999999988</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="13"/>
+        <v>39665.684999999998</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="13"/>
+        <v>2224452.045599998</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="13"/>
+        <v>67.999999999999829</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="13"/>
+        <v>3683.4999999999991</v>
+      </c>
+      <c r="AL7" s="1">
+        <f t="shared" si="13"/>
+        <v>7354170.262799995</v>
+      </c>
+    </row>
+    <row r="8" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="W8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="14">
+        <f>X7/$G7</f>
+        <v>0.14341837713408784</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>23269.637880000002</v>
+      </c>
+      <c r="Z8" s="14">
+        <f t="shared" ref="Y8:AL8" si="14">Z7/$G7</f>
+        <v>0.68190600422021852</v>
+      </c>
+      <c r="AA8" s="14">
+        <f t="shared" si="14"/>
+        <v>2.3886437751774389E-2</v>
+      </c>
+      <c r="AB8" s="14">
+        <f t="shared" si="14"/>
+        <v>29.17560465543832</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>29.299999999999997</v>
+      </c>
+      <c r="AD8" s="14">
+        <f t="shared" si="14"/>
+        <v>5.6090542873584916E-3</v>
+      </c>
+      <c r="AE8" s="14">
+        <f t="shared" si="14"/>
+        <v>2.4937655860349022E-3</v>
+      </c>
+      <c r="AF8" s="14">
+        <f t="shared" si="14"/>
+        <v>1.1785919815844993E-2</v>
+      </c>
+      <c r="AG8" s="14">
+        <f t="shared" si="14"/>
+        <v>1.7330980241703415</v>
+      </c>
+      <c r="AH8" s="14">
+        <f t="shared" si="14"/>
+        <v>0.60871950892000759</v>
+      </c>
+      <c r="AI8" s="14">
+        <f t="shared" si="14"/>
+        <v>34.136996671398393</v>
+      </c>
+      <c r="AJ8" s="14">
+        <f t="shared" si="14"/>
+        <v>1.0435449836946071E-3</v>
+      </c>
+      <c r="AK8" s="14">
+        <f t="shared" si="14"/>
+        <v>5.6527910991751376E-2</v>
+      </c>
+      <c r="AL8" s="14">
+        <f t="shared" si="14"/>
+        <v>112.85893363207359</v>
+      </c>
+    </row>
+    <row r="15" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-508</v>
+      </c>
+      <c r="G16" s="1">
+        <v>89673</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.17097677115742749</v>
+      </c>
+      <c r="I16" s="1">
+        <v>20274.726180000001</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.63144982324668508</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.8846252495176911E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>23.73828289719313</v>
+      </c>
+      <c r="M16" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="N16" s="1">
+        <v>5.8769083224604586E-3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2.9663332329686628E-3</v>
+      </c>
+      <c r="P16" s="1">
+        <v>8.227671651444687E-3</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.0814961025057701</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.67026351298607134</v>
+      </c>
+      <c r="S16" s="1">
+        <v>25.881326426014489</v>
+      </c>
+      <c r="T16" s="1">
+        <v>4.9067166259632105E-4</v>
+      </c>
+      <c r="U16" s="1">
+        <v>5.6929064489868737E-2</v>
+      </c>
+      <c r="V16" s="1">
+        <v>119.345016326319</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-583</v>
+      </c>
+      <c r="G17" s="1">
+        <v>88968</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.1689259059437101</v>
+      </c>
+      <c r="I17" s="1">
+        <v>21016.71081</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.63645580433414262</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.899559392140994E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>23.527577473473599</v>
+      </c>
+      <c r="M17" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5.9234781044869714E-3</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3.0572790216706999E-3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>8.4412372988040517E-3</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1.082479093606689</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.61311033180469354</v>
+      </c>
+      <c r="S17" s="1">
+        <v>24.770910734196551</v>
+      </c>
+      <c r="T17" s="1">
+        <v>4.9455984174084965E-4</v>
+      </c>
+      <c r="U17" s="1">
+        <v>5.7874741480082717E-2</v>
+      </c>
+      <c r="V17" s="1">
+        <v>143.61354485994971</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-507</v>
+      </c>
+      <c r="G18" s="1">
+        <v>88092</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.1657471734096172</v>
+      </c>
+      <c r="I18" s="1">
+        <v>22275.830239999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.67765063796939562</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.9740725605049251E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>26.707001895631841</v>
+      </c>
+      <c r="M18" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5.9823820551241514E-3</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3.0536257548926002E-3</v>
+      </c>
+      <c r="P18" s="1">
+        <v>8.7851337238341615E-3</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1.0234073468646401</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.61994051673250683</v>
+      </c>
+      <c r="S18" s="1">
+        <v>21.178866225082849</v>
+      </c>
+      <c r="T18" s="1">
+        <v>4.9947781864414359E-4</v>
+      </c>
+      <c r="U18" s="1">
+        <v>5.87113472278981E-2</v>
+      </c>
+      <c r="V18" s="1">
+        <v>142.04406721007581</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-711</v>
+      </c>
+      <c r="G19" s="1">
+        <v>87282</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.16122453655965721</v>
+      </c>
+      <c r="I19" s="1">
+        <v>23989.908439999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.68737654957494088</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.875529891615681E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>29.351305275772781</v>
+      </c>
+      <c r="M19" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>6.3586993881899652E-3</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3.0819642079695569E-3</v>
+      </c>
+      <c r="P19" s="1">
+        <v>9.3810865928828282E-3</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.98409752297151609</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.71611913109232095</v>
+      </c>
+      <c r="S19" s="1">
+        <v>20.416691414037231</v>
+      </c>
+      <c r="T19" s="1">
+        <v>5.0411310464929633E-4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>5.925620402832199E-2</v>
+      </c>
+      <c r="V19" s="1">
+        <v>145.038276238858</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-151.99999999999989</v>
+      </c>
+      <c r="G20" s="1">
+        <v>85939</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.15749543280699099</v>
+      </c>
+      <c r="I20" s="1">
+        <v>24720.091919999999</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.81039690943576237</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.8396769801836171E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>32.194688077822633</v>
+      </c>
+      <c r="M20" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="N20" s="1">
+        <v>6.539522219248496E-3</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2.5715914776760149E-3</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.0555161219004169E-2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1.1495013905211819</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.66520904362396571</v>
+      </c>
+      <c r="S20" s="1">
+        <v>22.581482595794672</v>
+      </c>
+      <c r="T20" s="1">
+        <v>7.4471427407812321E-4</v>
+      </c>
+      <c r="U20" s="1">
+        <v>6.0112405310743661E-2</v>
+      </c>
+      <c r="V20" s="1">
+        <v>153.74505778284589</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-163</v>
+      </c>
+      <c r="G24" s="1">
+        <v>44795</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.1195669159504409</v>
+      </c>
+      <c r="I24" s="1">
+        <v>19632.524519999999</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.26123004799642802</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3.0717714030583751E-2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>6.8428243203482468</v>
+      </c>
+      <c r="M24" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="N24" s="1">
+        <v>3.415559772295994E-3</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2.2993637682777002E-3</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1.320683111954458E-2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>3.216117870298024</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.54021386315436981</v>
+      </c>
+      <c r="S24" s="1">
+        <v>65.877446219444096</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1.5626744056256249E-3</v>
+      </c>
+      <c r="U24" s="1">
+        <v>4.6790936488447371E-2</v>
+      </c>
+      <c r="V24" s="1">
+        <v>36.086993072441103</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-100</v>
+      </c>
+      <c r="G25" s="1">
+        <v>44888</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.1251559436820531</v>
+      </c>
+      <c r="I25" s="1">
+        <v>18340.544890000001</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.37225984672963802</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3.412938870076633E-2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>8.4181796671716178</v>
+      </c>
+      <c r="M25" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3.2970949919800181E-3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2.31687756193191E-3</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1.3460167528069861E-2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>3.237123507396185</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.44668731063981459</v>
+      </c>
+      <c r="S25" s="1">
+        <v>65.029295230351053</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1.559436820531096E-3</v>
+      </c>
+      <c r="U25" s="1">
+        <v>4.7696489039386912E-2</v>
+      </c>
+      <c r="V25" s="1">
+        <v>36.327307061575482</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-179</v>
+      </c>
+      <c r="G26" s="1">
+        <v>44962</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.1264401049775366</v>
+      </c>
+      <c r="I26" s="1">
+        <v>19591.68519</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.37287042391352693</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3.0603620835372079E-2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>22.083162368444469</v>
+      </c>
+      <c r="M26" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>3.6475245763088601E-3</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2.3130643654641599E-3</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1.3724923268537871E-2</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>3.2863529202437611</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.48064810284240023</v>
+      </c>
+      <c r="S26" s="1">
+        <v>62.958639059650331</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1.5568702459854949E-3</v>
+      </c>
+      <c r="U26" s="1">
+        <v>4.7617988523642192E-2</v>
+      </c>
+      <c r="V26" s="1">
+        <v>38.445424051198778</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-56.99999999999995</v>
+      </c>
+      <c r="G27" s="1">
+        <v>44933.999999999993</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.1135665642942983</v>
+      </c>
+      <c r="I27" s="1">
+        <v>20641.733639999999</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.37868206703164631</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3.4984644144745607E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>23.389734217296478</v>
+      </c>
+      <c r="M27" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="N27" s="1">
+        <v>3.7165620688120122E-3</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2.2699959941247069E-3</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1.374237770952952E-2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2.790626251836025</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.49644456313704521</v>
+      </c>
+      <c r="S27" s="1">
+        <v>59.326706022165851</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1.491075800062311E-3</v>
+      </c>
+      <c r="U27" s="1">
+        <v>4.775893532736903E-2</v>
+      </c>
+      <c r="V27" s="1">
+        <v>34.524197758490182</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-449.99999999999989</v>
+      </c>
+      <c r="G28" s="1">
+        <v>44386</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.11616275402153831</v>
+      </c>
+      <c r="I28" s="1">
+        <v>21819.183840000002</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.43312530978236369</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3.4515387734871332E-2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>23.330135132699489</v>
+      </c>
+      <c r="M28" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3.807506871536046E-3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2.343081151714495E-3</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1.4168882079935099E-2</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2.863042400756993</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.49934596494390132</v>
+      </c>
+      <c r="S28" s="1">
+        <v>56.510477592033467</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1.622133105033115E-3</v>
+      </c>
+      <c r="U28" s="1">
+        <v>4.9587707835804067E-2</v>
+      </c>
+      <c r="V28" s="1">
+        <v>33.696300743477607</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I16:I20">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L20">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:Q20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16:R20">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:S20">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V16:V20">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:L28">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24:Q28">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24:R28">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24:S28">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V24:V28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
     <sheet name="ethnic" sheetId="2" r:id="rId2"/>
     <sheet name="anti-industrial" sheetId="3" r:id="rId3"/>
+    <sheet name="agestruct (h2h)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="53">
   <si>
     <t>saldo</t>
   </si>
@@ -271,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +312,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,7 +596,7 @@
   <dimension ref="B4:AL51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B13" sqref="B13:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3684,63 +3686,63 @@
         <v>54211.5</v>
       </c>
       <c r="X7" s="1">
-        <f>AVERAGE(X5:X6)</f>
+        <f t="shared" ref="X7:AL7" si="13">AVERAGE(X5:X6)</f>
         <v>8248.4999999999982</v>
       </c>
       <c r="Y7" s="1">
-        <f>AVERAGE(Y5:Y6)</f>
+        <f t="shared" si="13"/>
         <v>20609.998500000002</v>
       </c>
       <c r="Z7" s="1">
-        <f>AVERAGE(Z5:Z6)</f>
+        <f t="shared" si="13"/>
         <v>19906.449999999993</v>
       </c>
       <c r="AA7" s="1">
-        <f>AVERAGE(AA5:AA6)</f>
+        <f t="shared" si="13"/>
         <v>930.99999999999955</v>
       </c>
       <c r="AB7" s="1">
-        <f>AVERAGE(AB5:AB6)</f>
+        <f t="shared" si="13"/>
         <v>1329087.5764899994</v>
       </c>
       <c r="AC7" s="1">
-        <f>AVERAGE(AC5:AC6)</f>
+        <f t="shared" si="13"/>
         <v>26.77</v>
       </c>
       <c r="AD7" s="1">
-        <f>AVERAGE(AD5:AD6)</f>
+        <f t="shared" si="13"/>
         <v>105.49999999999929</v>
       </c>
       <c r="AE7" s="1">
-        <f>AVERAGE(AE5:AE6)</f>
+        <f t="shared" si="13"/>
         <v>134.99999999999943</v>
       </c>
       <c r="AF7" s="1">
-        <f>AVERAGE(AF5:AF6)</f>
+        <f t="shared" si="13"/>
         <v>612.4999999999992</v>
       </c>
       <c r="AG7" s="1">
-        <f>AVERAGE(AG5:AG6)</f>
+        <f t="shared" si="13"/>
         <v>38964.999999999956</v>
       </c>
       <c r="AH7" s="1">
-        <f>AVERAGE(AH5:AH6)</f>
+        <f t="shared" si="13"/>
         <v>81731.324999999983</v>
       </c>
       <c r="AI7" s="1">
-        <f>AVERAGE(AI5:AI6)</f>
+        <f t="shared" si="13"/>
         <v>7111251.9032999985</v>
       </c>
       <c r="AJ7" s="1">
-        <f>AVERAGE(AJ5:AJ6)</f>
+        <f t="shared" si="13"/>
         <v>30.999999999999922</v>
       </c>
       <c r="AK7" s="1">
-        <f>AVERAGE(AK5:AK6)</f>
+        <f t="shared" si="13"/>
         <v>2395.9999999999995</v>
       </c>
       <c r="AL7" s="1">
-        <f>AVERAGE(AL5:AL6)</f>
+        <f t="shared" si="13"/>
         <v>6559893.5011949968</v>
       </c>
     </row>
@@ -3814,39 +3816,39 @@
         <v>26.77</v>
       </c>
       <c r="AD9" s="1">
-        <f>AD7/$G7</f>
+        <f t="shared" ref="AD9:AL9" si="14">AD7/$G7</f>
         <v>1.946081550962421E-3</v>
       </c>
       <c r="AE9" s="1">
-        <f>AE7/$G7</f>
+        <f t="shared" si="14"/>
         <v>2.4902465344068957E-3</v>
       </c>
       <c r="AF9" s="1">
-        <f>AF7/$G7</f>
+        <f t="shared" si="14"/>
         <v>1.1298340757957246E-2</v>
       </c>
       <c r="AG9" s="1">
-        <f>AG7/$G7</f>
+        <f t="shared" si="14"/>
         <v>0.71875893491233334</v>
       </c>
       <c r="AH9" s="1">
-        <f>AH7/$G7</f>
+        <f t="shared" si="14"/>
         <v>1.5076381395091445</v>
       </c>
       <c r="AI9" s="1">
-        <f>AI7/$G7</f>
+        <f t="shared" si="14"/>
         <v>131.17607709249879</v>
       </c>
       <c r="AJ9" s="1">
-        <f>AJ7/$G7</f>
+        <f t="shared" si="14"/>
         <v>5.7183438938232523E-4</v>
       </c>
       <c r="AK9" s="1">
-        <f>AK7/$G7</f>
+        <f t="shared" si="14"/>
         <v>4.4197264418066269E-2</v>
       </c>
       <c r="AL9" s="1">
-        <f>AL7/$G7</f>
+        <f t="shared" si="14"/>
         <v>121.00557079577206</v>
       </c>
     </row>
@@ -4202,55 +4204,55 @@
         <v>5.6794999999999998E-2</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:T18" si="13">AVERAGE(H14,H11)</f>
+        <f t="shared" ref="H18:T18" si="15">AVERAGE(H14,H11)</f>
         <v>5.8865000000000001E-2</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.3040000000000004E-2</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.6795000000000003E-2</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.498000000000001E-2</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.8550000000000009E-2</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.5250000000000011E-2</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.823499999999999E-2</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7674999999999999E-2</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15275</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.8650000000000007E-2</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.1320000000000003E-2</v>
       </c>
       <c r="T18" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.9730000000000005E-2</v>
       </c>
     </row>
@@ -4266,55 +4268,55 @@
         <v>6.0020000000000004E-2</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" ref="H19:T19" si="14">AVERAGE(H15,H12)</f>
+        <f t="shared" ref="H19:T19" si="16">AVERAGE(H15,H12)</f>
         <v>6.225E-2</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.8189999999999997E-2</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.8930000000000001E-2</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.4645000000000003E-2</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.1124999999999998E-2</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.448E-2</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.4749999999999997E-2</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.9349999999999995E-2</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.14055000000000001</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.5964999999999996E-2</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.351E-2</v>
       </c>
     </row>
@@ -5162,10 +5164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AL28"/>
+  <dimension ref="C4:AL42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5359,7 +5361,7 @@
         <v>24720.091919999999</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" ref="Y5:AL5" si="0">$G5*J5</f>
+        <f t="shared" ref="Z5:AL5" si="0">$G5*J5</f>
         <v>69644.699999999983</v>
       </c>
       <c r="AA5" s="1">
@@ -5540,7 +5542,7 @@
         <v>9345.4999999999982</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" ref="Y7:AL8" si="13">AVERAGE(Y5:Y6)</f>
+        <f t="shared" ref="Y7:AL7" si="13">AVERAGE(Y5:Y6)</f>
         <v>23269.637880000002</v>
       </c>
       <c r="Z7" s="1">
@@ -5608,7 +5610,7 @@
         <v>23269.637880000002</v>
       </c>
       <c r="Z8" s="14">
-        <f t="shared" ref="Y8:AL8" si="14">Z7/$G7</f>
+        <f t="shared" ref="Z8:AL8" si="14">Z7/$G7</f>
         <v>0.68190600422021852</v>
       </c>
       <c r="AA8" s="14">
@@ -5659,740 +5661,1084 @@
         <v>112.85893363207359</v>
       </c>
     </row>
+    <row r="12" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>80631000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G13" s="7">
+        <v>5.713E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6.6350000000000006E-2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6.54E-2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>4.7969999999999999E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>4.8160000000000001E-2</v>
+      </c>
+      <c r="L13" s="7">
+        <v>4.5749999999999999E-2</v>
+      </c>
+      <c r="M13" s="7">
+        <v>7.306E-2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="O13" s="7">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="P13" s="7">
+        <v>6.1429999999999998E-2</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="R13" s="7">
+        <v>9.0639999999999998E-2</v>
+      </c>
+      <c r="S13" s="7">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T13" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>80631000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G14" s="7">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>5.1240000000000001E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>4.446E-2</v>
+      </c>
+      <c r="L14" s="7">
+        <v>8.0439999999999998E-2</v>
+      </c>
+      <c r="M14" s="7">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7.5130000000000002E-2</v>
+      </c>
+      <c r="O14" s="7">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="P14" s="7">
+        <v>6.1039999999999997E-2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.1278</v>
+      </c>
+      <c r="R14" s="7">
+        <v>7.6969999999999997E-2</v>
+      </c>
+      <c r="S14" s="7">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="T14" s="7">
+        <v>4.9840000000000002E-2</v>
+      </c>
+    </row>
     <row r="15" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>80601000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G16" s="7">
+        <v>7.2270000000000001E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8.7160000000000001E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>4.1930000000000002E-2</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6.2469999999999998E-2</v>
+      </c>
+      <c r="O16" s="7">
+        <v>6.2560000000000004E-2</v>
+      </c>
+      <c r="P16" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="R16" s="7">
+        <v>8.5139999999999993E-2</v>
+      </c>
+      <c r="S16" s="7">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="T16" s="7">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>80601000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G17" s="7">
+        <v>7.2139999999999996E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>8.6360000000000006E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>8.2460000000000006E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5.8470000000000001E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>6.5250000000000002E-2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7.0860000000000006E-2</v>
+      </c>
+      <c r="O17" s="7">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="P17" s="7">
+        <v>5.8779999999999999E-2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.1333</v>
+      </c>
+      <c r="R17" s="7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="S17" s="7">
+        <v>6.1650000000000003E-2</v>
+      </c>
+      <c r="T17" s="7">
+        <v>3.5639999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="U29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V15" s="2" t="s">
+      <c r="V29" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E30" s="1">
         <v>2015</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F30" s="1">
         <v>-508</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G30" s="1">
         <v>89673</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H30" s="1">
         <v>0.17097677115742749</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I30" s="1">
         <v>20274.726180000001</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J30" s="1">
         <v>0.63144982324668508</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K30" s="1">
         <v>1.8846252495176911E-2</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L30" s="1">
         <v>23.73828289719313</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M30" s="1">
         <v>25.6</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N30" s="1">
         <v>5.8769083224604586E-3</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O30" s="1">
         <v>2.9663332329686628E-3</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P30" s="1">
         <v>8.227671651444687E-3</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q30" s="1">
         <v>1.0814961025057701</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R30" s="1">
         <v>0.67026351298607134</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S30" s="1">
         <v>25.881326426014489</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T30" s="1">
         <v>4.9067166259632105E-4</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U30" s="1">
         <v>5.6929064489868737E-2</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V30" s="1">
         <v>119.345016326319</v>
       </c>
     </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E31" s="1">
         <v>2016</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F31" s="1">
         <v>-583</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G31" s="1">
         <v>88968</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H31" s="1">
         <v>0.1689259059437101</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I31" s="1">
         <v>21016.71081</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J31" s="1">
         <v>0.63645580433414262</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K31" s="1">
         <v>1.899559392140994E-2</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L31" s="1">
         <v>23.527577473473599</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M31" s="1">
         <v>26.6</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N31" s="1">
         <v>5.9234781044869714E-3</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O31" s="1">
         <v>3.0572790216706999E-3</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P31" s="1">
         <v>8.4412372988040517E-3</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q31" s="1">
         <v>1.082479093606689</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R31" s="1">
         <v>0.61311033180469354</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S31" s="1">
         <v>24.770910734196551</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T31" s="1">
         <v>4.9455984174084965E-4</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U31" s="1">
         <v>5.7874741480082717E-2</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V31" s="1">
         <v>143.61354485994971</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E32" s="1">
         <v>2017</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F32" s="1">
         <v>-507</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G32" s="1">
         <v>88092</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H32" s="1">
         <v>0.1657471734096172</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I32" s="1">
         <v>22275.830239999999</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J32" s="1">
         <v>0.67765063796939562</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K32" s="1">
         <v>1.9740725605049251E-2</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L32" s="1">
         <v>26.707001895631841</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M32" s="1">
         <v>27.4</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N32" s="1">
         <v>5.9823820551241514E-3</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O32" s="1">
         <v>3.0536257548926002E-3</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P32" s="1">
         <v>8.7851337238341615E-3</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q32" s="1">
         <v>1.0234073468646401</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R32" s="1">
         <v>0.61994051673250683</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S32" s="1">
         <v>21.178866225082849</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T32" s="1">
         <v>4.9947781864414359E-4</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U32" s="1">
         <v>5.87113472278981E-2</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V32" s="1">
         <v>142.04406721007581</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E33" s="1">
         <v>2018</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F33" s="1">
         <v>-711</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G33" s="1">
         <v>87282</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H33" s="1">
         <v>0.16122453655965721</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I33" s="1">
         <v>23989.908439999999</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J33" s="1">
         <v>0.68737654957494088</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K33" s="1">
         <v>1.875529891615681E-2</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L33" s="1">
         <v>29.351305275772781</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M33" s="1">
         <v>28.1</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N33" s="1">
         <v>6.3586993881899652E-3</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O33" s="1">
         <v>3.0819642079695569E-3</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P33" s="1">
         <v>9.3810865928828282E-3</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q33" s="1">
         <v>0.98409752297151609</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R33" s="1">
         <v>0.71611913109232095</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S33" s="1">
         <v>20.416691414037231</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T33" s="1">
         <v>5.0411310464929633E-4</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U33" s="1">
         <v>5.925620402832199E-2</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V33" s="1">
         <v>145.038276238858</v>
       </c>
     </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E34" s="3">
         <v>2020</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F34" s="1">
         <v>-151.99999999999989</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G34" s="1">
         <v>85939</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H34" s="1">
         <v>0.15749543280699099</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I34" s="1">
         <v>24720.091919999999</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J34" s="1">
         <v>0.81039690943576237</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K34" s="1">
         <v>1.8396769801836171E-2</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L34" s="1">
         <v>32.194688077822633</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M34" s="1">
         <v>28.7</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N34" s="1">
         <v>6.539522219248496E-3</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O34" s="1">
         <v>2.5715914776760149E-3</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P34" s="1">
         <v>1.0555161219004169E-2</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q34" s="1">
         <v>1.1495013905211819</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R34" s="1">
         <v>0.66520904362396571</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S34" s="1">
         <v>22.581482595794672</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T34" s="1">
         <v>7.4471427407812321E-4</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U34" s="1">
         <v>6.0112405310743661E-2</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V34" s="1">
         <v>153.74505778284589</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="U37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="V37" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C24" s="14" t="s">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E38" s="1">
         <v>2015</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F38" s="1">
         <v>-163</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G38" s="1">
         <v>44795</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H38" s="1">
         <v>0.1195669159504409</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I38" s="1">
         <v>19632.524519999999</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J38" s="1">
         <v>0.26123004799642802</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K38" s="1">
         <v>3.0717714030583751E-2</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L38" s="1">
         <v>6.8428243203482468</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M38" s="1">
         <v>25.4</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N38" s="1">
         <v>3.415559772295994E-3</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O38" s="1">
         <v>2.2993637682777002E-3</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P38" s="1">
         <v>1.320683111954458E-2</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q38" s="1">
         <v>3.216117870298024</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R38" s="1">
         <v>0.54021386315436981</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S38" s="1">
         <v>65.877446219444096</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T38" s="1">
         <v>1.5626744056256249E-3</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U38" s="1">
         <v>4.6790936488447371E-2</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V38" s="1">
         <v>36.086993072441103</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C25" s="14" t="s">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E39" s="1">
         <v>2016</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F39" s="1">
         <v>-100</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G39" s="1">
         <v>44888</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H39" s="1">
         <v>0.1251559436820531</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I39" s="1">
         <v>18340.544890000001</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J39" s="1">
         <v>0.37225984672963802</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K39" s="1">
         <v>3.412938870076633E-2</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L39" s="1">
         <v>8.4181796671716178</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M39" s="1">
         <v>27.3</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N39" s="1">
         <v>3.2970949919800181E-3</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O39" s="1">
         <v>2.31687756193191E-3</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P39" s="1">
         <v>1.3460167528069861E-2</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q39" s="1">
         <v>3.237123507396185</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R39" s="1">
         <v>0.44668731063981459</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S39" s="1">
         <v>65.029295230351053</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T39" s="1">
         <v>1.559436820531096E-3</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U39" s="1">
         <v>4.7696489039386912E-2</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V39" s="1">
         <v>36.327307061575482</v>
       </c>
     </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E40" s="1">
         <v>2017</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F40" s="1">
         <v>-179</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G40" s="1">
         <v>44962</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H40" s="1">
         <v>0.1264401049775366</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I40" s="1">
         <v>19591.68519</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J40" s="1">
         <v>0.37287042391352693</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K40" s="1">
         <v>3.0603620835372079E-2</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L40" s="1">
         <v>22.083162368444469</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M40" s="1">
         <v>28.1</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N40" s="1">
         <v>3.6475245763088601E-3</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O40" s="1">
         <v>2.3130643654641599E-3</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P40" s="1">
         <v>1.3724923268537871E-2</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q40" s="1">
         <v>3.2863529202437611</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R40" s="1">
         <v>0.48064810284240023</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S40" s="1">
         <v>62.958639059650331</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T40" s="1">
         <v>1.5568702459854949E-3</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U40" s="1">
         <v>4.7617988523642192E-2</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V40" s="1">
         <v>38.445424051198778</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C27" s="14" t="s">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C41" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E41" s="1">
         <v>2018</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F41" s="1">
         <v>-56.99999999999995</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G41" s="1">
         <v>44933.999999999993</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H41" s="1">
         <v>0.1135665642942983</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I41" s="1">
         <v>20641.733639999999</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J41" s="1">
         <v>0.37868206703164631</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K41" s="1">
         <v>3.4984644144745607E-2</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L41" s="1">
         <v>23.389734217296478</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M41" s="1">
         <v>28.8</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N41" s="1">
         <v>3.7165620688120122E-3</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O41" s="1">
         <v>2.2699959941247069E-3</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P41" s="1">
         <v>1.374237770952952E-2</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q41" s="1">
         <v>2.790626251836025</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R41" s="1">
         <v>0.49644456313704521</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S41" s="1">
         <v>59.326706022165851</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T41" s="1">
         <v>1.491075800062311E-3</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U41" s="1">
         <v>4.775893532736903E-2</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V41" s="1">
         <v>34.524197758490182</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E42" s="3">
         <v>2020</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F42" s="1">
         <v>-449.99999999999989</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G42" s="1">
         <v>44386</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H42" s="1">
         <v>0.11616275402153831</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I42" s="1">
         <v>21819.183840000002</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J42" s="1">
         <v>0.43312530978236369</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K42" s="1">
         <v>3.4515387734871332E-2</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L42" s="1">
         <v>23.330135132699489</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M42" s="1">
         <v>29.9</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N42" s="1">
         <v>3.807506871536046E-3</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O42" s="1">
         <v>2.343081151714495E-3</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P42" s="1">
         <v>1.4168882079935099E-2</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q42" s="1">
         <v>2.863042400756993</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R42" s="1">
         <v>0.49934596494390132</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S42" s="1">
         <v>56.510477592033467</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T42" s="1">
         <v>1.622133105033115E-3</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U42" s="1">
         <v>4.9587707835804067E-2</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V42" s="1">
         <v>33.696300743477607</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I16:I20">
+  <conditionalFormatting sqref="I30:I34">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:L34">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q30:Q34">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30:R34">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30:S34">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6404,7 +6750,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16:L20">
+  <conditionalFormatting sqref="V30:V34">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6416,7 +6762,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16:Q20">
+  <conditionalFormatting sqref="I38:I42">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6428,7 +6774,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16:R20">
+  <conditionalFormatting sqref="L38:L42">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6440,7 +6786,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S16:S20">
+  <conditionalFormatting sqref="Q38:Q42">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6452,7 +6798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V16:V20">
+  <conditionalFormatting sqref="R38:R42">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6464,7 +6810,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I28">
+  <conditionalFormatting sqref="S38:S42">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6476,7 +6822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24:L28">
+  <conditionalFormatting sqref="V38:V42">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6488,7 +6834,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q24:Q28">
+  <conditionalFormatting sqref="G13:T13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6500,7 +6846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R24:R28">
+  <conditionalFormatting sqref="G14:T14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6512,7 +6858,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S24:S28">
+  <conditionalFormatting sqref="G16:T16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6524,7 +6870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V24:V28">
+  <conditionalFormatting sqref="G17:T17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6539,4 +6885,1738 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:U52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>11635000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6.2260000000000003E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>6.1740000000000003E-2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>4.3060000000000001E-2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>3.4329999999999999E-2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2.5440000000000001E-2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5.4260000000000003E-2</v>
+      </c>
+      <c r="O5" s="7">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="P5" s="7">
+        <v>7.51E-2</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>6.4939999999999998E-2</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0.108</v>
+      </c>
+      <c r="U5" s="7">
+        <v>7.2400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>11635000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6.9639999999999994E-2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4.7329999999999997E-2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3.6650000000000002E-2</v>
+      </c>
+      <c r="M6" s="7">
+        <v>3.848E-2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="O6" s="7">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="P6" s="7">
+        <v>7.4770000000000003E-2</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>6.726E-2</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="S6" s="7">
+        <v>9.393E-2</v>
+      </c>
+      <c r="T6" s="7">
+        <v>7.5870000000000007E-2</v>
+      </c>
+      <c r="U6" s="7">
+        <v>5.2670000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>3623000</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4.6170000000000003E-2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>6.055E-2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>4.7149999999999997E-2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>5.2979999999999999E-2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="O7" s="7">
+        <v>7.5130000000000002E-2</v>
+      </c>
+      <c r="P7" s="7">
+        <v>7.3849999999999999E-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="S7" s="7">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="T7" s="7">
+        <v>8.6360000000000006E-2</v>
+      </c>
+      <c r="U7" s="7">
+        <v>8.0600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>3623000</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5.3560000000000003E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>7.324E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>6.1920000000000003E-2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>5.1569999999999998E-2</v>
+      </c>
+      <c r="M8" s="7">
+        <v>6.1370000000000001E-2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7.4770000000000003E-2</v>
+      </c>
+      <c r="O8" s="7">
+        <v>8.1850000000000006E-2</v>
+      </c>
+      <c r="P8" s="7">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>7.3849999999999999E-2</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.1183</v>
+      </c>
+      <c r="S8" s="7">
+        <v>6.8049999999999999E-2</v>
+      </c>
+      <c r="T8" s="7">
+        <v>7.3359999999999995E-2</v>
+      </c>
+      <c r="U8" s="7">
+        <v>5.8200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>65722000</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6.6159999999999997E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>6.9949999999999998E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>5.2249999999999998E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>4.614E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>6.8049999999999999E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="P9" s="7">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.11645999999999999</v>
+      </c>
+      <c r="S9" s="7">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="U9" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>65722000</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>6.2869999999999995E-2</v>
+      </c>
+      <c r="L10" s="7">
+        <v>5.1029999999999999E-2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="O10" s="7">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="P10" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.10485999999999999</v>
+      </c>
+      <c r="S10" s="7">
+        <v>5.9749999999999998E-2</v>
+      </c>
+      <c r="T10" s="7">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="U10" s="7">
+        <v>5.5019999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>56613000</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5.5329999999999997E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>5.4960000000000002E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="L12" s="7">
+        <v>4.0250000000000001E-2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>5.5660000000000001E-2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="O12" s="7">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="P12" s="7">
+        <v>7.0739999999999997E-2</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>6.4449999999999993E-2</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="S12" s="7">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="T12" s="7">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="U12" s="7">
+        <v>7.5560000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>56613000</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>4.938E-2</v>
+      </c>
+      <c r="L13" s="7">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6.0729999999999999E-2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>9.0149999999999994E-2</v>
+      </c>
+      <c r="O13" s="7">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="P13" s="7">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="S13" s="7">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="T13" s="7">
+        <v>7.4160000000000004E-2</v>
+      </c>
+      <c r="U13" s="7">
+        <v>5.7099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>63637000</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5.8259999999999999E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5.9630000000000002E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>5.1119999999999999E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="L14" s="7">
+        <v>5.3339999999999999E-2</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7.46E-2</v>
+      </c>
+      <c r="O14" s="7">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="P14" s="7">
+        <v>6.5729999999999997E-2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="S14" s="7">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="T14" s="7">
+        <v>7.0739999999999997E-2</v>
+      </c>
+      <c r="U14" s="7">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>63637000</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5.8840000000000003E-2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>5.5359999999999999E-2</v>
+      </c>
+      <c r="M15" s="7">
+        <v>8.856E-2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="O15" s="7">
+        <v>8.3860000000000004E-2</v>
+      </c>
+      <c r="P15" s="7">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.1512</v>
+      </c>
+      <c r="S15" s="7">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="T15" s="7">
+        <v>5.7770000000000002E-2</v>
+      </c>
+      <c r="U15" s="7">
+        <v>2.9919999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>80631000</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5.713E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6.6350000000000006E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>6.54E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>4.7969999999999999E-2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>4.8160000000000001E-2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>4.5749999999999999E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7.306E-2</v>
+      </c>
+      <c r="O17" s="7">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="P17" s="7">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>6.1429999999999998E-2</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="S17" s="7">
+        <v>9.0639999999999998E-2</v>
+      </c>
+      <c r="T17" s="7">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="U17" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>80631000</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H18" s="7">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>5.1240000000000001E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>4.446E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>8.0439999999999998E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="O18" s="7">
+        <v>7.5130000000000002E-2</v>
+      </c>
+      <c r="P18" s="7">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>6.1039999999999997E-2</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0.1278</v>
+      </c>
+      <c r="S18" s="7">
+        <v>7.6969999999999997E-2</v>
+      </c>
+      <c r="T18" s="7">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="U18" s="7">
+        <v>4.9840000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>80601000</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H19" s="7">
+        <v>7.2270000000000001E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8.7160000000000001E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>4.1930000000000002E-2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="O19" s="7">
+        <v>6.2469999999999998E-2</v>
+      </c>
+      <c r="P19" s="7">
+        <v>6.2560000000000004E-2</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="S19" s="7">
+        <v>8.5139999999999993E-2</v>
+      </c>
+      <c r="T19" s="7">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="U19" s="7">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>80601000</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7.2139999999999996E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8.6360000000000006E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>8.2460000000000006E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>5.8470000000000001E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>6.5250000000000002E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>7.0860000000000006E-2</v>
+      </c>
+      <c r="P20" s="7">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>5.8779999999999999E-2</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0.1333</v>
+      </c>
+      <c r="S20" s="7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="T20" s="7">
+        <v>6.1650000000000003E-2</v>
+      </c>
+      <c r="U20" s="7">
+        <v>3.5639999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+    </row>
+    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+    </row>
+    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+    </row>
+    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+    </row>
+    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+    </row>
+    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+    </row>
+    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+    </row>
+    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+    </row>
+    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H32:H40">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I40">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J40">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K40">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L40">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:M40">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:N40">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:O40">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32:P40">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q32:Q40">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:R40">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32:S40">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T32:T40">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U32:U40">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H52">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:I52">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:J52">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:K52">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:L52">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44:M52">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44:N52">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:O52">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44:P52">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44:Q52">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44:R52">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44:S52">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T44:T52">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44:U52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H22 H12:H15 H5:H10">
+    <cfRule type="colorScale" priority="292">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I22 I12:I15 I5:I10">
+    <cfRule type="colorScale" priority="295">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J22 J12:J15 J5:J10">
+    <cfRule type="colorScale" priority="298">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:K22 K12:K15 K5:K10">
+    <cfRule type="colorScale" priority="301">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L22 L12:L15 L5:L10">
+    <cfRule type="colorScale" priority="304">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:M22 M12:M15 M5:M10">
+    <cfRule type="colorScale" priority="307">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:N22 N12:N15 N5:N10">
+    <cfRule type="colorScale" priority="310">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:O22 O12:O15 O5:O10">
+    <cfRule type="colorScale" priority="313">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17:P22 P12:P15 P5:P10">
+    <cfRule type="colorScale" priority="316">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:Q22 Q12:Q15 Q5:Q10">
+    <cfRule type="colorScale" priority="319">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:R22 R12:R15 R5:R10">
+    <cfRule type="colorScale" priority="322">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17:S22 S12:S15 S5:S10">
+    <cfRule type="colorScale" priority="325">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17:T22 T12:T15 T5:T10">
+    <cfRule type="colorScale" priority="328">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17:U22 U12:U15 U5:U10">
+    <cfRule type="colorScale" priority="331">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
     <sheet name="ethnic" sheetId="2" r:id="rId2"/>
     <sheet name="anti-industrial" sheetId="3" r:id="rId3"/>
     <sheet name="agestruct (h2h)" sheetId="4" r:id="rId4"/>
+    <sheet name="socioeco (h2h)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="53">
   <si>
     <t>saldo</t>
   </si>
@@ -596,7 +597,7 @@
   <dimension ref="B4:AL51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:S13"/>
+      <selection activeCell="B4" sqref="B4:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,7 +3315,7 @@
   <dimension ref="C4:AL36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:T15"/>
+      <selection activeCell="V6" sqref="C4:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5166,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AL42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:T17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6889,18 +6890,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:U52"/>
+  <dimension ref="C4:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
@@ -6956,7 +6962,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="1">
         <v>11635000</v>
       </c>
@@ -7012,7 +7021,10 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="1">
         <v>11635000</v>
       </c>
@@ -7068,7 +7080,10 @@
         <v>5.2670000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="1">
         <v>3623000</v>
       </c>
@@ -7124,7 +7139,10 @@
         <v>8.0600000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="1">
         <v>3623000</v>
       </c>
@@ -7180,7 +7198,10 @@
         <v>5.8200000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="1">
         <v>65722000</v>
       </c>
@@ -7236,7 +7257,10 @@
         <v>8.0699999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" s="1">
         <v>65722000</v>
       </c>
@@ -7292,7 +7316,10 @@
         <v>5.5019999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D12" s="1">
         <v>56613000</v>
       </c>
@@ -7348,7 +7375,10 @@
         <v>7.5560000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D13" s="1">
         <v>56613000</v>
       </c>
@@ -7404,7 +7434,10 @@
         <v>5.7099999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D14" s="1">
         <v>63637000</v>
       </c>
@@ -7460,7 +7493,10 @@
         <v>4.3900000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D15" s="1">
         <v>63637000</v>
       </c>
@@ -7516,7 +7552,10 @@
         <v>2.9919999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D17" s="1">
         <v>80631000</v>
       </c>
@@ -7572,7 +7611,10 @@
         <v>7.3700000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D18" s="1">
         <v>80631000</v>
       </c>
@@ -7628,7 +7670,10 @@
         <v>4.9840000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D19" s="1">
         <v>80601000</v>
       </c>
@@ -7684,7 +7729,10 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D20" s="1">
         <v>80601000</v>
       </c>
@@ -7740,7 +7788,7 @@
         <v>3.5639999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -7760,7 +7808,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -7780,7 +7828,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -8619,4 +8667,701 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:V13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-151</v>
+      </c>
+      <c r="G5" s="1">
+        <v>11226.999999999991</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.24547964727888119</v>
+      </c>
+      <c r="I5" s="6">
+        <v>38152.560480000007</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.051928386924379</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5.005789614322613E-2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>26.825564115079711</v>
+      </c>
+      <c r="M5" s="5">
+        <v>35.1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5.1661173955642329E-3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3.2956266144116729E-3</v>
+      </c>
+      <c r="P5" s="5">
+        <v>2.5011133873697321E-2</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.12710430212879489</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.36109379175202633</v>
+      </c>
+      <c r="S5" s="5">
+        <v>7.495136403313432</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1.78141979157388E-3</v>
+      </c>
+      <c r="U5" s="5">
+        <v>8.2479736349870852E-2</v>
+      </c>
+      <c r="V5" s="5">
+        <v>155.1901168112586</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F6" s="6">
+        <v>230.99999999999989</v>
+      </c>
+      <c r="G6" s="6">
+        <v>101303</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.1301540921789088</v>
+      </c>
+      <c r="I6" s="6">
+        <v>19630.4133</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.71502225995281454</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3.0226153223497799E-2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>44.866399511860457</v>
+      </c>
+      <c r="M6" s="5">
+        <v>26.55</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1.7867190507684749E-3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3.6622804852768269E-3</v>
+      </c>
+      <c r="P6" s="5">
+        <v>9.3432573566429363E-3</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.62133401774873231</v>
+      </c>
+      <c r="R6" s="5">
+        <v>2.1298443284009361</v>
+      </c>
+      <c r="S6" s="5">
+        <v>80.193313110174415</v>
+      </c>
+      <c r="T6" s="5">
+        <v>3.4549815898838042E-4</v>
+      </c>
+      <c r="U6" s="5">
+        <v>3.6770875492334869E-2</v>
+      </c>
+      <c r="V6" s="5">
+        <v>121.75934634857801</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1">
+        <v>975</v>
+      </c>
+      <c r="G7" s="1">
+        <v>63620.999999999993</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.18481319061316229</v>
+      </c>
+      <c r="I7" s="6">
+        <v>22921.057649999999</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.97470646484651291</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2.8968422376259389E-2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>78.190951424058085</v>
+      </c>
+      <c r="M7" s="5">
+        <v>47.9</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3.9609562880180823E-3</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2.9235629744895431E-3</v>
+      </c>
+      <c r="P7" s="5">
+        <v>7.7191493374829017E-3</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>4.8034139670863398</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1.015481051853947</v>
+      </c>
+      <c r="S7" s="5">
+        <v>14.01607356061678</v>
+      </c>
+      <c r="T7" s="5">
+        <v>5.9728705930431629E-4</v>
+      </c>
+      <c r="U7" s="5">
+        <v>7.1768755599566178E-2</v>
+      </c>
+      <c r="V7" s="5">
+        <v>137.9810431178384</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G9" s="1">
+        <v>48561</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.13216367043512281</v>
+      </c>
+      <c r="I9" s="6">
+        <v>22502.496999999999</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.27060810115112938</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1.383826527460307E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>29.993051069376651</v>
+      </c>
+      <c r="M9" s="5">
+        <v>30.14</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2.1622289491567159E-3</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2.4917114556948891E-3</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1.190667408002305E-2</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.25711991103972193</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1.9074271534770699</v>
+      </c>
+      <c r="S9" s="5">
+        <v>203.3529541525092</v>
+      </c>
+      <c r="T9" s="5">
+        <v>3.9126047651407418E-4</v>
+      </c>
+      <c r="U9" s="5">
+        <v>4.1473610510491948E-2</v>
+      </c>
+      <c r="V9" s="5">
+        <v>214.15723321986769</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-136</v>
+      </c>
+      <c r="G10" s="6">
+        <v>59861.999999999993</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.1683705856803982</v>
+      </c>
+      <c r="I10" s="6">
+        <v>18717.5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.44555644649360188</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1.9879055160201789E-2</v>
+      </c>
+      <c r="L10" s="5">
+        <v>20.074214025592191</v>
+      </c>
+      <c r="M10" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1.7707393672112409E-3</v>
+      </c>
+      <c r="O10" s="5">
+        <v>2.489058167117694E-3</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1.0804851157662609E-2</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1.093247803280879</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1.183322976178544</v>
+      </c>
+      <c r="S10" s="5">
+        <v>72.625054291537197</v>
+      </c>
+      <c r="T10" s="5">
+        <v>7.1831879990644969E-4</v>
+      </c>
+      <c r="U10" s="5">
+        <v>4.6406735491630748E-2</v>
+      </c>
+      <c r="V10" s="5">
+        <v>45.439470782800392</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-151.99999999999989</v>
+      </c>
+      <c r="G12" s="1">
+        <v>85939</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.15749543280699099</v>
+      </c>
+      <c r="I12" s="1">
+        <v>24720.091919999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.81039690943576237</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.8396769801836171E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>32.194688077822633</v>
+      </c>
+      <c r="M12" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>6.539522219248496E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2.5715914776760149E-3</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.0555161219004169E-2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1.1495013905211819</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.66520904362396571</v>
+      </c>
+      <c r="S12" s="1">
+        <v>22.581482595794672</v>
+      </c>
+      <c r="T12" s="1">
+        <v>7.4471427407812321E-4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>6.0112405310743661E-2</v>
+      </c>
+      <c r="V12" s="1">
+        <v>153.74505778284589</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-449.99999999999989</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44386</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.11616275402153831</v>
+      </c>
+      <c r="I13" s="1">
+        <v>21819.183840000002</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.43312530978236369</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3.4515387734871332E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>23.330135132699489</v>
+      </c>
+      <c r="M13" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.807506871536046E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.343081151714495E-3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.4168882079935099E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2.863042400756993</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.49934596494390132</v>
+      </c>
+      <c r="S13" s="1">
+        <v>56.510477592033467</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1.622133105033115E-3</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4.9587707835804067E-2</v>
+      </c>
+      <c r="V13" s="1">
+        <v>33.696300743477607</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H5:H13">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I13">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J13">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K13">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L13">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M13">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N13">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P13">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="53">
   <si>
     <t>saldo</t>
   </si>
@@ -4798,7 +4798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13 I16">
+  <conditionalFormatting sqref="I16 I13">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -4810,7 +4810,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13 M16">
+  <conditionalFormatting sqref="M16 M13">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -4822,7 +4822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 H16">
+  <conditionalFormatting sqref="H16 H13">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4834,7 +4834,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13 J16">
+  <conditionalFormatting sqref="J16 J13">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -4846,7 +4846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13 K16">
+  <conditionalFormatting sqref="K16 K13">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -4858,7 +4858,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13 L16">
+  <conditionalFormatting sqref="L16 L13">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -4870,7 +4870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13 N16">
+  <conditionalFormatting sqref="N16 N13">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -4882,7 +4882,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13 O16">
+  <conditionalFormatting sqref="O16 O13">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -4894,7 +4894,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13 P16">
+  <conditionalFormatting sqref="P16 P13">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -4906,7 +4906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13 Q16">
+  <conditionalFormatting sqref="Q16 Q13">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -4918,7 +4918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13 R16">
+  <conditionalFormatting sqref="R16 R13">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -4930,7 +4930,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S13 S16">
+  <conditionalFormatting sqref="S16 S13">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5167,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AL42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:V6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5956,6 +5956,140 @@
       </c>
       <c r="T17" s="7">
         <v>3.5639999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f>AVERAGE(G13,G16)</f>
+        <v>6.4700000000000008E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" ref="H19:T20" si="15">AVERAGE(H13,H16)</f>
+        <v>7.6755000000000004E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="15"/>
+        <v>7.2770000000000001E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="15"/>
+        <v>5.1635E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="15"/>
+        <v>5.3030000000000001E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="15"/>
+        <v>4.3840000000000004E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="15"/>
+        <v>7.1330000000000005E-2</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="15"/>
+        <v>6.6484999999999989E-2</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="15"/>
+        <v>6.4129999999999993E-2</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="15"/>
+        <v>6.0264999999999999E-2</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="15"/>
+        <v>0.14635000000000001</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="15"/>
+        <v>8.7889999999999996E-2</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="15"/>
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" si="15"/>
+        <v>6.1100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <f>AVERAGE(G14,G17)</f>
+        <v>6.7019999999999996E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="15"/>
+        <v>7.9080000000000011E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="15"/>
+        <v>7.578E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="15"/>
+        <v>5.4855000000000001E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="15"/>
+        <v>5.4855000000000001E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="15"/>
+        <v>6.8769999999999998E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="15"/>
+        <v>8.702E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="15"/>
+        <v>7.2995000000000004E-2</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="15"/>
+        <v>6.1249999999999999E-2</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" si="15"/>
+        <v>5.9909999999999998E-2</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="15"/>
+        <v>0.13055</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="15"/>
+        <v>7.7984999999999999E-2</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" si="15"/>
+        <v>6.7275000000000001E-2</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" si="15"/>
+        <v>4.274E-2</v>
       </c>
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.25">
@@ -8673,7 +8807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="56">
   <si>
     <t>saldo</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>Абзелиловский МР</t>
+  </si>
+  <si>
+    <t>2022 (2024)</t>
+  </si>
+  <si>
+    <t>Коркинский МР</t>
+  </si>
+  <si>
+    <t>2023 (2024)</t>
   </si>
 </sst>
 </file>
@@ -597,7 +606,7 @@
   <dimension ref="B4:AL51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:U7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,10 +3321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AL36"/>
+  <dimension ref="C4:AL43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V6" sqref="C4:V6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,7 +3332,7 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
@@ -3332,6 +3341,12 @@
     <col min="13" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.7109375" customWidth="1"/>
     <col min="23" max="23" width="18.42578125" customWidth="1"/>
+    <col min="24" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:38" x14ac:dyDescent="0.25">
@@ -3448,8 +3463,8 @@
       <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
+      <c r="E5" s="1">
+        <v>2019</v>
       </c>
       <c r="F5" s="1">
         <v>-400</v>
@@ -3682,69 +3697,123 @@
       </c>
     </row>
     <row r="7" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-314</v>
+      </c>
       <c r="G7" s="1">
-        <f>AVERAGE(G5:G6)</f>
-        <v>54211.5</v>
+        <v>57281</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.1420715420471011</v>
+      </c>
+      <c r="I7" s="6">
+        <v>19503.478650000001</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.85137654719715072</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.878458825788655E-2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>41.6940077879227</v>
+      </c>
+      <c r="M7" s="5">
+        <v>29.18</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2.9852830781585322E-3</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2.758331733035376E-3</v>
+      </c>
+      <c r="P7" s="5">
+        <v>4.1951083256227973E-3</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.1398369441874257</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.27997800317731869</v>
+      </c>
+      <c r="S7" s="5">
+        <v>3.1786435816413769</v>
+      </c>
+      <c r="T7" s="5">
+        <v>2.9678252823798367E-4</v>
+      </c>
+      <c r="U7" s="5">
+        <v>5.1744906688081557E-2</v>
+      </c>
+      <c r="V7" s="5">
+        <v>144.23140084757591</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" ref="X7:AL7" si="13">AVERAGE(X5:X6)</f>
-        <v>8248.4999999999982</v>
-      </c>
-      <c r="Y7" s="1">
-        <f t="shared" si="13"/>
-        <v>20609.998500000002</v>
+        <f>$G7*H7</f>
+        <v>8137.9999999999982</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>18718.5</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="13"/>
-        <v>19906.449999999993</v>
+        <f t="shared" ref="Z7" si="13">$G7*J7</f>
+        <v>48767.69999999999</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="13"/>
-        <v>930.99999999999955</v>
+        <f t="shared" ref="AA7" si="14">$G7*K7</f>
+        <v>1075.9999999999995</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="13"/>
-        <v>1329087.5764899994</v>
-      </c>
-      <c r="AC7" s="1">
-        <f t="shared" si="13"/>
-        <v>26.77</v>
+        <f t="shared" ref="AB7" si="15">$G7*L7</f>
+        <v>2388274.4601000003</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>24.4</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="13"/>
-        <v>105.49999999999929</v>
+        <f t="shared" ref="AD7" si="16">$G7*N7</f>
+        <v>170.99999999999889</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="13"/>
-        <v>134.99999999999943</v>
+        <f t="shared" ref="AE7" si="17">$G7*O7</f>
+        <v>157.99999999999937</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="13"/>
-        <v>612.4999999999992</v>
+        <f t="shared" ref="AF7" si="18">$G7*P7</f>
+        <v>240.29999999999944</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="13"/>
-        <v>38964.999999999956</v>
+        <f t="shared" ref="AG7" si="19">$G7*Q7</f>
+        <v>8009.9999999999318</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="13"/>
-        <v>81731.324999999983</v>
+        <f t="shared" ref="AH7" si="20">$G7*R7</f>
+        <v>16037.419999999993</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="13"/>
-        <v>7111251.9032999985</v>
+        <f t="shared" ref="AI7" si="21">$G7*S7</f>
+        <v>182075.88299999971</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="13"/>
-        <v>30.999999999999922</v>
+        <f t="shared" ref="AJ7" si="22">$G7*T7</f>
+        <v>16.999999999999943</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="13"/>
-        <v>2395.9999999999995</v>
+        <f t="shared" ref="AK7" si="23">$G7*U7</f>
+        <v>2963.9999999999995</v>
       </c>
       <c r="AL7" s="1">
-        <f t="shared" si="13"/>
-        <v>6559893.5011949968</v>
+        <f t="shared" ref="AL7" si="24">$G7*V7</f>
+        <v>8261718.8719499959</v>
       </c>
     </row>
     <row r="8" spans="3:38" x14ac:dyDescent="0.25">
@@ -3752,6 +3821,10 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <f>AVERAGE(G5:G7)</f>
+        <v>55234.666666666664</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
@@ -3789,180 +3862,186 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="12" t="s">
+    </row>
+    <row r="10" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="X10" s="7">
+        <f>AVERAGE(X5:X7)</f>
+        <v>8211.6666666666642</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" ref="Y10:AL10" si="25">AVERAGE(Y5:Y7)</f>
+        <v>19979.499</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="25"/>
+        <v>29526.866666666658</v>
+      </c>
+      <c r="AA10" s="7">
+        <f t="shared" si="25"/>
+        <v>979.33333333333292</v>
+      </c>
+      <c r="AB10" s="7">
+        <f t="shared" si="25"/>
+        <v>1682149.8710266661</v>
+      </c>
+      <c r="AC10" s="7">
+        <f t="shared" si="25"/>
+        <v>25.98</v>
+      </c>
+      <c r="AD10" s="7">
+        <f t="shared" si="25"/>
+        <v>127.3333333333325</v>
+      </c>
+      <c r="AE10" s="7">
+        <f t="shared" si="25"/>
+        <v>142.66666666666609</v>
+      </c>
+      <c r="AF10" s="7">
+        <f t="shared" si="25"/>
+        <v>488.43333333333266</v>
+      </c>
+      <c r="AG10" s="7">
+        <f t="shared" si="25"/>
+        <v>28646.666666666613</v>
+      </c>
+      <c r="AH10" s="7">
+        <f t="shared" si="25"/>
+        <v>59833.356666666652</v>
+      </c>
+      <c r="AI10" s="7">
+        <f t="shared" si="25"/>
+        <v>4801526.5631999988</v>
+      </c>
+      <c r="AJ10" s="7">
+        <f t="shared" si="25"/>
+        <v>26.333333333333261</v>
+      </c>
+      <c r="AK10" s="7">
+        <f t="shared" si="25"/>
+        <v>2585.3333333333326</v>
+      </c>
+      <c r="AL10" s="7">
+        <f t="shared" si="25"/>
+        <v>7127168.6247799965</v>
+      </c>
+    </row>
+    <row r="11" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="X9" s="1">
-        <f>X7/$G7</f>
-        <v>0.15215406325226194</v>
-      </c>
-      <c r="Y9" s="1">
-        <f>AVERAGE(Y7:Y7)</f>
-        <v>20609.998500000002</v>
-      </c>
-      <c r="Z9" s="1">
-        <f>Z7/$G7</f>
-        <v>0.3671997638877359</v>
-      </c>
-      <c r="AA9" s="1">
-        <f>AA7/$G7</f>
-        <v>1.7173477952095027E-2</v>
-      </c>
-      <c r="AB9" s="1">
-        <f>AB7/$G7</f>
-        <v>24.516709120574038</v>
-      </c>
-      <c r="AC9" s="1">
-        <f>AVERAGE(AC7:AC7)</f>
-        <v>26.77</v>
-      </c>
-      <c r="AD9" s="1">
-        <f t="shared" ref="AD9:AL9" si="14">AD7/$G7</f>
-        <v>1.946081550962421E-3</v>
-      </c>
-      <c r="AE9" s="1">
-        <f t="shared" si="14"/>
-        <v>2.4902465344068957E-3</v>
-      </c>
-      <c r="AF9" s="1">
-        <f t="shared" si="14"/>
-        <v>1.1298340757957246E-2</v>
-      </c>
-      <c r="AG9" s="1">
-        <f t="shared" si="14"/>
-        <v>0.71875893491233334</v>
-      </c>
-      <c r="AH9" s="1">
-        <f t="shared" si="14"/>
-        <v>1.5076381395091445</v>
-      </c>
-      <c r="AI9" s="1">
-        <f t="shared" si="14"/>
-        <v>131.17607709249879</v>
-      </c>
-      <c r="AJ9" s="1">
-        <f t="shared" si="14"/>
-        <v>5.7183438938232523E-4</v>
-      </c>
-      <c r="AK9" s="1">
-        <f t="shared" si="14"/>
-        <v>4.4197264418066269E-2</v>
-      </c>
-      <c r="AL9" s="1">
-        <f t="shared" si="14"/>
-        <v>121.00557079577206</v>
-      </c>
-    </row>
-    <row r="10" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>56613000</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G11" s="7">
-        <v>5.5329999999999997E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5.8099999999999999E-2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5.4960000000000002E-2</v>
-      </c>
-      <c r="J11" s="7">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="K11" s="7">
-        <v>4.0250000000000001E-2</v>
-      </c>
-      <c r="L11" s="7">
-        <v>5.5660000000000001E-2</v>
-      </c>
-      <c r="M11" s="7">
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="O11" s="7">
-        <v>7.0739999999999997E-2</v>
-      </c>
-      <c r="P11" s="7">
-        <v>6.4449999999999993E-2</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="R11" s="7">
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="S11" s="7">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="T11" s="7">
-        <v>7.5560000000000002E-2</v>
+      <c r="X11" s="1">
+        <f>X10/$G8</f>
+        <v>0.14866871047168442</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>AVERAGE(Y10:Y10)</f>
+        <v>19979.499</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>Z10/$G8</f>
+        <v>0.53457128373485241</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>AA10/$G8</f>
+        <v>1.7730410853087426E-2</v>
+      </c>
+      <c r="AB11" s="1">
+        <f>AB10/$G8</f>
+        <v>30.454603468111806</v>
+      </c>
+      <c r="AC11" s="1">
+        <f>AVERAGE(AC10:AC10)</f>
+        <v>25.98</v>
+      </c>
+      <c r="AD11" s="1">
+        <f>AD10/$G8</f>
+        <v>2.3053155023415096E-3</v>
+      </c>
+      <c r="AE11" s="1">
+        <f>AE10/$G8</f>
+        <v>2.582918939796253E-3</v>
+      </c>
+      <c r="AF11" s="1">
+        <f>AF10/$G8</f>
+        <v>8.8428764544006069E-3</v>
+      </c>
+      <c r="AG11" s="1">
+        <f>AG10/$G8</f>
+        <v>0.51863563945348234</v>
+      </c>
+      <c r="AH11" s="1">
+        <f>AH10/$G8</f>
+        <v>1.0832573142470909</v>
+      </c>
+      <c r="AI11" s="1">
+        <f>AI10/$G8</f>
+        <v>86.929583411384144</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f>AJ10/$G8</f>
+        <v>4.7675372954183233E-4</v>
+      </c>
+      <c r="AK11" s="1">
+        <f>AK10/$G8</f>
+        <v>4.6806353497803301E-2</v>
+      </c>
+      <c r="AL11" s="1">
+        <f>AL10/$G8</f>
+        <v>129.03433757990146</v>
       </c>
     </row>
     <row r="12" spans="3:38" x14ac:dyDescent="0.25">
@@ -3973,128 +4052,128 @@
         <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1">
         <v>2019</v>
       </c>
       <c r="G12" s="7">
-        <v>6.1199999999999997E-2</v>
+        <v>5.5329999999999997E-2</v>
       </c>
       <c r="H12" s="7">
-        <v>6.7299999999999999E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="I12" s="7">
-        <v>5.91E-2</v>
+        <v>5.4960000000000002E-2</v>
       </c>
       <c r="J12" s="7">
-        <v>4.938E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="K12" s="7">
-        <v>4.2500000000000003E-2</v>
+        <v>4.0250000000000001E-2</v>
       </c>
       <c r="L12" s="7">
-        <v>6.0729999999999999E-2</v>
+        <v>5.5660000000000001E-2</v>
       </c>
       <c r="M12" s="7">
-        <v>9.0149999999999994E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="N12" s="7">
-        <v>8.5099999999999995E-2</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="O12" s="7">
-        <v>7.5600000000000001E-2</v>
+        <v>7.0739999999999997E-2</v>
       </c>
       <c r="P12" s="7">
-        <v>6.5799999999999997E-2</v>
+        <v>6.4449999999999993E-2</v>
       </c>
       <c r="Q12" s="7">
-        <v>0.12989999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="R12" s="7">
-        <v>8.1900000000000001E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="S12" s="7">
-        <v>7.4160000000000004E-2</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="T12" s="7">
-        <v>5.7099999999999998E-2</v>
+        <v>7.5560000000000002E-2</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="C13" s="1">
+        <v>56613000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>4.938E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="L13" s="7">
+        <v>6.0729999999999999E-2</v>
+      </c>
+      <c r="M13" s="7">
+        <v>9.0149999999999994E-2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="O13" s="7">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="P13" s="7">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="R13" s="7">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="S13" s="7">
+        <v>7.4160000000000004E-2</v>
+      </c>
+      <c r="T13" s="7">
+        <v>5.7099999999999998E-2</v>
+      </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>63637000</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G14" s="7">
-        <v>5.8259999999999999E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5.9630000000000002E-2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5.1119999999999999E-2</v>
-      </c>
-      <c r="J14" s="7">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>5.3339999999999999E-2</v>
-      </c>
-      <c r="L14" s="7">
-        <v>7.4300000000000005E-2</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7.46E-2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="O14" s="7">
-        <v>6.5729999999999997E-2</v>
-      </c>
-      <c r="P14" s="7">
-        <v>7.0900000000000005E-2</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0.16350000000000001</v>
-      </c>
-      <c r="R14" s="7">
-        <v>8.9099999999999999E-2</v>
-      </c>
-      <c r="S14" s="7">
-        <v>7.0739999999999997E-2</v>
-      </c>
-      <c r="T14" s="7">
-        <v>4.3900000000000002E-2</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
@@ -4104,221 +4183,369 @@
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G15" s="7">
-        <v>5.8840000000000003E-2</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="H15" s="7">
-        <v>5.7200000000000001E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="I15" s="7">
-        <v>5.0299999999999997E-2</v>
+        <v>5.1180000000000003E-2</v>
       </c>
       <c r="J15" s="7">
-        <v>4.7E-2</v>
+        <v>5.246E-2</v>
       </c>
       <c r="K15" s="7">
-        <v>5.5359999999999999E-2</v>
+        <v>5.9229999999999998E-2</v>
       </c>
       <c r="L15" s="7">
-        <v>8.856E-2</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="M15" s="7">
-        <v>9.2100000000000001E-2</v>
+        <v>7.4770000000000003E-2</v>
       </c>
       <c r="N15" s="7">
-        <v>8.3860000000000004E-2</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="O15" s="7">
-        <v>7.3899999999999993E-2</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="P15" s="7">
-        <v>7.2900000000000006E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="Q15" s="7">
-        <v>0.1512</v>
+        <v>0.16220000000000001</v>
       </c>
       <c r="R15" s="7">
-        <v>8.1100000000000005E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="S15" s="7">
-        <v>5.7770000000000002E-2</v>
+        <v>6.6830000000000001E-2</v>
       </c>
       <c r="T15" s="7">
-        <v>2.9919999999999999E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="C16" s="1">
+        <v>63637000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5.5629999999999999E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5.1639999999999998E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5.2519999999999997E-2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>5.8930000000000003E-2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="M16" s="7">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="O16" s="7">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="P16" s="7">
+        <v>7.46E-2</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="R16" s="7">
+        <v>7.886E-2</v>
+      </c>
+      <c r="S16" s="7">
+        <v>5.466E-2</v>
+      </c>
+      <c r="T16" s="7">
+        <v>2.4639999999999999E-2</v>
+      </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
-        <v>43</v>
+      <c r="C18" s="1">
+        <v>75533000</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G18" s="7">
-        <f>AVERAGE(G14,G11)</f>
-        <v>5.6794999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:T18" si="15">AVERAGE(H14,H11)</f>
-        <v>5.8865000000000001E-2</v>
+        <v>7.5740000000000002E-2</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="15"/>
-        <v>5.3040000000000004E-2</v>
+        <v>7.3550000000000004E-2</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="15"/>
-        <v>4.7399999999999998E-2</v>
+        <v>5.6270000000000001E-2</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="15"/>
-        <v>4.6795000000000003E-2</v>
+        <v>4.5870000000000001E-2</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="15"/>
-        <v>6.498000000000001E-2</v>
+        <v>4.0370000000000003E-2</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="15"/>
-        <v>7.8550000000000009E-2</v>
+        <v>6.3350000000000004E-2</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="15"/>
-        <v>7.5250000000000011E-2</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="15"/>
-        <v>6.823499999999999E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="15"/>
-        <v>6.7674999999999999E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="15"/>
-        <v>0.15275</v>
+        <v>0.11285000000000001</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="15"/>
-        <v>8.8650000000000007E-2</v>
+        <v>6.2560000000000004E-2</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="15"/>
-        <v>8.1320000000000003E-2</v>
+        <v>9.1399999999999995E-2</v>
       </c>
       <c r="T18" s="7">
-        <f t="shared" si="15"/>
-        <v>5.9730000000000005E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
-        <v>43</v>
+      <c r="C19" s="1">
+        <v>75533000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G19" s="7">
-        <f>AVERAGE(G15,G12)</f>
-        <v>6.0020000000000004E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" ref="H19:T19" si="16">AVERAGE(H15,H12)</f>
-        <v>6.225E-2</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="16"/>
-        <v>5.4699999999999999E-2</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="16"/>
-        <v>4.8189999999999997E-2</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="16"/>
-        <v>4.8930000000000001E-2</v>
+        <v>2.7019999999999999E-2</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="16"/>
-        <v>7.4645000000000003E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="16"/>
-        <v>9.1124999999999998E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="16"/>
-        <v>8.448E-2</v>
+        <v>9.0639999999999998E-2</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="16"/>
-        <v>7.4749999999999997E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="16"/>
-        <v>6.9349999999999995E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="16"/>
-        <v>0.14055000000000001</v>
+        <v>0.1051</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="16"/>
-        <v>8.1500000000000003E-2</v>
+        <v>5.6730000000000003E-2</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="16"/>
-        <v>6.5964999999999996E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" si="16"/>
-        <v>4.351E-2</v>
+        <v>6.7599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="7">
+        <f>AVERAGE(G15,G12,G18)</f>
+        <v>5.5510000000000004E-2</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" ref="H22:T22" si="26">AVERAGE(H15,H12,H18)</f>
+        <v>6.3913333333333336E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="26"/>
+        <v>5.9896666666666674E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="26"/>
+        <v>5.0610000000000009E-2</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="26"/>
+        <v>4.845E-2</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="26"/>
+        <v>5.7443333333333346E-2</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="26"/>
+        <v>7.3540000000000008E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="26"/>
+        <v>7.7033333333333329E-2</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="26"/>
+        <v>7.3513333333333333E-2</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="26"/>
+        <v>7.2149999999999992E-2</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="26"/>
+        <v>0.13901666666666668</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" si="26"/>
+        <v>7.912000000000001E-2</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" si="26"/>
+        <v>8.3376666666666654E-2</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="26"/>
+        <v>6.6419999999999993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="7">
+        <f>AVERAGE(G16,G13,G19)</f>
+        <v>6.0533333333333328E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" ref="H23:T23" si="27">AVERAGE(H16,H13,H19)</f>
+        <v>7.2243333333333326E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="27"/>
+        <v>6.7513333333333328E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="27"/>
+        <v>5.4066666666666659E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="27"/>
+        <v>4.281666666666667E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="27"/>
+        <v>6.3843333333333335E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="27"/>
+        <v>8.8016666666666674E-2</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="27"/>
+        <v>8.5780000000000009E-2</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="27"/>
+        <v>7.513333333333333E-2</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" si="27"/>
+        <v>7.1366666666666675E-2</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" si="27"/>
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" si="27"/>
+        <v>7.2496666666666668E-2</v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" si="27"/>
+        <v>6.8273333333333339E-2</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" si="27"/>
+        <v>4.9779999999999991E-2</v>
       </c>
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.25">
@@ -4489,7 +4716,7 @@
         <v>45.439470782800392</v>
       </c>
     </row>
-    <row r="33" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>49</v>
       </c>
@@ -4548,7 +4775,7 @@
         <v>35.729470777548642</v>
       </c>
     </row>
-    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>49</v>
       </c>
@@ -4607,7 +4834,7 @@
         <v>54.735426532544722</v>
       </c>
     </row>
-    <row r="35" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>49</v>
       </c>
@@ -4666,7 +4893,7 @@
         <v>51.596050464348288</v>
       </c>
     </row>
-    <row r="36" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>49</v>
       </c>
@@ -4725,8 +4952,333 @@
         <v>64.228522375006435</v>
       </c>
     </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F40" s="5">
+        <v>139</v>
+      </c>
+      <c r="G40" s="5">
+        <v>58939</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.1407217631788798</v>
+      </c>
+      <c r="I40" s="5">
+        <v>22932.92643</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.6860635572371433</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1.6983661073313071E-2</v>
+      </c>
+      <c r="L40" s="5">
+        <v>41.026866158061729</v>
+      </c>
+      <c r="M40" s="5">
+        <v>27.71</v>
+      </c>
+      <c r="N40" s="5">
+        <v>2.8334379612819849E-3</v>
+      </c>
+      <c r="O40" s="5">
+        <v>2.8504046556609261E-3</v>
+      </c>
+      <c r="P40" s="5">
+        <v>4.0550399565652531E-3</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0.16425456828245991</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0.26503062488335388</v>
+      </c>
+      <c r="S40" s="5">
+        <v>4.43583459339313</v>
+      </c>
+      <c r="T40" s="5">
+        <v>2.7146711006294569E-4</v>
+      </c>
+      <c r="U40" s="5">
+        <v>5.5464123924735743E-2</v>
+      </c>
+      <c r="V40" s="5">
+        <v>125.2146627631958</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F41" s="5">
+        <v>-222</v>
+      </c>
+      <c r="G41" s="5">
+        <v>58729.999999999993</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.14122254384471311</v>
+      </c>
+      <c r="I41" s="5">
+        <v>24014.46744</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.68267154776093975</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1.738464158011236E-2</v>
+      </c>
+      <c r="L41" s="5">
+        <v>43.17377628333049</v>
+      </c>
+      <c r="M41" s="5">
+        <v>28.17</v>
+      </c>
+      <c r="N41" s="5">
+        <v>2.8775753447982111E-3</v>
+      </c>
+      <c r="O41" s="5">
+        <v>2.8605482717520741E-3</v>
+      </c>
+      <c r="P41" s="5">
+        <v>4.0916056529882493E-3</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0.1542993359441503</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0.26809364890175352</v>
+      </c>
+      <c r="S41" s="5">
+        <v>4.2740956785288331</v>
+      </c>
+      <c r="T41" s="5">
+        <v>2.7243316873829302E-4</v>
+      </c>
+      <c r="U41" s="5">
+        <v>5.2000681082921843E-2</v>
+      </c>
+      <c r="V41" s="5">
+        <v>118.6621965973097</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2021</v>
+      </c>
+      <c r="F42" s="5">
+        <v>-71.999999999999972</v>
+      </c>
+      <c r="G42" s="5">
+        <v>57945</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.13992579169902489</v>
+      </c>
+      <c r="I42" s="5">
+        <v>22576.040779999999</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.80837518336353431</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1.7551126067822932E-2</v>
+      </c>
+      <c r="L42" s="5">
+        <v>45.26114026456122</v>
+      </c>
+      <c r="M42" s="5">
+        <v>28.65</v>
+      </c>
+      <c r="N42" s="5">
+        <v>2.916558805764068E-3</v>
+      </c>
+      <c r="O42" s="5">
+        <v>2.8647855725256592E-3</v>
+      </c>
+      <c r="P42" s="5">
+        <v>4.1470359823970971E-3</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>0.14182414358443221</v>
+      </c>
+      <c r="R42" s="5">
+        <v>0.25191802571403871</v>
+      </c>
+      <c r="S42" s="5">
+        <v>3.580184115972008</v>
+      </c>
+      <c r="T42" s="5">
+        <v>2.9338165501768831E-4</v>
+      </c>
+      <c r="U42" s="5">
+        <v>5.4223832945034092E-2</v>
+      </c>
+      <c r="V42" s="5">
+        <v>137.05732966502711</v>
+      </c>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F43" s="5">
+        <v>-314</v>
+      </c>
+      <c r="G43" s="5">
+        <v>57281</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.1420715420471011</v>
+      </c>
+      <c r="I43" s="5">
+        <v>19503.478650000001</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.85137654719715072</v>
+      </c>
+      <c r="K43" s="5">
+        <v>1.878458825788655E-2</v>
+      </c>
+      <c r="L43" s="5">
+        <v>41.6940077879227</v>
+      </c>
+      <c r="M43" s="5">
+        <v>29.18</v>
+      </c>
+      <c r="N43" s="5">
+        <v>2.9852830781585322E-3</v>
+      </c>
+      <c r="O43" s="5">
+        <v>2.758331733035376E-3</v>
+      </c>
+      <c r="P43" s="5">
+        <v>4.1951083256227973E-3</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0.1398369441874257</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0.27997800317731869</v>
+      </c>
+      <c r="S43" s="5">
+        <v>3.1786435816413769</v>
+      </c>
+      <c r="T43" s="5">
+        <v>2.9678252823798367E-4</v>
+      </c>
+      <c r="U43" s="5">
+        <v>5.1744906688081557E-2</v>
+      </c>
+      <c r="V43" s="5">
+        <v>144.23140084757591</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I8:I9">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L9">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -4738,19 +5290,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="R8:R9">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:S9">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8:V9">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14 I17">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14 M17">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -4762,7 +5350,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
+  <conditionalFormatting sqref="H14 H17">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -4774,7 +5362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:S9">
+  <conditionalFormatting sqref="J14 J17">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -4786,7 +5374,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V8:V9">
+  <conditionalFormatting sqref="K14 K17">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14 L17">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14 N17">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -4798,7 +5410,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16 I13">
+  <conditionalFormatting sqref="O14 O17">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14 P17">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -4810,7 +5434,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16 M13">
+  <conditionalFormatting sqref="Q14 Q17">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -4822,7 +5446,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16 H13">
+  <conditionalFormatting sqref="R14 R17">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4834,7 +5458,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16 J13">
+  <conditionalFormatting sqref="S14 S17">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -4846,7 +5470,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16 K13">
+  <conditionalFormatting sqref="U12:U13 U15:U16">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -4858,7 +5482,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16 L13">
+  <conditionalFormatting sqref="V12:V13 V15:V16">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -4870,103 +5494,91 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16 N13">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16 O13">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16 P13">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q16 Q13">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R16 R13">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S16 S13">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U13 U15:U16">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V12:V13 V15:V16">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V30">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q30">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I36">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L36">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4978,7 +5590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
+  <conditionalFormatting sqref="V32:V36">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4990,7 +5602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30">
+  <conditionalFormatting sqref="S32:S36">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5002,7 +5614,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
+  <conditionalFormatting sqref="Q32:Q36">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5014,7 +5626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30">
+  <conditionalFormatting sqref="R32:R36">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5026,19 +5638,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I36">
+  <conditionalFormatting sqref="G12:T12">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:T13">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5050,7 +5662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L36">
+  <conditionalFormatting sqref="G15:T15">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5062,7 +5674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V32:V36">
+  <conditionalFormatting sqref="G16:T16">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5074,7 +5686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S32:S36">
+  <conditionalFormatting sqref="I40:I43">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5086,7 +5698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:Q36">
+  <conditionalFormatting sqref="L40:L43">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5098,7 +5710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R32:R36">
+  <conditionalFormatting sqref="Q40:Q43">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5110,7 +5722,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:T11">
+  <conditionalFormatting sqref="R40:R43">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S40:S43">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5122,7 +5746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:T12">
+  <conditionalFormatting sqref="V40:V43">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5134,7 +5758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:T14">
+  <conditionalFormatting sqref="G18:T18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5146,7 +5770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:T15">
+  <conditionalFormatting sqref="G19:T19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5167,7 +5791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AL42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -7027,7 +7651,7 @@
   <dimension ref="C4:U52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="57">
   <si>
     <t>saldo</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>2023 (2024)</t>
+  </si>
+  <si>
+    <t>2022 (2023-25)</t>
   </si>
 </sst>
 </file>
@@ -605,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AL51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +998,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1">
         <v>975</v>
@@ -1627,46 +1630,46 @@
         <v>41</v>
       </c>
       <c r="E20" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F20" s="7">
-        <v>6.6159999999999997E-2</v>
+        <v>4.7969999999999999E-2</v>
       </c>
       <c r="G20" s="7">
-        <v>8.1699999999999995E-2</v>
+        <v>6.0729999999999999E-2</v>
       </c>
       <c r="H20" s="7">
-        <v>6.9949999999999998E-2</v>
+        <v>5.7160000000000002E-2</v>
       </c>
       <c r="I20" s="7">
-        <v>5.2249999999999998E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="J20" s="7">
-        <v>4.614E-2</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="K20" s="7">
-        <v>4.4499999999999998E-2</v>
+        <v>4.675E-2</v>
       </c>
       <c r="L20" s="7">
-        <v>6.8049999999999999E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="M20" s="7">
-        <v>7.8899999999999998E-2</v>
+        <v>9.3439999999999995E-2</v>
       </c>
       <c r="N20" s="7">
-        <v>7.7100000000000002E-2</v>
+        <v>8.9899999999999994E-2</v>
       </c>
       <c r="O20" s="7">
-        <v>6.8599999999999994E-2</v>
+        <v>7.3599999999999999E-2</v>
       </c>
       <c r="P20" s="7">
-        <v>0.11645999999999999</v>
+        <v>0.1249</v>
       </c>
       <c r="Q20" s="7">
-        <v>6.9199999999999998E-2</v>
+        <v>7.1040000000000006E-2</v>
       </c>
       <c r="R20" s="7">
-        <v>8.0299999999999996E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="S20" s="7">
         <v>8.0699999999999994E-2</v>
@@ -1683,49 +1686,49 @@
         <v>42</v>
       </c>
       <c r="E21" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F21" s="7">
-        <v>7.3099999999999998E-2</v>
+        <v>5.3159999999999999E-2</v>
       </c>
       <c r="G21" s="7">
-        <v>8.9399999999999993E-2</v>
+        <v>6.83E-2</v>
       </c>
       <c r="H21" s="7">
-        <v>7.8600000000000003E-2</v>
+        <v>6.9029999999999994E-2</v>
       </c>
       <c r="I21" s="7">
-        <v>6.2869999999999995E-2</v>
+        <v>6.0060000000000002E-2</v>
       </c>
       <c r="J21" s="7">
-        <v>5.1029999999999999E-2</v>
+        <v>4.8219999999999999E-2</v>
       </c>
       <c r="K21" s="7">
-        <v>5.3199999999999997E-2</v>
+        <v>4.7730000000000002E-2</v>
       </c>
       <c r="L21" s="7">
         <v>7.3400000000000007E-2</v>
       </c>
       <c r="M21" s="7">
-        <v>8.6400000000000005E-2</v>
+        <v>9.8299999999999998E-2</v>
       </c>
       <c r="N21" s="7">
-        <v>7.3999999999999996E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="O21" s="7">
-        <v>6.9199999999999998E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="P21" s="7">
-        <v>0.10485999999999999</v>
+        <v>0.11774</v>
       </c>
       <c r="Q21" s="7">
-        <v>5.9749999999999998E-2</v>
+        <v>6.5060000000000007E-2</v>
       </c>
       <c r="R21" s="7">
-        <v>6.9099999999999995E-2</v>
+        <v>7.306E-2</v>
       </c>
       <c r="S21" s="7">
-        <v>5.5019999999999999E-2</v>
+        <v>6.2300000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
@@ -1788,55 +1791,55 @@
       </c>
       <c r="F25" s="7">
         <f>AVERAGE(F14,F17,F20)</f>
-        <v>5.8196666666666667E-2</v>
+        <v>5.213333333333333E-2</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" ref="G25:R25" si="17">AVERAGE(G14,G17,G20)</f>
-        <v>7.1566666666666667E-2</v>
+        <v>6.4576666666666671E-2</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="17"/>
-        <v>6.6796666666666671E-2</v>
+        <v>6.253333333333333E-2</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="17"/>
-        <v>5.1953333333333331E-2</v>
+        <v>5.1436666666666665E-2</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="17"/>
-        <v>4.2540000000000001E-2</v>
+        <v>4.1926666666666668E-2</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="17"/>
-        <v>4.0973333333333334E-2</v>
+        <v>4.1723333333333334E-2</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="17"/>
-        <v>6.2136666666666673E-2</v>
+        <v>6.3886666666666661E-2</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="17"/>
-        <v>7.4543333333333336E-2</v>
+        <v>7.9390000000000002E-2</v>
       </c>
       <c r="N25" s="7">
         <f t="shared" si="17"/>
-        <v>7.535E-2</v>
+        <v>7.9616666666666669E-2</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="17"/>
-        <v>6.9646666666666662E-2</v>
+        <v>7.1313333333333326E-2</v>
       </c>
       <c r="P25" s="7">
         <f t="shared" si="17"/>
-        <v>0.13522000000000001</v>
+        <v>0.13803333333333334</v>
       </c>
       <c r="Q25" s="7">
         <f t="shared" si="17"/>
-        <v>8.1633333333333336E-2</v>
+        <v>8.2246666666666676E-2</v>
       </c>
       <c r="R25" s="7">
         <f t="shared" si="17"/>
-        <v>9.1553333333333334E-2</v>
+        <v>9.3286666666666671E-2</v>
       </c>
       <c r="S25" s="7">
         <f>AVERAGE(S14,S17,S20)</f>
@@ -1855,27 +1858,27 @@
       </c>
       <c r="F26" s="7">
         <f>AVERAGE(F15,F18,F21)</f>
-        <v>6.5433333333333329E-2</v>
+        <v>5.8786666666666675E-2</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" ref="G26:S26" si="18">AVERAGE(G15,G18,G21)</f>
-        <v>8.0166666666666664E-2</v>
+        <v>7.3133333333333342E-2</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="18"/>
-        <v>7.3579999999999993E-2</v>
+        <v>7.0389999999999994E-2</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="18"/>
-        <v>5.7373333333333332E-2</v>
+        <v>5.643666666666667E-2</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="18"/>
-        <v>4.6416666666666662E-2</v>
+        <v>4.548E-2</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="18"/>
-        <v>5.1016666666666662E-2</v>
+        <v>4.9193333333333332E-2</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" si="18"/>
@@ -1883,31 +1886,31 @@
       </c>
       <c r="M26" s="7">
         <f t="shared" si="18"/>
-        <v>8.1316666666666676E-2</v>
+        <v>8.5283333333333336E-2</v>
       </c>
       <c r="N26" s="7">
         <f t="shared" si="18"/>
-        <v>7.5023333333333331E-2</v>
+        <v>7.925666666666667E-2</v>
       </c>
       <c r="O26" s="7">
         <f t="shared" si="18"/>
-        <v>7.0103333333333337E-2</v>
+        <v>7.2669999999999998E-2</v>
       </c>
       <c r="P26" s="7">
         <f t="shared" si="18"/>
-        <v>0.12418666666666667</v>
+        <v>0.12848000000000001</v>
       </c>
       <c r="Q26" s="7">
         <f t="shared" si="18"/>
-        <v>7.3910000000000003E-2</v>
+        <v>7.5680000000000011E-2</v>
       </c>
       <c r="R26" s="7">
         <f t="shared" si="18"/>
-        <v>7.277666666666667E-2</v>
+        <v>7.4096666666666658E-2</v>
       </c>
       <c r="S26" s="7">
         <f t="shared" si="18"/>
-        <v>5.5296666666666661E-2</v>
+        <v>5.7723333333333328E-2</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
@@ -3015,6 +3018,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:S14">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:S15">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3026,7 +3041,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:S15">
+  <conditionalFormatting sqref="F17:S17">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3038,7 +3053,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:S17">
+  <conditionalFormatting sqref="F18:S18">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3050,19 +3065,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:S18">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F20:S20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:S21">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3074,19 +3089,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:S21">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H31:H35">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:K35">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3098,7 +3113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K35">
+  <conditionalFormatting sqref="P31:P35">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3110,7 +3125,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:P35">
+  <conditionalFormatting sqref="Q31:Q35">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3122,7 +3137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q31:Q35">
+  <conditionalFormatting sqref="R31:R35">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3134,7 +3149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R31:R35">
+  <conditionalFormatting sqref="U31:U35">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3146,19 +3161,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U31:U35">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H41:H43">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H43">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3170,7 +3185,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H43">
+  <conditionalFormatting sqref="U39:U43">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3182,7 +3197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U39:U43">
+  <conditionalFormatting sqref="R39:R43">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3194,7 +3209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R39:R43">
+  <conditionalFormatting sqref="Q39:Q43">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3206,7 +3221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q39:Q43">
+  <conditionalFormatting sqref="K39:K43">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3218,7 +3233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K43">
+  <conditionalFormatting sqref="P39:P43">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3230,7 +3245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P39:P43">
+  <conditionalFormatting sqref="H47:H51">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3242,7 +3257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H51">
+  <conditionalFormatting sqref="K47:K51">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3254,7 +3269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:K51">
+  <conditionalFormatting sqref="U47:U51">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3266,7 +3281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U47:U51">
+  <conditionalFormatting sqref="P47:P51">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3278,7 +3293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P47:P51">
+  <conditionalFormatting sqref="Q47:Q51">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3290,20 +3305,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q47:Q51">
+  <conditionalFormatting sqref="R47:R51">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R47:R51">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3323,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,39 +4011,39 @@
         <v>25.98</v>
       </c>
       <c r="AD11" s="1">
-        <f>AD10/$G8</f>
+        <f t="shared" ref="AD11:AL11" si="26">AD10/$G8</f>
         <v>2.3053155023415096E-3</v>
       </c>
       <c r="AE11" s="1">
-        <f>AE10/$G8</f>
+        <f t="shared" si="26"/>
         <v>2.582918939796253E-3</v>
       </c>
       <c r="AF11" s="1">
-        <f>AF10/$G8</f>
+        <f t="shared" si="26"/>
         <v>8.8428764544006069E-3</v>
       </c>
       <c r="AG11" s="1">
-        <f>AG10/$G8</f>
+        <f t="shared" si="26"/>
         <v>0.51863563945348234</v>
       </c>
       <c r="AH11" s="1">
-        <f>AH10/$G8</f>
+        <f t="shared" si="26"/>
         <v>1.0832573142470909</v>
       </c>
       <c r="AI11" s="1">
-        <f>AI10/$G8</f>
+        <f t="shared" si="26"/>
         <v>86.929583411384144</v>
       </c>
       <c r="AJ11" s="1">
-        <f>AJ10/$G8</f>
+        <f t="shared" si="26"/>
         <v>4.7675372954183233E-4</v>
       </c>
       <c r="AK11" s="1">
-        <f>AK10/$G8</f>
+        <f t="shared" si="26"/>
         <v>4.6806353497803301E-2</v>
       </c>
       <c r="AL11" s="1">
-        <f>AL10/$G8</f>
+        <f t="shared" si="26"/>
         <v>129.03433757990146</v>
       </c>
     </row>
@@ -4432,55 +4435,55 @@
         <v>5.5510000000000004E-2</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" ref="H22:T22" si="26">AVERAGE(H15,H12,H18)</f>
+        <f t="shared" ref="H22:T22" si="27">AVERAGE(H15,H12,H18)</f>
         <v>6.3913333333333336E-2</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.9896666666666674E-2</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.0610000000000009E-2</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.845E-2</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.7443333333333346E-2</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.3540000000000008E-2</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.7033333333333329E-2</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.3513333333333333E-2</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.2149999999999992E-2</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.13901666666666668</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.912000000000001E-2</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.3376666666666654E-2</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.6419999999999993E-2</v>
       </c>
     </row>
@@ -4496,55 +4499,55 @@
         <v>6.0533333333333328E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:T23" si="27">AVERAGE(H16,H13,H19)</f>
+        <f t="shared" ref="H23:T23" si="28">AVERAGE(H16,H13,H19)</f>
         <v>7.2243333333333326E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.7513333333333328E-2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.4066666666666659E-2</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.281666666666667E-2</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.3843333333333335E-2</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.8016666666666674E-2</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.5780000000000009E-2</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.513333333333333E-2</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.1366666666666675E-2</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.12809999999999999</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.2496666666666668E-2</v>
       </c>
       <c r="S23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.8273333333333339E-2</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.9779999999999991E-2</v>
       </c>
     </row>
@@ -5255,7 +5258,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5267,7 +5270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L9">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5279,6 +5282,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q9">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:R9">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:S9">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -5290,31 +5317,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:S9">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="V8:V9">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14 I17">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -5326,7 +5341,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14 I17">
+  <conditionalFormatting sqref="M14 M17">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14 H17">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -5338,7 +5365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14 M17">
+  <conditionalFormatting sqref="J14 J17">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -5350,7 +5377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14 H17">
+  <conditionalFormatting sqref="K14 K17">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -5362,7 +5389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14 J17">
+  <conditionalFormatting sqref="L14 L17">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -5374,7 +5401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14 K17">
+  <conditionalFormatting sqref="N14 N17">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -5386,7 +5413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14 L17">
+  <conditionalFormatting sqref="O14 O17">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5398,7 +5425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14 N17">
+  <conditionalFormatting sqref="P14 P17">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5410,7 +5437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14 O17">
+  <conditionalFormatting sqref="Q17 Q14">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5422,7 +5449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14 P17">
+  <conditionalFormatting sqref="R14 R17">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5434,7 +5461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14 Q17">
+  <conditionalFormatting sqref="S14 S17">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5446,7 +5473,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14 R17">
+  <conditionalFormatting sqref="U12:U13 U15:U16">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5458,7 +5485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S14 S17">
+  <conditionalFormatting sqref="V12:V13 V15:V16">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -5470,31 +5497,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U13 U15:U16">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V12:V13 V15:V16">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V30">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -5506,7 +5533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
+  <conditionalFormatting sqref="Q30">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -5518,7 +5545,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30">
+  <conditionalFormatting sqref="R30">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5530,7 +5557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -5542,19 +5569,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
+  <conditionalFormatting sqref="I32:I36">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5566,7 +5581,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I36">
+  <conditionalFormatting sqref="L32:L36">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32:V36">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5578,7 +5605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L36">
+  <conditionalFormatting sqref="S32:S36">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5590,7 +5617,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V32:V36">
+  <conditionalFormatting sqref="Q32:Q36">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5602,7 +5629,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S32:S36">
+  <conditionalFormatting sqref="R32:R36">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5614,19 +5641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:Q36">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R32:R36">
+  <conditionalFormatting sqref="G12:T12">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5638,7 +5653,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:T12">
+  <conditionalFormatting sqref="G13:T13">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:T15">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5650,7 +5677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:T13">
+  <conditionalFormatting sqref="G16:T16">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5662,7 +5689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:T15">
+  <conditionalFormatting sqref="I40:I43">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5674,7 +5701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:T16">
+  <conditionalFormatting sqref="L40:L43">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5686,7 +5713,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:I43">
+  <conditionalFormatting sqref="Q40:Q43">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5698,7 +5725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:L43">
+  <conditionalFormatting sqref="R40:R43">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5710,7 +5737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q40:Q43">
+  <conditionalFormatting sqref="S40:S43">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5722,32 +5749,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:R43">
+  <conditionalFormatting sqref="V40:V43">
     <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S40:S43">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V40:V43">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7651,7 +7654,7 @@
   <dimension ref="C4:U52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7659,6 +7662,7 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:21" x14ac:dyDescent="0.25">
@@ -7970,46 +7974,46 @@
         <v>41</v>
       </c>
       <c r="G9" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="H9" s="7">
-        <v>6.6159999999999997E-2</v>
+        <v>4.7969999999999999E-2</v>
       </c>
       <c r="I9" s="7">
-        <v>8.1699999999999995E-2</v>
+        <v>6.0729999999999999E-2</v>
       </c>
       <c r="J9" s="7">
-        <v>6.9949999999999998E-2</v>
+        <v>5.7160000000000002E-2</v>
       </c>
       <c r="K9" s="7">
-        <v>5.2249999999999998E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="L9" s="7">
-        <v>4.614E-2</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="M9" s="7">
-        <v>4.4499999999999998E-2</v>
+        <v>4.675E-2</v>
       </c>
       <c r="N9" s="7">
-        <v>6.8049999999999999E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="O9" s="7">
-        <v>7.8899999999999998E-2</v>
+        <v>9.3439999999999995E-2</v>
       </c>
       <c r="P9" s="7">
-        <v>7.7100000000000002E-2</v>
+        <v>8.9899999999999994E-2</v>
       </c>
       <c r="Q9" s="7">
-        <v>6.8599999999999994E-2</v>
+        <v>7.3599999999999999E-2</v>
       </c>
       <c r="R9" s="7">
-        <v>0.11645999999999999</v>
+        <v>0.1249</v>
       </c>
       <c r="S9" s="7">
-        <v>6.9199999999999998E-2</v>
+        <v>7.1040000000000006E-2</v>
       </c>
       <c r="T9" s="7">
-        <v>8.0299999999999996E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="U9" s="7">
         <v>8.0699999999999994E-2</v>
@@ -8029,49 +8033,49 @@
         <v>42</v>
       </c>
       <c r="G10" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="H10" s="7">
-        <v>7.3099999999999998E-2</v>
+        <v>5.3159999999999999E-2</v>
       </c>
       <c r="I10" s="7">
-        <v>8.9399999999999993E-2</v>
+        <v>6.83E-2</v>
       </c>
       <c r="J10" s="7">
-        <v>7.8600000000000003E-2</v>
+        <v>6.9029999999999994E-2</v>
       </c>
       <c r="K10" s="7">
-        <v>6.2869999999999995E-2</v>
+        <v>6.0060000000000002E-2</v>
       </c>
       <c r="L10" s="7">
-        <v>5.1029999999999999E-2</v>
+        <v>4.8219999999999999E-2</v>
       </c>
       <c r="M10" s="7">
-        <v>5.3199999999999997E-2</v>
+        <v>4.7730000000000002E-2</v>
       </c>
       <c r="N10" s="7">
         <v>7.3400000000000007E-2</v>
       </c>
       <c r="O10" s="7">
-        <v>8.6400000000000005E-2</v>
+        <v>9.8299999999999998E-2</v>
       </c>
       <c r="P10" s="7">
-        <v>7.3999999999999996E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="Q10" s="7">
-        <v>6.9199999999999998E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="R10" s="7">
-        <v>0.10485999999999999</v>
+        <v>0.11774</v>
       </c>
       <c r="S10" s="7">
-        <v>5.9749999999999998E-2</v>
+        <v>6.5060000000000007E-2</v>
       </c>
       <c r="T10" s="7">
-        <v>6.9099999999999995E-2</v>
+        <v>7.306E-2</v>
       </c>
       <c r="U10" s="7">
-        <v>5.5019999999999999E-2</v>
+        <v>6.2300000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.25">
@@ -8206,49 +8210,49 @@
         <v>41</v>
       </c>
       <c r="G14" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="H14" s="7">
-        <v>5.8259999999999999E-2</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="I14" s="7">
-        <v>5.9630000000000002E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="J14" s="7">
-        <v>5.1119999999999999E-2</v>
+        <v>5.1180000000000003E-2</v>
       </c>
       <c r="K14" s="7">
-        <v>5.1700000000000003E-2</v>
+        <v>5.246E-2</v>
       </c>
       <c r="L14" s="7">
-        <v>5.3339999999999999E-2</v>
+        <v>5.9229999999999998E-2</v>
       </c>
       <c r="M14" s="7">
-        <v>7.4300000000000005E-2</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="N14" s="7">
-        <v>7.46E-2</v>
+        <v>7.4770000000000003E-2</v>
       </c>
       <c r="O14" s="7">
-        <v>7.3300000000000004E-2</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="P14" s="7">
-        <v>6.5729999999999997E-2</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="Q14" s="7">
-        <v>7.0900000000000005E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="R14" s="7">
-        <v>0.16350000000000001</v>
+        <v>0.16220000000000001</v>
       </c>
       <c r="S14" s="7">
-        <v>8.9099999999999999E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="T14" s="7">
-        <v>7.0739999999999997E-2</v>
+        <v>6.6830000000000001E-2</v>
       </c>
       <c r="U14" s="7">
-        <v>4.3900000000000002E-2</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.25">
@@ -8265,167 +8269,167 @@
         <v>42</v>
       </c>
       <c r="G15" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="H15" s="7">
-        <v>5.8840000000000003E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="I15" s="7">
-        <v>5.7200000000000001E-2</v>
+        <v>5.5629999999999999E-2</v>
       </c>
       <c r="J15" s="7">
-        <v>5.0299999999999997E-2</v>
+        <v>5.1639999999999998E-2</v>
       </c>
       <c r="K15" s="7">
-        <v>4.7E-2</v>
+        <v>5.2519999999999997E-2</v>
       </c>
       <c r="L15" s="7">
-        <v>5.5359999999999999E-2</v>
+        <v>5.8930000000000003E-2</v>
       </c>
       <c r="M15" s="7">
-        <v>8.856E-2</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="N15" s="7">
         <v>9.2100000000000001E-2</v>
       </c>
       <c r="O15" s="7">
-        <v>8.3860000000000004E-2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="P15" s="7">
-        <v>7.3899999999999993E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="Q15" s="7">
-        <v>7.2900000000000006E-2</v>
+        <v>7.46E-2</v>
       </c>
       <c r="R15" s="7">
-        <v>0.1512</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="S15" s="7">
-        <v>8.1100000000000005E-2</v>
+        <v>7.886E-2</v>
       </c>
       <c r="T15" s="7">
-        <v>5.7770000000000002E-2</v>
+        <v>5.466E-2</v>
       </c>
       <c r="U15" s="7">
-        <v>2.9919999999999999E-2</v>
+        <v>2.4639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1">
+        <v>75533000</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7.5740000000000002E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>7.3550000000000004E-2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>5.6270000000000001E-2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>4.5870000000000001E-2</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4.0370000000000003E-2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6.3350000000000004E-2</v>
+      </c>
+      <c r="O16" s="7">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="P16" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0.11285000000000001</v>
+      </c>
+      <c r="S16" s="7">
+        <v>6.2560000000000004E-2</v>
+      </c>
+      <c r="T16" s="7">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="U16" s="7">
+        <v>8.5199999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1">
-        <v>80631000</v>
+        <v>75533000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2020</v>
+        <v>42</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H17" s="7">
-        <v>5.713E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I17" s="7">
-        <v>6.6350000000000006E-2</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="J17" s="7">
-        <v>6.54E-2</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="K17" s="7">
-        <v>4.7969999999999999E-2</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="L17" s="7">
-        <v>4.8160000000000001E-2</v>
+        <v>2.7019999999999999E-2</v>
       </c>
       <c r="M17" s="7">
-        <v>4.5749999999999999E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="N17" s="7">
-        <v>7.306E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="O17" s="7">
-        <v>7.0499999999999993E-2</v>
+        <v>9.0639999999999998E-2</v>
       </c>
       <c r="P17" s="7">
-        <v>6.5699999999999995E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="Q17" s="7">
-        <v>6.1429999999999998E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="R17" s="7">
-        <v>0.14660000000000001</v>
+        <v>0.1051</v>
       </c>
       <c r="S17" s="7">
-        <v>9.0639999999999998E-2</v>
+        <v>5.6730000000000003E-2</v>
       </c>
       <c r="T17" s="7">
-        <v>8.7499999999999994E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="U17" s="7">
-        <v>7.3700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1">
-        <v>80631000</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="J18" s="7">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="K18" s="7">
-        <v>5.1240000000000001E-2</v>
-      </c>
-      <c r="L18" s="7">
-        <v>4.446E-2</v>
-      </c>
-      <c r="M18" s="7">
-        <v>8.0439999999999998E-2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="O18" s="7">
-        <v>7.5130000000000002E-2</v>
-      </c>
-      <c r="P18" s="7">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>6.1039999999999997E-2</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0.1278</v>
-      </c>
-      <c r="S18" s="7">
-        <v>7.6969999999999997E-2</v>
-      </c>
-      <c r="T18" s="7">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="U18" s="7">
-        <v>4.9840000000000002E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.25">
@@ -8433,10 +8437,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="1">
-        <v>80601000</v>
+        <v>80631000</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>41</v>
@@ -8445,46 +8449,46 @@
         <v>2020</v>
       </c>
       <c r="H19" s="7">
-        <v>7.2270000000000001E-2</v>
+        <v>5.713E-2</v>
       </c>
       <c r="I19" s="7">
-        <v>8.7160000000000001E-2</v>
+        <v>6.6350000000000006E-2</v>
       </c>
       <c r="J19" s="7">
-        <v>8.0140000000000003E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="K19" s="7">
-        <v>5.5300000000000002E-2</v>
+        <v>4.7969999999999999E-2</v>
       </c>
       <c r="L19" s="7">
-        <v>5.79E-2</v>
+        <v>4.8160000000000001E-2</v>
       </c>
       <c r="M19" s="7">
-        <v>4.1930000000000002E-2</v>
+        <v>4.5749999999999999E-2</v>
       </c>
       <c r="N19" s="7">
-        <v>6.9599999999999995E-2</v>
+        <v>7.306E-2</v>
       </c>
       <c r="O19" s="7">
-        <v>6.2469999999999998E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="P19" s="7">
-        <v>6.2560000000000004E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="Q19" s="7">
-        <v>5.91E-2</v>
+        <v>6.1429999999999998E-2</v>
       </c>
       <c r="R19" s="7">
-        <v>0.14610000000000001</v>
+        <v>0.14660000000000001</v>
       </c>
       <c r="S19" s="7">
-        <v>8.5139999999999993E-2</v>
+        <v>9.0639999999999998E-2</v>
       </c>
       <c r="T19" s="7">
-        <v>7.1900000000000006E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="U19" s="7">
-        <v>4.8500000000000001E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.25">
@@ -8492,10 +8496,10 @@
         <v>50</v>
       </c>
       <c r="D20" s="1">
-        <v>80601000</v>
+        <v>80631000</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>42</v>
@@ -8504,67 +8508,165 @@
         <v>2020</v>
       </c>
       <c r="H20" s="7">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>5.1240000000000001E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>4.446E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>8.0439999999999998E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>7.5130000000000002E-2</v>
+      </c>
+      <c r="P20" s="7">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>6.1039999999999997E-2</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0.1278</v>
+      </c>
+      <c r="S20" s="7">
+        <v>7.6969999999999997E-2</v>
+      </c>
+      <c r="T20" s="7">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="U20" s="7">
+        <v>4.9840000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1">
+        <v>80601000</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7.2270000000000001E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>8.7160000000000001E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>4.1930000000000002E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="O21" s="7">
+        <v>6.2469999999999998E-2</v>
+      </c>
+      <c r="P21" s="7">
+        <v>6.2560000000000004E-2</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="S21" s="7">
+        <v>8.5139999999999993E-2</v>
+      </c>
+      <c r="T21" s="7">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="U21" s="7">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <v>80601000</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H22" s="7">
         <v>7.2139999999999996E-2</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I22" s="7">
         <v>8.6360000000000006E-2</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J22" s="7">
         <v>8.2460000000000006E-2</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K22" s="7">
         <v>5.8470000000000001E-2</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L22" s="7">
         <v>6.5250000000000002E-2</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M22" s="7">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N22" s="7">
         <v>8.0140000000000003E-2</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O22" s="7">
         <v>7.0860000000000006E-2</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P22" s="7">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q22" s="7">
         <v>5.8779999999999999E-2</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R22" s="7">
         <v>0.1333</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S22" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T22" s="7">
         <v>6.1650000000000003E-2</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U22" s="7">
         <v>3.5639999999999998E-2</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
     </row>
     <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
@@ -8920,7 +9022,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H32:H40">
-    <cfRule type="colorScale" priority="126">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8932,7 +9034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I40">
-    <cfRule type="colorScale" priority="125">
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8944,7 +9046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J40">
-    <cfRule type="colorScale" priority="124">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8956,7 +9058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K40">
-    <cfRule type="colorScale" priority="123">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8968,7 +9070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L40">
-    <cfRule type="colorScale" priority="122">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8980,7 +9082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:M40">
-    <cfRule type="colorScale" priority="121">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8992,7 +9094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:N40">
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9004,7 +9106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O40">
-    <cfRule type="colorScale" priority="119">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9016,7 +9118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:P40">
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9028,7 +9130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:Q40">
-    <cfRule type="colorScale" priority="117">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9040,7 +9142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32:R40">
-    <cfRule type="colorScale" priority="116">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9052,7 +9154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:S40">
-    <cfRule type="colorScale" priority="115">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9064,7 +9166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:T40">
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9076,7 +9178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:U40">
-    <cfRule type="colorScale" priority="113">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9088,6 +9190,342 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H52">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:I52">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:J52">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:K52">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:L52">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44:M52">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44:N52">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:O52">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44:P52">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44:Q52">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44:R52">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44:S52">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T44:T52">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44:U52">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H22 H12:H15 H5:H10">
+    <cfRule type="colorScale" priority="306">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I22 I12:I15 I5:I10">
+    <cfRule type="colorScale" priority="309">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J22 J12:J15 J5:J10">
+    <cfRule type="colorScale" priority="312">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:K22 K12:K15 K5:K10">
+    <cfRule type="colorScale" priority="315">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L22 L12:L15 L5:L10">
+    <cfRule type="colorScale" priority="318">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:M22 M12:M15 M5:M10">
+    <cfRule type="colorScale" priority="321">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:N22 N12:N15 N5:N10">
+    <cfRule type="colorScale" priority="324">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19:O22 O12:O15 O5:O10">
+    <cfRule type="colorScale" priority="327">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19:P22 P12:P15 P5:P10">
+    <cfRule type="colorScale" priority="330">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19:Q22 Q12:Q15 Q5:Q10">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:R22 R12:R15 R5:R10">
+    <cfRule type="colorScale" priority="336">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19:S22 S12:S15 S5:S10">
+    <cfRule type="colorScale" priority="339">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19:T22 T12:T15 T5:T10">
+    <cfRule type="colorScale" priority="342">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19:U22 U12:U15 U5:U10">
+    <cfRule type="colorScale" priority="345">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -9099,7 +9537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I52">
+  <conditionalFormatting sqref="I5:I22">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -9111,7 +9549,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J52">
+  <conditionalFormatting sqref="J5:J22">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -9123,7 +9561,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K52">
+  <conditionalFormatting sqref="K5:K22">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -9135,7 +9573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L44:L52">
+  <conditionalFormatting sqref="L5:L22">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -9147,7 +9585,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M44:M52">
+  <conditionalFormatting sqref="M5:M22">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -9159,7 +9597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44:N52">
+  <conditionalFormatting sqref="N5:N22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9171,7 +9609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44:O52">
+  <conditionalFormatting sqref="O5:O22">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9183,7 +9621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P44:P52">
+  <conditionalFormatting sqref="P5:P22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9195,7 +9633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q44:Q52">
+  <conditionalFormatting sqref="Q5:Q22">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9207,7 +9645,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R44:R52">
+  <conditionalFormatting sqref="R5:R22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9219,7 +9657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S44:S52">
+  <conditionalFormatting sqref="S5:S22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9231,7 +9669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T44:T52">
+  <conditionalFormatting sqref="T5:T22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9243,7 +9681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U44:U52">
+  <conditionalFormatting sqref="U5:U22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9255,175 +9693,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H22 H12:H15 H5:H10">
-    <cfRule type="colorScale" priority="292">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I22 I12:I15 I5:I10">
-    <cfRule type="colorScale" priority="295">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J22 J12:J15 J5:J10">
-    <cfRule type="colorScale" priority="298">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K22 K12:K15 K5:K10">
-    <cfRule type="colorScale" priority="301">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L22 L12:L15 L5:L10">
-    <cfRule type="colorScale" priority="304">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M22 M12:M15 M5:M10">
-    <cfRule type="colorScale" priority="307">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N22 N12:N15 N5:N10">
-    <cfRule type="colorScale" priority="310">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O22 O12:O15 O5:O10">
-    <cfRule type="colorScale" priority="313">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P22 P12:P15 P5:P10">
-    <cfRule type="colorScale" priority="316">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q22 Q12:Q15 Q5:Q10">
-    <cfRule type="colorScale" priority="319">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R22 R12:R15 R5:R10">
-    <cfRule type="colorScale" priority="322">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S22 S12:S15 S5:S10">
-    <cfRule type="colorScale" priority="325">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T22 T12:T15 T5:T10">
-    <cfRule type="colorScale" priority="328">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:U22 U12:U15 U5:U10">
-    <cfRule type="colorScale" priority="331">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="59">
   <si>
     <t>saldo</t>
   </si>
@@ -195,6 +195,12 @@
   <si>
     <t>2022 (2023-25)</t>
   </si>
+  <si>
+    <t>Удомельский МР</t>
+  </si>
+  <si>
+    <t>Сергиево-Посадский</t>
+  </si>
 </sst>
 </file>
 
@@ -265,12 +271,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -285,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +338,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -608,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -3326,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AL43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4164,19 +4179,60 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="H14" s="1"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="C14" s="1">
+        <v>63637000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G14" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5.1180000000000003E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>5.246E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>5.9229999999999998E-2</v>
+      </c>
+      <c r="L14" s="7">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7.4770000000000003E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="O14" s="7">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="P14" s="7">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="R14" s="7">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="S14" s="7">
+        <v>6.6830000000000001E-2</v>
+      </c>
+      <c r="T14" s="7">
+        <v>3.85E-2</v>
+      </c>
     </row>
     <row r="15" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
@@ -4186,369 +4242,522 @@
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1">
         <v>2013</v>
       </c>
       <c r="G15" s="7">
-        <v>6.1199999999999997E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="H15" s="7">
-        <v>5.79E-2</v>
+        <v>5.5629999999999999E-2</v>
       </c>
       <c r="I15" s="7">
-        <v>5.1180000000000003E-2</v>
+        <v>5.1639999999999998E-2</v>
       </c>
       <c r="J15" s="7">
-        <v>5.246E-2</v>
+        <v>5.2519999999999997E-2</v>
       </c>
       <c r="K15" s="7">
-        <v>5.9229999999999998E-2</v>
+        <v>5.8930000000000003E-2</v>
       </c>
       <c r="L15" s="7">
-        <v>7.6300000000000007E-2</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="M15" s="7">
-        <v>7.4770000000000003E-2</v>
+        <v>9.2100000000000001E-2</v>
       </c>
       <c r="N15" s="7">
-        <v>7.1499999999999994E-2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="O15" s="7">
-        <v>6.6799999999999998E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="P15" s="7">
-        <v>7.4499999999999997E-2</v>
+        <v>7.46E-2</v>
       </c>
       <c r="Q15" s="7">
-        <v>0.16220000000000001</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="R15" s="7">
-        <v>8.6599999999999996E-2</v>
+        <v>7.886E-2</v>
       </c>
       <c r="S15" s="7">
-        <v>6.6830000000000001E-2</v>
+        <v>5.466E-2</v>
       </c>
       <c r="T15" s="7">
-        <v>3.85E-2</v>
+        <v>2.4639999999999999E-2</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <v>63637000</v>
+        <v>75533000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2013</v>
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G16" s="7">
-        <v>5.79E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H16" s="7">
-        <v>5.5629999999999999E-2</v>
+        <v>7.5740000000000002E-2</v>
       </c>
       <c r="I16" s="7">
-        <v>5.1639999999999998E-2</v>
+        <v>7.3550000000000004E-2</v>
       </c>
       <c r="J16" s="7">
-        <v>5.2519999999999997E-2</v>
+        <v>5.6270000000000001E-2</v>
       </c>
       <c r="K16" s="7">
-        <v>5.8930000000000003E-2</v>
+        <v>4.5870000000000001E-2</v>
       </c>
       <c r="L16" s="7">
-        <v>9.2700000000000005E-2</v>
+        <v>4.0370000000000003E-2</v>
       </c>
       <c r="M16" s="7">
-        <v>9.2100000000000001E-2</v>
+        <v>6.3350000000000004E-2</v>
       </c>
       <c r="N16" s="7">
-        <v>8.1600000000000006E-2</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="O16" s="7">
-        <v>7.4899999999999994E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="P16" s="7">
-        <v>7.46E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="Q16" s="7">
-        <v>0.14929999999999999</v>
+        <v>0.11285000000000001</v>
       </c>
       <c r="R16" s="7">
-        <v>7.886E-2</v>
+        <v>6.2560000000000004E-2</v>
       </c>
       <c r="S16" s="7">
-        <v>5.466E-2</v>
+        <v>9.1399999999999995E-2</v>
       </c>
       <c r="T16" s="7">
-        <v>2.4639999999999999E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="H17" s="1"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="C17" s="1">
+        <v>75533000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2.7019999999999999E-2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>9.0639999999999998E-2</v>
+      </c>
+      <c r="O17" s="7">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="P17" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.1051</v>
+      </c>
+      <c r="R17" s="7">
+        <v>5.6730000000000003E-2</v>
+      </c>
+      <c r="S17" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="T17" s="7">
+        <v>6.7599999999999993E-2</v>
+      </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <v>75533000</v>
+        <v>28656000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
+      <c r="F18" s="1">
+        <v>2013</v>
       </c>
       <c r="G18" s="7">
-        <v>0.05</v>
+        <v>5.7070000000000003E-2</v>
       </c>
       <c r="H18" s="7">
-        <v>7.5740000000000002E-2</v>
+        <v>5.0479999999999997E-2</v>
       </c>
       <c r="I18" s="7">
-        <v>7.3550000000000004E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="J18" s="7">
-        <v>5.6270000000000001E-2</v>
+        <v>3.9669999999999997E-2</v>
       </c>
       <c r="K18" s="7">
-        <v>4.5870000000000001E-2</v>
+        <v>4.7359999999999999E-2</v>
       </c>
       <c r="L18" s="7">
-        <v>4.0370000000000003E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="M18" s="7">
-        <v>6.3350000000000004E-2</v>
+        <v>7.6600000000000001E-2</v>
       </c>
       <c r="N18" s="7">
-        <v>8.2400000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="O18" s="7">
-        <v>8.3000000000000004E-2</v>
+        <v>6.2230000000000001E-2</v>
       </c>
       <c r="P18" s="7">
-        <v>7.7499999999999999E-2</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="Q18" s="7">
-        <v>0.11285000000000001</v>
+        <v>0.18140000000000001</v>
       </c>
       <c r="R18" s="7">
-        <v>6.2560000000000004E-2</v>
+        <v>9.4600000000000004E-2</v>
       </c>
       <c r="S18" s="7">
-        <v>9.1399999999999995E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="T18" s="7">
-        <v>8.5199999999999998E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <v>75533000</v>
+        <v>28656000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
+      <c r="F19" s="1">
+        <v>2013</v>
       </c>
       <c r="G19" s="7">
-        <v>6.25E-2</v>
+        <v>6.2260000000000003E-2</v>
       </c>
       <c r="H19" s="7">
-        <v>9.3799999999999994E-2</v>
+        <v>5.3530000000000001E-2</v>
       </c>
       <c r="I19" s="7">
-        <v>9.1800000000000007E-2</v>
+        <v>4.8739999999999999E-2</v>
       </c>
       <c r="J19" s="7">
-        <v>6.0299999999999999E-2</v>
+        <v>4.4159999999999998E-2</v>
       </c>
       <c r="K19" s="7">
-        <v>2.7019999999999999E-2</v>
+        <v>6.4449999999999993E-2</v>
       </c>
       <c r="L19" s="7">
-        <v>3.8100000000000002E-2</v>
+        <v>0.1017</v>
       </c>
       <c r="M19" s="7">
-        <v>8.1799999999999998E-2</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="N19" s="7">
-        <v>9.0639999999999998E-2</v>
+        <v>7.5259999999999994E-2</v>
       </c>
       <c r="O19" s="7">
-        <v>7.4899999999999994E-2</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="P19" s="7">
-        <v>7.3700000000000002E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="Q19" s="7">
-        <v>0.1051</v>
+        <v>0.1588</v>
       </c>
       <c r="R19" s="7">
-        <v>5.6730000000000003E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="S19" s="7">
-        <v>7.5999999999999998E-2</v>
+        <v>6.4299999999999996E-2</v>
       </c>
       <c r="T19" s="7">
-        <v>6.7599999999999993E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D22" s="3" t="s">
+        <v>2.945E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="16">
+        <v>46728000</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="16">
+        <v>2021</v>
+      </c>
+      <c r="G20" s="7">
+        <v>5.5359999999999999E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6.0179999999999997E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4.4249999999999998E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>4.0219999999999999E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="P20" s="7">
+        <v>6.9150000000000003E-2</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0.1346</v>
+      </c>
+      <c r="R20" s="7">
+        <v>8.2150000000000001E-2</v>
+      </c>
+      <c r="S20" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="T20" s="7">
+        <v>8.5300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="16">
+        <v>46728000</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2021</v>
+      </c>
+      <c r="G21" s="7">
+        <v>6.4449999999999993E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>5.67E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>5.6059999999999999E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>5.3560000000000003E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>9.2160000000000006E-2</v>
+      </c>
+      <c r="O21" s="7">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="P21" s="7">
+        <v>6.8239999999999995E-2</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.11334</v>
+      </c>
+      <c r="R21" s="7">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="S21" s="7">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="T21" s="7">
+        <v>5.4530000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="7">
-        <f>AVERAGE(G15,G12,G18)</f>
-        <v>5.5510000000000004E-2</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" ref="H22:T22" si="27">AVERAGE(H15,H12,H18)</f>
-        <v>6.3913333333333336E-2</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="27"/>
-        <v>5.9896666666666674E-2</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="27"/>
-        <v>5.0610000000000009E-2</v>
-      </c>
-      <c r="K22" s="7">
-        <f t="shared" si="27"/>
-        <v>4.845E-2</v>
-      </c>
-      <c r="L22" s="7">
-        <f t="shared" si="27"/>
-        <v>5.7443333333333346E-2</v>
-      </c>
-      <c r="M22" s="7">
-        <f t="shared" si="27"/>
-        <v>7.3540000000000008E-2</v>
-      </c>
-      <c r="N22" s="7">
-        <f t="shared" si="27"/>
-        <v>7.7033333333333329E-2</v>
-      </c>
-      <c r="O22" s="7">
-        <f t="shared" si="27"/>
-        <v>7.3513333333333333E-2</v>
-      </c>
-      <c r="P22" s="7">
-        <f t="shared" si="27"/>
-        <v>7.2149999999999992E-2</v>
-      </c>
-      <c r="Q22" s="7">
-        <f t="shared" si="27"/>
-        <v>0.13901666666666668</v>
-      </c>
-      <c r="R22" s="7">
-        <f t="shared" si="27"/>
-        <v>7.912000000000001E-2</v>
-      </c>
-      <c r="S22" s="7">
-        <f t="shared" si="27"/>
-        <v>8.3376666666666654E-2</v>
-      </c>
-      <c r="T22" s="7">
-        <f t="shared" si="27"/>
-        <v>6.6419999999999993E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
+      <c r="G24" s="7">
+        <f>AVERAGE(G14,G12,G16,G18)</f>
+        <v>5.5900000000000005E-2</v>
+      </c>
+      <c r="H24" s="7">
+        <f>AVERAGE(H14,H12,H16,H18)</f>
+        <v>6.0554999999999998E-2</v>
+      </c>
+      <c r="I24" s="7">
+        <f>AVERAGE(I14,I12,I16,I18)</f>
+        <v>5.5397500000000002E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <f>AVERAGE(J14,J12,J16,J18)</f>
+        <v>4.7875000000000001E-2</v>
+      </c>
+      <c r="K24" s="7">
+        <f>AVERAGE(K14,K12,K16,K18)</f>
+        <v>4.8177499999999998E-2</v>
+      </c>
+      <c r="L24" s="7">
+        <f>AVERAGE(L14,L12,L16,L18)</f>
+        <v>6.3257500000000008E-2</v>
+      </c>
+      <c r="M24" s="7">
+        <f>AVERAGE(M14,M12,M16,M18)</f>
+        <v>7.430500000000001E-2</v>
+      </c>
+      <c r="N24" s="7">
+        <f>AVERAGE(N14,N12,N16,N18)</f>
+        <v>7.5774999999999995E-2</v>
+      </c>
+      <c r="O24" s="7">
+        <f>AVERAGE(O14,O12,O16,O18)</f>
+        <v>7.0692500000000005E-2</v>
+      </c>
+      <c r="P24" s="7">
+        <f>AVERAGE(P14,P12,P16,P18)</f>
+        <v>7.3762499999999995E-2</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>AVERAGE(Q14,Q12,Q16,Q18)</f>
+        <v>0.14961250000000001</v>
+      </c>
+      <c r="R24" s="7">
+        <f>AVERAGE(R14,R12,R16,R18)</f>
+        <v>8.2990000000000008E-2</v>
+      </c>
+      <c r="S24" s="7">
+        <f>AVERAGE(S14,S12,S16,S18)</f>
+        <v>8.2707499999999989E-2</v>
+      </c>
+      <c r="T24" s="7">
+        <f>AVERAGE(T14,T12,T16,T18)</f>
+        <v>5.9014999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="7">
-        <f>AVERAGE(G16,G13,G19)</f>
-        <v>6.0533333333333328E-2</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" ref="H23:T23" si="28">AVERAGE(H16,H13,H19)</f>
-        <v>7.2243333333333326E-2</v>
-      </c>
-      <c r="I23" s="7">
-        <f t="shared" si="28"/>
-        <v>6.7513333333333328E-2</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="28"/>
-        <v>5.4066666666666659E-2</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" si="28"/>
-        <v>4.281666666666667E-2</v>
-      </c>
-      <c r="L23" s="7">
-        <f t="shared" si="28"/>
-        <v>6.3843333333333335E-2</v>
-      </c>
-      <c r="M23" s="7">
-        <f t="shared" si="28"/>
-        <v>8.8016666666666674E-2</v>
-      </c>
-      <c r="N23" s="7">
-        <f t="shared" si="28"/>
-        <v>8.5780000000000009E-2</v>
-      </c>
-      <c r="O23" s="7">
-        <f t="shared" si="28"/>
-        <v>7.513333333333333E-2</v>
-      </c>
-      <c r="P23" s="7">
-        <f t="shared" si="28"/>
-        <v>7.1366666666666675E-2</v>
-      </c>
-      <c r="Q23" s="7">
-        <f t="shared" si="28"/>
-        <v>0.12809999999999999</v>
-      </c>
-      <c r="R23" s="7">
-        <f t="shared" si="28"/>
-        <v>7.2496666666666668E-2</v>
-      </c>
-      <c r="S23" s="7">
-        <f t="shared" si="28"/>
-        <v>6.8273333333333339E-2</v>
-      </c>
-      <c r="T23" s="7">
-        <f t="shared" si="28"/>
-        <v>4.9779999999999991E-2</v>
+      <c r="G25" s="7">
+        <f>AVERAGE(G15,G13,G17,G19)</f>
+        <v>6.0964999999999998E-2</v>
+      </c>
+      <c r="H25" s="7">
+        <f>AVERAGE(H15,H13,H17,H19)</f>
+        <v>6.7565E-2</v>
+      </c>
+      <c r="I25" s="7">
+        <f>AVERAGE(I15,I13,I17,I19)</f>
+        <v>6.2820000000000001E-2</v>
+      </c>
+      <c r="J25" s="7">
+        <f>AVERAGE(J15,J13,J17,J19)</f>
+        <v>5.1589999999999997E-2</v>
+      </c>
+      <c r="K25" s="7">
+        <f>AVERAGE(K15,K13,K17,K19)</f>
+        <v>4.8225000000000004E-2</v>
+      </c>
+      <c r="L25" s="7">
+        <f>AVERAGE(L15,L13,L17,L19)</f>
+        <v>7.3307499999999998E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <f>AVERAGE(M15,M13,M17,M19)</f>
+        <v>8.7537500000000004E-2</v>
+      </c>
+      <c r="N25" s="7">
+        <f>AVERAGE(N15,N13,N17,N19)</f>
+        <v>8.3150000000000002E-2</v>
+      </c>
+      <c r="O25" s="7">
+        <f>AVERAGE(O15,O13,O17,O19)</f>
+        <v>7.2450000000000001E-2</v>
+      </c>
+      <c r="P25" s="7">
+        <f>AVERAGE(P15,P13,P17,P19)</f>
+        <v>7.0425000000000001E-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <f>AVERAGE(Q15,Q13,Q17,Q19)</f>
+        <v>0.13577499999999998</v>
+      </c>
+      <c r="R25" s="7">
+        <f>AVERAGE(R15,R13,R17,R19)</f>
+        <v>7.4172500000000002E-2</v>
+      </c>
+      <c r="S25" s="7">
+        <f>AVERAGE(S15,S13,S17,S19)</f>
+        <v>6.7280000000000006E-2</v>
+      </c>
+      <c r="T25" s="7">
+        <f>AVERAGE(T15,T13,T17,T19)</f>
+        <v>4.4697499999999994E-2</v>
       </c>
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.25">
@@ -5258,7 +5467,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5270,7 +5479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L9">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5282,7 +5491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q9">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5294,7 +5503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R9">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5306,7 +5515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S9">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5318,102 +5527,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V9">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14 I17">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14 M17">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14 H17">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14 J17">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14 K17">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14 L17">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14 N17">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14 O17">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:U13 U15:U16">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12:V13 V15:V16">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5425,7 +5574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14 P17">
+  <conditionalFormatting sqref="L30">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5437,7 +5586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17 Q14">
+  <conditionalFormatting sqref="V30">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5449,7 +5598,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14 R17">
+  <conditionalFormatting sqref="Q30">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5461,7 +5610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S14 S17">
+  <conditionalFormatting sqref="R30">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5473,7 +5622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U13 U15:U16">
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5485,19 +5634,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V12:V13 V15:V16">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="I32:I36">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L36">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32:V36">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32:S36">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q32:Q36">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:R36">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:T12">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:T13">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:T14">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -5509,7 +5742,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
+  <conditionalFormatting sqref="G15:T15">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -5521,7 +5754,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30">
+  <conditionalFormatting sqref="I40:I43">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -5533,7 +5766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
+  <conditionalFormatting sqref="L40:L43">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -5545,7 +5778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30">
+  <conditionalFormatting sqref="Q40:Q43">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5557,7 +5790,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
+  <conditionalFormatting sqref="R40:R43">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -5569,7 +5802,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I36">
+  <conditionalFormatting sqref="S40:S43">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V40:V43">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5581,31 +5826,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L36">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V32:V36">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S32:S36">
+  <conditionalFormatting sqref="G16:T16">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5617,7 +5838,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:Q36">
+  <conditionalFormatting sqref="G17:T17">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5629,7 +5850,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R32:R36">
+  <conditionalFormatting sqref="G18:T18">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5641,7 +5862,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:T12">
+  <conditionalFormatting sqref="G19:T19">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G21">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5653,7 +5886,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:T13">
+  <conditionalFormatting sqref="H12:H21">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5665,7 +5898,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:T15">
+  <conditionalFormatting sqref="I12:I21">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5677,7 +5910,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:T16">
+  <conditionalFormatting sqref="J12:J21">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5689,7 +5922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:I43">
+  <conditionalFormatting sqref="K12:K21">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5701,7 +5934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:L43">
+  <conditionalFormatting sqref="L12:L21">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5713,7 +5946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q40:Q43">
+  <conditionalFormatting sqref="M12:M21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5725,7 +5958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:R43">
+  <conditionalFormatting sqref="N12:N21">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5737,7 +5970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S40:S43">
+  <conditionalFormatting sqref="O12:O21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5749,7 +5982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V40:V43">
+  <conditionalFormatting sqref="P12:P21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5761,7 +5994,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:T18">
+  <conditionalFormatting sqref="Q12:Q21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:R21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12:S21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5773,7 +6030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:T19">
+  <conditionalFormatting sqref="T12:T21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7654,7 +7911,7 @@
   <dimension ref="C4:U52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8432,122 +8689,122 @@
         <v>6.7599999999999993E-2</v>
       </c>
     </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1">
+        <v>28656000</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5.7070000000000003E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5.0479999999999997E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4.19E-2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>3.9669999999999997E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>4.7359999999999999E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="O18" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="P18" s="7">
+        <v>6.2230000000000001E-2</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="S18" s="7">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="T18" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="U18" s="7">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1">
-        <v>80631000</v>
+        <v>28656000</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" s="1">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="H19" s="7">
-        <v>5.713E-2</v>
+        <v>6.2260000000000003E-2</v>
       </c>
       <c r="I19" s="7">
-        <v>6.6350000000000006E-2</v>
+        <v>5.3530000000000001E-2</v>
       </c>
       <c r="J19" s="7">
-        <v>6.54E-2</v>
+        <v>4.8739999999999999E-2</v>
       </c>
       <c r="K19" s="7">
-        <v>4.7969999999999999E-2</v>
+        <v>4.4159999999999998E-2</v>
       </c>
       <c r="L19" s="7">
-        <v>4.8160000000000001E-2</v>
+        <v>6.4449999999999993E-2</v>
       </c>
       <c r="M19" s="7">
-        <v>4.5749999999999999E-2</v>
+        <v>0.1017</v>
       </c>
       <c r="N19" s="7">
-        <v>7.306E-2</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="O19" s="7">
-        <v>7.0499999999999993E-2</v>
+        <v>7.5259999999999994E-2</v>
       </c>
       <c r="P19" s="7">
-        <v>6.5699999999999995E-2</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="Q19" s="7">
-        <v>6.1429999999999998E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="R19" s="7">
-        <v>0.14660000000000001</v>
+        <v>0.1588</v>
       </c>
       <c r="S19" s="7">
-        <v>9.0639999999999998E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="T19" s="7">
-        <v>8.7499999999999994E-2</v>
+        <v>6.4299999999999996E-2</v>
       </c>
       <c r="U19" s="7">
-        <v>7.3700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1">
-        <v>80631000</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H20" s="7">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="J20" s="7">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="K20" s="7">
-        <v>5.1240000000000001E-2</v>
-      </c>
-      <c r="L20" s="7">
-        <v>4.446E-2</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8.0439999999999998E-2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="O20" s="7">
-        <v>7.5130000000000002E-2</v>
-      </c>
-      <c r="P20" s="7">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>6.1039999999999997E-2</v>
-      </c>
-      <c r="R20" s="7">
-        <v>0.1278</v>
-      </c>
-      <c r="S20" s="7">
-        <v>7.6969999999999997E-2</v>
-      </c>
-      <c r="T20" s="7">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="U20" s="7">
-        <v>4.9840000000000002E-2</v>
+        <v>2.945E-2</v>
       </c>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.25">
@@ -8555,10 +8812,10 @@
         <v>50</v>
       </c>
       <c r="D21" s="1">
-        <v>80601000</v>
+        <v>80631000</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>41</v>
@@ -8567,46 +8824,46 @@
         <v>2020</v>
       </c>
       <c r="H21" s="7">
-        <v>7.2270000000000001E-2</v>
+        <v>5.713E-2</v>
       </c>
       <c r="I21" s="7">
-        <v>8.7160000000000001E-2</v>
+        <v>6.6350000000000006E-2</v>
       </c>
       <c r="J21" s="7">
-        <v>8.0140000000000003E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="K21" s="7">
-        <v>5.5300000000000002E-2</v>
+        <v>4.7969999999999999E-2</v>
       </c>
       <c r="L21" s="7">
-        <v>5.79E-2</v>
+        <v>4.8160000000000001E-2</v>
       </c>
       <c r="M21" s="7">
-        <v>4.1930000000000002E-2</v>
+        <v>4.5749999999999999E-2</v>
       </c>
       <c r="N21" s="7">
-        <v>6.9599999999999995E-2</v>
+        <v>7.306E-2</v>
       </c>
       <c r="O21" s="7">
-        <v>6.2469999999999998E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="P21" s="7">
-        <v>6.2560000000000004E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="Q21" s="7">
-        <v>5.91E-2</v>
+        <v>6.1429999999999998E-2</v>
       </c>
       <c r="R21" s="7">
-        <v>0.14610000000000001</v>
+        <v>0.14660000000000001</v>
       </c>
       <c r="S21" s="7">
-        <v>8.5139999999999993E-2</v>
+        <v>9.0639999999999998E-2</v>
       </c>
       <c r="T21" s="7">
-        <v>7.1900000000000006E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="U21" s="7">
-        <v>4.8500000000000001E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.25">
@@ -8614,10 +8871,10 @@
         <v>50</v>
       </c>
       <c r="D22" s="1">
-        <v>80601000</v>
+        <v>80631000</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>42</v>
@@ -8626,45 +8883,163 @@
         <v>2020</v>
       </c>
       <c r="H22" s="7">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="K22" s="7">
+        <v>5.1240000000000001E-2</v>
+      </c>
+      <c r="L22" s="7">
+        <v>4.446E-2</v>
+      </c>
+      <c r="M22" s="7">
+        <v>8.0439999999999998E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="O22" s="7">
+        <v>7.5130000000000002E-2</v>
+      </c>
+      <c r="P22" s="7">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>6.1039999999999997E-2</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0.1278</v>
+      </c>
+      <c r="S22" s="7">
+        <v>7.6969999999999997E-2</v>
+      </c>
+      <c r="T22" s="7">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="U22" s="7">
+        <v>4.9840000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1">
+        <v>80601000</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H23" s="7">
+        <v>7.2270000000000001E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>8.7160000000000001E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <v>4.1930000000000002E-2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="O23" s="7">
+        <v>6.2469999999999998E-2</v>
+      </c>
+      <c r="P23" s="7">
+        <v>6.2560000000000004E-2</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="S23" s="7">
+        <v>8.5139999999999993E-2</v>
+      </c>
+      <c r="T23" s="7">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="U23" s="7">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1">
+        <v>80601000</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H24" s="7">
         <v>7.2139999999999996E-2</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I24" s="7">
         <v>8.6360000000000006E-2</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J24" s="7">
         <v>8.2460000000000006E-2</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K24" s="7">
         <v>5.8470000000000001E-2</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L24" s="7">
         <v>6.5250000000000002E-2</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M24" s="7">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N24" s="7">
         <v>8.0140000000000003E-2</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O24" s="7">
         <v>7.0860000000000006E-2</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P24" s="7">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q24" s="7">
         <v>5.8779999999999999E-2</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R24" s="7">
         <v>0.1333</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S24" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T24" s="7">
         <v>6.1650000000000003E-2</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U24" s="7">
         <v>3.5639999999999998E-2</v>
       </c>
     </row>
@@ -9022,7 +9397,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H32:H40">
-    <cfRule type="colorScale" priority="140">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9034,7 +9409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I40">
-    <cfRule type="colorScale" priority="139">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9046,7 +9421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J40">
-    <cfRule type="colorScale" priority="138">
+    <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9058,7 +9433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K40">
-    <cfRule type="colorScale" priority="137">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9070,7 +9445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L40">
-    <cfRule type="colorScale" priority="136">
+    <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9082,7 +9457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:M40">
-    <cfRule type="colorScale" priority="135">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9094,7 +9469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:N40">
-    <cfRule type="colorScale" priority="134">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9106,7 +9481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O40">
-    <cfRule type="colorScale" priority="133">
+    <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9118,7 +9493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:P40">
-    <cfRule type="colorScale" priority="132">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9130,7 +9505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:Q40">
-    <cfRule type="colorScale" priority="131">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9142,7 +9517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32:R40">
-    <cfRule type="colorScale" priority="130">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9154,7 +9529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:S40">
-    <cfRule type="colorScale" priority="129">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9166,7 +9541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:T40">
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9178,7 +9553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:U40">
-    <cfRule type="colorScale" priority="127">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9190,7 +9565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H52">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9202,7 +9577,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:I52">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9214,7 +9589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:J52">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9226,7 +9601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:K52">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9238,7 +9613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:L52">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9250,7 +9625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:M52">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9262,7 +9637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:N52">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9274,7 +9649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44:O52">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9286,7 +9661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:P52">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9298,7 +9673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44:Q52">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9310,7 +9685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R44:R52">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9322,7 +9697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44:S52">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9334,7 +9709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:T52">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9346,6 +9721,354 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U44:U52">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:H24 H12:H15 H5:H10">
+    <cfRule type="colorScale" priority="321">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I24 I12:I15 I5:I10">
+    <cfRule type="colorScale" priority="324">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:J24 J12:J15 J5:J10">
+    <cfRule type="colorScale" priority="327">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:K24 K12:K15 K5:K10">
+    <cfRule type="colorScale" priority="330">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:L24 L12:L15 L5:L10">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:M24 M12:M15 M5:M10">
+    <cfRule type="colorScale" priority="336">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21:N24 N12:N15 N5:N10">
+    <cfRule type="colorScale" priority="339">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O21:O24 O12:O15 O5:O10">
+    <cfRule type="colorScale" priority="342">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P21:P24 P12:P15 P5:P10">
+    <cfRule type="colorScale" priority="345">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21:Q24 Q12:Q15 Q5:Q10">
+    <cfRule type="colorScale" priority="348">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21:R24 R12:R15 R5:R10">
+    <cfRule type="colorScale" priority="351">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21:S24 S12:S15 S5:S10">
+    <cfRule type="colorScale" priority="354">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21:T24 T12:T15 T5:T10">
+    <cfRule type="colorScale" priority="357">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U21:U24 U12:U15 U5:U10">
+    <cfRule type="colorScale" priority="360">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H18 H21:H24">
+    <cfRule type="colorScale" priority="389">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I18 I21:I24">
+    <cfRule type="colorScale" priority="392">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J18 J21:J24">
+    <cfRule type="colorScale" priority="395">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K18 K21:K24">
+    <cfRule type="colorScale" priority="398">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L18 L21:L24">
+    <cfRule type="colorScale" priority="401">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M18 M21:M24">
+    <cfRule type="colorScale" priority="404">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N18 N21:N24">
+    <cfRule type="colorScale" priority="407">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O18 O21:O24">
+    <cfRule type="colorScale" priority="410">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P18 P21:P24">
+    <cfRule type="colorScale" priority="413">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q18 Q21:Q24">
+    <cfRule type="colorScale" priority="416">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R18 R21:R24">
+    <cfRule type="colorScale" priority="419">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S18 S21:S24">
+    <cfRule type="colorScale" priority="422">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T18 T21:T24">
+    <cfRule type="colorScale" priority="425">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U18 U21:U24">
+    <cfRule type="colorScale" priority="428">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H24">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -9357,175 +10080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H22 H12:H15 H5:H10">
-    <cfRule type="colorScale" priority="306">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I22 I12:I15 I5:I10">
-    <cfRule type="colorScale" priority="309">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J22 J12:J15 J5:J10">
-    <cfRule type="colorScale" priority="312">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K22 K12:K15 K5:K10">
-    <cfRule type="colorScale" priority="315">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L22 L12:L15 L5:L10">
-    <cfRule type="colorScale" priority="318">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:M22 M12:M15 M5:M10">
-    <cfRule type="colorScale" priority="321">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N22 N12:N15 N5:N10">
-    <cfRule type="colorScale" priority="324">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19:O22 O12:O15 O5:O10">
-    <cfRule type="colorScale" priority="327">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22 P12:P15 P5:P10">
-    <cfRule type="colorScale" priority="330">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19:Q22 Q12:Q15 Q5:Q10">
-    <cfRule type="colorScale" priority="333">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19:R22 R12:R15 R5:R10">
-    <cfRule type="colorScale" priority="336">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S19:S22 S12:S15 S5:S10">
-    <cfRule type="colorScale" priority="339">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T19:T22 T12:T15 T5:T10">
-    <cfRule type="colorScale" priority="342">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U19:U22 U12:U15 U5:U10">
-    <cfRule type="colorScale" priority="345">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H22">
+  <conditionalFormatting sqref="I5:I24">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -9537,7 +10092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I22">
+  <conditionalFormatting sqref="J5:J24">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -9549,7 +10104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J22">
+  <conditionalFormatting sqref="K5:K24">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -9561,7 +10116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K22">
+  <conditionalFormatting sqref="L5:L24">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -9573,7 +10128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L22">
+  <conditionalFormatting sqref="M5:M24">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -9585,7 +10140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M22">
+  <conditionalFormatting sqref="N5:N24">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -9597,19 +10152,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N22">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O22">
+  <conditionalFormatting sqref="O5:O24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P24">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9621,19 +10176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P22">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q22">
+  <conditionalFormatting sqref="Q5:Q24">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9645,7 +10188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R22">
+  <conditionalFormatting sqref="R5:R24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9657,7 +10200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S22">
+  <conditionalFormatting sqref="S5:S24">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9669,7 +10212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T22">
+  <conditionalFormatting sqref="T5:T24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9681,7 +10224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U22">
+  <conditionalFormatting sqref="U5:U24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="60">
   <si>
     <t>saldo</t>
   </si>
@@ -199,7 +199,10 @@
     <t>Удомельский МР</t>
   </si>
   <si>
-    <t>Сергиево-Посадский</t>
+    <t>город Якутия</t>
+  </si>
+  <si>
+    <t>город Якутск</t>
   </si>
 </sst>
 </file>
@@ -209,12 +212,28 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,6 +281,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -271,18 +292,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -297,18 +312,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -320,25 +335,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3339,10 +3357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AL43"/>
+  <dimension ref="C4:AM43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,15 +3374,19 @@
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" customWidth="1"/>
+    <col min="13" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" customWidth="1"/>
     <col min="24" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" customWidth="1"/>
+    <col min="30" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.85546875" customWidth="1"/>
+    <col min="39" max="39" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:38" x14ac:dyDescent="0.25">
@@ -3428,51 +3450,21 @@
       <c r="V4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
     </row>
     <row r="5" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
@@ -3535,64 +3527,21 @@
       <c r="V5" s="5">
         <v>214.15723321986769</v>
       </c>
-      <c r="X5" s="1">
-        <f>$G5*H5</f>
-        <v>6417.9999999999991</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>22502.496999999999</v>
-      </c>
-      <c r="Z5" s="1">
-        <f t="shared" ref="Z5:AL5" si="0">$G5*J5</f>
-        <v>13140.999999999995</v>
-      </c>
-      <c r="AA5" s="1">
-        <f t="shared" si="0"/>
-        <v>671.99999999999966</v>
-      </c>
-      <c r="AB5" s="1">
-        <f t="shared" si="0"/>
-        <v>1456492.5529799995</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>30.14</v>
-      </c>
-      <c r="AD5" s="1">
-        <f t="shared" si="0"/>
-        <v>104.99999999999928</v>
-      </c>
-      <c r="AE5" s="1">
-        <f t="shared" si="0"/>
-        <v>120.99999999999952</v>
-      </c>
-      <c r="AF5" s="1">
-        <f t="shared" si="0"/>
-        <v>578.19999999999936</v>
-      </c>
-      <c r="AG5" s="1">
-        <f t="shared" si="0"/>
-        <v>12485.999999999936</v>
-      </c>
-      <c r="AH5" s="1">
-        <f t="shared" si="0"/>
-        <v>92626.569999999992</v>
-      </c>
-      <c r="AI5" s="1">
-        <f t="shared" si="0"/>
-        <v>9875022.8065999988</v>
-      </c>
-      <c r="AJ5" s="1">
-        <f t="shared" si="0"/>
-        <v>18.999999999999957</v>
-      </c>
-      <c r="AK5" s="1">
-        <f t="shared" si="0"/>
-        <v>2013.9999999999995</v>
-      </c>
-      <c r="AL5" s="1">
-        <f t="shared" si="0"/>
-        <v>10399689.402389996</v>
-      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="6"/>
     </row>
     <row r="6" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -3655,64 +3604,21 @@
       <c r="V6" s="5">
         <v>45.439470782800392</v>
       </c>
-      <c r="X6" s="1">
-        <f>$G6*H6</f>
-        <v>10078.999999999996</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>18717.5</v>
-      </c>
-      <c r="Z6" s="1">
-        <f t="shared" ref="Z6" si="1">$G6*J6</f>
-        <v>26671.899999999991</v>
-      </c>
-      <c r="AA6" s="1">
-        <f t="shared" ref="AA6" si="2">$G6*K6</f>
-        <v>1189.9999999999993</v>
-      </c>
-      <c r="AB6" s="1">
-        <f t="shared" ref="AB6" si="3">$G6*L6</f>
-        <v>1201682.5999999996</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>23.4</v>
-      </c>
-      <c r="AD6" s="1">
-        <f t="shared" ref="AD6" si="4">$G6*N6</f>
-        <v>105.99999999999929</v>
-      </c>
-      <c r="AE6" s="1">
-        <f t="shared" ref="AE6" si="5">$G6*O6</f>
-        <v>148.99999999999937</v>
-      </c>
-      <c r="AF6" s="1">
-        <f t="shared" ref="AF6" si="6">$G6*P6</f>
-        <v>646.79999999999905</v>
-      </c>
-      <c r="AG6" s="1">
-        <f t="shared" ref="AG6" si="7">$G6*Q6</f>
-        <v>65443.999999999971</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" ref="AH6" si="8">$G6*R6</f>
-        <v>70836.079999999987</v>
-      </c>
-      <c r="AI6" s="1">
-        <f t="shared" ref="AI6" si="9">$G6*S6</f>
-        <v>4347480.9999999991</v>
-      </c>
-      <c r="AJ6" s="1">
-        <f t="shared" ref="AJ6" si="10">$G6*T6</f>
-        <v>42.999999999999886</v>
-      </c>
-      <c r="AK6" s="1">
-        <f t="shared" ref="AK6" si="11">$G6*U6</f>
-        <v>2777.9999999999995</v>
-      </c>
-      <c r="AL6" s="1">
-        <f t="shared" ref="AL6" si="12">$G6*V6</f>
-        <v>2720097.5999999968</v>
-      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="6"/>
     </row>
     <row r="7" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
@@ -3775,350 +3681,335 @@
       <c r="V7" s="5">
         <v>144.23140084757591</v>
       </c>
-      <c r="X7" s="1">
-        <f>$G7*H7</f>
-        <v>8137.9999999999982</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>18718.5</v>
-      </c>
-      <c r="Z7" s="1">
-        <f t="shared" ref="Z7" si="13">$G7*J7</f>
-        <v>48767.69999999999</v>
-      </c>
-      <c r="AA7" s="1">
-        <f t="shared" ref="AA7" si="14">$G7*K7</f>
-        <v>1075.9999999999995</v>
-      </c>
-      <c r="AB7" s="1">
-        <f t="shared" ref="AB7" si="15">$G7*L7</f>
-        <v>2388274.4601000003</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>24.4</v>
-      </c>
-      <c r="AD7" s="1">
-        <f t="shared" ref="AD7" si="16">$G7*N7</f>
-        <v>170.99999999999889</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" ref="AE7" si="17">$G7*O7</f>
-        <v>157.99999999999937</v>
-      </c>
-      <c r="AF7" s="1">
-        <f t="shared" ref="AF7" si="18">$G7*P7</f>
-        <v>240.29999999999944</v>
-      </c>
-      <c r="AG7" s="1">
-        <f t="shared" ref="AG7" si="19">$G7*Q7</f>
-        <v>8009.9999999999318</v>
-      </c>
-      <c r="AH7" s="1">
-        <f t="shared" ref="AH7" si="20">$G7*R7</f>
-        <v>16037.419999999993</v>
-      </c>
-      <c r="AI7" s="1">
-        <f t="shared" ref="AI7" si="21">$G7*S7</f>
-        <v>182075.88299999971</v>
-      </c>
-      <c r="AJ7" s="1">
-        <f t="shared" ref="AJ7" si="22">$G7*T7</f>
-        <v>16.999999999999943</v>
-      </c>
-      <c r="AK7" s="1">
-        <f t="shared" ref="AK7" si="23">$G7*U7</f>
-        <v>2963.9999999999995</v>
-      </c>
-      <c r="AL7" s="1">
-        <f t="shared" ref="AL7" si="24">$G7*V7</f>
-        <v>8261718.8719499959</v>
-      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="6"/>
     </row>
     <row r="8" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2013</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-277</v>
+      </c>
       <c r="G8" s="1">
-        <f>AVERAGE(G5:G7)</f>
-        <v>55234.666666666664</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+        <v>39542</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.3221131960952911</v>
+      </c>
+      <c r="I8" s="6">
+        <v>36253</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.55500480501744975</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2.3822770724798947E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>29.325299681351474</v>
+      </c>
+      <c r="M8" s="5">
+        <v>29.9</v>
+      </c>
+      <c r="N8" s="5">
+        <v>3.4140913459106774E-3</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1.5426634970411208E-3</v>
+      </c>
+      <c r="P8" s="5">
+        <v>8.8260583683172321E-3</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.48712761114764047</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.29093697840271104</v>
+      </c>
+      <c r="S8" s="5">
+        <v>6.6991300389459312</v>
+      </c>
+      <c r="T8" s="5">
+        <v>3.5405391735369985E-4</v>
+      </c>
+      <c r="U8" s="5">
+        <v>5.8469475494411005E-2</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1234.7960851752566</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="6"/>
     </row>
     <row r="9" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="C9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1530</v>
+      </c>
+      <c r="G9" s="1">
+        <v>335525</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.25185306609045527</v>
+      </c>
+      <c r="I9" s="1">
+        <v>55433.3</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.1603776171671263</v>
+      </c>
+      <c r="K9" s="5">
+        <v>6.8927799716861637E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>51.78221771850086</v>
+      </c>
+      <c r="M9" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5.1560986513672603E-4</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1.6213396915282022E-3</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1.4365546531555026E-3</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>6.3998211757693171E-2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.21880596080768944</v>
+      </c>
+      <c r="S9" s="5">
+        <v>6.1396995752924521</v>
+      </c>
+      <c r="T9" s="5">
+        <v>2.1756948066463006E-4</v>
+      </c>
+      <c r="U9" s="5">
+        <v>5.0306236495045079E-2</v>
+      </c>
+      <c r="V9" s="5">
+        <v>312.14863482601891</v>
+      </c>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="X10" s="7">
-        <f>AVERAGE(X5:X7)</f>
-        <v>8211.6666666666642</v>
-      </c>
-      <c r="Y10" s="7">
-        <f t="shared" ref="Y10:AL10" si="25">AVERAGE(Y5:Y7)</f>
-        <v>19979.499</v>
-      </c>
-      <c r="Z10" s="7">
-        <f t="shared" si="25"/>
-        <v>29526.866666666658</v>
-      </c>
-      <c r="AA10" s="7">
-        <f t="shared" si="25"/>
-        <v>979.33333333333292</v>
-      </c>
-      <c r="AB10" s="7">
-        <f t="shared" si="25"/>
-        <v>1682149.8710266661</v>
-      </c>
-      <c r="AC10" s="7">
-        <f t="shared" si="25"/>
-        <v>25.98</v>
-      </c>
-      <c r="AD10" s="7">
-        <f t="shared" si="25"/>
-        <v>127.3333333333325</v>
-      </c>
-      <c r="AE10" s="7">
-        <f t="shared" si="25"/>
-        <v>142.66666666666609</v>
-      </c>
-      <c r="AF10" s="7">
-        <f t="shared" si="25"/>
-        <v>488.43333333333266</v>
-      </c>
-      <c r="AG10" s="7">
-        <f t="shared" si="25"/>
-        <v>28646.666666666613</v>
-      </c>
-      <c r="AH10" s="7">
-        <f t="shared" si="25"/>
-        <v>59833.356666666652</v>
-      </c>
-      <c r="AI10" s="7">
-        <f t="shared" si="25"/>
-        <v>4801526.5631999988</v>
-      </c>
-      <c r="AJ10" s="7">
-        <f t="shared" si="25"/>
-        <v>26.333333333333261</v>
-      </c>
-      <c r="AK10" s="7">
-        <f t="shared" si="25"/>
-        <v>2585.3333333333326</v>
-      </c>
-      <c r="AL10" s="7">
-        <f t="shared" si="25"/>
-        <v>7127168.6247799965</v>
-      </c>
+      <c r="C10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="5">
+        <f>AVERAGE(H5:H9)</f>
+        <v>0.20331441206967366</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:V10" si="0">AVERAGE(I5:I9)</f>
+        <v>30481.955130000006</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.65658470340529163</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9050495826870398E-2</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="0"/>
+        <v>34.573758056548776</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>26.763999999999999</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1695905211147784E-3</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1806209088834566E-3</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="0"/>
+        <v>7.4338493169562384E-3</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.40826609628267213</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77609421440866666</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="0"/>
+        <v>58.399096327985241</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="0"/>
+        <v>3.9559704053536746E-4</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9680192935932066E-2</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" si="0"/>
+        <v>390.15456497030391</v>
+      </c>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
     </row>
     <row r="11" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+    </row>
+    <row r="12" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X11" s="1">
-        <f>X10/$G8</f>
-        <v>0.14866871047168442</v>
-      </c>
-      <c r="Y11" s="1">
-        <f>AVERAGE(Y10:Y10)</f>
-        <v>19979.499</v>
-      </c>
-      <c r="Z11" s="1">
-        <f>Z10/$G8</f>
-        <v>0.53457128373485241</v>
-      </c>
-      <c r="AA11" s="1">
-        <f>AA10/$G8</f>
-        <v>1.7730410853087426E-2</v>
-      </c>
-      <c r="AB11" s="1">
-        <f>AB10/$G8</f>
-        <v>30.454603468111806</v>
-      </c>
-      <c r="AC11" s="1">
-        <f>AVERAGE(AC10:AC10)</f>
-        <v>25.98</v>
-      </c>
-      <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AL11" si="26">AD10/$G8</f>
-        <v>2.3053155023415096E-3</v>
-      </c>
-      <c r="AE11" s="1">
-        <f t="shared" si="26"/>
-        <v>2.582918939796253E-3</v>
-      </c>
-      <c r="AF11" s="1">
-        <f t="shared" si="26"/>
-        <v>8.8428764544006069E-3</v>
-      </c>
-      <c r="AG11" s="1">
-        <f t="shared" si="26"/>
-        <v>0.51863563945348234</v>
-      </c>
-      <c r="AH11" s="1">
-        <f t="shared" si="26"/>
-        <v>1.0832573142470909</v>
-      </c>
-      <c r="AI11" s="1">
-        <f t="shared" si="26"/>
-        <v>86.929583411384144</v>
-      </c>
-      <c r="AJ11" s="1">
-        <f t="shared" si="26"/>
-        <v>4.7675372954183233E-4</v>
-      </c>
-      <c r="AK11" s="1">
-        <f t="shared" si="26"/>
-        <v>4.6806353497803301E-2</v>
-      </c>
-      <c r="AL11" s="1">
-        <f t="shared" si="26"/>
-        <v>129.03433757990146</v>
-      </c>
-    </row>
-    <row r="12" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>56613000</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G12" s="7">
-        <v>5.5329999999999997E-2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5.8099999999999999E-2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5.4960000000000002E-2</v>
-      </c>
-      <c r="J12" s="7">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="K12" s="7">
-        <v>4.0250000000000001E-2</v>
-      </c>
-      <c r="L12" s="7">
-        <v>5.5660000000000001E-2</v>
-      </c>
-      <c r="M12" s="7">
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="O12" s="7">
-        <v>7.0739999999999997E-2</v>
-      </c>
-      <c r="P12" s="7">
-        <v>6.4449999999999993E-2</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="R12" s="7">
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="S12" s="7">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="T12" s="7">
-        <v>7.5560000000000002E-2</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
     </row>
     <row r="13" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
@@ -4128,110 +4019,110 @@
         <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1">
         <v>2019</v>
       </c>
       <c r="G13" s="7">
-        <v>6.1199999999999997E-2</v>
+        <v>5.5329999999999997E-2</v>
       </c>
       <c r="H13" s="7">
-        <v>6.7299999999999999E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="I13" s="7">
-        <v>5.91E-2</v>
+        <v>5.4960000000000002E-2</v>
       </c>
       <c r="J13" s="7">
-        <v>4.938E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="K13" s="7">
-        <v>4.2500000000000003E-2</v>
+        <v>4.0250000000000001E-2</v>
       </c>
       <c r="L13" s="7">
-        <v>6.0729999999999999E-2</v>
+        <v>5.5660000000000001E-2</v>
       </c>
       <c r="M13" s="7">
-        <v>9.0149999999999994E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="N13" s="7">
-        <v>8.5099999999999995E-2</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="O13" s="7">
-        <v>7.5600000000000001E-2</v>
+        <v>7.0739999999999997E-2</v>
       </c>
       <c r="P13" s="7">
-        <v>6.5799999999999997E-2</v>
+        <v>6.4449999999999993E-2</v>
       </c>
       <c r="Q13" s="7">
-        <v>0.12989999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="R13" s="7">
-        <v>8.1900000000000001E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="S13" s="7">
-        <v>7.4160000000000004E-2</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="T13" s="7">
-        <v>5.7099999999999998E-2</v>
+        <v>7.5560000000000002E-2</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
-        <v>63637000</v>
+        <v>56613000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G14" s="7">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="H14" s="7">
-        <v>5.79E-2</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="I14" s="7">
-        <v>5.1180000000000003E-2</v>
+        <v>5.91E-2</v>
       </c>
       <c r="J14" s="7">
-        <v>5.246E-2</v>
+        <v>4.938E-2</v>
       </c>
       <c r="K14" s="7">
-        <v>5.9229999999999998E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="L14" s="7">
-        <v>7.6300000000000007E-2</v>
+        <v>6.0729999999999999E-2</v>
       </c>
       <c r="M14" s="7">
-        <v>7.4770000000000003E-2</v>
+        <v>9.0149999999999994E-2</v>
       </c>
       <c r="N14" s="7">
-        <v>7.1499999999999994E-2</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="O14" s="7">
-        <v>6.6799999999999998E-2</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="P14" s="7">
-        <v>7.4499999999999997E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="Q14" s="7">
-        <v>0.16220000000000001</v>
+        <v>0.12989999999999999</v>
       </c>
       <c r="R14" s="7">
-        <v>8.6599999999999996E-2</v>
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="S14" s="7">
-        <v>6.6830000000000001E-2</v>
+        <v>7.4160000000000004E-2</v>
       </c>
       <c r="T14" s="7">
-        <v>3.85E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="3:38" x14ac:dyDescent="0.25">
@@ -4242,115 +4133,133 @@
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1">
         <v>2013</v>
       </c>
       <c r="G15" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="H15" s="7">
         <v>5.79E-2</v>
       </c>
-      <c r="H15" s="7">
-        <v>5.5629999999999999E-2</v>
-      </c>
       <c r="I15" s="7">
-        <v>5.1639999999999998E-2</v>
+        <v>5.1180000000000003E-2</v>
       </c>
       <c r="J15" s="7">
-        <v>5.2519999999999997E-2</v>
+        <v>5.246E-2</v>
       </c>
       <c r="K15" s="7">
-        <v>5.8930000000000003E-2</v>
+        <v>5.9229999999999998E-2</v>
       </c>
       <c r="L15" s="7">
-        <v>9.2700000000000005E-2</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="M15" s="7">
-        <v>9.2100000000000001E-2</v>
+        <v>7.4770000000000003E-2</v>
       </c>
       <c r="N15" s="7">
-        <v>8.1600000000000006E-2</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="O15" s="7">
-        <v>7.4899999999999994E-2</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="P15" s="7">
-        <v>7.46E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="Q15" s="7">
-        <v>0.14929999999999999</v>
+        <v>0.16220000000000001</v>
       </c>
       <c r="R15" s="7">
-        <v>7.886E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="S15" s="7">
-        <v>5.466E-2</v>
+        <v>6.6830000000000001E-2</v>
       </c>
       <c r="T15" s="7">
-        <v>2.4639999999999999E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <v>75533000</v>
+        <v>63637000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2013</v>
       </c>
       <c r="G16" s="7">
-        <v>0.05</v>
+        <v>5.79E-2</v>
       </c>
       <c r="H16" s="7">
-        <v>7.5740000000000002E-2</v>
+        <v>5.5629999999999999E-2</v>
       </c>
       <c r="I16" s="7">
-        <v>7.3550000000000004E-2</v>
+        <v>5.1639999999999998E-2</v>
       </c>
       <c r="J16" s="7">
-        <v>5.6270000000000001E-2</v>
+        <v>5.2519999999999997E-2</v>
       </c>
       <c r="K16" s="7">
-        <v>4.5870000000000001E-2</v>
+        <v>5.8930000000000003E-2</v>
       </c>
       <c r="L16" s="7">
-        <v>4.0370000000000003E-2</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="M16" s="7">
-        <v>6.3350000000000004E-2</v>
+        <v>9.2100000000000001E-2</v>
       </c>
       <c r="N16" s="7">
-        <v>8.2400000000000001E-2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="O16" s="7">
-        <v>8.3000000000000004E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="P16" s="7">
-        <v>7.7499999999999999E-2</v>
+        <v>7.46E-2</v>
       </c>
       <c r="Q16" s="7">
-        <v>0.11285000000000001</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="R16" s="7">
-        <v>6.2560000000000004E-2</v>
+        <v>7.886E-2</v>
       </c>
       <c r="S16" s="7">
-        <v>9.1399999999999995E-2</v>
+        <v>5.466E-2</v>
       </c>
       <c r="T16" s="7">
-        <v>8.5199999999999998E-2</v>
+        <v>2.4639999999999999E-2</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+    </row>
+    <row r="17" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>75533000</v>
       </c>
@@ -4358,113 +4267,113 @@
         <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="7">
-        <v>6.25E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H17" s="7">
-        <v>9.3799999999999994E-2</v>
+        <v>7.5740000000000002E-2</v>
       </c>
       <c r="I17" s="7">
-        <v>9.1800000000000007E-2</v>
+        <v>7.3550000000000004E-2</v>
       </c>
       <c r="J17" s="7">
-        <v>6.0299999999999999E-2</v>
+        <v>5.6270000000000001E-2</v>
       </c>
       <c r="K17" s="7">
-        <v>2.7019999999999999E-2</v>
+        <v>4.5870000000000001E-2</v>
       </c>
       <c r="L17" s="7">
-        <v>3.8100000000000002E-2</v>
+        <v>4.0370000000000003E-2</v>
       </c>
       <c r="M17" s="7">
-        <v>8.1799999999999998E-2</v>
+        <v>6.3350000000000004E-2</v>
       </c>
       <c r="N17" s="7">
-        <v>9.0639999999999998E-2</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="O17" s="7">
-        <v>7.4899999999999994E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="P17" s="7">
-        <v>7.3700000000000002E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="Q17" s="7">
-        <v>0.1051</v>
+        <v>0.11285000000000001</v>
       </c>
       <c r="R17" s="7">
-        <v>5.6730000000000003E-2</v>
+        <v>6.2560000000000004E-2</v>
       </c>
       <c r="S17" s="7">
-        <v>7.5999999999999998E-2</v>
+        <v>9.1399999999999995E-2</v>
       </c>
       <c r="T17" s="7">
-        <v>6.7599999999999993E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <v>28656000</v>
+        <v>75533000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2013</v>
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G18" s="7">
-        <v>5.7070000000000003E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H18" s="7">
-        <v>5.0479999999999997E-2</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="I18" s="7">
-        <v>4.19E-2</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="J18" s="7">
-        <v>3.9669999999999997E-2</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="K18" s="7">
-        <v>4.7359999999999999E-2</v>
+        <v>2.7019999999999999E-2</v>
       </c>
       <c r="L18" s="7">
-        <v>8.0699999999999994E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="M18" s="7">
-        <v>7.6600000000000001E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="N18" s="7">
-        <v>7.1999999999999995E-2</v>
+        <v>9.0639999999999998E-2</v>
       </c>
       <c r="O18" s="7">
-        <v>6.2230000000000001E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="P18" s="7">
-        <v>7.8600000000000003E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="Q18" s="7">
-        <v>0.18140000000000001</v>
+        <v>0.1051</v>
       </c>
       <c r="R18" s="7">
-        <v>9.4600000000000004E-2</v>
+        <v>5.6730000000000003E-2</v>
       </c>
       <c r="S18" s="7">
-        <v>8.0699999999999994E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="T18" s="7">
-        <v>3.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+        <v>6.7599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>28656000</v>
       </c>
@@ -4472,167 +4381,239 @@
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1">
         <v>2013</v>
       </c>
       <c r="G19" s="7">
+        <v>5.7070000000000003E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5.0479999999999997E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4.19E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>3.9669999999999997E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>4.7359999999999999E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="O19" s="7">
+        <v>6.2230000000000001E-2</v>
+      </c>
+      <c r="P19" s="7">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="R19" s="7">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="S19" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="T19" s="7">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>28656000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G20" s="7">
         <v>6.2260000000000003E-2</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H20" s="7">
         <v>5.3530000000000001E-2</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I20" s="7">
         <v>4.8739999999999999E-2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J20" s="7">
         <v>4.4159999999999998E-2</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K20" s="7">
         <v>6.4449999999999993E-2</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L20" s="7">
         <v>0.1017</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M20" s="7">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N20" s="7">
         <v>7.5259999999999994E-2</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O20" s="7">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P20" s="7">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q20" s="7">
         <v>0.1588</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R20" s="7">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S20" s="7">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T20" s="7">
         <v>2.945E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C20" s="16">
-        <v>46728000</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="16" t="s">
+    <row r="21" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>98701000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="16">
-        <v>2021</v>
-      </c>
-      <c r="G20" s="7">
-        <v>5.5359999999999999E-2</v>
-      </c>
-      <c r="H20" s="7">
-        <v>6.0179999999999997E-2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>4.7399999999999998E-2</v>
-      </c>
-      <c r="J20" s="7">
-        <v>4.4249999999999998E-2</v>
-      </c>
-      <c r="K20" s="7">
-        <v>4.0219999999999999E-2</v>
-      </c>
-      <c r="L20" s="7">
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="O20" s="7">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="P20" s="7">
-        <v>6.9150000000000003E-2</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0.1346</v>
-      </c>
-      <c r="R20" s="7">
-        <v>8.2150000000000001E-2</v>
-      </c>
-      <c r="S20" s="7">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="T20" s="7">
-        <v>8.5300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C21" s="16">
-        <v>46728000</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="F21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>6.5729999999999997E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.11176</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.1137</v>
+      </c>
+      <c r="N21" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="O21" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P21" s="7">
+        <v>5.7979999999999997E-2</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="R21" s="7">
+        <v>4.5870000000000001E-2</v>
+      </c>
+      <c r="S21" s="7">
+        <v>3.5369999999999999E-2</v>
+      </c>
+      <c r="T21" s="7">
+        <v>2.5729999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>98701000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="16">
-        <v>2021</v>
-      </c>
-      <c r="G21" s="7">
-        <v>6.4449999999999993E-2</v>
-      </c>
-      <c r="H21" s="7">
-        <v>7.2599999999999998E-2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>5.67E-2</v>
-      </c>
-      <c r="J21" s="7">
-        <v>5.6059999999999999E-2</v>
-      </c>
-      <c r="K21" s="7">
-        <v>5.3560000000000003E-2</v>
-      </c>
-      <c r="L21" s="7">
-        <v>6.2700000000000006E-2</v>
-      </c>
-      <c r="M21" s="7">
-        <v>9.3700000000000006E-2</v>
-      </c>
-      <c r="N21" s="7">
-        <v>9.2160000000000006E-2</v>
-      </c>
-      <c r="O21" s="7">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="P21" s="7">
-        <v>6.8239999999999995E-2</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0.11334</v>
-      </c>
-      <c r="R21" s="7">
-        <v>6.6799999999999998E-2</v>
-      </c>
-      <c r="S21" s="7">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="T21" s="7">
-        <v>5.4530000000000002E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G22" s="7">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>7.3359999999999995E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="K22" s="7">
+        <v>6.8540000000000004E-2</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.1115</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.10376000000000001</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="O22" s="7">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="P22" s="7">
+        <v>5.9569999999999998E-2</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="R22" s="7">
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="S22" s="7">
+        <v>4.8340000000000001E-2</v>
+      </c>
+      <c r="T22" s="7">
+        <v>4.0620000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>43</v>
       </c>
@@ -4640,63 +4621,63 @@
         <v>41</v>
       </c>
       <c r="G24" s="7">
-        <f>AVERAGE(G14,G12,G16,G18)</f>
-        <v>5.5900000000000005E-2</v>
+        <f>AVERAGE(G15,G13,G17,G19,G21)</f>
+        <v>6.1360000000000005E-2</v>
       </c>
       <c r="H24" s="7">
-        <f>AVERAGE(H14,H12,H16,H18)</f>
-        <v>6.0554999999999998E-2</v>
+        <f t="shared" ref="H24:T25" si="1">AVERAGE(H15,H13,H17,H19,H21)</f>
+        <v>6.5484000000000001E-2</v>
       </c>
       <c r="I24" s="7">
-        <f>AVERAGE(I14,I12,I16,I18)</f>
-        <v>5.5397500000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.7818000000000001E-2</v>
       </c>
       <c r="J24" s="7">
-        <f>AVERAGE(J14,J12,J16,J18)</f>
-        <v>4.7875000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.1880000000000003E-2</v>
       </c>
       <c r="K24" s="7">
-        <f>AVERAGE(K14,K12,K16,K18)</f>
-        <v>4.8177499999999998E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.1687999999999998E-2</v>
       </c>
       <c r="L24" s="7">
-        <f>AVERAGE(L14,L12,L16,L18)</f>
-        <v>6.3257500000000008E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.2958000000000009E-2</v>
       </c>
       <c r="M24" s="7">
-        <f>AVERAGE(M14,M12,M16,M18)</f>
-        <v>7.430500000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.2184000000000007E-2</v>
       </c>
       <c r="N24" s="7">
-        <f>AVERAGE(N14,N12,N16,N18)</f>
-        <v>7.5774999999999995E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.782E-2</v>
       </c>
       <c r="O24" s="7">
-        <f>AVERAGE(O14,O12,O16,O18)</f>
-        <v>7.0692500000000005E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.0354E-2</v>
       </c>
       <c r="P24" s="7">
-        <f>AVERAGE(P14,P12,P16,P18)</f>
-        <v>7.3762499999999995E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.0605999999999988E-2</v>
       </c>
       <c r="Q24" s="7">
-        <f>AVERAGE(Q14,Q12,Q16,Q18)</f>
-        <v>0.14961250000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.13671</v>
       </c>
       <c r="R24" s="7">
-        <f>AVERAGE(R14,R12,R16,R18)</f>
-        <v>8.2990000000000008E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.5566000000000008E-2</v>
       </c>
       <c r="S24" s="7">
-        <f>AVERAGE(S14,S12,S16,S18)</f>
-        <v>8.2707499999999989E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.324E-2</v>
       </c>
       <c r="T24" s="7">
-        <f>AVERAGE(T14,T12,T16,T18)</f>
-        <v>5.9014999999999998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>5.2357999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
@@ -4704,63 +4685,63 @@
         <v>42</v>
       </c>
       <c r="G25" s="7">
-        <f>AVERAGE(G15,G13,G17,G19)</f>
-        <v>6.0964999999999998E-2</v>
+        <f>AVERAGE(G16,G14,G18,G20,G22)</f>
+        <v>6.3271999999999995E-2</v>
       </c>
       <c r="H25" s="7">
-        <f>AVERAGE(H15,H13,H17,H19)</f>
-        <v>6.7565E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.8723999999999993E-2</v>
       </c>
       <c r="I25" s="7">
-        <f>AVERAGE(I15,I13,I17,I19)</f>
-        <v>6.2820000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.2016000000000002E-2</v>
       </c>
       <c r="J25" s="7">
-        <f>AVERAGE(J15,J13,J17,J19)</f>
-        <v>5.1589999999999997E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.3252000000000001E-2</v>
       </c>
       <c r="K25" s="7">
-        <f>AVERAGE(K15,K13,K17,K19)</f>
-        <v>4.8225000000000004E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2288000000000001E-2</v>
       </c>
       <c r="L25" s="7">
-        <f>AVERAGE(L15,L13,L17,L19)</f>
-        <v>7.3307499999999998E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.094599999999999E-2</v>
       </c>
       <c r="M25" s="7">
-        <f>AVERAGE(M15,M13,M17,M19)</f>
-        <v>8.7537500000000004E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.0782000000000002E-2</v>
       </c>
       <c r="N25" s="7">
-        <f>AVERAGE(N15,N13,N17,N19)</f>
-        <v>8.3150000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.252000000000001E-2</v>
       </c>
       <c r="O25" s="7">
-        <f>AVERAGE(O15,O13,O17,O19)</f>
-        <v>7.2450000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.152E-2</v>
       </c>
       <c r="P25" s="7">
-        <f>AVERAGE(P15,P13,P17,P19)</f>
-        <v>7.0425000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.8254000000000009E-2</v>
       </c>
       <c r="Q25" s="7">
-        <f>AVERAGE(Q15,Q13,Q17,Q19)</f>
-        <v>0.13577499999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.12835999999999997</v>
       </c>
       <c r="R25" s="7">
-        <f>AVERAGE(R15,R13,R17,R19)</f>
-        <v>7.4172500000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.0648000000000002E-2</v>
       </c>
       <c r="S25" s="7">
-        <f>AVERAGE(S15,S13,S17,S19)</f>
-        <v>6.7280000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.3492000000000007E-2</v>
       </c>
       <c r="T25" s="7">
-        <f>AVERAGE(T15,T13,T17,T19)</f>
-        <v>4.4697499999999994E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>4.3881999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -4782,7 +4763,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4804,7 +4785,7 @@
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
@@ -4866,7 +4847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>44</v>
       </c>
@@ -5466,31 +5447,19 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I8:I9">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="U12:U13 U15:U16">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12:V13 V15:V16">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5502,43 +5471,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:S9">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V8:V9">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U13 U15:U16">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V30">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q30">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I36">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L36">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32:V36">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5550,7 +5579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V12:V13 V15:V16">
+  <conditionalFormatting sqref="S32:S36">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -5562,7 +5591,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="Q32:Q36">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:R36">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13 J13:T13">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14 J14:T14">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15 J15:T15">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16 J16:T16">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:I43">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:L43">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q40:Q43">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5574,7 +5699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
+  <conditionalFormatting sqref="R40:R43">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5586,7 +5711,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30">
+  <conditionalFormatting sqref="S40:S43">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5598,7 +5723,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
+  <conditionalFormatting sqref="V40:V43">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5610,31 +5735,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I36">
+  <conditionalFormatting sqref="G17:H17 J17:T17">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18 J18:T18">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -5646,7 +5759,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L36">
+  <conditionalFormatting sqref="G19:H19 J19:T19">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -5658,7 +5771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V32:V36">
+  <conditionalFormatting sqref="G20:H20 J20:T20">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -5670,7 +5783,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S32:S36">
+  <conditionalFormatting sqref="G13:G21">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -5682,7 +5795,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:Q36">
+  <conditionalFormatting sqref="H13:H21">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -5694,7 +5807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R32:R36">
+  <conditionalFormatting sqref="I21">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -5706,7 +5819,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:T12">
+  <conditionalFormatting sqref="J13:J21">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:K21">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5718,7 +5843,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:T13">
+  <conditionalFormatting sqref="L13:L21">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -5730,7 +5855,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:T14">
+  <conditionalFormatting sqref="M13:M21">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -5742,7 +5867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:T15">
+  <conditionalFormatting sqref="N13:N21">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -5754,7 +5879,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:I43">
+  <conditionalFormatting sqref="O13:O21">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -5766,7 +5891,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:L43">
+  <conditionalFormatting sqref="P13:P21">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -5778,7 +5903,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q40:Q43">
+  <conditionalFormatting sqref="Q13:Q21">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5790,7 +5915,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:R43">
+  <conditionalFormatting sqref="R13:R21">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -5802,7 +5927,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S40:S43">
+  <conditionalFormatting sqref="S13:S21">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -5814,7 +5939,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V40:V43">
+  <conditionalFormatting sqref="T13:T21">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5826,7 +5951,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:T16">
+  <conditionalFormatting sqref="G13:G20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H20">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I20">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5838,7 +5987,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:T17">
+  <conditionalFormatting sqref="K13:K20">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5850,7 +5999,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:T18">
+  <conditionalFormatting sqref="L13:L20">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5862,7 +6011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:T19">
+  <conditionalFormatting sqref="T13:T20">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5874,7 +6023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G21">
+  <conditionalFormatting sqref="G13:G22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5886,7 +6035,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H21">
+  <conditionalFormatting sqref="H13:H22">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5898,7 +6047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I21">
+  <conditionalFormatting sqref="I13:I22">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5910,7 +6059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J21">
+  <conditionalFormatting sqref="J13:J22">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5922,7 +6071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K21">
+  <conditionalFormatting sqref="K13:K22">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5934,7 +6083,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L21">
+  <conditionalFormatting sqref="L13:L22">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5946,7 +6095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M21">
+  <conditionalFormatting sqref="M13:M22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5958,7 +6107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N21">
+  <conditionalFormatting sqref="N13:N22">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5970,7 +6119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O21">
+  <conditionalFormatting sqref="O13:O22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5982,7 +6131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P21">
+  <conditionalFormatting sqref="P13:P22">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5994,7 +6143,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q21">
+  <conditionalFormatting sqref="Q13:Q22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6006,7 +6155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R21">
+  <conditionalFormatting sqref="R13:R22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6018,7 +6167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S21">
+  <conditionalFormatting sqref="S13:S22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6030,7 +6179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:T21">
+  <conditionalFormatting sqref="T13:T22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="62">
   <si>
     <t>saldo</t>
   </si>
@@ -204,6 +204,12 @@
   <si>
     <t>город Якутск</t>
   </si>
+  <si>
+    <t>2021 (2023)</t>
+  </si>
+  <si>
+    <t>город Махачкала</t>
+  </si>
 </sst>
 </file>
 
@@ -292,12 +298,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -312,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,6 +369,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3357,10 +3372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AM43"/>
+  <dimension ref="C4:AO46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,7 +3384,7 @@
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -3379,17 +3394,22 @@
     <col min="20" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" customWidth="1"/>
     <col min="23" max="23" width="13.5703125" customWidth="1"/>
-    <col min="24" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" customWidth="1"/>
-    <col min="30" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" customWidth="1"/>
+    <col min="32" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.85546875" customWidth="1"/>
     <col min="39" max="39" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
@@ -3451,22 +3471,59 @@
         <v>16</v>
       </c>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="Y4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
         <v>44</v>
       </c>
@@ -3528,22 +3585,53 @@
         <v>214.15723321986769</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
+      <c r="Y5" s="1">
+        <v>-2905</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>737031</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>106609</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>23914</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>189624</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3183</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>3379668</v>
+      </c>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
+      <c r="AG5" s="1">
+        <v>434</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>2445</v>
+      </c>
       <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="6"/>
-    </row>
-    <row r="6" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="1">
+        <v>21617</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>26725</v>
+      </c>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1">
+        <v>84</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>18138</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>32723093.5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
@@ -3607,20 +3695,68 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="6"/>
-    </row>
-    <row r="7" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AA6" s="1">
+        <f>AA5/$Z5</f>
+        <v>0.14464656167786702</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" ref="AB6:AO6" si="0">AB5/$Z5</f>
+        <v>3.2446396420231984E-2</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25728090134607634</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.318678590181417E-3</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5855167557402607</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8884904434141846E-4</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3173638557943965E-3</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.932983822932821E-2</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6260347258120759E-2</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1397078277575842E-4</v>
+      </c>
+      <c r="AN6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4609548309365549E-2</v>
+      </c>
+      <c r="AO6" s="1">
+        <f t="shared" si="0"/>
+        <v>44.398530726658713</v>
+      </c>
+    </row>
+    <row r="7" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
@@ -3697,7 +3833,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="6"/>
     </row>
-    <row r="8" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C8" s="16" t="s">
         <v>44</v>
       </c>
@@ -3774,7 +3910,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="6"/>
     </row>
-    <row r="9" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
         <v>44</v>
       </c>
@@ -3836,73 +3972,60 @@
         <v>312.14863482601891</v>
       </c>
     </row>
-    <row r="10" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-2905</v>
+      </c>
+      <c r="G10" s="1">
+        <v>737031</v>
+      </c>
       <c r="H10" s="5">
-        <f>AVERAGE(H5:H9)</f>
-        <v>0.20331441206967366</v>
+        <v>0.14464656167786702</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ref="I10:V10" si="0">AVERAGE(I5:I9)</f>
-        <v>30481.955130000006</v>
+        <v>3.2446396420231984E-2</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.65658470340529163</v>
+        <v>0.25728090134607634</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="0"/>
-        <v>2.9050495826870398E-2</v>
+        <v>4.318678590181417E-3</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="0"/>
-        <v>34.573758056548776</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="0"/>
-        <v>26.763999999999999</v>
-      </c>
+        <v>4.5855167557402607</v>
+      </c>
+      <c r="M10" s="18"/>
       <c r="N10" s="5">
-        <f t="shared" si="0"/>
-        <v>2.1695905211147784E-3</v>
+        <v>5.8884904434141846E-4</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="0"/>
-        <v>2.1806209088834566E-3</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="0"/>
-        <v>7.4338493169562384E-3</v>
-      </c>
+        <v>3.3173638557943965E-3</v>
+      </c>
+      <c r="P10" s="18"/>
       <c r="Q10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.40826609628267213</v>
+        <v>2.932983822932821E-2</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.77609421440866666</v>
-      </c>
-      <c r="S10" s="5">
-        <f t="shared" si="0"/>
-        <v>58.399096327985241</v>
-      </c>
+        <v>3.6260347258120759E-2</v>
+      </c>
+      <c r="S10" s="18"/>
       <c r="T10" s="5">
-        <f t="shared" si="0"/>
-        <v>3.9559704053536746E-4</v>
+        <v>1.1397078277575842E-4</v>
       </c>
       <c r="U10" s="5">
-        <f t="shared" si="0"/>
-        <v>4.9680192935932066E-2</v>
+        <v>2.4609548309365549E-2</v>
       </c>
       <c r="V10" s="5">
-        <f t="shared" si="0"/>
-        <v>390.15456497030391</v>
+        <v>44.398530726658713</v>
       </c>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
@@ -3920,7 +4043,7 @@
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
     </row>
-    <row r="11" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:41" x14ac:dyDescent="0.25">
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
@@ -3937,64 +4060,7 @@
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
     </row>
-    <row r="12" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="12"/>
+    <row r="12" spans="3:41" x14ac:dyDescent="0.25">
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -4011,1079 +4077,1811 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>56613000</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G13" s="7">
-        <v>5.5329999999999997E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5.8099999999999999E-2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5.4960000000000002E-2</v>
-      </c>
-      <c r="J13" s="7">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="K13" s="7">
-        <v>4.0250000000000001E-2</v>
-      </c>
-      <c r="L13" s="7">
-        <v>5.5660000000000001E-2</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="O13" s="7">
-        <v>7.0739999999999997E-2</v>
-      </c>
-      <c r="P13" s="7">
-        <v>6.4449999999999993E-2</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="R13" s="7">
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="S13" s="7">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="T13" s="7">
-        <v>7.5560000000000002E-2</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>56613000</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G14" s="7">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6.7299999999999999E-2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5.91E-2</v>
-      </c>
-      <c r="J14" s="7">
-        <v>4.938E-2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="L14" s="7">
-        <v>6.0729999999999999E-2</v>
-      </c>
-      <c r="M14" s="7">
-        <v>9.0149999999999994E-2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="O14" s="7">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="P14" s="7">
-        <v>6.5799999999999997E-2</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0.12989999999999999</v>
-      </c>
-      <c r="R14" s="7">
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="S14" s="7">
-        <v>7.4160000000000004E-2</v>
-      </c>
-      <c r="T14" s="7">
-        <v>5.7099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>63637000</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2013</v>
-      </c>
-      <c r="G15" s="7">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>5.79E-2</v>
-      </c>
-      <c r="I15" s="7">
-        <v>5.1180000000000003E-2</v>
-      </c>
-      <c r="J15" s="7">
-        <v>5.246E-2</v>
-      </c>
-      <c r="K15" s="7">
-        <v>5.9229999999999998E-2</v>
-      </c>
-      <c r="L15" s="7">
-        <v>7.6300000000000007E-2</v>
-      </c>
-      <c r="M15" s="7">
-        <v>7.4770000000000003E-2</v>
-      </c>
-      <c r="N15" s="7">
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="O15" s="7">
-        <v>6.6799999999999998E-2</v>
-      </c>
-      <c r="P15" s="7">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0.16220000000000001</v>
-      </c>
-      <c r="R15" s="7">
-        <v>8.6599999999999996E-2</v>
-      </c>
-      <c r="S15" s="7">
-        <v>6.6830000000000001E-2</v>
-      </c>
-      <c r="T15" s="7">
-        <v>3.85E-2</v>
+    <row r="13" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5">
+        <f>AVERAGE(H5:H10)</f>
+        <v>0.19353643700437254</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13:V13" si="1">AVERAGE(I5:I10)</f>
+        <v>25401.63468273274</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.59003406972875572</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.4928526287422235E-2</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="1"/>
+        <v>29.575717839747355</v>
+      </c>
+      <c r="M13" s="5">
+        <f>AVERAGE(M5:M10)</f>
+        <v>26.763999999999999</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9061336083192185E-3</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.3700780667019468E-3</v>
+      </c>
+      <c r="P13" s="5">
+        <f>AVERAGE(P5:P10)</f>
+        <v>7.4338493169562384E-3</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34511005327378147</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.6527885698835757</v>
+      </c>
+      <c r="S13" s="5">
+        <f>AVERAGE(S5:S10)</f>
+        <v>58.399096327985241</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4865933090876596E-4</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="1"/>
+        <v>4.550175216483765E-2</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="1"/>
+        <v>332.52855926302971</v>
+      </c>
+    </row>
+    <row r="15" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="W15" s="12"/>
+      <c r="X15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <v>63637000</v>
+        <v>56613000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G16" s="7">
-        <v>5.79E-2</v>
+        <v>5.5329999999999997E-2</v>
       </c>
       <c r="H16" s="7">
-        <v>5.5629999999999999E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="I16" s="7">
-        <v>5.1639999999999998E-2</v>
+        <v>5.4960000000000002E-2</v>
       </c>
       <c r="J16" s="7">
-        <v>5.2519999999999997E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="K16" s="7">
-        <v>5.8930000000000003E-2</v>
+        <v>4.0250000000000001E-2</v>
       </c>
       <c r="L16" s="7">
-        <v>9.2700000000000005E-2</v>
+        <v>5.5660000000000001E-2</v>
       </c>
       <c r="M16" s="7">
-        <v>9.2100000000000001E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="N16" s="7">
-        <v>8.1600000000000006E-2</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="O16" s="7">
-        <v>7.4899999999999994E-2</v>
+        <v>7.0739999999999997E-2</v>
       </c>
       <c r="P16" s="7">
-        <v>7.46E-2</v>
+        <v>6.4449999999999993E-2</v>
       </c>
       <c r="Q16" s="7">
-        <v>0.14929999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="R16" s="7">
-        <v>7.886E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="S16" s="7">
-        <v>5.466E-2</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="T16" s="7">
-        <v>2.4639999999999999E-2</v>
+        <v>7.5560000000000002E-2</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-    </row>
-    <row r="17" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="X16" s="1">
+        <v>56613000</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>2019</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>5.5329999999999997E-2</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>5.4960000000000002E-2</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>4.0250000000000001E-2</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>5.5660000000000001E-2</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>7.0739999999999997E-2</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>6.4449999999999993E-2</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>7.5560000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
-        <v>75533000</v>
+        <v>56613000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G17" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4.938E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>6.0729999999999999E-2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>9.0149999999999994E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="O17" s="7">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="P17" s="7">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="R17" s="7">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="S17" s="7">
+        <v>7.4160000000000004E-2</v>
+      </c>
+      <c r="T17" s="7">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="X17" s="1">
+        <v>56613000</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>2019</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>4.938E-2</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>6.0729999999999999E-2</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>9.0149999999999994E-2</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>7.4160000000000004E-2</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>5.7099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>63637000</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H17" s="7">
-        <v>7.5740000000000002E-2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7.3550000000000004E-2</v>
-      </c>
-      <c r="J17" s="7">
-        <v>5.6270000000000001E-2</v>
-      </c>
-      <c r="K17" s="7">
-        <v>4.5870000000000001E-2</v>
-      </c>
-      <c r="L17" s="7">
-        <v>4.0370000000000003E-2</v>
-      </c>
-      <c r="M17" s="7">
-        <v>6.3350000000000004E-2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>8.2400000000000001E-2</v>
-      </c>
-      <c r="O17" s="7">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="P17" s="7">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0.11285000000000001</v>
-      </c>
-      <c r="R17" s="7">
-        <v>6.2560000000000004E-2</v>
-      </c>
-      <c r="S17" s="7">
-        <v>9.1399999999999995E-2</v>
-      </c>
-      <c r="T17" s="7">
-        <v>8.5199999999999998E-2</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>75533000</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5.1180000000000003E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>5.246E-2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>5.9229999999999998E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>7.4770000000000003E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="O18" s="7">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="P18" s="7">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="R18" s="7">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="S18" s="7">
+        <v>6.6830000000000001E-2</v>
+      </c>
+      <c r="T18" s="7">
+        <v>3.85E-2</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="X18" s="1">
+        <v>63637000</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>2013</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>5.1180000000000003E-2</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>5.246E-2</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>5.9229999999999998E-2</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>7.4770000000000003E-2</v>
+      </c>
+      <c r="AI18" s="7">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="AL18" s="7">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>6.6830000000000001E-2</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>63637000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="7">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H18" s="7">
-        <v>9.3799999999999994E-2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="J18" s="7">
-        <v>6.0299999999999999E-2</v>
-      </c>
-      <c r="K18" s="7">
-        <v>2.7019999999999999E-2</v>
-      </c>
-      <c r="L18" s="7">
-        <v>3.8100000000000002E-2</v>
-      </c>
-      <c r="M18" s="7">
-        <v>8.1799999999999998E-2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>9.0639999999999998E-2</v>
-      </c>
-      <c r="O18" s="7">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="P18" s="7">
-        <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0.1051</v>
-      </c>
-      <c r="R18" s="7">
-        <v>5.6730000000000003E-2</v>
-      </c>
-      <c r="S18" s="7">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="T18" s="7">
-        <v>6.7599999999999993E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>28656000</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F19" s="1">
         <v>2013</v>
       </c>
       <c r="G19" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5.5629999999999999E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5.1639999999999998E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>5.2519999999999997E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>5.8930000000000003E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="O19" s="7">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="P19" s="7">
+        <v>7.46E-2</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="R19" s="7">
+        <v>7.886E-2</v>
+      </c>
+      <c r="S19" s="7">
+        <v>5.466E-2</v>
+      </c>
+      <c r="T19" s="7">
+        <v>2.4639999999999999E-2</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1">
+        <v>63637000</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>2013</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>5.5629999999999999E-2</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>5.1639999999999998E-2</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>5.2519999999999997E-2</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>5.8930000000000003E-2</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>7.46E-2</v>
+      </c>
+      <c r="AL19" s="7">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>7.886E-2</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>5.466E-2</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>2.4639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>75533000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7.5740000000000002E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>7.3550000000000004E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>5.6270000000000001E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>4.5870000000000001E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>4.0370000000000003E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>6.3350000000000004E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="P20" s="7">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0.11285000000000001</v>
+      </c>
+      <c r="R20" s="7">
+        <v>6.2560000000000004E-2</v>
+      </c>
+      <c r="S20" s="7">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="T20" s="7">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="X20" s="1">
+        <v>75533000</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>7.5740000000000002E-2</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>7.3550000000000004E-2</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>5.6270000000000001E-2</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>4.5870000000000001E-2</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>4.0370000000000003E-2</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>6.3350000000000004E-2</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>0.11285000000000001</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>6.2560000000000004E-2</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>8.5199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>75533000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2.7019999999999999E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>9.0639999999999998E-2</v>
+      </c>
+      <c r="O21" s="7">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="P21" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.1051</v>
+      </c>
+      <c r="R21" s="7">
+        <v>5.6730000000000003E-2</v>
+      </c>
+      <c r="S21" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="T21" s="7">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="X21" s="1">
+        <v>75533000</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>2.7019999999999999E-2</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>9.0639999999999998E-2</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="AL21" s="7">
+        <v>0.1051</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>5.6730000000000003E-2</v>
+      </c>
+      <c r="AN21" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AO21" s="7">
+        <v>6.7599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>28656000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G22" s="7">
         <v>5.7070000000000003E-2</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H22" s="7">
         <v>5.0479999999999997E-2</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I22" s="7">
         <v>4.19E-2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J22" s="7">
         <v>3.9669999999999997E-2</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K22" s="7">
         <v>4.7359999999999999E-2</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L22" s="7">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M22" s="7">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N22" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O22" s="7">
         <v>6.2230000000000001E-2</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P22" s="7">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q22" s="7">
         <v>0.18140000000000001</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R22" s="7">
         <v>9.4600000000000004E-2</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S22" s="7">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T22" s="7">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-    </row>
-    <row r="20" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
+      <c r="X22" s="1">
         <v>28656000</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="Z22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>2013</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>5.7070000000000003E-2</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>5.0479999999999997E-2</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>4.19E-2</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>3.9669999999999997E-2</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>4.7359999999999999E-2</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="AH22" s="7">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="AI22" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>6.2230000000000001E-2</v>
+      </c>
+      <c r="AK22" s="7">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="AL22" s="7">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="AO22" s="7">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>28656000</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F23" s="1">
         <v>2013</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G23" s="7">
         <v>6.2260000000000003E-2</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H23" s="7">
         <v>5.3530000000000001E-2</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I23" s="7">
         <v>4.8739999999999999E-2</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J23" s="7">
         <v>4.4159999999999998E-2</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K23" s="7">
         <v>6.4449999999999993E-2</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L23" s="7">
         <v>0.1017</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M23" s="7">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N23" s="7">
         <v>7.5259999999999994E-2</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O23" s="7">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P23" s="7">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q23" s="7">
         <v>0.1588</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R23" s="7">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S23" s="7">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T23" s="7">
         <v>2.945E-2</v>
       </c>
-    </row>
-    <row r="21" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
+      <c r="X23" s="1">
+        <v>28656000</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>2013</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>6.2260000000000003E-2</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>5.3530000000000001E-2</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>4.8739999999999999E-2</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>4.4159999999999998E-2</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>6.4449999999999993E-2</v>
+      </c>
+      <c r="AG23" s="7">
+        <v>0.1017</v>
+      </c>
+      <c r="AH23" s="7">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="AI23" s="7">
+        <v>7.5259999999999994E-2</v>
+      </c>
+      <c r="AJ23" s="7">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="AK23" s="7">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="AL23" s="7">
+        <v>0.1588</v>
+      </c>
+      <c r="AM23" s="7">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AN23" s="7">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="AO23" s="7">
+        <v>2.945E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
         <v>98701000</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G21" s="7">
-        <v>8.3199999999999996E-2</v>
-      </c>
-      <c r="H21" s="7">
-        <v>8.5199999999999998E-2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="J21" s="7">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="K21" s="7">
-        <v>6.5729999999999997E-2</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0.11176</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0.1137</v>
-      </c>
-      <c r="N21" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="O21" s="7">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="P21" s="7">
-        <v>5.7979999999999997E-2</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="R21" s="7">
-        <v>4.5870000000000001E-2</v>
-      </c>
-      <c r="S21" s="7">
-        <v>3.5369999999999999E-2</v>
-      </c>
-      <c r="T21" s="7">
-        <v>2.5729999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
-        <v>98701000</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G22" s="7">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="H22" s="7">
-        <v>7.3359999999999995E-2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="J22" s="7">
-        <v>5.9900000000000002E-2</v>
-      </c>
-      <c r="K22" s="7">
-        <v>6.8540000000000004E-2</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0.1115</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0.10376000000000001</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="O22" s="7">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="P22" s="7">
-        <v>5.9569999999999998E-2</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>9.8699999999999996E-2</v>
-      </c>
-      <c r="R22" s="7">
-        <v>5.6550000000000003E-2</v>
-      </c>
-      <c r="S22" s="7">
-        <v>4.8340000000000001E-2</v>
-      </c>
-      <c r="T22" s="7">
-        <v>4.0620000000000003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="D24" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="F24" s="1">
+        <v>2019</v>
+      </c>
       <c r="G24" s="7">
-        <f>AVERAGE(G15,G13,G17,G19,G21)</f>
-        <v>6.1360000000000005E-2</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" ref="H24:T25" si="1">AVERAGE(H15,H13,H17,H19,H21)</f>
-        <v>6.5484000000000001E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="1"/>
-        <v>5.7818000000000001E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="1"/>
-        <v>5.1880000000000003E-2</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="1"/>
-        <v>5.1687999999999998E-2</v>
+        <v>6.5729999999999997E-2</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="1"/>
-        <v>7.2958000000000009E-2</v>
+        <v>0.11176</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="1"/>
-        <v>8.2184000000000007E-2</v>
+        <v>0.1137</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="1"/>
-        <v>7.782E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="1"/>
-        <v>7.0354E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="1"/>
-        <v>7.0605999999999988E-2</v>
+        <v>5.7979999999999997E-2</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="1"/>
-        <v>0.13671</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" si="1"/>
-        <v>7.5566000000000008E-2</v>
+        <v>4.5870000000000001E-2</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" si="1"/>
-        <v>7.324E-2</v>
+        <v>3.5369999999999999E-2</v>
       </c>
       <c r="T24" s="7">
-        <f t="shared" si="1"/>
-        <v>5.2357999999999995E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="D25" s="3" t="s">
-        <v>43</v>
+        <v>2.5729999999999999E-2</v>
+      </c>
+      <c r="X24" s="1">
+        <v>98701000</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>2019</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="AD24" s="7">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>6.5729999999999997E-2</v>
+      </c>
+      <c r="AG24" s="7">
+        <v>0.11176</v>
+      </c>
+      <c r="AH24" s="7">
+        <v>0.1137</v>
+      </c>
+      <c r="AI24" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AJ24" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AK24" s="7">
+        <v>5.7979999999999997E-2</v>
+      </c>
+      <c r="AL24" s="7">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="AM24" s="7">
+        <v>4.5870000000000001E-2</v>
+      </c>
+      <c r="AN24" s="7">
+        <v>3.5369999999999999E-2</v>
+      </c>
+      <c r="AO24" s="7">
+        <v>2.5729999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>98701000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F25" s="1">
+        <v>2019</v>
+      </c>
       <c r="G25" s="7">
-        <f>AVERAGE(G16,G14,G18,G20,G22)</f>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>7.3359999999999995E-2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="J25" s="7">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="K25" s="7">
+        <v>6.8540000000000004E-2</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.1115</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.10376000000000001</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="O25" s="7">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="P25" s="7">
+        <v>5.9569999999999998E-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="R25" s="7">
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="S25" s="7">
+        <v>4.8340000000000001E-2</v>
+      </c>
+      <c r="T25" s="7">
+        <v>4.0620000000000003E-2</v>
+      </c>
+      <c r="X25" s="1">
+        <v>98701000</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>2019</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>7.3359999999999995E-2</v>
+      </c>
+      <c r="AD25" s="7">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>6.8540000000000004E-2</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>0.1115</v>
+      </c>
+      <c r="AH25" s="7">
+        <v>0.10376000000000001</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="AK25" s="7">
+        <v>5.9569999999999998E-2</v>
+      </c>
+      <c r="AL25" s="7">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="AM25" s="7">
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="AN25" s="7">
+        <v>4.8340000000000001E-2</v>
+      </c>
+      <c r="AO25" s="7">
+        <v>4.0620000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>82701000</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="7">
+        <v>4.5469999999999997E-2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5.3830000000000003E-2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="J26" s="7">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="K26" s="7">
+        <v>6.59E-2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="N26" s="7">
+        <v>9.7049999999999997E-2</v>
+      </c>
+      <c r="O26" s="7">
+        <v>7.4770000000000003E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0.11115</v>
+      </c>
+      <c r="R26" s="7">
+        <v>5.9360000000000003E-2</v>
+      </c>
+      <c r="S26" s="7">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="T26" s="7">
+        <v>3.2620000000000003E-2</v>
+      </c>
+      <c r="X26" s="1">
+        <v>82701000</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>4.5469999999999997E-2</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>5.3830000000000003E-2</v>
+      </c>
+      <c r="AD26" s="7">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="AF26" s="7">
+        <v>6.59E-2</v>
+      </c>
+      <c r="AG26" s="7">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="AH26" s="7">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="AI26" s="7">
+        <v>9.7049999999999997E-2</v>
+      </c>
+      <c r="AJ26" s="7">
+        <v>7.4770000000000003E-2</v>
+      </c>
+      <c r="AK26" s="7">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="AL26" s="7">
+        <v>0.11115</v>
+      </c>
+      <c r="AM26" s="7">
+        <v>5.9360000000000003E-2</v>
+      </c>
+      <c r="AN26" s="7">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="AO26" s="7">
+        <v>3.2620000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>82701000</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="7">
+        <v>5.3530000000000001E-2</v>
+      </c>
+      <c r="H27" s="7">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>6.8360000000000004E-2</v>
+      </c>
+      <c r="J27" s="7">
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="K27" s="7">
+        <v>6.8659999999999999E-2</v>
+      </c>
+      <c r="L27" s="7">
+        <v>8.3860000000000004E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0.11633</v>
+      </c>
+      <c r="N27" s="7">
+        <v>9.4E-2</v>
+      </c>
+      <c r="O27" s="7">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="P27" s="7">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="R27" s="7">
+        <v>5.4780000000000002E-2</v>
+      </c>
+      <c r="S27" s="7">
+        <v>5.0540000000000002E-2</v>
+      </c>
+      <c r="T27" s="7">
+        <v>2.9270000000000001E-2</v>
+      </c>
+      <c r="X27" s="1">
+        <v>82701000</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>5.3530000000000001E-2</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="AD27" s="7">
+        <v>6.8360000000000004E-2</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="AF27" s="7">
+        <v>6.8659999999999999E-2</v>
+      </c>
+      <c r="AG27" s="7">
+        <v>8.3860000000000004E-2</v>
+      </c>
+      <c r="AH27" s="7">
+        <v>0.11633</v>
+      </c>
+      <c r="AI27" s="7">
+        <v>9.4E-2</v>
+      </c>
+      <c r="AJ27" s="7">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="AK27" s="7">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="AL27" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="AM27" s="7">
+        <v>5.4780000000000002E-2</v>
+      </c>
+      <c r="AN27" s="7">
+        <v>5.0540000000000002E-2</v>
+      </c>
+      <c r="AO27" s="7">
+        <v>2.9270000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="7">
+        <f>AVERAGE(G18,G16,G20,G22,G24)</f>
+        <v>6.1360000000000005E-2</v>
+      </c>
+      <c r="H29" s="7">
+        <f>AVERAGE(H18,H16,H20,H22,H24)</f>
+        <v>6.5484000000000001E-2</v>
+      </c>
+      <c r="I29" s="7">
+        <f>AVERAGE(I18,I16,I20,I22,I24)</f>
+        <v>5.7818000000000001E-2</v>
+      </c>
+      <c r="J29" s="7">
+        <f>AVERAGE(J18,J16,J20,J22,J24)</f>
+        <v>5.1880000000000003E-2</v>
+      </c>
+      <c r="K29" s="7">
+        <f>AVERAGE(K18,K16,K20,K22,K24)</f>
+        <v>5.1687999999999998E-2</v>
+      </c>
+      <c r="L29" s="7">
+        <f>AVERAGE(L18,L16,L20,L22,L24)</f>
+        <v>7.2958000000000009E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <f>AVERAGE(M18,M16,M20,M22,M24)</f>
+        <v>8.2184000000000007E-2</v>
+      </c>
+      <c r="N29" s="7">
+        <f>AVERAGE(N18,N16,N20,N22,N24)</f>
+        <v>7.782E-2</v>
+      </c>
+      <c r="O29" s="7">
+        <f>AVERAGE(O18,O16,O20,O22,O24)</f>
+        <v>7.0354E-2</v>
+      </c>
+      <c r="P29" s="7">
+        <f>AVERAGE(P18,P16,P20,P22,P24)</f>
+        <v>7.0605999999999988E-2</v>
+      </c>
+      <c r="Q29" s="7">
+        <f>AVERAGE(Q18,Q16,Q20,Q22,Q24)</f>
+        <v>0.13671</v>
+      </c>
+      <c r="R29" s="7">
+        <f>AVERAGE(R18,R16,R20,R22,R24)</f>
+        <v>7.5566000000000008E-2</v>
+      </c>
+      <c r="S29" s="7">
+        <f>AVERAGE(S18,S16,S20,S22,S24)</f>
+        <v>7.324E-2</v>
+      </c>
+      <c r="T29" s="7">
+        <f>AVERAGE(T18,T16,T20,T22,T24)</f>
+        <v>5.2357999999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="7">
+        <f>AVERAGE(G19,G17,G21,G23,G25)</f>
         <v>6.3271999999999995E-2</v>
       </c>
-      <c r="H25" s="7">
-        <f t="shared" si="1"/>
+      <c r="H30" s="7">
+        <f>AVERAGE(H19,H17,H21,H23,H25)</f>
         <v>6.8723999999999993E-2</v>
       </c>
-      <c r="I25" s="7">
-        <f t="shared" si="1"/>
+      <c r="I30" s="7">
+        <f>AVERAGE(I19,I17,I21,I23,I25)</f>
         <v>6.2016000000000002E-2</v>
       </c>
-      <c r="J25" s="7">
-        <f t="shared" si="1"/>
+      <c r="J30" s="7">
+        <f>AVERAGE(J19,J17,J21,J23,J25)</f>
         <v>5.3252000000000001E-2</v>
       </c>
-      <c r="K25" s="7">
-        <f t="shared" si="1"/>
+      <c r="K30" s="7">
+        <f>AVERAGE(K19,K17,K21,K23,K25)</f>
         <v>5.2288000000000001E-2</v>
       </c>
-      <c r="L25" s="7">
-        <f t="shared" si="1"/>
+      <c r="L30" s="7">
+        <f>AVERAGE(L19,L17,L21,L23,L25)</f>
         <v>8.094599999999999E-2</v>
       </c>
-      <c r="M25" s="7">
-        <f t="shared" si="1"/>
+      <c r="M30" s="7">
+        <f>AVERAGE(M19,M17,M21,M23,M25)</f>
         <v>9.0782000000000002E-2</v>
       </c>
-      <c r="N25" s="7">
-        <f t="shared" si="1"/>
+      <c r="N30" s="7">
+        <f>AVERAGE(N19,N17,N21,N23,N25)</f>
         <v>8.252000000000001E-2</v>
       </c>
-      <c r="O25" s="7">
-        <f t="shared" si="1"/>
+      <c r="O30" s="7">
+        <f>AVERAGE(O19,O17,O21,O23,O25)</f>
         <v>7.152E-2</v>
       </c>
-      <c r="P25" s="7">
-        <f t="shared" si="1"/>
+      <c r="P30" s="7">
+        <f>AVERAGE(P19,P17,P21,P23,P25)</f>
         <v>6.8254000000000009E-2</v>
       </c>
-      <c r="Q25" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q30" s="7">
+        <f>AVERAGE(Q19,Q17,Q21,Q23,Q25)</f>
         <v>0.12835999999999997</v>
       </c>
-      <c r="R25" s="7">
-        <f t="shared" si="1"/>
+      <c r="R30" s="7">
+        <f>AVERAGE(R19,R17,R21,R23,R25)</f>
         <v>7.0648000000000002E-2</v>
       </c>
-      <c r="S25" s="7">
-        <f t="shared" si="1"/>
+      <c r="S30" s="7">
+        <f>AVERAGE(S19,S17,S21,S23,S25)</f>
         <v>6.3492000000000007E-2</v>
       </c>
-      <c r="T25" s="7">
-        <f t="shared" si="1"/>
+      <c r="T30" s="7">
+        <f>AVERAGE(T19,T17,T21,T23,T25)</f>
         <v>4.3881999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="U34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V31" s="2" t="s">
+      <c r="V34" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F32" s="6">
-        <v>-136</v>
-      </c>
-      <c r="G32" s="6">
-        <v>59861.999999999993</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0.1683705856803982</v>
-      </c>
-      <c r="I32" s="6">
-        <v>18717.5</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0.44555644649360188</v>
-      </c>
-      <c r="K32" s="5">
-        <v>1.9879055160201789E-2</v>
-      </c>
-      <c r="L32" s="5">
-        <v>20.074214025592191</v>
-      </c>
-      <c r="M32" s="5">
-        <v>23.4</v>
-      </c>
-      <c r="N32" s="5">
-        <v>1.7707393672112409E-3</v>
-      </c>
-      <c r="O32" s="5">
-        <v>2.489058167117694E-3</v>
-      </c>
-      <c r="P32" s="5">
-        <v>1.0804851157662609E-2</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>1.093247803280879</v>
-      </c>
-      <c r="R32" s="5">
-        <v>1.183322976178544</v>
-      </c>
-      <c r="S32" s="5">
-        <v>72.625054291537197</v>
-      </c>
-      <c r="T32" s="5">
-        <v>7.1831879990644969E-4</v>
-      </c>
-      <c r="U32" s="5">
-        <v>4.6406735491630748E-2</v>
-      </c>
-      <c r="V32" s="5">
-        <v>45.439470782800392</v>
-      </c>
-    </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F33" s="6">
-        <v>-131.99999999999989</v>
-      </c>
-      <c r="G33" s="6">
-        <v>59649</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0.16354004258244059</v>
-      </c>
-      <c r="I33" s="6">
-        <v>16455.829679999999</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0.46832805244010789</v>
-      </c>
-      <c r="K33" s="5">
-        <v>2.0452983285553811E-2</v>
-      </c>
-      <c r="L33" s="5">
-        <v>19.883605225066638</v>
-      </c>
-      <c r="M33" s="5">
-        <v>23.64</v>
-      </c>
-      <c r="N33" s="5">
-        <v>1.810591962983442E-3</v>
-      </c>
-      <c r="O33" s="5">
-        <v>2.5817700212912098E-3</v>
-      </c>
-      <c r="P33" s="5">
-        <v>1.0752904491273941E-2</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>0.94551459370651614</v>
-      </c>
-      <c r="R33" s="5">
-        <v>1.203360827507586</v>
-      </c>
-      <c r="S33" s="5">
-        <v>61.270966499019252</v>
-      </c>
-      <c r="T33" s="5">
-        <v>7.3764857751177563E-4</v>
-      </c>
-      <c r="U33" s="5">
-        <v>4.6572448825629928E-2</v>
-      </c>
-      <c r="V33" s="5">
-        <v>35.729470777548642</v>
-      </c>
-    </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F34" s="6">
-        <v>-338</v>
-      </c>
-      <c r="G34" s="6">
-        <v>59349</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0.16355793694923251</v>
-      </c>
-      <c r="I34" s="6">
-        <v>16506.97249</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0.47685049453234252</v>
-      </c>
-      <c r="K34" s="5">
-        <v>2.1230349289794261E-2</v>
-      </c>
-      <c r="L34" s="5">
-        <v>19.00027140659488</v>
-      </c>
-      <c r="M34" s="5">
-        <v>23.93</v>
-      </c>
-      <c r="N34" s="5">
-        <v>1.8197442248394969E-3</v>
-      </c>
-      <c r="O34" s="5">
-        <v>2.628519435879279E-3</v>
-      </c>
-      <c r="P34" s="5">
-        <v>1.370368498205529E-2</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>0.94261065898330221</v>
-      </c>
-      <c r="R34" s="5">
-        <v>1.032858683381354</v>
-      </c>
-      <c r="S34" s="5">
-        <v>92.807506382584336</v>
-      </c>
-      <c r="T34" s="5">
-        <v>7.2452779322313625E-4</v>
-      </c>
-      <c r="U34" s="5">
-        <v>4.6807865338927362E-2</v>
-      </c>
-      <c r="V34" s="5">
-        <v>54.735426532544722</v>
-      </c>
-    </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="1">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="F35" s="6">
-        <v>-283.99999999999989</v>
+        <v>-136</v>
       </c>
       <c r="G35" s="6">
-        <v>58748.999999999993</v>
+        <v>59861.999999999993</v>
       </c>
       <c r="H35" s="5">
-        <v>0.16527940901121721</v>
+        <v>0.1683705856803982</v>
       </c>
       <c r="I35" s="6">
-        <v>16496.860799999999</v>
+        <v>18717.5</v>
       </c>
       <c r="J35" s="5">
-        <v>0.46437896815264929</v>
+        <v>0.44555644649360188</v>
       </c>
       <c r="K35" s="5">
-        <v>2.4170624180837111E-2</v>
+        <v>1.9879055160201789E-2</v>
       </c>
       <c r="L35" s="5">
-        <v>27.61631721612282</v>
+        <v>20.074214025592191</v>
       </c>
       <c r="M35" s="5">
-        <v>24.29</v>
+        <v>23.4</v>
       </c>
       <c r="N35" s="5">
-        <v>1.8553507293741049E-3</v>
+        <v>1.7707393672112409E-3</v>
       </c>
       <c r="O35" s="5">
-        <v>2.6213212139780989E-3</v>
+        <v>2.489058167117694E-3</v>
       </c>
       <c r="P35" s="5">
-        <v>1.384874636164019E-2</v>
+        <v>1.0804851157662609E-2</v>
       </c>
       <c r="Q35" s="5">
-        <v>0.94990553030689784</v>
+        <v>1.093247803280879</v>
       </c>
       <c r="R35" s="5">
-        <v>1.0285073788490009</v>
+        <v>1.183322976178544</v>
       </c>
       <c r="S35" s="5">
-        <v>83.891458903130243</v>
+        <v>72.625054291537197</v>
       </c>
       <c r="T35" s="5">
-        <v>7.1490578563039218E-4</v>
+        <v>7.1831879990644969E-4</v>
       </c>
       <c r="U35" s="5">
-        <v>4.6383768234352918E-2</v>
+        <v>4.6406735491630748E-2</v>
       </c>
       <c r="V35" s="5">
-        <v>51.596050464348288</v>
+        <v>45.439470782800392</v>
       </c>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.25">
@@ -5091,363 +5889,1308 @@
         <v>49</v>
       </c>
       <c r="E36" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F36" s="6">
+        <v>-131.99999999999989</v>
+      </c>
+      <c r="G36" s="6">
+        <v>59649</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.16354004258244059</v>
+      </c>
+      <c r="I36" s="6">
+        <v>16455.829679999999</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.46832805244010789</v>
+      </c>
+      <c r="K36" s="5">
+        <v>2.0452983285553811E-2</v>
+      </c>
+      <c r="L36" s="5">
+        <v>19.883605225066638</v>
+      </c>
+      <c r="M36" s="5">
+        <v>23.64</v>
+      </c>
+      <c r="N36" s="5">
+        <v>1.810591962983442E-3</v>
+      </c>
+      <c r="O36" s="5">
+        <v>2.5817700212912098E-3</v>
+      </c>
+      <c r="P36" s="5">
+        <v>1.0752904491273941E-2</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0.94551459370651614</v>
+      </c>
+      <c r="R36" s="5">
+        <v>1.203360827507586</v>
+      </c>
+      <c r="S36" s="5">
+        <v>61.270966499019252</v>
+      </c>
+      <c r="T36" s="5">
+        <v>7.3764857751177563E-4</v>
+      </c>
+      <c r="U36" s="5">
+        <v>4.6572448825629928E-2</v>
+      </c>
+      <c r="V36" s="5">
+        <v>35.729470777548642</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F37" s="6">
+        <v>-338</v>
+      </c>
+      <c r="G37" s="6">
+        <v>59349</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.16355793694923251</v>
+      </c>
+      <c r="I37" s="6">
+        <v>16506.97249</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.47685049453234252</v>
+      </c>
+      <c r="K37" s="5">
+        <v>2.1230349289794261E-2</v>
+      </c>
+      <c r="L37" s="5">
+        <v>19.00027140659488</v>
+      </c>
+      <c r="M37" s="5">
+        <v>23.93</v>
+      </c>
+      <c r="N37" s="5">
+        <v>1.8197442248394969E-3</v>
+      </c>
+      <c r="O37" s="5">
+        <v>2.628519435879279E-3</v>
+      </c>
+      <c r="P37" s="5">
+        <v>1.370368498205529E-2</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0.94261065898330221</v>
+      </c>
+      <c r="R37" s="5">
+        <v>1.032858683381354</v>
+      </c>
+      <c r="S37" s="5">
+        <v>92.807506382584336</v>
+      </c>
+      <c r="T37" s="5">
+        <v>7.2452779322313625E-4</v>
+      </c>
+      <c r="U37" s="5">
+        <v>4.6807865338927362E-2</v>
+      </c>
+      <c r="V37" s="5">
+        <v>54.735426532544722</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F38" s="6">
+        <v>-283.99999999999989</v>
+      </c>
+      <c r="G38" s="6">
+        <v>58748.999999999993</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.16527940901121721</v>
+      </c>
+      <c r="I38" s="6">
+        <v>16496.860799999999</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.46437896815264929</v>
+      </c>
+      <c r="K38" s="5">
+        <v>2.4170624180837111E-2</v>
+      </c>
+      <c r="L38" s="5">
+        <v>27.61631721612282</v>
+      </c>
+      <c r="M38" s="5">
+        <v>24.29</v>
+      </c>
+      <c r="N38" s="5">
+        <v>1.8553507293741049E-3</v>
+      </c>
+      <c r="O38" s="5">
+        <v>2.6213212139780989E-3</v>
+      </c>
+      <c r="P38" s="5">
+        <v>1.384874636164019E-2</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0.94990553030689784</v>
+      </c>
+      <c r="R38" s="5">
+        <v>1.0285073788490009</v>
+      </c>
+      <c r="S38" s="5">
+        <v>83.891458903130243</v>
+      </c>
+      <c r="T38" s="5">
+        <v>7.1490578563039218E-4</v>
+      </c>
+      <c r="U38" s="5">
+        <v>4.6383768234352918E-2</v>
+      </c>
+      <c r="V38" s="5">
+        <v>51.596050464348288</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="1">
         <v>2018</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F39" s="6">
         <v>-200</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G39" s="6">
         <v>58223</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H39" s="5">
         <v>0.16632602236229671</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I39" s="6">
         <v>17553.456320000001</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J39" s="5">
         <v>0.51243838345670956</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K39" s="5">
         <v>2.5247754323892601E-2</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L39" s="5">
         <v>31.013134193016509</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M39" s="5">
         <v>24.63</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N39" s="5">
         <v>1.9236384246775211E-3</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O39" s="5">
         <v>2.0266904831423918E-3</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P39" s="5">
         <v>1.3973859127836059E-2</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q39" s="5">
         <v>0.96616457413736812</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R39" s="5">
         <v>1.006624529824983</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S39" s="5">
         <v>71.350700176906003</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T39" s="5">
         <v>6.6983838002163945E-4</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U39" s="5">
         <v>4.7472648266149109E-2</v>
       </c>
-      <c r="V36" s="5">
+      <c r="V39" s="5">
         <v>64.228522375006435</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="P42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="R42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="S42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="T42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U39" s="2" t="s">
+      <c r="U42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V39" s="2" t="s">
+      <c r="V42" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F40" s="5">
-        <v>139</v>
-      </c>
-      <c r="G40" s="5">
-        <v>58939</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0.1407217631788798</v>
-      </c>
-      <c r="I40" s="5">
-        <v>22932.92643</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0.6860635572371433</v>
-      </c>
-      <c r="K40" s="5">
-        <v>1.6983661073313071E-2</v>
-      </c>
-      <c r="L40" s="5">
-        <v>41.026866158061729</v>
-      </c>
-      <c r="M40" s="5">
-        <v>27.71</v>
-      </c>
-      <c r="N40" s="5">
-        <v>2.8334379612819849E-3</v>
-      </c>
-      <c r="O40" s="5">
-        <v>2.8504046556609261E-3</v>
-      </c>
-      <c r="P40" s="5">
-        <v>4.0550399565652531E-3</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>0.16425456828245991</v>
-      </c>
-      <c r="R40" s="5">
-        <v>0.26503062488335388</v>
-      </c>
-      <c r="S40" s="5">
-        <v>4.43583459339313</v>
-      </c>
-      <c r="T40" s="5">
-        <v>2.7146711006294569E-4</v>
-      </c>
-      <c r="U40" s="5">
-        <v>5.5464123924735743E-2</v>
-      </c>
-      <c r="V40" s="5">
-        <v>125.2146627631958</v>
-      </c>
-    </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F41" s="5">
-        <v>-222</v>
-      </c>
-      <c r="G41" s="5">
-        <v>58729.999999999993</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0.14122254384471311</v>
-      </c>
-      <c r="I41" s="5">
-        <v>24014.46744</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0.68267154776093975</v>
-      </c>
-      <c r="K41" s="5">
-        <v>1.738464158011236E-2</v>
-      </c>
-      <c r="L41" s="5">
-        <v>43.17377628333049</v>
-      </c>
-      <c r="M41" s="5">
-        <v>28.17</v>
-      </c>
-      <c r="N41" s="5">
-        <v>2.8775753447982111E-3</v>
-      </c>
-      <c r="O41" s="5">
-        <v>2.8605482717520741E-3</v>
-      </c>
-      <c r="P41" s="5">
-        <v>4.0916056529882493E-3</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0.1542993359441503</v>
-      </c>
-      <c r="R41" s="5">
-        <v>0.26809364890175352</v>
-      </c>
-      <c r="S41" s="5">
-        <v>4.2740956785288331</v>
-      </c>
-      <c r="T41" s="5">
-        <v>2.7243316873829302E-4</v>
-      </c>
-      <c r="U41" s="5">
-        <v>5.2000681082921843E-2</v>
-      </c>
-      <c r="V41" s="5">
-        <v>118.6621965973097</v>
-      </c>
-    </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="5">
-        <v>2021</v>
-      </c>
-      <c r="F42" s="5">
-        <v>-71.999999999999972</v>
-      </c>
-      <c r="G42" s="5">
-        <v>57945</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0.13992579169902489</v>
-      </c>
-      <c r="I42" s="5">
-        <v>22576.040779999999</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0.80837518336353431</v>
-      </c>
-      <c r="K42" s="5">
-        <v>1.7551126067822932E-2</v>
-      </c>
-      <c r="L42" s="5">
-        <v>45.26114026456122</v>
-      </c>
-      <c r="M42" s="5">
-        <v>28.65</v>
-      </c>
-      <c r="N42" s="5">
-        <v>2.916558805764068E-3</v>
-      </c>
-      <c r="O42" s="5">
-        <v>2.8647855725256592E-3</v>
-      </c>
-      <c r="P42" s="5">
-        <v>4.1470359823970971E-3</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0.14182414358443221</v>
-      </c>
-      <c r="R42" s="5">
-        <v>0.25191802571403871</v>
-      </c>
-      <c r="S42" s="5">
-        <v>3.580184115972008</v>
-      </c>
-      <c r="T42" s="5">
-        <v>2.9338165501768831E-4</v>
-      </c>
-      <c r="U42" s="5">
-        <v>5.4223832945034092E-2</v>
-      </c>
-      <c r="V42" s="5">
-        <v>137.05732966502711</v>
-      </c>
-    </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C43" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="D43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F43" s="5">
+        <v>139</v>
+      </c>
+      <c r="G43" s="5">
+        <v>58939</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.1407217631788798</v>
+      </c>
+      <c r="I43" s="5">
+        <v>22932.92643</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.6860635572371433</v>
+      </c>
+      <c r="K43" s="5">
+        <v>1.6983661073313071E-2</v>
+      </c>
+      <c r="L43" s="5">
+        <v>41.026866158061729</v>
+      </c>
+      <c r="M43" s="5">
+        <v>27.71</v>
+      </c>
+      <c r="N43" s="5">
+        <v>2.8334379612819849E-3</v>
+      </c>
+      <c r="O43" s="5">
+        <v>2.8504046556609261E-3</v>
+      </c>
+      <c r="P43" s="5">
+        <v>4.0550399565652531E-3</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0.16425456828245991</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0.26503062488335388</v>
+      </c>
+      <c r="S43" s="5">
+        <v>4.43583459339313</v>
+      </c>
+      <c r="T43" s="5">
+        <v>2.7146711006294569E-4</v>
+      </c>
+      <c r="U43" s="5">
+        <v>5.5464123924735743E-2</v>
+      </c>
+      <c r="V43" s="5">
+        <v>125.2146627631958</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F44" s="5">
+        <v>-222</v>
+      </c>
+      <c r="G44" s="5">
+        <v>58729.999999999993</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.14122254384471311</v>
+      </c>
+      <c r="I44" s="5">
+        <v>24014.46744</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.68267154776093975</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1.738464158011236E-2</v>
+      </c>
+      <c r="L44" s="5">
+        <v>43.17377628333049</v>
+      </c>
+      <c r="M44" s="5">
+        <v>28.17</v>
+      </c>
+      <c r="N44" s="5">
+        <v>2.8775753447982111E-3</v>
+      </c>
+      <c r="O44" s="5">
+        <v>2.8605482717520741E-3</v>
+      </c>
+      <c r="P44" s="5">
+        <v>4.0916056529882493E-3</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>0.1542993359441503</v>
+      </c>
+      <c r="R44" s="5">
+        <v>0.26809364890175352</v>
+      </c>
+      <c r="S44" s="5">
+        <v>4.2740956785288331</v>
+      </c>
+      <c r="T44" s="5">
+        <v>2.7243316873829302E-4</v>
+      </c>
+      <c r="U44" s="5">
+        <v>5.2000681082921843E-2</v>
+      </c>
+      <c r="V44" s="5">
+        <v>118.6621965973097</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2021</v>
+      </c>
+      <c r="F45" s="5">
+        <v>-71.999999999999972</v>
+      </c>
+      <c r="G45" s="5">
+        <v>57945</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.13992579169902489</v>
+      </c>
+      <c r="I45" s="5">
+        <v>22576.040779999999</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.80837518336353431</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1.7551126067822932E-2</v>
+      </c>
+      <c r="L45" s="5">
+        <v>45.26114026456122</v>
+      </c>
+      <c r="M45" s="5">
+        <v>28.65</v>
+      </c>
+      <c r="N45" s="5">
+        <v>2.916558805764068E-3</v>
+      </c>
+      <c r="O45" s="5">
+        <v>2.8647855725256592E-3</v>
+      </c>
+      <c r="P45" s="5">
+        <v>4.1470359823970971E-3</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>0.14182414358443221</v>
+      </c>
+      <c r="R45" s="5">
+        <v>0.25191802571403871</v>
+      </c>
+      <c r="S45" s="5">
+        <v>3.580184115972008</v>
+      </c>
+      <c r="T45" s="5">
+        <v>2.9338165501768831E-4</v>
+      </c>
+      <c r="U45" s="5">
+        <v>5.4223832945034092E-2</v>
+      </c>
+      <c r="V45" s="5">
+        <v>137.05732966502711</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="5">
         <v>2022</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F46" s="5">
         <v>-314</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G46" s="5">
         <v>57281</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H46" s="5">
         <v>0.1420715420471011</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I46" s="5">
         <v>19503.478650000001</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J46" s="5">
         <v>0.85137654719715072</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K46" s="5">
         <v>1.878458825788655E-2</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L46" s="5">
         <v>41.6940077879227</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M46" s="5">
         <v>29.18</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N46" s="5">
         <v>2.9852830781585322E-3</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O46" s="5">
         <v>2.758331733035376E-3</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P46" s="5">
         <v>4.1951083256227973E-3</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="Q46" s="5">
         <v>0.1398369441874257</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R46" s="5">
         <v>0.27997800317731869</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S46" s="5">
         <v>3.1786435816413769</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T46" s="5">
         <v>2.9678252823798367E-4</v>
       </c>
-      <c r="U43" s="5">
+      <c r="U46" s="5">
         <v>5.1744906688081557E-2</v>
       </c>
-      <c r="V43" s="5">
+      <c r="V46" s="5">
         <v>144.23140084757591</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U12:U13 U15:U16">
+  <conditionalFormatting sqref="U15:U16 U18:U19">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15:V16 V18:V19">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V33">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S33">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I39">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L39">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V35:V39">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S35:S39">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35:Q39">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35:R39">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16 J16:T16">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17 J17:T17">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18 J18:T18">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19 J19:T19">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:I46">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:L46">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43:Q46">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43:R46">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43:S46">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V43:V46">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H20 J20:T20">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H21 J21:T21">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22 J22:T22">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23 J23:T23">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G24">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H24">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J24">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K24">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L24">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M24">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N24">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:O24">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:P24">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:Q24">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16:R24">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:S24">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16:T24">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G23">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H23">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I23">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K23">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L23">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16:T23">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G25">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H25">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I25">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J25">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K25">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L25">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M25">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N25">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:O25">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:P25">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:Q25">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16:R25">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:S25">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16:T25">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G27">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H27">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I27">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -5459,7 +7202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V12:V13 V15:V16">
+  <conditionalFormatting sqref="J16:J27">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5471,7 +7214,115 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="K16:K27">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L27">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M27">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N27">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:O27">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:P27">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:Q27">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16:R27">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:S27">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16:T27">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -5483,643 +7334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V30">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R30">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I36">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L36">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V32:V36">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S32:S36">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:Q36">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R32:R36">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13 J13:T13">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14 J14:T14">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15 J15:T15">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16 J16:T16">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:I43">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L40:L43">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q40:Q43">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R40:R43">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S40:S43">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V40:V43">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:H17 J17:T17">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18 J18:T18">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:H19 J19:T19">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20 J20:T20">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G21">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H21">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J21">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K21">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:L21">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M21">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N21">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13:O21">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13:P21">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q21">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13:R21">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S13:S21">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13:T21">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H20">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I20">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K20">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:L20">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13:T20">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H22">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J22">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K22">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:L22">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M22">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N22">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13:O22">
+  <conditionalFormatting sqref="AB16:AO17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6131,7 +7346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13:P22">
+  <conditionalFormatting sqref="AB18:AO19">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6143,7 +7358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q22">
+  <conditionalFormatting sqref="AB20:AO21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6155,7 +7370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13:R22">
+  <conditionalFormatting sqref="AB22:AO23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6167,7 +7382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S13:S22">
+  <conditionalFormatting sqref="AB24:AO25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6179,7 +7394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T13:T22">
+  <conditionalFormatting sqref="AB26:AO27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8059,8 +9274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:U52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8956,239 +10171,475 @@
         <v>2.945E-2</v>
       </c>
     </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1">
+        <v>98701000</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H20" s="7">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>6.5729999999999997E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.11176</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0.1137</v>
+      </c>
+      <c r="O20" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="P20" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>5.7979999999999997E-2</v>
+      </c>
+      <c r="R20" s="7">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="S20" s="7">
+        <v>4.5870000000000001E-2</v>
+      </c>
+      <c r="T20" s="7">
+        <v>3.5369999999999999E-2</v>
+      </c>
+      <c r="U20" s="7">
+        <v>2.5729999999999999E-2</v>
+      </c>
+    </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1">
-        <v>80631000</v>
+        <v>98701000</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H21" s="7">
-        <v>5.713E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="I21" s="7">
-        <v>6.6350000000000006E-2</v>
+        <v>7.3359999999999995E-2</v>
       </c>
       <c r="J21" s="7">
-        <v>6.54E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="K21" s="7">
-        <v>4.7969999999999999E-2</v>
+        <v>5.9900000000000002E-2</v>
       </c>
       <c r="L21" s="7">
-        <v>4.8160000000000001E-2</v>
+        <v>6.8540000000000004E-2</v>
       </c>
       <c r="M21" s="7">
-        <v>4.5749999999999999E-2</v>
+        <v>0.1115</v>
       </c>
       <c r="N21" s="7">
-        <v>7.306E-2</v>
+        <v>0.10376000000000001</v>
       </c>
       <c r="O21" s="7">
-        <v>7.0499999999999993E-2</v>
+        <v>0.08</v>
       </c>
       <c r="P21" s="7">
-        <v>6.5699999999999995E-2</v>
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="Q21" s="7">
-        <v>6.1429999999999998E-2</v>
+        <v>5.9569999999999998E-2</v>
       </c>
       <c r="R21" s="7">
-        <v>0.14660000000000001</v>
+        <v>9.8699999999999996E-2</v>
       </c>
       <c r="S21" s="7">
-        <v>9.0639999999999998E-2</v>
+        <v>5.6550000000000003E-2</v>
       </c>
       <c r="T21" s="7">
-        <v>8.7499999999999994E-2</v>
+        <v>4.8340000000000001E-2</v>
       </c>
       <c r="U21" s="7">
-        <v>7.3700000000000002E-2</v>
+        <v>4.0620000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1">
-        <v>80631000</v>
+        <v>82701000</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2020</v>
+        <v>41</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H22" s="7">
-        <v>6.1899999999999997E-2</v>
+        <v>4.5469999999999997E-2</v>
       </c>
       <c r="I22" s="7">
-        <v>7.1800000000000003E-2</v>
+        <v>5.3830000000000003E-2</v>
       </c>
       <c r="J22" s="7">
-        <v>6.9099999999999995E-2</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="K22" s="7">
-        <v>5.1240000000000001E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="L22" s="7">
-        <v>4.446E-2</v>
+        <v>6.59E-2</v>
       </c>
       <c r="M22" s="7">
-        <v>8.0439999999999998E-2</v>
+        <v>8.6199999999999999E-2</v>
       </c>
       <c r="N22" s="7">
-        <v>9.3899999999999997E-2</v>
+        <v>0.13020000000000001</v>
       </c>
       <c r="O22" s="7">
-        <v>7.5130000000000002E-2</v>
+        <v>9.7049999999999997E-2</v>
       </c>
       <c r="P22" s="7">
-        <v>6.3600000000000004E-2</v>
+        <v>7.4770000000000003E-2</v>
       </c>
       <c r="Q22" s="7">
-        <v>6.1039999999999997E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="R22" s="7">
-        <v>0.1278</v>
+        <v>0.11115</v>
       </c>
       <c r="S22" s="7">
-        <v>7.6969999999999997E-2</v>
+        <v>5.9360000000000003E-2</v>
       </c>
       <c r="T22" s="7">
-        <v>7.2900000000000006E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="U22" s="7">
-        <v>4.9840000000000002E-2</v>
+        <v>3.2620000000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1">
+        <v>82701000</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5.3530000000000001E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>6.8360000000000004E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <v>6.8659999999999999E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <v>8.3860000000000004E-2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.11633</v>
+      </c>
+      <c r="O23" s="7">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P23" s="7">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="S23" s="7">
+        <v>5.4780000000000002E-2</v>
+      </c>
+      <c r="T23" s="7">
+        <v>5.0540000000000002E-2</v>
+      </c>
+      <c r="U23" s="7">
+        <v>2.9270000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="1">
+        <v>80631000</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5.713E-2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>6.6350000000000006E-2</v>
+      </c>
+      <c r="J25" s="7">
+        <v>6.54E-2</v>
+      </c>
+      <c r="K25" s="7">
+        <v>4.7969999999999999E-2</v>
+      </c>
+      <c r="L25" s="7">
+        <v>4.8160000000000001E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4.5749999999999999E-2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>7.306E-2</v>
+      </c>
+      <c r="O25" s="7">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="P25" s="7">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>6.1429999999999998E-2</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="S25" s="7">
+        <v>9.0639999999999998E-2</v>
+      </c>
+      <c r="T25" s="7">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="U25" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1">
+        <v>80631000</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H26" s="7">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="J26" s="7">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="K26" s="7">
+        <v>5.1240000000000001E-2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>4.446E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8.0439999999999998E-2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="O26" s="7">
+        <v>7.5130000000000002E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>6.1039999999999997E-2</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0.1278</v>
+      </c>
+      <c r="S26" s="7">
+        <v>7.6969999999999997E-2</v>
+      </c>
+      <c r="T26" s="7">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="U26" s="7">
+        <v>4.9840000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1">
         <v>80601000</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G27" s="1">
         <v>2020</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H27" s="7">
         <v>7.2270000000000001E-2</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I27" s="7">
         <v>8.7160000000000001E-2</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J27" s="7">
         <v>8.0140000000000003E-2</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K27" s="7">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L27" s="7">
         <v>5.79E-2</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M27" s="7">
         <v>4.1930000000000002E-2</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N27" s="7">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O27" s="7">
         <v>6.2469999999999998E-2</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P27" s="7">
         <v>6.2560000000000004E-2</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q27" s="7">
         <v>5.91E-2</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R27" s="7">
         <v>0.14610000000000001</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S27" s="7">
         <v>8.5139999999999993E-2</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T27" s="7">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U27" s="7">
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D28" s="1">
         <v>80601000</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G28" s="1">
         <v>2020</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H28" s="7">
         <v>7.2139999999999996E-2</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I28" s="7">
         <v>8.6360000000000006E-2</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J28" s="7">
         <v>8.2460000000000006E-2</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K28" s="7">
         <v>5.8470000000000001E-2</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L28" s="7">
         <v>6.5250000000000002E-2</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M28" s="7">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N28" s="7">
         <v>8.0140000000000003E-2</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O28" s="7">
         <v>7.0860000000000006E-2</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P28" s="7">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q28" s="7">
         <v>5.8779999999999999E-2</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R28" s="7">
         <v>0.1333</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S28" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T28" s="7">
         <v>6.1650000000000003E-2</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U28" s="7">
         <v>3.5639999999999998E-2</v>
       </c>
     </row>
@@ -9546,7 +10997,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H32:H40">
-    <cfRule type="colorScale" priority="155">
+    <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9558,7 +11009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I40">
-    <cfRule type="colorScale" priority="154">
+    <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9570,7 +11021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J40">
-    <cfRule type="colorScale" priority="153">
+    <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9582,7 +11033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K40">
-    <cfRule type="colorScale" priority="152">
+    <cfRule type="colorScale" priority="222">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9594,7 +11045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L40">
-    <cfRule type="colorScale" priority="151">
+    <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9606,7 +11057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:M40">
-    <cfRule type="colorScale" priority="150">
+    <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9618,7 +11069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:N40">
-    <cfRule type="colorScale" priority="149">
+    <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9630,7 +11081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O40">
-    <cfRule type="colorScale" priority="148">
+    <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9642,7 +11093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:P40">
-    <cfRule type="colorScale" priority="147">
+    <cfRule type="colorScale" priority="217">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9654,7 +11105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:Q40">
-    <cfRule type="colorScale" priority="146">
+    <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9666,7 +11117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32:R40">
-    <cfRule type="colorScale" priority="145">
+    <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9678,7 +11129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:S40">
-    <cfRule type="colorScale" priority="144">
+    <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9690,7 +11141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:T40">
-    <cfRule type="colorScale" priority="143">
+    <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9702,7 +11153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:U40">
-    <cfRule type="colorScale" priority="142">
+    <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9714,6 +11165,1002 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H52">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:I52">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:J52">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:K52">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:L52">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44:M52">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44:N52">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:O52">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44:P52">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44:Q52">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44:R52">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44:S52">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T44:T52">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44:U52">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H28 H5:H10">
+    <cfRule type="colorScale" priority="391">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I28 I5:I10">
+    <cfRule type="colorScale" priority="394">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:J28 J5:J10">
+    <cfRule type="colorScale" priority="397">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:K28 K5:K10">
+    <cfRule type="colorScale" priority="400">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:L28 L5:L10">
+    <cfRule type="colorScale" priority="403">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25:M28 M5:M10">
+    <cfRule type="colorScale" priority="406">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:N28 N5:N10">
+    <cfRule type="colorScale" priority="409">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:O28 O5:O10">
+    <cfRule type="colorScale" priority="412">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25:P28 P5:P10">
+    <cfRule type="colorScale" priority="415">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:Q28 Q5:Q10">
+    <cfRule type="colorScale" priority="418">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25:R28 R5:R10">
+    <cfRule type="colorScale" priority="421">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:S28 S5:S10">
+    <cfRule type="colorScale" priority="424">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:T28 T5:T10">
+    <cfRule type="colorScale" priority="427">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25:U28 U5:U10">
+    <cfRule type="colorScale" priority="430">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H28 H5:H11">
+    <cfRule type="colorScale" priority="459">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I28 I5:I11">
+    <cfRule type="colorScale" priority="462">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:J28 J5:J11">
+    <cfRule type="colorScale" priority="465">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:K28 K5:K11">
+    <cfRule type="colorScale" priority="468">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:L28 L5:L11">
+    <cfRule type="colorScale" priority="471">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25:M28 M5:M11">
+    <cfRule type="colorScale" priority="474">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:N28 N5:N11">
+    <cfRule type="colorScale" priority="477">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:O28 O5:O11">
+    <cfRule type="colorScale" priority="480">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25:P28 P5:P11">
+    <cfRule type="colorScale" priority="483">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:Q28 Q5:Q11">
+    <cfRule type="colorScale" priority="486">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25:R28 R5:R11">
+    <cfRule type="colorScale" priority="489">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:S28 S5:S11">
+    <cfRule type="colorScale" priority="492">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:T28 T5:T11">
+    <cfRule type="colorScale" priority="495">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25:U28 U5:U11">
+    <cfRule type="colorScale" priority="498">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H28 H5:H11">
+    <cfRule type="colorScale" priority="541">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I28 I5:I11">
+    <cfRule type="colorScale" priority="543">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:J28 J5:J11">
+    <cfRule type="colorScale" priority="545">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:K28 K5:K11">
+    <cfRule type="colorScale" priority="547">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:L28 L5:L11">
+    <cfRule type="colorScale" priority="549">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25:M28 M5:M11">
+    <cfRule type="colorScale" priority="551">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:N28 N5:N11">
+    <cfRule type="colorScale" priority="553">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:O28 O5:O11">
+    <cfRule type="colorScale" priority="555">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25:P28 P5:P11">
+    <cfRule type="colorScale" priority="557">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:Q28 Q5:Q11">
+    <cfRule type="colorScale" priority="559">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25:R28 R5:R11">
+    <cfRule type="colorScale" priority="561">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:S28 S5:S11">
+    <cfRule type="colorScale" priority="563">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:T28 T5:T11">
+    <cfRule type="colorScale" priority="565">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25:U28 U5:U11">
+    <cfRule type="colorScale" priority="567">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:I12 K12:U12">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:I13 K13:U13">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:I14 K14:U14">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:I15 K15:U15">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:I16 K16:U16">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:I17 K17:U17">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:I18 K18:U18">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:I19 K19:U19">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H20">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I20">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:K20">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L20">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:M20">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N20">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:O20">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:P20">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q20">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:R20">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12:S20">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:T20">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:U20">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H19">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I19">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J19">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L19">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:M19">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:U19">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -9725,7 +12172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I52">
+  <conditionalFormatting sqref="H12:H21">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -9737,7 +12184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J52">
+  <conditionalFormatting sqref="I12:I21">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -9749,7 +12196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K52">
+  <conditionalFormatting sqref="J12:J21">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -9761,7 +12208,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L44:L52">
+  <conditionalFormatting sqref="K12:K21">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -9773,7 +12220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M44:M52">
+  <conditionalFormatting sqref="L12:L21">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -9785,7 +12232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44:N52">
+  <conditionalFormatting sqref="M12:M21">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -9797,7 +12244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44:O52">
+  <conditionalFormatting sqref="N12:N21">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -9809,7 +12256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P44:P52">
+  <conditionalFormatting sqref="O12:O21">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -9821,7 +12268,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q44:Q52">
+  <conditionalFormatting sqref="P12:P21">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -9833,7 +12280,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R44:R52">
+  <conditionalFormatting sqref="Q12:Q21">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -9845,7 +12292,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S44:S52">
+  <conditionalFormatting sqref="R12:R21">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -9857,7 +12304,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T44:T52">
+  <conditionalFormatting sqref="S12:S21">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -9869,7 +12316,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U44:U52">
+  <conditionalFormatting sqref="T12:T21">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -9881,343 +12328,175 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H24 H12:H15 H5:H10">
-    <cfRule type="colorScale" priority="321">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:I24 I12:I15 I5:I10">
-    <cfRule type="colorScale" priority="324">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:J24 J12:J15 J5:J10">
-    <cfRule type="colorScale" priority="327">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:K24 K12:K15 K5:K10">
-    <cfRule type="colorScale" priority="330">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21:L24 L12:L15 L5:L10">
-    <cfRule type="colorScale" priority="333">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21:M24 M12:M15 M5:M10">
-    <cfRule type="colorScale" priority="336">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21:N24 N12:N15 N5:N10">
-    <cfRule type="colorScale" priority="339">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O21:O24 O12:O15 O5:O10">
-    <cfRule type="colorScale" priority="342">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21:P24 P12:P15 P5:P10">
-    <cfRule type="colorScale" priority="345">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q21:Q24 Q12:Q15 Q5:Q10">
-    <cfRule type="colorScale" priority="348">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R21:R24 R12:R15 R5:R10">
-    <cfRule type="colorScale" priority="351">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S21:S24 S12:S15 S5:S10">
-    <cfRule type="colorScale" priority="354">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21:T24 T12:T15 T5:T10">
-    <cfRule type="colorScale" priority="357">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U21:U24 U12:U15 U5:U10">
-    <cfRule type="colorScale" priority="360">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H18 H21:H24">
-    <cfRule type="colorScale" priority="389">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I18 I21:I24">
-    <cfRule type="colorScale" priority="392">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J18 J21:J24">
-    <cfRule type="colorScale" priority="395">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K18 K21:K24">
-    <cfRule type="colorScale" priority="398">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L18 L21:L24">
-    <cfRule type="colorScale" priority="401">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M18 M21:M24">
-    <cfRule type="colorScale" priority="404">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N18 N21:N24">
-    <cfRule type="colorScale" priority="407">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O18 O21:O24">
-    <cfRule type="colorScale" priority="410">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P18 P21:P24">
-    <cfRule type="colorScale" priority="413">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q18 Q21:Q24">
-    <cfRule type="colorScale" priority="416">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R18 R21:R24">
-    <cfRule type="colorScale" priority="419">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S18 S21:S24">
-    <cfRule type="colorScale" priority="422">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T18 T21:T24">
-    <cfRule type="colorScale" priority="425">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U18 U21:U24">
-    <cfRule type="colorScale" priority="428">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H24">
+  <conditionalFormatting sqref="U12:U21">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H23">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I23">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J23">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:K23">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L23">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:M23">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N23">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:O23">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:P23">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q23">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:R23">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12:S23">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:T23">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:U23">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -10229,7 +12508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I24">
+  <conditionalFormatting sqref="H5:H28">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10241,7 +12520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J24">
+  <conditionalFormatting sqref="I5:I28">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10253,7 +12532,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K24">
+  <conditionalFormatting sqref="J5:J28">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10265,7 +12544,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L24">
+  <conditionalFormatting sqref="K5:K28">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10277,7 +12556,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M24">
+  <conditionalFormatting sqref="L5:L28">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10289,7 +12568,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N24">
+  <conditionalFormatting sqref="M5:M28">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10301,7 +12580,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O24">
+  <conditionalFormatting sqref="N5:N28">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O28">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P28">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10313,19 +12616,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P24">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q24">
+  <conditionalFormatting sqref="Q5:Q28">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10337,7 +12628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R24">
+  <conditionalFormatting sqref="R5:R28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10349,7 +12640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S24">
+  <conditionalFormatting sqref="S5:S28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10361,7 +12652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T24">
+  <conditionalFormatting sqref="T5:T28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10373,7 +12664,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U24">
+  <conditionalFormatting sqref="U5:U28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="62">
   <si>
     <t>saldo</t>
   </si>
@@ -3374,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,50 +3586,52 @@
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1">
-        <v>-2905</v>
+        <v>-306</v>
       </c>
       <c r="Z5" s="1">
-        <v>737031</v>
+        <v>60292</v>
       </c>
       <c r="AA5" s="1">
-        <v>106609</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>23914</v>
+        <v>10433</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>17405.8</v>
       </c>
       <c r="AC5" s="1">
-        <v>189624</v>
+        <v>26370.3</v>
       </c>
       <c r="AD5" s="1">
-        <v>3183</v>
+        <v>1040</v>
       </c>
       <c r="AE5" s="1">
-        <v>3379668</v>
-      </c>
-      <c r="AF5" s="1"/>
+        <v>891562.4</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>23.1</v>
+      </c>
       <c r="AG5" s="1">
-        <v>434</v>
+        <v>105</v>
       </c>
       <c r="AH5" s="1">
-        <v>2445</v>
-      </c>
-      <c r="AI5" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>646.79999999999995</v>
+      </c>
       <c r="AJ5" s="1">
-        <v>21617</v>
+        <v>253261.64</v>
       </c>
       <c r="AK5" s="1">
-        <v>26725</v>
-      </c>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1">
-        <v>84</v>
-      </c>
+        <v>67500</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>4046286</v>
+      </c>
+      <c r="AM5" s="1"/>
       <c r="AN5" s="1">
-        <v>18138</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>32723093.5</v>
-      </c>
+        <v>2791</v>
+      </c>
+      <c r="AO5" s="1"/>
     </row>
     <row r="6" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -3638,56 +3640,56 @@
       <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-136</v>
-      </c>
-      <c r="G6" s="6">
-        <v>59861.999999999993</v>
+      <c r="E6" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-306</v>
+      </c>
+      <c r="G6" s="1">
+        <v>60292</v>
       </c>
       <c r="H6" s="5">
-        <v>0.1683705856803982</v>
+        <v>0.17304119949578717</v>
       </c>
       <c r="I6" s="6">
-        <v>18717.5</v>
+        <v>17405.8</v>
       </c>
       <c r="J6" s="5">
-        <v>0.44555644649360188</v>
+        <v>0.43737643468453524</v>
       </c>
       <c r="K6" s="5">
-        <v>1.9879055160201789E-2</v>
+        <v>1.7249386319909771E-2</v>
       </c>
       <c r="L6" s="5">
-        <v>20.074214025592191</v>
+        <v>14.787407947986466</v>
       </c>
       <c r="M6" s="5">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="N6" s="5">
-        <v>1.7707393672112409E-3</v>
+        <v>1.7415245803755058E-3</v>
       </c>
       <c r="O6" s="5">
-        <v>2.489058167117694E-3</v>
+        <v>2.404962515756651E-3</v>
       </c>
       <c r="P6" s="5">
-        <v>1.0804851157662609E-2</v>
+        <v>1.0727791415113116E-2</v>
       </c>
       <c r="Q6" s="5">
-        <v>1.093247803280879</v>
+        <v>4.2005844888210708</v>
       </c>
       <c r="R6" s="5">
-        <v>1.183322976178544</v>
+        <v>1.1195515159556824</v>
       </c>
       <c r="S6" s="5">
-        <v>72.625054291537197</v>
+        <v>67.111490745040797</v>
       </c>
       <c r="T6" s="5">
         <v>7.1831879990644969E-4</v>
       </c>
       <c r="U6" s="5">
-        <v>4.6406735491630748E-2</v>
+        <v>4.6291381941219401E-2</v>
       </c>
       <c r="V6" s="5">
         <v>45.439470782800392</v>
@@ -3697,64 +3699,59 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1">
         <f>AA5/$Z5</f>
-        <v>0.14464656167786702</v>
+        <v>0.17304119949578717</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" ref="AB6:AO6" si="0">AB5/$Z5</f>
-        <v>3.2446396420231984E-2</v>
+        <v>17405.8</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25728090134607634</v>
+        <f t="shared" ref="AB6:AN6" si="0">AC5/$Z5</f>
+        <v>0.43737643468453524</v>
       </c>
       <c r="AD6" s="1">
         <f t="shared" si="0"/>
-        <v>4.318678590181417E-3</v>
+        <v>1.7249386319909771E-2</v>
       </c>
       <c r="AE6" s="1">
         <f t="shared" si="0"/>
-        <v>4.5855167557402607</v>
+        <v>14.787407947986466</v>
       </c>
       <c r="AF6" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7415245803755058E-3</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.404962515756651E-3</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0727791415113116E-2</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2005844888210708</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1195515159556824</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="0"/>
+        <v>67.111490745040797</v>
+      </c>
+      <c r="AM6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="1">
-        <f t="shared" si="0"/>
-        <v>5.8884904434141846E-4</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3173638557943965E-3</v>
-      </c>
-      <c r="AI6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.932983822932821E-2</v>
-      </c>
-      <c r="AK6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6260347258120759E-2</v>
-      </c>
-      <c r="AL6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1397078277575842E-4</v>
-      </c>
       <c r="AN6" s="1">
         <f t="shared" si="0"/>
-        <v>2.4609548309365549E-2</v>
-      </c>
-      <c r="AO6" s="1">
-        <f t="shared" si="0"/>
-        <v>44.398530726658713</v>
-      </c>
+        <v>4.6291381941219401E-2</v>
+      </c>
+      <c r="AO6" s="1"/>
     </row>
     <row r="7" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
@@ -3929,7 +3926,7 @@
       <c r="H9" s="5">
         <v>0.25185306609045527</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="6">
         <v>55433.3</v>
       </c>
       <c r="J9" s="5">
@@ -3991,8 +3988,8 @@
       <c r="H10" s="5">
         <v>0.14464656167786702</v>
       </c>
-      <c r="I10" s="5">
-        <v>3.2446396420231984E-2</v>
+      <c r="I10" s="6">
+        <v>23914</v>
       </c>
       <c r="J10" s="5">
         <v>0.25728090134607634</v>
@@ -4087,51 +4084,51 @@
       <c r="G13" s="1"/>
       <c r="H13" s="5">
         <f>AVERAGE(H5:H10)</f>
-        <v>0.19353643700437254</v>
+        <v>0.19431487264027072</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ref="I13:V13" si="1">AVERAGE(I5:I10)</f>
-        <v>25401.63468273274</v>
+        <v>29168.679275000002</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="1"/>
-        <v>0.59003406972875572</v>
+        <v>0.5886707344272446</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="1"/>
-        <v>2.4928526287422235E-2</v>
+        <v>2.4490248147373567E-2</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="1"/>
-        <v>29.575717839747355</v>
+        <v>28.694583493479737</v>
       </c>
       <c r="M13" s="5">
         <f>AVERAGE(M5:M10)</f>
-        <v>26.763999999999999</v>
+        <v>26.703999999999997</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="1"/>
-        <v>1.9061336083192185E-3</v>
+        <v>1.9012644771799292E-3</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="1"/>
-        <v>2.3700780667019468E-3</v>
+        <v>2.3560621248084391E-3</v>
       </c>
       <c r="P13" s="5">
         <f>AVERAGE(P5:P10)</f>
-        <v>7.4338493169562384E-3</v>
+        <v>7.4184373684463385E-3</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="1"/>
-        <v>0.34511005327378147</v>
+        <v>0.86299950086381338</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="1"/>
-        <v>0.6527885698835757</v>
+        <v>0.64215999317976546</v>
       </c>
       <c r="S13" s="5">
         <f>AVERAGE(S5:S10)</f>
-        <v>58.399096327985241</v>
+        <v>57.296383618685958</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="1"/>
@@ -4139,7 +4136,7 @@
       </c>
       <c r="U13" s="5">
         <f t="shared" si="1"/>
-        <v>4.550175216483765E-2</v>
+        <v>4.5482526573102422E-2</v>
       </c>
       <c r="V13" s="5">
         <f t="shared" si="1"/>
@@ -5596,59 +5593,59 @@
         <v>41</v>
       </c>
       <c r="G29" s="7">
-        <f>AVERAGE(G18,G16,G20,G22,G24)</f>
+        <f t="shared" ref="G29:T29" si="2">AVERAGE(G18,G16,G20,G22,G24)</f>
         <v>6.1360000000000005E-2</v>
       </c>
       <c r="H29" s="7">
-        <f>AVERAGE(H18,H16,H20,H22,H24)</f>
+        <f t="shared" si="2"/>
         <v>6.5484000000000001E-2</v>
       </c>
       <c r="I29" s="7">
-        <f>AVERAGE(I18,I16,I20,I22,I24)</f>
+        <f t="shared" si="2"/>
         <v>5.7818000000000001E-2</v>
       </c>
       <c r="J29" s="7">
-        <f>AVERAGE(J18,J16,J20,J22,J24)</f>
+        <f t="shared" si="2"/>
         <v>5.1880000000000003E-2</v>
       </c>
       <c r="K29" s="7">
-        <f>AVERAGE(K18,K16,K20,K22,K24)</f>
+        <f t="shared" si="2"/>
         <v>5.1687999999999998E-2</v>
       </c>
       <c r="L29" s="7">
-        <f>AVERAGE(L18,L16,L20,L22,L24)</f>
+        <f t="shared" si="2"/>
         <v>7.2958000000000009E-2</v>
       </c>
       <c r="M29" s="7">
-        <f>AVERAGE(M18,M16,M20,M22,M24)</f>
+        <f t="shared" si="2"/>
         <v>8.2184000000000007E-2</v>
       </c>
       <c r="N29" s="7">
-        <f>AVERAGE(N18,N16,N20,N22,N24)</f>
+        <f t="shared" si="2"/>
         <v>7.782E-2</v>
       </c>
       <c r="O29" s="7">
-        <f>AVERAGE(O18,O16,O20,O22,O24)</f>
+        <f t="shared" si="2"/>
         <v>7.0354E-2</v>
       </c>
       <c r="P29" s="7">
-        <f>AVERAGE(P18,P16,P20,P22,P24)</f>
+        <f t="shared" si="2"/>
         <v>7.0605999999999988E-2</v>
       </c>
       <c r="Q29" s="7">
-        <f>AVERAGE(Q18,Q16,Q20,Q22,Q24)</f>
+        <f t="shared" si="2"/>
         <v>0.13671</v>
       </c>
       <c r="R29" s="7">
-        <f>AVERAGE(R18,R16,R20,R22,R24)</f>
+        <f t="shared" si="2"/>
         <v>7.5566000000000008E-2</v>
       </c>
       <c r="S29" s="7">
-        <f>AVERAGE(S18,S16,S20,S22,S24)</f>
+        <f t="shared" si="2"/>
         <v>7.324E-2</v>
       </c>
       <c r="T29" s="7">
-        <f>AVERAGE(T18,T16,T20,T22,T24)</f>
+        <f t="shared" si="2"/>
         <v>5.2357999999999995E-2</v>
       </c>
     </row>
@@ -5660,59 +5657,59 @@
         <v>42</v>
       </c>
       <c r="G30" s="7">
-        <f>AVERAGE(G19,G17,G21,G23,G25)</f>
+        <f t="shared" ref="G30:T30" si="3">AVERAGE(G19,G17,G21,G23,G25)</f>
         <v>6.3271999999999995E-2</v>
       </c>
       <c r="H30" s="7">
-        <f>AVERAGE(H19,H17,H21,H23,H25)</f>
+        <f t="shared" si="3"/>
         <v>6.8723999999999993E-2</v>
       </c>
       <c r="I30" s="7">
-        <f>AVERAGE(I19,I17,I21,I23,I25)</f>
+        <f t="shared" si="3"/>
         <v>6.2016000000000002E-2</v>
       </c>
       <c r="J30" s="7">
-        <f>AVERAGE(J19,J17,J21,J23,J25)</f>
+        <f t="shared" si="3"/>
         <v>5.3252000000000001E-2</v>
       </c>
       <c r="K30" s="7">
-        <f>AVERAGE(K19,K17,K21,K23,K25)</f>
+        <f t="shared" si="3"/>
         <v>5.2288000000000001E-2</v>
       </c>
       <c r="L30" s="7">
-        <f>AVERAGE(L19,L17,L21,L23,L25)</f>
+        <f t="shared" si="3"/>
         <v>8.094599999999999E-2</v>
       </c>
       <c r="M30" s="7">
-        <f>AVERAGE(M19,M17,M21,M23,M25)</f>
+        <f t="shared" si="3"/>
         <v>9.0782000000000002E-2</v>
       </c>
       <c r="N30" s="7">
-        <f>AVERAGE(N19,N17,N21,N23,N25)</f>
+        <f t="shared" si="3"/>
         <v>8.252000000000001E-2</v>
       </c>
       <c r="O30" s="7">
-        <f>AVERAGE(O19,O17,O21,O23,O25)</f>
+        <f t="shared" si="3"/>
         <v>7.152E-2</v>
       </c>
       <c r="P30" s="7">
-        <f>AVERAGE(P19,P17,P21,P23,P25)</f>
+        <f t="shared" si="3"/>
         <v>6.8254000000000009E-2</v>
       </c>
       <c r="Q30" s="7">
-        <f>AVERAGE(Q19,Q17,Q21,Q23,Q25)</f>
+        <f t="shared" si="3"/>
         <v>0.12835999999999997</v>
       </c>
       <c r="R30" s="7">
-        <f>AVERAGE(R19,R17,R21,R23,R25)</f>
+        <f t="shared" si="3"/>
         <v>7.0648000000000002E-2</v>
       </c>
       <c r="S30" s="7">
-        <f>AVERAGE(S19,S17,S21,S23,S25)</f>
+        <f t="shared" si="3"/>
         <v>6.3492000000000007E-2</v>
       </c>
       <c r="T30" s="7">
-        <f>AVERAGE(T19,T17,T21,T23,T25)</f>
+        <f t="shared" si="3"/>
         <v>4.3881999999999997E-2</v>
       </c>
     </row>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="66">
   <si>
     <t>saldo</t>
   </si>
@@ -210,6 +210,18 @@
   <si>
     <t>город Махачкала</t>
   </si>
+  <si>
+    <t>сельсовет</t>
+  </si>
+  <si>
+    <t>мр</t>
+  </si>
+  <si>
+    <t>Павловский сельсовет</t>
+  </si>
+  <si>
+    <t>Павловский МР</t>
+  </si>
 </sst>
 </file>
 
@@ -324,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +385,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,14 +669,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AL51"/>
+  <dimension ref="B4:AN51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
@@ -678,6 +694,7 @@
     <col min="15" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.28515625" customWidth="1"/>
     <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
     <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.7109375" customWidth="1"/>
     <col min="26" max="26" width="11.7109375" customWidth="1"/>
@@ -691,7 +708,7 @@
     <col min="38" max="38" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
@@ -752,53 +769,59 @@
       <c r="U4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
@@ -859,66 +882,42 @@
       <c r="U5" s="5">
         <v>155.1901168112586</v>
       </c>
+      <c r="W5" t="s">
+        <v>62</v>
+      </c>
       <c r="X5" s="1">
-        <f>F5*G5</f>
-        <v>2755.9999999999968</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>38152.560480000007</v>
-      </c>
-      <c r="Z5" s="1">
-        <f>$F5*I5</f>
-        <v>11809.999999999993</v>
-      </c>
-      <c r="AA5" s="1">
-        <f t="shared" ref="AA5:AL5" si="0">$F5*J5</f>
-        <v>561.99999999999932</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>13275</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
       <c r="AB5" s="1">
-        <f t="shared" si="0"/>
-        <v>301170.60831999965</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>35.1</v>
-      </c>
-      <c r="AD5" s="1">
-        <f t="shared" si="0"/>
-        <v>57.999999999999595</v>
-      </c>
-      <c r="AE5" s="1">
-        <f t="shared" si="0"/>
-        <v>36.999999999999822</v>
-      </c>
+        <v>19913</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>422</v>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
       <c r="AF5" s="1">
-        <f t="shared" si="0"/>
-        <v>280.79999999999961</v>
+        <v>36</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="0"/>
-        <v>1426.9999999999791</v>
+        <v>139</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="0"/>
-        <v>4053.9999999999964</v>
-      </c>
-      <c r="AI5" s="1">
-        <f t="shared" si="0"/>
-        <v>84147.896399999838</v>
-      </c>
-      <c r="AJ5" s="1">
-        <f t="shared" si="0"/>
-        <v>19.999999999999936</v>
-      </c>
-      <c r="AK5" s="1">
-        <f t="shared" si="0"/>
-        <v>925.99999999999932</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
       <c r="AL5" s="1">
-        <f t="shared" si="0"/>
-        <v>1742319.441439999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -979,66 +978,50 @@
       <c r="U6" s="5">
         <v>121.75934634857801</v>
       </c>
+      <c r="W6" t="s">
+        <v>63</v>
+      </c>
       <c r="X6" s="1">
-        <f t="shared" ref="X6:X7" si="1">F6*G6</f>
-        <v>13184.999999999998</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>19630.4133</v>
+        <v>-66</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>37602</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" ref="Z6:Z7" si="2">$F6*I6</f>
-        <v>72433.899999999965</v>
+        <v>6875</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" ref="AA6:AA7" si="3">$F6*J6</f>
-        <v>3061.9999999999977</v>
-      </c>
-      <c r="AB6" s="1">
-        <f t="shared" ref="AB6:AB7" si="4">$F6*K6</f>
-        <v>4545100.8697499996</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>26.55</v>
-      </c>
+        <v>18826</v>
+      </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
       <c r="AD6" s="1">
-        <f t="shared" ref="AD6:AD7" si="5">$F6*M6</f>
-        <v>180.99999999999881</v>
+        <v>1166876.2</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" ref="AE6:AE7" si="6">$F6*N6</f>
-        <v>370.99999999999841</v>
-      </c>
-      <c r="AF6" s="1">
-        <f t="shared" ref="AF6:AF7" si="7">$F6*O6</f>
-        <v>946.49999999999943</v>
-      </c>
-      <c r="AG6" s="1">
-        <f t="shared" ref="AG6:AG7" si="8">$F6*P6</f>
-        <v>62942.999999999833</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" ref="AH6:AH7" si="9">$F6*Q6</f>
-        <v>215759.62000000002</v>
-      </c>
+        <v>25.7</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
       <c r="AI6" s="1">
-        <f t="shared" ref="AI6:AI7" si="10">$F6*R6</f>
-        <v>8123823.1979999989</v>
+        <v>2630644</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" ref="AJ6:AJ7" si="11">$F6*S6</f>
-        <v>34.999999999999901</v>
+        <v>45755.43</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" ref="AK6:AK7" si="12">$F6*T6</f>
-        <v>3724.9999999999991</v>
-      </c>
-      <c r="AL6" s="1">
-        <f t="shared" ref="AL6:AL7" si="13">$F6*U6</f>
-        <v>12334587.063149998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
+        <v>5386244</v>
+      </c>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1">
+        <v>1751</v>
+      </c>
+      <c r="AN6">
+        <v>13088436.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1099,263 +1082,237 @@
       <c r="U7" s="5">
         <v>137.9810431178384</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="1">
+        <f>Z6/$Y6</f>
+        <v>0.18283601936067231</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>18826</v>
+      </c>
+      <c r="AB7" s="1">
+        <f>AB5/$Y5</f>
+        <v>1.5000376647834275</v>
+      </c>
+      <c r="AC7" s="1">
+        <f>AC5/$Y5</f>
+        <v>3.1789077212806029E-2</v>
+      </c>
+      <c r="AD7" s="1">
+        <f>AD6/$Y6</f>
+        <v>31.032290835593852</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="AF7" s="1">
+        <f>AF5/$Y5</f>
+        <v>2.7118644067796612E-3</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" ref="AG7:AH7" si="0">AG5/$Y5</f>
+        <v>1.0470809792843691E-2</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3822975517890774E-3</v>
+      </c>
+      <c r="AI7" s="1">
+        <f>AI6/$Y6</f>
+        <v>69.960214882187117</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f>AJ6/$Y6</f>
+        <v>1.216835008776129</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" ref="AJ7:AN7" si="1">AK6/$Y6</f>
+        <v>143.24355087495346</v>
+      </c>
+      <c r="AL7" s="1">
+        <f>AL5/$Y5</f>
+        <v>3.0131826741996233E-4</v>
+      </c>
+      <c r="AM7" s="1">
         <f t="shared" si="1"/>
-        <v>11757.999999999996</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>22921.057649999999</v>
-      </c>
-      <c r="Z7" s="1">
+        <v>4.6566671985532687E-2</v>
+      </c>
+      <c r="AN7" s="1">
+        <f t="shared" si="1"/>
+        <v>348.07818998989416</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>13275</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.18283601936067231</v>
+      </c>
+      <c r="H8" s="7">
+        <v>18826</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.5000376647834275</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3.1789077212806029E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>31.032290835593852</v>
+      </c>
+      <c r="L8" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2.7118644067796612E-3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1.0470809792843691E-2</v>
+      </c>
+      <c r="O8" s="7">
+        <v>7.3822975517890774E-3</v>
+      </c>
+      <c r="P8" s="7">
+        <v>69.960214882187117</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1.216835008776129</v>
+      </c>
+      <c r="R8" s="7">
+        <v>143.24355087495346</v>
+      </c>
+      <c r="S8" s="7">
+        <v>3.0131826741996233E-4</v>
+      </c>
+      <c r="T8" s="7">
+        <v>4.6566671985532687E-2</v>
+      </c>
+      <c r="U8" s="7">
+        <v>348.07818998989416</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5">
+        <f>AVERAGE(F5:F8)</f>
+        <v>47356.499999999993</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10:U10" si="2">AVERAGE(G5:G8)</f>
+        <v>0.18582073735790614</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>62011.799999999988</v>
-      </c>
-      <c r="AA7" s="1">
-        <f t="shared" si="3"/>
-        <v>1842.9999999999984</v>
-      </c>
-      <c r="AB7" s="1">
-        <f t="shared" si="4"/>
-        <v>4974586.5205499986</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>47.9</v>
-      </c>
-      <c r="AD7" s="1">
-        <f t="shared" si="5"/>
-        <v>251.99999999999838</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" si="6"/>
-        <v>185.9999999999992</v>
-      </c>
-      <c r="AF7" s="1">
-        <f t="shared" si="7"/>
-        <v>491.09999999999962</v>
-      </c>
-      <c r="AG7" s="1">
-        <f t="shared" si="8"/>
-        <v>305598</v>
-      </c>
-      <c r="AH7" s="1">
-        <f t="shared" si="9"/>
-        <v>64605.919999999955</v>
-      </c>
-      <c r="AI7" s="1">
-        <f t="shared" si="10"/>
-        <v>891716.61600000004</v>
-      </c>
-      <c r="AJ7" s="1">
-        <f t="shared" si="11"/>
-        <v>37.999999999999901</v>
-      </c>
-      <c r="AK7" s="1">
-        <f t="shared" si="12"/>
-        <v>4565.9999999999991</v>
-      </c>
-      <c r="AL7" s="1">
-        <f t="shared" si="13"/>
-        <v>8778491.9441999961</v>
-      </c>
-    </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" ref="F9:U9" si="14">AVERAGE(F5:F7)</f>
-        <v>58716.999999999993</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="14"/>
-        <v>0.18681564335698408</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="14"/>
-        <v>26901.343810000002</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="14"/>
-        <v>0.91388570390790225</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="14"/>
-        <v>3.6417490580994437E-2</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="14"/>
-        <v>49.960971683666081</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="14"/>
-        <v>36.516666666666673</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="14"/>
-        <v>3.6379309114502635E-3</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="14"/>
-        <v>3.2938233580593473E-3</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4024513522607722E-2</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" si="14"/>
-        <v>1.8506174289879558</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="14"/>
-        <v>1.1688063906689699</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" si="14"/>
-        <v>33.901507691368209</v>
-      </c>
-      <c r="S9" s="5">
-        <f t="shared" si="14"/>
-        <v>9.0806833662219219E-4</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" si="14"/>
-        <v>6.3673122480590635E-2</v>
-      </c>
-      <c r="U9" s="5">
-        <f t="shared" si="14"/>
-        <v>138.31016875922501</v>
-      </c>
-      <c r="X9" s="7">
-        <f t="shared" ref="X9:AL9" si="15">AVERAGE(X5:X7)</f>
-        <v>9232.9999999999982</v>
-      </c>
-      <c r="Y9" s="7">
-        <f t="shared" si="15"/>
-        <v>26901.343810000002</v>
-      </c>
-      <c r="Z9" s="7">
-        <f t="shared" si="15"/>
-        <v>48751.899999999987</v>
-      </c>
-      <c r="AA9" s="7">
-        <f t="shared" si="15"/>
-        <v>1822.3333333333319</v>
-      </c>
-      <c r="AB9" s="7">
-        <f t="shared" si="15"/>
-        <v>3273619.3328733328</v>
-      </c>
-      <c r="AC9" s="7">
-        <f t="shared" si="15"/>
-        <v>36.516666666666673</v>
-      </c>
-      <c r="AD9" s="7">
-        <f t="shared" si="15"/>
-        <v>163.66666666666561</v>
-      </c>
-      <c r="AE9" s="7">
-        <f t="shared" si="15"/>
-        <v>197.99999999999918</v>
-      </c>
-      <c r="AF9" s="7">
-        <f t="shared" si="15"/>
-        <v>572.79999999999961</v>
-      </c>
-      <c r="AG9" s="7">
-        <f t="shared" si="15"/>
-        <v>123322.66666666661</v>
-      </c>
-      <c r="AH9" s="7">
-        <f t="shared" si="15"/>
-        <v>94806.513333333321</v>
-      </c>
-      <c r="AI9" s="7">
-        <f t="shared" si="15"/>
-        <v>3033229.2367999996</v>
-      </c>
-      <c r="AJ9" s="7">
-        <f t="shared" si="15"/>
-        <v>30.999999999999915</v>
-      </c>
-      <c r="AK9" s="7">
-        <f t="shared" si="15"/>
-        <v>3072.3333333333321</v>
-      </c>
-      <c r="AL9" s="7">
-        <f t="shared" si="15"/>
-        <v>7618466.1495966641</v>
-      </c>
-    </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
+        <v>24882.507857500001</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0604236941267835</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
+        <v>3.5260387238947338E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="2"/>
+        <v>45.228801471648019</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="2"/>
+        <v>33.8125</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="2"/>
+        <v>3.406414285282613E-3</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="2"/>
+        <v>5.0880699667554333E-3</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.236395952990306E-2</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="2"/>
+        <v>18.878016792287745</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1808135451957595</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="2"/>
+        <v>61.237018487264521</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="2"/>
+        <v>7.563808193216347E-4</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="2"/>
+        <v>5.9396509856826145E-2</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="2"/>
+        <v>190.75217406689228</v>
+      </c>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="X11" s="7">
-        <f>X9/$F9</f>
-        <v>0.15724577209326088</v>
-      </c>
-      <c r="Y11" s="7">
-        <f t="shared" ref="Y11:AL11" si="16">Y9/$F9</f>
-        <v>0.45815255905444768</v>
-      </c>
-      <c r="Z11" s="7">
-        <f t="shared" si="16"/>
-        <v>0.83028594785155907</v>
-      </c>
-      <c r="AA11" s="7">
-        <f t="shared" si="16"/>
-        <v>3.1035872632003202E-2</v>
-      </c>
-      <c r="AB11" s="7">
-        <f t="shared" si="16"/>
-        <v>55.752496429881177</v>
-      </c>
-      <c r="AC11" s="7">
-        <f t="shared" si="16"/>
-        <v>6.2190961164001362E-4</v>
-      </c>
-      <c r="AD11" s="7">
-        <f t="shared" si="16"/>
-        <v>2.787381280832904E-3</v>
-      </c>
-      <c r="AE11" s="7">
-        <f t="shared" si="16"/>
-        <v>3.3721068855697531E-3</v>
-      </c>
-      <c r="AF11" s="7">
-        <f t="shared" si="16"/>
-        <v>9.7552667881533398E-3</v>
-      </c>
-      <c r="AG11" s="7">
-        <f t="shared" si="16"/>
-        <v>2.1002889566337966</v>
-      </c>
-      <c r="AH11" s="7">
-        <f t="shared" si="16"/>
-        <v>1.6146348303444205</v>
-      </c>
-      <c r="AI11" s="7">
-        <f t="shared" si="16"/>
-        <v>51.658450479418228</v>
-      </c>
-      <c r="AJ11" s="7">
-        <f t="shared" si="16"/>
-        <v>5.2795612854880051E-4</v>
-      </c>
-      <c r="AK11" s="7">
-        <f t="shared" si="16"/>
-        <v>5.2324426202519418E-2</v>
-      </c>
-      <c r="AL11" s="7">
-        <f t="shared" si="16"/>
-        <v>129.74889980068235</v>
-      </c>
-    </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+    </row>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1411,7 +1368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11635000</v>
       </c>
@@ -1467,7 +1424,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>11635000</v>
       </c>
@@ -1523,21 +1480,61 @@
         <v>5.2670000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>3623000</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4.6170000000000003E-2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6.055E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>4.7149999999999997E-2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>5.2979999999999999E-2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7.5130000000000002E-2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7.3849999999999999E-2</v>
+      </c>
+      <c r="O16" s="7">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="R16" s="7">
+        <v>8.6360000000000006E-2</v>
+      </c>
+      <c r="S16" s="7">
+        <v>8.0600000000000005E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
@@ -1547,132 +1544,172 @@
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1">
         <v>2022</v>
       </c>
       <c r="F17" s="7">
-        <v>4.6170000000000003E-2</v>
+        <v>5.3560000000000003E-2</v>
       </c>
       <c r="G17" s="7">
-        <v>6.6500000000000004E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="H17" s="7">
-        <v>6.8699999999999997E-2</v>
+        <v>7.324E-2</v>
       </c>
       <c r="I17" s="7">
-        <v>6.055E-2</v>
+        <v>6.1920000000000003E-2</v>
       </c>
       <c r="J17" s="7">
-        <v>4.7149999999999997E-2</v>
+        <v>5.1569999999999998E-2</v>
       </c>
       <c r="K17" s="7">
-        <v>5.2979999999999999E-2</v>
+        <v>6.1370000000000001E-2</v>
       </c>
       <c r="L17" s="7">
-        <v>6.4100000000000004E-2</v>
+        <v>7.4770000000000003E-2</v>
       </c>
       <c r="M17" s="7">
-        <v>7.5130000000000002E-2</v>
+        <v>8.1850000000000006E-2</v>
       </c>
       <c r="N17" s="7">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="O17" s="7">
         <v>7.3849999999999999E-2</v>
       </c>
-      <c r="O17" s="7">
-        <v>7.5399999999999995E-2</v>
-      </c>
       <c r="P17" s="7">
-        <v>0.12670000000000001</v>
+        <v>0.1183</v>
       </c>
       <c r="Q17" s="7">
-        <v>7.5700000000000003E-2</v>
+        <v>6.8049999999999999E-2</v>
       </c>
       <c r="R17" s="7">
-        <v>8.6360000000000006E-2</v>
+        <v>7.3359999999999995E-2</v>
       </c>
       <c r="S17" s="7">
-        <v>8.0600000000000005E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>3623000</v>
+        <v>65722000</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4.7969999999999999E-2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6.0729999999999999E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5.7160000000000002E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>4.675E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>9.3439999999999995E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="O18" s="7">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0.1249</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>7.1040000000000006E-2</v>
+      </c>
+      <c r="R18" s="7">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="S18" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>65722000</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5.3560000000000003E-2</v>
-      </c>
-      <c r="G18" s="7">
-        <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="H18" s="7">
-        <v>7.324E-2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6.1920000000000003E-2</v>
-      </c>
-      <c r="J18" s="7">
-        <v>5.1569999999999998E-2</v>
-      </c>
-      <c r="K18" s="7">
-        <v>6.1370000000000001E-2</v>
-      </c>
-      <c r="L18" s="7">
-        <v>7.4770000000000003E-2</v>
-      </c>
-      <c r="M18" s="7">
-        <v>8.1850000000000006E-2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>7.6300000000000007E-2</v>
-      </c>
-      <c r="O18" s="7">
-        <v>7.3849999999999999E-2</v>
-      </c>
-      <c r="P18" s="7">
-        <v>0.1183</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>6.8049999999999999E-2</v>
-      </c>
-      <c r="R18" s="7">
-        <v>7.3359999999999995E-2</v>
-      </c>
-      <c r="S18" s="7">
-        <v>5.8200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="E19" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5.3159999999999999E-2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6.83E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6.9029999999999994E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6.0060000000000002E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>4.8219999999999999E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>4.7730000000000002E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="O19" s="7">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0.11774</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>6.5060000000000007E-2</v>
+      </c>
+      <c r="R19" s="7">
+        <v>7.306E-2</v>
+      </c>
+      <c r="S19" s="7">
+        <v>6.2300000000000001E-2</v>
+      </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>65722000</v>
+        <v>1630000</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>41</v>
@@ -1681,54 +1718,54 @@
         <v>2023</v>
       </c>
       <c r="F20" s="7">
-        <v>4.7969999999999999E-2</v>
+        <v>4.2720000000000001E-2</v>
       </c>
       <c r="G20" s="7">
-        <v>6.0729999999999999E-2</v>
+        <v>6.8849999999999995E-2</v>
       </c>
       <c r="H20" s="7">
-        <v>5.7160000000000002E-2</v>
+        <v>7.22E-2</v>
       </c>
       <c r="I20" s="7">
-        <v>5.0700000000000002E-2</v>
+        <v>6.3899999999999998E-2</v>
       </c>
       <c r="J20" s="7">
-        <v>4.4299999999999999E-2</v>
+        <v>4.1750000000000002E-2</v>
       </c>
       <c r="K20" s="7">
-        <v>4.675E-2</v>
+        <v>3.424E-2</v>
       </c>
       <c r="L20" s="7">
-        <v>7.3300000000000004E-2</v>
+        <v>4.9770000000000002E-2</v>
       </c>
       <c r="M20" s="7">
-        <v>9.3439999999999995E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="N20" s="7">
-        <v>8.9899999999999994E-2</v>
+        <v>8.2150000000000001E-2</v>
       </c>
       <c r="O20" s="7">
-        <v>7.3599999999999999E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="P20" s="7">
-        <v>0.1249</v>
+        <v>0.12085</v>
       </c>
       <c r="Q20" s="7">
-        <v>7.1040000000000006E-2</v>
+        <v>6.726E-2</v>
       </c>
       <c r="R20" s="7">
-        <v>8.5500000000000007E-2</v>
+        <v>0.1027</v>
       </c>
       <c r="S20" s="7">
-        <v>8.0699999999999994E-2</v>
+        <v>9.7100000000000006E-2</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>65722000</v>
+        <v>1630000</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>42</v>
@@ -1737,46 +1774,46 @@
         <v>2023</v>
       </c>
       <c r="F21" s="7">
-        <v>5.3159999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G21" s="7">
-        <v>6.83E-2</v>
+        <v>7.5700000000000003E-2</v>
       </c>
       <c r="H21" s="7">
-        <v>6.9029999999999994E-2</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="I21" s="7">
-        <v>6.0060000000000002E-2</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="J21" s="7">
-        <v>4.8219999999999999E-2</v>
+        <v>5.6149999999999999E-2</v>
       </c>
       <c r="K21" s="7">
-        <v>4.7730000000000002E-2</v>
+        <v>4.5260000000000002E-2</v>
       </c>
       <c r="L21" s="7">
-        <v>7.3400000000000007E-2</v>
+        <v>5.8069999999999997E-2</v>
       </c>
       <c r="M21" s="7">
-        <v>9.8299999999999998E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="N21" s="7">
-        <v>8.6699999999999999E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="O21" s="7">
-        <v>7.6899999999999996E-2</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="P21" s="7">
-        <v>0.11774</v>
+        <v>0.1106</v>
       </c>
       <c r="Q21" s="7">
-        <v>6.5060000000000007E-2</v>
+        <v>6.2469999999999998E-2</v>
       </c>
       <c r="R21" s="7">
-        <v>7.306E-2</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="S21" s="7">
-        <v>6.2300000000000001E-2</v>
+        <v>6.7699999999999996E-2</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
@@ -1838,59 +1875,59 @@
         <v>41</v>
       </c>
       <c r="F25" s="7">
-        <f>AVERAGE(F14,F17,F20)</f>
+        <f>AVERAGE(F14,F16,F18)</f>
         <v>5.213333333333333E-2</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" ref="G25:R25" si="17">AVERAGE(G14,G17,G20)</f>
+        <f>AVERAGE(G14,G16,G18)</f>
         <v>6.4576666666666671E-2</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(H14,H16,H18)</f>
         <v>6.253333333333333E-2</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(I14,I16,I18)</f>
         <v>5.1436666666666665E-2</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(J14,J16,J18)</f>
         <v>4.1926666666666668E-2</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(K14,K16,K18)</f>
         <v>4.1723333333333334E-2</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(L14,L16,L18)</f>
         <v>6.3886666666666661E-2</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(M14,M16,M18)</f>
         <v>7.9390000000000002E-2</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(N14,N16,N18)</f>
         <v>7.9616666666666669E-2</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(O14,O16,O18)</f>
         <v>7.1313333333333326E-2</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(P14,P16,P18)</f>
         <v>0.13803333333333334</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(Q14,Q16,Q18)</f>
         <v>8.2246666666666676E-2</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(R14,R16,R18)</f>
         <v>9.3286666666666671E-2</v>
       </c>
       <c r="S25" s="7">
-        <f>AVERAGE(S14,S17,S20)</f>
+        <f>AVERAGE(S14,S16,S18)</f>
         <v>7.7900000000000011E-2</v>
       </c>
     </row>
@@ -1905,59 +1942,59 @@
         <v>42</v>
       </c>
       <c r="F26" s="7">
-        <f>AVERAGE(F15,F18,F21)</f>
+        <f>AVERAGE(F15,F17,F19)</f>
         <v>5.8786666666666675E-2</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" ref="G26:S26" si="18">AVERAGE(G15,G18,G21)</f>
+        <f>AVERAGE(G15,G17,G19)</f>
         <v>7.3133333333333342E-2</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(H15,H17,H19)</f>
         <v>7.0389999999999994E-2</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(I15,I17,I19)</f>
         <v>5.643666666666667E-2</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(J15,J17,J19)</f>
         <v>4.548E-2</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(K15,K17,K19)</f>
         <v>4.9193333333333332E-2</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(L15,L17,L19)</f>
         <v>7.3390000000000011E-2</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(M15,M17,M19)</f>
         <v>8.5283333333333336E-2</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(N15,N17,N19)</f>
         <v>7.925666666666667E-2</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(O15,O17,O19)</f>
         <v>7.2669999999999998E-2</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(P15,P17,P19)</f>
         <v>0.12848000000000001</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(Q15,Q17,Q19)</f>
         <v>7.5680000000000011E-2</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(R15,R17,R19)</f>
         <v>7.4096666666666658E-2</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(S15,S17,S19)</f>
         <v>5.7723333333333328E-2</v>
       </c>
     </row>
@@ -2156,7 +2193,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" ref="D33:D35" si="19">D32+1</f>
+        <f t="shared" ref="D33:D35" si="3">D32+1</f>
         <v>2020</v>
       </c>
       <c r="E33" s="1">
@@ -2219,7 +2256,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
       <c r="E34" s="1">
@@ -2280,7 +2317,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>2022</v>
       </c>
       <c r="E35" s="1">
@@ -3066,7 +3103,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:S14">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3078,7 +3115,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:S15">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:S16">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3090,7 +3139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:S17">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3102,18 +3151,318 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:S18">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:S20">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:S19">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H35">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:K35">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31:P35">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31:Q35">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31:R35">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31:U35">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H43">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H43">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U39:U43">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R39:R43">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q39:Q43">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:K43">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:P43">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H51">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:K51">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U47:U51">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P47:P51">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q47:Q51">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R47:R51">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F21">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G21">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:S15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:S17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:S19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:S21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3125,91 +3474,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:S21">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H35">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K35">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P31:P35">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q31:Q35">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31:R35">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U31:U35">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H43">
+  <conditionalFormatting sqref="H14:H21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I21">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J21">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3221,7 +3510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H43">
+  <conditionalFormatting sqref="K14:K21">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3233,7 +3522,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U39:U43">
+  <conditionalFormatting sqref="L14:L21">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3245,7 +3534,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R39:R43">
+  <conditionalFormatting sqref="M14:M21">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3257,7 +3546,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q39:Q43">
+  <conditionalFormatting sqref="N14:N21">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3269,7 +3558,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K43">
+  <conditionalFormatting sqref="O14:O21">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3281,7 +3570,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P39:P43">
+  <conditionalFormatting sqref="P14:P21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3293,7 +3582,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H51">
+  <conditionalFormatting sqref="Q14:Q21">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3305,7 +3594,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:K51">
+  <conditionalFormatting sqref="R14:R21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3317,44 +3606,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U47:U51">
+  <conditionalFormatting sqref="S14:S21">
     <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P47:P51">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q47:Q51">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R47:R51">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3374,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33:AX33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,7 +3958,7 @@
         <v>17405.8</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" ref="AB6:AN6" si="0">AC5/$Z5</f>
+        <f t="shared" ref="AC6:AN6" si="0">AC5/$Z5</f>
         <v>0.43737643468453524</v>
       </c>
       <c r="AD6" s="1">

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="66">
   <si>
     <t>saldo</t>
   </si>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1127,7 @@
         <v>1.216835008776129</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" ref="AJ7:AN7" si="1">AK6/$Y6</f>
+        <f t="shared" ref="AK7:AN7" si="1">AK6/$Y6</f>
         <v>143.24355087495346</v>
       </c>
       <c r="AL7" s="1">
@@ -1875,59 +1875,59 @@
         <v>41</v>
       </c>
       <c r="F25" s="7">
-        <f>AVERAGE(F14,F16,F18)</f>
+        <f t="shared" ref="F25:S25" si="3">AVERAGE(F14,F16,F18)</f>
         <v>5.213333333333333E-2</v>
       </c>
       <c r="G25" s="7">
-        <f>AVERAGE(G14,G16,G18)</f>
+        <f t="shared" si="3"/>
         <v>6.4576666666666671E-2</v>
       </c>
       <c r="H25" s="7">
-        <f>AVERAGE(H14,H16,H18)</f>
+        <f t="shared" si="3"/>
         <v>6.253333333333333E-2</v>
       </c>
       <c r="I25" s="7">
-        <f>AVERAGE(I14,I16,I18)</f>
+        <f t="shared" si="3"/>
         <v>5.1436666666666665E-2</v>
       </c>
       <c r="J25" s="7">
-        <f>AVERAGE(J14,J16,J18)</f>
+        <f t="shared" si="3"/>
         <v>4.1926666666666668E-2</v>
       </c>
       <c r="K25" s="7">
-        <f>AVERAGE(K14,K16,K18)</f>
+        <f t="shared" si="3"/>
         <v>4.1723333333333334E-2</v>
       </c>
       <c r="L25" s="7">
-        <f>AVERAGE(L14,L16,L18)</f>
+        <f t="shared" si="3"/>
         <v>6.3886666666666661E-2</v>
       </c>
       <c r="M25" s="7">
-        <f>AVERAGE(M14,M16,M18)</f>
+        <f t="shared" si="3"/>
         <v>7.9390000000000002E-2</v>
       </c>
       <c r="N25" s="7">
-        <f>AVERAGE(N14,N16,N18)</f>
+        <f t="shared" si="3"/>
         <v>7.9616666666666669E-2</v>
       </c>
       <c r="O25" s="7">
-        <f>AVERAGE(O14,O16,O18)</f>
+        <f t="shared" si="3"/>
         <v>7.1313333333333326E-2</v>
       </c>
       <c r="P25" s="7">
-        <f>AVERAGE(P14,P16,P18)</f>
+        <f t="shared" si="3"/>
         <v>0.13803333333333334</v>
       </c>
       <c r="Q25" s="7">
-        <f>AVERAGE(Q14,Q16,Q18)</f>
+        <f t="shared" si="3"/>
         <v>8.2246666666666676E-2</v>
       </c>
       <c r="R25" s="7">
-        <f>AVERAGE(R14,R16,R18)</f>
+        <f t="shared" si="3"/>
         <v>9.3286666666666671E-2</v>
       </c>
       <c r="S25" s="7">
-        <f>AVERAGE(S14,S16,S18)</f>
+        <f t="shared" si="3"/>
         <v>7.7900000000000011E-2</v>
       </c>
     </row>
@@ -1942,59 +1942,59 @@
         <v>42</v>
       </c>
       <c r="F26" s="7">
-        <f>AVERAGE(F15,F17,F19)</f>
+        <f t="shared" ref="F26:S26" si="4">AVERAGE(F15,F17,F19)</f>
         <v>5.8786666666666675E-2</v>
       </c>
       <c r="G26" s="7">
-        <f>AVERAGE(G15,G17,G19)</f>
+        <f t="shared" si="4"/>
         <v>7.3133333333333342E-2</v>
       </c>
       <c r="H26" s="7">
-        <f>AVERAGE(H15,H17,H19)</f>
+        <f t="shared" si="4"/>
         <v>7.0389999999999994E-2</v>
       </c>
       <c r="I26" s="7">
-        <f>AVERAGE(I15,I17,I19)</f>
+        <f t="shared" si="4"/>
         <v>5.643666666666667E-2</v>
       </c>
       <c r="J26" s="7">
-        <f>AVERAGE(J15,J17,J19)</f>
+        <f t="shared" si="4"/>
         <v>4.548E-2</v>
       </c>
       <c r="K26" s="7">
-        <f>AVERAGE(K15,K17,K19)</f>
+        <f t="shared" si="4"/>
         <v>4.9193333333333332E-2</v>
       </c>
       <c r="L26" s="7">
-        <f>AVERAGE(L15,L17,L19)</f>
+        <f t="shared" si="4"/>
         <v>7.3390000000000011E-2</v>
       </c>
       <c r="M26" s="7">
-        <f>AVERAGE(M15,M17,M19)</f>
+        <f t="shared" si="4"/>
         <v>8.5283333333333336E-2</v>
       </c>
       <c r="N26" s="7">
-        <f>AVERAGE(N15,N17,N19)</f>
+        <f t="shared" si="4"/>
         <v>7.925666666666667E-2</v>
       </c>
       <c r="O26" s="7">
-        <f>AVERAGE(O15,O17,O19)</f>
+        <f t="shared" si="4"/>
         <v>7.2669999999999998E-2</v>
       </c>
       <c r="P26" s="7">
-        <f>AVERAGE(P15,P17,P19)</f>
+        <f t="shared" si="4"/>
         <v>0.12848000000000001</v>
       </c>
       <c r="Q26" s="7">
-        <f>AVERAGE(Q15,Q17,Q19)</f>
+        <f t="shared" si="4"/>
         <v>7.5680000000000011E-2</v>
       </c>
       <c r="R26" s="7">
-        <f>AVERAGE(R15,R17,R19)</f>
+        <f t="shared" si="4"/>
         <v>7.4096666666666658E-2</v>
       </c>
       <c r="S26" s="7">
-        <f>AVERAGE(S15,S17,S19)</f>
+        <f t="shared" si="4"/>
         <v>5.7723333333333328E-2</v>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" ref="D33:D35" si="3">D32+1</f>
+        <f t="shared" ref="D33:D35" si="5">D32+1</f>
         <v>2020</v>
       </c>
       <c r="E33" s="1">
@@ -2256,7 +2256,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
       <c r="E34" s="1">
@@ -2317,7 +2317,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2022</v>
       </c>
       <c r="E35" s="1">
@@ -3628,7 +3628,7 @@
   <dimension ref="C4:AO46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33:AX33"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9524,8 +9524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:U52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:R27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9949,181 +9949,181 @@
         <v>6.2300000000000001E-2</v>
       </c>
     </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1630000</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4.2720000000000001E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6.8849999999999995E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>7.22E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="L11" s="7">
+        <v>4.1750000000000002E-2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3.424E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4.9770000000000002E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="P11" s="7">
+        <v>8.2150000000000001E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.12085</v>
+      </c>
+      <c r="S11" s="7">
+        <v>6.726E-2</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0.1027</v>
+      </c>
+      <c r="U11" s="7">
+        <v>9.7100000000000006E-2</v>
+      </c>
+    </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1630000</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="L12" s="7">
+        <v>5.6149999999999999E-2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>4.5260000000000002E-2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5.8069999999999997E-2</v>
+      </c>
+      <c r="O12" s="7">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="P12" s="7">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.1106</v>
+      </c>
+      <c r="S12" s="7">
+        <v>6.2469999999999998E-2</v>
+      </c>
+      <c r="T12" s="7">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="U12" s="7">
+        <v>6.7699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D14" s="1">
         <v>56613000</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2019</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5.5329999999999997E-2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5.8099999999999999E-2</v>
-      </c>
-      <c r="J12" s="7">
-        <v>5.4960000000000002E-2</v>
-      </c>
-      <c r="K12" s="7">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="L12" s="7">
-        <v>4.0250000000000001E-2</v>
-      </c>
-      <c r="M12" s="7">
-        <v>5.5660000000000001E-2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="O12" s="7">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="P12" s="7">
-        <v>7.0739999999999997E-2</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>6.4449999999999993E-2</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="S12" s="7">
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="T12" s="7">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="U12" s="7">
-        <v>7.5560000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1">
-        <v>56613000</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2019</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6.7299999999999999E-2</v>
-      </c>
-      <c r="J13" s="7">
-        <v>5.91E-2</v>
-      </c>
-      <c r="K13" s="7">
-        <v>4.938E-2</v>
-      </c>
-      <c r="L13" s="7">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="M13" s="7">
-        <v>6.0729999999999999E-2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9.0149999999999994E-2</v>
-      </c>
-      <c r="O13" s="7">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="P13" s="7">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>6.5799999999999997E-2</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0.12989999999999999</v>
-      </c>
-      <c r="S13" s="7">
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="T13" s="7">
-        <v>7.4160000000000004E-2</v>
-      </c>
-      <c r="U13" s="7">
-        <v>5.7099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1">
-        <v>63637000</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="1">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="H14" s="7">
-        <v>6.1199999999999997E-2</v>
+        <v>5.5329999999999997E-2</v>
       </c>
       <c r="I14" s="7">
-        <v>5.79E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="J14" s="7">
-        <v>5.1180000000000003E-2</v>
+        <v>5.4960000000000002E-2</v>
       </c>
       <c r="K14" s="7">
-        <v>5.246E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="L14" s="7">
-        <v>5.9229999999999998E-2</v>
+        <v>4.0250000000000001E-2</v>
       </c>
       <c r="M14" s="7">
-        <v>7.6300000000000007E-2</v>
+        <v>5.5660000000000001E-2</v>
       </c>
       <c r="N14" s="7">
-        <v>7.4770000000000003E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="O14" s="7">
-        <v>7.1499999999999994E-2</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="P14" s="7">
-        <v>6.6799999999999998E-2</v>
+        <v>7.0739999999999997E-2</v>
       </c>
       <c r="Q14" s="7">
-        <v>7.4499999999999997E-2</v>
+        <v>6.4449999999999993E-2</v>
       </c>
       <c r="R14" s="7">
-        <v>0.16220000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="S14" s="7">
-        <v>8.6599999999999996E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="T14" s="7">
-        <v>6.6830000000000001E-2</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="U14" s="7">
-        <v>3.85E-2</v>
+        <v>7.5560000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.25">
@@ -10131,58 +10131,58 @@
         <v>44</v>
       </c>
       <c r="D15" s="1">
-        <v>63637000</v>
+        <v>56613000</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="1">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="H15" s="7">
-        <v>5.79E-2</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="I15" s="7">
-        <v>5.5629999999999999E-2</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="J15" s="7">
-        <v>5.1639999999999998E-2</v>
+        <v>5.91E-2</v>
       </c>
       <c r="K15" s="7">
-        <v>5.2519999999999997E-2</v>
+        <v>4.938E-2</v>
       </c>
       <c r="L15" s="7">
-        <v>5.8930000000000003E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="M15" s="7">
-        <v>9.2700000000000005E-2</v>
+        <v>6.0729999999999999E-2</v>
       </c>
       <c r="N15" s="7">
-        <v>9.2100000000000001E-2</v>
+        <v>9.0149999999999994E-2</v>
       </c>
       <c r="O15" s="7">
-        <v>8.1600000000000006E-2</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="P15" s="7">
-        <v>7.4899999999999994E-2</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="Q15" s="7">
-        <v>7.46E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="R15" s="7">
-        <v>0.14929999999999999</v>
+        <v>0.12989999999999999</v>
       </c>
       <c r="S15" s="7">
-        <v>7.886E-2</v>
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="T15" s="7">
-        <v>5.466E-2</v>
+        <v>7.4160000000000004E-2</v>
       </c>
       <c r="U15" s="7">
-        <v>2.4639999999999999E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.25">
@@ -10190,58 +10190,58 @@
         <v>44</v>
       </c>
       <c r="D16" s="1">
-        <v>75533000</v>
+        <v>63637000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>55</v>
+      <c r="G16" s="1">
+        <v>2013</v>
       </c>
       <c r="H16" s="7">
-        <v>0.05</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="I16" s="7">
-        <v>7.5740000000000002E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="J16" s="7">
-        <v>7.3550000000000004E-2</v>
+        <v>5.1180000000000003E-2</v>
       </c>
       <c r="K16" s="7">
-        <v>5.6270000000000001E-2</v>
+        <v>5.246E-2</v>
       </c>
       <c r="L16" s="7">
-        <v>4.5870000000000001E-2</v>
+        <v>5.9229999999999998E-2</v>
       </c>
       <c r="M16" s="7">
-        <v>4.0370000000000003E-2</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="N16" s="7">
-        <v>6.3350000000000004E-2</v>
+        <v>7.4770000000000003E-2</v>
       </c>
       <c r="O16" s="7">
-        <v>8.2400000000000001E-2</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="P16" s="7">
-        <v>8.3000000000000004E-2</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="Q16" s="7">
-        <v>7.7499999999999999E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="R16" s="7">
-        <v>0.11285000000000001</v>
+        <v>0.16220000000000001</v>
       </c>
       <c r="S16" s="7">
-        <v>6.2560000000000004E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="T16" s="7">
-        <v>9.1399999999999995E-2</v>
+        <v>6.6830000000000001E-2</v>
       </c>
       <c r="U16" s="7">
-        <v>8.5199999999999998E-2</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.25">
@@ -10249,58 +10249,58 @@
         <v>44</v>
       </c>
       <c r="D17" s="1">
-        <v>75533000</v>
+        <v>63637000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>55</v>
+      <c r="G17" s="1">
+        <v>2013</v>
       </c>
       <c r="H17" s="7">
-        <v>6.25E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="I17" s="7">
-        <v>9.3799999999999994E-2</v>
+        <v>5.5629999999999999E-2</v>
       </c>
       <c r="J17" s="7">
-        <v>9.1800000000000007E-2</v>
+        <v>5.1639999999999998E-2</v>
       </c>
       <c r="K17" s="7">
-        <v>6.0299999999999999E-2</v>
+        <v>5.2519999999999997E-2</v>
       </c>
       <c r="L17" s="7">
-        <v>2.7019999999999999E-2</v>
+        <v>5.8930000000000003E-2</v>
       </c>
       <c r="M17" s="7">
-        <v>3.8100000000000002E-2</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="N17" s="7">
-        <v>8.1799999999999998E-2</v>
+        <v>9.2100000000000001E-2</v>
       </c>
       <c r="O17" s="7">
-        <v>9.0639999999999998E-2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="P17" s="7">
         <v>7.4899999999999994E-2</v>
       </c>
       <c r="Q17" s="7">
-        <v>7.3700000000000002E-2</v>
+        <v>7.46E-2</v>
       </c>
       <c r="R17" s="7">
-        <v>0.1051</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="S17" s="7">
-        <v>5.6730000000000003E-2</v>
+        <v>7.886E-2</v>
       </c>
       <c r="T17" s="7">
-        <v>7.5999999999999998E-2</v>
+        <v>5.466E-2</v>
       </c>
       <c r="U17" s="7">
-        <v>6.7599999999999993E-2</v>
+        <v>2.4639999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.25">
@@ -10308,58 +10308,58 @@
         <v>44</v>
       </c>
       <c r="D18" s="1">
-        <v>28656000</v>
+        <v>75533000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="1">
-        <v>2013</v>
+      <c r="G18" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H18" s="7">
-        <v>5.7070000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I18" s="7">
-        <v>5.0479999999999997E-2</v>
+        <v>7.5740000000000002E-2</v>
       </c>
       <c r="J18" s="7">
-        <v>4.19E-2</v>
+        <v>7.3550000000000004E-2</v>
       </c>
       <c r="K18" s="7">
-        <v>3.9669999999999997E-2</v>
+        <v>5.6270000000000001E-2</v>
       </c>
       <c r="L18" s="7">
-        <v>4.7359999999999999E-2</v>
+        <v>4.5870000000000001E-2</v>
       </c>
       <c r="M18" s="7">
-        <v>8.0699999999999994E-2</v>
+        <v>4.0370000000000003E-2</v>
       </c>
       <c r="N18" s="7">
-        <v>7.6600000000000001E-2</v>
+        <v>6.3350000000000004E-2</v>
       </c>
       <c r="O18" s="7">
-        <v>7.1999999999999995E-2</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="P18" s="7">
-        <v>6.2230000000000001E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="Q18" s="7">
-        <v>7.8600000000000003E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="R18" s="7">
-        <v>0.18140000000000001</v>
+        <v>0.11285000000000001</v>
       </c>
       <c r="S18" s="7">
-        <v>9.4600000000000004E-2</v>
+        <v>6.2560000000000004E-2</v>
       </c>
       <c r="T18" s="7">
-        <v>8.0699999999999994E-2</v>
+        <v>9.1399999999999995E-2</v>
       </c>
       <c r="U18" s="7">
-        <v>3.6799999999999999E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.25">
@@ -10367,58 +10367,58 @@
         <v>44</v>
       </c>
       <c r="D19" s="1">
-        <v>28656000</v>
+        <v>75533000</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="1">
-        <v>2013</v>
+      <c r="G19" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H19" s="7">
-        <v>6.2260000000000003E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I19" s="7">
-        <v>5.3530000000000001E-2</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="J19" s="7">
-        <v>4.8739999999999999E-2</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="K19" s="7">
-        <v>4.4159999999999998E-2</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="L19" s="7">
-        <v>6.4449999999999993E-2</v>
+        <v>2.7019999999999999E-2</v>
       </c>
       <c r="M19" s="7">
-        <v>0.1017</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="N19" s="7">
-        <v>8.6099999999999996E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="O19" s="7">
-        <v>7.5259999999999994E-2</v>
+        <v>9.0639999999999998E-2</v>
       </c>
       <c r="P19" s="7">
-        <v>6.4399999999999999E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="Q19" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0.1051</v>
+      </c>
+      <c r="S19" s="7">
+        <v>5.6730000000000003E-2</v>
+      </c>
+      <c r="T19" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="U19" s="7">
         <v>6.7599999999999993E-2</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0.1588</v>
-      </c>
-      <c r="S19" s="7">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="T19" s="7">
-        <v>6.4299999999999996E-2</v>
-      </c>
-      <c r="U19" s="7">
-        <v>2.945E-2</v>
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.25">
@@ -10426,58 +10426,58 @@
         <v>44</v>
       </c>
       <c r="D20" s="1">
-        <v>98701000</v>
+        <v>28656000</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="1">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="H20" s="7">
-        <v>8.3199999999999996E-2</v>
+        <v>5.7070000000000003E-2</v>
       </c>
       <c r="I20" s="7">
-        <v>8.5199999999999998E-2</v>
+        <v>5.0479999999999997E-2</v>
       </c>
       <c r="J20" s="7">
-        <v>6.7500000000000004E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="K20" s="7">
-        <v>6.7900000000000002E-2</v>
+        <v>3.9669999999999997E-2</v>
       </c>
       <c r="L20" s="7">
-        <v>6.5729999999999997E-2</v>
+        <v>4.7359999999999999E-2</v>
       </c>
       <c r="M20" s="7">
-        <v>0.11176</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="N20" s="7">
-        <v>0.1137</v>
+        <v>7.6600000000000001E-2</v>
       </c>
       <c r="O20" s="7">
-        <v>8.5999999999999993E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="P20" s="7">
-        <v>6.9000000000000006E-2</v>
+        <v>6.2230000000000001E-2</v>
       </c>
       <c r="Q20" s="7">
-        <v>5.7979999999999997E-2</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="R20" s="7">
-        <v>8.5099999999999995E-2</v>
+        <v>0.18140000000000001</v>
       </c>
       <c r="S20" s="7">
-        <v>4.5870000000000001E-2</v>
+        <v>9.4600000000000004E-2</v>
       </c>
       <c r="T20" s="7">
-        <v>3.5369999999999999E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="U20" s="7">
-        <v>2.5729999999999999E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.25">
@@ -10485,58 +10485,58 @@
         <v>44</v>
       </c>
       <c r="D21" s="1">
-        <v>98701000</v>
+        <v>28656000</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="1">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="H21" s="7">
-        <v>7.2499999999999995E-2</v>
+        <v>6.2260000000000003E-2</v>
       </c>
       <c r="I21" s="7">
-        <v>7.3359999999999995E-2</v>
+        <v>5.3530000000000001E-2</v>
       </c>
       <c r="J21" s="7">
-        <v>5.8799999999999998E-2</v>
+        <v>4.8739999999999999E-2</v>
       </c>
       <c r="K21" s="7">
-        <v>5.9900000000000002E-2</v>
+        <v>4.4159999999999998E-2</v>
       </c>
       <c r="L21" s="7">
-        <v>6.8540000000000004E-2</v>
+        <v>6.4449999999999993E-2</v>
       </c>
       <c r="M21" s="7">
-        <v>0.1115</v>
+        <v>0.1017</v>
       </c>
       <c r="N21" s="7">
-        <v>0.10376000000000001</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="O21" s="7">
-        <v>0.08</v>
+        <v>7.5259999999999994E-2</v>
       </c>
       <c r="P21" s="7">
-        <v>6.7799999999999999E-2</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="Q21" s="7">
-        <v>5.9569999999999998E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="R21" s="7">
-        <v>9.8699999999999996E-2</v>
+        <v>0.1588</v>
       </c>
       <c r="S21" s="7">
-        <v>5.6550000000000003E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="T21" s="7">
-        <v>4.8340000000000001E-2</v>
+        <v>6.4299999999999996E-2</v>
       </c>
       <c r="U21" s="7">
-        <v>4.0620000000000003E-2</v>
+        <v>2.945E-2</v>
       </c>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.25">
@@ -10544,58 +10544,58 @@
         <v>44</v>
       </c>
       <c r="D22" s="1">
-        <v>82701000</v>
+        <v>98701000</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>47</v>
+      <c r="G22" s="1">
+        <v>2019</v>
       </c>
       <c r="H22" s="7">
-        <v>4.5469999999999997E-2</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="I22" s="7">
-        <v>5.3830000000000003E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="J22" s="7">
-        <v>6.2700000000000006E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K22" s="7">
-        <v>6.5699999999999995E-2</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="L22" s="7">
-        <v>6.59E-2</v>
+        <v>6.5729999999999997E-2</v>
       </c>
       <c r="M22" s="7">
-        <v>8.6199999999999999E-2</v>
+        <v>0.11176</v>
       </c>
       <c r="N22" s="7">
-        <v>0.13020000000000001</v>
+        <v>0.1137</v>
       </c>
       <c r="O22" s="7">
-        <v>9.7049999999999997E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="P22" s="7">
-        <v>7.4770000000000003E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="Q22" s="7">
-        <v>6.6699999999999995E-2</v>
+        <v>5.7979999999999997E-2</v>
       </c>
       <c r="R22" s="7">
-        <v>0.11115</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="S22" s="7">
-        <v>5.9360000000000003E-2</v>
+        <v>4.5870000000000001E-2</v>
       </c>
       <c r="T22" s="7">
-        <v>4.8399999999999999E-2</v>
+        <v>3.5369999999999999E-2</v>
       </c>
       <c r="U22" s="7">
-        <v>3.2620000000000003E-2</v>
+        <v>2.5729999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.25">
@@ -10603,176 +10603,176 @@
         <v>44</v>
       </c>
       <c r="D23" s="1">
-        <v>82701000</v>
+        <v>98701000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H23" s="7">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>7.3359999999999995E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <v>6.8540000000000004E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.1115</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.10376000000000001</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="P23" s="7">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>5.9569999999999998E-2</v>
+      </c>
+      <c r="R23" s="7">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="S23" s="7">
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="T23" s="7">
+        <v>4.8340000000000001E-2</v>
+      </c>
+      <c r="U23" s="7">
+        <v>4.0620000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1">
+        <v>82701000</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="7">
-        <v>5.3530000000000001E-2</v>
-      </c>
-      <c r="I23" s="7">
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="J23" s="7">
-        <v>6.8360000000000004E-2</v>
-      </c>
-      <c r="K23" s="7">
-        <v>7.0559999999999998E-2</v>
-      </c>
-      <c r="L23" s="7">
-        <v>6.8659999999999999E-2</v>
-      </c>
-      <c r="M23" s="7">
-        <v>8.3860000000000004E-2</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0.11633</v>
-      </c>
-      <c r="O23" s="7">
-        <v>9.4E-2</v>
-      </c>
-      <c r="P23" s="7">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>6.4299999999999996E-2</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0.106</v>
-      </c>
-      <c r="S23" s="7">
-        <v>5.4780000000000002E-2</v>
-      </c>
-      <c r="T23" s="7">
-        <v>5.0540000000000002E-2</v>
-      </c>
-      <c r="U23" s="7">
-        <v>2.9270000000000001E-2</v>
+      <c r="H24" s="7">
+        <v>4.5469999999999997E-2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5.3830000000000003E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="K24" s="7">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="L24" s="7">
+        <v>6.59E-2</v>
+      </c>
+      <c r="M24" s="7">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="O24" s="7">
+        <v>9.7049999999999997E-2</v>
+      </c>
+      <c r="P24" s="7">
+        <v>7.4770000000000003E-2</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0.11115</v>
+      </c>
+      <c r="S24" s="7">
+        <v>5.9360000000000003E-2</v>
+      </c>
+      <c r="T24" s="7">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="U24" s="7">
+        <v>3.2620000000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1">
-        <v>80631000</v>
+        <v>82701000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2020</v>
+        <v>42</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H25" s="7">
-        <v>5.713E-2</v>
+        <v>5.3530000000000001E-2</v>
       </c>
       <c r="I25" s="7">
-        <v>6.6350000000000006E-2</v>
+        <v>6.4199999999999993E-2</v>
       </c>
       <c r="J25" s="7">
-        <v>6.54E-2</v>
+        <v>6.8360000000000004E-2</v>
       </c>
       <c r="K25" s="7">
-        <v>4.7969999999999999E-2</v>
+        <v>7.0559999999999998E-2</v>
       </c>
       <c r="L25" s="7">
-        <v>4.8160000000000001E-2</v>
+        <v>6.8659999999999999E-2</v>
       </c>
       <c r="M25" s="7">
-        <v>4.5749999999999999E-2</v>
+        <v>8.3860000000000004E-2</v>
       </c>
       <c r="N25" s="7">
-        <v>7.306E-2</v>
+        <v>0.11633</v>
       </c>
       <c r="O25" s="7">
-        <v>7.0499999999999993E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="P25" s="7">
-        <v>6.5699999999999995E-2</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="Q25" s="7">
-        <v>6.1429999999999998E-2</v>
+        <v>6.4299999999999996E-2</v>
       </c>
       <c r="R25" s="7">
-        <v>0.14660000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="S25" s="7">
-        <v>9.0639999999999998E-2</v>
+        <v>5.4780000000000002E-2</v>
       </c>
       <c r="T25" s="7">
-        <v>8.7499999999999994E-2</v>
+        <v>5.0540000000000002E-2</v>
       </c>
       <c r="U25" s="7">
-        <v>7.3700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="1">
-        <v>80631000</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H26" s="7">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="J26" s="7">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="K26" s="7">
-        <v>5.1240000000000001E-2</v>
-      </c>
-      <c r="L26" s="7">
-        <v>4.446E-2</v>
-      </c>
-      <c r="M26" s="7">
-        <v>8.0439999999999998E-2</v>
-      </c>
-      <c r="N26" s="7">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="O26" s="7">
-        <v>7.5130000000000002E-2</v>
-      </c>
-      <c r="P26" s="7">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>6.1039999999999997E-2</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0.1278</v>
-      </c>
-      <c r="S26" s="7">
-        <v>7.6969999999999997E-2</v>
-      </c>
-      <c r="T26" s="7">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="U26" s="7">
-        <v>4.9840000000000002E-2</v>
+        <v>2.9270000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.25">
@@ -10780,10 +10780,10 @@
         <v>50</v>
       </c>
       <c r="D27" s="1">
-        <v>80601000</v>
+        <v>80631000</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>41</v>
@@ -10792,46 +10792,46 @@
         <v>2020</v>
       </c>
       <c r="H27" s="7">
-        <v>7.2270000000000001E-2</v>
+        <v>5.713E-2</v>
       </c>
       <c r="I27" s="7">
-        <v>8.7160000000000001E-2</v>
+        <v>6.6350000000000006E-2</v>
       </c>
       <c r="J27" s="7">
-        <v>8.0140000000000003E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="K27" s="7">
-        <v>5.5300000000000002E-2</v>
+        <v>4.7969999999999999E-2</v>
       </c>
       <c r="L27" s="7">
-        <v>5.79E-2</v>
+        <v>4.8160000000000001E-2</v>
       </c>
       <c r="M27" s="7">
-        <v>4.1930000000000002E-2</v>
+        <v>4.5749999999999999E-2</v>
       </c>
       <c r="N27" s="7">
-        <v>6.9599999999999995E-2</v>
+        <v>7.306E-2</v>
       </c>
       <c r="O27" s="7">
-        <v>6.2469999999999998E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="P27" s="7">
-        <v>6.2560000000000004E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="Q27" s="7">
-        <v>5.91E-2</v>
+        <v>6.1429999999999998E-2</v>
       </c>
       <c r="R27" s="7">
-        <v>0.14610000000000001</v>
+        <v>0.14660000000000001</v>
       </c>
       <c r="S27" s="7">
-        <v>8.5139999999999993E-2</v>
+        <v>9.0639999999999998E-2</v>
       </c>
       <c r="T27" s="7">
-        <v>7.1900000000000006E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="U27" s="7">
-        <v>4.8500000000000001E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.25">
@@ -10839,10 +10839,10 @@
         <v>50</v>
       </c>
       <c r="D28" s="1">
-        <v>80601000</v>
+        <v>80631000</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>42</v>
@@ -10851,45 +10851,163 @@
         <v>2020</v>
       </c>
       <c r="H28" s="7">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="J28" s="7">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="K28" s="7">
+        <v>5.1240000000000001E-2</v>
+      </c>
+      <c r="L28" s="7">
+        <v>4.446E-2</v>
+      </c>
+      <c r="M28" s="7">
+        <v>8.0439999999999998E-2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="O28" s="7">
+        <v>7.5130000000000002E-2</v>
+      </c>
+      <c r="P28" s="7">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>6.1039999999999997E-2</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0.1278</v>
+      </c>
+      <c r="S28" s="7">
+        <v>7.6969999999999997E-2</v>
+      </c>
+      <c r="T28" s="7">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="U28" s="7">
+        <v>4.9840000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1">
+        <v>80601000</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H29" s="7">
+        <v>7.2270000000000001E-2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>8.7160000000000001E-2</v>
+      </c>
+      <c r="J29" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="K29" s="7">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="L29" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4.1930000000000002E-2</v>
+      </c>
+      <c r="N29" s="7">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>6.2469999999999998E-2</v>
+      </c>
+      <c r="P29" s="7">
+        <v>6.2560000000000004E-2</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="S29" s="7">
+        <v>8.5139999999999993E-2</v>
+      </c>
+      <c r="T29" s="7">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="U29" s="7">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1">
+        <v>80601000</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H30" s="7">
         <v>7.2139999999999996E-2</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I30" s="7">
         <v>8.6360000000000006E-2</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J30" s="7">
         <v>8.2460000000000006E-2</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K30" s="7">
         <v>5.8470000000000001E-2</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L30" s="7">
         <v>6.5250000000000002E-2</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M30" s="7">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N30" s="7">
         <v>8.0140000000000003E-2</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O30" s="7">
         <v>7.0860000000000006E-2</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P30" s="7">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q30" s="7">
         <v>5.8779999999999999E-2</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R30" s="7">
         <v>0.1333</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S30" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T30" s="7">
         <v>6.1650000000000003E-2</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U30" s="7">
         <v>3.5639999999999998E-2</v>
       </c>
     </row>
@@ -11247,7 +11365,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H32:H40">
-    <cfRule type="colorScale" priority="225">
+    <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11259,7 +11377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I40">
-    <cfRule type="colorScale" priority="224">
+    <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11271,7 +11389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J40">
-    <cfRule type="colorScale" priority="223">
+    <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11283,7 +11401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K40">
-    <cfRule type="colorScale" priority="222">
+    <cfRule type="colorScale" priority="251">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11295,7 +11413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L40">
-    <cfRule type="colorScale" priority="221">
+    <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11307,7 +11425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:M40">
-    <cfRule type="colorScale" priority="220">
+    <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11319,7 +11437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:N40">
-    <cfRule type="colorScale" priority="219">
+    <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11331,7 +11449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O40">
-    <cfRule type="colorScale" priority="218">
+    <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11343,7 +11461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:P40">
-    <cfRule type="colorScale" priority="217">
+    <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11355,7 +11473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:Q40">
-    <cfRule type="colorScale" priority="216">
+    <cfRule type="colorScale" priority="245">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11367,7 +11485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32:R40">
-    <cfRule type="colorScale" priority="215">
+    <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11379,7 +11497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:S40">
-    <cfRule type="colorScale" priority="214">
+    <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11391,7 +11509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:T40">
-    <cfRule type="colorScale" priority="213">
+    <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11403,7 +11521,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:U40">
-    <cfRule type="colorScale" priority="212">
+    <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11415,7 +11533,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H52">
-    <cfRule type="colorScale" priority="113">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11427,7 +11545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:I52">
-    <cfRule type="colorScale" priority="112">
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11439,7 +11557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:J52">
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11451,7 +11569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:K52">
-    <cfRule type="colorScale" priority="110">
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11463,7 +11581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:L52">
-    <cfRule type="colorScale" priority="109">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11475,7 +11593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:M52">
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11487,7 +11605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:N52">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11499,7 +11617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44:O52">
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11511,7 +11629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:P52">
-    <cfRule type="colorScale" priority="105">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11523,7 +11641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44:Q52">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11535,7 +11653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R44:R52">
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11547,7 +11665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44:S52">
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11559,7 +11677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:T52">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11571,186 +11689,174 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U44:U52">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H28 H5:H10">
-    <cfRule type="colorScale" priority="391">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I28 I5:I10">
-    <cfRule type="colorScale" priority="394">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J28 J5:J10">
-    <cfRule type="colorScale" priority="397">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:K28 K5:K10">
-    <cfRule type="colorScale" priority="400">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L28 L5:L10">
-    <cfRule type="colorScale" priority="403">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25:M28 M5:M10">
-    <cfRule type="colorScale" priority="406">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25:N28 N5:N10">
-    <cfRule type="colorScale" priority="409">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O28 O5:O10">
-    <cfRule type="colorScale" priority="412">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P28 P5:P10">
-    <cfRule type="colorScale" priority="415">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:Q28 Q5:Q10">
-    <cfRule type="colorScale" priority="418">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25:R28 R5:R10">
-    <cfRule type="colorScale" priority="421">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25:S28 S5:S10">
-    <cfRule type="colorScale" priority="424">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T28 T5:T10">
-    <cfRule type="colorScale" priority="427">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U25:U28 U5:U10">
-    <cfRule type="colorScale" priority="430">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H28 H5:H11">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H30 H5:H10">
+    <cfRule type="colorScale" priority="420">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I30 I5:I10">
+    <cfRule type="colorScale" priority="423">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J30 J5:J10">
+    <cfRule type="colorScale" priority="426">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K30 K5:K10">
+    <cfRule type="colorScale" priority="429">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L30 L5:L10">
+    <cfRule type="colorScale" priority="432">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:M30 M5:M10">
+    <cfRule type="colorScale" priority="435">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:N30 N5:N10">
+    <cfRule type="colorScale" priority="438">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O30 O5:O10">
+    <cfRule type="colorScale" priority="441">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27:P30 P5:P10">
+    <cfRule type="colorScale" priority="444">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q30 Q5:Q10">
+    <cfRule type="colorScale" priority="447">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:R30 R5:R10">
+    <cfRule type="colorScale" priority="450">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27:S30 S5:S10">
+    <cfRule type="colorScale" priority="453">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27:T30 T5:T10">
+    <cfRule type="colorScale" priority="456">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27:U30 U5:U10">
     <cfRule type="colorScale" priority="459">
       <colorScale>
         <cfvo type="min"/>
@@ -11762,331 +11868,691 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I28 I5:I11">
-    <cfRule type="colorScale" priority="462">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J28 J5:J11">
-    <cfRule type="colorScale" priority="465">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:K28 K5:K11">
-    <cfRule type="colorScale" priority="468">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L28 L5:L11">
-    <cfRule type="colorScale" priority="471">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25:M28 M5:M11">
-    <cfRule type="colorScale" priority="474">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25:N28 N5:N11">
-    <cfRule type="colorScale" priority="477">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O28 O5:O11">
-    <cfRule type="colorScale" priority="480">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P28 P5:P11">
-    <cfRule type="colorScale" priority="483">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:Q28 Q5:Q11">
-    <cfRule type="colorScale" priority="486">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25:R28 R5:R11">
-    <cfRule type="colorScale" priority="489">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25:S28 S5:S11">
-    <cfRule type="colorScale" priority="492">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T28 T5:T11">
-    <cfRule type="colorScale" priority="495">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U25:U28 U5:U11">
-    <cfRule type="colorScale" priority="498">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H28 H5:H11">
-    <cfRule type="colorScale" priority="541">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I28 I5:I11">
-    <cfRule type="colorScale" priority="543">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J28 J5:J11">
-    <cfRule type="colorScale" priority="545">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:K28 K5:K11">
-    <cfRule type="colorScale" priority="547">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L28 L5:L11">
-    <cfRule type="colorScale" priority="549">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25:M28 M5:M11">
-    <cfRule type="colorScale" priority="551">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25:N28 N5:N11">
-    <cfRule type="colorScale" priority="553">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O28 O5:O11">
-    <cfRule type="colorScale" priority="555">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P28 P5:P11">
-    <cfRule type="colorScale" priority="557">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:Q28 Q5:Q11">
-    <cfRule type="colorScale" priority="559">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25:R28 R5:R11">
-    <cfRule type="colorScale" priority="561">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25:S28 S5:S11">
-    <cfRule type="colorScale" priority="563">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T28 T5:T11">
-    <cfRule type="colorScale" priority="565">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U25:U28 U5:U11">
-    <cfRule type="colorScale" priority="567">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:I12 K12:U12">
+  <conditionalFormatting sqref="H27:H30 H5:H10">
+    <cfRule type="colorScale" priority="488">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I30 I5:I10">
+    <cfRule type="colorScale" priority="491">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J30 J5:J10">
+    <cfRule type="colorScale" priority="494">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K30 K5:K10">
+    <cfRule type="colorScale" priority="497">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L30 L5:L10">
+    <cfRule type="colorScale" priority="500">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:M30 M5:M10">
+    <cfRule type="colorScale" priority="503">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:N30 N5:N10">
+    <cfRule type="colorScale" priority="506">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O30 O5:O10">
+    <cfRule type="colorScale" priority="509">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27:P30 P5:P10">
+    <cfRule type="colorScale" priority="512">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q30 Q5:Q10">
+    <cfRule type="colorScale" priority="515">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:R30 R5:R10">
+    <cfRule type="colorScale" priority="518">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27:S30 S5:S10">
+    <cfRule type="colorScale" priority="521">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27:T30 T5:T10">
+    <cfRule type="colorScale" priority="524">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27:U30 U5:U10">
+    <cfRule type="colorScale" priority="527">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H30">
+    <cfRule type="colorScale" priority="570">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I30">
+    <cfRule type="colorScale" priority="572">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J30">
+    <cfRule type="colorScale" priority="574">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K30">
+    <cfRule type="colorScale" priority="576">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L30">
+    <cfRule type="colorScale" priority="578">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:M30">
+    <cfRule type="colorScale" priority="580">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:N30">
+    <cfRule type="colorScale" priority="582">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O30">
+    <cfRule type="colorScale" priority="584">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27:P30">
+    <cfRule type="colorScale" priority="586">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q30">
+    <cfRule type="colorScale" priority="588">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:R30">
+    <cfRule type="colorScale" priority="590">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27:S30">
+    <cfRule type="colorScale" priority="592">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27:T30">
+    <cfRule type="colorScale" priority="594">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27:U30">
+    <cfRule type="colorScale" priority="596">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:I14 K14:U14">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:I15 K15:U15">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:I16 K16:U16">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:I17 K17:U17">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:I18 K18:U18">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:I19 K19:U19">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:I20 K20:U20">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:I21 K21:U21">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H22">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I22">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K22">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L22">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M22">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:N22">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:O22">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14:P22">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14:Q22">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14:R22">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14:S22">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14:T22">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14:U22">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H21">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I21">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J21">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L21">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M21">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14:U21">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H23">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I23">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -12098,7 +12564,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:I13 K13:U13">
+  <conditionalFormatting sqref="J14:J23">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -12110,7 +12576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:I14 K14:U14">
+  <conditionalFormatting sqref="K14:K23">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -12122,7 +12588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:I15 K15:U15">
+  <conditionalFormatting sqref="L14:L23">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -12134,7 +12600,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:I16 K16:U16">
+  <conditionalFormatting sqref="M14:M23">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -12146,7 +12612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:I17 K17:U17">
+  <conditionalFormatting sqref="N14:N23">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -12158,7 +12624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:I18 K18:U18">
+  <conditionalFormatting sqref="O14:O23">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -12170,7 +12636,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:I19 K19:U19">
+  <conditionalFormatting sqref="P14:P23">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -12182,7 +12648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H20">
+  <conditionalFormatting sqref="Q14:Q23">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -12194,7 +12660,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I20">
+  <conditionalFormatting sqref="R14:R23">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -12206,7 +12672,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="S14:S23">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -12218,7 +12684,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K20">
+  <conditionalFormatting sqref="T14:T23">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -12230,7 +12696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L20">
+  <conditionalFormatting sqref="U14:U23">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -12242,7 +12708,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M20">
+  <conditionalFormatting sqref="H14:H25">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -12254,7 +12720,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N20">
+  <conditionalFormatting sqref="I14:I25">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -12266,7 +12732,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O20">
+  <conditionalFormatting sqref="J14:J25">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -12278,7 +12744,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P20">
+  <conditionalFormatting sqref="K14:K25">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -12290,7 +12756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q20">
+  <conditionalFormatting sqref="L14:L25">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -12302,7 +12768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R20">
+  <conditionalFormatting sqref="M14:M25">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -12314,7 +12780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S20">
+  <conditionalFormatting sqref="N14:N25">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -12326,7 +12792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:T20">
+  <conditionalFormatting sqref="O14:O25">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -12338,7 +12804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U20">
+  <conditionalFormatting sqref="P14:P25">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -12350,7 +12816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H19">
+  <conditionalFormatting sqref="Q14:Q25">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -12362,7 +12828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I19">
+  <conditionalFormatting sqref="R14:R25">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -12374,7 +12840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J19">
+  <conditionalFormatting sqref="S14:S25">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -12386,7 +12852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L19">
+  <conditionalFormatting sqref="T14:T25">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -12398,7 +12864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M19">
+  <conditionalFormatting sqref="U14:U25">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -12410,175 +12876,175 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U19">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H21">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I21">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J21">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K21">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L21">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M21">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N21">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O21">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P21">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q21">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R21">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S21">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T12:T21">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U21">
+  <conditionalFormatting sqref="H5:H10 H14:H30">
+    <cfRule type="colorScale" priority="647">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I10 I14:I30">
+    <cfRule type="colorScale" priority="650">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J10 J14:J30">
+    <cfRule type="colorScale" priority="653">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K10 K14:K30">
+    <cfRule type="colorScale" priority="656">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L10 L14:L30">
+    <cfRule type="colorScale" priority="659">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M10 M14:M30">
+    <cfRule type="colorScale" priority="662">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N10 N14:N30">
+    <cfRule type="colorScale" priority="665">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O10 O14:O30">
+    <cfRule type="colorScale" priority="668">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P10 P14:P30">
+    <cfRule type="colorScale" priority="671">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q10 Q14:Q30">
+    <cfRule type="colorScale" priority="674">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R10 R14:R30">
+    <cfRule type="colorScale" priority="677">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S10 S14:S30">
+    <cfRule type="colorScale" priority="680">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T10 T14:T30">
+    <cfRule type="colorScale" priority="683">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U10 U14:U30">
+    <cfRule type="colorScale" priority="686">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -12590,7 +13056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H23">
+  <conditionalFormatting sqref="I11:I12">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -12602,7 +13068,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I23">
+  <conditionalFormatting sqref="H11:U12">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J12">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -12614,7 +13092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J23">
+  <conditionalFormatting sqref="K11:K12">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -12626,7 +13104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K23">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -12638,7 +13116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L23">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -12650,7 +13128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M23">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -12662,7 +13140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N23">
+  <conditionalFormatting sqref="O11:O12">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -12674,7 +13152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O23">
+  <conditionalFormatting sqref="P11:P12">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -12686,7 +13164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P23">
+  <conditionalFormatting sqref="Q11:Q12">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -12698,7 +13176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q23">
+  <conditionalFormatting sqref="R11:R12">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -12710,7 +13188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R23">
+  <conditionalFormatting sqref="S11:S12">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -12722,7 +13200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S23">
+  <conditionalFormatting sqref="T11:T12">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -12734,7 +13212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:T23">
+  <conditionalFormatting sqref="U11:U12">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -12746,19 +13224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U23">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H28">
+  <conditionalFormatting sqref="H5:H30">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -12770,7 +13236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I28">
+  <conditionalFormatting sqref="I5:I30">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -12782,7 +13248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J28">
+  <conditionalFormatting sqref="J5:J30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -12794,7 +13260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K28">
+  <conditionalFormatting sqref="K5:K30">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -12806,7 +13272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L28">
+  <conditionalFormatting sqref="L5:L30">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -12818,7 +13284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M28">
+  <conditionalFormatting sqref="M5:M30">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -12830,7 +13296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N28">
+  <conditionalFormatting sqref="N5:N30">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -12842,7 +13308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O28">
+  <conditionalFormatting sqref="O5:O30">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -12854,7 +13320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P28">
+  <conditionalFormatting sqref="P5:P30">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -12866,7 +13332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q28">
+  <conditionalFormatting sqref="Q5:Q30">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -12878,7 +13344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R28">
+  <conditionalFormatting sqref="R5:R30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -12890,7 +13356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S28">
+  <conditionalFormatting sqref="S5:S30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -12902,7 +13368,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T28">
+  <conditionalFormatting sqref="T5:T30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12914,7 +13380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U28">
+  <conditionalFormatting sqref="U5:U30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="B4:AN51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:S21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,7 +3628,7 @@
   <dimension ref="C4:AO46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="20" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
-        <v>75533000</v>
+        <v>75633000</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>54</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="21" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <v>75533000</v>
+        <v>75633000</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>54</v>
@@ -9525,7 +9525,7 @@
   <dimension ref="C4:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10308,7 +10308,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="1">
-        <v>75533000</v>
+        <v>75633000</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>54</v>
@@ -10367,7 +10367,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="1">
-        <v>75533000</v>
+        <v>75633000</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>54</v>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>город Якутск</t>
   </si>
   <si>
-    <t>2021 (2023)</t>
-  </si>
-  <si>
     <t>город Махачкала</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>Павловский МР</t>
+  </si>
+  <si>
+    <t>2021 (2023</t>
   </si>
 </sst>
 </file>
@@ -310,18 +310,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -383,11 +377,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,10 +763,10 @@
       <c r="U4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="X4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="Y4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="Z4" s="2" t="s">
@@ -883,7 +877,7 @@
         <v>155.1901168112586</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X5" s="1">
         <v>20</v>
@@ -979,7 +973,7 @@
         <v>121.75934634857801</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X6" s="1">
         <v>-66</v>
@@ -1148,7 +1142,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>47</v>
@@ -1709,7 +1703,7 @@
         <v>1630000</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>41</v>
@@ -1765,7 +1759,7 @@
         <v>1630000</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>42</v>
@@ -3627,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AO46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4227,10 +4221,10 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1">
         <v>-2905</v>
@@ -4253,21 +4247,29 @@
       <c r="L10" s="5">
         <v>4.5855167557402607</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="19">
+        <v>19.899999999999999</v>
+      </c>
       <c r="N10" s="5">
         <v>5.8884904434141846E-4</v>
       </c>
       <c r="O10" s="5">
         <v>3.3173638557943965E-3</v>
       </c>
-      <c r="P10" s="18"/>
+      <c r="P10" s="19">
+        <f>700/G10</f>
+        <v>9.4975652313132011E-4</v>
+      </c>
       <c r="Q10" s="5">
         <v>2.932983822932821E-2</v>
       </c>
       <c r="R10" s="5">
         <v>3.6260347258120759E-2</v>
       </c>
-      <c r="S10" s="18"/>
+      <c r="S10" s="19">
+        <f>486980/G10</f>
+        <v>0.66073204519212891</v>
+      </c>
       <c r="T10" s="5">
         <v>1.1397078277575842E-4</v>
       </c>
@@ -4357,7 +4359,7 @@
       </c>
       <c r="M13" s="5">
         <f>AVERAGE(M5:M10)</f>
-        <v>26.703999999999997</v>
+        <v>25.569999999999997</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="1"/>
@@ -4369,7 +4371,7 @@
       </c>
       <c r="P13" s="5">
         <f>AVERAGE(P5:P10)</f>
-        <v>7.4184373684463385E-3</v>
+        <v>6.340323894227169E-3</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="1"/>
@@ -4381,7 +4383,7 @@
       </c>
       <c r="S13" s="5">
         <f>AVERAGE(S5:S10)</f>
-        <v>57.296383618685958</v>
+        <v>47.857108356436981</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="1"/>
@@ -5623,7 +5625,7 @@
         <v>82701000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>41</v>
@@ -5677,7 +5679,7 @@
         <v>82701000</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>41</v>
@@ -5733,7 +5735,7 @@
         <v>82701000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>42</v>
@@ -5787,7 +5789,7 @@
         <v>82701000</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>42</v>
@@ -7665,7 +7667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AL42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -9524,7 +9526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -9957,7 +9959,7 @@
         <v>1630000</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>41</v>
@@ -10016,7 +10018,7 @@
         <v>1630000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>42</v>
@@ -10665,7 +10667,7 @@
         <v>82701000</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>41</v>
@@ -10724,7 +10726,7 @@
         <v>82701000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>42</v>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="67">
   <si>
     <t>saldo</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>2021 (2023</t>
+  </si>
+  <si>
+    <t>Кирово-Чепецкий МР</t>
   </si>
 </sst>
 </file>
@@ -665,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AN51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1159,7 @@
       <c r="G8" s="7">
         <v>0.18283601936067231</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>18826</v>
       </c>
       <c r="I8" s="7">
@@ -1200,96 +1203,173 @@
       </c>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-38.999999999999908</v>
+      </c>
+      <c r="F9" s="1">
+        <v>21891.999999999989</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.14461903891832631</v>
+      </c>
+      <c r="H9" s="6">
+        <v>20769.6528</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.36687374383336369</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.5945550886168449E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>19.961182188927459</v>
+      </c>
+      <c r="L9" s="5">
+        <v>30.8</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2.7407272062853838E-3</v>
+      </c>
+      <c r="N9" s="5">
+        <v>9.5925452219988597E-4</v>
+      </c>
+      <c r="O9" s="5">
+        <v>4.4765211035994859E-2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>3.1927188013886352</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>3.848124429015165</v>
+      </c>
+      <c r="R9" s="5">
+        <v>94.431707217248274</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1.004933308971312E-3</v>
+      </c>
+      <c r="T9" s="5">
+        <v>4.7368901881966012E-2</v>
+      </c>
+      <c r="U9" s="5">
+        <v>125.0623010670564</v>
+      </c>
       <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="X10" s="7"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="5">
-        <f>AVERAGE(F5:F8)</f>
-        <v>47356.499999999993</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" ref="G10:U10" si="2">AVERAGE(G5:G8)</f>
-        <v>0.18582073735790614</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="F11" s="5">
+        <f>AVERAGE(F5:F9)</f>
+        <v>42263.599999999991</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11:U11" si="2">AVERAGE(G5:G9)</f>
+        <v>0.17758039766999018</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
-        <v>24882.507857500001</v>
-      </c>
-      <c r="I10" s="5">
+        <v>24059.936846000001</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="2"/>
-        <v>1.0604236941267835</v>
-      </c>
-      <c r="J10" s="5">
+        <v>0.9217137040680996</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="2"/>
-        <v>3.5260387238947338E-2</v>
-      </c>
-      <c r="K10" s="5">
+        <v>3.3397419968391559E-2</v>
+      </c>
+      <c r="K11" s="5">
         <f t="shared" si="2"/>
-        <v>45.228801471648019</v>
-      </c>
-      <c r="L10" s="5">
+        <v>40.175277615103909</v>
+      </c>
+      <c r="L11" s="5">
         <f t="shared" si="2"/>
-        <v>33.8125</v>
-      </c>
-      <c r="M10" s="5">
+        <v>33.21</v>
+      </c>
+      <c r="M11" s="5">
         <f t="shared" si="2"/>
-        <v>3.406414285282613E-3</v>
-      </c>
-      <c r="N10" s="5">
+        <v>3.2732768694831672E-3</v>
+      </c>
+      <c r="N11" s="5">
         <f t="shared" si="2"/>
-        <v>5.0880699667554333E-3</v>
-      </c>
-      <c r="O10" s="5">
+        <v>4.2623068778443237E-3</v>
+      </c>
+      <c r="O11" s="5">
         <f t="shared" si="2"/>
-        <v>1.236395952990306E-2</v>
-      </c>
-      <c r="P10" s="5">
+        <v>1.8844209831121419E-2</v>
+      </c>
+      <c r="P11" s="5">
         <f t="shared" si="2"/>
-        <v>18.878016792287745</v>
-      </c>
-      <c r="Q10" s="5">
+        <v>15.740957194107924</v>
+      </c>
+      <c r="Q11" s="5">
         <f t="shared" si="2"/>
-        <v>1.1808135451957595</v>
-      </c>
-      <c r="R10" s="5">
+        <v>1.7142757219596405</v>
+      </c>
+      <c r="R11" s="5">
         <f t="shared" si="2"/>
-        <v>61.237018487264521</v>
-      </c>
-      <c r="S10" s="5">
+        <v>67.875956233261277</v>
+      </c>
+      <c r="S11" s="5">
         <f t="shared" si="2"/>
-        <v>7.563808193216347E-4</v>
-      </c>
-      <c r="T10" s="5">
+        <v>8.0609131725157027E-4</v>
+      </c>
+      <c r="T11" s="5">
         <f t="shared" si="2"/>
-        <v>5.9396509856826145E-2</v>
-      </c>
-      <c r="U10" s="5">
+        <v>5.6990988261854114E-2</v>
+      </c>
+      <c r="U11" s="5">
         <f t="shared" si="2"/>
-        <v>190.75217406689228</v>
-      </c>
-      <c r="X10" s="7"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+        <v>177.6141994669251</v>
+      </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
@@ -1811,36 +1891,116 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="B22" s="1">
+        <v>33618000</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4.514E-2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>6.9339999999999999E-2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5.6640000000000003E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3.7350000000000001E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>4.5319999999999999E-2</v>
+      </c>
+      <c r="K22" s="7">
+        <v>2.5250000000000002E-2</v>
+      </c>
+      <c r="L22" s="7">
+        <v>5.8169999999999999E-2</v>
+      </c>
+      <c r="M22" s="7">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>6.3E-2</v>
+      </c>
+      <c r="O22" s="7">
+        <v>6.3839999999999994E-2</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0.10034</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0.12164</v>
+      </c>
+      <c r="S22" s="7">
+        <v>9.3799999999999994E-2</v>
+      </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="B23" s="1">
+        <v>33618000</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5.1479999999999998E-2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4.0340000000000001E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>4.2880000000000001E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <v>5.0840000000000003E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <v>8.5750000000000007E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6.9339999999999999E-2</v>
+      </c>
+      <c r="O23" s="7">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0.1323</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>8.48E-2</v>
+      </c>
+      <c r="R23" s="7">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="S23" s="7">
+        <v>6.8540000000000004E-2</v>
+      </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F24" s="10"/>
@@ -1869,60 +2029,60 @@
         <v>41</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" ref="F25:S25" si="3">AVERAGE(F14,F16,F18)</f>
-        <v>5.213333333333333E-2</v>
+        <f>AVERAGE(F14,F16,F18,F20,F22)</f>
+        <v>4.8851999999999993E-2</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="3"/>
-        <v>6.4576666666666671E-2</v>
+        <f t="shared" ref="G25:S25" si="3">AVERAGE(G14,G16,G18,G20,G22)</f>
+        <v>6.6384000000000012E-2</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="3"/>
-        <v>6.253333333333333E-2</v>
+        <v>6.3287999999999997E-2</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="3"/>
-        <v>5.1436666666666665E-2</v>
+        <v>5.1112000000000005E-2</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="3"/>
-        <v>4.1926666666666668E-2</v>
+        <v>4.2570000000000004E-2</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>4.1723333333333334E-2</v>
+        <v>3.6932E-2</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="3"/>
-        <v>6.3886666666666661E-2</v>
+        <v>5.9919999999999994E-2</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="3"/>
-        <v>7.9390000000000002E-2</v>
+        <v>7.7354000000000006E-2</v>
       </c>
       <c r="N25" s="7">
         <f t="shared" si="3"/>
-        <v>7.9616666666666669E-2</v>
+        <v>7.6800000000000007E-2</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="3"/>
-        <v>7.1313333333333326E-2</v>
+        <v>7.0716000000000001E-2</v>
       </c>
       <c r="P25" s="7">
         <f t="shared" si="3"/>
-        <v>0.13803333333333334</v>
+        <v>0.13745000000000002</v>
       </c>
       <c r="Q25" s="7">
         <f t="shared" si="3"/>
-        <v>8.2246666666666676E-2</v>
+        <v>8.2867999999999997E-2</v>
       </c>
       <c r="R25" s="7">
         <f t="shared" si="3"/>
-        <v>9.3286666666666671E-2</v>
+        <v>0.10084</v>
       </c>
       <c r="S25" s="7">
         <f t="shared" si="3"/>
-        <v>7.7900000000000011E-2</v>
+        <v>8.4920000000000009E-2</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -1936,60 +2096,60 @@
         <v>42</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" ref="F26:S26" si="4">AVERAGE(F15,F17,F19)</f>
-        <v>5.8786666666666675E-2</v>
+        <f>AVERAGE(F15,F17,F19,F21,F23)</f>
+        <v>5.5567999999999992E-2</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="4"/>
-        <v>7.3133333333333342E-2</v>
+        <f t="shared" ref="G26:S26" si="4">AVERAGE(G15,G17,G19,G21,G23)</f>
+        <v>7.4520000000000003E-2</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="4"/>
-        <v>7.0389999999999994E-2</v>
+        <v>7.077399999999999E-2</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
-        <v>5.643666666666667E-2</v>
+        <v>5.7190000000000005E-2</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="4"/>
-        <v>4.548E-2</v>
+        <v>4.7094000000000004E-2</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="4"/>
-        <v>4.9193333333333332E-2</v>
+        <v>4.8735999999999995E-2</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" si="4"/>
-        <v>7.3390000000000011E-2</v>
+        <v>7.2798000000000002E-2</v>
       </c>
       <c r="M26" s="7">
         <f t="shared" si="4"/>
-        <v>8.5283333333333336E-2</v>
+        <v>8.3370000000000014E-2</v>
       </c>
       <c r="N26" s="7">
         <f t="shared" si="4"/>
-        <v>7.925666666666667E-2</v>
+        <v>7.7202000000000007E-2</v>
       </c>
       <c r="O26" s="7">
         <f t="shared" si="4"/>
-        <v>7.2669999999999998E-2</v>
+        <v>7.1142000000000011E-2</v>
       </c>
       <c r="P26" s="7">
         <f t="shared" si="4"/>
-        <v>0.12848000000000001</v>
+        <v>0.125668</v>
       </c>
       <c r="Q26" s="7">
         <f t="shared" si="4"/>
-        <v>7.5680000000000011E-2</v>
+        <v>7.4862000000000012E-2</v>
       </c>
       <c r="R26" s="7">
         <f t="shared" si="4"/>
-        <v>7.4096666666666658E-2</v>
+        <v>7.9177999999999998E-2</v>
       </c>
       <c r="S26" s="7">
         <f t="shared" si="4"/>
-        <v>5.7723333333333328E-2</v>
+        <v>6.1881999999999993E-2</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
@@ -3097,6 +3257,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:S14">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:S15">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -3108,7 +3280,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:S15">
+  <conditionalFormatting sqref="F16:S16">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -3120,7 +3292,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:S16">
+  <conditionalFormatting sqref="F17:S17">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -3132,20 +3304,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:S17">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F18:S18">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3157,7 +3317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:S19">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3169,6 +3329,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H35">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:K35">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -3180,7 +3352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K35">
+  <conditionalFormatting sqref="P31:P35">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -3192,7 +3364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:P35">
+  <conditionalFormatting sqref="Q31:Q35">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -3204,7 +3376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q31:Q35">
+  <conditionalFormatting sqref="R31:R35">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -3216,7 +3388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R31:R35">
+  <conditionalFormatting sqref="U31:U35">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -3228,19 +3400,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U31:U35">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H41:H43">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H43">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3252,7 +3424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H43">
+  <conditionalFormatting sqref="U39:U43">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3264,7 +3436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U39:U43">
+  <conditionalFormatting sqref="R39:R43">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3276,7 +3448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R39:R43">
+  <conditionalFormatting sqref="Q39:Q43">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3288,7 +3460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q39:Q43">
+  <conditionalFormatting sqref="K39:K43">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -3300,7 +3472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K43">
+  <conditionalFormatting sqref="P39:P43">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3312,7 +3484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P39:P43">
+  <conditionalFormatting sqref="H47:H51">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3324,7 +3496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H51">
+  <conditionalFormatting sqref="K47:K51">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3336,7 +3508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:K51">
+  <conditionalFormatting sqref="U47:U51">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -3348,7 +3520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U47:U51">
+  <conditionalFormatting sqref="P47:P51">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3360,7 +3532,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P47:P51">
+  <conditionalFormatting sqref="Q47:Q51">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3372,7 +3544,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q47:Q51">
+  <conditionalFormatting sqref="R47:R51">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3384,19 +3556,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R47:R51">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F14:F21">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G21">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3408,7 +3580,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G21">
+  <conditionalFormatting sqref="F14:S15">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:S17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:S19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:S21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H21">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3420,188 +3640,140 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:S15">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:S17">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18:S19">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:S21">
+  <conditionalFormatting sqref="I14:I21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J21">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L21">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:N21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:O21">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14:P21">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14:Q21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14:R21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14:S21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:S23">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H21">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I21">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J21">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K21">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L21">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M21">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N21">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O21">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q21">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R21">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14:S21">
-    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3621,8 +3793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7667,8 +7839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AL42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="68">
   <si>
     <t>saldo</t>
   </si>
@@ -225,6 +225,9 @@
   <si>
     <t>Кирово-Чепецкий МР</t>
   </si>
+  <si>
+    <t>город Курск</t>
+  </si>
 </sst>
 </file>
 
@@ -333,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,6 +387,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,64 +1215,64 @@
       </c>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="21">
         <v>2020</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="21">
         <v>-38.999999999999908</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="21">
         <v>21891.999999999989</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="19">
         <v>0.14461903891832631</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="22">
         <v>20769.6528</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="19">
         <v>0.36687374383336369</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="19">
         <v>2.5945550886168449E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="19">
         <v>19.961182188927459</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="19">
         <v>30.8</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="19">
         <v>2.7407272062853838E-3</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="19">
         <v>9.5925452219988597E-4</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="19">
         <v>4.4765211035994859E-2</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="19">
         <v>3.1927188013886352</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="19">
         <v>3.848124429015165</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="19">
         <v>94.431707217248274</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="19">
         <v>1.004933308971312E-3</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="19">
         <v>4.7368901881966012E-2</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="19">
         <v>125.0623010670564</v>
       </c>
       <c r="X9" s="7"/>
@@ -3794,7 +3806,7 @@
   <dimension ref="C4:AO46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7839,8 +7851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AL42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7856,6 +7868,8 @@
     <col min="22" max="22" width="12.140625" customWidth="1"/>
     <col min="23" max="23" width="18" customWidth="1"/>
     <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" customWidth="1"/>
+    <col min="38" max="38" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:38" x14ac:dyDescent="0.25">
@@ -7919,51 +7933,21 @@
       <c r="V4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
     </row>
     <row r="5" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -8026,64 +8010,21 @@
       <c r="V5" s="1">
         <v>153.74505778284589</v>
       </c>
-      <c r="X5" s="1">
-        <f>$G5*H5</f>
-        <v>13534.999999999998</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>24720.091919999999</v>
-      </c>
-      <c r="Z5" s="1">
-        <f t="shared" ref="Z5:AL5" si="0">$G5*J5</f>
-        <v>69644.699999999983</v>
-      </c>
-      <c r="AA5" s="1">
-        <f t="shared" si="0"/>
-        <v>1580.9999999999986</v>
-      </c>
-      <c r="AB5" s="1">
-        <f t="shared" si="0"/>
-        <v>2766779.2987199994</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>28.7</v>
-      </c>
-      <c r="AD5" s="1">
-        <f t="shared" si="0"/>
-        <v>561.99999999999648</v>
-      </c>
-      <c r="AE5" s="1">
-        <f t="shared" si="0"/>
-        <v>220.99999999999903</v>
-      </c>
-      <c r="AF5" s="1">
-        <f t="shared" si="0"/>
-        <v>907.09999999999934</v>
-      </c>
-      <c r="AG5" s="1">
-        <f t="shared" si="0"/>
-        <v>98786.999999999854</v>
-      </c>
-      <c r="AH5" s="1">
-        <f t="shared" si="0"/>
-        <v>57167.399999999987</v>
-      </c>
-      <c r="AI5" s="1">
-        <f t="shared" si="0"/>
-        <v>1940630.0327999983</v>
-      </c>
-      <c r="AJ5" s="1">
-        <f t="shared" si="0"/>
-        <v>63.999999999999829</v>
-      </c>
-      <c r="AK5" s="1">
-        <f t="shared" si="0"/>
-        <v>5165.9999999999991</v>
-      </c>
-      <c r="AL5" s="1">
-        <f t="shared" si="0"/>
-        <v>13212696.520799993</v>
-      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
     </row>
     <row r="6" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -8146,192 +8087,168 @@
       <c r="V6" s="1">
         <v>33.696300743477607</v>
       </c>
-      <c r="X6" s="1">
-        <f>$G6*H6</f>
-        <v>5155.9999999999991</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>21819.183840000002</v>
-      </c>
-      <c r="Z6" s="1">
-        <f t="shared" ref="Z6" si="1">$G6*J6</f>
-        <v>19224.699999999993</v>
-      </c>
-      <c r="AA6" s="1">
-        <f t="shared" ref="AA6" si="2">$G6*K6</f>
-        <v>1531.9999999999989</v>
-      </c>
-      <c r="AB6" s="1">
-        <f t="shared" ref="AB6" si="3">$G6*L6</f>
-        <v>1035531.3779999996</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>29.9</v>
-      </c>
-      <c r="AD6" s="1">
-        <f t="shared" ref="AD6" si="4">$G6*N6</f>
-        <v>168.99999999999895</v>
-      </c>
-      <c r="AE6" s="1">
-        <f t="shared" ref="AE6" si="5">$G6*O6</f>
-        <v>103.99999999999957</v>
-      </c>
-      <c r="AF6" s="1">
-        <f t="shared" ref="AF6" si="6">$G6*P6</f>
-        <v>628.8999999999993</v>
-      </c>
-      <c r="AG6" s="1">
-        <f t="shared" ref="AG6" si="7">$G6*Q6</f>
-        <v>127078.9999999999</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" ref="AH6" si="8">$G6*R6</f>
-        <v>22163.970000000005</v>
-      </c>
-      <c r="AI6" s="1">
-        <f t="shared" ref="AI6" si="9">$G6*S6</f>
-        <v>2508274.0583999977</v>
-      </c>
-      <c r="AJ6" s="1">
-        <f t="shared" ref="AJ6" si="10">$G6*T6</f>
-        <v>71.999999999999844</v>
-      </c>
-      <c r="AK6" s="1">
-        <f t="shared" ref="AK6" si="11">$G6*U6</f>
-        <v>2200.9999999999991</v>
-      </c>
-      <c r="AL6" s="1">
-        <f t="shared" ref="AL6" si="12">$G6*V6</f>
-        <v>1495644.004799997</v>
-      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
     </row>
     <row r="7" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1897</v>
+      </c>
       <c r="G7" s="1">
-        <f>AVERAGE(G5:G6)</f>
-        <v>65162.5</v>
-      </c>
-      <c r="X7" s="1">
-        <f>AVERAGE(X5:X6)</f>
-        <v>9345.4999999999982</v>
-      </c>
-      <c r="Y7" s="1">
-        <f t="shared" ref="Y7:AL7" si="13">AVERAGE(Y5:Y6)</f>
-        <v>23269.637880000002</v>
-      </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="13"/>
-        <v>44434.69999999999</v>
-      </c>
-      <c r="AA7" s="1">
-        <f t="shared" si="13"/>
-        <v>1556.4999999999986</v>
-      </c>
-      <c r="AB7" s="1">
-        <f t="shared" si="13"/>
-        <v>1901155.3383599995</v>
-      </c>
-      <c r="AC7" s="1">
-        <f t="shared" si="13"/>
-        <v>29.299999999999997</v>
-      </c>
-      <c r="AD7" s="1">
-        <f t="shared" si="13"/>
-        <v>365.49999999999773</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" si="13"/>
-        <v>162.49999999999932</v>
-      </c>
-      <c r="AF7" s="1">
-        <f t="shared" si="13"/>
-        <v>767.99999999999932</v>
-      </c>
-      <c r="AG7" s="1">
-        <f t="shared" si="13"/>
-        <v>112932.99999999988</v>
-      </c>
-      <c r="AH7" s="1">
-        <f t="shared" si="13"/>
-        <v>39665.684999999998</v>
-      </c>
-      <c r="AI7" s="1">
-        <f t="shared" si="13"/>
-        <v>2224452.045599998</v>
-      </c>
-      <c r="AJ7" s="1">
-        <f t="shared" si="13"/>
-        <v>67.999999999999829</v>
-      </c>
-      <c r="AK7" s="1">
-        <f t="shared" si="13"/>
-        <v>3683.4999999999991</v>
-      </c>
-      <c r="AL7" s="1">
-        <f t="shared" si="13"/>
-        <v>7354170.262799995</v>
-      </c>
+        <v>447387</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.24330836613491227</v>
+      </c>
+      <c r="I7" s="1">
+        <v>25219.131849999998</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.89471419598691959</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.7714260807757043E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>97.734390398134039</v>
+      </c>
+      <c r="M7" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.2517127229892688E-3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.3455911772134639E-3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.6786361695802516E-3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>9.9645273555109999E-3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.13614680355039371</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1.272602612503269</v>
+      </c>
+      <c r="T7" s="1">
+        <v>6.482083744051571E-4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3.6592480335816642E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>230.88501684045355</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
     </row>
     <row r="8" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="W8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="X8" s="14">
-        <f>X7/$G7</f>
-        <v>0.14341837713408784</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>23269.637880000002</v>
-      </c>
-      <c r="Z8" s="14">
-        <f t="shared" ref="Z8:AL8" si="14">Z7/$G7</f>
-        <v>0.68190600422021852</v>
-      </c>
-      <c r="AA8" s="14">
-        <f t="shared" si="14"/>
-        <v>2.3886437751774389E-2</v>
-      </c>
-      <c r="AB8" s="14">
-        <f t="shared" si="14"/>
-        <v>29.17560465543832</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>29.299999999999997</v>
-      </c>
-      <c r="AD8" s="14">
-        <f t="shared" si="14"/>
-        <v>5.6090542873584916E-3</v>
-      </c>
-      <c r="AE8" s="14">
-        <f t="shared" si="14"/>
-        <v>2.4937655860349022E-3</v>
-      </c>
-      <c r="AF8" s="14">
-        <f t="shared" si="14"/>
-        <v>1.1785919815844993E-2</v>
-      </c>
-      <c r="AG8" s="14">
-        <f t="shared" si="14"/>
-        <v>1.7330980241703415</v>
-      </c>
-      <c r="AH8" s="14">
-        <f t="shared" si="14"/>
-        <v>0.60871950892000759</v>
-      </c>
-      <c r="AI8" s="14">
-        <f t="shared" si="14"/>
-        <v>34.136996671398393</v>
-      </c>
-      <c r="AJ8" s="14">
-        <f t="shared" si="14"/>
-        <v>1.0435449836946071E-3</v>
-      </c>
-      <c r="AK8" s="14">
-        <f t="shared" si="14"/>
-        <v>5.6527910991751376E-2</v>
-      </c>
-      <c r="AL8" s="14">
-        <f t="shared" si="14"/>
-        <v>112.85893363207359</v>
+      <c r="W8" s="13"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+    </row>
+    <row r="10" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="V10" s="1">
+        <v>-1897</v>
+      </c>
+      <c r="W10" s="1">
+        <v>447387</v>
+      </c>
+      <c r="X10" s="1">
+        <v>108853</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>25219.131849999998</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>400283.5</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>12399</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>43725095.717049994</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>560</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>602</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>751</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>4458</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>60910.31</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>569345.86499999999</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>290</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>16371</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>103294955.02919999</v>
       </c>
     </row>
     <row r="12" spans="3:38" x14ac:dyDescent="0.25">
@@ -8389,6 +8306,65 @@
       <c r="T12" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1">
+        <f>X10/$W10</f>
+        <v>0.24330836613491227</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>25219.131849999998</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" ref="Y12:AL12" si="0">Z10/$W10</f>
+        <v>0.89471419598691959</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7714260807757043E-2</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="0"/>
+        <v>97.734390398134039</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2517127229892688E-3</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3455911772134639E-3</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6786361695802516E-3</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9645273555109999E-3</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13614680355039371</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.272602612503269</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.482083744051571E-4</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6592480335816642E-2</v>
+      </c>
+      <c r="AL12" s="1">
+        <f t="shared" si="0"/>
+        <v>230.88501684045355</v>
+      </c>
     </row>
     <row r="13" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
@@ -8503,20 +8479,60 @@
       </c>
     </row>
     <row r="15" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="C15" s="1">
+        <v>80601000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G15" s="7">
+        <v>7.2270000000000001E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8.7160000000000001E-2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>5.79E-2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>4.1930000000000002E-2</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6.2469999999999998E-2</v>
+      </c>
+      <c r="O15" s="7">
+        <v>6.2560000000000004E-2</v>
+      </c>
+      <c r="P15" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="R15" s="7">
+        <v>8.5139999999999993E-2</v>
+      </c>
+      <c r="S15" s="7">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="T15" s="7">
+        <v>4.8500000000000001E-2</v>
+      </c>
     </row>
     <row r="16" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
@@ -8526,241 +8542,297 @@
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1">
         <v>2020</v>
       </c>
       <c r="G16" s="7">
-        <v>7.2270000000000001E-2</v>
+        <v>7.2139999999999996E-2</v>
       </c>
       <c r="H16" s="7">
-        <v>8.7160000000000001E-2</v>
+        <v>8.6360000000000006E-2</v>
       </c>
       <c r="I16" s="7">
+        <v>8.2460000000000006E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5.8470000000000001E-2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>6.5250000000000002E-2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="M16" s="7">
         <v>8.0140000000000003E-2</v>
       </c>
-      <c r="J16" s="7">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="K16" s="7">
-        <v>5.79E-2</v>
-      </c>
-      <c r="L16" s="7">
-        <v>4.1930000000000002E-2</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6.9599999999999995E-2</v>
-      </c>
       <c r="N16" s="7">
-        <v>6.2469999999999998E-2</v>
+        <v>7.0860000000000006E-2</v>
       </c>
       <c r="O16" s="7">
-        <v>6.2560000000000004E-2</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="P16" s="7">
-        <v>5.91E-2</v>
+        <v>5.8779999999999999E-2</v>
       </c>
       <c r="Q16" s="7">
-        <v>0.14610000000000001</v>
+        <v>0.1333</v>
       </c>
       <c r="R16" s="7">
-        <v>8.5139999999999993E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="S16" s="7">
-        <v>7.1900000000000006E-2</v>
+        <v>6.1650000000000003E-2</v>
       </c>
       <c r="T16" s="7">
-        <v>4.8500000000000001E-2</v>
+        <v>3.5639999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
-        <v>80601000</v>
+        <v>38701000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G17" s="7">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5.475E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4.8550000000000003E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>4.9930000000000002E-2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>9.2039999999999997E-2</v>
+      </c>
+      <c r="O17" s="7">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="P17" s="7">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.12427000000000001</v>
+      </c>
+      <c r="R17" s="7">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="S17" s="7">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="T17" s="7">
+        <v>8.7340000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>38701000</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G17" s="7">
-        <v>7.2139999999999996E-2</v>
-      </c>
-      <c r="H17" s="7">
-        <v>8.6360000000000006E-2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>8.2460000000000006E-2</v>
-      </c>
-      <c r="J17" s="7">
-        <v>5.8470000000000001E-2</v>
-      </c>
-      <c r="K17" s="7">
-        <v>6.5250000000000002E-2</v>
-      </c>
-      <c r="L17" s="7">
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="M17" s="7">
-        <v>8.0140000000000003E-2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>7.0860000000000006E-2</v>
-      </c>
-      <c r="O17" s="7">
-        <v>5.8900000000000001E-2</v>
-      </c>
-      <c r="P17" s="7">
-        <v>5.8779999999999999E-2</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0.1333</v>
-      </c>
-      <c r="R17" s="7">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="S17" s="7">
-        <v>6.1650000000000003E-2</v>
-      </c>
-      <c r="T17" s="7">
-        <v>3.5639999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
+      <c r="F18" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5.4960000000000002E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6.744E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6.1460000000000001E-2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>4.82E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>5.2060000000000002E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="O18" s="7">
+        <v>8.4839999999999999E-2</v>
+      </c>
+      <c r="P18" s="7">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="R18" s="7">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="S18" s="7">
+        <v>7.1529999999999996E-2</v>
+      </c>
+      <c r="T18" s="7">
+        <v>5.9630000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
-        <f>AVERAGE(G13,G16)</f>
+      <c r="G21" s="7">
+        <f>AVERAGE(G13,G15)</f>
         <v>6.4700000000000008E-2</v>
       </c>
-      <c r="H19" s="7">
-        <f t="shared" ref="H19:T20" si="15">AVERAGE(H13,H16)</f>
+      <c r="H21" s="7">
+        <f>AVERAGE(H13,H15)</f>
         <v>7.6755000000000004E-2</v>
       </c>
-      <c r="I19" s="7">
-        <f t="shared" si="15"/>
+      <c r="I21" s="7">
+        <f>AVERAGE(I13,I15)</f>
         <v>7.2770000000000001E-2</v>
       </c>
-      <c r="J19" s="7">
-        <f t="shared" si="15"/>
+      <c r="J21" s="7">
+        <f>AVERAGE(J13,J15)</f>
         <v>5.1635E-2</v>
       </c>
-      <c r="K19" s="7">
-        <f t="shared" si="15"/>
+      <c r="K21" s="7">
+        <f>AVERAGE(K13,K15)</f>
         <v>5.3030000000000001E-2</v>
       </c>
-      <c r="L19" s="7">
-        <f t="shared" si="15"/>
+      <c r="L21" s="7">
+        <f>AVERAGE(L13,L15)</f>
         <v>4.3840000000000004E-2</v>
       </c>
-      <c r="M19" s="7">
-        <f t="shared" si="15"/>
+      <c r="M21" s="7">
+        <f>AVERAGE(M13,M15)</f>
         <v>7.1330000000000005E-2</v>
       </c>
-      <c r="N19" s="7">
-        <f t="shared" si="15"/>
+      <c r="N21" s="7">
+        <f>AVERAGE(N13,N15)</f>
         <v>6.6484999999999989E-2</v>
       </c>
-      <c r="O19" s="7">
-        <f t="shared" si="15"/>
+      <c r="O21" s="7">
+        <f>AVERAGE(O13,O15)</f>
         <v>6.4129999999999993E-2</v>
       </c>
-      <c r="P19" s="7">
-        <f t="shared" si="15"/>
+      <c r="P21" s="7">
+        <f>AVERAGE(P13,P15)</f>
         <v>6.0264999999999999E-2</v>
       </c>
-      <c r="Q19" s="7">
-        <f t="shared" si="15"/>
+      <c r="Q21" s="7">
+        <f>AVERAGE(Q13,Q15)</f>
         <v>0.14635000000000001</v>
       </c>
-      <c r="R19" s="7">
-        <f t="shared" si="15"/>
+      <c r="R21" s="7">
+        <f>AVERAGE(R13,R15)</f>
         <v>8.7889999999999996E-2</v>
       </c>
-      <c r="S19" s="7">
-        <f t="shared" si="15"/>
+      <c r="S21" s="7">
+        <f>AVERAGE(S13,S15)</f>
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="T19" s="7">
-        <f t="shared" si="15"/>
+      <c r="T21" s="7">
+        <f>AVERAGE(T13,T15)</f>
         <v>6.1100000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="7">
-        <f>AVERAGE(G14,G17)</f>
+      <c r="G22" s="7">
+        <f>AVERAGE(G14,G16)</f>
         <v>6.7019999999999996E-2</v>
       </c>
-      <c r="H20" s="7">
-        <f t="shared" si="15"/>
+      <c r="H22" s="7">
+        <f>AVERAGE(H14,H16)</f>
         <v>7.9080000000000011E-2</v>
       </c>
-      <c r="I20" s="7">
-        <f t="shared" si="15"/>
+      <c r="I22" s="7">
+        <f>AVERAGE(I14,I16)</f>
         <v>7.578E-2</v>
       </c>
-      <c r="J20" s="7">
-        <f t="shared" si="15"/>
+      <c r="J22" s="7">
+        <f>AVERAGE(J14,J16)</f>
         <v>5.4855000000000001E-2</v>
       </c>
-      <c r="K20" s="7">
-        <f t="shared" si="15"/>
+      <c r="K22" s="7">
+        <f>AVERAGE(K14,K16)</f>
         <v>5.4855000000000001E-2</v>
       </c>
-      <c r="L20" s="7">
-        <f t="shared" si="15"/>
+      <c r="L22" s="7">
+        <f>AVERAGE(L14,L16)</f>
         <v>6.8769999999999998E-2</v>
       </c>
-      <c r="M20" s="7">
-        <f t="shared" si="15"/>
+      <c r="M22" s="7">
+        <f>AVERAGE(M14,M16)</f>
         <v>8.702E-2</v>
       </c>
-      <c r="N20" s="7">
-        <f t="shared" si="15"/>
+      <c r="N22" s="7">
+        <f>AVERAGE(N14,N16)</f>
         <v>7.2995000000000004E-2</v>
       </c>
-      <c r="O20" s="7">
-        <f t="shared" si="15"/>
+      <c r="O22" s="7">
+        <f>AVERAGE(O14,O16)</f>
         <v>6.1249999999999999E-2</v>
       </c>
-      <c r="P20" s="7">
-        <f t="shared" si="15"/>
+      <c r="P22" s="7">
+        <f>AVERAGE(P14,P16)</f>
         <v>5.9909999999999998E-2</v>
       </c>
-      <c r="Q20" s="7">
-        <f t="shared" si="15"/>
+      <c r="Q22" s="7">
+        <f>AVERAGE(Q14,Q16)</f>
         <v>0.13055</v>
       </c>
-      <c r="R20" s="7">
-        <f t="shared" si="15"/>
+      <c r="R22" s="7">
+        <f>AVERAGE(R14,R16)</f>
         <v>7.7984999999999999E-2</v>
       </c>
-      <c r="S20" s="7">
-        <f t="shared" si="15"/>
+      <c r="S22" s="7">
+        <f>AVERAGE(S14,S16)</f>
         <v>6.7275000000000001E-2</v>
       </c>
-      <c r="T20" s="7">
-        <f t="shared" si="15"/>
+      <c r="T22" s="7">
+        <f>AVERAGE(T14,T16)</f>
         <v>4.274E-2</v>
       </c>
     </row>
@@ -9498,6 +9570,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I30:I34">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:L34">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -9509,7 +9593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:L34">
+  <conditionalFormatting sqref="Q30:Q34">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -9521,7 +9605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30:Q34">
+  <conditionalFormatting sqref="R30:R34">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -9533,7 +9617,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30:R34">
+  <conditionalFormatting sqref="S30:S34">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -9545,7 +9629,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30:S34">
+  <conditionalFormatting sqref="V30:V34">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -9557,7 +9641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30:V34">
+  <conditionalFormatting sqref="I38:I42">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -9569,7 +9653,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I42">
+  <conditionalFormatting sqref="L38:L42">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -9581,7 +9665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:L42">
+  <conditionalFormatting sqref="Q38:Q42">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -9593,7 +9677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q38:Q42">
+  <conditionalFormatting sqref="R38:R42">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9605,7 +9689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R38:R42">
+  <conditionalFormatting sqref="S38:S42">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9617,7 +9701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S38:S42">
+  <conditionalFormatting sqref="V38:V42">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9629,7 +9713,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V38:V42">
+  <conditionalFormatting sqref="G13:T13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9641,7 +9725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:T13">
+  <conditionalFormatting sqref="G14:T14">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9653,7 +9737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:T14">
+  <conditionalFormatting sqref="G15:T15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9677,7 +9761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:T17">
+  <conditionalFormatting sqref="G17:T18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="69">
   <si>
     <t>saldo</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>город Курск</t>
+  </si>
+  <si>
+    <t>Новохопёрский МР</t>
   </si>
 </sst>
 </file>
@@ -7849,10 +7852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AL42"/>
+  <dimension ref="C4:AP42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7868,11 +7871,15 @@
     <col min="22" max="22" width="12.140625" customWidth="1"/>
     <col min="23" max="23" width="18" customWidth="1"/>
     <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" customWidth="1"/>
     <col min="29" max="29" width="12.140625" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" customWidth="1"/>
     <col min="38" max="38" width="13.140625" customWidth="1"/>
+    <col min="40" max="40" width="12" customWidth="1"/>
+    <col min="42" max="42" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
@@ -7935,21 +7942,59 @@
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="Z4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
@@ -7965,68 +8010,106 @@
       <c r="G5" s="1">
         <v>85939</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <v>0.15749543280699099</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="7">
         <v>24720.091919999999</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="7">
         <v>0.81039690943576237</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="7">
         <v>1.8396769801836171E-2</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="7">
         <v>32.194688077822633</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="7">
         <v>28.7</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="7">
         <v>6.539522219248496E-3</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="7">
         <v>2.5715914776760149E-3</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="7">
         <v>1.0555161219004169E-2</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="7">
         <v>1.1495013905211819</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="7">
         <v>0.66520904362396571</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="7">
         <v>22.581482595794672</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="7">
         <v>7.4471427407812321E-4</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="7">
         <v>6.0112405310743661E-2</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="7">
         <v>153.74505778284589</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-    </row>
-    <row r="6" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="Z5" s="1">
+        <v>-47</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>40333</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>4741</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>19539.2</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>14187.05</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>428</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>216727.5</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>125</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>52</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>416.7</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>89856</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>37840.800000000003</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>3314161</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>32</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>936</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>4090149.6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
@@ -8042,49 +8125,49 @@
       <c r="G6" s="1">
         <v>44386</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <v>0.11616275402153831</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="7">
         <v>21819.183840000002</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="7">
         <v>0.43312530978236369</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="7">
         <v>3.4515387734871332E-2</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="7">
         <v>23.330135132699489</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="7">
         <v>29.9</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="7">
         <v>3.807506871536046E-3</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="7">
         <v>2.343081151714495E-3</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="7">
         <v>1.4168882079935099E-2</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="7">
         <v>2.863042400756993</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="7">
         <v>0.49934596494390132</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="7">
         <v>56.510477592033467</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="7">
         <v>1.622133105033115E-3</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="7">
         <v>4.9587707835804067E-2</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="7">
         <v>33.696300743477607</v>
       </c>
       <c r="X6" s="1"/>
@@ -8103,7 +8186,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
@@ -8119,68 +8202,175 @@
       <c r="G7" s="1">
         <v>447387</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <v>0.24330836613491227</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="7">
         <v>25219.131849999998</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="7">
         <v>0.89471419598691959</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="7">
         <v>2.7714260807757043E-2</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="7">
         <v>97.734390398134039</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="7">
         <v>30.6</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="7">
         <v>1.2517127229892688E-3</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="7">
         <v>1.3455911772134639E-3</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="7">
         <v>1.6786361695802516E-3</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="7">
         <v>9.9645273555109999E-3</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="7">
         <v>0.13614680355039371</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="7">
         <v>1.272602612503269</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="7">
         <v>6.482083744051571E-4</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="7">
         <v>3.6592480335816642E-2</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="7">
         <v>230.88501684045355</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-    </row>
-    <row r="8" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AB7" s="1">
+        <f>AB5/$AA5</f>
+        <v>0.11754642600352069</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>19539.2</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" ref="AC7:AP7" si="0">AD5/$AA5</f>
+        <v>0.35174794833015149</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0611657947586344E-2</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3734534996156995</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0991991669352638E-3</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2892668534450699E-3</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0331490342895395E-2</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2278531227530807</v>
+      </c>
+      <c r="AL7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93820940668931152</v>
+      </c>
+      <c r="AM7" s="1">
+        <f t="shared" si="0"/>
+        <v>82.169960082314731</v>
+      </c>
+      <c r="AN7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9339498673542752E-4</v>
+      </c>
+      <c r="AO7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3206803362011256E-2</v>
+      </c>
+      <c r="AP7" s="1">
+        <f t="shared" si="0"/>
+        <v>101.40950586368483</v>
+      </c>
+    </row>
+    <row r="8" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-47</v>
+      </c>
+      <c r="G8" s="1">
+        <v>40333</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.11754642600352069</v>
+      </c>
+      <c r="I8" s="7">
+        <v>19539.2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.35174794833015149</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.0611657947586344E-2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>5.3734534996156995</v>
+      </c>
+      <c r="M8" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3.0991991669352638E-3</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1.2892668534450699E-3</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1.0331490342895395E-2</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>2.2278531227530807</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.93820940668931152</v>
+      </c>
+      <c r="S8" s="7">
+        <v>82.169960082314731</v>
+      </c>
+      <c r="T8" s="7">
+        <v>7.9339498673542752E-4</v>
+      </c>
+      <c r="U8" s="7">
+        <v>2.3206803362011256E-2</v>
+      </c>
+      <c r="V8" s="7">
+        <v>101.40950586368483</v>
+      </c>
       <c r="W8" s="13"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="1"/>
@@ -8198,60 +8388,26 @@
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
     </row>
-    <row r="10" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="V10" s="1">
-        <v>-1897</v>
-      </c>
-      <c r="W10" s="1">
-        <v>447387</v>
-      </c>
-      <c r="X10" s="1">
-        <v>108853</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>25219.131849999998</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>400283.5</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>12399</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>43725095.717049994</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>30.6</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>560</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>602</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>751</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>4458</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>60910.31</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>569345.86499999999</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>290</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>16371</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>103294955.02919999</v>
-      </c>
-    </row>
-    <row r="12" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+    </row>
+    <row r="12" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
@@ -8307,66 +8463,23 @@
         <v>40</v>
       </c>
       <c r="W12" s="1"/>
-      <c r="X12" s="1">
-        <f>X10/$W10</f>
-        <v>0.24330836613491227</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>25219.131849999998</v>
-      </c>
-      <c r="Z12" s="1">
-        <f t="shared" ref="Y12:AL12" si="0">Z10/$W10</f>
-        <v>0.89471419598691959</v>
-      </c>
-      <c r="AA12" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7714260807757043E-2</v>
-      </c>
-      <c r="AB12" s="1">
-        <f t="shared" si="0"/>
-        <v>97.734390398134039</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>30.6</v>
-      </c>
-      <c r="AD12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2517127229892688E-3</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3455911772134639E-3</v>
-      </c>
-      <c r="AF12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6786361695802516E-3</v>
-      </c>
-      <c r="AG12" s="1">
-        <f t="shared" si="0"/>
-        <v>9.9645273555109999E-3</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13614680355039371</v>
-      </c>
-      <c r="AI12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.272602612503269</v>
-      </c>
-      <c r="AJ12" s="1">
-        <f t="shared" si="0"/>
-        <v>6.482083744051571E-4</v>
-      </c>
-      <c r="AK12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6592480335816642E-2</v>
-      </c>
-      <c r="AL12" s="1">
-        <f t="shared" si="0"/>
-        <v>230.88501684045355</v>
-      </c>
-    </row>
-    <row r="13" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+    </row>
+    <row r="13" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>80631000</v>
       </c>
@@ -8422,7 +8535,7 @@
         <v>7.3700000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>80631000</v>
       </c>
@@ -8478,7 +8591,7 @@
         <v>4.9840000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>80601000</v>
       </c>
@@ -8534,7 +8647,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>80601000</v>
       </c>
@@ -8702,138 +8815,250 @@
         <v>5.9630000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>20627000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5.9569999999999998E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5.3039999999999997E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5.57E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>5.1450000000000003E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>6.5369999999999998E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="O19" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P19" s="7">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0.10284</v>
+      </c>
+      <c r="R19" s="7">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="S19" s="7">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="T19" s="7">
+        <v>4.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>20627000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6.1280000000000001E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>5.9360000000000003E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="P20" s="7">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0.10297000000000001</v>
+      </c>
+      <c r="R20" s="7">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="S20" s="7">
+        <v>6.6650000000000001E-2</v>
+      </c>
+      <c r="T20" s="7">
+        <v>2.6980000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
-        <f>AVERAGE(G13,G15)</f>
-        <v>6.4700000000000008E-2</v>
-      </c>
-      <c r="H21" s="7">
-        <f>AVERAGE(H13,H15)</f>
-        <v>7.6755000000000004E-2</v>
-      </c>
-      <c r="I21" s="7">
-        <f>AVERAGE(I13,I15)</f>
-        <v>7.2770000000000001E-2</v>
-      </c>
-      <c r="J21" s="7">
-        <f>AVERAGE(J13,J15)</f>
-        <v>5.1635E-2</v>
-      </c>
-      <c r="K21" s="7">
-        <f>AVERAGE(K13,K15)</f>
-        <v>5.3030000000000001E-2</v>
-      </c>
-      <c r="L21" s="7">
-        <f>AVERAGE(L13,L15)</f>
-        <v>4.3840000000000004E-2</v>
-      </c>
-      <c r="M21" s="7">
-        <f>AVERAGE(M13,M15)</f>
-        <v>7.1330000000000005E-2</v>
-      </c>
-      <c r="N21" s="7">
-        <f>AVERAGE(N13,N15)</f>
-        <v>6.6484999999999989E-2</v>
-      </c>
-      <c r="O21" s="7">
-        <f>AVERAGE(O13,O15)</f>
-        <v>6.4129999999999993E-2</v>
-      </c>
-      <c r="P21" s="7">
-        <f>AVERAGE(P13,P15)</f>
-        <v>6.0264999999999999E-2</v>
-      </c>
-      <c r="Q21" s="7">
-        <f>AVERAGE(Q13,Q15)</f>
-        <v>0.14635000000000001</v>
-      </c>
-      <c r="R21" s="7">
-        <f>AVERAGE(R13,R15)</f>
-        <v>8.7889999999999996E-2</v>
-      </c>
-      <c r="S21" s="7">
-        <f>AVERAGE(S13,S15)</f>
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="T21" s="7">
-        <f>AVERAGE(T13,T15)</f>
-        <v>6.1100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D22" s="3" t="s">
+      <c r="G23" s="7">
+        <f>AVERAGE(G13,G15,G17,G19)</f>
+        <v>5.7967500000000005E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" ref="H23:T23" si="1">AVERAGE(H13,H15,H17,H19)</f>
+        <v>6.6512500000000002E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>6.3997499999999999E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0817500000000002E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="1"/>
+        <v>5.4057499999999994E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="1"/>
+        <v>5.3877500000000002E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="1"/>
+        <v>7.4115E-2</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="1"/>
+        <v>7.55025E-2</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="1"/>
+        <v>7.1264999999999995E-2</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" si="1"/>
+        <v>7.0682499999999995E-2</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1299525</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" si="1"/>
+        <v>8.3820000000000006E-2</v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" si="1"/>
+        <v>8.3925E-2</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" si="1"/>
+        <v>6.3485E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="7">
-        <f>AVERAGE(G14,G16)</f>
-        <v>6.7019999999999996E-2</v>
-      </c>
-      <c r="H22" s="7">
-        <f>AVERAGE(H14,H16)</f>
-        <v>7.9080000000000011E-2</v>
-      </c>
-      <c r="I22" s="7">
-        <f>AVERAGE(I14,I16)</f>
-        <v>7.578E-2</v>
-      </c>
-      <c r="J22" s="7">
-        <f>AVERAGE(J14,J16)</f>
-        <v>5.4855000000000001E-2</v>
-      </c>
-      <c r="K22" s="7">
-        <f>AVERAGE(K14,K16)</f>
-        <v>5.4855000000000001E-2</v>
-      </c>
-      <c r="L22" s="7">
-        <f>AVERAGE(L14,L16)</f>
-        <v>6.8769999999999998E-2</v>
-      </c>
-      <c r="M22" s="7">
-        <f>AVERAGE(M14,M16)</f>
-        <v>8.702E-2</v>
-      </c>
-      <c r="N22" s="7">
-        <f>AVERAGE(N14,N16)</f>
-        <v>7.2995000000000004E-2</v>
-      </c>
-      <c r="O22" s="7">
-        <f>AVERAGE(O14,O16)</f>
-        <v>6.1249999999999999E-2</v>
-      </c>
-      <c r="P22" s="7">
-        <f>AVERAGE(P14,P16)</f>
-        <v>5.9909999999999998E-2</v>
-      </c>
-      <c r="Q22" s="7">
-        <f>AVERAGE(Q14,Q16)</f>
-        <v>0.13055</v>
-      </c>
-      <c r="R22" s="7">
-        <f>AVERAGE(R14,R16)</f>
-        <v>7.7984999999999999E-2</v>
-      </c>
-      <c r="S22" s="7">
-        <f>AVERAGE(S14,S16)</f>
-        <v>6.7275000000000001E-2</v>
-      </c>
-      <c r="T22" s="7">
-        <f>AVERAGE(T14,T16)</f>
-        <v>4.274E-2</v>
+      <c r="G24" s="7">
+        <f>AVERAGE(G14,G16,G18,G20)</f>
+        <v>6.2570000000000001E-2</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" ref="H24:T24" si="2">AVERAGE(H14,H16,H18,H20)</f>
+        <v>7.2730000000000017E-2</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="2"/>
+        <v>7.0974999999999996E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="2"/>
+        <v>5.8692499999999995E-2</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="2"/>
+        <v>5.7327500000000003E-2</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>6.9550000000000001E-2</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="2"/>
+        <v>8.2485000000000003E-2</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="2"/>
+        <v>7.9822500000000005E-2</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="2"/>
+        <v>7.041E-2</v>
+      </c>
+      <c r="P24" s="7">
+        <f t="shared" si="2"/>
+        <v>7.0554999999999993E-2</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="2"/>
+        <v>0.11919250000000001</v>
+      </c>
+      <c r="R24" s="7">
+        <f t="shared" si="2"/>
+        <v>7.4567499999999995E-2</v>
+      </c>
+      <c r="S24" s="7">
+        <f t="shared" si="2"/>
+        <v>6.8182499999999993E-2</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="2"/>
+        <v>4.3022500000000005E-2</v>
       </c>
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.25">
@@ -9570,6 +9795,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I30:I34">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:L34">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -9581,7 +9818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:L34">
+  <conditionalFormatting sqref="Q30:Q34">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -9593,7 +9830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30:Q34">
+  <conditionalFormatting sqref="R30:R34">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -9605,7 +9842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30:R34">
+  <conditionalFormatting sqref="S30:S34">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -9617,7 +9854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30:S34">
+  <conditionalFormatting sqref="V30:V34">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -9629,7 +9866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30:V34">
+  <conditionalFormatting sqref="I38:I42">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -9641,7 +9878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I42">
+  <conditionalFormatting sqref="L38:L42">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -9653,7 +9890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:L42">
+  <conditionalFormatting sqref="Q38:Q42">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -9665,7 +9902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q38:Q42">
+  <conditionalFormatting sqref="R38:R42">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -9677,7 +9914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R38:R42">
+  <conditionalFormatting sqref="S38:S42">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9689,7 +9926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S38:S42">
+  <conditionalFormatting sqref="V38:V42">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9701,7 +9938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V38:V42">
+  <conditionalFormatting sqref="G13:T13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9713,7 +9950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:T13">
+  <conditionalFormatting sqref="G14:T14">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9725,7 +9962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:T14">
+  <conditionalFormatting sqref="G15:T15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9737,7 +9974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:T15">
+  <conditionalFormatting sqref="G16:T16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9749,7 +9986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:T16">
+  <conditionalFormatting sqref="G17:T18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9761,7 +9998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:T18">
+  <conditionalFormatting sqref="G19:T20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="72">
   <si>
     <t>saldo</t>
   </si>
@@ -234,6 +234,12 @@
   <si>
     <t>Котлас</t>
   </si>
+  <si>
+    <t>анти-индустриальный</t>
+  </si>
+  <si>
+    <t>Лаишевский МР</t>
+  </si>
 </sst>
 </file>
 
@@ -243,12 +249,20 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,18 +357,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -366,35 +380,35 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -409,6 +423,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2210,59 +2228,59 @@
         <v>41</v>
       </c>
       <c r="F30" s="7">
-        <f>AVERAGE(F16,F18,F20,F22,F24)</f>
+        <f t="shared" ref="F30:S30" si="3">AVERAGE(F16,F18,F20,F22,F24)</f>
         <v>4.8851999999999993E-2</v>
       </c>
       <c r="G30" s="7">
-        <f>AVERAGE(G16,G18,G20,G22,G24)</f>
+        <f t="shared" si="3"/>
         <v>6.6384000000000012E-2</v>
       </c>
       <c r="H30" s="7">
-        <f>AVERAGE(H16,H18,H20,H22,H24)</f>
+        <f t="shared" si="3"/>
         <v>6.3287999999999997E-2</v>
       </c>
       <c r="I30" s="7">
-        <f>AVERAGE(I16,I18,I20,I22,I24)</f>
+        <f t="shared" si="3"/>
         <v>5.1112000000000005E-2</v>
       </c>
       <c r="J30" s="7">
-        <f>AVERAGE(J16,J18,J20,J22,J24)</f>
+        <f t="shared" si="3"/>
         <v>4.2570000000000004E-2</v>
       </c>
       <c r="K30" s="7">
-        <f>AVERAGE(K16,K18,K20,K22,K24)</f>
+        <f t="shared" si="3"/>
         <v>3.6932E-2</v>
       </c>
       <c r="L30" s="7">
-        <f>AVERAGE(L16,L18,L20,L22,L24)</f>
+        <f t="shared" si="3"/>
         <v>5.9919999999999994E-2</v>
       </c>
       <c r="M30" s="7">
-        <f>AVERAGE(M16,M18,M20,M22,M24)</f>
+        <f t="shared" si="3"/>
         <v>7.7354000000000006E-2</v>
       </c>
       <c r="N30" s="7">
-        <f>AVERAGE(N16,N18,N20,N22,N24)</f>
+        <f t="shared" si="3"/>
         <v>7.6800000000000007E-2</v>
       </c>
       <c r="O30" s="7">
-        <f>AVERAGE(O16,O18,O20,O22,O24)</f>
+        <f t="shared" si="3"/>
         <v>7.0716000000000001E-2</v>
       </c>
       <c r="P30" s="7">
-        <f>AVERAGE(P16,P18,P20,P22,P24)</f>
+        <f t="shared" si="3"/>
         <v>0.13745000000000002</v>
       </c>
       <c r="Q30" s="7">
-        <f>AVERAGE(Q16,Q18,Q20,Q22,Q24)</f>
+        <f t="shared" si="3"/>
         <v>8.2867999999999997E-2</v>
       </c>
       <c r="R30" s="7">
-        <f>AVERAGE(R16,R18,R20,R22,R24)</f>
+        <f t="shared" si="3"/>
         <v>0.10084</v>
       </c>
       <c r="S30" s="7">
-        <f>AVERAGE(S16,S18,S20,S22,S24)</f>
+        <f t="shared" si="3"/>
         <v>8.4920000000000009E-2</v>
       </c>
     </row>
@@ -2277,59 +2295,59 @@
         <v>42</v>
       </c>
       <c r="F31" s="7">
-        <f>AVERAGE(F17,F19,F21,F23,F25)</f>
+        <f t="shared" ref="F31:S31" si="4">AVERAGE(F17,F19,F21,F23,F25)</f>
         <v>5.5567999999999992E-2</v>
       </c>
       <c r="G31" s="7">
-        <f>AVERAGE(G17,G19,G21,G23,G25)</f>
+        <f t="shared" si="4"/>
         <v>7.4520000000000003E-2</v>
       </c>
       <c r="H31" s="7">
-        <f>AVERAGE(H17,H19,H21,H23,H25)</f>
+        <f t="shared" si="4"/>
         <v>7.077399999999999E-2</v>
       </c>
       <c r="I31" s="7">
-        <f>AVERAGE(I17,I19,I21,I23,I25)</f>
+        <f t="shared" si="4"/>
         <v>5.7190000000000005E-2</v>
       </c>
       <c r="J31" s="7">
-        <f>AVERAGE(J17,J19,J21,J23,J25)</f>
+        <f t="shared" si="4"/>
         <v>4.7094000000000004E-2</v>
       </c>
       <c r="K31" s="7">
-        <f>AVERAGE(K17,K19,K21,K23,K25)</f>
+        <f t="shared" si="4"/>
         <v>4.8735999999999995E-2</v>
       </c>
       <c r="L31" s="7">
-        <f>AVERAGE(L17,L19,L21,L23,L25)</f>
+        <f t="shared" si="4"/>
         <v>7.2798000000000002E-2</v>
       </c>
       <c r="M31" s="7">
-        <f>AVERAGE(M17,M19,M21,M23,M25)</f>
+        <f t="shared" si="4"/>
         <v>8.3370000000000014E-2</v>
       </c>
       <c r="N31" s="7">
-        <f>AVERAGE(N17,N19,N21,N23,N25)</f>
+        <f t="shared" si="4"/>
         <v>7.7202000000000007E-2</v>
       </c>
       <c r="O31" s="7">
-        <f>AVERAGE(O17,O19,O21,O23,O25)</f>
+        <f t="shared" si="4"/>
         <v>7.1142000000000011E-2</v>
       </c>
       <c r="P31" s="7">
-        <f>AVERAGE(P17,P19,P21,P23,P25)</f>
+        <f t="shared" si="4"/>
         <v>0.125668</v>
       </c>
       <c r="Q31" s="7">
-        <f>AVERAGE(Q17,Q19,Q21,Q23,Q25)</f>
+        <f t="shared" si="4"/>
         <v>7.4862000000000012E-2</v>
       </c>
       <c r="R31" s="7">
-        <f>AVERAGE(R17,R19,R21,R23,R25)</f>
+        <f t="shared" si="4"/>
         <v>7.9177999999999998E-2</v>
       </c>
       <c r="S31" s="7">
-        <f>AVERAGE(S17,S19,S21,S23,S25)</f>
+        <f t="shared" si="4"/>
         <v>6.1881999999999993E-2</v>
       </c>
     </row>
@@ -2528,7 +2546,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" ref="D38:D40" si="3">D37+1</f>
+        <f t="shared" ref="D38:D40" si="5">D37+1</f>
         <v>2020</v>
       </c>
       <c r="E38" s="1">
@@ -2591,7 +2609,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
       <c r="E39" s="1">
@@ -2652,7 +2670,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2022</v>
       </c>
       <c r="E40" s="1">
@@ -8042,18 +8060,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AP42"/>
+  <dimension ref="C4:AP46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" customWidth="1"/>
@@ -8065,7 +8084,7 @@
     <col min="29" max="29" width="12.140625" customWidth="1"/>
     <col min="32" max="32" width="13.140625" customWidth="1"/>
     <col min="38" max="38" width="13.140625" customWidth="1"/>
-    <col min="40" max="40" width="12" customWidth="1"/>
+    <col min="39" max="40" width="12" customWidth="1"/>
     <col min="42" max="42" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8186,7 +8205,7 @@
     </row>
     <row r="5" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>51</v>
@@ -8248,60 +8267,60 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1">
-        <v>-47</v>
+        <v>3578</v>
       </c>
       <c r="AA5" s="1">
-        <v>40333</v>
+        <v>47423</v>
       </c>
       <c r="AB5" s="1">
-        <v>4741</v>
+        <v>16239</v>
       </c>
       <c r="AC5" s="1">
-        <v>19539.2</v>
+        <v>37980</v>
       </c>
       <c r="AD5" s="1">
-        <v>14187.05</v>
+        <v>25765</v>
       </c>
       <c r="AE5" s="1">
-        <v>428</v>
+        <v>1125</v>
       </c>
       <c r="AF5" s="1">
-        <v>216727.5</v>
+        <v>2514578</v>
       </c>
       <c r="AG5" s="1">
-        <v>27.2</v>
+        <v>38.1</v>
       </c>
       <c r="AH5" s="1">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="AI5" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AJ5" s="1">
-        <v>416.7</v>
+        <v>569.79999999999995</v>
       </c>
       <c r="AK5" s="1">
-        <v>89856</v>
+        <v>16799</v>
       </c>
       <c r="AL5" s="1">
-        <v>37840.800000000003</v>
+        <v>130765.6</v>
       </c>
       <c r="AM5" s="1">
-        <v>3314161</v>
+        <v>6645414.4000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AO5" s="1">
-        <v>936</v>
+        <v>2690</v>
       </c>
       <c r="AP5" s="1">
-        <v>4090149.6</v>
+        <v>41419617.100000001</v>
       </c>
     </row>
     <row r="6" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>52</v>
@@ -8375,10 +8394,14 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
     </row>
     <row r="7" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>67</v>
@@ -8441,68 +8464,68 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1">
+      <c r="AB7" s="24">
         <f>AB5/$AA5</f>
-        <v>0.11754642600352069</v>
+        <v>0.34242877928431353</v>
       </c>
       <c r="AC7" s="1">
-        <v>19539.2</v>
-      </c>
-      <c r="AD7" s="1">
-        <f t="shared" ref="AD7:AP7" si="0">AD5/$AA5</f>
-        <v>0.35174794833015149</v>
-      </c>
-      <c r="AE7" s="1">
+        <v>37980</v>
+      </c>
+      <c r="AD7" s="24">
+        <f t="shared" ref="AC7:AP7" si="0">AD5/$AA5</f>
+        <v>0.54330177340109231</v>
+      </c>
+      <c r="AE7" s="24">
         <f t="shared" si="0"/>
-        <v>1.0611657947586344E-2</v>
-      </c>
-      <c r="AF7" s="1">
+        <v>2.3722666216814625E-2</v>
+      </c>
+      <c r="AF7" s="24">
         <f t="shared" si="0"/>
-        <v>5.3734534996156995</v>
+        <v>53.024439617906921</v>
       </c>
       <c r="AG7" s="1">
-        <v>27.2</v>
-      </c>
-      <c r="AH7" s="1">
+        <v>38.1</v>
+      </c>
+      <c r="AH7" s="24">
         <f t="shared" si="0"/>
-        <v>3.0991991669352638E-3</v>
-      </c>
-      <c r="AI7" s="1">
+        <v>3.6901925226156085E-3</v>
+      </c>
+      <c r="AI7" s="24">
         <f t="shared" si="0"/>
-        <v>1.2892668534450699E-3</v>
-      </c>
-      <c r="AJ7" s="1">
+        <v>1.1176011639921558E-3</v>
+      </c>
+      <c r="AJ7" s="24">
         <f t="shared" si="0"/>
-        <v>1.0331490342895395E-2</v>
-      </c>
-      <c r="AK7" s="1">
+        <v>1.201526685363642E-2</v>
+      </c>
+      <c r="AK7" s="24">
         <f t="shared" si="0"/>
-        <v>2.2278531227530807</v>
-      </c>
-      <c r="AL7" s="1">
+        <v>0.35423739535668347</v>
+      </c>
+      <c r="AL7" s="24">
         <f t="shared" si="0"/>
-        <v>0.93820940668931152</v>
-      </c>
-      <c r="AM7" s="1">
+        <v>2.7574299390591066</v>
+      </c>
+      <c r="AM7" s="24">
         <f t="shared" si="0"/>
-        <v>82.169960082314731</v>
-      </c>
-      <c r="AN7" s="1">
+        <v>140.13062016321194</v>
+      </c>
+      <c r="AN7" s="24">
         <f t="shared" si="0"/>
-        <v>7.9339498673542752E-4</v>
-      </c>
-      <c r="AO7" s="1">
+        <v>8.8564620542774602E-4</v>
+      </c>
+      <c r="AO7" s="24">
         <f t="shared" si="0"/>
-        <v>2.3206803362011256E-2</v>
-      </c>
-      <c r="AP7" s="1">
+        <v>5.6723530776205636E-2</v>
+      </c>
+      <c r="AP7" s="24">
         <f t="shared" si="0"/>
-        <v>101.40950586368483</v>
+        <v>873.40777892583776</v>
       </c>
     </row>
     <row r="8" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>68</v>
@@ -8577,6 +8600,68 @@
       <c r="AJ8" s="13"/>
       <c r="AK8" s="13"/>
       <c r="AL8" s="13"/>
+    </row>
+    <row r="9" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3578</v>
+      </c>
+      <c r="G9" s="1">
+        <v>47423</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.34242877928431353</v>
+      </c>
+      <c r="I9" s="7">
+        <v>37980</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.54330177340109231</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2.3722666216814625E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>53.024439617906921</v>
+      </c>
+      <c r="M9" s="7">
+        <v>38.1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3.6901925226156085E-3</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1.1176011639921558E-3</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1.201526685363642E-2</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.35423739535668347</v>
+      </c>
+      <c r="R9" s="7">
+        <v>2.7574299390591066</v>
+      </c>
+      <c r="S9" s="7">
+        <v>140.13062016321194</v>
+      </c>
+      <c r="T9" s="7">
+        <v>8.8564620542774602E-4</v>
+      </c>
+      <c r="U9" s="7">
+        <v>5.6723530776205636E-2</v>
+      </c>
+      <c r="V9" s="7">
+        <v>873.40777892583776</v>
+      </c>
     </row>
     <row r="10" spans="3:42" x14ac:dyDescent="0.25">
       <c r="V10" s="1"/>
@@ -8598,60 +8683,6 @@
       <c r="AL10" s="1"/>
     </row>
     <row r="12" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -8669,124 +8700,68 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>80631000</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G13" s="7">
-        <v>5.713E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6.6350000000000006E-2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6.54E-2</v>
-      </c>
-      <c r="J13" s="7">
-        <v>4.7969999999999999E-2</v>
-      </c>
-      <c r="K13" s="7">
-        <v>4.8160000000000001E-2</v>
-      </c>
-      <c r="L13" s="7">
-        <v>4.5749999999999999E-2</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7.306E-2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="O13" s="7">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="P13" s="7">
-        <v>6.1429999999999998E-2</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0.14660000000000001</v>
-      </c>
-      <c r="R13" s="7">
-        <v>9.0639999999999998E-2</v>
-      </c>
-      <c r="S13" s="7">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="T13" s="7">
-        <v>7.3700000000000002E-2</v>
-      </c>
-    </row>
     <row r="14" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>80631000</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G14" s="7">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="J14" s="7">
-        <v>5.1240000000000001E-2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>4.446E-2</v>
-      </c>
-      <c r="L14" s="7">
-        <v>8.0439999999999998E-2</v>
-      </c>
-      <c r="M14" s="7">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7.5130000000000002E-2</v>
-      </c>
-      <c r="O14" s="7">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="P14" s="7">
-        <v>6.1039999999999997E-2</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0.1278</v>
-      </c>
-      <c r="R14" s="7">
-        <v>7.6969999999999997E-2</v>
-      </c>
-      <c r="S14" s="7">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="T14" s="7">
-        <v>4.9840000000000002E-2</v>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <v>80601000</v>
+        <v>80631000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>41</v>
@@ -8795,54 +8770,54 @@
         <v>2020</v>
       </c>
       <c r="G15" s="7">
-        <v>7.2270000000000001E-2</v>
+        <v>5.713E-2</v>
       </c>
       <c r="H15" s="7">
-        <v>8.7160000000000001E-2</v>
+        <v>6.6350000000000006E-2</v>
       </c>
       <c r="I15" s="7">
-        <v>8.0140000000000003E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="J15" s="7">
-        <v>5.5300000000000002E-2</v>
+        <v>4.7969999999999999E-2</v>
       </c>
       <c r="K15" s="7">
-        <v>5.79E-2</v>
+        <v>4.8160000000000001E-2</v>
       </c>
       <c r="L15" s="7">
-        <v>4.1930000000000002E-2</v>
+        <v>4.5749999999999999E-2</v>
       </c>
       <c r="M15" s="7">
-        <v>6.9599999999999995E-2</v>
+        <v>7.306E-2</v>
       </c>
       <c r="N15" s="7">
-        <v>6.2469999999999998E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="O15" s="7">
-        <v>6.2560000000000004E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="P15" s="7">
-        <v>5.91E-2</v>
+        <v>6.1429999999999998E-2</v>
       </c>
       <c r="Q15" s="7">
-        <v>0.14610000000000001</v>
+        <v>0.14660000000000001</v>
       </c>
       <c r="R15" s="7">
-        <v>8.5139999999999993E-2</v>
+        <v>9.0639999999999998E-2</v>
       </c>
       <c r="S15" s="7">
-        <v>7.1900000000000006E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="T15" s="7">
-        <v>4.8500000000000001E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <v>80601000</v>
+        <v>80631000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>42</v>
@@ -8851,1140 +8826,1376 @@
         <v>2020</v>
       </c>
       <c r="G16" s="7">
-        <v>7.2139999999999996E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="H16" s="7">
-        <v>8.6360000000000006E-2</v>
+        <v>7.1800000000000003E-2</v>
       </c>
       <c r="I16" s="7">
-        <v>8.2460000000000006E-2</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="J16" s="7">
-        <v>5.8470000000000001E-2</v>
+        <v>5.1240000000000001E-2</v>
       </c>
       <c r="K16" s="7">
-        <v>6.5250000000000002E-2</v>
+        <v>4.446E-2</v>
       </c>
       <c r="L16" s="7">
-        <v>5.7099999999999998E-2</v>
+        <v>8.0439999999999998E-2</v>
       </c>
       <c r="M16" s="7">
-        <v>8.0140000000000003E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="N16" s="7">
-        <v>7.0860000000000006E-2</v>
+        <v>7.5130000000000002E-2</v>
       </c>
       <c r="O16" s="7">
-        <v>5.8900000000000001E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="P16" s="7">
-        <v>5.8779999999999999E-2</v>
+        <v>6.1039999999999997E-2</v>
       </c>
       <c r="Q16" s="7">
-        <v>0.1333</v>
+        <v>0.1278</v>
       </c>
       <c r="R16" s="7">
-        <v>7.9000000000000001E-2</v>
+        <v>7.6969999999999997E-2</v>
       </c>
       <c r="S16" s="7">
-        <v>6.1650000000000003E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="T16" s="7">
-        <v>3.5639999999999998E-2</v>
+        <v>4.9840000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
-        <v>38701000</v>
+        <v>80601000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G17" s="7">
-        <v>4.2900000000000001E-2</v>
+        <v>7.2270000000000001E-2</v>
       </c>
       <c r="H17" s="7">
-        <v>5.9499999999999997E-2</v>
+        <v>8.7160000000000001E-2</v>
       </c>
       <c r="I17" s="7">
-        <v>5.475E-2</v>
+        <v>8.0140000000000003E-2</v>
       </c>
       <c r="J17" s="7">
-        <v>4.8550000000000003E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="K17" s="7">
-        <v>4.48E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="L17" s="7">
-        <v>4.9930000000000002E-2</v>
+        <v>4.1930000000000002E-2</v>
       </c>
       <c r="M17" s="7">
-        <v>7.6899999999999996E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="N17" s="7">
-        <v>9.2039999999999997E-2</v>
+        <v>6.2469999999999998E-2</v>
       </c>
       <c r="O17" s="7">
-        <v>8.1799999999999998E-2</v>
+        <v>6.2560000000000004E-2</v>
       </c>
       <c r="P17" s="7">
-        <v>7.6100000000000001E-2</v>
+        <v>5.91E-2</v>
       </c>
       <c r="Q17" s="7">
-        <v>0.12427000000000001</v>
+        <v>0.14610000000000001</v>
       </c>
       <c r="R17" s="7">
-        <v>7.0400000000000004E-2</v>
+        <v>8.5139999999999993E-2</v>
       </c>
       <c r="S17" s="7">
-        <v>9.0700000000000003E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="T17" s="7">
-        <v>8.7340000000000001E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <v>38701000</v>
+        <v>80601000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G18" s="7">
-        <v>5.4960000000000002E-2</v>
+        <v>7.2139999999999996E-2</v>
       </c>
       <c r="H18" s="7">
-        <v>7.3400000000000007E-2</v>
+        <v>8.6360000000000006E-2</v>
       </c>
       <c r="I18" s="7">
-        <v>6.744E-2</v>
+        <v>8.2460000000000006E-2</v>
       </c>
       <c r="J18" s="7">
-        <v>6.1460000000000001E-2</v>
+        <v>5.8470000000000001E-2</v>
       </c>
       <c r="K18" s="7">
-        <v>4.82E-2</v>
+        <v>6.5250000000000002E-2</v>
       </c>
       <c r="L18" s="7">
-        <v>5.2060000000000002E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="M18" s="7">
-        <v>7.9200000000000007E-2</v>
+        <v>8.0140000000000003E-2</v>
       </c>
       <c r="N18" s="7">
-        <v>9.7000000000000003E-2</v>
+        <v>7.0860000000000006E-2</v>
       </c>
       <c r="O18" s="7">
-        <v>8.4839999999999999E-2</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="P18" s="7">
-        <v>7.6100000000000001E-2</v>
+        <v>5.8779999999999999E-2</v>
       </c>
       <c r="Q18" s="7">
-        <v>0.11269999999999999</v>
+        <v>0.1333</v>
       </c>
       <c r="R18" s="7">
-        <v>6.1600000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="S18" s="7">
-        <v>7.1529999999999996E-2</v>
+        <v>6.1650000000000003E-2</v>
       </c>
       <c r="T18" s="7">
-        <v>5.9630000000000002E-2</v>
+        <v>3.5639999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <v>20627000</v>
+        <v>38701000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="1">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="G19" s="7">
-        <v>5.9569999999999998E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="H19" s="7">
-        <v>5.3039999999999997E-2</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="I19" s="7">
-        <v>5.57E-2</v>
+        <v>5.475E-2</v>
       </c>
       <c r="J19" s="7">
-        <v>5.1450000000000003E-2</v>
+        <v>4.8550000000000003E-2</v>
       </c>
       <c r="K19" s="7">
-        <v>6.5369999999999998E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="L19" s="7">
-        <v>7.7899999999999997E-2</v>
+        <v>4.9930000000000002E-2</v>
       </c>
       <c r="M19" s="7">
         <v>7.6899999999999996E-2</v>
       </c>
       <c r="N19" s="7">
-        <v>7.6999999999999999E-2</v>
+        <v>9.2039999999999997E-2</v>
       </c>
       <c r="O19" s="7">
-        <v>7.4999999999999997E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="P19" s="7">
-        <v>8.6099999999999996E-2</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="Q19" s="7">
-        <v>0.10284</v>
+        <v>0.12427000000000001</v>
       </c>
       <c r="R19" s="7">
-        <v>8.9099999999999999E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="S19" s="7">
-        <v>8.5599999999999996E-2</v>
+        <v>9.0700000000000003E-2</v>
       </c>
       <c r="T19" s="7">
-        <v>4.4400000000000002E-2</v>
+        <v>8.7340000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
-        <v>20627000</v>
+        <v>38701000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G20" s="7">
+        <v>5.4960000000000002E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6.744E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>6.1460000000000001E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>4.82E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>5.2060000000000002E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>8.4839999999999999E-2</v>
+      </c>
+      <c r="P20" s="7">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="R20" s="7">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="S20" s="7">
+        <v>7.1529999999999996E-2</v>
+      </c>
+      <c r="T20" s="7">
+        <v>5.9630000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>20627000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
         <v>2012</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="7">
+        <v>5.9569999999999998E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>5.3039999999999997E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>5.57E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>5.1450000000000003E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>6.5369999999999998E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="O21" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P21" s="7">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.10284</v>
+      </c>
+      <c r="R21" s="7">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="S21" s="7">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="T21" s="7">
+        <v>4.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>20627000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G22" s="7">
         <v>6.1280000000000001E-2</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H22" s="7">
         <v>5.9360000000000003E-2</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I22" s="7">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J22" s="7">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K22" s="7">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L22" s="7">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M22" s="7">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N22" s="7">
         <v>7.6300000000000007E-2</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O22" s="7">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P22" s="7">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q22" s="7">
         <v>0.10297000000000001</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R22" s="7">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S22" s="7">
         <v>6.6650000000000001E-2</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T22" s="7">
         <v>2.6980000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
-        <v>43</v>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>92634000</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="G23" s="7">
-        <f>AVERAGE(G13,G15,G17,G19)</f>
-        <v>5.7967500000000005E-2</v>
+        <v>6.1769999999999999E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:T23" si="1">AVERAGE(H13,H15,H17,H19)</f>
-        <v>6.6512500000000002E-2</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="1"/>
-        <v>6.3997499999999999E-2</v>
+        <v>5.21E-2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="1"/>
-        <v>5.0817500000000002E-2</v>
+        <v>4.675E-2</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="1"/>
-        <v>5.4057499999999994E-2</v>
+        <v>4.8070000000000002E-2</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="1"/>
-        <v>5.3877500000000002E-2</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="1"/>
-        <v>7.4115E-2</v>
+        <v>9.35E-2</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="1"/>
-        <v>7.55025E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="1"/>
-        <v>7.1264999999999995E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="1"/>
-        <v>7.0682499999999995E-2</v>
+        <v>5.9080000000000001E-2</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="1"/>
-        <v>0.1299525</v>
+        <v>0.12870000000000001</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="1"/>
-        <v>8.3820000000000006E-2</v>
+        <v>7.7759999999999996E-2</v>
       </c>
       <c r="S23" s="7">
-        <f t="shared" si="1"/>
-        <v>8.3925E-2</v>
+        <v>8.4659999999999999E-2</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" si="1"/>
-        <v>6.3485E-2</v>
+        <v>6.1519999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D24" s="3" t="s">
-        <v>43</v>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>92634000</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G24" s="7">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>7.6050000000000006E-2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5.7860000000000002E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>4.8829999999999998E-2</v>
+      </c>
+      <c r="K24" s="7">
+        <v>4.376E-2</v>
+      </c>
+      <c r="L24" s="7">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.10564999999999999</v>
+      </c>
+      <c r="N24" s="7">
+        <v>8.0750000000000002E-2</v>
+      </c>
+      <c r="O24" s="7">
+        <v>7.22E-2</v>
+      </c>
+      <c r="P24" s="7">
+        <v>5.8779999999999999E-2</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0.11940000000000001</v>
+      </c>
+      <c r="R24" s="7">
+        <v>7.0739999999999997E-2</v>
+      </c>
+      <c r="S24" s="7">
+        <v>7.2139999999999996E-2</v>
+      </c>
+      <c r="T24" s="7">
+        <v>4.9160000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="7">
-        <f>AVERAGE(G14,G16,G18,G20)</f>
+      <c r="G27" s="7">
+        <f>AVERAGE(G15,G17,G19,G21)</f>
+        <v>5.7967500000000005E-2</v>
+      </c>
+      <c r="H27" s="7">
+        <f>AVERAGE(H15,H17,H19,H21)</f>
+        <v>6.6512500000000002E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <f>AVERAGE(I15,I17,I19,I21)</f>
+        <v>6.3997499999999999E-2</v>
+      </c>
+      <c r="J27" s="7">
+        <f>AVERAGE(J15,J17,J19,J21)</f>
+        <v>5.0817500000000002E-2</v>
+      </c>
+      <c r="K27" s="7">
+        <f>AVERAGE(K15,K17,K19,K21)</f>
+        <v>5.4057499999999994E-2</v>
+      </c>
+      <c r="L27" s="7">
+        <f>AVERAGE(L15,L17,L19,L21)</f>
+        <v>5.3877500000000002E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <f>AVERAGE(M15,M17,M19,M21)</f>
+        <v>7.4115E-2</v>
+      </c>
+      <c r="N27" s="7">
+        <f>AVERAGE(N15,N17,N19,N21)</f>
+        <v>7.55025E-2</v>
+      </c>
+      <c r="O27" s="7">
+        <f>AVERAGE(O15,O17,O19,O21)</f>
+        <v>7.1264999999999995E-2</v>
+      </c>
+      <c r="P27" s="7">
+        <f>AVERAGE(P15,P17,P19,P21)</f>
+        <v>7.0682499999999995E-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>AVERAGE(Q15,Q17,Q19,Q21)</f>
+        <v>0.1299525</v>
+      </c>
+      <c r="R27" s="7">
+        <f>AVERAGE(R15,R17,R19,R21)</f>
+        <v>8.3820000000000006E-2</v>
+      </c>
+      <c r="S27" s="7">
+        <f>AVERAGE(S15,S17,S19,S21)</f>
+        <v>8.3925E-2</v>
+      </c>
+      <c r="T27" s="7">
+        <f>AVERAGE(T15,T17,T19,T21)</f>
+        <v>6.3485E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <f>AVERAGE(G16,G18,G20,G22)</f>
         <v>6.2570000000000001E-2</v>
       </c>
-      <c r="H24" s="7">
-        <f t="shared" ref="H24:T24" si="2">AVERAGE(H14,H16,H18,H20)</f>
+      <c r="H28" s="7">
+        <f>AVERAGE(H16,H18,H20,H22)</f>
         <v>7.2730000000000017E-2</v>
       </c>
-      <c r="I24" s="7">
-        <f t="shared" si="2"/>
+      <c r="I28" s="7">
+        <f>AVERAGE(I16,I18,I20,I22)</f>
         <v>7.0974999999999996E-2</v>
       </c>
-      <c r="J24" s="7">
-        <f t="shared" si="2"/>
+      <c r="J28" s="7">
+        <f>AVERAGE(J16,J18,J20,J22)</f>
         <v>5.8692499999999995E-2</v>
       </c>
-      <c r="K24" s="7">
-        <f t="shared" si="2"/>
+      <c r="K28" s="7">
+        <f>AVERAGE(K16,K18,K20,K22)</f>
         <v>5.7327500000000003E-2</v>
       </c>
-      <c r="L24" s="7">
-        <f t="shared" si="2"/>
+      <c r="L28" s="7">
+        <f>AVERAGE(L16,L18,L20,L22)</f>
         <v>6.9550000000000001E-2</v>
       </c>
-      <c r="M24" s="7">
-        <f t="shared" si="2"/>
+      <c r="M28" s="7">
+        <f>AVERAGE(M16,M18,M20,M22)</f>
         <v>8.2485000000000003E-2</v>
       </c>
-      <c r="N24" s="7">
-        <f t="shared" si="2"/>
+      <c r="N28" s="7">
+        <f>AVERAGE(N16,N18,N20,N22)</f>
         <v>7.9822500000000005E-2</v>
       </c>
-      <c r="O24" s="7">
-        <f t="shared" si="2"/>
+      <c r="O28" s="7">
+        <f>AVERAGE(O16,O18,O20,O22)</f>
         <v>7.041E-2</v>
       </c>
-      <c r="P24" s="7">
-        <f t="shared" si="2"/>
+      <c r="P28" s="7">
+        <f>AVERAGE(P16,P18,P20,P22)</f>
         <v>7.0554999999999993E-2</v>
       </c>
-      <c r="Q24" s="7">
-        <f t="shared" si="2"/>
+      <c r="Q28" s="7">
+        <f>AVERAGE(Q16,Q18,Q20,Q22)</f>
         <v>0.11919250000000001</v>
       </c>
-      <c r="R24" s="7">
-        <f t="shared" si="2"/>
+      <c r="R28" s="7">
+        <f>AVERAGE(R16,R18,R20,R22)</f>
         <v>7.4567499999999995E-2</v>
       </c>
-      <c r="S24" s="7">
-        <f t="shared" si="2"/>
+      <c r="S28" s="7">
+        <f>AVERAGE(S16,S18,S20,S22)</f>
         <v>6.8182499999999993E-2</v>
       </c>
-      <c r="T24" s="7">
-        <f t="shared" si="2"/>
+      <c r="T28" s="7">
+        <f>AVERAGE(T16,T18,T20,T22)</f>
         <v>4.3022500000000005E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F30" s="1">
-        <v>-508</v>
-      </c>
-      <c r="G30" s="1">
-        <v>89673</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.17097677115742749</v>
-      </c>
-      <c r="I30" s="1">
-        <v>20274.726180000001</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.63144982324668508</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1.8846252495176911E-2</v>
-      </c>
-      <c r="L30" s="1">
-        <v>23.73828289719313</v>
-      </c>
-      <c r="M30" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="N30" s="1">
-        <v>5.8769083224604586E-3</v>
-      </c>
-      <c r="O30" s="1">
-        <v>2.9663332329686628E-3</v>
-      </c>
-      <c r="P30" s="1">
-        <v>8.227671651444687E-3</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>1.0814961025057701</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0.67026351298607134</v>
-      </c>
-      <c r="S30" s="1">
-        <v>25.881326426014489</v>
-      </c>
-      <c r="T30" s="1">
-        <v>4.9067166259632105E-4</v>
-      </c>
-      <c r="U30" s="1">
-        <v>5.6929064489868737E-2</v>
-      </c>
-      <c r="V30" s="1">
-        <v>119.345016326319</v>
-      </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-583</v>
-      </c>
-      <c r="G31" s="1">
-        <v>88968</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.1689259059437101</v>
-      </c>
-      <c r="I31" s="1">
-        <v>21016.71081</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.63645580433414262</v>
-      </c>
-      <c r="K31" s="1">
-        <v>1.899559392140994E-2</v>
-      </c>
-      <c r="L31" s="1">
-        <v>23.527577473473599</v>
-      </c>
-      <c r="M31" s="1">
-        <v>26.6</v>
-      </c>
-      <c r="N31" s="1">
-        <v>5.9234781044869714E-3</v>
-      </c>
-      <c r="O31" s="1">
-        <v>3.0572790216706999E-3</v>
-      </c>
-      <c r="P31" s="1">
-        <v>8.4412372988040517E-3</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>1.082479093606689</v>
-      </c>
-      <c r="R31" s="1">
-        <v>0.61311033180469354</v>
-      </c>
-      <c r="S31" s="1">
-        <v>24.770910734196551</v>
-      </c>
-      <c r="T31" s="1">
-        <v>4.9455984174084965E-4</v>
-      </c>
-      <c r="U31" s="1">
-        <v>5.7874741480082717E-2</v>
-      </c>
-      <c r="V31" s="1">
-        <v>143.61354485994971</v>
-      </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F32" s="1">
-        <v>-507</v>
-      </c>
-      <c r="G32" s="1">
-        <v>88092</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.1657471734096172</v>
-      </c>
-      <c r="I32" s="1">
-        <v>22275.830239999999</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.67765063796939562</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1.9740725605049251E-2</v>
-      </c>
-      <c r="L32" s="1">
-        <v>26.707001895631841</v>
-      </c>
-      <c r="M32" s="1">
-        <v>27.4</v>
-      </c>
-      <c r="N32" s="1">
-        <v>5.9823820551241514E-3</v>
-      </c>
-      <c r="O32" s="1">
-        <v>3.0536257548926002E-3</v>
-      </c>
-      <c r="P32" s="1">
-        <v>8.7851337238341615E-3</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>1.0234073468646401</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0.61994051673250683</v>
-      </c>
-      <c r="S32" s="1">
-        <v>21.178866225082849</v>
-      </c>
-      <c r="T32" s="1">
-        <v>4.9947781864414359E-4</v>
-      </c>
-      <c r="U32" s="1">
-        <v>5.87113472278981E-2</v>
-      </c>
-      <c r="V32" s="1">
-        <v>142.04406721007581</v>
       </c>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-711</v>
-      </c>
-      <c r="G33" s="1">
-        <v>87282</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.16122453655965721</v>
-      </c>
-      <c r="I33" s="1">
-        <v>23989.908439999999</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.68737654957494088</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1.875529891615681E-2</v>
-      </c>
-      <c r="L33" s="1">
-        <v>29.351305275772781</v>
-      </c>
-      <c r="M33" s="1">
-        <v>28.1</v>
-      </c>
-      <c r="N33" s="1">
-        <v>6.3586993881899652E-3</v>
-      </c>
-      <c r="O33" s="1">
-        <v>3.0819642079695569E-3</v>
-      </c>
-      <c r="P33" s="1">
-        <v>9.3810865928828282E-3</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0.98409752297151609</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0.71611913109232095</v>
-      </c>
-      <c r="S33" s="1">
-        <v>20.416691414037231</v>
-      </c>
-      <c r="T33" s="1">
-        <v>5.0411310464929633E-4</v>
-      </c>
-      <c r="U33" s="1">
-        <v>5.925620402832199E-2</v>
-      </c>
-      <c r="V33" s="1">
-        <v>145.038276238858</v>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="3">
-        <v>2020</v>
+      <c r="E34" s="1">
+        <v>2015</v>
       </c>
       <c r="F34" s="1">
-        <v>-151.99999999999989</v>
+        <v>-508</v>
       </c>
       <c r="G34" s="1">
-        <v>85939</v>
+        <v>89673</v>
       </c>
       <c r="H34" s="1">
-        <v>0.15749543280699099</v>
+        <v>0.17097677115742749</v>
       </c>
       <c r="I34" s="1">
-        <v>24720.091919999999</v>
+        <v>20274.726180000001</v>
       </c>
       <c r="J34" s="1">
-        <v>0.81039690943576237</v>
+        <v>0.63144982324668508</v>
       </c>
       <c r="K34" s="1">
-        <v>1.8396769801836171E-2</v>
+        <v>1.8846252495176911E-2</v>
       </c>
       <c r="L34" s="1">
-        <v>32.194688077822633</v>
+        <v>23.73828289719313</v>
       </c>
       <c r="M34" s="1">
-        <v>28.7</v>
+        <v>25.6</v>
       </c>
       <c r="N34" s="1">
-        <v>6.539522219248496E-3</v>
+        <v>5.8769083224604586E-3</v>
       </c>
       <c r="O34" s="1">
-        <v>2.5715914776760149E-3</v>
+        <v>2.9663332329686628E-3</v>
       </c>
       <c r="P34" s="1">
-        <v>1.0555161219004169E-2</v>
+        <v>8.227671651444687E-3</v>
       </c>
       <c r="Q34" s="1">
-        <v>1.1495013905211819</v>
+        <v>1.0814961025057701</v>
       </c>
       <c r="R34" s="1">
-        <v>0.66520904362396571</v>
+        <v>0.67026351298607134</v>
       </c>
       <c r="S34" s="1">
-        <v>22.581482595794672</v>
+        <v>25.881326426014489</v>
       </c>
       <c r="T34" s="1">
-        <v>7.4471427407812321E-4</v>
+        <v>4.9067166259632105E-4</v>
       </c>
       <c r="U34" s="1">
-        <v>6.0112405310743661E-2</v>
+        <v>5.6929064489868737E-2</v>
       </c>
       <c r="V34" s="1">
-        <v>153.74505778284589</v>
+        <v>119.345016326319</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-583</v>
+      </c>
+      <c r="G35" s="1">
+        <v>88968</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.1689259059437101</v>
+      </c>
+      <c r="I35" s="1">
+        <v>21016.71081</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.63645580433414262</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1.899559392140994E-2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>23.527577473473599</v>
+      </c>
+      <c r="M35" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="N35" s="1">
+        <v>5.9234781044869714E-3</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3.0572790216706999E-3</v>
+      </c>
+      <c r="P35" s="1">
+        <v>8.4412372988040517E-3</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1.082479093606689</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0.61311033180469354</v>
+      </c>
+      <c r="S35" s="1">
+        <v>24.770910734196551</v>
+      </c>
+      <c r="T35" s="1">
+        <v>4.9455984174084965E-4</v>
+      </c>
+      <c r="U35" s="1">
+        <v>5.7874741480082717E-2</v>
+      </c>
+      <c r="V35" s="1">
+        <v>143.61354485994971</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-507</v>
+      </c>
+      <c r="G36" s="1">
+        <v>88092</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.1657471734096172</v>
+      </c>
+      <c r="I36" s="1">
+        <v>22275.830239999999</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.67765063796939562</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1.9740725605049251E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>26.707001895631841</v>
+      </c>
+      <c r="M36" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="N36" s="1">
+        <v>5.9823820551241514E-3</v>
+      </c>
+      <c r="O36" s="1">
+        <v>3.0536257548926002E-3</v>
+      </c>
+      <c r="P36" s="1">
+        <v>8.7851337238341615E-3</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1.0234073468646401</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0.61994051673250683</v>
+      </c>
+      <c r="S36" s="1">
+        <v>21.178866225082849</v>
+      </c>
+      <c r="T36" s="1">
+        <v>4.9947781864414359E-4</v>
+      </c>
+      <c r="U36" s="1">
+        <v>5.87113472278981E-2</v>
+      </c>
+      <c r="V36" s="1">
+        <v>142.04406721007581</v>
       </c>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>16</v>
+      <c r="D37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-711</v>
+      </c>
+      <c r="G37" s="1">
+        <v>87282</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.16122453655965721</v>
+      </c>
+      <c r="I37" s="1">
+        <v>23989.908439999999</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.68737654957494088</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1.875529891615681E-2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>29.351305275772781</v>
+      </c>
+      <c r="M37" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>6.3586993881899652E-3</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3.0819642079695569E-3</v>
+      </c>
+      <c r="P37" s="1">
+        <v>9.3810865928828282E-3</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.98409752297151609</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.71611913109232095</v>
+      </c>
+      <c r="S37" s="1">
+        <v>20.416691414037231</v>
+      </c>
+      <c r="T37" s="1">
+        <v>5.0411310464929633E-4</v>
+      </c>
+      <c r="U37" s="1">
+        <v>5.925620402832199E-2</v>
+      </c>
+      <c r="V37" s="1">
+        <v>145.038276238858</v>
       </c>
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C38" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2015</v>
+      <c r="C38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2020</v>
       </c>
       <c r="F38" s="1">
-        <v>-163</v>
+        <v>-151.99999999999989</v>
       </c>
       <c r="G38" s="1">
-        <v>44795</v>
+        <v>85939</v>
       </c>
       <c r="H38" s="1">
-        <v>0.1195669159504409</v>
+        <v>0.15749543280699099</v>
       </c>
       <c r="I38" s="1">
-        <v>19632.524519999999</v>
+        <v>24720.091919999999</v>
       </c>
       <c r="J38" s="1">
-        <v>0.26123004799642802</v>
+        <v>0.81039690943576237</v>
       </c>
       <c r="K38" s="1">
-        <v>3.0717714030583751E-2</v>
+        <v>1.8396769801836171E-2</v>
       </c>
       <c r="L38" s="1">
-        <v>6.8428243203482468</v>
+        <v>32.194688077822633</v>
       </c>
       <c r="M38" s="1">
-        <v>25.4</v>
+        <v>28.7</v>
       </c>
       <c r="N38" s="1">
-        <v>3.415559772295994E-3</v>
+        <v>6.539522219248496E-3</v>
       </c>
       <c r="O38" s="1">
-        <v>2.2993637682777002E-3</v>
+        <v>2.5715914776760149E-3</v>
       </c>
       <c r="P38" s="1">
-        <v>1.320683111954458E-2</v>
+        <v>1.0555161219004169E-2</v>
       </c>
       <c r="Q38" s="1">
-        <v>3.216117870298024</v>
+        <v>1.1495013905211819</v>
       </c>
       <c r="R38" s="1">
-        <v>0.54021386315436981</v>
+        <v>0.66520904362396571</v>
       </c>
       <c r="S38" s="1">
-        <v>65.877446219444096</v>
+        <v>22.581482595794672</v>
       </c>
       <c r="T38" s="1">
-        <v>1.5626744056256249E-3</v>
+        <v>7.4471427407812321E-4</v>
       </c>
       <c r="U38" s="1">
-        <v>4.6790936488447371E-2</v>
+        <v>6.0112405310743661E-2</v>
       </c>
       <c r="V38" s="1">
-        <v>36.086993072441103</v>
-      </c>
-    </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C39" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-100</v>
-      </c>
-      <c r="G39" s="1">
-        <v>44888</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.1251559436820531</v>
-      </c>
-      <c r="I39" s="1">
-        <v>18340.544890000001</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.37225984672963802</v>
-      </c>
-      <c r="K39" s="1">
-        <v>3.412938870076633E-2</v>
-      </c>
-      <c r="L39" s="1">
-        <v>8.4181796671716178</v>
-      </c>
-      <c r="M39" s="1">
-        <v>27.3</v>
-      </c>
-      <c r="N39" s="1">
-        <v>3.2970949919800181E-3</v>
-      </c>
-      <c r="O39" s="1">
-        <v>2.31687756193191E-3</v>
-      </c>
-      <c r="P39" s="1">
-        <v>1.3460167528069861E-2</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>3.237123507396185</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0.44668731063981459</v>
-      </c>
-      <c r="S39" s="1">
-        <v>65.029295230351053</v>
-      </c>
-      <c r="T39" s="1">
-        <v>1.559436820531096E-3</v>
-      </c>
-      <c r="U39" s="1">
-        <v>4.7696489039386912E-2</v>
-      </c>
-      <c r="V39" s="1">
-        <v>36.327307061575482</v>
-      </c>
-    </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C40" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F40" s="1">
-        <v>-179</v>
-      </c>
-      <c r="G40" s="1">
-        <v>44962</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.1264401049775366</v>
-      </c>
-      <c r="I40" s="1">
-        <v>19591.68519</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.37287042391352693</v>
-      </c>
-      <c r="K40" s="1">
-        <v>3.0603620835372079E-2</v>
-      </c>
-      <c r="L40" s="1">
-        <v>22.083162368444469</v>
-      </c>
-      <c r="M40" s="1">
-        <v>28.1</v>
-      </c>
-      <c r="N40" s="1">
-        <v>3.6475245763088601E-3</v>
-      </c>
-      <c r="O40" s="1">
-        <v>2.3130643654641599E-3</v>
-      </c>
-      <c r="P40" s="1">
-        <v>1.3724923268537871E-2</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>3.2863529202437611</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0.48064810284240023</v>
-      </c>
-      <c r="S40" s="1">
-        <v>62.958639059650331</v>
-      </c>
-      <c r="T40" s="1">
-        <v>1.5568702459854949E-3</v>
-      </c>
-      <c r="U40" s="1">
-        <v>4.7617988523642192E-2</v>
-      </c>
-      <c r="V40" s="1">
-        <v>38.445424051198778</v>
+        <v>153.74505778284589</v>
       </c>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C41" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F41" s="1">
-        <v>-56.99999999999995</v>
-      </c>
-      <c r="G41" s="1">
-        <v>44933.999999999993</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.1135665642942983</v>
-      </c>
-      <c r="I41" s="1">
-        <v>20641.733639999999</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.37868206703164631</v>
-      </c>
-      <c r="K41" s="1">
-        <v>3.4984644144745607E-2</v>
-      </c>
-      <c r="L41" s="1">
-        <v>23.389734217296478</v>
-      </c>
-      <c r="M41" s="1">
-        <v>28.8</v>
-      </c>
-      <c r="N41" s="1">
-        <v>3.7165620688120122E-3</v>
-      </c>
-      <c r="O41" s="1">
-        <v>2.2699959941247069E-3</v>
-      </c>
-      <c r="P41" s="1">
-        <v>1.374237770952952E-2</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>2.790626251836025</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0.49644456313704521</v>
-      </c>
-      <c r="S41" s="1">
-        <v>59.326706022165851</v>
-      </c>
-      <c r="T41" s="1">
-        <v>1.491075800062311E-3</v>
-      </c>
-      <c r="U41" s="1">
-        <v>4.775893532736903E-2</v>
-      </c>
-      <c r="V41" s="1">
-        <v>34.524197758490182</v>
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-163</v>
+      </c>
+      <c r="G42" s="1">
+        <v>44795</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.1195669159504409</v>
+      </c>
+      <c r="I42" s="1">
+        <v>19632.524519999999</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.26123004799642802</v>
+      </c>
+      <c r="K42" s="1">
+        <v>3.0717714030583751E-2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>6.8428243203482468</v>
+      </c>
+      <c r="M42" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="N42" s="1">
+        <v>3.415559772295994E-3</v>
+      </c>
+      <c r="O42" s="1">
+        <v>2.2993637682777002E-3</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1.320683111954458E-2</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>3.216117870298024</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0.54021386315436981</v>
+      </c>
+      <c r="S42" s="1">
+        <v>65.877446219444096</v>
+      </c>
+      <c r="T42" s="1">
+        <v>1.5626744056256249E-3</v>
+      </c>
+      <c r="U42" s="1">
+        <v>4.6790936488447371E-2</v>
+      </c>
+      <c r="V42" s="1">
+        <v>36.086993072441103</v>
+      </c>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C43" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-100</v>
+      </c>
+      <c r="G43" s="1">
+        <v>44888</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.1251559436820531</v>
+      </c>
+      <c r="I43" s="1">
+        <v>18340.544890000001</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.37225984672963802</v>
+      </c>
+      <c r="K43" s="1">
+        <v>3.412938870076633E-2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>8.4181796671716178</v>
+      </c>
+      <c r="M43" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3.2970949919800181E-3</v>
+      </c>
+      <c r="O43" s="1">
+        <v>2.31687756193191E-3</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1.3460167528069861E-2</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>3.237123507396185</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.44668731063981459</v>
+      </c>
+      <c r="S43" s="1">
+        <v>65.029295230351053</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1.559436820531096E-3</v>
+      </c>
+      <c r="U43" s="1">
+        <v>4.7696489039386912E-2</v>
+      </c>
+      <c r="V43" s="1">
+        <v>36.327307061575482</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C44" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-179</v>
+      </c>
+      <c r="G44" s="1">
+        <v>44962</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.1264401049775366</v>
+      </c>
+      <c r="I44" s="1">
+        <v>19591.68519</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.37287042391352693</v>
+      </c>
+      <c r="K44" s="1">
+        <v>3.0603620835372079E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>22.083162368444469</v>
+      </c>
+      <c r="M44" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>3.6475245763088601E-3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2.3130643654641599E-3</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1.3724923268537871E-2</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>3.2863529202437611</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.48064810284240023</v>
+      </c>
+      <c r="S44" s="1">
+        <v>62.958639059650331</v>
+      </c>
+      <c r="T44" s="1">
+        <v>1.5568702459854949E-3</v>
+      </c>
+      <c r="U44" s="1">
+        <v>4.7617988523642192E-2</v>
+      </c>
+      <c r="V44" s="1">
+        <v>38.445424051198778</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C45" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-56.99999999999995</v>
+      </c>
+      <c r="G45" s="1">
+        <v>44933.999999999993</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.1135665642942983</v>
+      </c>
+      <c r="I45" s="1">
+        <v>20641.733639999999</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.37868206703164631</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3.4984644144745607E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>23.389734217296478</v>
+      </c>
+      <c r="M45" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="N45" s="1">
+        <v>3.7165620688120122E-3</v>
+      </c>
+      <c r="O45" s="1">
+        <v>2.2699959941247069E-3</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1.374237770952952E-2</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>2.790626251836025</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0.49644456313704521</v>
+      </c>
+      <c r="S45" s="1">
+        <v>59.326706022165851</v>
+      </c>
+      <c r="T45" s="1">
+        <v>1.491075800062311E-3</v>
+      </c>
+      <c r="U45" s="1">
+        <v>4.775893532736903E-2</v>
+      </c>
+      <c r="V45" s="1">
+        <v>34.524197758490182</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="3">
         <v>2020</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F46" s="1">
         <v>-449.99999999999989</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G46" s="1">
         <v>44386</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H46" s="1">
         <v>0.11616275402153831</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I46" s="1">
         <v>21819.183840000002</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J46" s="1">
         <v>0.43312530978236369</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K46" s="1">
         <v>3.4515387734871332E-2</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L46" s="1">
         <v>23.330135132699489</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M46" s="1">
         <v>29.9</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N46" s="1">
         <v>3.807506871536046E-3</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O46" s="1">
         <v>2.343081151714495E-3</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P46" s="1">
         <v>1.4168882079935099E-2</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q46" s="1">
         <v>2.863042400756993</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R46" s="1">
         <v>0.49934596494390132</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S46" s="1">
         <v>56.510477592033467</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T46" s="1">
         <v>1.622133105033115E-3</v>
       </c>
-      <c r="U42" s="1">
+      <c r="U46" s="1">
         <v>4.9587707835804067E-2</v>
       </c>
-      <c r="V42" s="1">
+      <c r="V46" s="1">
         <v>33.696300743477607</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I30:I34">
+  <conditionalFormatting sqref="I34:I38">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:L38">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -9996,7 +10207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:L34">
+  <conditionalFormatting sqref="Q34:Q38">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -10008,7 +10219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30:Q34">
+  <conditionalFormatting sqref="R34:R38">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -10020,7 +10231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30:R34">
+  <conditionalFormatting sqref="S34:S38">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -10032,7 +10243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30:S34">
+  <conditionalFormatting sqref="V34:V38">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10044,7 +10255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30:V34">
+  <conditionalFormatting sqref="I42:I46">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10056,7 +10267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I42">
+  <conditionalFormatting sqref="L42:L46">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10068,7 +10279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:L42">
+  <conditionalFormatting sqref="Q42:Q46">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10080,7 +10291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q38:Q42">
+  <conditionalFormatting sqref="R42:R46">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10092,7 +10303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R38:R42">
+  <conditionalFormatting sqref="S42:S46">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10104,7 +10315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S38:S42">
+  <conditionalFormatting sqref="V42:V46">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10116,7 +10327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V38:V42">
+  <conditionalFormatting sqref="G15:T15">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10128,7 +10339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:T13">
+  <conditionalFormatting sqref="G16:T16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10140,7 +10351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:T14">
+  <conditionalFormatting sqref="G17:T17">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10152,7 +10363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:T15">
+  <conditionalFormatting sqref="G18:T18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10164,7 +10375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:T16">
+  <conditionalFormatting sqref="G19:T20">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10176,7 +10387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:T18">
+  <conditionalFormatting sqref="G21:T22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10188,7 +10399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:T20">
+  <conditionalFormatting sqref="G23:T24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10209,7 +10420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="76">
   <si>
     <t>saldo</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>Лаишевский МР</t>
+  </si>
+  <si>
+    <t>Анапа</t>
+  </si>
+  <si>
+    <t>Геленджик</t>
+  </si>
+  <si>
+    <t>город-курорт Анапа</t>
+  </si>
+  <si>
+    <t>город-курорт Геленджик</t>
   </si>
 </sst>
 </file>
@@ -8060,10 +8072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AP46"/>
+  <dimension ref="C4:AP52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8222,7 +8234,7 @@
       <c r="H5" s="7">
         <v>0.15749543280699099</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>24720.091919999999</v>
       </c>
       <c r="J5" s="7">
@@ -8265,57 +8277,59 @@
         <v>153.74505778284589</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="Y5" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="Z5" s="1">
-        <v>3578</v>
+        <v>1763</v>
       </c>
       <c r="AA5" s="1">
-        <v>47423</v>
+        <v>212839</v>
       </c>
       <c r="AB5" s="1">
-        <v>16239</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>37980</v>
+        <v>28526</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>23354.08466</v>
       </c>
       <c r="AD5" s="1">
-        <v>25765</v>
+        <v>141345.60000000001</v>
       </c>
       <c r="AE5" s="1">
-        <v>1125</v>
+        <v>24750</v>
       </c>
       <c r="AF5" s="1">
-        <v>2514578</v>
+        <v>21587685.325390004</v>
       </c>
       <c r="AG5" s="1">
-        <v>38.1</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>175</v>
+        <v>471</v>
       </c>
       <c r="AI5" s="1">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="AJ5" s="1">
-        <v>569.79999999999995</v>
+        <v>966.6</v>
       </c>
       <c r="AK5" s="1">
-        <v>16799</v>
+        <v>186537</v>
       </c>
       <c r="AL5" s="1">
-        <v>130765.6</v>
+        <v>88881.7</v>
       </c>
       <c r="AM5" s="1">
-        <v>6645414.4000000004</v>
+        <v>3512839.4188999999</v>
       </c>
       <c r="AN5" s="1">
         <v>42</v>
       </c>
       <c r="AO5" s="1">
-        <v>2690</v>
+        <v>8643</v>
       </c>
       <c r="AP5" s="1">
-        <v>41419617.100000001</v>
+        <v>41903256.314429998</v>
       </c>
     </row>
     <row r="6" spans="3:42" x14ac:dyDescent="0.25">
@@ -8337,7 +8351,7 @@
       <c r="H6" s="7">
         <v>0.11616275402153831</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>21819.183840000002</v>
       </c>
       <c r="J6" s="7">
@@ -8380,24 +8394,60 @@
         <v>33.696300743477607</v>
       </c>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
+      <c r="Y6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-43</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>115048</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>18845</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>25688.450580000001</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>146435</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>28940</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>14223515.170820002</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>307</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>614</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>399.1</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>13359</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>6852.2</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>425668.60330000002</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>25</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>5790</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>12400307.79752</v>
+      </c>
     </row>
     <row r="7" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
@@ -8418,7 +8468,7 @@
       <c r="H7" s="7">
         <v>0.24330836613491227</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>25219.131849999998</v>
       </c>
       <c r="J7" s="7">
@@ -8464,64 +8514,21 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="24">
-        <f>AB5/$AA5</f>
-        <v>0.34242877928431353</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>37980</v>
-      </c>
-      <c r="AD7" s="24">
-        <f t="shared" ref="AC7:AP7" si="0">AD5/$AA5</f>
-        <v>0.54330177340109231</v>
-      </c>
-      <c r="AE7" s="24">
-        <f t="shared" si="0"/>
-        <v>2.3722666216814625E-2</v>
-      </c>
-      <c r="AF7" s="24">
-        <f t="shared" si="0"/>
-        <v>53.024439617906921</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>38.1</v>
-      </c>
-      <c r="AH7" s="24">
-        <f t="shared" si="0"/>
-        <v>3.6901925226156085E-3</v>
-      </c>
-      <c r="AI7" s="24">
-        <f t="shared" si="0"/>
-        <v>1.1176011639921558E-3</v>
-      </c>
-      <c r="AJ7" s="24">
-        <f t="shared" si="0"/>
-        <v>1.201526685363642E-2</v>
-      </c>
-      <c r="AK7" s="24">
-        <f t="shared" si="0"/>
-        <v>0.35423739535668347</v>
-      </c>
-      <c r="AL7" s="24">
-        <f t="shared" si="0"/>
-        <v>2.7574299390591066</v>
-      </c>
-      <c r="AM7" s="24">
-        <f t="shared" si="0"/>
-        <v>140.13062016321194</v>
-      </c>
-      <c r="AN7" s="24">
-        <f t="shared" si="0"/>
-        <v>8.8564620542774602E-4</v>
-      </c>
-      <c r="AO7" s="24">
-        <f t="shared" si="0"/>
-        <v>5.6723530776205636E-2</v>
-      </c>
-      <c r="AP7" s="24">
-        <f t="shared" si="0"/>
-        <v>873.40777892583776</v>
-      </c>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
     </row>
     <row r="8" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
@@ -8542,7 +8549,7 @@
       <c r="H8" s="7">
         <v>0.11754642600352069</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>19539.2</v>
       </c>
       <c r="J8" s="7">
@@ -8589,17 +8596,64 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
+      <c r="AB8" s="13">
+        <f>AB5/$AA5</f>
+        <v>0.13402618880938175</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>23354.08466</v>
+      </c>
+      <c r="AD8" s="13">
+        <f t="shared" ref="AC8:AP8" si="0">AD5/$AA5</f>
+        <v>0.66409633572794458</v>
+      </c>
+      <c r="AE8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.11628507933226523</v>
+      </c>
+      <c r="AF8" s="13">
+        <f t="shared" si="0"/>
+        <v>101.42730103688706</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AH8" s="13">
+        <f t="shared" si="0"/>
+        <v>2.2129402975958352E-3</v>
+      </c>
+      <c r="AI8" s="13">
+        <f t="shared" si="0"/>
+        <v>1.3343419204187201E-3</v>
+      </c>
+      <c r="AJ8" s="13">
+        <f t="shared" si="0"/>
+        <v>4.5414609164673766E-3</v>
+      </c>
+      <c r="AK8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.87642302397586913</v>
+      </c>
+      <c r="AL8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.41760062770450901</v>
+      </c>
+      <c r="AM8" s="13">
+        <f t="shared" si="0"/>
+        <v>16.504679212456363</v>
+      </c>
+      <c r="AN8" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9733225583657132E-4</v>
+      </c>
+      <c r="AO8" s="13">
+        <f t="shared" si="0"/>
+        <v>4.0608159218940135E-2</v>
+      </c>
+      <c r="AP8" s="13">
+        <f t="shared" si="0"/>
+        <v>196.87771655772673</v>
+      </c>
     </row>
     <row r="9" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
@@ -8620,7 +8674,7 @@
       <c r="H9" s="7">
         <v>0.34242877928431353</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>37980</v>
       </c>
       <c r="J9" s="7">
@@ -8662,9 +8716,126 @@
       <c r="V9" s="7">
         <v>873.40777892583776</v>
       </c>
+      <c r="AB9" s="13">
+        <f>AB6/$AA6</f>
+        <v>0.16380119602252974</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>25688.450580000001</v>
+      </c>
+      <c r="AD9" s="13">
+        <f t="shared" ref="AC9:AP9" si="1">AD6/$AA6</f>
+        <v>1.2728165635213129</v>
+      </c>
+      <c r="AE9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25154718030734996</v>
+      </c>
+      <c r="AF9" s="13">
+        <f t="shared" si="1"/>
+        <v>123.63113805385579</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>42.7</v>
+      </c>
+      <c r="AH9" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6684514289687781E-3</v>
+      </c>
+      <c r="AI9" s="13">
+        <f t="shared" si="1"/>
+        <v>5.3369028579375562E-3</v>
+      </c>
+      <c r="AJ9" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4689868576594121E-3</v>
+      </c>
+      <c r="AK9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.11611675126903553</v>
+      </c>
+      <c r="AL9" s="13">
+        <f t="shared" si="1"/>
+        <v>5.9559488213615182E-2</v>
+      </c>
+      <c r="AM9" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6999218004658925</v>
+      </c>
+      <c r="AN9" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1730060496488423E-4</v>
+      </c>
+      <c r="AO9" s="13">
+        <f t="shared" si="1"/>
+        <v>5.0326820109867186E-2</v>
+      </c>
+      <c r="AP9" s="13">
+        <f t="shared" si="1"/>
+        <v>107.78377544607469</v>
+      </c>
     </row>
     <row r="10" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="V10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1763</v>
+      </c>
+      <c r="G10" s="1">
+        <v>212839</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.13402618880938175</v>
+      </c>
+      <c r="I10" s="6">
+        <v>23354.08466</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.66409633572794458</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.11628507933226523</v>
+      </c>
+      <c r="L10" s="5">
+        <v>101.42730103688706</v>
+      </c>
+      <c r="M10" s="5">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2.2129402975958352E-3</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1.3343419204187201E-3</v>
+      </c>
+      <c r="P10" s="5">
+        <v>4.5414609164673766E-3</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.87642302397586913</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.41760062770450901</v>
+      </c>
+      <c r="S10" s="5">
+        <v>16.504679212456363</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1.9733225583657132E-4</v>
+      </c>
+      <c r="U10" s="5">
+        <v>4.0608159218940135E-2</v>
+      </c>
+      <c r="V10" s="5">
+        <v>196.87771655772673</v>
+      </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -8681,6 +8852,68 @@
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
+    </row>
+    <row r="11" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-43</v>
+      </c>
+      <c r="G11" s="1">
+        <v>115048</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.16380119602252974</v>
+      </c>
+      <c r="I11" s="6">
+        <v>25688.450580000001</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1.2728165635213129</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.25154718030734996</v>
+      </c>
+      <c r="L11" s="5">
+        <v>123.63113805385579</v>
+      </c>
+      <c r="M11" s="5">
+        <v>42.7</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2.6684514289687781E-3</v>
+      </c>
+      <c r="O11" s="5">
+        <v>5.3369028579375562E-3</v>
+      </c>
+      <c r="P11" s="5">
+        <v>3.4689868576594121E-3</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.11611675126903553</v>
+      </c>
+      <c r="R11" s="5">
+        <v>5.9559488213615182E-2</v>
+      </c>
+      <c r="S11" s="5">
+        <v>3.6999218004658925</v>
+      </c>
+      <c r="T11" s="5">
+        <v>2.1730060496488423E-4</v>
+      </c>
+      <c r="U11" s="5">
+        <v>5.0326820109867186E-2</v>
+      </c>
+      <c r="V11" s="5">
+        <v>107.78377544607469</v>
+      </c>
     </row>
     <row r="12" spans="3:42" x14ac:dyDescent="0.25">
       <c r="W12" s="1"/>
@@ -9316,874 +9549,1122 @@
         <v>4.9160000000000002E-2</v>
       </c>
     </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>3703000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G25" s="7">
+        <v>6.0760000000000002E-2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>6.207E-2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5.2670000000000002E-2</v>
+      </c>
+      <c r="J25" s="7">
+        <v>4.6539999999999998E-2</v>
+      </c>
+      <c r="K25" s="7">
+        <v>3.8420000000000003E-2</v>
+      </c>
+      <c r="L25" s="7">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>8.8440000000000005E-2</v>
+      </c>
+      <c r="O25" s="7">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="P25" s="7">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0.1244</v>
+      </c>
+      <c r="R25" s="7">
+        <v>7.6050000000000006E-2</v>
+      </c>
+      <c r="S25" s="7">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T25" s="7">
+        <v>7.6799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>3703000</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G26" s="7">
+        <v>7.1840000000000001E-2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="J26" s="7">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="K26" s="7">
+        <v>4.1320000000000003E-2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>6.93E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8.9539999999999995E-2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="O26" s="7">
+        <v>7.6539999999999997E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0.11053</v>
+      </c>
+      <c r="R26" s="7">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="S26" s="7">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="T26" s="7">
+        <v>5.9970000000000002E-2</v>
+      </c>
+    </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D27" s="3" t="s">
-        <v>43</v>
+      <c r="C27" s="1">
+        <v>3708000</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G27" s="7">
+        <v>5.774E-2</v>
+      </c>
+      <c r="H27" s="7">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>5.1479999999999998E-2</v>
+      </c>
+      <c r="J27" s="7">
+        <v>4.2569999999999997E-2</v>
+      </c>
+      <c r="K27" s="7">
+        <v>3.5430000000000003E-2</v>
+      </c>
+      <c r="L27" s="7">
+        <v>4.437E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="N27" s="7">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="O27" s="7">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="P27" s="7">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="R27" s="7">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="S27" s="7">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="T27" s="7">
+        <v>7.9039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>3708000</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G28" s="7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H28" s="7">
+        <v>7.2749999999999995E-2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>6.1830000000000003E-2</v>
+      </c>
+      <c r="J28" s="7">
+        <v>5.0659999999999997E-2</v>
+      </c>
+      <c r="K28" s="7">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="L28" s="7">
+        <v>5.3220000000000003E-2</v>
+      </c>
+      <c r="M28" s="7">
+        <v>8.0750000000000002E-2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>9.1740000000000002E-2</v>
+      </c>
+      <c r="O28" s="7">
+        <v>8.5629999999999998E-2</v>
+      </c>
+      <c r="P28" s="7">
+        <v>7.1349999999999997E-2</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="R28" s="7">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="S28" s="7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="T28" s="7">
+        <v>6.2799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G33" s="7">
         <f>AVERAGE(G15,G17,G19,G21)</f>
         <v>5.7967500000000005E-2</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H33" s="7">
         <f>AVERAGE(H15,H17,H19,H21)</f>
         <v>6.6512500000000002E-2</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <f>AVERAGE(I15,I17,I19,I21)</f>
         <v>6.3997499999999999E-2</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J33" s="7">
         <f>AVERAGE(J15,J17,J19,J21)</f>
         <v>5.0817500000000002E-2</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K33" s="7">
         <f>AVERAGE(K15,K17,K19,K21)</f>
         <v>5.4057499999999994E-2</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L33" s="7">
         <f>AVERAGE(L15,L17,L19,L21)</f>
         <v>5.3877500000000002E-2</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M33" s="7">
         <f>AVERAGE(M15,M17,M19,M21)</f>
         <v>7.4115E-2</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <f>AVERAGE(N15,N17,N19,N21)</f>
         <v>7.55025E-2</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O33" s="7">
         <f>AVERAGE(O15,O17,O19,O21)</f>
         <v>7.1264999999999995E-2</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P33" s="7">
         <f>AVERAGE(P15,P17,P19,P21)</f>
         <v>7.0682499999999995E-2</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q33" s="7">
         <f>AVERAGE(Q15,Q17,Q19,Q21)</f>
         <v>0.1299525</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R33" s="7">
         <f>AVERAGE(R15,R17,R19,R21)</f>
         <v>8.3820000000000006E-2</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S33" s="7">
         <f>AVERAGE(S15,S17,S19,S21)</f>
         <v>8.3925E-2</v>
       </c>
-      <c r="T27" s="7">
+      <c r="T33" s="7">
         <f>AVERAGE(T15,T17,T19,T21)</f>
         <v>6.3485E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D28" s="3" t="s">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G34" s="7">
         <f>AVERAGE(G16,G18,G20,G22)</f>
         <v>6.2570000000000001E-2</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H34" s="7">
         <f>AVERAGE(H16,H18,H20,H22)</f>
         <v>7.2730000000000017E-2</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I34" s="7">
         <f>AVERAGE(I16,I18,I20,I22)</f>
         <v>7.0974999999999996E-2</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J34" s="7">
         <f>AVERAGE(J16,J18,J20,J22)</f>
         <v>5.8692499999999995E-2</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K34" s="7">
         <f>AVERAGE(K16,K18,K20,K22)</f>
         <v>5.7327500000000003E-2</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L34" s="7">
         <f>AVERAGE(L16,L18,L20,L22)</f>
         <v>6.9550000000000001E-2</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M34" s="7">
         <f>AVERAGE(M16,M18,M20,M22)</f>
         <v>8.2485000000000003E-2</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N34" s="7">
         <f>AVERAGE(N16,N18,N20,N22)</f>
         <v>7.9822500000000005E-2</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O34" s="7">
         <f>AVERAGE(O16,O18,O20,O22)</f>
         <v>7.041E-2</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P34" s="7">
         <f>AVERAGE(P16,P18,P20,P22)</f>
         <v>7.0554999999999993E-2</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q34" s="7">
         <f>AVERAGE(Q16,Q18,Q20,Q22)</f>
         <v>0.11919250000000001</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R34" s="7">
         <f>AVERAGE(R16,R18,R20,R22)</f>
         <v>7.4567499999999995E-2</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S34" s="7">
         <f>AVERAGE(S16,S18,S20,S22)</f>
         <v>6.8182499999999993E-2</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T34" s="7">
         <f>AVERAGE(T16,T18,T20,T22)</f>
         <v>4.3022500000000005E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Q39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="S39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="T39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="U39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V33" s="2" t="s">
+      <c r="V39" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E40" s="1">
         <v>2015</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F40" s="1">
         <v>-508</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G40" s="1">
         <v>89673</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H40" s="1">
         <v>0.17097677115742749</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I40" s="1">
         <v>20274.726180000001</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J40" s="1">
         <v>0.63144982324668508</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K40" s="1">
         <v>1.8846252495176911E-2</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L40" s="1">
         <v>23.73828289719313</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M40" s="1">
         <v>25.6</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N40" s="1">
         <v>5.8769083224604586E-3</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O40" s="1">
         <v>2.9663332329686628E-3</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P40" s="1">
         <v>8.227671651444687E-3</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q40" s="1">
         <v>1.0814961025057701</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R40" s="1">
         <v>0.67026351298607134</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S40" s="1">
         <v>25.881326426014489</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T40" s="1">
         <v>4.9067166259632105E-4</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U40" s="1">
         <v>5.6929064489868737E-2</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V40" s="1">
         <v>119.345016326319</v>
-      </c>
-    </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-583</v>
-      </c>
-      <c r="G35" s="1">
-        <v>88968</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.1689259059437101</v>
-      </c>
-      <c r="I35" s="1">
-        <v>21016.71081</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.63645580433414262</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1.899559392140994E-2</v>
-      </c>
-      <c r="L35" s="1">
-        <v>23.527577473473599</v>
-      </c>
-      <c r="M35" s="1">
-        <v>26.6</v>
-      </c>
-      <c r="N35" s="1">
-        <v>5.9234781044869714E-3</v>
-      </c>
-      <c r="O35" s="1">
-        <v>3.0572790216706999E-3</v>
-      </c>
-      <c r="P35" s="1">
-        <v>8.4412372988040517E-3</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>1.082479093606689</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0.61311033180469354</v>
-      </c>
-      <c r="S35" s="1">
-        <v>24.770910734196551</v>
-      </c>
-      <c r="T35" s="1">
-        <v>4.9455984174084965E-4</v>
-      </c>
-      <c r="U35" s="1">
-        <v>5.7874741480082717E-2</v>
-      </c>
-      <c r="V35" s="1">
-        <v>143.61354485994971</v>
-      </c>
-    </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F36" s="1">
-        <v>-507</v>
-      </c>
-      <c r="G36" s="1">
-        <v>88092</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.1657471734096172</v>
-      </c>
-      <c r="I36" s="1">
-        <v>22275.830239999999</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.67765063796939562</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1.9740725605049251E-2</v>
-      </c>
-      <c r="L36" s="1">
-        <v>26.707001895631841</v>
-      </c>
-      <c r="M36" s="1">
-        <v>27.4</v>
-      </c>
-      <c r="N36" s="1">
-        <v>5.9823820551241514E-3</v>
-      </c>
-      <c r="O36" s="1">
-        <v>3.0536257548926002E-3</v>
-      </c>
-      <c r="P36" s="1">
-        <v>8.7851337238341615E-3</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>1.0234073468646401</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0.61994051673250683</v>
-      </c>
-      <c r="S36" s="1">
-        <v>21.178866225082849</v>
-      </c>
-      <c r="T36" s="1">
-        <v>4.9947781864414359E-4</v>
-      </c>
-      <c r="U36" s="1">
-        <v>5.87113472278981E-2</v>
-      </c>
-      <c r="V36" s="1">
-        <v>142.04406721007581</v>
-      </c>
-    </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F37" s="1">
-        <v>-711</v>
-      </c>
-      <c r="G37" s="1">
-        <v>87282</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.16122453655965721</v>
-      </c>
-      <c r="I37" s="1">
-        <v>23989.908439999999</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.68737654957494088</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1.875529891615681E-2</v>
-      </c>
-      <c r="L37" s="1">
-        <v>29.351305275772781</v>
-      </c>
-      <c r="M37" s="1">
-        <v>28.1</v>
-      </c>
-      <c r="N37" s="1">
-        <v>6.3586993881899652E-3</v>
-      </c>
-      <c r="O37" s="1">
-        <v>3.0819642079695569E-3</v>
-      </c>
-      <c r="P37" s="1">
-        <v>9.3810865928828282E-3</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0.98409752297151609</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0.71611913109232095</v>
-      </c>
-      <c r="S37" s="1">
-        <v>20.416691414037231</v>
-      </c>
-      <c r="T37" s="1">
-        <v>5.0411310464929633E-4</v>
-      </c>
-      <c r="U37" s="1">
-        <v>5.925620402832199E-2</v>
-      </c>
-      <c r="V37" s="1">
-        <v>145.038276238858</v>
-      </c>
-    </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2020</v>
-      </c>
-      <c r="F38" s="1">
-        <v>-151.99999999999989</v>
-      </c>
-      <c r="G38" s="1">
-        <v>85939</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.15749543280699099</v>
-      </c>
-      <c r="I38" s="1">
-        <v>24720.091919999999</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.81039690943576237</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1.8396769801836171E-2</v>
-      </c>
-      <c r="L38" s="1">
-        <v>32.194688077822633</v>
-      </c>
-      <c r="M38" s="1">
-        <v>28.7</v>
-      </c>
-      <c r="N38" s="1">
-        <v>6.539522219248496E-3</v>
-      </c>
-      <c r="O38" s="1">
-        <v>2.5715914776760149E-3</v>
-      </c>
-      <c r="P38" s="1">
-        <v>1.0555161219004169E-2</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>1.1495013905211819</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0.66520904362396571</v>
-      </c>
-      <c r="S38" s="1">
-        <v>22.581482595794672</v>
-      </c>
-      <c r="T38" s="1">
-        <v>7.4471427407812321E-4</v>
-      </c>
-      <c r="U38" s="1">
-        <v>6.0112405310743661E-2</v>
-      </c>
-      <c r="V38" s="1">
-        <v>153.74505778284589</v>
       </c>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>16</v>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-583</v>
+      </c>
+      <c r="G41" s="1">
+        <v>88968</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.1689259059437101</v>
+      </c>
+      <c r="I41" s="1">
+        <v>21016.71081</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.63645580433414262</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1.899559392140994E-2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>23.527577473473599</v>
+      </c>
+      <c r="M41" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="N41" s="1">
+        <v>5.9234781044869714E-3</v>
+      </c>
+      <c r="O41" s="1">
+        <v>3.0572790216706999E-3</v>
+      </c>
+      <c r="P41" s="1">
+        <v>8.4412372988040517E-3</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1.082479093606689</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0.61311033180469354</v>
+      </c>
+      <c r="S41" s="1">
+        <v>24.770910734196551</v>
+      </c>
+      <c r="T41" s="1">
+        <v>4.9455984174084965E-4</v>
+      </c>
+      <c r="U41" s="1">
+        <v>5.7874741480082717E-2</v>
+      </c>
+      <c r="V41" s="1">
+        <v>143.61354485994971</v>
       </c>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C42" s="23" t="s">
-        <v>70</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F42" s="1">
-        <v>-163</v>
+        <v>-507</v>
       </c>
       <c r="G42" s="1">
-        <v>44795</v>
+        <v>88092</v>
       </c>
       <c r="H42" s="1">
-        <v>0.1195669159504409</v>
+        <v>0.1657471734096172</v>
       </c>
       <c r="I42" s="1">
-        <v>19632.524519999999</v>
+        <v>22275.830239999999</v>
       </c>
       <c r="J42" s="1">
-        <v>0.26123004799642802</v>
+        <v>0.67765063796939562</v>
       </c>
       <c r="K42" s="1">
-        <v>3.0717714030583751E-2</v>
+        <v>1.9740725605049251E-2</v>
       </c>
       <c r="L42" s="1">
-        <v>6.8428243203482468</v>
+        <v>26.707001895631841</v>
       </c>
       <c r="M42" s="1">
-        <v>25.4</v>
+        <v>27.4</v>
       </c>
       <c r="N42" s="1">
-        <v>3.415559772295994E-3</v>
+        <v>5.9823820551241514E-3</v>
       </c>
       <c r="O42" s="1">
-        <v>2.2993637682777002E-3</v>
+        <v>3.0536257548926002E-3</v>
       </c>
       <c r="P42" s="1">
-        <v>1.320683111954458E-2</v>
+        <v>8.7851337238341615E-3</v>
       </c>
       <c r="Q42" s="1">
-        <v>3.216117870298024</v>
+        <v>1.0234073468646401</v>
       </c>
       <c r="R42" s="1">
-        <v>0.54021386315436981</v>
+        <v>0.61994051673250683</v>
       </c>
       <c r="S42" s="1">
-        <v>65.877446219444096</v>
+        <v>21.178866225082849</v>
       </c>
       <c r="T42" s="1">
-        <v>1.5626744056256249E-3</v>
+        <v>4.9947781864414359E-4</v>
       </c>
       <c r="U42" s="1">
-        <v>4.6790936488447371E-2</v>
+        <v>5.87113472278981E-2</v>
       </c>
       <c r="V42" s="1">
-        <v>36.086993072441103</v>
+        <v>142.04406721007581</v>
       </c>
     </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C43" s="23" t="s">
-        <v>70</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F43" s="1">
-        <v>-100</v>
+        <v>-711</v>
       </c>
       <c r="G43" s="1">
-        <v>44888</v>
+        <v>87282</v>
       </c>
       <c r="H43" s="1">
-        <v>0.1251559436820531</v>
+        <v>0.16122453655965721</v>
       </c>
       <c r="I43" s="1">
-        <v>18340.544890000001</v>
+        <v>23989.908439999999</v>
       </c>
       <c r="J43" s="1">
-        <v>0.37225984672963802</v>
+        <v>0.68737654957494088</v>
       </c>
       <c r="K43" s="1">
-        <v>3.412938870076633E-2</v>
+        <v>1.875529891615681E-2</v>
       </c>
       <c r="L43" s="1">
-        <v>8.4181796671716178</v>
+        <v>29.351305275772781</v>
       </c>
       <c r="M43" s="1">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="N43" s="1">
-        <v>3.2970949919800181E-3</v>
+        <v>6.3586993881899652E-3</v>
       </c>
       <c r="O43" s="1">
-        <v>2.31687756193191E-3</v>
+        <v>3.0819642079695569E-3</v>
       </c>
       <c r="P43" s="1">
-        <v>1.3460167528069861E-2</v>
+        <v>9.3810865928828282E-3</v>
       </c>
       <c r="Q43" s="1">
-        <v>3.237123507396185</v>
+        <v>0.98409752297151609</v>
       </c>
       <c r="R43" s="1">
-        <v>0.44668731063981459</v>
+        <v>0.71611913109232095</v>
       </c>
       <c r="S43" s="1">
-        <v>65.029295230351053</v>
+        <v>20.416691414037231</v>
       </c>
       <c r="T43" s="1">
-        <v>1.559436820531096E-3</v>
+        <v>5.0411310464929633E-4</v>
       </c>
       <c r="U43" s="1">
-        <v>4.7696489039386912E-2</v>
+        <v>5.925620402832199E-2</v>
       </c>
       <c r="V43" s="1">
-        <v>36.327307061575482</v>
+        <v>145.038276238858</v>
       </c>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-151.99999999999989</v>
+      </c>
+      <c r="G44" s="1">
+        <v>85939</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.15749543280699099</v>
+      </c>
+      <c r="I44" s="1">
+        <v>24720.091919999999</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.81039690943576237</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1.8396769801836171E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>32.194688077822633</v>
+      </c>
+      <c r="M44" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="N44" s="1">
+        <v>6.539522219248496E-3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2.5715914776760149E-3</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1.0555161219004169E-2</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1.1495013905211819</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.66520904362396571</v>
+      </c>
+      <c r="S44" s="1">
+        <v>22.581482595794672</v>
+      </c>
+      <c r="T44" s="1">
+        <v>7.4471427407812321E-4</v>
+      </c>
+      <c r="U44" s="1">
+        <v>6.0112405310743661E-2</v>
+      </c>
+      <c r="V44" s="1">
+        <v>153.74505778284589</v>
+      </c>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C48" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E48" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-163</v>
+      </c>
+      <c r="G48" s="1">
+        <v>44795</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.1195669159504409</v>
+      </c>
+      <c r="I48" s="1">
+        <v>19632.524519999999</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.26123004799642802</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3.0717714030583751E-2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>6.8428243203482468</v>
+      </c>
+      <c r="M48" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="N48" s="1">
+        <v>3.415559772295994E-3</v>
+      </c>
+      <c r="O48" s="1">
+        <v>2.2993637682777002E-3</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1.320683111954458E-2</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>3.216117870298024</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.54021386315436981</v>
+      </c>
+      <c r="S48" s="1">
+        <v>65.877446219444096</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1.5626744056256249E-3</v>
+      </c>
+      <c r="U48" s="1">
+        <v>4.6790936488447371E-2</v>
+      </c>
+      <c r="V48" s="1">
+        <v>36.086993072441103</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C49" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-100</v>
+      </c>
+      <c r="G49" s="1">
+        <v>44888</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.1251559436820531</v>
+      </c>
+      <c r="I49" s="1">
+        <v>18340.544890000001</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.37225984672963802</v>
+      </c>
+      <c r="K49" s="1">
+        <v>3.412938870076633E-2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>8.4181796671716178</v>
+      </c>
+      <c r="M49" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="N49" s="1">
+        <v>3.2970949919800181E-3</v>
+      </c>
+      <c r="O49" s="1">
+        <v>2.31687756193191E-3</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1.3460167528069861E-2</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>3.237123507396185</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0.44668731063981459</v>
+      </c>
+      <c r="S49" s="1">
+        <v>65.029295230351053</v>
+      </c>
+      <c r="T49" s="1">
+        <v>1.559436820531096E-3</v>
+      </c>
+      <c r="U49" s="1">
+        <v>4.7696489039386912E-2</v>
+      </c>
+      <c r="V49" s="1">
+        <v>36.327307061575482</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C50" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="1">
         <v>2017</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F50" s="1">
         <v>-179</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G50" s="1">
         <v>44962</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H50" s="1">
         <v>0.1264401049775366</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I50" s="1">
         <v>19591.68519</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J50" s="1">
         <v>0.37287042391352693</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K50" s="1">
         <v>3.0603620835372079E-2</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L50" s="1">
         <v>22.083162368444469</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M50" s="1">
         <v>28.1</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N50" s="1">
         <v>3.6475245763088601E-3</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O50" s="1">
         <v>2.3130643654641599E-3</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P50" s="1">
         <v>1.3724923268537871E-2</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q50" s="1">
         <v>3.2863529202437611</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R50" s="1">
         <v>0.48064810284240023</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S50" s="1">
         <v>62.958639059650331</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T50" s="1">
         <v>1.5568702459854949E-3</v>
       </c>
-      <c r="U44" s="1">
+      <c r="U50" s="1">
         <v>4.7617988523642192E-2</v>
       </c>
-      <c r="V44" s="1">
+      <c r="V50" s="1">
         <v>38.445424051198778</v>
       </c>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C45" s="23" t="s">
+    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C51" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E51" s="1">
         <v>2018</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F51" s="1">
         <v>-56.99999999999995</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G51" s="1">
         <v>44933.999999999993</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H51" s="1">
         <v>0.1135665642942983</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I51" s="1">
         <v>20641.733639999999</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J51" s="1">
         <v>0.37868206703164631</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K51" s="1">
         <v>3.4984644144745607E-2</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L51" s="1">
         <v>23.389734217296478</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M51" s="1">
         <v>28.8</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N51" s="1">
         <v>3.7165620688120122E-3</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O51" s="1">
         <v>2.2699959941247069E-3</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P51" s="1">
         <v>1.374237770952952E-2</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q51" s="1">
         <v>2.790626251836025</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R51" s="1">
         <v>0.49644456313704521</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S51" s="1">
         <v>59.326706022165851</v>
       </c>
-      <c r="T45" s="1">
+      <c r="T51" s="1">
         <v>1.491075800062311E-3</v>
       </c>
-      <c r="U45" s="1">
+      <c r="U51" s="1">
         <v>4.775893532736903E-2</v>
       </c>
-      <c r="V45" s="1">
+      <c r="V51" s="1">
         <v>34.524197758490182</v>
       </c>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C46" s="3" t="s">
+    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E52" s="3">
         <v>2020</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F52" s="1">
         <v>-449.99999999999989</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G52" s="1">
         <v>44386</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H52" s="1">
         <v>0.11616275402153831</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I52" s="1">
         <v>21819.183840000002</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J52" s="1">
         <v>0.43312530978236369</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K52" s="1">
         <v>3.4515387734871332E-2</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L52" s="1">
         <v>23.330135132699489</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M52" s="1">
         <v>29.9</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N52" s="1">
         <v>3.807506871536046E-3</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O52" s="1">
         <v>2.343081151714495E-3</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P52" s="1">
         <v>1.4168882079935099E-2</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q52" s="1">
         <v>2.863042400756993</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R52" s="1">
         <v>0.49934596494390132</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S52" s="1">
         <v>56.510477592033467</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T52" s="1">
         <v>1.622133105033115E-3</v>
       </c>
-      <c r="U46" s="1">
+      <c r="U52" s="1">
         <v>4.9587707835804067E-2</v>
       </c>
-      <c r="V46" s="1">
+      <c r="V52" s="1">
         <v>33.696300743477607</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I34:I38">
+  <conditionalFormatting sqref="I40:I44">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:L44">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q40:Q44">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -10195,7 +10676,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34:L38">
+  <conditionalFormatting sqref="R40:R44">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -10207,7 +10688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q34:Q38">
+  <conditionalFormatting sqref="S40:S44">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -10219,7 +10700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R34:R38">
+  <conditionalFormatting sqref="V40:V44">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -10231,7 +10712,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S34:S38">
+  <conditionalFormatting sqref="I48:I52">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -10243,7 +10724,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V34:V38">
+  <conditionalFormatting sqref="L48:L52">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10255,7 +10736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:I46">
+  <conditionalFormatting sqref="Q48:Q52">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10267,7 +10748,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L42:L46">
+  <conditionalFormatting sqref="R48:R52">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10279,7 +10760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q42:Q46">
+  <conditionalFormatting sqref="S48:S52">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10291,7 +10772,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R42:R46">
+  <conditionalFormatting sqref="V48:V52">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10303,7 +10784,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S42:S46">
+  <conditionalFormatting sqref="G15:T15">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10315,7 +10796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V42:V46">
+  <conditionalFormatting sqref="G16:T16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10327,7 +10808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:T15">
+  <conditionalFormatting sqref="G17:T17">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10339,7 +10820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:T16">
+  <conditionalFormatting sqref="G18:T18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10351,7 +10832,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:T17">
+  <conditionalFormatting sqref="G19:T20">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10363,7 +10844,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:T18">
+  <conditionalFormatting sqref="G21:T22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10375,7 +10856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:T20">
+  <conditionalFormatting sqref="G23:T24">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10387,7 +10868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:T22">
+  <conditionalFormatting sqref="G25:T26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10399,7 +10880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:T24">
+  <conditionalFormatting sqref="G27:T28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="75">
   <si>
     <t>saldo</t>
   </si>
@@ -241,16 +241,13 @@
     <t>Лаишевский МР</t>
   </si>
   <si>
-    <t>Анапа</t>
-  </si>
-  <si>
-    <t>Геленджик</t>
-  </si>
-  <si>
     <t>город-курорт Анапа</t>
   </si>
   <si>
     <t>город-курорт Геленджик</t>
+  </si>
+  <si>
+    <t>Ангарский</t>
   </si>
 </sst>
 </file>
@@ -369,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,7 +435,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8072,10 +8068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AP52"/>
+  <dimension ref="C4:AP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8278,58 +8274,58 @@
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="1">
-        <v>1763</v>
+        <v>-194</v>
       </c>
       <c r="AA5" s="1">
-        <v>212839</v>
+        <v>236912</v>
       </c>
       <c r="AB5" s="1">
-        <v>28526</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>23354.08466</v>
+        <v>53549</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>34942.071599999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>141345.60000000001</v>
+        <v>235660</v>
       </c>
       <c r="AE5" s="1">
-        <v>24750</v>
+        <v>8148</v>
       </c>
       <c r="AF5" s="1">
-        <v>21587685.325390004</v>
+        <v>11652446.762639999</v>
       </c>
       <c r="AG5" s="1">
-        <v>38.700000000000003</v>
+        <v>23.7</v>
       </c>
       <c r="AH5" s="1">
-        <v>471</v>
+        <v>404</v>
       </c>
       <c r="AI5" s="1">
-        <v>284</v>
+        <v>916</v>
       </c>
       <c r="AJ5" s="1">
-        <v>966.6</v>
+        <v>472.3</v>
       </c>
       <c r="AK5" s="1">
-        <v>186537</v>
+        <v>8869</v>
       </c>
       <c r="AL5" s="1">
-        <v>88881.7</v>
+        <v>69835</v>
       </c>
       <c r="AM5" s="1">
-        <v>3512839.4188999999</v>
+        <v>1877904.9180000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AO5" s="1">
-        <v>8643</v>
+        <v>13689</v>
       </c>
       <c r="AP5" s="1">
-        <v>41903256.314429998</v>
+        <v>67922741.907359987</v>
       </c>
     </row>
     <row r="6" spans="3:42" x14ac:dyDescent="0.25">
@@ -8394,60 +8390,24 @@
         <v>33.696300743477607</v>
       </c>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>-43</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>115048</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>18845</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>25688.450580000001</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>146435</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>28940</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>14223515.170820002</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>42.7</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>307</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>614</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>399.1</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>13359</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>6852.2</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>425668.60330000002</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>25</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>5790</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>12400307.79752</v>
-      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
     </row>
     <row r="7" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
@@ -8514,21 +8474,64 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
+      <c r="AB7" s="1">
+        <f>AB5/$AA5</f>
+        <v>0.22602907408658068</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>34942.071599999996</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" ref="AC7:AP7" si="0">AD5/$AA5</f>
+        <v>0.99471533734044704</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4392517052745326E-2</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="0"/>
+        <v>49.184704711622878</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7052745323157966E-3</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8664145336665093E-3</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9935672317147298E-3</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7435841156209904E-2</v>
+      </c>
+      <c r="AL7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29477189842641993</v>
+      </c>
+      <c r="AM7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9265926504356052</v>
+      </c>
+      <c r="AN7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5977578172485983E-5</v>
+      </c>
+      <c r="AO7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.778094820017559E-2</v>
+      </c>
+      <c r="AP7" s="1">
+        <f t="shared" si="0"/>
+        <v>286.70030183089074</v>
+      </c>
     </row>
     <row r="8" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
@@ -8596,64 +8599,21 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
-      <c r="AB8" s="13">
-        <f>AB5/$AA5</f>
-        <v>0.13402618880938175</v>
-      </c>
-      <c r="AC8" s="13">
-        <v>23354.08466</v>
-      </c>
-      <c r="AD8" s="13">
-        <f t="shared" ref="AC8:AP8" si="0">AD5/$AA5</f>
-        <v>0.66409633572794458</v>
-      </c>
-      <c r="AE8" s="13">
-        <f t="shared" si="0"/>
-        <v>0.11628507933226523</v>
-      </c>
-      <c r="AF8" s="13">
-        <f t="shared" si="0"/>
-        <v>101.42730103688706</v>
-      </c>
-      <c r="AG8" s="13">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="AH8" s="13">
-        <f t="shared" si="0"/>
-        <v>2.2129402975958352E-3</v>
-      </c>
-      <c r="AI8" s="13">
-        <f t="shared" si="0"/>
-        <v>1.3343419204187201E-3</v>
-      </c>
-      <c r="AJ8" s="13">
-        <f t="shared" si="0"/>
-        <v>4.5414609164673766E-3</v>
-      </c>
-      <c r="AK8" s="13">
-        <f t="shared" si="0"/>
-        <v>0.87642302397586913</v>
-      </c>
-      <c r="AL8" s="13">
-        <f t="shared" si="0"/>
-        <v>0.41760062770450901</v>
-      </c>
-      <c r="AM8" s="13">
-        <f t="shared" si="0"/>
-        <v>16.504679212456363</v>
-      </c>
-      <c r="AN8" s="13">
-        <f t="shared" si="0"/>
-        <v>1.9733225583657132E-4</v>
-      </c>
-      <c r="AO8" s="13">
-        <f t="shared" si="0"/>
-        <v>4.0608159218940135E-2</v>
-      </c>
-      <c r="AP8" s="13">
-        <f t="shared" si="0"/>
-        <v>196.87771655772673</v>
-      </c>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
@@ -8716,71 +8676,28 @@
       <c r="V9" s="7">
         <v>873.40777892583776</v>
       </c>
-      <c r="AB9" s="13">
-        <f>AB6/$AA6</f>
-        <v>0.16380119602252974</v>
-      </c>
-      <c r="AC9" s="13">
-        <v>25688.450580000001</v>
-      </c>
-      <c r="AD9" s="13">
-        <f t="shared" ref="AC9:AP9" si="1">AD6/$AA6</f>
-        <v>1.2728165635213129</v>
-      </c>
-      <c r="AE9" s="13">
-        <f t="shared" si="1"/>
-        <v>0.25154718030734996</v>
-      </c>
-      <c r="AF9" s="13">
-        <f t="shared" si="1"/>
-        <v>123.63113805385579</v>
-      </c>
-      <c r="AG9" s="13">
-        <v>42.7</v>
-      </c>
-      <c r="AH9" s="13">
-        <f t="shared" si="1"/>
-        <v>2.6684514289687781E-3</v>
-      </c>
-      <c r="AI9" s="13">
-        <f t="shared" si="1"/>
-        <v>5.3369028579375562E-3</v>
-      </c>
-      <c r="AJ9" s="13">
-        <f t="shared" si="1"/>
-        <v>3.4689868576594121E-3</v>
-      </c>
-      <c r="AK9" s="13">
-        <f t="shared" si="1"/>
-        <v>0.11611675126903553</v>
-      </c>
-      <c r="AL9" s="13">
-        <f t="shared" si="1"/>
-        <v>5.9559488213615182E-2</v>
-      </c>
-      <c r="AM9" s="13">
-        <f t="shared" si="1"/>
-        <v>3.6999218004658925</v>
-      </c>
-      <c r="AN9" s="13">
-        <f t="shared" si="1"/>
-        <v>2.1730060496488423E-4</v>
-      </c>
-      <c r="AO9" s="13">
-        <f t="shared" si="1"/>
-        <v>5.0326820109867186E-2</v>
-      </c>
-      <c r="AP9" s="13">
-        <f t="shared" si="1"/>
-        <v>107.78377544607469</v>
-      </c>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
     </row>
     <row r="10" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1">
         <v>2021</v>
@@ -8858,7 +8775,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1">
         <v>2021</v>
@@ -8916,6 +8833,66 @@
       </c>
     </row>
     <row r="12" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-194</v>
+      </c>
+      <c r="G12" s="1">
+        <v>236912</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.22602907408658068</v>
+      </c>
+      <c r="I12" s="6">
+        <v>34942.071599999996</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.99471533734044704</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3.4392517052745326E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>49.184704711622878</v>
+      </c>
+      <c r="M12" s="5">
+        <v>23.7</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1.7052745323157966E-3</v>
+      </c>
+      <c r="O12" s="5">
+        <v>3.8664145336665093E-3</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1.9935672317147298E-3</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>3.7435841156209904E-2</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.29477189842641993</v>
+      </c>
+      <c r="S12" s="5">
+        <v>7.9265926504356052</v>
+      </c>
+      <c r="T12" s="5">
+        <v>7.5977578172485983E-5</v>
+      </c>
+      <c r="U12" s="5">
+        <v>5.778094820017559E-2</v>
+      </c>
+      <c r="V12" s="5">
+        <v>286.70030183089074</v>
+      </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -8933,116 +8910,60 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="14" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+    <row r="15" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>80631000</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G15" s="7">
-        <v>5.713E-2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>6.6350000000000006E-2</v>
-      </c>
-      <c r="I15" s="7">
-        <v>6.54E-2</v>
-      </c>
-      <c r="J15" s="7">
-        <v>4.7969999999999999E-2</v>
-      </c>
-      <c r="K15" s="7">
-        <v>4.8160000000000001E-2</v>
-      </c>
-      <c r="L15" s="7">
-        <v>4.5749999999999999E-2</v>
-      </c>
-      <c r="M15" s="7">
-        <v>7.306E-2</v>
-      </c>
-      <c r="N15" s="7">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="O15" s="7">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="P15" s="7">
-        <v>6.1429999999999998E-2</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0.14660000000000001</v>
-      </c>
-      <c r="R15" s="7">
-        <v>9.0639999999999998E-2</v>
-      </c>
-      <c r="S15" s="7">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="T15" s="7">
-        <v>7.3700000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="3:42" x14ac:dyDescent="0.25">
@@ -9053,108 +8974,108 @@
         <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1">
         <v>2020</v>
       </c>
       <c r="G16" s="7">
-        <v>6.1899999999999997E-2</v>
+        <v>5.713E-2</v>
       </c>
       <c r="H16" s="7">
-        <v>7.1800000000000003E-2</v>
+        <v>6.6350000000000006E-2</v>
       </c>
       <c r="I16" s="7">
-        <v>6.9099999999999995E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="J16" s="7">
-        <v>5.1240000000000001E-2</v>
+        <v>4.7969999999999999E-2</v>
       </c>
       <c r="K16" s="7">
-        <v>4.446E-2</v>
+        <v>4.8160000000000001E-2</v>
       </c>
       <c r="L16" s="7">
-        <v>8.0439999999999998E-2</v>
+        <v>4.5749999999999999E-2</v>
       </c>
       <c r="M16" s="7">
-        <v>9.3899999999999997E-2</v>
+        <v>7.306E-2</v>
       </c>
       <c r="N16" s="7">
-        <v>7.5130000000000002E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="O16" s="7">
-        <v>6.3600000000000004E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="P16" s="7">
-        <v>6.1039999999999997E-2</v>
+        <v>6.1429999999999998E-2</v>
       </c>
       <c r="Q16" s="7">
-        <v>0.1278</v>
+        <v>0.14660000000000001</v>
       </c>
       <c r="R16" s="7">
-        <v>7.6969999999999997E-2</v>
+        <v>9.0639999999999998E-2</v>
       </c>
       <c r="S16" s="7">
-        <v>7.2900000000000006E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="T16" s="7">
-        <v>4.9840000000000002E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
-        <v>80601000</v>
+        <v>80631000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1">
         <v>2020</v>
       </c>
       <c r="G17" s="7">
-        <v>7.2270000000000001E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="H17" s="7">
-        <v>8.7160000000000001E-2</v>
+        <v>7.1800000000000003E-2</v>
       </c>
       <c r="I17" s="7">
-        <v>8.0140000000000003E-2</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="J17" s="7">
-        <v>5.5300000000000002E-2</v>
+        <v>5.1240000000000001E-2</v>
       </c>
       <c r="K17" s="7">
-        <v>5.79E-2</v>
+        <v>4.446E-2</v>
       </c>
       <c r="L17" s="7">
-        <v>4.1930000000000002E-2</v>
+        <v>8.0439999999999998E-2</v>
       </c>
       <c r="M17" s="7">
-        <v>6.9599999999999995E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="N17" s="7">
-        <v>6.2469999999999998E-2</v>
+        <v>7.5130000000000002E-2</v>
       </c>
       <c r="O17" s="7">
-        <v>6.2560000000000004E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="P17" s="7">
-        <v>5.91E-2</v>
+        <v>6.1039999999999997E-2</v>
       </c>
       <c r="Q17" s="7">
-        <v>0.14610000000000001</v>
+        <v>0.1278</v>
       </c>
       <c r="R17" s="7">
-        <v>8.5139999999999993E-2</v>
+        <v>7.6969999999999997E-2</v>
       </c>
       <c r="S17" s="7">
-        <v>7.1900000000000006E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="T17" s="7">
-        <v>4.8500000000000001E-2</v>
+        <v>4.9840000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
@@ -9165,108 +9086,108 @@
         <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1">
         <v>2020</v>
       </c>
       <c r="G18" s="7">
-        <v>7.2139999999999996E-2</v>
+        <v>7.2270000000000001E-2</v>
       </c>
       <c r="H18" s="7">
-        <v>8.6360000000000006E-2</v>
+        <v>8.7160000000000001E-2</v>
       </c>
       <c r="I18" s="7">
-        <v>8.2460000000000006E-2</v>
+        <v>8.0140000000000003E-2</v>
       </c>
       <c r="J18" s="7">
-        <v>5.8470000000000001E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="K18" s="7">
-        <v>6.5250000000000002E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="L18" s="7">
-        <v>5.7099999999999998E-2</v>
+        <v>4.1930000000000002E-2</v>
       </c>
       <c r="M18" s="7">
-        <v>8.0140000000000003E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="N18" s="7">
-        <v>7.0860000000000006E-2</v>
+        <v>6.2469999999999998E-2</v>
       </c>
       <c r="O18" s="7">
-        <v>5.8900000000000001E-2</v>
+        <v>6.2560000000000004E-2</v>
       </c>
       <c r="P18" s="7">
-        <v>5.8779999999999999E-2</v>
+        <v>5.91E-2</v>
       </c>
       <c r="Q18" s="7">
-        <v>0.1333</v>
+        <v>0.14610000000000001</v>
       </c>
       <c r="R18" s="7">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5139999999999993E-2</v>
       </c>
       <c r="S18" s="7">
-        <v>6.1650000000000003E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="T18" s="7">
-        <v>3.5639999999999998E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <v>38701000</v>
+        <v>80601000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G19" s="7">
-        <v>4.2900000000000001E-2</v>
+        <v>7.2139999999999996E-2</v>
       </c>
       <c r="H19" s="7">
-        <v>5.9499999999999997E-2</v>
+        <v>8.6360000000000006E-2</v>
       </c>
       <c r="I19" s="7">
-        <v>5.475E-2</v>
+        <v>8.2460000000000006E-2</v>
       </c>
       <c r="J19" s="7">
-        <v>4.8550000000000003E-2</v>
+        <v>5.8470000000000001E-2</v>
       </c>
       <c r="K19" s="7">
-        <v>4.48E-2</v>
+        <v>6.5250000000000002E-2</v>
       </c>
       <c r="L19" s="7">
-        <v>4.9930000000000002E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="M19" s="7">
-        <v>7.6899999999999996E-2</v>
+        <v>8.0140000000000003E-2</v>
       </c>
       <c r="N19" s="7">
-        <v>9.2039999999999997E-2</v>
+        <v>7.0860000000000006E-2</v>
       </c>
       <c r="O19" s="7">
-        <v>8.1799999999999998E-2</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="P19" s="7">
-        <v>7.6100000000000001E-2</v>
+        <v>5.8779999999999999E-2</v>
       </c>
       <c r="Q19" s="7">
-        <v>0.12427000000000001</v>
+        <v>0.1333</v>
       </c>
       <c r="R19" s="7">
-        <v>7.0400000000000004E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="S19" s="7">
-        <v>9.0700000000000003E-2</v>
+        <v>6.1650000000000003E-2</v>
       </c>
       <c r="T19" s="7">
-        <v>8.7340000000000001E-2</v>
+        <v>3.5639999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
@@ -9277,108 +9198,108 @@
         <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1">
         <v>2023</v>
       </c>
       <c r="G20" s="7">
-        <v>5.4960000000000002E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="H20" s="7">
-        <v>7.3400000000000007E-2</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="I20" s="7">
-        <v>6.744E-2</v>
+        <v>5.475E-2</v>
       </c>
       <c r="J20" s="7">
-        <v>6.1460000000000001E-2</v>
+        <v>4.8550000000000003E-2</v>
       </c>
       <c r="K20" s="7">
-        <v>4.82E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="L20" s="7">
-        <v>5.2060000000000002E-2</v>
+        <v>4.9930000000000002E-2</v>
       </c>
       <c r="M20" s="7">
-        <v>7.9200000000000007E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="N20" s="7">
-        <v>9.7000000000000003E-2</v>
+        <v>9.2039999999999997E-2</v>
       </c>
       <c r="O20" s="7">
-        <v>8.4839999999999999E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="P20" s="7">
         <v>7.6100000000000001E-2</v>
       </c>
       <c r="Q20" s="7">
-        <v>0.11269999999999999</v>
+        <v>0.12427000000000001</v>
       </c>
       <c r="R20" s="7">
-        <v>6.1600000000000002E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="S20" s="7">
-        <v>7.1529999999999996E-2</v>
+        <v>9.0700000000000003E-2</v>
       </c>
       <c r="T20" s="7">
-        <v>5.9630000000000002E-2</v>
+        <v>8.7340000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <v>20627000</v>
+        <v>38701000</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="G21" s="7">
-        <v>5.9569999999999998E-2</v>
+        <v>5.4960000000000002E-2</v>
       </c>
       <c r="H21" s="7">
-        <v>5.3039999999999997E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="I21" s="7">
-        <v>5.57E-2</v>
+        <v>6.744E-2</v>
       </c>
       <c r="J21" s="7">
-        <v>5.1450000000000003E-2</v>
+        <v>6.1460000000000001E-2</v>
       </c>
       <c r="K21" s="7">
-        <v>6.5369999999999998E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="L21" s="7">
-        <v>7.7899999999999997E-2</v>
+        <v>5.2060000000000002E-2</v>
       </c>
       <c r="M21" s="7">
-        <v>7.6899999999999996E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="N21" s="7">
-        <v>7.6999999999999999E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="O21" s="7">
-        <v>7.4999999999999997E-2</v>
+        <v>8.4839999999999999E-2</v>
       </c>
       <c r="P21" s="7">
-        <v>8.6099999999999996E-2</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="Q21" s="7">
-        <v>0.10284</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="R21" s="7">
-        <v>8.9099999999999999E-2</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="S21" s="7">
-        <v>8.5599999999999996E-2</v>
+        <v>7.1529999999999996E-2</v>
       </c>
       <c r="T21" s="7">
-        <v>4.4400000000000002E-2</v>
+        <v>5.9630000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
@@ -9389,108 +9310,108 @@
         <v>68</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1">
         <v>2012</v>
       </c>
       <c r="G22" s="7">
-        <v>6.1280000000000001E-2</v>
+        <v>5.9569999999999998E-2</v>
       </c>
       <c r="H22" s="7">
-        <v>5.9360000000000003E-2</v>
+        <v>5.3039999999999997E-2</v>
       </c>
       <c r="I22" s="7">
-        <v>6.4899999999999999E-2</v>
+        <v>5.57E-2</v>
       </c>
       <c r="J22" s="7">
-        <v>6.3600000000000004E-2</v>
+        <v>5.1450000000000003E-2</v>
       </c>
       <c r="K22" s="7">
-        <v>7.1400000000000005E-2</v>
+        <v>6.5369999999999998E-2</v>
       </c>
       <c r="L22" s="7">
-        <v>8.8599999999999998E-2</v>
+        <v>7.7899999999999997E-2</v>
       </c>
       <c r="M22" s="7">
-        <v>7.6700000000000004E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="N22" s="7">
-        <v>7.6300000000000007E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="O22" s="7">
-        <v>7.4300000000000005E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="P22" s="7">
-        <v>8.6300000000000002E-2</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="Q22" s="7">
-        <v>0.10297000000000001</v>
+        <v>0.10284</v>
       </c>
       <c r="R22" s="7">
-        <v>8.0699999999999994E-2</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="S22" s="7">
-        <v>6.6650000000000001E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="T22" s="7">
-        <v>2.6980000000000001E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
-        <v>92634000</v>
+        <v>20627000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" s="1">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="G23" s="7">
-        <v>6.1769999999999999E-2</v>
+        <v>6.1280000000000001E-2</v>
       </c>
       <c r="H23" s="7">
-        <v>6.7199999999999996E-2</v>
+        <v>5.9360000000000003E-2</v>
       </c>
       <c r="I23" s="7">
-        <v>5.21E-2</v>
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="J23" s="7">
-        <v>4.675E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="K23" s="7">
-        <v>4.8070000000000002E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="L23" s="7">
-        <v>7.0599999999999996E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="M23" s="7">
-        <v>9.35E-2</v>
+        <v>7.6700000000000004E-2</v>
       </c>
       <c r="N23" s="7">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="O23" s="7">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="P23" s="7">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0.10297000000000001</v>
+      </c>
+      <c r="R23" s="7">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="O23" s="7">
-        <v>6.7599999999999993E-2</v>
-      </c>
-      <c r="P23" s="7">
-        <v>5.9080000000000001E-2</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0.12870000000000001</v>
-      </c>
-      <c r="R23" s="7">
-        <v>7.7759999999999996E-2</v>
-      </c>
       <c r="S23" s="7">
-        <v>8.4659999999999999E-2</v>
+        <v>6.6650000000000001E-2</v>
       </c>
       <c r="T23" s="7">
-        <v>6.1519999999999998E-2</v>
+        <v>2.6980000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
@@ -9501,108 +9422,108 @@
         <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1">
         <v>2020</v>
       </c>
       <c r="G24" s="7">
-        <v>6.7500000000000004E-2</v>
+        <v>6.1769999999999999E-2</v>
       </c>
       <c r="H24" s="7">
-        <v>7.6050000000000006E-2</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="I24" s="7">
-        <v>5.7860000000000002E-2</v>
+        <v>5.21E-2</v>
       </c>
       <c r="J24" s="7">
-        <v>4.8829999999999998E-2</v>
+        <v>4.675E-2</v>
       </c>
       <c r="K24" s="7">
-        <v>4.376E-2</v>
+        <v>4.8070000000000002E-2</v>
       </c>
       <c r="L24" s="7">
-        <v>7.7299999999999994E-2</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="M24" s="7">
-        <v>0.10564999999999999</v>
+        <v>9.35E-2</v>
       </c>
       <c r="N24" s="7">
-        <v>8.0750000000000002E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="O24" s="7">
-        <v>7.22E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="P24" s="7">
-        <v>5.8779999999999999E-2</v>
+        <v>5.9080000000000001E-2</v>
       </c>
       <c r="Q24" s="7">
-        <v>0.11940000000000001</v>
+        <v>0.12870000000000001</v>
       </c>
       <c r="R24" s="7">
-        <v>7.0739999999999997E-2</v>
+        <v>7.7759999999999996E-2</v>
       </c>
       <c r="S24" s="7">
-        <v>7.2139999999999996E-2</v>
+        <v>8.4659999999999999E-2</v>
       </c>
       <c r="T24" s="7">
-        <v>4.9160000000000002E-2</v>
+        <v>6.1519999999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
-        <v>3703000</v>
+        <v>92634000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G25" s="7">
-        <v>6.0760000000000002E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="H25" s="7">
-        <v>6.207E-2</v>
+        <v>7.6050000000000006E-2</v>
       </c>
       <c r="I25" s="7">
-        <v>5.2670000000000002E-2</v>
+        <v>5.7860000000000002E-2</v>
       </c>
       <c r="J25" s="7">
-        <v>4.6539999999999998E-2</v>
+        <v>4.8829999999999998E-2</v>
       </c>
       <c r="K25" s="7">
-        <v>3.8420000000000003E-2</v>
+        <v>4.376E-2</v>
       </c>
       <c r="L25" s="7">
-        <v>5.6599999999999998E-2</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="M25" s="7">
-        <v>8.0299999999999996E-2</v>
+        <v>0.10564999999999999</v>
       </c>
       <c r="N25" s="7">
-        <v>8.8440000000000005E-2</v>
+        <v>8.0750000000000002E-2</v>
       </c>
       <c r="O25" s="7">
-        <v>7.8899999999999998E-2</v>
+        <v>7.22E-2</v>
       </c>
       <c r="P25" s="7">
-        <v>7.0499999999999993E-2</v>
+        <v>5.8779999999999999E-2</v>
       </c>
       <c r="Q25" s="7">
-        <v>0.1244</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="R25" s="7">
-        <v>7.6050000000000006E-2</v>
+        <v>7.0739999999999997E-2</v>
       </c>
       <c r="S25" s="7">
-        <v>8.7599999999999997E-2</v>
+        <v>7.2139999999999996E-2</v>
       </c>
       <c r="T25" s="7">
-        <v>7.6799999999999993E-2</v>
+        <v>4.9160000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
@@ -9610,111 +9531,111 @@
         <v>3703000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="1">
         <v>2021</v>
       </c>
       <c r="G26" s="7">
-        <v>7.1840000000000001E-2</v>
+        <v>6.0760000000000002E-2</v>
       </c>
       <c r="H26" s="7">
-        <v>7.4300000000000005E-2</v>
+        <v>6.207E-2</v>
       </c>
       <c r="I26" s="7">
-        <v>6.4699999999999994E-2</v>
+        <v>5.2670000000000002E-2</v>
       </c>
       <c r="J26" s="7">
-        <v>5.2600000000000001E-2</v>
+        <v>4.6539999999999998E-2</v>
       </c>
       <c r="K26" s="7">
-        <v>4.1320000000000003E-2</v>
+        <v>3.8420000000000003E-2</v>
       </c>
       <c r="L26" s="7">
-        <v>6.93E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="M26" s="7">
-        <v>8.9539999999999995E-2</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="N26" s="7">
-        <v>8.4099999999999994E-2</v>
+        <v>8.8440000000000005E-2</v>
       </c>
       <c r="O26" s="7">
-        <v>7.6539999999999997E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="P26" s="7">
-        <v>6.9800000000000001E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="Q26" s="7">
-        <v>0.11053</v>
+        <v>0.1244</v>
       </c>
       <c r="R26" s="7">
-        <v>6.5100000000000005E-2</v>
+        <v>7.6050000000000006E-2</v>
       </c>
       <c r="S26" s="7">
-        <v>7.0400000000000004E-2</v>
+        <v>8.7599999999999997E-2</v>
       </c>
       <c r="T26" s="7">
-        <v>5.9970000000000002E-2</v>
+        <v>7.6799999999999993E-2</v>
       </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
-        <v>3708000</v>
+        <v>3703000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="1">
         <v>2021</v>
       </c>
       <c r="G27" s="7">
-        <v>5.774E-2</v>
+        <v>7.1840000000000001E-2</v>
       </c>
       <c r="H27" s="7">
-        <v>6.0199999999999997E-2</v>
+        <v>7.4300000000000005E-2</v>
       </c>
       <c r="I27" s="7">
-        <v>5.1479999999999998E-2</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="J27" s="7">
-        <v>4.2569999999999997E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="K27" s="7">
-        <v>3.5430000000000003E-2</v>
+        <v>4.1320000000000003E-2</v>
       </c>
       <c r="L27" s="7">
-        <v>4.437E-2</v>
+        <v>6.93E-2</v>
       </c>
       <c r="M27" s="7">
-        <v>8.0140000000000003E-2</v>
+        <v>8.9539999999999995E-2</v>
       </c>
       <c r="N27" s="7">
-        <v>9.2499999999999999E-2</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="O27" s="7">
-        <v>8.3599999999999994E-2</v>
+        <v>7.6539999999999997E-2</v>
       </c>
       <c r="P27" s="7">
-        <v>7.4700000000000003E-2</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="Q27" s="7">
-        <v>0.13100000000000001</v>
+        <v>0.11053</v>
       </c>
       <c r="R27" s="7">
-        <v>7.8299999999999995E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="S27" s="7">
-        <v>8.8900000000000007E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="T27" s="7">
-        <v>7.9039999999999999E-2</v>
+        <v>5.9970000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
@@ -9722,122 +9643,223 @@
         <v>3708000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1">
         <v>2021</v>
       </c>
       <c r="G28" s="7">
+        <v>5.774E-2</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5.1479999999999998E-2</v>
+      </c>
+      <c r="J28" s="7">
+        <v>4.2569999999999997E-2</v>
+      </c>
+      <c r="K28" s="7">
+        <v>3.5430000000000003E-2</v>
+      </c>
+      <c r="L28" s="7">
+        <v>4.437E-2</v>
+      </c>
+      <c r="M28" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="O28" s="7">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="P28" s="7">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="R28" s="7">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="S28" s="7">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="T28" s="7">
+        <v>7.9039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>3708000</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G29" s="7">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H29" s="7">
         <v>7.2749999999999995E-2</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I29" s="7">
         <v>6.1830000000000003E-2</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J29" s="7">
         <v>5.0659999999999997E-2</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K29" s="7">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L29" s="7">
         <v>5.3220000000000003E-2</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M29" s="7">
         <v>8.0750000000000002E-2</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N29" s="7">
         <v>9.1740000000000002E-2</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O29" s="7">
         <v>8.5629999999999998E-2</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P29" s="7">
         <v>7.1349999999999997E-2</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q29" s="7">
         <v>0.11890000000000001</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R29" s="7">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S29" s="7">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T29" s="7">
         <v>6.2799999999999995E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="1" t="s">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>25703000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <f>AVERAGE(G15,G17,G19,G21)</f>
-        <v>5.7967500000000005E-2</v>
-      </c>
-      <c r="H33" s="7">
-        <f>AVERAGE(H15,H17,H19,H21)</f>
-        <v>6.6512500000000002E-2</v>
-      </c>
-      <c r="I33" s="7">
-        <f>AVERAGE(I15,I17,I19,I21)</f>
-        <v>6.3997499999999999E-2</v>
-      </c>
-      <c r="J33" s="7">
-        <f>AVERAGE(J15,J17,J19,J21)</f>
-        <v>5.0817500000000002E-2</v>
-      </c>
-      <c r="K33" s="7">
-        <f>AVERAGE(K15,K17,K19,K21)</f>
-        <v>5.4057499999999994E-2</v>
-      </c>
-      <c r="L33" s="7">
-        <f>AVERAGE(L15,L17,L19,L21)</f>
-        <v>5.3877500000000002E-2</v>
-      </c>
-      <c r="M33" s="7">
-        <f>AVERAGE(M15,M17,M19,M21)</f>
-        <v>7.4115E-2</v>
-      </c>
-      <c r="N33" s="7">
-        <f>AVERAGE(N15,N17,N19,N21)</f>
-        <v>7.55025E-2</v>
-      </c>
-      <c r="O33" s="7">
-        <f>AVERAGE(O15,O17,O19,O21)</f>
-        <v>7.1264999999999995E-2</v>
-      </c>
-      <c r="P33" s="7">
-        <f>AVERAGE(P15,P17,P19,P21)</f>
-        <v>7.0682499999999995E-2</v>
-      </c>
-      <c r="Q33" s="7">
-        <f>AVERAGE(Q15,Q17,Q19,Q21)</f>
-        <v>0.1299525</v>
-      </c>
-      <c r="R33" s="7">
-        <f>AVERAGE(R15,R17,R19,R21)</f>
-        <v>8.3820000000000006E-2</v>
-      </c>
-      <c r="S33" s="7">
-        <f>AVERAGE(S15,S17,S19,S21)</f>
-        <v>8.3925E-2</v>
-      </c>
-      <c r="T33" s="7">
-        <f>AVERAGE(T15,T17,T19,T21)</f>
-        <v>6.3485E-2</v>
+      <c r="F30" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G30" s="7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6.5729999999999997E-2</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="J30" s="7">
+        <v>4.904E-2</v>
+      </c>
+      <c r="K30" s="7">
+        <v>4.4220000000000002E-2</v>
+      </c>
+      <c r="L30" s="7">
+        <v>6.0639999999999999E-2</v>
+      </c>
+      <c r="M30" s="7">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="N30" s="7">
+        <v>8.48E-2</v>
+      </c>
+      <c r="O30" s="7">
+        <v>7.6350000000000001E-2</v>
+      </c>
+      <c r="P30" s="7">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0.12256</v>
+      </c>
+      <c r="R30" s="7">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="S30" s="7">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="T30" s="7">
+        <v>7.1529999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>25703000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G31" s="7">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="H31" s="7">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="J31" s="7">
+        <v>5.7619999999999998E-2</v>
+      </c>
+      <c r="K31" s="7">
+        <v>5.28E-2</v>
+      </c>
+      <c r="L31" s="7">
+        <v>7.2139999999999996E-2</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0.10266</v>
+      </c>
+      <c r="N31" s="7">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="O31" s="7">
+        <v>7.8060000000000004E-2</v>
+      </c>
+      <c r="P31" s="7">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="R31" s="7">
+        <v>6.0850000000000001E-2</v>
+      </c>
+      <c r="S31" s="7">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="T31" s="7">
+        <v>4.3099999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
@@ -9845,187 +9867,195 @@
         <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="7">
-        <f>AVERAGE(G16,G18,G20,G22)</f>
-        <v>6.2570000000000001E-2</v>
+        <f>AVERAGE(G16,G18,G20,G22,G24,G26,G28,G30)</f>
+        <v>5.883E-2</v>
       </c>
       <c r="H34" s="7">
-        <f>AVERAGE(H16,H18,H20,H22)</f>
-        <v>7.2730000000000017E-2</v>
+        <f t="shared" ref="H34:T34" si="1">AVERAGE(H16,H18,H20,H22,H24,H26,H28,H30)</f>
+        <v>6.5156249999999999E-2</v>
       </c>
       <c r="I34" s="7">
-        <f>AVERAGE(I16,I18,I20,I22)</f>
-        <v>7.0974999999999996E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8517499999999993E-2</v>
       </c>
       <c r="J34" s="7">
-        <f>AVERAGE(J16,J18,J20,J22)</f>
-        <v>5.8692499999999995E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.8521250000000002E-2</v>
       </c>
       <c r="K34" s="7">
-        <f>AVERAGE(K16,K18,K20,K22)</f>
-        <v>5.7327500000000003E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.7796249999999998E-2</v>
       </c>
       <c r="L34" s="7">
-        <f>AVERAGE(L16,L18,L20,L22)</f>
-        <v>6.9550000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.5965000000000001E-2</v>
       </c>
       <c r="M34" s="7">
-        <f>AVERAGE(M16,M18,M20,M22)</f>
-        <v>8.2485000000000003E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.9662499999999997E-2</v>
       </c>
       <c r="N34" s="7">
-        <f>AVERAGE(N16,N18,N20,N22)</f>
-        <v>7.9822500000000005E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.1056249999999996E-2</v>
       </c>
       <c r="O34" s="7">
-        <f>AVERAGE(O16,O18,O20,O22)</f>
-        <v>7.041E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.3938749999999998E-2</v>
       </c>
       <c r="P34" s="7">
-        <f>AVERAGE(P16,P18,P20,P22)</f>
-        <v>7.0554999999999993E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.9988750000000002E-2</v>
       </c>
       <c r="Q34" s="7">
-        <f>AVERAGE(Q16,Q18,Q20,Q22)</f>
-        <v>0.11919250000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.12830875</v>
       </c>
       <c r="R34" s="7">
-        <f>AVERAGE(R16,R18,R20,R22)</f>
-        <v>7.4567499999999995E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.0073750000000013E-2</v>
       </c>
       <c r="S34" s="7">
-        <f>AVERAGE(S16,S18,S20,S22)</f>
-        <v>6.8182499999999993E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.4332499999999991E-2</v>
       </c>
       <c r="T34" s="7">
-        <f>AVERAGE(T16,T18,T20,T22)</f>
-        <v>4.3022500000000005E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.7853750000000004E-2</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="2" t="s">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>16</v>
+      <c r="G35" s="7">
+        <f>AVERAGE(G17,G19,G21,G23,G25,G27,G29,G31)</f>
+        <v>6.5652500000000003E-2</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" ref="H35:T35" si="2">AVERAGE(H17,H19,H21,H23,H25,H27,H29,H31)</f>
+        <v>7.3440000000000005E-2</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="2"/>
+        <v>6.6498749999999995E-2</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="2"/>
+        <v>5.5559999999999991E-2</v>
+      </c>
+      <c r="K35" s="7">
+        <f t="shared" si="2"/>
+        <v>5.0948750000000008E-2</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="2"/>
+        <v>6.8769999999999998E-2</v>
+      </c>
+      <c r="M35" s="7">
+        <f t="shared" si="2"/>
+        <v>8.8567499999999993E-2</v>
+      </c>
+      <c r="N35" s="7">
+        <f t="shared" si="2"/>
+        <v>8.40225E-2</v>
+      </c>
+      <c r="O35" s="7">
+        <f t="shared" si="2"/>
+        <v>7.4258749999999998E-2</v>
+      </c>
+      <c r="P35" s="7">
+        <f t="shared" si="2"/>
+        <v>6.9218749999999996E-2</v>
+      </c>
+      <c r="Q35" s="7">
+        <f t="shared" si="2"/>
+        <v>0.11650000000000002</v>
+      </c>
+      <c r="R35" s="7">
+        <f t="shared" si="2"/>
+        <v>7.048249999999999E-2</v>
+      </c>
+      <c r="S35" s="7">
+        <f t="shared" si="2"/>
+        <v>6.7721249999999997E-2</v>
+      </c>
+      <c r="T35" s="7">
+        <f t="shared" si="2"/>
+        <v>4.8390000000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F40" s="1">
-        <v>-508</v>
-      </c>
-      <c r="G40" s="1">
-        <v>89673</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.17097677115742749</v>
-      </c>
-      <c r="I40" s="1">
-        <v>20274.726180000001</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.63144982324668508</v>
-      </c>
-      <c r="K40" s="1">
-        <v>1.8846252495176911E-2</v>
-      </c>
-      <c r="L40" s="1">
-        <v>23.73828289719313</v>
-      </c>
-      <c r="M40" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="N40" s="1">
-        <v>5.8769083224604586E-3</v>
-      </c>
-      <c r="O40" s="1">
-        <v>2.9663332329686628E-3</v>
-      </c>
-      <c r="P40" s="1">
-        <v>8.227671651444687E-3</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>1.0814961025057701</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0.67026351298607134</v>
-      </c>
-      <c r="S40" s="1">
-        <v>25.881326426014489</v>
-      </c>
-      <c r="T40" s="1">
-        <v>4.9067166259632105E-4</v>
-      </c>
-      <c r="U40" s="1">
-        <v>5.6929064489868737E-2</v>
-      </c>
-      <c r="V40" s="1">
-        <v>119.345016326319</v>
+      <c r="C40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
@@ -10033,58 +10063,58 @@
         <v>51</v>
       </c>
       <c r="E41" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F41" s="1">
-        <v>-583</v>
+        <v>-508</v>
       </c>
       <c r="G41" s="1">
-        <v>88968</v>
+        <v>89673</v>
       </c>
       <c r="H41" s="1">
-        <v>0.1689259059437101</v>
+        <v>0.17097677115742749</v>
       </c>
       <c r="I41" s="1">
-        <v>21016.71081</v>
+        <v>20274.726180000001</v>
       </c>
       <c r="J41" s="1">
-        <v>0.63645580433414262</v>
+        <v>0.63144982324668508</v>
       </c>
       <c r="K41" s="1">
-        <v>1.899559392140994E-2</v>
+        <v>1.8846252495176911E-2</v>
       </c>
       <c r="L41" s="1">
-        <v>23.527577473473599</v>
+        <v>23.73828289719313</v>
       </c>
       <c r="M41" s="1">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="N41" s="1">
-        <v>5.9234781044869714E-3</v>
+        <v>5.8769083224604586E-3</v>
       </c>
       <c r="O41" s="1">
-        <v>3.0572790216706999E-3</v>
+        <v>2.9663332329686628E-3</v>
       </c>
       <c r="P41" s="1">
-        <v>8.4412372988040517E-3</v>
+        <v>8.227671651444687E-3</v>
       </c>
       <c r="Q41" s="1">
-        <v>1.082479093606689</v>
+        <v>1.0814961025057701</v>
       </c>
       <c r="R41" s="1">
-        <v>0.61311033180469354</v>
+        <v>0.67026351298607134</v>
       </c>
       <c r="S41" s="1">
-        <v>24.770910734196551</v>
+        <v>25.881326426014489</v>
       </c>
       <c r="T41" s="1">
-        <v>4.9455984174084965E-4</v>
+        <v>4.9067166259632105E-4</v>
       </c>
       <c r="U41" s="1">
-        <v>5.7874741480082717E-2</v>
+        <v>5.6929064489868737E-2</v>
       </c>
       <c r="V41" s="1">
-        <v>143.61354485994971</v>
+        <v>119.345016326319</v>
       </c>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.25">
@@ -10092,58 +10122,58 @@
         <v>51</v>
       </c>
       <c r="E42" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F42" s="1">
-        <v>-507</v>
+        <v>-583</v>
       </c>
       <c r="G42" s="1">
-        <v>88092</v>
+        <v>88968</v>
       </c>
       <c r="H42" s="1">
-        <v>0.1657471734096172</v>
+        <v>0.1689259059437101</v>
       </c>
       <c r="I42" s="1">
-        <v>22275.830239999999</v>
+        <v>21016.71081</v>
       </c>
       <c r="J42" s="1">
-        <v>0.67765063796939562</v>
+        <v>0.63645580433414262</v>
       </c>
       <c r="K42" s="1">
-        <v>1.9740725605049251E-2</v>
+        <v>1.899559392140994E-2</v>
       </c>
       <c r="L42" s="1">
-        <v>26.707001895631841</v>
+        <v>23.527577473473599</v>
       </c>
       <c r="M42" s="1">
-        <v>27.4</v>
+        <v>26.6</v>
       </c>
       <c r="N42" s="1">
-        <v>5.9823820551241514E-3</v>
+        <v>5.9234781044869714E-3</v>
       </c>
       <c r="O42" s="1">
-        <v>3.0536257548926002E-3</v>
+        <v>3.0572790216706999E-3</v>
       </c>
       <c r="P42" s="1">
-        <v>8.7851337238341615E-3</v>
+        <v>8.4412372988040517E-3</v>
       </c>
       <c r="Q42" s="1">
-        <v>1.0234073468646401</v>
+        <v>1.082479093606689</v>
       </c>
       <c r="R42" s="1">
-        <v>0.61994051673250683</v>
+        <v>0.61311033180469354</v>
       </c>
       <c r="S42" s="1">
-        <v>21.178866225082849</v>
+        <v>24.770910734196551</v>
       </c>
       <c r="T42" s="1">
-        <v>4.9947781864414359E-4</v>
+        <v>4.9455984174084965E-4</v>
       </c>
       <c r="U42" s="1">
-        <v>5.87113472278981E-2</v>
+        <v>5.7874741480082717E-2</v>
       </c>
       <c r="V42" s="1">
-        <v>142.04406721007581</v>
+        <v>143.61354485994971</v>
       </c>
     </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.25">
@@ -10151,244 +10181,241 @@
         <v>51</v>
       </c>
       <c r="E43" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F43" s="1">
-        <v>-711</v>
+        <v>-507</v>
       </c>
       <c r="G43" s="1">
-        <v>87282</v>
+        <v>88092</v>
       </c>
       <c r="H43" s="1">
-        <v>0.16122453655965721</v>
+        <v>0.1657471734096172</v>
       </c>
       <c r="I43" s="1">
-        <v>23989.908439999999</v>
+        <v>22275.830239999999</v>
       </c>
       <c r="J43" s="1">
-        <v>0.68737654957494088</v>
+        <v>0.67765063796939562</v>
       </c>
       <c r="K43" s="1">
-        <v>1.875529891615681E-2</v>
+        <v>1.9740725605049251E-2</v>
       </c>
       <c r="L43" s="1">
-        <v>29.351305275772781</v>
+        <v>26.707001895631841</v>
       </c>
       <c r="M43" s="1">
-        <v>28.1</v>
+        <v>27.4</v>
       </c>
       <c r="N43" s="1">
-        <v>6.3586993881899652E-3</v>
+        <v>5.9823820551241514E-3</v>
       </c>
       <c r="O43" s="1">
-        <v>3.0819642079695569E-3</v>
+        <v>3.0536257548926002E-3</v>
       </c>
       <c r="P43" s="1">
-        <v>9.3810865928828282E-3</v>
+        <v>8.7851337238341615E-3</v>
       </c>
       <c r="Q43" s="1">
-        <v>0.98409752297151609</v>
+        <v>1.0234073468646401</v>
       </c>
       <c r="R43" s="1">
-        <v>0.71611913109232095</v>
+        <v>0.61994051673250683</v>
       </c>
       <c r="S43" s="1">
-        <v>20.416691414037231</v>
+        <v>21.178866225082849</v>
       </c>
       <c r="T43" s="1">
-        <v>5.0411310464929633E-4</v>
+        <v>4.9947781864414359E-4</v>
       </c>
       <c r="U43" s="1">
-        <v>5.925620402832199E-2</v>
+        <v>5.87113472278981E-2</v>
       </c>
       <c r="V43" s="1">
-        <v>145.038276238858</v>
+        <v>142.04406721007581</v>
       </c>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-711</v>
+      </c>
+      <c r="G44" s="1">
+        <v>87282</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.16122453655965721</v>
+      </c>
+      <c r="I44" s="1">
+        <v>23989.908439999999</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.68737654957494088</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1.875529891615681E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>29.351305275772781</v>
+      </c>
+      <c r="M44" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>6.3586993881899652E-3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>3.0819642079695569E-3</v>
+      </c>
+      <c r="P44" s="1">
+        <v>9.3810865928828282E-3</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0.98409752297151609</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.71611913109232095</v>
+      </c>
+      <c r="S44" s="1">
+        <v>20.416691414037231</v>
+      </c>
+      <c r="T44" s="1">
+        <v>5.0411310464929633E-4</v>
+      </c>
+      <c r="U44" s="1">
+        <v>5.925620402832199E-2</v>
+      </c>
+      <c r="V44" s="1">
+        <v>145.038276238858</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E45" s="3">
         <v>2020</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>-151.99999999999989</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G45" s="1">
         <v>85939</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H45" s="1">
         <v>0.15749543280699099</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I45" s="1">
         <v>24720.091919999999</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J45" s="1">
         <v>0.81039690943576237</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K45" s="1">
         <v>1.8396769801836171E-2</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L45" s="1">
         <v>32.194688077822633</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M45" s="1">
         <v>28.7</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N45" s="1">
         <v>6.539522219248496E-3</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O45" s="1">
         <v>2.5715914776760149E-3</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P45" s="1">
         <v>1.0555161219004169E-2</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q45" s="1">
         <v>1.1495013905211819</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R45" s="1">
         <v>0.66520904362396571</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S45" s="1">
         <v>22.581482595794672</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T45" s="1">
         <v>7.4471427407812321E-4</v>
       </c>
-      <c r="U44" s="1">
+      <c r="U45" s="1">
         <v>6.0112405310743661E-2</v>
       </c>
-      <c r="V44" s="1">
+      <c r="V45" s="1">
         <v>153.74505778284589</v>
-      </c>
-    </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="48" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C48" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F48" s="1">
-        <v>-163</v>
-      </c>
-      <c r="G48" s="1">
-        <v>44795</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.1195669159504409</v>
-      </c>
-      <c r="I48" s="1">
-        <v>19632.524519999999</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0.26123004799642802</v>
-      </c>
-      <c r="K48" s="1">
-        <v>3.0717714030583751E-2</v>
-      </c>
-      <c r="L48" s="1">
-        <v>6.8428243203482468</v>
-      </c>
-      <c r="M48" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="N48" s="1">
-        <v>3.415559772295994E-3</v>
-      </c>
-      <c r="O48" s="1">
-        <v>2.2993637682777002E-3</v>
-      </c>
-      <c r="P48" s="1">
-        <v>1.320683111954458E-2</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>3.216117870298024</v>
-      </c>
-      <c r="R48" s="1">
-        <v>0.54021386315436981</v>
-      </c>
-      <c r="S48" s="1">
-        <v>65.877446219444096</v>
-      </c>
-      <c r="T48" s="1">
-        <v>1.5626744056256249E-3</v>
-      </c>
-      <c r="U48" s="1">
-        <v>4.6790936488447371E-2</v>
-      </c>
-      <c r="V48" s="1">
-        <v>36.086993072441103</v>
+      <c r="C48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="3:22" x14ac:dyDescent="0.25">
@@ -10399,58 +10426,58 @@
         <v>52</v>
       </c>
       <c r="E49" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F49" s="1">
-        <v>-100</v>
+        <v>-163</v>
       </c>
       <c r="G49" s="1">
-        <v>44888</v>
+        <v>44795</v>
       </c>
       <c r="H49" s="1">
-        <v>0.1251559436820531</v>
+        <v>0.1195669159504409</v>
       </c>
       <c r="I49" s="1">
-        <v>18340.544890000001</v>
+        <v>19632.524519999999</v>
       </c>
       <c r="J49" s="1">
-        <v>0.37225984672963802</v>
+        <v>0.26123004799642802</v>
       </c>
       <c r="K49" s="1">
-        <v>3.412938870076633E-2</v>
+        <v>3.0717714030583751E-2</v>
       </c>
       <c r="L49" s="1">
-        <v>8.4181796671716178</v>
+        <v>6.8428243203482468</v>
       </c>
       <c r="M49" s="1">
-        <v>27.3</v>
+        <v>25.4</v>
       </c>
       <c r="N49" s="1">
-        <v>3.2970949919800181E-3</v>
+        <v>3.415559772295994E-3</v>
       </c>
       <c r="O49" s="1">
-        <v>2.31687756193191E-3</v>
+        <v>2.2993637682777002E-3</v>
       </c>
       <c r="P49" s="1">
-        <v>1.3460167528069861E-2</v>
+        <v>1.320683111954458E-2</v>
       </c>
       <c r="Q49" s="1">
-        <v>3.237123507396185</v>
+        <v>3.216117870298024</v>
       </c>
       <c r="R49" s="1">
-        <v>0.44668731063981459</v>
+        <v>0.54021386315436981</v>
       </c>
       <c r="S49" s="1">
-        <v>65.029295230351053</v>
+        <v>65.877446219444096</v>
       </c>
       <c r="T49" s="1">
-        <v>1.559436820531096E-3</v>
+        <v>1.5626744056256249E-3</v>
       </c>
       <c r="U49" s="1">
-        <v>4.7696489039386912E-2</v>
+        <v>4.6790936488447371E-2</v>
       </c>
       <c r="V49" s="1">
-        <v>36.327307061575482</v>
+        <v>36.086993072441103</v>
       </c>
     </row>
     <row r="50" spans="3:22" x14ac:dyDescent="0.25">
@@ -10461,58 +10488,58 @@
         <v>52</v>
       </c>
       <c r="E50" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F50" s="1">
-        <v>-179</v>
+        <v>-100</v>
       </c>
       <c r="G50" s="1">
-        <v>44962</v>
+        <v>44888</v>
       </c>
       <c r="H50" s="1">
-        <v>0.1264401049775366</v>
+        <v>0.1251559436820531</v>
       </c>
       <c r="I50" s="1">
-        <v>19591.68519</v>
+        <v>18340.544890000001</v>
       </c>
       <c r="J50" s="1">
-        <v>0.37287042391352693</v>
+        <v>0.37225984672963802</v>
       </c>
       <c r="K50" s="1">
-        <v>3.0603620835372079E-2</v>
+        <v>3.412938870076633E-2</v>
       </c>
       <c r="L50" s="1">
-        <v>22.083162368444469</v>
+        <v>8.4181796671716178</v>
       </c>
       <c r="M50" s="1">
-        <v>28.1</v>
+        <v>27.3</v>
       </c>
       <c r="N50" s="1">
-        <v>3.6475245763088601E-3</v>
+        <v>3.2970949919800181E-3</v>
       </c>
       <c r="O50" s="1">
-        <v>2.3130643654641599E-3</v>
+        <v>2.31687756193191E-3</v>
       </c>
       <c r="P50" s="1">
-        <v>1.3724923268537871E-2</v>
+        <v>1.3460167528069861E-2</v>
       </c>
       <c r="Q50" s="1">
-        <v>3.2863529202437611</v>
+        <v>3.237123507396185</v>
       </c>
       <c r="R50" s="1">
-        <v>0.48064810284240023</v>
+        <v>0.44668731063981459</v>
       </c>
       <c r="S50" s="1">
-        <v>62.958639059650331</v>
+        <v>65.029295230351053</v>
       </c>
       <c r="T50" s="1">
-        <v>1.5568702459854949E-3</v>
+        <v>1.559436820531096E-3</v>
       </c>
       <c r="U50" s="1">
-        <v>4.7617988523642192E-2</v>
+        <v>4.7696489039386912E-2</v>
       </c>
       <c r="V50" s="1">
-        <v>38.445424051198778</v>
+        <v>36.327307061575482</v>
       </c>
     </row>
     <row r="51" spans="3:22" x14ac:dyDescent="0.25">
@@ -10523,124 +10550,198 @@
         <v>52</v>
       </c>
       <c r="E51" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F51" s="1">
-        <v>-56.99999999999995</v>
+        <v>-179</v>
       </c>
       <c r="G51" s="1">
-        <v>44933.999999999993</v>
+        <v>44962</v>
       </c>
       <c r="H51" s="1">
-        <v>0.1135665642942983</v>
+        <v>0.1264401049775366</v>
       </c>
       <c r="I51" s="1">
-        <v>20641.733639999999</v>
+        <v>19591.68519</v>
       </c>
       <c r="J51" s="1">
-        <v>0.37868206703164631</v>
+        <v>0.37287042391352693</v>
       </c>
       <c r="K51" s="1">
-        <v>3.4984644144745607E-2</v>
+        <v>3.0603620835372079E-2</v>
       </c>
       <c r="L51" s="1">
-        <v>23.389734217296478</v>
+        <v>22.083162368444469</v>
       </c>
       <c r="M51" s="1">
-        <v>28.8</v>
+        <v>28.1</v>
       </c>
       <c r="N51" s="1">
-        <v>3.7165620688120122E-3</v>
+        <v>3.6475245763088601E-3</v>
       </c>
       <c r="O51" s="1">
-        <v>2.2699959941247069E-3</v>
+        <v>2.3130643654641599E-3</v>
       </c>
       <c r="P51" s="1">
-        <v>1.374237770952952E-2</v>
+        <v>1.3724923268537871E-2</v>
       </c>
       <c r="Q51" s="1">
-        <v>2.790626251836025</v>
+        <v>3.2863529202437611</v>
       </c>
       <c r="R51" s="1">
-        <v>0.49644456313704521</v>
+        <v>0.48064810284240023</v>
       </c>
       <c r="S51" s="1">
-        <v>59.326706022165851</v>
+        <v>62.958639059650331</v>
       </c>
       <c r="T51" s="1">
-        <v>1.491075800062311E-3</v>
+        <v>1.5568702459854949E-3</v>
       </c>
       <c r="U51" s="1">
-        <v>4.775893532736903E-2</v>
+        <v>4.7617988523642192E-2</v>
       </c>
       <c r="V51" s="1">
-        <v>34.524197758490182</v>
+        <v>38.445424051198778</v>
       </c>
     </row>
     <row r="52" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-56.99999999999995</v>
+      </c>
+      <c r="G52" s="1">
+        <v>44933.999999999993</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.1135665642942983</v>
+      </c>
+      <c r="I52" s="1">
+        <v>20641.733639999999</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.37868206703164631</v>
+      </c>
+      <c r="K52" s="1">
+        <v>3.4984644144745607E-2</v>
+      </c>
+      <c r="L52" s="1">
+        <v>23.389734217296478</v>
+      </c>
+      <c r="M52" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="N52" s="1">
+        <v>3.7165620688120122E-3</v>
+      </c>
+      <c r="O52" s="1">
+        <v>2.2699959941247069E-3</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1.374237770952952E-2</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>2.790626251836025</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0.49644456313704521</v>
+      </c>
+      <c r="S52" s="1">
+        <v>59.326706022165851</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1.491075800062311E-3</v>
+      </c>
+      <c r="U52" s="1">
+        <v>4.775893532736903E-2</v>
+      </c>
+      <c r="V52" s="1">
+        <v>34.524197758490182</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="3">
         <v>2020</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F53" s="1">
         <v>-449.99999999999989</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G53" s="1">
         <v>44386</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H53" s="1">
         <v>0.11616275402153831</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I53" s="1">
         <v>21819.183840000002</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J53" s="1">
         <v>0.43312530978236369</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K53" s="1">
         <v>3.4515387734871332E-2</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L53" s="1">
         <v>23.330135132699489</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M53" s="1">
         <v>29.9</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N53" s="1">
         <v>3.807506871536046E-3</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O53" s="1">
         <v>2.343081151714495E-3</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P53" s="1">
         <v>1.4168882079935099E-2</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q53" s="1">
         <v>2.863042400756993</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R53" s="1">
         <v>0.49934596494390132</v>
       </c>
-      <c r="S52" s="1">
+      <c r="S53" s="1">
         <v>56.510477592033467</v>
       </c>
-      <c r="T52" s="1">
+      <c r="T53" s="1">
         <v>1.622133105033115E-3</v>
       </c>
-      <c r="U52" s="1">
+      <c r="U53" s="1">
         <v>4.9587707835804067E-2</v>
       </c>
-      <c r="V52" s="1">
+      <c r="V53" s="1">
         <v>33.696300743477607</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I40:I44">
+  <conditionalFormatting sqref="I41:I45">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:L45">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -10652,7 +10753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:L44">
+  <conditionalFormatting sqref="Q41:Q45">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -10664,7 +10765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q40:Q44">
+  <conditionalFormatting sqref="R41:R45">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -10676,7 +10777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:R44">
+  <conditionalFormatting sqref="S41:S45">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -10688,7 +10789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S40:S44">
+  <conditionalFormatting sqref="V41:V45">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -10700,7 +10801,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V40:V44">
+  <conditionalFormatting sqref="I49:I53">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -10712,7 +10813,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:I52">
+  <conditionalFormatting sqref="L49:L53">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -10724,7 +10825,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48:L52">
+  <conditionalFormatting sqref="Q49:Q53">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10736,7 +10837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q48:Q52">
+  <conditionalFormatting sqref="R49:R53">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10748,7 +10849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R48:R52">
+  <conditionalFormatting sqref="S49:S53">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10760,7 +10861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48:S52">
+  <conditionalFormatting sqref="V49:V53">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10772,7 +10873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V48:V52">
+  <conditionalFormatting sqref="G16:T16">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10784,7 +10885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:T15">
+  <conditionalFormatting sqref="G17:T17">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10796,7 +10897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:T16">
+  <conditionalFormatting sqref="G18:T18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10808,7 +10909,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:T17">
+  <conditionalFormatting sqref="G19:T19">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10820,7 +10921,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:T18">
+  <conditionalFormatting sqref="G20:T21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10832,7 +10933,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:T20">
+  <conditionalFormatting sqref="G22:T23">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10844,7 +10945,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:T22">
+  <conditionalFormatting sqref="G24:T25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10856,7 +10957,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:T24">
+  <conditionalFormatting sqref="G26:T27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10868,7 +10969,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:T26">
+  <conditionalFormatting sqref="G28:T29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10880,7 +10981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:T28">
+  <conditionalFormatting sqref="G30:T31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="76">
   <si>
     <t>saldo</t>
   </si>
@@ -249,6 +249,9 @@
   <si>
     <t>Ангарский</t>
   </si>
+  <si>
+    <t>Чойский МР</t>
+  </si>
 </sst>
 </file>
 
@@ -366,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,6 +438,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8068,10 +8072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AP53"/>
+  <dimension ref="C4:AP57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8087,7 +8091,7 @@
     <col min="21" max="21" width="13.42578125" customWidth="1"/>
     <col min="22" max="22" width="12.140625" customWidth="1"/>
     <col min="23" max="23" width="18" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" customWidth="1"/>
     <col min="28" max="28" width="13.42578125" customWidth="1"/>
     <col min="29" max="29" width="12.140625" customWidth="1"/>
     <col min="32" max="32" width="13.140625" customWidth="1"/>
@@ -8273,59 +8277,59 @@
         <v>153.74505778284589</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1" t="s">
-        <v>74</v>
+      <c r="Y5" t="s">
+        <v>75</v>
       </c>
       <c r="Z5" s="1">
-        <v>-194</v>
+        <v>-136</v>
       </c>
       <c r="AA5" s="1">
-        <v>236912</v>
+        <v>8315</v>
       </c>
       <c r="AB5" s="1">
-        <v>53549</v>
+        <v>1473</v>
       </c>
       <c r="AC5" s="1">
-        <v>34942.071599999996</v>
+        <v>20566.364119999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>235660</v>
+        <v>5786.6</v>
       </c>
       <c r="AE5" s="1">
-        <v>8148</v>
+        <v>149</v>
       </c>
       <c r="AF5" s="1">
-        <v>11652446.762639999</v>
+        <v>412060</v>
       </c>
       <c r="AG5" s="1">
-        <v>23.7</v>
+        <v>19.8</v>
       </c>
       <c r="AH5" s="1">
-        <v>404</v>
+        <v>18</v>
       </c>
       <c r="AI5" s="1">
-        <v>916</v>
+        <v>7</v>
       </c>
       <c r="AJ5" s="1">
-        <v>472.3</v>
+        <v>157.9</v>
       </c>
       <c r="AK5" s="1">
-        <v>8869</v>
+        <v>10374</v>
       </c>
       <c r="AL5" s="1">
-        <v>69835</v>
+        <v>4714.47</v>
       </c>
       <c r="AM5" s="1">
-        <v>1877904.9180000001</v>
+        <v>190822.43872000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AO5" s="1">
-        <v>13689</v>
+        <v>618</v>
       </c>
       <c r="AP5" s="1">
-        <v>67922741.907359987</v>
+        <v>249412.42599999998</v>
       </c>
     </row>
     <row r="6" spans="3:42" x14ac:dyDescent="0.25">
@@ -8474,63 +8478,63 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1">
+      <c r="AB7" s="24">
         <f>AB5/$AA5</f>
-        <v>0.22602907408658068</v>
+        <v>0.17714972940469031</v>
       </c>
       <c r="AC7" s="1">
-        <v>34942.071599999996</v>
-      </c>
-      <c r="AD7" s="1">
-        <f t="shared" ref="AC7:AP7" si="0">AD5/$AA5</f>
-        <v>0.99471533734044704</v>
-      </c>
-      <c r="AE7" s="1">
+        <v>20566.364119999998</v>
+      </c>
+      <c r="AD7" s="24">
+        <f t="shared" ref="AD7:AP7" si="0">AD5/$AA5</f>
+        <v>0.69592303066746852</v>
+      </c>
+      <c r="AE7" s="24">
         <f t="shared" si="0"/>
-        <v>3.4392517052745326E-2</v>
-      </c>
-      <c r="AF7" s="1">
+        <v>1.7919422730006015E-2</v>
+      </c>
+      <c r="AF7" s="24">
         <f t="shared" si="0"/>
-        <v>49.184704711622878</v>
+        <v>49.556223692122671</v>
       </c>
       <c r="AG7" s="1">
-        <v>23.7</v>
-      </c>
-      <c r="AH7" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="AH7" s="24">
         <f t="shared" si="0"/>
-        <v>1.7052745323157966E-3</v>
-      </c>
-      <c r="AI7" s="1">
+        <v>2.1647624774503911E-3</v>
+      </c>
+      <c r="AI7" s="24">
         <f t="shared" si="0"/>
-        <v>3.8664145336665093E-3</v>
-      </c>
-      <c r="AJ7" s="1">
+        <v>8.4185207456404084E-4</v>
+      </c>
+      <c r="AJ7" s="24">
         <f t="shared" si="0"/>
-        <v>1.9935672317147298E-3</v>
-      </c>
-      <c r="AK7" s="1">
+        <v>1.8989777510523151E-2</v>
+      </c>
+      <c r="AK7" s="24">
         <f t="shared" si="0"/>
-        <v>3.7435841156209904E-2</v>
-      </c>
-      <c r="AL7" s="1">
+        <v>1.2476247745039086</v>
+      </c>
+      <c r="AL7" s="24">
         <f t="shared" si="0"/>
-        <v>0.29477189842641993</v>
-      </c>
-      <c r="AM7" s="1">
+        <v>0.56698376428141917</v>
+      </c>
+      <c r="AM7" s="24">
         <f t="shared" si="0"/>
-        <v>7.9265926504356052</v>
-      </c>
-      <c r="AN7" s="1">
+        <v>22.949180844257366</v>
+      </c>
+      <c r="AN7" s="24">
         <f t="shared" si="0"/>
-        <v>7.5977578172485983E-5</v>
-      </c>
-      <c r="AO7" s="1">
+        <v>1.2026458208057728E-3</v>
+      </c>
+      <c r="AO7" s="24">
         <f t="shared" si="0"/>
-        <v>5.778094820017559E-2</v>
-      </c>
-      <c r="AP7" s="1">
+        <v>7.4323511725796751E-2</v>
+      </c>
+      <c r="AP7" s="24">
         <f t="shared" si="0"/>
-        <v>286.70030183089074</v>
+        <v>29.9954811785929</v>
       </c>
     </row>
     <row r="8" spans="3:42" x14ac:dyDescent="0.25">
@@ -8910,1826 +8914,1540 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="15" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
-        <v>80631000</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G16" s="7">
-        <v>5.713E-2</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6.6350000000000006E-2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6.54E-2</v>
-      </c>
-      <c r="J16" s="7">
-        <v>4.7969999999999999E-2</v>
-      </c>
-      <c r="K16" s="7">
-        <v>4.8160000000000001E-2</v>
-      </c>
-      <c r="L16" s="7">
-        <v>4.5749999999999999E-2</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7.306E-2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="O16" s="7">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="P16" s="7">
-        <v>6.1429999999999998E-2</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0.14660000000000001</v>
-      </c>
-      <c r="R16" s="7">
-        <v>9.0639999999999998E-2</v>
-      </c>
-      <c r="S16" s="7">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="T16" s="7">
-        <v>7.3700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>80631000</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G17" s="7">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="H17" s="7">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="J17" s="7">
-        <v>5.1240000000000001E-2</v>
-      </c>
-      <c r="K17" s="7">
-        <v>4.446E-2</v>
-      </c>
-      <c r="L17" s="7">
-        <v>8.0439999999999998E-2</v>
-      </c>
-      <c r="M17" s="7">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>7.5130000000000002E-2</v>
-      </c>
-      <c r="O17" s="7">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="P17" s="7">
-        <v>6.1039999999999997E-2</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0.1278</v>
-      </c>
-      <c r="R17" s="7">
-        <v>7.6969999999999997E-2</v>
-      </c>
-      <c r="S17" s="7">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="T17" s="7">
-        <v>4.9840000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>80601000</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G18" s="7">
-        <v>7.2270000000000001E-2</v>
-      </c>
-      <c r="H18" s="7">
-        <v>8.7160000000000001E-2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8.0140000000000003E-2</v>
-      </c>
-      <c r="J18" s="7">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="K18" s="7">
-        <v>5.79E-2</v>
-      </c>
-      <c r="L18" s="7">
-        <v>4.1930000000000002E-2</v>
-      </c>
-      <c r="M18" s="7">
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>6.2469999999999998E-2</v>
-      </c>
-      <c r="O18" s="7">
-        <v>6.2560000000000004E-2</v>
-      </c>
-      <c r="P18" s="7">
-        <v>5.91E-2</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0.14610000000000001</v>
-      </c>
-      <c r="R18" s="7">
-        <v>8.5139999999999993E-2</v>
-      </c>
-      <c r="S18" s="7">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="T18" s="7">
-        <v>4.8500000000000001E-2</v>
+    <row r="13" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-136</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8315</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.17714972940469031</v>
+      </c>
+      <c r="I13" s="5">
+        <v>20566.364119999998</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.69592303066746852</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1.7919422730006015E-2</v>
+      </c>
+      <c r="L13" s="5">
+        <v>49.556223692122671</v>
+      </c>
+      <c r="M13" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2.1647624774503911E-3</v>
+      </c>
+      <c r="O13" s="5">
+        <v>8.4185207456404084E-4</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1.8989777510523151E-2</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1.2476247745039086</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.56698376428141917</v>
+      </c>
+      <c r="S13" s="5">
+        <v>22.949180844257366</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1.2026458208057728E-3</v>
+      </c>
+      <c r="U13" s="5">
+        <v>7.4323511725796751E-2</v>
+      </c>
+      <c r="V13" s="5">
+        <v>29.9954811785929</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>80601000</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G19" s="7">
-        <v>7.2139999999999996E-2</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8.6360000000000006E-2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8.2460000000000006E-2</v>
-      </c>
-      <c r="J19" s="7">
-        <v>5.8470000000000001E-2</v>
-      </c>
-      <c r="K19" s="7">
-        <v>6.5250000000000002E-2</v>
-      </c>
-      <c r="L19" s="7">
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8.0140000000000003E-2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>7.0860000000000006E-2</v>
-      </c>
-      <c r="O19" s="7">
-        <v>5.8900000000000001E-2</v>
-      </c>
-      <c r="P19" s="7">
-        <v>5.8779999999999999E-2</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0.1333</v>
-      </c>
-      <c r="R19" s="7">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="S19" s="7">
-        <v>6.1650000000000003E-2</v>
-      </c>
-      <c r="T19" s="7">
-        <v>3.5639999999999998E-2</v>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
-        <v>38701000</v>
+        <v>80631000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G20" s="7">
-        <v>4.2900000000000001E-2</v>
+        <v>5.713E-2</v>
       </c>
       <c r="H20" s="7">
-        <v>5.9499999999999997E-2</v>
+        <v>6.6350000000000006E-2</v>
       </c>
       <c r="I20" s="7">
-        <v>5.475E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="J20" s="7">
-        <v>4.8550000000000003E-2</v>
+        <v>4.7969999999999999E-2</v>
       </c>
       <c r="K20" s="7">
-        <v>4.48E-2</v>
+        <v>4.8160000000000001E-2</v>
       </c>
       <c r="L20" s="7">
-        <v>4.9930000000000002E-2</v>
+        <v>4.5749999999999999E-2</v>
       </c>
       <c r="M20" s="7">
-        <v>7.6899999999999996E-2</v>
+        <v>7.306E-2</v>
       </c>
       <c r="N20" s="7">
-        <v>9.2039999999999997E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="O20" s="7">
-        <v>8.1799999999999998E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="P20" s="7">
-        <v>7.6100000000000001E-2</v>
+        <v>6.1429999999999998E-2</v>
       </c>
       <c r="Q20" s="7">
-        <v>0.12427000000000001</v>
+        <v>0.14660000000000001</v>
       </c>
       <c r="R20" s="7">
-        <v>7.0400000000000004E-2</v>
+        <v>9.0639999999999998E-2</v>
       </c>
       <c r="S20" s="7">
-        <v>9.0700000000000003E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="T20" s="7">
-        <v>8.7340000000000001E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <v>38701000</v>
+        <v>80631000</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G21" s="7">
-        <v>5.4960000000000002E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="H21" s="7">
-        <v>7.3400000000000007E-2</v>
+        <v>7.1800000000000003E-2</v>
       </c>
       <c r="I21" s="7">
-        <v>6.744E-2</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="J21" s="7">
-        <v>6.1460000000000001E-2</v>
+        <v>5.1240000000000001E-2</v>
       </c>
       <c r="K21" s="7">
-        <v>4.82E-2</v>
+        <v>4.446E-2</v>
       </c>
       <c r="L21" s="7">
-        <v>5.2060000000000002E-2</v>
+        <v>8.0439999999999998E-2</v>
       </c>
       <c r="M21" s="7">
-        <v>7.9200000000000007E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="N21" s="7">
-        <v>9.7000000000000003E-2</v>
+        <v>7.5130000000000002E-2</v>
       </c>
       <c r="O21" s="7">
-        <v>8.4839999999999999E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="P21" s="7">
-        <v>7.6100000000000001E-2</v>
+        <v>6.1039999999999997E-2</v>
       </c>
       <c r="Q21" s="7">
-        <v>0.11269999999999999</v>
+        <v>0.1278</v>
       </c>
       <c r="R21" s="7">
-        <v>6.1600000000000002E-2</v>
+        <v>7.6969999999999997E-2</v>
       </c>
       <c r="S21" s="7">
-        <v>7.1529999999999996E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="T21" s="7">
-        <v>5.9630000000000002E-2</v>
+        <v>4.9840000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
-        <v>20627000</v>
+        <v>80601000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="1">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="G22" s="7">
-        <v>5.9569999999999998E-2</v>
+        <v>7.2270000000000001E-2</v>
       </c>
       <c r="H22" s="7">
-        <v>5.3039999999999997E-2</v>
+        <v>8.7160000000000001E-2</v>
       </c>
       <c r="I22" s="7">
-        <v>5.57E-2</v>
+        <v>8.0140000000000003E-2</v>
       </c>
       <c r="J22" s="7">
-        <v>5.1450000000000003E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="K22" s="7">
-        <v>6.5369999999999998E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="L22" s="7">
-        <v>7.7899999999999997E-2</v>
+        <v>4.1930000000000002E-2</v>
       </c>
       <c r="M22" s="7">
-        <v>7.6899999999999996E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="N22" s="7">
-        <v>7.6999999999999999E-2</v>
+        <v>6.2469999999999998E-2</v>
       </c>
       <c r="O22" s="7">
-        <v>7.4999999999999997E-2</v>
+        <v>6.2560000000000004E-2</v>
       </c>
       <c r="P22" s="7">
-        <v>8.6099999999999996E-2</v>
+        <v>5.91E-2</v>
       </c>
       <c r="Q22" s="7">
-        <v>0.10284</v>
+        <v>0.14610000000000001</v>
       </c>
       <c r="R22" s="7">
-        <v>8.9099999999999999E-2</v>
+        <v>8.5139999999999993E-2</v>
       </c>
       <c r="S22" s="7">
-        <v>8.5599999999999996E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="T22" s="7">
-        <v>4.4400000000000002E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
-        <v>20627000</v>
+        <v>80601000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="1">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="G23" s="7">
-        <v>6.1280000000000001E-2</v>
+        <v>7.2139999999999996E-2</v>
       </c>
       <c r="H23" s="7">
-        <v>5.9360000000000003E-2</v>
+        <v>8.6360000000000006E-2</v>
       </c>
       <c r="I23" s="7">
-        <v>6.4899999999999999E-2</v>
+        <v>8.2460000000000006E-2</v>
       </c>
       <c r="J23" s="7">
-        <v>6.3600000000000004E-2</v>
+        <v>5.8470000000000001E-2</v>
       </c>
       <c r="K23" s="7">
-        <v>7.1400000000000005E-2</v>
+        <v>6.5250000000000002E-2</v>
       </c>
       <c r="L23" s="7">
-        <v>8.8599999999999998E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="M23" s="7">
-        <v>7.6700000000000004E-2</v>
+        <v>8.0140000000000003E-2</v>
       </c>
       <c r="N23" s="7">
-        <v>7.6300000000000007E-2</v>
+        <v>7.0860000000000006E-2</v>
       </c>
       <c r="O23" s="7">
-        <v>7.4300000000000005E-2</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="P23" s="7">
-        <v>8.6300000000000002E-2</v>
+        <v>5.8779999999999999E-2</v>
       </c>
       <c r="Q23" s="7">
-        <v>0.10297000000000001</v>
+        <v>0.1333</v>
       </c>
       <c r="R23" s="7">
-        <v>8.0699999999999994E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="S23" s="7">
-        <v>6.6650000000000001E-2</v>
+        <v>6.1650000000000003E-2</v>
       </c>
       <c r="T23" s="7">
-        <v>2.6980000000000001E-2</v>
+        <v>3.5639999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
-        <v>92634000</v>
+        <v>38701000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="G24" s="7">
-        <v>6.1769999999999999E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="H24" s="7">
-        <v>6.7199999999999996E-2</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="I24" s="7">
-        <v>5.21E-2</v>
+        <v>5.475E-2</v>
       </c>
       <c r="J24" s="7">
-        <v>4.675E-2</v>
+        <v>4.8550000000000003E-2</v>
       </c>
       <c r="K24" s="7">
-        <v>4.8070000000000002E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="L24" s="7">
-        <v>7.0599999999999996E-2</v>
+        <v>4.9930000000000002E-2</v>
       </c>
       <c r="M24" s="7">
-        <v>9.35E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="N24" s="7">
-        <v>8.0699999999999994E-2</v>
+        <v>9.2039999999999997E-2</v>
       </c>
       <c r="O24" s="7">
-        <v>6.7599999999999993E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="P24" s="7">
-        <v>5.9080000000000001E-2</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="Q24" s="7">
-        <v>0.12870000000000001</v>
+        <v>0.12427000000000001</v>
       </c>
       <c r="R24" s="7">
-        <v>7.7759999999999996E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="S24" s="7">
-        <v>8.4659999999999999E-2</v>
+        <v>9.0700000000000003E-2</v>
       </c>
       <c r="T24" s="7">
-        <v>6.1519999999999998E-2</v>
+        <v>8.7340000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
-        <v>92634000</v>
+        <v>38701000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="G25" s="7">
-        <v>6.7500000000000004E-2</v>
+        <v>5.4960000000000002E-2</v>
       </c>
       <c r="H25" s="7">
-        <v>7.6050000000000006E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="I25" s="7">
-        <v>5.7860000000000002E-2</v>
+        <v>6.744E-2</v>
       </c>
       <c r="J25" s="7">
-        <v>4.8829999999999998E-2</v>
+        <v>6.1460000000000001E-2</v>
       </c>
       <c r="K25" s="7">
-        <v>4.376E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="L25" s="7">
-        <v>7.7299999999999994E-2</v>
+        <v>5.2060000000000002E-2</v>
       </c>
       <c r="M25" s="7">
-        <v>0.10564999999999999</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="N25" s="7">
-        <v>8.0750000000000002E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="O25" s="7">
-        <v>7.22E-2</v>
+        <v>8.4839999999999999E-2</v>
       </c>
       <c r="P25" s="7">
-        <v>5.8779999999999999E-2</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="Q25" s="7">
-        <v>0.11940000000000001</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="R25" s="7">
-        <v>7.0739999999999997E-2</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="S25" s="7">
-        <v>7.2139999999999996E-2</v>
+        <v>7.1529999999999996E-2</v>
       </c>
       <c r="T25" s="7">
-        <v>4.9160000000000002E-2</v>
+        <v>5.9630000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
-        <v>3703000</v>
+        <v>20627000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="1">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="G26" s="7">
-        <v>6.0760000000000002E-2</v>
+        <v>5.9569999999999998E-2</v>
       </c>
       <c r="H26" s="7">
-        <v>6.207E-2</v>
+        <v>5.3039999999999997E-2</v>
       </c>
       <c r="I26" s="7">
-        <v>5.2670000000000002E-2</v>
+        <v>5.57E-2</v>
       </c>
       <c r="J26" s="7">
-        <v>4.6539999999999998E-2</v>
+        <v>5.1450000000000003E-2</v>
       </c>
       <c r="K26" s="7">
-        <v>3.8420000000000003E-2</v>
+        <v>6.5369999999999998E-2</v>
       </c>
       <c r="L26" s="7">
-        <v>5.6599999999999998E-2</v>
+        <v>7.7899999999999997E-2</v>
       </c>
       <c r="M26" s="7">
-        <v>8.0299999999999996E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="N26" s="7">
-        <v>8.8440000000000005E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="O26" s="7">
-        <v>7.8899999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="P26" s="7">
-        <v>7.0499999999999993E-2</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="Q26" s="7">
-        <v>0.1244</v>
+        <v>0.10284</v>
       </c>
       <c r="R26" s="7">
-        <v>7.6050000000000006E-2</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="S26" s="7">
-        <v>8.7599999999999997E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="T26" s="7">
-        <v>7.6799999999999993E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
-        <v>3703000</v>
+        <v>20627000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="1">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="G27" s="7">
-        <v>7.1840000000000001E-2</v>
+        <v>6.1280000000000001E-2</v>
       </c>
       <c r="H27" s="7">
+        <v>5.9360000000000003E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="J27" s="7">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="K27" s="7">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="L27" s="7">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="N27" s="7">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="O27" s="7">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="I27" s="7">
-        <v>6.4699999999999994E-2</v>
-      </c>
-      <c r="J27" s="7">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="K27" s="7">
-        <v>4.1320000000000003E-2</v>
-      </c>
-      <c r="L27" s="7">
-        <v>6.93E-2</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8.9539999999999995E-2</v>
-      </c>
-      <c r="N27" s="7">
-        <v>8.4099999999999994E-2</v>
-      </c>
-      <c r="O27" s="7">
-        <v>7.6539999999999997E-2</v>
-      </c>
       <c r="P27" s="7">
-        <v>6.9800000000000001E-2</v>
+        <v>8.6300000000000002E-2</v>
       </c>
       <c r="Q27" s="7">
-        <v>0.11053</v>
+        <v>0.10297000000000001</v>
       </c>
       <c r="R27" s="7">
-        <v>6.5100000000000005E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="S27" s="7">
-        <v>7.0400000000000004E-2</v>
+        <v>6.6650000000000001E-2</v>
       </c>
       <c r="T27" s="7">
-        <v>5.9970000000000002E-2</v>
+        <v>2.6980000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
-        <v>3708000</v>
+        <v>92634000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G28" s="7">
-        <v>5.774E-2</v>
+        <v>6.1769999999999999E-2</v>
       </c>
       <c r="H28" s="7">
-        <v>6.0199999999999997E-2</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="I28" s="7">
-        <v>5.1479999999999998E-2</v>
+        <v>5.21E-2</v>
       </c>
       <c r="J28" s="7">
-        <v>4.2569999999999997E-2</v>
+        <v>4.675E-2</v>
       </c>
       <c r="K28" s="7">
-        <v>3.5430000000000003E-2</v>
+        <v>4.8070000000000002E-2</v>
       </c>
       <c r="L28" s="7">
-        <v>4.437E-2</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="M28" s="7">
-        <v>8.0140000000000003E-2</v>
+        <v>9.35E-2</v>
       </c>
       <c r="N28" s="7">
-        <v>9.2499999999999999E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="O28" s="7">
-        <v>8.3599999999999994E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="P28" s="7">
-        <v>7.4700000000000003E-2</v>
+        <v>5.9080000000000001E-2</v>
       </c>
       <c r="Q28" s="7">
-        <v>0.13100000000000001</v>
+        <v>0.12870000000000001</v>
       </c>
       <c r="R28" s="7">
-        <v>7.8299999999999995E-2</v>
+        <v>7.7759999999999996E-2</v>
       </c>
       <c r="S28" s="7">
-        <v>8.8900000000000007E-2</v>
+        <v>8.4659999999999999E-2</v>
       </c>
       <c r="T28" s="7">
-        <v>7.9039999999999999E-2</v>
+        <v>6.1519999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
-        <v>3708000</v>
+        <v>92634000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F29" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G29" s="7">
-        <v>6.8000000000000005E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="H29" s="7">
-        <v>7.2749999999999995E-2</v>
+        <v>7.6050000000000006E-2</v>
       </c>
       <c r="I29" s="7">
-        <v>6.1830000000000003E-2</v>
+        <v>5.7860000000000002E-2</v>
       </c>
       <c r="J29" s="7">
-        <v>5.0659999999999997E-2</v>
+        <v>4.8829999999999998E-2</v>
       </c>
       <c r="K29" s="7">
-        <v>4.0399999999999998E-2</v>
+        <v>4.376E-2</v>
       </c>
       <c r="L29" s="7">
-        <v>5.3220000000000003E-2</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="M29" s="7">
+        <v>0.10564999999999999</v>
+      </c>
+      <c r="N29" s="7">
         <v>8.0750000000000002E-2</v>
       </c>
-      <c r="N29" s="7">
-        <v>9.1740000000000002E-2</v>
-      </c>
       <c r="O29" s="7">
-        <v>8.5629999999999998E-2</v>
+        <v>7.22E-2</v>
       </c>
       <c r="P29" s="7">
-        <v>7.1349999999999997E-2</v>
+        <v>5.8779999999999999E-2</v>
       </c>
       <c r="Q29" s="7">
-        <v>0.11890000000000001</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="R29" s="7">
-        <v>6.8900000000000003E-2</v>
+        <v>7.0739999999999997E-2</v>
       </c>
       <c r="S29" s="7">
-        <v>7.2999999999999995E-2</v>
+        <v>7.2139999999999996E-2</v>
       </c>
       <c r="T29" s="7">
-        <v>6.2799999999999995E-2</v>
+        <v>4.9160000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
-        <v>25703000</v>
+        <v>3703000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G30" s="7">
-        <v>5.8500000000000003E-2</v>
+        <v>6.0760000000000002E-2</v>
       </c>
       <c r="H30" s="7">
-        <v>6.5729999999999997E-2</v>
+        <v>6.207E-2</v>
       </c>
       <c r="I30" s="7">
-        <v>5.5899999999999998E-2</v>
+        <v>5.2670000000000002E-2</v>
       </c>
       <c r="J30" s="7">
-        <v>4.904E-2</v>
+        <v>4.6539999999999998E-2</v>
       </c>
       <c r="K30" s="7">
-        <v>4.4220000000000002E-2</v>
+        <v>3.8420000000000003E-2</v>
       </c>
       <c r="L30" s="7">
-        <v>6.0639999999999999E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="M30" s="7">
-        <v>8.6900000000000005E-2</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="N30" s="7">
-        <v>8.48E-2</v>
+        <v>8.8440000000000005E-2</v>
       </c>
       <c r="O30" s="7">
-        <v>7.6350000000000001E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="P30" s="7">
-        <v>7.2900000000000006E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="Q30" s="7">
-        <v>0.12256</v>
+        <v>0.1244</v>
       </c>
       <c r="R30" s="7">
-        <v>7.3200000000000001E-2</v>
+        <v>7.6050000000000006E-2</v>
       </c>
       <c r="S30" s="7">
-        <v>7.7799999999999994E-2</v>
+        <v>8.7599999999999997E-2</v>
       </c>
       <c r="T30" s="7">
-        <v>7.1529999999999996E-2</v>
+        <v>7.6799999999999993E-2</v>
       </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
-        <v>25703000</v>
+        <v>3703000</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G31" s="7">
-        <v>6.7599999999999993E-2</v>
+        <v>7.1840000000000001E-2</v>
       </c>
       <c r="H31" s="7">
-        <v>7.3499999999999996E-2</v>
+        <v>7.4300000000000005E-2</v>
       </c>
       <c r="I31" s="7">
-        <v>6.3700000000000007E-2</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="J31" s="7">
-        <v>5.7619999999999998E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="K31" s="7">
-        <v>5.28E-2</v>
+        <v>4.1320000000000003E-2</v>
       </c>
       <c r="L31" s="7">
-        <v>7.2139999999999996E-2</v>
+        <v>6.93E-2</v>
       </c>
       <c r="M31" s="7">
-        <v>0.10266</v>
+        <v>8.9539999999999995E-2</v>
       </c>
       <c r="N31" s="7">
-        <v>9.6299999999999997E-2</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="O31" s="7">
-        <v>7.8060000000000004E-2</v>
+        <v>7.6539999999999997E-2</v>
       </c>
       <c r="P31" s="7">
-        <v>7.1599999999999997E-2</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="Q31" s="7">
-        <v>0.10639999999999999</v>
+        <v>0.11053</v>
       </c>
       <c r="R31" s="7">
-        <v>6.0850000000000001E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="S31" s="7">
-        <v>5.3499999999999999E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="T31" s="7">
-        <v>4.3099999999999999E-2</v>
+        <v>5.9970000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>3708000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G32" s="7">
+        <v>5.774E-2</v>
+      </c>
+      <c r="H32" s="7">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5.1479999999999998E-2</v>
+      </c>
+      <c r="J32" s="7">
+        <v>4.2569999999999997E-2</v>
+      </c>
+      <c r="K32" s="7">
+        <v>3.5430000000000003E-2</v>
+      </c>
+      <c r="L32" s="7">
+        <v>4.437E-2</v>
+      </c>
+      <c r="M32" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="O32" s="7">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="P32" s="7">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="R32" s="7">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="S32" s="7">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="T32" s="7">
+        <v>7.9039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>3708000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G33" s="7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H33" s="7">
+        <v>7.2749999999999995E-2</v>
+      </c>
+      <c r="I33" s="7">
+        <v>6.1830000000000003E-2</v>
+      </c>
+      <c r="J33" s="7">
+        <v>5.0659999999999997E-2</v>
+      </c>
+      <c r="K33" s="7">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="L33" s="7">
+        <v>5.3220000000000003E-2</v>
+      </c>
+      <c r="M33" s="7">
+        <v>8.0750000000000002E-2</v>
+      </c>
+      <c r="N33" s="7">
+        <v>9.1740000000000002E-2</v>
+      </c>
+      <c r="O33" s="7">
+        <v>8.5629999999999998E-2</v>
+      </c>
+      <c r="P33" s="7">
+        <v>7.1349999999999997E-2</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="R33" s="7">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="S33" s="7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="T33" s="7">
+        <v>6.2799999999999995E-2</v>
       </c>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D34" s="3" t="s">
-        <v>43</v>
+      <c r="C34" s="1">
+        <v>25703000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="G34" s="7">
-        <f>AVERAGE(G16,G18,G20,G22,G24,G26,G28,G30)</f>
-        <v>5.883E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" ref="H34:T34" si="1">AVERAGE(H16,H18,H20,H22,H24,H26,H28,H30)</f>
-        <v>6.5156249999999999E-2</v>
+        <v>6.5729999999999997E-2</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="1"/>
-        <v>5.8517499999999993E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="1"/>
-        <v>4.8521250000000002E-2</v>
+        <v>4.904E-2</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="1"/>
-        <v>4.7796249999999998E-2</v>
+        <v>4.4220000000000002E-2</v>
       </c>
       <c r="L34" s="7">
-        <f t="shared" si="1"/>
-        <v>5.5965000000000001E-2</v>
+        <v>6.0639999999999999E-2</v>
       </c>
       <c r="M34" s="7">
-        <f t="shared" si="1"/>
-        <v>7.9662499999999997E-2</v>
+        <v>8.6900000000000005E-2</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="1"/>
-        <v>8.1056249999999996E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" si="1"/>
-        <v>7.3938749999999998E-2</v>
+        <v>7.6350000000000001E-2</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="1"/>
-        <v>6.9988750000000002E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="Q34" s="7">
-        <f t="shared" si="1"/>
-        <v>0.12830875</v>
+        <v>0.12256</v>
       </c>
       <c r="R34" s="7">
-        <f t="shared" si="1"/>
-        <v>8.0073750000000013E-2</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="S34" s="7">
-        <f t="shared" si="1"/>
-        <v>8.4332499999999991E-2</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="T34" s="7">
-        <f t="shared" si="1"/>
-        <v>6.7853750000000004E-2</v>
+        <v>7.1529999999999996E-2</v>
       </c>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D35" s="3" t="s">
-        <v>43</v>
+      <c r="C35" s="1">
+        <v>25703000</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="G35" s="7">
-        <f>AVERAGE(G17,G19,G21,G23,G25,G27,G29,G31)</f>
-        <v>6.5652500000000003E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" ref="H35:T35" si="2">AVERAGE(H17,H19,H21,H23,H25,H27,H29,H31)</f>
-        <v>7.3440000000000005E-2</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="2"/>
-        <v>6.6498749999999995E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="2"/>
-        <v>5.5559999999999991E-2</v>
+        <v>5.7619999999999998E-2</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="2"/>
-        <v>5.0948750000000008E-2</v>
+        <v>5.28E-2</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="2"/>
-        <v>6.8769999999999998E-2</v>
+        <v>7.2139999999999996E-2</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="2"/>
-        <v>8.8567499999999993E-2</v>
+        <v>0.10266</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="2"/>
-        <v>8.40225E-2</v>
+        <v>9.6299999999999997E-2</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" si="2"/>
-        <v>7.4258749999999998E-2</v>
+        <v>7.8060000000000004E-2</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" si="2"/>
-        <v>6.9218749999999996E-2</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="Q35" s="7">
-        <f t="shared" si="2"/>
-        <v>0.11650000000000002</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="R35" s="7">
-        <f t="shared" si="2"/>
-        <v>7.048249999999999E-2</v>
+        <v>6.0850000000000001E-2</v>
       </c>
       <c r="S35" s="7">
-        <f t="shared" si="2"/>
-        <v>6.7721249999999997E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="T35" s="7">
-        <f t="shared" si="2"/>
-        <v>4.8390000000000002E-2</v>
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>84645000</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G36" s="7">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="H36" s="7">
+        <v>9.2469999999999997E-2</v>
+      </c>
+      <c r="I36" s="7">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="J36" s="7">
+        <v>4.8770000000000001E-2</v>
+      </c>
+      <c r="K36" s="7">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="L36" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M36" s="7">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="N36" s="7">
+        <v>6.8849999999999995E-2</v>
+      </c>
+      <c r="O36" s="7">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="P36" s="7">
+        <v>6.54E-2</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="R36" s="7">
+        <v>7.9469999999999999E-2</v>
+      </c>
+      <c r="S36" s="7">
+        <v>7.51E-2</v>
+      </c>
+      <c r="T36" s="7">
+        <v>4.7100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>84645000</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G37" s="7">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="H37" s="7">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="I37" s="7">
+        <v>7.6350000000000001E-2</v>
+      </c>
+      <c r="J37" s="7">
+        <v>6.216E-2</v>
+      </c>
+      <c r="K37" s="7">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="L37" s="7">
+        <v>4.0280000000000003E-2</v>
+      </c>
+      <c r="M37" s="7">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="N37" s="7">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="O37" s="7">
+        <v>7.263E-2</v>
+      </c>
+      <c r="P37" s="7">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="R37" s="7">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="S37" s="7">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="T37" s="7">
+        <v>4.19E-2</v>
       </c>
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>16</v>
+      <c r="G40" s="7">
+        <f>AVERAGE(G20,G22,G24,G26,G28,G30,G32,G34)</f>
+        <v>5.883E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <f>AVERAGE(H20,H22,H24,H26,H28,H30,H32,H34)</f>
+        <v>6.5156249999999999E-2</v>
+      </c>
+      <c r="I40" s="7">
+        <f>AVERAGE(I20,I22,I24,I26,I28,I30,I32,I34)</f>
+        <v>5.8517499999999993E-2</v>
+      </c>
+      <c r="J40" s="7">
+        <f>AVERAGE(J20,J22,J24,J26,J28,J30,J32,J34)</f>
+        <v>4.8521250000000002E-2</v>
+      </c>
+      <c r="K40" s="7">
+        <f>AVERAGE(K20,K22,K24,K26,K28,K30,K32,K34)</f>
+        <v>4.7796249999999998E-2</v>
+      </c>
+      <c r="L40" s="7">
+        <f>AVERAGE(L20,L22,L24,L26,L28,L30,L32,L34)</f>
+        <v>5.5965000000000001E-2</v>
+      </c>
+      <c r="M40" s="7">
+        <f>AVERAGE(M20,M22,M24,M26,M28,M30,M32,M34)</f>
+        <v>7.9662499999999997E-2</v>
+      </c>
+      <c r="N40" s="7">
+        <f>AVERAGE(N20,N22,N24,N26,N28,N30,N32,N34)</f>
+        <v>8.1056249999999996E-2</v>
+      </c>
+      <c r="O40" s="7">
+        <f>AVERAGE(O20,O22,O24,O26,O28,O30,O32,O34)</f>
+        <v>7.3938749999999998E-2</v>
+      </c>
+      <c r="P40" s="7">
+        <f>AVERAGE(P20,P22,P24,P26,P28,P30,P32,P34)</f>
+        <v>6.9988750000000002E-2</v>
+      </c>
+      <c r="Q40" s="7">
+        <f>AVERAGE(Q20,Q22,Q24,Q26,Q28,Q30,Q32,Q34)</f>
+        <v>0.12830875</v>
+      </c>
+      <c r="R40" s="7">
+        <f>AVERAGE(R20,R22,R24,R26,R28,R30,R32,R34)</f>
+        <v>8.0073750000000013E-2</v>
+      </c>
+      <c r="S40" s="7">
+        <f>AVERAGE(S20,S22,S24,S26,S28,S30,S32,S34)</f>
+        <v>8.4332499999999991E-2</v>
+      </c>
+      <c r="T40" s="7">
+        <f>AVERAGE(T20,T22,T24,T26,T28,T30,T32,T34)</f>
+        <v>6.7853750000000004E-2</v>
       </c>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2015</v>
+      <c r="D41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F41" s="1">
-        <v>-508</v>
-      </c>
-      <c r="G41" s="1">
-        <v>89673</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.17097677115742749</v>
-      </c>
-      <c r="I41" s="1">
-        <v>20274.726180000001</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.63144982324668508</v>
-      </c>
-      <c r="K41" s="1">
-        <v>1.8846252495176911E-2</v>
-      </c>
-      <c r="L41" s="1">
-        <v>23.73828289719313</v>
-      </c>
-      <c r="M41" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="N41" s="1">
-        <v>5.8769083224604586E-3</v>
-      </c>
-      <c r="O41" s="1">
-        <v>2.9663332329686628E-3</v>
-      </c>
-      <c r="P41" s="1">
-        <v>8.227671651444687E-3</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>1.0814961025057701</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0.67026351298607134</v>
-      </c>
-      <c r="S41" s="1">
-        <v>25.881326426014489</v>
-      </c>
-      <c r="T41" s="1">
-        <v>4.9067166259632105E-4</v>
-      </c>
-      <c r="U41" s="1">
-        <v>5.6929064489868737E-2</v>
-      </c>
-      <c r="V41" s="1">
-        <v>119.345016326319</v>
-      </c>
-    </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F42" s="1">
-        <v>-583</v>
-      </c>
-      <c r="G42" s="1">
-        <v>88968</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.1689259059437101</v>
-      </c>
-      <c r="I42" s="1">
-        <v>21016.71081</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.63645580433414262</v>
-      </c>
-      <c r="K42" s="1">
-        <v>1.899559392140994E-2</v>
-      </c>
-      <c r="L42" s="1">
-        <v>23.527577473473599</v>
-      </c>
-      <c r="M42" s="1">
-        <v>26.6</v>
-      </c>
-      <c r="N42" s="1">
-        <v>5.9234781044869714E-3</v>
-      </c>
-      <c r="O42" s="1">
-        <v>3.0572790216706999E-3</v>
-      </c>
-      <c r="P42" s="1">
-        <v>8.4412372988040517E-3</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>1.082479093606689</v>
-      </c>
-      <c r="R42" s="1">
-        <v>0.61311033180469354</v>
-      </c>
-      <c r="S42" s="1">
-        <v>24.770910734196551</v>
-      </c>
-      <c r="T42" s="1">
-        <v>4.9455984174084965E-4</v>
-      </c>
-      <c r="U42" s="1">
-        <v>5.7874741480082717E-2</v>
-      </c>
-      <c r="V42" s="1">
-        <v>143.61354485994971</v>
-      </c>
-    </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F43" s="1">
-        <v>-507</v>
-      </c>
-      <c r="G43" s="1">
-        <v>88092</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.1657471734096172</v>
-      </c>
-      <c r="I43" s="1">
-        <v>22275.830239999999</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.67765063796939562</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1.9740725605049251E-2</v>
-      </c>
-      <c r="L43" s="1">
-        <v>26.707001895631841</v>
-      </c>
-      <c r="M43" s="1">
-        <v>27.4</v>
-      </c>
-      <c r="N43" s="1">
-        <v>5.9823820551241514E-3</v>
-      </c>
-      <c r="O43" s="1">
-        <v>3.0536257548926002E-3</v>
-      </c>
-      <c r="P43" s="1">
-        <v>8.7851337238341615E-3</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>1.0234073468646401</v>
-      </c>
-      <c r="R43" s="1">
-        <v>0.61994051673250683</v>
-      </c>
-      <c r="S43" s="1">
-        <v>21.178866225082849</v>
-      </c>
-      <c r="T43" s="1">
-        <v>4.9947781864414359E-4</v>
-      </c>
-      <c r="U43" s="1">
-        <v>5.87113472278981E-2</v>
-      </c>
-      <c r="V43" s="1">
-        <v>142.04406721007581</v>
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <f>AVERAGE(G21,G23,G25,G27,G29,G31,G33,G35)</f>
+        <v>6.5652500000000003E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <f>AVERAGE(H21,H23,H25,H27,H29,H31,H33,H35)</f>
+        <v>7.3440000000000005E-2</v>
+      </c>
+      <c r="I41" s="7">
+        <f>AVERAGE(I21,I23,I25,I27,I29,I31,I33,I35)</f>
+        <v>6.6498749999999995E-2</v>
+      </c>
+      <c r="J41" s="7">
+        <f>AVERAGE(J21,J23,J25,J27,J29,J31,J33,J35)</f>
+        <v>5.5559999999999991E-2</v>
+      </c>
+      <c r="K41" s="7">
+        <f>AVERAGE(K21,K23,K25,K27,K29,K31,K33,K35)</f>
+        <v>5.0948750000000008E-2</v>
+      </c>
+      <c r="L41" s="7">
+        <f>AVERAGE(L21,L23,L25,L27,L29,L31,L33,L35)</f>
+        <v>6.8769999999999998E-2</v>
+      </c>
+      <c r="M41" s="7">
+        <f>AVERAGE(M21,M23,M25,M27,M29,M31,M33,M35)</f>
+        <v>8.8567499999999993E-2</v>
+      </c>
+      <c r="N41" s="7">
+        <f>AVERAGE(N21,N23,N25,N27,N29,N31,N33,N35)</f>
+        <v>8.40225E-2</v>
+      </c>
+      <c r="O41" s="7">
+        <f>AVERAGE(O21,O23,O25,O27,O29,O31,O33,O35)</f>
+        <v>7.4258749999999998E-2</v>
+      </c>
+      <c r="P41" s="7">
+        <f>AVERAGE(P21,P23,P25,P27,P29,P31,P33,P35)</f>
+        <v>6.9218749999999996E-2</v>
+      </c>
+      <c r="Q41" s="7">
+        <f>AVERAGE(Q21,Q23,Q25,Q27,Q29,Q31,Q33,Q35)</f>
+        <v>0.11650000000000002</v>
+      </c>
+      <c r="R41" s="7">
+        <f>AVERAGE(R21,R23,R25,R27,R29,R31,R33,R35)</f>
+        <v>7.048249999999999E-2</v>
+      </c>
+      <c r="S41" s="7">
+        <f>AVERAGE(S21,S23,S25,S27,S29,S31,S33,S35)</f>
+        <v>6.7721249999999997E-2</v>
+      </c>
+      <c r="T41" s="7">
+        <f>AVERAGE(T21,T23,T25,T27,T29,T31,T33,T35)</f>
+        <v>4.8390000000000002E-2</v>
       </c>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F44" s="1">
-        <v>-711</v>
-      </c>
-      <c r="G44" s="1">
-        <v>87282</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.16122453655965721</v>
-      </c>
-      <c r="I44" s="1">
-        <v>23989.908439999999</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.68737654957494088</v>
-      </c>
-      <c r="K44" s="1">
-        <v>1.875529891615681E-2</v>
-      </c>
-      <c r="L44" s="1">
-        <v>29.351305275772781</v>
-      </c>
-      <c r="M44" s="1">
-        <v>28.1</v>
-      </c>
-      <c r="N44" s="1">
-        <v>6.3586993881899652E-3</v>
-      </c>
-      <c r="O44" s="1">
-        <v>3.0819642079695569E-3</v>
-      </c>
-      <c r="P44" s="1">
-        <v>9.3810865928828282E-3</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>0.98409752297151609</v>
-      </c>
-      <c r="R44" s="1">
-        <v>0.71611913109232095</v>
-      </c>
-      <c r="S44" s="1">
-        <v>20.416691414037231</v>
-      </c>
-      <c r="T44" s="1">
-        <v>5.0411310464929633E-4</v>
-      </c>
-      <c r="U44" s="1">
-        <v>5.925620402832199E-2</v>
-      </c>
-      <c r="V44" s="1">
-        <v>145.038276238858</v>
-      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
     </row>
     <row r="45" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2020</v>
-      </c>
-      <c r="F45" s="1">
-        <v>-151.99999999999989</v>
-      </c>
-      <c r="G45" s="1">
-        <v>85939</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.15749543280699099</v>
-      </c>
-      <c r="I45" s="1">
-        <v>24720.091919999999</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.81039690943576237</v>
-      </c>
-      <c r="K45" s="1">
-        <v>1.8396769801836171E-2</v>
-      </c>
-      <c r="L45" s="1">
-        <v>32.194688077822633</v>
-      </c>
-      <c r="M45" s="1">
-        <v>28.7</v>
-      </c>
-      <c r="N45" s="1">
-        <v>6.539522219248496E-3</v>
-      </c>
-      <c r="O45" s="1">
-        <v>2.5715914776760149E-3</v>
-      </c>
-      <c r="P45" s="1">
-        <v>1.0555161219004169E-2</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>1.1495013905211819</v>
-      </c>
-      <c r="R45" s="1">
-        <v>0.66520904362396571</v>
-      </c>
-      <c r="S45" s="1">
-        <v>22.581482595794672</v>
-      </c>
-      <c r="T45" s="1">
-        <v>7.4471427407812321E-4</v>
-      </c>
-      <c r="U45" s="1">
-        <v>6.0112405310743661E-2</v>
-      </c>
-      <c r="V45" s="1">
-        <v>153.74505778284589</v>
-      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
     </row>
     <row r="48" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
     </row>
     <row r="49" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C49" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F49" s="1">
-        <v>-163</v>
-      </c>
-      <c r="G49" s="1">
-        <v>44795</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.1195669159504409</v>
-      </c>
-      <c r="I49" s="1">
-        <v>19632.524519999999</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0.26123004799642802</v>
-      </c>
-      <c r="K49" s="1">
-        <v>3.0717714030583751E-2</v>
-      </c>
-      <c r="L49" s="1">
-        <v>6.8428243203482468</v>
-      </c>
-      <c r="M49" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="N49" s="1">
-        <v>3.415559772295994E-3</v>
-      </c>
-      <c r="O49" s="1">
-        <v>2.2993637682777002E-3</v>
-      </c>
-      <c r="P49" s="1">
-        <v>1.320683111954458E-2</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>3.216117870298024</v>
-      </c>
-      <c r="R49" s="1">
-        <v>0.54021386315436981</v>
-      </c>
-      <c r="S49" s="1">
-        <v>65.877446219444096</v>
-      </c>
-      <c r="T49" s="1">
-        <v>1.5626744056256249E-3</v>
-      </c>
-      <c r="U49" s="1">
-        <v>4.6790936488447371E-2</v>
-      </c>
-      <c r="V49" s="1">
-        <v>36.086993072441103</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C50" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F50" s="1">
-        <v>-100</v>
-      </c>
-      <c r="G50" s="1">
-        <v>44888</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.1251559436820531</v>
-      </c>
-      <c r="I50" s="1">
-        <v>18340.544890000001</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0.37225984672963802</v>
-      </c>
-      <c r="K50" s="1">
-        <v>3.412938870076633E-2</v>
-      </c>
-      <c r="L50" s="1">
-        <v>8.4181796671716178</v>
-      </c>
-      <c r="M50" s="1">
-        <v>27.3</v>
-      </c>
-      <c r="N50" s="1">
-        <v>3.2970949919800181E-3</v>
-      </c>
-      <c r="O50" s="1">
-        <v>2.31687756193191E-3</v>
-      </c>
-      <c r="P50" s="1">
-        <v>1.3460167528069861E-2</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>3.237123507396185</v>
-      </c>
-      <c r="R50" s="1">
-        <v>0.44668731063981459</v>
-      </c>
-      <c r="S50" s="1">
-        <v>65.029295230351053</v>
-      </c>
-      <c r="T50" s="1">
-        <v>1.559436820531096E-3</v>
-      </c>
-      <c r="U50" s="1">
-        <v>4.7696489039386912E-2</v>
-      </c>
-      <c r="V50" s="1">
-        <v>36.327307061575482</v>
-      </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C51" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F51" s="1">
-        <v>-179</v>
-      </c>
-      <c r="G51" s="1">
-        <v>44962</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.1264401049775366</v>
-      </c>
-      <c r="I51" s="1">
-        <v>19591.68519</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.37287042391352693</v>
-      </c>
-      <c r="K51" s="1">
-        <v>3.0603620835372079E-2</v>
-      </c>
-      <c r="L51" s="1">
-        <v>22.083162368444469</v>
-      </c>
-      <c r="M51" s="1">
-        <v>28.1</v>
-      </c>
-      <c r="N51" s="1">
-        <v>3.6475245763088601E-3</v>
-      </c>
-      <c r="O51" s="1">
-        <v>2.3130643654641599E-3</v>
-      </c>
-      <c r="P51" s="1">
-        <v>1.3724923268537871E-2</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>3.2863529202437611</v>
-      </c>
-      <c r="R51" s="1">
-        <v>0.48064810284240023</v>
-      </c>
-      <c r="S51" s="1">
-        <v>62.958639059650331</v>
-      </c>
-      <c r="T51" s="1">
-        <v>1.5568702459854949E-3</v>
-      </c>
-      <c r="U51" s="1">
-        <v>4.7617988523642192E-2</v>
-      </c>
-      <c r="V51" s="1">
-        <v>38.445424051198778</v>
-      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
     </row>
     <row r="52" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F52" s="1">
-        <v>-56.99999999999995</v>
-      </c>
-      <c r="G52" s="1">
-        <v>44933.999999999993</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.1135665642942983</v>
-      </c>
-      <c r="I52" s="1">
-        <v>20641.733639999999</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0.37868206703164631</v>
-      </c>
-      <c r="K52" s="1">
-        <v>3.4984644144745607E-2</v>
-      </c>
-      <c r="L52" s="1">
-        <v>23.389734217296478</v>
-      </c>
-      <c r="M52" s="1">
-        <v>28.8</v>
-      </c>
-      <c r="N52" s="1">
-        <v>3.7165620688120122E-3</v>
-      </c>
-      <c r="O52" s="1">
-        <v>2.2699959941247069E-3</v>
-      </c>
-      <c r="P52" s="1">
-        <v>1.374237770952952E-2</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>2.790626251836025</v>
-      </c>
-      <c r="R52" s="1">
-        <v>0.49644456313704521</v>
-      </c>
-      <c r="S52" s="1">
-        <v>59.326706022165851</v>
-      </c>
-      <c r="T52" s="1">
-        <v>1.491075800062311E-3</v>
-      </c>
-      <c r="U52" s="1">
-        <v>4.775893532736903E-2</v>
-      </c>
-      <c r="V52" s="1">
-        <v>34.524197758490182</v>
-      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
     </row>
     <row r="53" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C53" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="3">
-        <v>2020</v>
-      </c>
-      <c r="F53" s="1">
-        <v>-449.99999999999989</v>
-      </c>
-      <c r="G53" s="1">
-        <v>44386</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.11616275402153831</v>
-      </c>
-      <c r="I53" s="1">
-        <v>21819.183840000002</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.43312530978236369</v>
-      </c>
-      <c r="K53" s="1">
-        <v>3.4515387734871332E-2</v>
-      </c>
-      <c r="L53" s="1">
-        <v>23.330135132699489</v>
-      </c>
-      <c r="M53" s="1">
-        <v>29.9</v>
-      </c>
-      <c r="N53" s="1">
-        <v>3.807506871536046E-3</v>
-      </c>
-      <c r="O53" s="1">
-        <v>2.343081151714495E-3</v>
-      </c>
-      <c r="P53" s="1">
-        <v>1.4168882079935099E-2</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>2.863042400756993</v>
-      </c>
-      <c r="R53" s="1">
-        <v>0.49934596494390132</v>
-      </c>
-      <c r="S53" s="1">
-        <v>56.510477592033467</v>
-      </c>
-      <c r="T53" s="1">
-        <v>1.622133105033115E-3</v>
-      </c>
-      <c r="U53" s="1">
-        <v>4.9587707835804067E-2</v>
-      </c>
-      <c r="V53" s="1">
-        <v>33.696300743477607</v>
-      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C54" s="23"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C55" s="23"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C56" s="23"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I41:I45">
+  <conditionalFormatting sqref="I45:I49">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:L49">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -10741,7 +10459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41:L45">
+  <conditionalFormatting sqref="Q45:Q49">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -10753,7 +10471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q41:Q45">
+  <conditionalFormatting sqref="R45:R49">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -10765,7 +10483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R41:R45">
+  <conditionalFormatting sqref="S45:S49">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -10777,7 +10495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S41:S45">
+  <conditionalFormatting sqref="V45:V49">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -10789,7 +10507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V41:V45">
+  <conditionalFormatting sqref="I53:I57">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -10801,7 +10519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:I53">
+  <conditionalFormatting sqref="L53:L57">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -10813,7 +10531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49:L53">
+  <conditionalFormatting sqref="Q53:Q57">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -10825,7 +10543,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q49:Q53">
+  <conditionalFormatting sqref="R53:R57">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10837,7 +10555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R49:R53">
+  <conditionalFormatting sqref="S53:S57">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10849,7 +10567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S49:S53">
+  <conditionalFormatting sqref="V53:V57">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10861,7 +10579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V49:V53">
+  <conditionalFormatting sqref="G20:T20">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10873,7 +10591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:T16">
+  <conditionalFormatting sqref="G21:T21">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10885,7 +10603,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:T17">
+  <conditionalFormatting sqref="G22:T22">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10897,7 +10615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:T18">
+  <conditionalFormatting sqref="G23:T23">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10909,7 +10627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:T19">
+  <conditionalFormatting sqref="G24:T25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10921,7 +10639,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:T21">
+  <conditionalFormatting sqref="G26:T27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10933,7 +10651,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:T23">
+  <conditionalFormatting sqref="G28:T29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10945,7 +10663,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:T25">
+  <conditionalFormatting sqref="G30:T31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10957,7 +10675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:T27">
+  <conditionalFormatting sqref="G32:T33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10969,7 +10687,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:T29">
+  <conditionalFormatting sqref="G34:T35">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10981,7 +10699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:T31">
+  <conditionalFormatting sqref="G36:T37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="76">
   <si>
     <t>saldo</t>
   </si>
@@ -246,6 +246,12 @@
   <si>
     <t>Чойский МР</t>
   </si>
+  <si>
+    <t>2021 (2023)</t>
+  </si>
+  <si>
+    <t>макс</t>
+  </si>
 </sst>
 </file>
 
@@ -448,6 +454,1268 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$F$37:$V$37</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>saldo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$F$38:$V$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.82741535920726672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22342735903967353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97051541960130017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87444034122567682</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64404569677475099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75174643154952936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48407229248530648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-685E-4488-887C-0D51A9261CC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>этнический</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$F$37:$V$37</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>saldo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$F$39:$V$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-1.6548307184145334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57644281835082911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41190468645435901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48230110919321828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79595330739299597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61909182270787644</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62353427957926344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39373727850095375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5789035676116478E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44614381941961079</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8398215431616769</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48959810056079317</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76378065891877056</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-685E-4488-887C-0D51A9261CC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$F$37:$V$37</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>saldo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$F$40:$V$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64598706129508054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9594667572133998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89071407482999398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72471977236149854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96636402939904875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98191266660851961</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58948498573595209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53643259293700696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5235182160880265E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48905010808492488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68974568632202671</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99659075645009454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8382655261098676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67312545345620367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-685E-4488-887C-0D51A9261CC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="685372031"/>
+        <c:axId val="685370783"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="685372031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685370783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685370783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685372031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10714,8 +11982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:U98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19372,19 +20640,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:V27"/>
+  <dimension ref="C4:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:22" x14ac:dyDescent="0.25">
@@ -20139,7 +21411,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1">
         <v>-2905</v>
@@ -20753,6 +22025,654 @@
         <v>29.9954811785929</v>
       </c>
     </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <f>AVERAGE(F5:F10)</f>
+        <v>222.66666666666666</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:V33" si="0">AVERAGE(G5:G10)</f>
+        <v>47598.666666666664</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.18858558015524554</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>25506.269858333329</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1.0212127130170499</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>3.8292448352634775E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>44.725277082831006</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>32.125</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>3.0710540947930698E-3</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>3.7785607014232127E-3</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>1.6102930152730791E-2</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>13.117679747008509</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>1.4393564703309181</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>56.984854396886846</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="0"/>
+        <v>7.1213374910851621E-4</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>5.9549199160775779E-2</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="0"/>
+        <v>160.96786199929088</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="1">
+        <f>AVERAGE(F12:F17)</f>
+        <v>-445.33333333333331</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34:V34" si="1">AVERAGE(G12:G17)</f>
+        <v>213038.66666666666</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19431487264027072</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>29168.679275000002</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5886707344272446</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4490248147373567E-2</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="1"/>
+        <v>28.694583493479737</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="1"/>
+        <v>25.569999999999997</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9012644771799292E-3</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3560621248084391E-3</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="1"/>
+        <v>6.340323894227169E-3</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86299950086381338</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64215999317976546</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="1"/>
+        <v>47.857108356436981</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4865933090876596E-4</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5482526573102422E-2</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="1"/>
+        <v>332.52855926302971</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35">
+        <f>AVERAGE(F19:F27)</f>
+        <v>269.11111111111109</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:V35" si="2">AVERAGE(G19:G27)</f>
+        <v>137620.22222222222</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0.18643866073049534</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>25980.953174444447</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>0.74009304491038475</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>5.9456104659025781E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>59.495163802296346</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>31.044444444444441</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>3.0155069155172764E-3</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>2.2274048011808917E-3</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>8.6381365757128917E-3</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>0.98691102529427488</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="2"/>
+        <v>0.70391743738807144</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>39.305057505941477</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>7.0970591171769801E-4</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>4.9918040763928993E-2</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="2"/>
+        <v>223.83343724106496</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36">
+        <f>MAX(F33:F35)</f>
+        <v>269.11111111111109</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:V36" si="3">MAX(G33:G35)</f>
+        <v>213038.66666666666</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>0.19431487264027072</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>29168.679275000002</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>1.0212127130170499</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>5.9456104659025781E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>59.495163802296346</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>32.125</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>3.0710540947930698E-3</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>3.7785607014232127E-3</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>1.6102930152730791E-2</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="3"/>
+        <v>13.117679747008509</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>1.4393564703309181</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="3"/>
+        <v>56.984854396886846</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>7.1213374910851621E-4</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="3"/>
+        <v>5.9549199160775779E-2</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="3"/>
+        <v>332.52855926302971</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1">
+        <f>F33/F$36</f>
+        <v>0.82741535920726672</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ref="G38:V40" si="4">G33/G$36</f>
+        <v>0.22342735903967353</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.97051541960130017</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.87444034122567682</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64404569677475099</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75174643154952936</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48407229248530648</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ref="F39:U40" si="5">F34/F$36</f>
+        <v>-1.6548307184145334</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.57644281835082911</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41190468645435901</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48230110919321828</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.79595330739299597</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.61909182270787644</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.62353427957926344</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.39373727850095375</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="5"/>
+        <v>6.5789035676116478E-2</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44614381941961079</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8398215431616769</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48959810056079317</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.76378065891877056</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64598706129508054</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.9594667572133998</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.89071407482999398</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.72471977236149854</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96636402939904875</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98191266660851961</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.58948498573595209</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.53643259293700696</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="4"/>
+        <v>7.5235182160880265E-2</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48905010808492488</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.68974568632202671</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99659075645009454</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.8382655261098676</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.67312545345620367</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F5:F27">
     <cfRule type="colorScale" priority="17">
@@ -20959,5 +22879,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -1054,7 +1054,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11982,13 +11981,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:U98"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
@@ -13471,7 +13470,7 @@
     </row>
     <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1">
         <v>80631000</v>
@@ -13530,7 +13529,7 @@
     </row>
     <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1">
         <v>80631000</v>
@@ -13589,7 +13588,7 @@
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D33" s="1">
         <v>80601000</v>
@@ -13648,7 +13647,7 @@
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1">
         <v>80601000</v>
@@ -13707,7 +13706,7 @@
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1">
         <v>38701000</v>
@@ -13766,7 +13765,7 @@
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1">
         <v>38701000</v>
@@ -13825,7 +13824,7 @@
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1">
         <v>20627000</v>
@@ -13884,7 +13883,7 @@
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1">
         <v>20627000</v>
@@ -13943,7 +13942,7 @@
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1">
         <v>92634000</v>
@@ -14002,7 +14001,7 @@
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1">
         <v>92634000</v>
@@ -14061,7 +14060,7 @@
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1">
         <v>3703000</v>
@@ -14120,7 +14119,7 @@
     </row>
     <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D42" s="1">
         <v>3703000</v>
@@ -14179,7 +14178,7 @@
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D43" s="1">
         <v>3708000</v>
@@ -14238,7 +14237,7 @@
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1">
         <v>3708000</v>
@@ -14297,7 +14296,7 @@
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D45" s="1">
         <v>25703000</v>
@@ -14356,7 +14355,7 @@
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D46" s="1">
         <v>25703000</v>
@@ -14415,7 +14414,7 @@
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1">
         <v>84645000</v>
@@ -14474,7 +14473,7 @@
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D48" s="1">
         <v>84645000</v>
@@ -20642,8 +20641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,102 @@
     <sheet name="agestruct (h2h)" sheetId="4" r:id="rId4"/>
     <sheet name="socioeco (h2h)" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'socioeco (h2h)'!$E$124</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'socioeco (h2h)'!$E$125</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'socioeco (h2h)'!$E$134</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'socioeco (h2h)'!$E$135</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'socioeco (h2h)'!$E$136</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'socioeco (h2h)'!$E$137</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'socioeco (h2h)'!$E$138</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'socioeco (h2h)'!$E$139</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'socioeco (h2h)'!$E$140</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'socioeco (h2h)'!$E$141</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'socioeco (h2h)'!$E$142</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'socioeco (h2h)'!$E$143</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'socioeco (h2h)'!$E$126</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'socioeco (h2h)'!$E$144</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'socioeco (h2h)'!$E$145</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'socioeco (h2h)'!$E$146</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'socioeco (h2h)'!$F$123:$V$123</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'socioeco (h2h)'!$F$124:$V$124</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'socioeco (h2h)'!$F$125:$V$125</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'socioeco (h2h)'!$F$126:$V$126</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'socioeco (h2h)'!$F$127:$V$127</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'socioeco (h2h)'!$F$128:$V$128</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'socioeco (h2h)'!$F$129:$V$129</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'socioeco (h2h)'!$E$127</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'socioeco (h2h)'!$F$130:$V$130</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'socioeco (h2h)'!$F$131:$V$131</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'socioeco (h2h)'!$F$132:$V$132</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'socioeco (h2h)'!$F$133:$V$133</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'socioeco (h2h)'!$F$134:$V$134</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'socioeco (h2h)'!$F$135:$V$135</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'socioeco (h2h)'!$F$136:$V$136</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'socioeco (h2h)'!$F$137:$V$137</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'socioeco (h2h)'!$F$138:$V$138</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'socioeco (h2h)'!$F$139:$V$139</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'socioeco (h2h)'!$E$128</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'socioeco (h2h)'!$F$140:$V$140</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'socioeco (h2h)'!$F$141:$V$141</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'socioeco (h2h)'!$F$142:$V$142</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'socioeco (h2h)'!$F$143:$V$143</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'socioeco (h2h)'!$F$144:$V$144</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'socioeco (h2h)'!$F$145:$V$145</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'socioeco (h2h)'!$F$146:$V$146</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'socioeco (h2h)'!$E$124</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'socioeco (h2h)'!$E$125</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'socioeco (h2h)'!$E$126</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'socioeco (h2h)'!$E$129</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'socioeco (h2h)'!$E$127</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'socioeco (h2h)'!$E$128</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'socioeco (h2h)'!$E$129</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'socioeco (h2h)'!$E$130</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'socioeco (h2h)'!$E$131</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'socioeco (h2h)'!$E$132</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'socioeco (h2h)'!$E$133</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'socioeco (h2h)'!$E$134</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'socioeco (h2h)'!$E$135</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'socioeco (h2h)'!$E$136</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'socioeco (h2h)'!$E$130</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'socioeco (h2h)'!$E$137</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">'socioeco (h2h)'!$E$138</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'socioeco (h2h)'!$E$139</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">'socioeco (h2h)'!$E$140</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'socioeco (h2h)'!$E$141</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'socioeco (h2h)'!$E$142</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'socioeco (h2h)'!$E$143</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'socioeco (h2h)'!$E$144</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'socioeco (h2h)'!$E$145</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'socioeco (h2h)'!$E$146</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'socioeco (h2h)'!$E$131</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'socioeco (h2h)'!$F$123:$V$123</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">'socioeco (h2h)'!$F$124:$V$124</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'socioeco (h2h)'!$F$125:$V$125</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">'socioeco (h2h)'!$F$126:$V$126</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">'socioeco (h2h)'!$F$127:$V$127</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">'socioeco (h2h)'!$F$128:$V$128</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">'socioeco (h2h)'!$F$129:$V$129</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">'socioeco (h2h)'!$F$130:$V$130</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">'socioeco (h2h)'!$F$131:$V$131</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">'socioeco (h2h)'!$F$132:$V$132</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'socioeco (h2h)'!$E$132</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">'socioeco (h2h)'!$F$133:$V$133</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">'socioeco (h2h)'!$F$134:$V$134</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">'socioeco (h2h)'!$F$135:$V$135</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">'socioeco (h2h)'!$F$136:$V$136</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">'socioeco (h2h)'!$F$137:$V$137</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">'socioeco (h2h)'!$F$138:$V$138</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">'socioeco (h2h)'!$F$139:$V$139</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">'socioeco (h2h)'!$F$140:$V$140</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">'socioeco (h2h)'!$F$141:$V$141</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'socioeco (h2h)'!$F$142:$V$142</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'socioeco (h2h)'!$E$133</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">'socioeco (h2h)'!$F$143:$V$143</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">'socioeco (h2h)'!$F$144:$V$144</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">'socioeco (h2h)'!$F$145:$V$145</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">'socioeco (h2h)'!$F$146:$V$146</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="76">
   <si>
     <t>saldo</t>
   </si>
@@ -1054,6 +1150,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1114,6 +1211,3412 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="90"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surfaceChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$F$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>saldo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$F$124:$F$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-4.2202347680268308E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4561207378423663E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27249860257126884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5897149245388482E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.089994410285073E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3845723868082728E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11179429849077697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.5522638345444379E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.775852431525992E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.7417551704863058E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4276131917272219</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.81190609278926773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.2481833426495218E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.12576858580212405</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.53018446059250979</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.3135830072666294E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49273337059809952</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.2017887087758524E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.4220234768026829E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.8010061486864172E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$G$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$G$124:$G$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.5232737835993318E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1374474072325316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6320656797339593E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8011454063668962E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9702956863415498E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10077459428436525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5887323599685771E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.180388613233365E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7718576287835919E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3650389196655227E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45523865346233738</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11660160834483217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0222704336723963E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60701245944878846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4723614067793622E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4343290852080848E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28877889803821005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15609655496173161</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32144102486869613</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1281750699767038E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$H$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$H$124:$H$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.71687796741833743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38009098549174158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53971278640605913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53393882296577144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42233319062896657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71142236669090098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38595958760051902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50533486074811962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41489369656380781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94067209178071243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73549035982558408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42241356576448597</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45993632058660838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33923186673830968</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71053714189395556</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34327262518412227</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39139872848742596</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47835113732227524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66007616111878287</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5173330634619514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$I$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$I$124:$I$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.68826067508158462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35412673068354217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41348896150869602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33961535755583738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37467826739522991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59058246433100681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40593825372113873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31399537822933143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35183686791152613</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65399317738615592</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43140134179274908</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44594299671857884</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.39361149056613987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45494552642545177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35248127028338561</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68514773610807944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42130063806412388</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46341189465537863</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6303444247410851</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.37101100096873174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$J$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$J$124:$J$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.69264700963578463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47080964477759718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64179988537293631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98770659273783623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24156967787801698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17818312955083518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28799249391411536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56059274264317249</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36544542699603338</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76405589636101912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16940777449194352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53360951459817829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28519332147264664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58912861372717729</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23161002933740252</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.35773951283542832</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43727723937267438</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83809182972577245</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65497481806928481</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.45823367077092353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$K$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$K$124:$K$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.19900002886958812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12016097014709658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11516099023994092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12637421406976185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10314387485666579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24952611353925336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5012603431670151E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8573165077158924E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4676202829762686E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4704980177839307E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27401539398153069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7168463526025975E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.313447035803898E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13721238175955347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11017519963409926</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2185557137315616E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4307024979685183E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46227939899856429</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13672392197250327</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.1236826062257508E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$L$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$L$124:$L$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.21698064530793243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3629053345146423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63245354410631405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25100707899393165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16145756241629058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54577896380823665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24260110795316933</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11960909024023401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33724519926169483</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23719994932487706</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41884446373003265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.709030611481335E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26040921878271545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.18870759826328293</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79053215829461432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3463593267862123E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42889227141797065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82040255095527492</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39783427933986337</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4008393392814612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$M$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>livarea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$M$124:$M$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.73277661795407101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55427974947807934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5365344467640919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64300626304801678</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55741127348643005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62922755741127356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48225469728601256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60918580375782883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62421711899791232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44258872651356995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41544885177453028</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59916492693110646</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62421711899791232</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.63883089770354906</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56784968684759918</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79540709812108568</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.80793319415448861</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89144050104384143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49478079331941544</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41336116910229648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$N$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$N$124:$N$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.7899839196750843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27321859164411549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60569505771528132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41468846130647463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41910205583800902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31499858128462871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33064020224480456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26630761728272512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45649865205314538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52207045582957212</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8845188967945512E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0044658401525757E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58223012995184753</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19140736601597053</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47391828684564286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56429084555349596</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33839479757133395</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40804990632410898</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26076439151723874</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.33102762019503618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$O$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$O$124:$O$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.31474419644830903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34976096001474732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27921078047732867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1612257425924368E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12986863921900635</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23796740700970972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22968257119906146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26343060256147205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14732991311669696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15484377269810709</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31682018119187494</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24559623644711581</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22377267833820089</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12850879767991893</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12312962215455614</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10673493130932279</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12743445319106841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50969342042533139</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3692564959311001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0399901365738435E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$P$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$P$124:$P$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.5587181048601858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20871692862410945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17243634417977119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16491148775894549</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3535585007086266E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26598051934680078</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23964572414250659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3713583127075853E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1971633365297969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2090871904979876E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1216397759582523E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23578937694534632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31651547601422386</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7498676555562133E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23079284345578174</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26840634893858029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10145067590133047</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7492918661101931E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4533850853774377E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42420837679629902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$Q$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>livestock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$Q$124:$Q$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.8168083437542083E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8812479892329908E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8659222604951692E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.563620633191548E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.847495056450636E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6752304359372167E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0042475511186577E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9988066706614735E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.962923312456409E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1478009130569501E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1923596545150136E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6430787018835494E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0923865165056333E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4243134290383824E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1844572325925267E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0634120543114206E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2527449000146212E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6597540682883258E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3510186066826405E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7833346804393135E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$R$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>harvest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$R$124:$R$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>9.3836308677897814E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55347595112614867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26388986910016188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3162150889927301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6829032787767789E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49567709897708012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29093433349352599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2757003662943492E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5604878108676277E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6860417287412812E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.4228624689770557E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17286578329126689</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12976346637307071</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5380041904008085E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24380952955032789</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71656465115001611</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10852056252541289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5477536995563836E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6601446721373229E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1473402886887743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$S$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$S$124:$S$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.6857769952494929E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39435528952302118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8924858352955642E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70440850722790427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46437342211624355</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2438202462098154E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33002466585613993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5631165010061669E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.294336227799162E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0192330378873394E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2491883284695134E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11104575632994823</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27789356602929971</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.258097492642529E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40407556617392187</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68910048908420474</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1162721639530755E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8194581022368879E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8979481185657507E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11285393388996996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$T$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$T$124:$T$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19394539154812782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33528709074047874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16914500941619626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56411931299104734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13604087567654888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21963406849117609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40322825832748654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16659887222639255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1987481665064999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12213262797109038</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3977498911172145E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41804535775375551</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91058441851034133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36387177097233581</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.44537227580393335</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49715749741686643</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11077246181385958</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12198169459703806</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2650013507125113E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67510523150932222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$U$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$U$124:$U$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44581708331797359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8701380336029475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56458318183755452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57430956957757273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87706698465334498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50283393650247632</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56124551301735437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62736508357137322</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70889503388310182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60992237271044392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29837084111149786</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72881422723943745</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60121079467880367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44365418653370781</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2813636947573438</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68772686827695528</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49234104055187999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61017193236876766</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70054719810299282</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.901112382446566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$V$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'socioeco (h2h)'!$E$124:$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>анти-мусорный</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>этнический</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>анти-индустриальный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'socioeco (h2h)'!$V$124:$V$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.12568076516798499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8606845138561078E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11174399139616201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28189123221952139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10128174406165703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2954665628119813E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1734353030358628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.679916978061288E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11680584557984318</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25279367060976321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.595616414701959E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12451048365692267</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7288959811283365E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18698230389002543</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2126520387608468E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70732956591927776</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15944148100354849</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.7288724624338884E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23218433008734304</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4291849916527386E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-D001-4845-B56F-9415083D4746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="1695271583"/>
+        <c:axId val="1695267007"/>
+        <c:axId val="1711785551"/>
+      </c:surfaceChart>
+      <c:catAx>
+        <c:axId val="1695271583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695267007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1695267007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695271583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1711785551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695267007"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
 </c:chartSpace>
 </file>
 
@@ -1714,6 +5217,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1352549</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>23810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11981,8 +15514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U98" sqref="C54:U98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20639,10 +24172,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:V40"/>
+  <dimension ref="C4:V147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T159" sqref="T159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22672,8 +26205,3080 @@
         <v>0.67312545345620367</v>
       </c>
     </row>
+    <row r="97" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F98" s="1">
+        <v>-151</v>
+      </c>
+      <c r="G98" s="1">
+        <v>11226.999999999991</v>
+      </c>
+      <c r="H98" s="5">
+        <v>0.24547964727888119</v>
+      </c>
+      <c r="I98" s="6">
+        <v>38152.560480000007</v>
+      </c>
+      <c r="J98" s="5">
+        <v>1.051928386924379</v>
+      </c>
+      <c r="K98" s="5">
+        <v>5.005789614322613E-2</v>
+      </c>
+      <c r="L98" s="5">
+        <v>26.825564115079711</v>
+      </c>
+      <c r="M98" s="21">
+        <v>35.1</v>
+      </c>
+      <c r="N98" s="5">
+        <v>5.1661173955642329E-3</v>
+      </c>
+      <c r="O98" s="5">
+        <v>3.2956266144116729E-3</v>
+      </c>
+      <c r="P98" s="5">
+        <v>2.5011133873697321E-2</v>
+      </c>
+      <c r="Q98" s="5">
+        <v>0.12710430212879489</v>
+      </c>
+      <c r="R98" s="5">
+        <v>0.36109379175202633</v>
+      </c>
+      <c r="S98" s="5">
+        <v>7.495136403313432</v>
+      </c>
+      <c r="T98" s="5">
+        <v>1.78141979157388E-3</v>
+      </c>
+      <c r="U98" s="5">
+        <v>8.2479736349870852E-2</v>
+      </c>
+      <c r="V98" s="5">
+        <v>155.1901168112586</v>
+      </c>
+    </row>
+    <row r="99" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F99" s="6">
+        <v>230.99999999999989</v>
+      </c>
+      <c r="G99" s="6">
+        <v>101303</v>
+      </c>
+      <c r="H99" s="5">
+        <v>0.1301540921789088</v>
+      </c>
+      <c r="I99" s="6">
+        <v>19630.4133</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0.71502225995281454</v>
+      </c>
+      <c r="K99" s="5">
+        <v>3.0226153223497799E-2</v>
+      </c>
+      <c r="L99" s="5">
+        <v>44.866399511860457</v>
+      </c>
+      <c r="M99" s="21">
+        <v>26.55</v>
+      </c>
+      <c r="N99" s="5">
+        <v>1.7867190507684749E-3</v>
+      </c>
+      <c r="O99" s="5">
+        <v>3.6622804852768269E-3</v>
+      </c>
+      <c r="P99" s="5">
+        <v>9.3432573566429363E-3</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>0.62133401774873231</v>
+      </c>
+      <c r="R99" s="5">
+        <v>2.1298443284009361</v>
+      </c>
+      <c r="S99" s="5">
+        <v>80.193313110174415</v>
+      </c>
+      <c r="T99" s="5">
+        <v>3.4549815898838042E-4</v>
+      </c>
+      <c r="U99" s="5">
+        <v>3.6770875492334869E-2</v>
+      </c>
+      <c r="V99" s="5">
+        <v>121.75934634857801</v>
+      </c>
+    </row>
+    <row r="100" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F100" s="1">
+        <v>975</v>
+      </c>
+      <c r="G100" s="1">
+        <v>63620.999999999993</v>
+      </c>
+      <c r="H100" s="5">
+        <v>0.18481319061316229</v>
+      </c>
+      <c r="I100" s="6">
+        <v>22921.057649999999</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0.97470646484651291</v>
+      </c>
+      <c r="K100" s="5">
+        <v>2.8968422376259389E-2</v>
+      </c>
+      <c r="L100" s="5">
+        <v>78.190951424058085</v>
+      </c>
+      <c r="M100" s="21">
+        <v>47.9</v>
+      </c>
+      <c r="N100" s="5">
+        <v>3.9609562880180823E-3</v>
+      </c>
+      <c r="O100" s="5">
+        <v>2.9235629744895431E-3</v>
+      </c>
+      <c r="P100" s="5">
+        <v>7.7191493374829017E-3</v>
+      </c>
+      <c r="Q100" s="5">
+        <v>4.8034139670863398</v>
+      </c>
+      <c r="R100" s="5">
+        <v>1.015481051853947</v>
+      </c>
+      <c r="S100" s="5">
+        <v>14.01607356061678</v>
+      </c>
+      <c r="T100" s="5">
+        <v>5.9728705930431629E-4</v>
+      </c>
+      <c r="U100" s="5">
+        <v>7.1768755599566178E-2</v>
+      </c>
+      <c r="V100" s="5">
+        <v>137.9810431178384</v>
+      </c>
+    </row>
+    <row r="101" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F101" s="1">
+        <v>20</v>
+      </c>
+      <c r="G101" s="1">
+        <v>13275</v>
+      </c>
+      <c r="H101" s="7">
+        <v>0.18283601936067231</v>
+      </c>
+      <c r="I101" s="6">
+        <v>18826</v>
+      </c>
+      <c r="J101" s="7">
+        <v>1.5000376647834275</v>
+      </c>
+      <c r="K101" s="7">
+        <v>3.1789077212806029E-2</v>
+      </c>
+      <c r="L101" s="7">
+        <v>31.032290835593852</v>
+      </c>
+      <c r="M101" s="21">
+        <v>25.7</v>
+      </c>
+      <c r="N101" s="7">
+        <v>2.7118644067796612E-3</v>
+      </c>
+      <c r="O101" s="7">
+        <v>1.0470809792843691E-2</v>
+      </c>
+      <c r="P101" s="7">
+        <v>7.3822975517890774E-3</v>
+      </c>
+      <c r="Q101" s="7">
+        <v>69.960214882187117</v>
+      </c>
+      <c r="R101" s="7">
+        <v>1.216835008776129</v>
+      </c>
+      <c r="S101" s="7">
+        <v>143.24355087495346</v>
+      </c>
+      <c r="T101" s="7">
+        <v>3.0131826741996233E-4</v>
+      </c>
+      <c r="U101" s="7">
+        <v>4.6566671985532687E-2</v>
+      </c>
+      <c r="V101" s="7">
+        <v>348.07818998989416</v>
+      </c>
+    </row>
+    <row r="102" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F102" s="19">
+        <v>-38.999999999999908</v>
+      </c>
+      <c r="G102" s="19">
+        <v>21891.999999999989</v>
+      </c>
+      <c r="H102" s="17">
+        <v>0.14461903891832631</v>
+      </c>
+      <c r="I102" s="20">
+        <v>20769.6528</v>
+      </c>
+      <c r="J102" s="17">
+        <v>0.36687374383336369</v>
+      </c>
+      <c r="K102" s="17">
+        <v>2.5945550886168449E-2</v>
+      </c>
+      <c r="L102" s="17">
+        <v>19.961182188927459</v>
+      </c>
+      <c r="M102" s="22">
+        <v>30.8</v>
+      </c>
+      <c r="N102" s="17">
+        <v>2.7407272062853838E-3</v>
+      </c>
+      <c r="O102" s="17">
+        <v>9.5925452219988597E-4</v>
+      </c>
+      <c r="P102" s="17">
+        <v>4.4765211035994859E-2</v>
+      </c>
+      <c r="Q102" s="17">
+        <v>3.1927188013886352</v>
+      </c>
+      <c r="R102" s="17">
+        <v>3.848124429015165</v>
+      </c>
+      <c r="S102" s="17">
+        <v>94.431707217248274</v>
+      </c>
+      <c r="T102" s="17">
+        <v>1.004933308971312E-3</v>
+      </c>
+      <c r="U102" s="17">
+        <v>4.7368901881966012E-2</v>
+      </c>
+      <c r="V102" s="17">
+        <v>125.0623010670564</v>
+      </c>
+    </row>
+    <row r="103" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F103" s="1">
+        <v>300</v>
+      </c>
+      <c r="G103" s="1">
+        <v>74274</v>
+      </c>
+      <c r="H103" s="5">
+        <v>0.24361149258152251</v>
+      </c>
+      <c r="I103" s="6">
+        <v>32737.93492</v>
+      </c>
+      <c r="J103" s="5">
+        <v>1.5187077577618009</v>
+      </c>
+      <c r="K103" s="5">
+        <v>6.2767590273850843E-2</v>
+      </c>
+      <c r="L103" s="5">
+        <v>67.475274421466466</v>
+      </c>
+      <c r="M103" s="21">
+        <v>26.7</v>
+      </c>
+      <c r="N103" s="5">
+        <v>2.0599402213425828E-3</v>
+      </c>
+      <c r="O103" s="5">
+        <v>1.3598298193176559E-3</v>
+      </c>
+      <c r="P103" s="5">
+        <v>2.3965317607776591E-3</v>
+      </c>
+      <c r="Q103" s="5">
+        <v>1.292511511430649E-3</v>
+      </c>
+      <c r="R103" s="5">
+        <v>6.4760212187306418E-2</v>
+      </c>
+      <c r="S103" s="5">
+        <v>2.5293452150146729</v>
+      </c>
+      <c r="T103" s="5">
+        <v>2.4234590839324581E-4</v>
+      </c>
+      <c r="U103" s="5">
+        <v>7.2340253655384115E-2</v>
+      </c>
+      <c r="V103" s="5">
+        <v>77.736174661119634</v>
+      </c>
+    </row>
+    <row r="105" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F105" s="1">
+        <v>-400</v>
+      </c>
+      <c r="G105" s="1">
+        <v>48561</v>
+      </c>
+      <c r="H105" s="5">
+        <v>0.13216367043512281</v>
+      </c>
+      <c r="I105" s="6">
+        <v>22502.496999999999</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0.27060810115112938</v>
+      </c>
+      <c r="K105" s="5">
+        <v>1.383826527460307E-2</v>
+      </c>
+      <c r="L105" s="5">
+        <v>29.993051069376651</v>
+      </c>
+      <c r="M105" s="5">
+        <v>30.14</v>
+      </c>
+      <c r="N105" s="5">
+        <v>2.1622289491567159E-3</v>
+      </c>
+      <c r="O105" s="5">
+        <v>2.4917114556948891E-3</v>
+      </c>
+      <c r="P105" s="5">
+        <v>1.190667408002305E-2</v>
+      </c>
+      <c r="Q105" s="5">
+        <v>0.25711991103972193</v>
+      </c>
+      <c r="R105" s="5">
+        <v>1.9074271534770699</v>
+      </c>
+      <c r="S105" s="5">
+        <v>203.3529541525092</v>
+      </c>
+      <c r="T105" s="5">
+        <v>3.9126047651407418E-4</v>
+      </c>
+      <c r="U105" s="5">
+        <v>4.1473610510491948E-2</v>
+      </c>
+      <c r="V105" s="5">
+        <v>214.15723321986769</v>
+      </c>
+    </row>
+    <row r="106" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F106" s="1">
+        <v>-306</v>
+      </c>
+      <c r="G106" s="1">
+        <v>60292</v>
+      </c>
+      <c r="H106" s="5">
+        <v>0.17304119949578717</v>
+      </c>
+      <c r="I106" s="6">
+        <v>17405.8</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0.43737643468453524</v>
+      </c>
+      <c r="K106" s="5">
+        <v>1.7249386319909771E-2</v>
+      </c>
+      <c r="L106" s="5">
+        <v>14.787407947986466</v>
+      </c>
+      <c r="M106" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="N106" s="5">
+        <v>1.7415245803755058E-3</v>
+      </c>
+      <c r="O106" s="5">
+        <v>2.404962515756651E-3</v>
+      </c>
+      <c r="P106" s="5">
+        <v>1.0727791415113116E-2</v>
+      </c>
+      <c r="Q106" s="5">
+        <v>4.2005844888210708</v>
+      </c>
+      <c r="R106" s="5">
+        <v>1.1195515159556824</v>
+      </c>
+      <c r="S106" s="5">
+        <v>67.111490745040797</v>
+      </c>
+      <c r="T106" s="5">
+        <v>7.1831879990644969E-4</v>
+      </c>
+      <c r="U106" s="5">
+        <v>4.6291381941219401E-2</v>
+      </c>
+      <c r="V106" s="5">
+        <v>45.439470782800392</v>
+      </c>
+    </row>
+    <row r="107" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F107" s="1">
+        <v>-314</v>
+      </c>
+      <c r="G107" s="1">
+        <v>57281</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0.1420715420471011</v>
+      </c>
+      <c r="I107" s="6">
+        <v>19503.478650000001</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0.85137654719715072</v>
+      </c>
+      <c r="K107" s="5">
+        <v>1.878458825788655E-2</v>
+      </c>
+      <c r="L107" s="5">
+        <v>41.6940077879227</v>
+      </c>
+      <c r="M107" s="5">
+        <v>29.18</v>
+      </c>
+      <c r="N107" s="5">
+        <v>2.9852830781585322E-3</v>
+      </c>
+      <c r="O107" s="5">
+        <v>2.758331733035376E-3</v>
+      </c>
+      <c r="P107" s="5">
+        <v>4.1951083256227973E-3</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>0.1398369441874257</v>
+      </c>
+      <c r="R107" s="5">
+        <v>0.27997800317731869</v>
+      </c>
+      <c r="S107" s="5">
+        <v>3.1786435816413769</v>
+      </c>
+      <c r="T107" s="5">
+        <v>2.9678252823798367E-4</v>
+      </c>
+      <c r="U107" s="5">
+        <v>5.1744906688081557E-2</v>
+      </c>
+      <c r="V107" s="5">
+        <v>144.23140084757591</v>
+      </c>
+    </row>
+    <row r="108" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F108" s="1">
+        <v>-277</v>
+      </c>
+      <c r="G108" s="1">
+        <v>39542</v>
+      </c>
+      <c r="H108" s="7">
+        <v>0.3221131960952911</v>
+      </c>
+      <c r="I108" s="6">
+        <v>36253</v>
+      </c>
+      <c r="J108" s="5">
+        <v>0.55500480501744975</v>
+      </c>
+      <c r="K108" s="5">
+        <v>2.3822770724798947E-2</v>
+      </c>
+      <c r="L108" s="5">
+        <v>29.325299681351474</v>
+      </c>
+      <c r="M108" s="5">
+        <v>29.9</v>
+      </c>
+      <c r="N108" s="5">
+        <v>3.4140913459106774E-3</v>
+      </c>
+      <c r="O108" s="5">
+        <v>1.5426634970411208E-3</v>
+      </c>
+      <c r="P108" s="5">
+        <v>8.8260583683172321E-3</v>
+      </c>
+      <c r="Q108" s="5">
+        <v>0.48712761114764047</v>
+      </c>
+      <c r="R108" s="5">
+        <v>0.29093697840271104</v>
+      </c>
+      <c r="S108" s="5">
+        <v>6.6991300389459312</v>
+      </c>
+      <c r="T108" s="5">
+        <v>3.5405391735369985E-4</v>
+      </c>
+      <c r="U108" s="5">
+        <v>5.8469475494411005E-2</v>
+      </c>
+      <c r="V108" s="5">
+        <v>1234.7960851752566</v>
+      </c>
+    </row>
+    <row r="109" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F109" s="1">
+        <v>1530</v>
+      </c>
+      <c r="G109" s="1">
+        <v>335525</v>
+      </c>
+      <c r="H109" s="5">
+        <v>0.25185306609045527</v>
+      </c>
+      <c r="I109" s="6">
+        <v>55433.3</v>
+      </c>
+      <c r="J109" s="5">
+        <v>1.1603776171671263</v>
+      </c>
+      <c r="K109" s="5">
+        <v>6.8927799716861637E-2</v>
+      </c>
+      <c r="L109" s="5">
+        <v>51.78221771850086</v>
+      </c>
+      <c r="M109" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="N109" s="5">
+        <v>5.1560986513672603E-4</v>
+      </c>
+      <c r="O109" s="5">
+        <v>1.6213396915282022E-3</v>
+      </c>
+      <c r="P109" s="5">
+        <v>1.4365546531555026E-3</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>6.3998211757693171E-2</v>
+      </c>
+      <c r="R109" s="5">
+        <v>0.21880596080768944</v>
+      </c>
+      <c r="S109" s="5">
+        <v>6.1396995752924521</v>
+      </c>
+      <c r="T109" s="5">
+        <v>2.1756948066463006E-4</v>
+      </c>
+      <c r="U109" s="5">
+        <v>5.0306236495045079E-2</v>
+      </c>
+      <c r="V109" s="5">
+        <v>312.14863482601891</v>
+      </c>
+    </row>
+    <row r="110" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F110" s="1">
+        <v>-2905</v>
+      </c>
+      <c r="G110" s="1">
+        <v>737031</v>
+      </c>
+      <c r="H110" s="5">
+        <v>0.14464656167786702</v>
+      </c>
+      <c r="I110" s="6">
+        <v>23914</v>
+      </c>
+      <c r="J110" s="5">
+        <v>0.25728090134607634</v>
+      </c>
+      <c r="K110" s="5">
+        <v>4.318678590181417E-3</v>
+      </c>
+      <c r="L110" s="5">
+        <v>4.5855167557402607</v>
+      </c>
+      <c r="M110" s="17">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N110" s="5">
+        <v>5.8884904434141846E-4</v>
+      </c>
+      <c r="O110" s="5">
+        <v>3.3173638557943965E-3</v>
+      </c>
+      <c r="P110" s="17">
+        <f>700/G110</f>
+        <v>9.4975652313132011E-4</v>
+      </c>
+      <c r="Q110" s="5">
+        <v>2.932983822932821E-2</v>
+      </c>
+      <c r="R110" s="5">
+        <v>3.6260347258120759E-2</v>
+      </c>
+      <c r="S110" s="17">
+        <f>486980/G110</f>
+        <v>0.66073204519212891</v>
+      </c>
+      <c r="T110" s="5">
+        <v>1.1397078277575842E-4</v>
+      </c>
+      <c r="U110" s="5">
+        <v>2.4609548309365549E-2</v>
+      </c>
+      <c r="V110" s="5">
+        <v>44.398530726658713</v>
+      </c>
+    </row>
+    <row r="112" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F112" s="1">
+        <v>-151.99999999999989</v>
+      </c>
+      <c r="G112" s="1">
+        <v>85939</v>
+      </c>
+      <c r="H112" s="7">
+        <v>0.15749543280699099</v>
+      </c>
+      <c r="I112" s="6">
+        <v>24720.091919999999</v>
+      </c>
+      <c r="J112" s="7">
+        <v>0.81039690943576237</v>
+      </c>
+      <c r="K112" s="7">
+        <v>1.8396769801836171E-2</v>
+      </c>
+      <c r="L112" s="7">
+        <v>32.194688077822633</v>
+      </c>
+      <c r="M112" s="7">
+        <v>28.7</v>
+      </c>
+      <c r="N112" s="7">
+        <v>6.539522219248496E-3</v>
+      </c>
+      <c r="O112" s="7">
+        <v>2.5715914776760149E-3</v>
+      </c>
+      <c r="P112" s="7">
+        <v>1.0555161219004169E-2</v>
+      </c>
+      <c r="Q112" s="7">
+        <v>1.1495013905211819</v>
+      </c>
+      <c r="R112" s="7">
+        <v>0.66520904362396571</v>
+      </c>
+      <c r="S112" s="7">
+        <v>22.581482595794672</v>
+      </c>
+      <c r="T112" s="7">
+        <v>7.4471427407812321E-4</v>
+      </c>
+      <c r="U112" s="7">
+        <v>6.0112405310743661E-2</v>
+      </c>
+      <c r="V112" s="7">
+        <v>153.74505778284589</v>
+      </c>
+    </row>
+    <row r="113" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F113" s="1">
+        <v>-449.99999999999989</v>
+      </c>
+      <c r="G113" s="1">
+        <v>44386</v>
+      </c>
+      <c r="H113" s="7">
+        <v>0.11616275402153831</v>
+      </c>
+      <c r="I113" s="6">
+        <v>21819.183840000002</v>
+      </c>
+      <c r="J113" s="7">
+        <v>0.43312530978236369</v>
+      </c>
+      <c r="K113" s="7">
+        <v>3.4515387734871332E-2</v>
+      </c>
+      <c r="L113" s="7">
+        <v>23.330135132699489</v>
+      </c>
+      <c r="M113" s="7">
+        <v>29.9</v>
+      </c>
+      <c r="N113" s="7">
+        <v>3.807506871536046E-3</v>
+      </c>
+      <c r="O113" s="7">
+        <v>2.343081151714495E-3</v>
+      </c>
+      <c r="P113" s="7">
+        <v>1.4168882079935099E-2</v>
+      </c>
+      <c r="Q113" s="7">
+        <v>2.863042400756993</v>
+      </c>
+      <c r="R113" s="7">
+        <v>0.49934596494390132</v>
+      </c>
+      <c r="S113" s="7">
+        <v>56.510477592033467</v>
+      </c>
+      <c r="T113" s="7">
+        <v>1.622133105033115E-3</v>
+      </c>
+      <c r="U113" s="7">
+        <v>4.9587707835804067E-2</v>
+      </c>
+      <c r="V113" s="7">
+        <v>33.696300743477607</v>
+      </c>
+    </row>
+    <row r="114" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F114" s="1">
+        <v>-1897</v>
+      </c>
+      <c r="G114" s="1">
+        <v>447387</v>
+      </c>
+      <c r="H114" s="7">
+        <v>0.24330836613491227</v>
+      </c>
+      <c r="I114" s="6">
+        <v>25219.131849999998</v>
+      </c>
+      <c r="J114" s="7">
+        <v>0.89471419598691959</v>
+      </c>
+      <c r="K114" s="7">
+        <v>2.7714260807757043E-2</v>
+      </c>
+      <c r="L114" s="7">
+        <v>97.734390398134039</v>
+      </c>
+      <c r="M114" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="N114" s="7">
+        <v>1.2517127229892688E-3</v>
+      </c>
+      <c r="O114" s="7">
+        <v>1.3455911772134639E-3</v>
+      </c>
+      <c r="P114" s="7">
+        <v>1.6786361695802516E-3</v>
+      </c>
+      <c r="Q114" s="7">
+        <v>9.9645273555109999E-3</v>
+      </c>
+      <c r="R114" s="7">
+        <v>0.13614680355039371</v>
+      </c>
+      <c r="S114" s="7">
+        <v>1.272602612503269</v>
+      </c>
+      <c r="T114" s="7">
+        <v>6.482083744051571E-4</v>
+      </c>
+      <c r="U114" s="7">
+        <v>3.6592480335816642E-2</v>
+      </c>
+      <c r="V114" s="7">
+        <v>230.88501684045355</v>
+      </c>
+    </row>
+    <row r="115" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F115" s="1">
+        <v>-47</v>
+      </c>
+      <c r="G115" s="1">
+        <v>40333</v>
+      </c>
+      <c r="H115" s="7">
+        <v>0.11754642600352069</v>
+      </c>
+      <c r="I115" s="6">
+        <v>19539.2</v>
+      </c>
+      <c r="J115" s="7">
+        <v>0.35174794833015149</v>
+      </c>
+      <c r="K115" s="7">
+        <v>1.0611657947586344E-2</v>
+      </c>
+      <c r="L115" s="7">
+        <v>5.3734534996156995</v>
+      </c>
+      <c r="M115" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="N115" s="7">
+        <v>3.0991991669352638E-3</v>
+      </c>
+      <c r="O115" s="7">
+        <v>1.2892668534450699E-3</v>
+      </c>
+      <c r="P115" s="7">
+        <v>1.0331490342895395E-2</v>
+      </c>
+      <c r="Q115" s="7">
+        <v>2.2278531227530807</v>
+      </c>
+      <c r="R115" s="7">
+        <v>0.93820940668931152</v>
+      </c>
+      <c r="S115" s="7">
+        <v>82.169960082314731</v>
+      </c>
+      <c r="T115" s="7">
+        <v>7.9339498673542752E-4</v>
+      </c>
+      <c r="U115" s="7">
+        <v>2.3206803362011256E-2</v>
+      </c>
+      <c r="V115" s="7">
+        <v>101.40950586368483</v>
+      </c>
+    </row>
+    <row r="116" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F116" s="1">
+        <v>3578</v>
+      </c>
+      <c r="G116" s="1">
+        <v>47423</v>
+      </c>
+      <c r="H116" s="7">
+        <v>0.34242877928431353</v>
+      </c>
+      <c r="I116" s="6">
+        <v>37980</v>
+      </c>
+      <c r="J116" s="7">
+        <v>0.54330177340109231</v>
+      </c>
+      <c r="K116" s="7">
+        <v>2.3722666216814625E-2</v>
+      </c>
+      <c r="L116" s="7">
+        <v>53.024439617906921</v>
+      </c>
+      <c r="M116" s="7">
+        <v>38.1</v>
+      </c>
+      <c r="N116" s="7">
+        <v>3.6901925226156085E-3</v>
+      </c>
+      <c r="O116" s="7">
+        <v>1.1176011639921558E-3</v>
+      </c>
+      <c r="P116" s="7">
+        <v>1.201526685363642E-2</v>
+      </c>
+      <c r="Q116" s="7">
+        <v>0.35423739535668347</v>
+      </c>
+      <c r="R116" s="7">
+        <v>2.7574299390591066</v>
+      </c>
+      <c r="S116" s="7">
+        <v>140.13062016321194</v>
+      </c>
+      <c r="T116" s="7">
+        <v>8.8564620542774602E-4</v>
+      </c>
+      <c r="U116" s="7">
+        <v>5.6723530776205636E-2</v>
+      </c>
+      <c r="V116" s="7">
+        <v>873.40777892583776</v>
+      </c>
+    </row>
+    <row r="117" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F117" s="1">
+        <v>1763</v>
+      </c>
+      <c r="G117" s="1">
+        <v>212839</v>
+      </c>
+      <c r="H117" s="5">
+        <v>0.13402618880938175</v>
+      </c>
+      <c r="I117" s="6">
+        <v>23354.08466</v>
+      </c>
+      <c r="J117" s="5">
+        <v>0.66409633572794458</v>
+      </c>
+      <c r="K117" s="5">
+        <v>0.11628507933226523</v>
+      </c>
+      <c r="L117" s="5">
+        <v>101.42730103688706</v>
+      </c>
+      <c r="M117" s="5">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="N117" s="5">
+        <v>2.2129402975958352E-3</v>
+      </c>
+      <c r="O117" s="5">
+        <v>1.3343419204187201E-3</v>
+      </c>
+      <c r="P117" s="5">
+        <v>4.5414609164673766E-3</v>
+      </c>
+      <c r="Q117" s="5">
+        <v>0.87642302397586913</v>
+      </c>
+      <c r="R117" s="5">
+        <v>0.41760062770450901</v>
+      </c>
+      <c r="S117" s="5">
+        <v>16.504679212456363</v>
+      </c>
+      <c r="T117" s="5">
+        <v>1.9733225583657132E-4</v>
+      </c>
+      <c r="U117" s="5">
+        <v>4.0608159218940135E-2</v>
+      </c>
+      <c r="V117" s="5">
+        <v>196.87771655772673</v>
+      </c>
+    </row>
+    <row r="118" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F118" s="1">
+        <v>-43</v>
+      </c>
+      <c r="G118" s="1">
+        <v>115048</v>
+      </c>
+      <c r="H118" s="5">
+        <v>0.16380119602252974</v>
+      </c>
+      <c r="I118" s="6">
+        <v>25688.450580000001</v>
+      </c>
+      <c r="J118" s="5">
+        <v>1.2728165635213129</v>
+      </c>
+      <c r="K118" s="5">
+        <v>0.25154718030734996</v>
+      </c>
+      <c r="L118" s="5">
+        <v>123.63113805385579</v>
+      </c>
+      <c r="M118" s="5">
+        <v>42.7</v>
+      </c>
+      <c r="N118" s="5">
+        <v>2.6684514289687781E-3</v>
+      </c>
+      <c r="O118" s="5">
+        <v>5.3369028579375562E-3</v>
+      </c>
+      <c r="P118" s="5">
+        <v>3.4689868576594121E-3</v>
+      </c>
+      <c r="Q118" s="5">
+        <v>0.11611675126903553</v>
+      </c>
+      <c r="R118" s="5">
+        <v>5.9559488213615182E-2</v>
+      </c>
+      <c r="S118" s="5">
+        <v>3.6999218004658925</v>
+      </c>
+      <c r="T118" s="5">
+        <v>2.1730060496488423E-4</v>
+      </c>
+      <c r="U118" s="5">
+        <v>5.0326820109867186E-2</v>
+      </c>
+      <c r="V118" s="5">
+        <v>107.78377544607469</v>
+      </c>
+    </row>
+    <row r="119" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F119" s="1">
+        <v>-194</v>
+      </c>
+      <c r="G119" s="1">
+        <v>236912</v>
+      </c>
+      <c r="H119" s="5">
+        <v>0.22602907408658068</v>
+      </c>
+      <c r="I119" s="6">
+        <v>34942.071599999996</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0.99471533734044704</v>
+      </c>
+      <c r="K119" s="5">
+        <v>3.4392517052745326E-2</v>
+      </c>
+      <c r="L119" s="5">
+        <v>49.184704711622878</v>
+      </c>
+      <c r="M119" s="5">
+        <v>23.7</v>
+      </c>
+      <c r="N119" s="5">
+        <v>1.7052745323157966E-3</v>
+      </c>
+      <c r="O119" s="5">
+        <v>3.8664145336665093E-3</v>
+      </c>
+      <c r="P119" s="5">
+        <v>1.9935672317147298E-3</v>
+      </c>
+      <c r="Q119" s="5">
+        <v>3.7435841156209904E-2</v>
+      </c>
+      <c r="R119" s="5">
+        <v>0.29477189842641993</v>
+      </c>
+      <c r="S119" s="5">
+        <v>7.9265926504356052</v>
+      </c>
+      <c r="T119" s="5">
+        <v>7.5977578172485983E-5</v>
+      </c>
+      <c r="U119" s="5">
+        <v>5.778094820017559E-2</v>
+      </c>
+      <c r="V119" s="5">
+        <v>286.70030183089074</v>
+      </c>
+    </row>
+    <row r="120" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F120" s="1">
+        <v>-136</v>
+      </c>
+      <c r="G120" s="1">
+        <v>8315</v>
+      </c>
+      <c r="H120" s="5">
+        <v>0.17714972940469031</v>
+      </c>
+      <c r="I120" s="5">
+        <v>20566.364119999998</v>
+      </c>
+      <c r="J120" s="5">
+        <v>0.69592303066746852</v>
+      </c>
+      <c r="K120" s="5">
+        <v>1.7919422730006015E-2</v>
+      </c>
+      <c r="L120" s="5">
+        <v>49.556223692122671</v>
+      </c>
+      <c r="M120" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="N120" s="5">
+        <v>2.1647624774503911E-3</v>
+      </c>
+      <c r="O120" s="5">
+        <v>8.4185207456404084E-4</v>
+      </c>
+      <c r="P120" s="5">
+        <v>1.8989777510523151E-2</v>
+      </c>
+      <c r="Q120" s="5">
+        <v>1.2476247745039086</v>
+      </c>
+      <c r="R120" s="5">
+        <v>0.56698376428141917</v>
+      </c>
+      <c r="S120" s="5">
+        <v>22.949180844257366</v>
+      </c>
+      <c r="T120" s="5">
+        <v>1.2026458208057728E-3</v>
+      </c>
+      <c r="U120" s="5">
+        <v>7.4323511725796751E-2</v>
+      </c>
+      <c r="V120" s="5">
+        <v>29.9954811785929</v>
+      </c>
+    </row>
+    <row r="122" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F122" s="1">
+        <f>MAX(F98:F120)</f>
+        <v>3578</v>
+      </c>
+      <c r="G122" s="1">
+        <f t="shared" ref="G122:V122" si="6">MAX(G98:G120)</f>
+        <v>737031</v>
+      </c>
+      <c r="H122" s="1">
+        <f t="shared" si="6"/>
+        <v>0.34242877928431353</v>
+      </c>
+      <c r="I122" s="1">
+        <f t="shared" si="6"/>
+        <v>55433.3</v>
+      </c>
+      <c r="J122" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5187077577618009</v>
+      </c>
+      <c r="K122" s="1">
+        <f t="shared" si="6"/>
+        <v>0.25154718030734996</v>
+      </c>
+      <c r="L122" s="1">
+        <f t="shared" si="6"/>
+        <v>123.63113805385579</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" si="6"/>
+        <v>47.9</v>
+      </c>
+      <c r="N122" s="1">
+        <f t="shared" si="6"/>
+        <v>6.539522219248496E-3</v>
+      </c>
+      <c r="O122" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0470809792843691E-2</v>
+      </c>
+      <c r="P122" s="1">
+        <f t="shared" si="6"/>
+        <v>4.4765211035994859E-2</v>
+      </c>
+      <c r="Q122" s="1">
+        <f t="shared" si="6"/>
+        <v>69.960214882187117</v>
+      </c>
+      <c r="R122" s="1">
+        <f t="shared" si="6"/>
+        <v>3.848124429015165</v>
+      </c>
+      <c r="S122" s="1">
+        <f t="shared" si="6"/>
+        <v>203.3529541525092</v>
+      </c>
+      <c r="T122" s="1">
+        <f t="shared" si="6"/>
+        <v>1.78141979157388E-3</v>
+      </c>
+      <c r="U122" s="1">
+        <f t="shared" si="6"/>
+        <v>8.2479736349870852E-2</v>
+      </c>
+      <c r="V122" s="1">
+        <f t="shared" si="6"/>
+        <v>1234.7960851752566</v>
+      </c>
+    </row>
+    <row r="123" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E123" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V123" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E124" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" s="5">
+        <f>F98/F$122</f>
+        <v>-4.2202347680268308E-2</v>
+      </c>
+      <c r="G124" s="5">
+        <f t="shared" ref="G124:V139" si="7">G98/G$122</f>
+        <v>1.5232737835993318E-2</v>
+      </c>
+      <c r="H124" s="5">
+        <f t="shared" si="7"/>
+        <v>0.71687796741833743</v>
+      </c>
+      <c r="I124" s="5">
+        <f t="shared" si="7"/>
+        <v>0.68826067508158462</v>
+      </c>
+      <c r="J124" s="5">
+        <f t="shared" si="7"/>
+        <v>0.69264700963578463</v>
+      </c>
+      <c r="K124" s="5">
+        <f t="shared" si="7"/>
+        <v>0.19900002886958812</v>
+      </c>
+      <c r="L124" s="5">
+        <f t="shared" si="7"/>
+        <v>0.21698064530793243</v>
+      </c>
+      <c r="M124" s="5">
+        <f t="shared" si="7"/>
+        <v>0.73277661795407101</v>
+      </c>
+      <c r="N124" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7899839196750843</v>
+      </c>
+      <c r="O124" s="5">
+        <f t="shared" si="7"/>
+        <v>0.31474419644830903</v>
+      </c>
+      <c r="P124" s="5">
+        <f t="shared" si="7"/>
+        <v>0.5587181048601858</v>
+      </c>
+      <c r="Q124" s="5">
+        <f t="shared" si="7"/>
+        <v>1.8168083437542083E-3</v>
+      </c>
+      <c r="R124" s="5">
+        <f t="shared" si="7"/>
+        <v>9.3836308677897814E-2</v>
+      </c>
+      <c r="S124" s="5">
+        <f t="shared" si="7"/>
+        <v>3.6857769952494929E-2</v>
+      </c>
+      <c r="T124" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U124" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V124" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12568076516798499</v>
+      </c>
+    </row>
+    <row r="125" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E125" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="5">
+        <f t="shared" ref="F125:U147" si="8">F99/F$122</f>
+        <v>6.4561207378423663E-2</v>
+      </c>
+      <c r="G125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.1374474072325316</v>
+      </c>
+      <c r="H125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.38009098549174158</v>
+      </c>
+      <c r="I125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.35412673068354217</v>
+      </c>
+      <c r="J125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.47080964477759718</v>
+      </c>
+      <c r="K125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.12016097014709658</v>
+      </c>
+      <c r="L125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.3629053345146423</v>
+      </c>
+      <c r="M125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.55427974947807934</v>
+      </c>
+      <c r="N125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.27321859164411549</v>
+      </c>
+      <c r="O125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34976096001474732</v>
+      </c>
+      <c r="P125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.20871692862410945</v>
+      </c>
+      <c r="Q125" s="5">
+        <f t="shared" si="8"/>
+        <v>8.8812479892329908E-3</v>
+      </c>
+      <c r="R125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.55347595112614867</v>
+      </c>
+      <c r="S125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.39435528952302118</v>
+      </c>
+      <c r="T125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.19394539154812782</v>
+      </c>
+      <c r="U125" s="5">
+        <f t="shared" si="8"/>
+        <v>0.44581708331797359</v>
+      </c>
+      <c r="V125" s="5">
+        <f t="shared" si="7"/>
+        <v>9.8606845138561078E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="5">
+        <f t="shared" si="8"/>
+        <v>0.27249860257126884</v>
+      </c>
+      <c r="G126" s="5">
+        <f t="shared" si="7"/>
+        <v>8.6320656797339593E-2</v>
+      </c>
+      <c r="H126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.53971278640605913</v>
+      </c>
+      <c r="I126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.41348896150869602</v>
+      </c>
+      <c r="J126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.64179988537293631</v>
+      </c>
+      <c r="K126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11516099023994092</v>
+      </c>
+      <c r="L126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.63245354410631405</v>
+      </c>
+      <c r="M126" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.60569505771528132</v>
+      </c>
+      <c r="O126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.27921078047732867</v>
+      </c>
+      <c r="P126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.17243634417977119</v>
+      </c>
+      <c r="Q126" s="5">
+        <f t="shared" si="7"/>
+        <v>6.8659222604951692E-2</v>
+      </c>
+      <c r="R126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.26388986910016188</v>
+      </c>
+      <c r="S126" s="5">
+        <f t="shared" si="7"/>
+        <v>6.8924858352955642E-2</v>
+      </c>
+      <c r="T126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.33528709074047874</v>
+      </c>
+      <c r="U126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.8701380336029475</v>
+      </c>
+      <c r="V126" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11174399139616201</v>
+      </c>
+    </row>
+    <row r="127" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E127" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="5">
+        <f t="shared" si="8"/>
+        <v>5.5897149245388482E-3</v>
+      </c>
+      <c r="G127" s="5">
+        <f t="shared" si="7"/>
+        <v>1.8011454063668962E-2</v>
+      </c>
+      <c r="H127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.53393882296577144</v>
+      </c>
+      <c r="I127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.33961535755583738</v>
+      </c>
+      <c r="J127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.98770659273783623</v>
+      </c>
+      <c r="K127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12637421406976185</v>
+      </c>
+      <c r="L127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.25100707899393165</v>
+      </c>
+      <c r="M127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.5365344467640919</v>
+      </c>
+      <c r="N127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.41468846130647463</v>
+      </c>
+      <c r="O127" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.16491148775894549</v>
+      </c>
+      <c r="Q127" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.3162150889927301</v>
+      </c>
+      <c r="S127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.70440850722790427</v>
+      </c>
+      <c r="T127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.16914500941619626</v>
+      </c>
+      <c r="U127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.56458318183755452</v>
+      </c>
+      <c r="V127" s="5">
+        <f t="shared" si="7"/>
+        <v>0.28189123221952139</v>
+      </c>
+    </row>
+    <row r="128" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E128" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128" s="5">
+        <f t="shared" si="8"/>
+        <v>-1.089994410285073E-2</v>
+      </c>
+      <c r="G128" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9702956863415498E-2</v>
+      </c>
+      <c r="H128" s="5">
+        <f t="shared" si="7"/>
+        <v>0.42233319062896657</v>
+      </c>
+      <c r="I128" s="5">
+        <f t="shared" si="7"/>
+        <v>0.37467826739522991</v>
+      </c>
+      <c r="J128" s="5">
+        <f t="shared" si="7"/>
+        <v>0.24156967787801698</v>
+      </c>
+      <c r="K128" s="5">
+        <f t="shared" si="7"/>
+        <v>0.10314387485666579</v>
+      </c>
+      <c r="L128" s="5">
+        <f t="shared" si="7"/>
+        <v>0.16145756241629058</v>
+      </c>
+      <c r="M128" s="5">
+        <f t="shared" si="7"/>
+        <v>0.64300626304801678</v>
+      </c>
+      <c r="N128" s="5">
+        <f t="shared" si="7"/>
+        <v>0.41910205583800902</v>
+      </c>
+      <c r="O128" s="5">
+        <f t="shared" si="7"/>
+        <v>9.1612257425924368E-2</v>
+      </c>
+      <c r="P128" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q128" s="5">
+        <f t="shared" si="7"/>
+        <v>4.563620633191548E-2</v>
+      </c>
+      <c r="R128" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S128" s="5">
+        <f t="shared" si="7"/>
+        <v>0.46437342211624355</v>
+      </c>
+      <c r="T128" s="5">
+        <f t="shared" si="7"/>
+        <v>0.56411931299104734</v>
+      </c>
+      <c r="U128" s="5">
+        <f t="shared" si="7"/>
+        <v>0.57430956957757273</v>
+      </c>
+      <c r="V128" s="5">
+        <f t="shared" si="7"/>
+        <v>0.10128174406165703</v>
+      </c>
+    </row>
+    <row r="129" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E129" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="5">
+        <f t="shared" si="8"/>
+        <v>8.3845723868082728E-2</v>
+      </c>
+      <c r="G129" s="5">
+        <f t="shared" si="7"/>
+        <v>0.10077459428436525</v>
+      </c>
+      <c r="H129" s="5">
+        <f t="shared" si="7"/>
+        <v>0.71142236669090098</v>
+      </c>
+      <c r="I129" s="5">
+        <f t="shared" si="7"/>
+        <v>0.59058246433100681</v>
+      </c>
+      <c r="J129" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K129" s="5">
+        <f t="shared" si="7"/>
+        <v>0.24952611353925336</v>
+      </c>
+      <c r="L129" s="5">
+        <f t="shared" si="7"/>
+        <v>0.54577896380823665</v>
+      </c>
+      <c r="M129" s="5">
+        <f t="shared" si="7"/>
+        <v>0.55741127348643005</v>
+      </c>
+      <c r="N129" s="5">
+        <f t="shared" si="7"/>
+        <v>0.31499858128462871</v>
+      </c>
+      <c r="O129" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12986863921900635</v>
+      </c>
+      <c r="P129" s="5">
+        <f t="shared" si="7"/>
+        <v>5.3535585007086266E-2</v>
+      </c>
+      <c r="Q129" s="5">
+        <f t="shared" si="7"/>
+        <v>1.847495056450636E-5</v>
+      </c>
+      <c r="R129" s="5">
+        <f t="shared" si="7"/>
+        <v>1.6829032787767789E-2</v>
+      </c>
+      <c r="S129" s="5">
+        <f t="shared" si="7"/>
+        <v>1.2438202462098154E-2</v>
+      </c>
+      <c r="T129" s="5">
+        <f t="shared" si="7"/>
+        <v>0.13604087567654888</v>
+      </c>
+      <c r="U129" s="5">
+        <f t="shared" si="7"/>
+        <v>0.87706698465334498</v>
+      </c>
+      <c r="V129" s="5">
+        <f t="shared" si="7"/>
+        <v>6.2954665628119813E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
+    </row>
+    <row r="131" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E131" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F131" s="5">
+        <f t="shared" si="8"/>
+        <v>-0.11179429849077697</v>
+      </c>
+      <c r="G131" s="5">
+        <f t="shared" si="7"/>
+        <v>6.5887323599685771E-2</v>
+      </c>
+      <c r="H131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.38595958760051902</v>
+      </c>
+      <c r="I131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.40593825372113873</v>
+      </c>
+      <c r="J131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.17818312955083518</v>
+      </c>
+      <c r="K131" s="5">
+        <f t="shared" si="7"/>
+        <v>5.5012603431670151E-2</v>
+      </c>
+      <c r="L131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.24260110795316933</v>
+      </c>
+      <c r="M131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.62922755741127356</v>
+      </c>
+      <c r="N131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.33064020224480456</v>
+      </c>
+      <c r="O131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.23796740700970972</v>
+      </c>
+      <c r="P131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.26598051934680078</v>
+      </c>
+      <c r="Q131" s="5">
+        <f t="shared" si="7"/>
+        <v>3.6752304359372167E-3</v>
+      </c>
+      <c r="R131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.49567709897708012</v>
+      </c>
+      <c r="S131" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="T131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.21963406849117609</v>
+      </c>
+      <c r="U131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.50283393650247632</v>
+      </c>
+      <c r="V131" s="5">
+        <f t="shared" si="7"/>
+        <v>0.1734353030358628</v>
+      </c>
+    </row>
+    <row r="132" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E132" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" s="5">
+        <f t="shared" si="8"/>
+        <v>-8.5522638345444379E-2</v>
+      </c>
+      <c r="G132" s="5">
+        <f t="shared" si="7"/>
+        <v>8.180388613233365E-2</v>
+      </c>
+      <c r="H132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.50533486074811962</v>
+      </c>
+      <c r="I132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.31399537822933143</v>
+      </c>
+      <c r="J132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.28799249391411536</v>
+      </c>
+      <c r="K132" s="5">
+        <f t="shared" si="7"/>
+        <v>6.8573165077158924E-2</v>
+      </c>
+      <c r="L132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11960909024023401</v>
+      </c>
+      <c r="M132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.48225469728601256</v>
+      </c>
+      <c r="N132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.26630761728272512</v>
+      </c>
+      <c r="O132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.22968257119906146</v>
+      </c>
+      <c r="P132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.23964572414250659</v>
+      </c>
+      <c r="Q132" s="5">
+        <f t="shared" si="7"/>
+        <v>6.0042475511186577E-2</v>
+      </c>
+      <c r="R132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.29093433349352599</v>
+      </c>
+      <c r="S132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.33002466585613993</v>
+      </c>
+      <c r="T132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.40322825832748654</v>
+      </c>
+      <c r="U132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.56124551301735437</v>
+      </c>
+      <c r="V132" s="5">
+        <f t="shared" si="7"/>
+        <v>3.679916978061288E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E133" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F133" s="5">
+        <f t="shared" si="8"/>
+        <v>-8.775852431525992E-2</v>
+      </c>
+      <c r="G133" s="5">
+        <f t="shared" si="7"/>
+        <v>7.7718576287835919E-2</v>
+      </c>
+      <c r="H133" s="5">
+        <f t="shared" si="7"/>
+        <v>0.41489369656380781</v>
+      </c>
+      <c r="I133" s="5">
+        <f t="shared" si="7"/>
+        <v>0.35183686791152613</v>
+      </c>
+      <c r="J133" s="5">
+        <f t="shared" si="7"/>
+        <v>0.56059274264317249</v>
+      </c>
+      <c r="K133" s="5">
+        <f t="shared" si="7"/>
+        <v>7.4676202829762686E-2</v>
+      </c>
+      <c r="L133" s="5">
+        <f t="shared" si="7"/>
+        <v>0.33724519926169483</v>
+      </c>
+      <c r="M133" s="5">
+        <f t="shared" si="7"/>
+        <v>0.60918580375782883</v>
+      </c>
+      <c r="N133" s="5">
+        <f t="shared" si="7"/>
+        <v>0.45649865205314538</v>
+      </c>
+      <c r="O133" s="5">
+        <f t="shared" si="7"/>
+        <v>0.26343060256147205</v>
+      </c>
+      <c r="P133" s="5">
+        <f t="shared" si="7"/>
+        <v>9.3713583127075853E-2</v>
+      </c>
+      <c r="Q133" s="5">
+        <f t="shared" si="7"/>
+        <v>1.9988066706614735E-3</v>
+      </c>
+      <c r="R133" s="5">
+        <f t="shared" si="7"/>
+        <v>7.2757003662943492E-2</v>
+      </c>
+      <c r="S133" s="5">
+        <f t="shared" si="7"/>
+        <v>1.5631165010061669E-2</v>
+      </c>
+      <c r="T133" s="5">
+        <f t="shared" si="7"/>
+        <v>0.16659887222639255</v>
+      </c>
+      <c r="U133" s="5">
+        <f t="shared" si="7"/>
+        <v>0.62736508357137322</v>
+      </c>
+      <c r="V133" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11680584557984318</v>
+      </c>
+    </row>
+    <row r="134" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E134" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F134" s="5">
+        <f t="shared" si="8"/>
+        <v>-7.7417551704863058E-2</v>
+      </c>
+      <c r="G134" s="5">
+        <f t="shared" si="7"/>
+        <v>5.3650389196655227E-2</v>
+      </c>
+      <c r="H134" s="5">
+        <f t="shared" si="7"/>
+        <v>0.94067209178071243</v>
+      </c>
+      <c r="I134" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65399317738615592</v>
+      </c>
+      <c r="J134" s="5">
+        <f t="shared" si="7"/>
+        <v>0.36544542699603338</v>
+      </c>
+      <c r="K134" s="5">
+        <f t="shared" si="7"/>
+        <v>9.4704980177839307E-2</v>
+      </c>
+      <c r="L134" s="5">
+        <f t="shared" si="7"/>
+        <v>0.23719994932487706</v>
+      </c>
+      <c r="M134" s="5">
+        <f t="shared" si="7"/>
+        <v>0.62421711899791232</v>
+      </c>
+      <c r="N134" s="5">
+        <f t="shared" si="7"/>
+        <v>0.52207045582957212</v>
+      </c>
+      <c r="O134" s="5">
+        <f t="shared" si="7"/>
+        <v>0.14732991311669696</v>
+      </c>
+      <c r="P134" s="5">
+        <f t="shared" si="7"/>
+        <v>0.1971633365297969</v>
+      </c>
+      <c r="Q134" s="5">
+        <f t="shared" si="7"/>
+        <v>6.962923312456409E-3</v>
+      </c>
+      <c r="R134" s="5">
+        <f t="shared" si="7"/>
+        <v>7.5604878108676277E-2</v>
+      </c>
+      <c r="S134" s="5">
+        <f t="shared" si="7"/>
+        <v>3.294336227799162E-2</v>
+      </c>
+      <c r="T134" s="5">
+        <f t="shared" si="7"/>
+        <v>0.1987481665064999</v>
+      </c>
+      <c r="U134" s="5">
+        <f t="shared" si="7"/>
+        <v>0.70889503388310182</v>
+      </c>
+      <c r="V134" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E135" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F135" s="5">
+        <f t="shared" si="8"/>
+        <v>0.4276131917272219</v>
+      </c>
+      <c r="G135" s="5">
+        <f t="shared" si="7"/>
+        <v>0.45523865346233738</v>
+      </c>
+      <c r="H135" s="5">
+        <f t="shared" si="7"/>
+        <v>0.73549035982558408</v>
+      </c>
+      <c r="I135" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J135" s="5">
+        <f t="shared" si="7"/>
+        <v>0.76405589636101912</v>
+      </c>
+      <c r="K135" s="5">
+        <f t="shared" si="7"/>
+        <v>0.27401539398153069</v>
+      </c>
+      <c r="L135" s="5">
+        <f t="shared" si="7"/>
+        <v>0.41884446373003265</v>
+      </c>
+      <c r="M135" s="5">
+        <f t="shared" si="7"/>
+        <v>0.44258872651356995</v>
+      </c>
+      <c r="N135" s="5">
+        <f t="shared" si="7"/>
+        <v>7.8845188967945512E-2</v>
+      </c>
+      <c r="O135" s="5">
+        <f t="shared" si="7"/>
+        <v>0.15484377269810709</v>
+      </c>
+      <c r="P135" s="5">
+        <f t="shared" si="7"/>
+        <v>3.2090871904979876E-2</v>
+      </c>
+      <c r="Q135" s="5">
+        <f t="shared" si="7"/>
+        <v>9.1478009130569501E-4</v>
+      </c>
+      <c r="R135" s="5">
+        <f t="shared" si="7"/>
+        <v>5.6860417287412812E-2</v>
+      </c>
+      <c r="S135" s="5">
+        <f t="shared" si="7"/>
+        <v>3.0192330378873394E-2</v>
+      </c>
+      <c r="T135" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12213262797109038</v>
+      </c>
+      <c r="U135" s="5">
+        <f t="shared" si="7"/>
+        <v>0.60992237271044392</v>
+      </c>
+      <c r="V135" s="5">
+        <f t="shared" si="7"/>
+        <v>0.25279367060976321</v>
+      </c>
+    </row>
+    <row r="136" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E136" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F136" s="5">
+        <f t="shared" si="8"/>
+        <v>-0.81190609278926773</v>
+      </c>
+      <c r="G136" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H136" s="5">
+        <f t="shared" si="7"/>
+        <v>0.42241356576448597</v>
+      </c>
+      <c r="I136" s="5">
+        <f t="shared" si="7"/>
+        <v>0.43140134179274908</v>
+      </c>
+      <c r="J136" s="5">
+        <f t="shared" si="7"/>
+        <v>0.16940777449194352</v>
+      </c>
+      <c r="K136" s="5">
+        <f t="shared" si="7"/>
+        <v>1.7168463526025975E-2</v>
+      </c>
+      <c r="L136" s="5">
+        <f t="shared" si="7"/>
+        <v>3.709030611481335E-2</v>
+      </c>
+      <c r="M136" s="5">
+        <f t="shared" si="7"/>
+        <v>0.41544885177453028</v>
+      </c>
+      <c r="N136" s="5">
+        <f t="shared" si="7"/>
+        <v>9.0044658401525757E-2</v>
+      </c>
+      <c r="O136" s="5">
+        <f t="shared" si="7"/>
+        <v>0.31682018119187494</v>
+      </c>
+      <c r="P136" s="5">
+        <f t="shared" si="7"/>
+        <v>2.1216397759582523E-2</v>
+      </c>
+      <c r="Q136" s="5">
+        <f t="shared" si="7"/>
+        <v>4.1923596545150136E-4</v>
+      </c>
+      <c r="R136" s="5">
+        <f t="shared" si="7"/>
+        <v>9.4228624689770557E-3</v>
+      </c>
+      <c r="S136" s="5">
+        <f t="shared" si="7"/>
+        <v>3.2491883284695134E-3</v>
+      </c>
+      <c r="T136" s="5">
+        <f t="shared" si="7"/>
+        <v>6.3977498911172145E-2</v>
+      </c>
+      <c r="U136" s="5">
+        <f t="shared" si="7"/>
+        <v>0.29837084111149786</v>
+      </c>
+      <c r="V136" s="5">
+        <f t="shared" si="7"/>
+        <v>3.595616414701959E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+    </row>
+    <row r="138" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F138" s="5">
+        <f t="shared" si="8"/>
+        <v>-4.2481833426495218E-2</v>
+      </c>
+      <c r="G138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11660160834483217</v>
+      </c>
+      <c r="H138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.45993632058660838</v>
+      </c>
+      <c r="I138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.44594299671857884</v>
+      </c>
+      <c r="J138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.53360951459817829</v>
+      </c>
+      <c r="K138" s="5">
+        <f t="shared" si="7"/>
+        <v>7.313447035803898E-2</v>
+      </c>
+      <c r="L138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.26040921878271545</v>
+      </c>
+      <c r="M138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.59916492693110646</v>
+      </c>
+      <c r="N138" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.24559623644711581</v>
+      </c>
+      <c r="P138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.23578937694534632</v>
+      </c>
+      <c r="Q138" s="5">
+        <f t="shared" si="7"/>
+        <v>1.6430787018835494E-2</v>
+      </c>
+      <c r="R138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.17286578329126689</v>
+      </c>
+      <c r="S138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11104575632994823</v>
+      </c>
+      <c r="T138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.41804535775375551</v>
+      </c>
+      <c r="U138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.72881422723943745</v>
+      </c>
+      <c r="V138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12451048365692267</v>
+      </c>
+    </row>
+    <row r="139" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E139" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F139" s="5">
+        <f t="shared" si="8"/>
+        <v>-0.12576858580212405</v>
+      </c>
+      <c r="G139" s="5">
+        <f t="shared" si="7"/>
+        <v>6.0222704336723963E-2</v>
+      </c>
+      <c r="H139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.33923186673830968</v>
+      </c>
+      <c r="I139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.39361149056613987</v>
+      </c>
+      <c r="J139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.28519332147264664</v>
+      </c>
+      <c r="K139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.13721238175955347</v>
+      </c>
+      <c r="L139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.18870759826328293</v>
+      </c>
+      <c r="M139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.62421711899791232</v>
+      </c>
+      <c r="N139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.58223012995184753</v>
+      </c>
+      <c r="O139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.22377267833820089</v>
+      </c>
+      <c r="P139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.31651547601422386</v>
+      </c>
+      <c r="Q139" s="5">
+        <f t="shared" si="7"/>
+        <v>4.0923865165056333E-2</v>
+      </c>
+      <c r="R139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12976346637307071</v>
+      </c>
+      <c r="S139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.27789356602929971</v>
+      </c>
+      <c r="T139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.91058441851034133</v>
+      </c>
+      <c r="U139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.60121079467880367</v>
+      </c>
+      <c r="V139" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7288959811283365E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E140" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F140" s="5">
+        <f t="shared" si="8"/>
+        <v>-0.53018446059250979</v>
+      </c>
+      <c r="G140" s="5">
+        <f t="shared" ref="G140:V146" si="9">G114/G$122</f>
+        <v>0.60701245944878846</v>
+      </c>
+      <c r="H140" s="5">
+        <f t="shared" si="9"/>
+        <v>0.71053714189395556</v>
+      </c>
+      <c r="I140" s="5">
+        <f t="shared" si="9"/>
+        <v>0.45494552642545177</v>
+      </c>
+      <c r="J140" s="5">
+        <f t="shared" si="9"/>
+        <v>0.58912861372717729</v>
+      </c>
+      <c r="K140" s="5">
+        <f t="shared" si="9"/>
+        <v>0.11017519963409926</v>
+      </c>
+      <c r="L140" s="5">
+        <f t="shared" si="9"/>
+        <v>0.79053215829461432</v>
+      </c>
+      <c r="M140" s="5">
+        <f t="shared" si="9"/>
+        <v>0.63883089770354906</v>
+      </c>
+      <c r="N140" s="5">
+        <f t="shared" si="9"/>
+        <v>0.19140736601597053</v>
+      </c>
+      <c r="O140" s="5">
+        <f t="shared" si="9"/>
+        <v>0.12850879767991893</v>
+      </c>
+      <c r="P140" s="5">
+        <f t="shared" si="9"/>
+        <v>3.7498676555562133E-2</v>
+      </c>
+      <c r="Q140" s="5">
+        <f t="shared" si="9"/>
+        <v>1.4243134290383824E-4</v>
+      </c>
+      <c r="R140" s="5">
+        <f t="shared" si="9"/>
+        <v>3.5380041904008085E-2</v>
+      </c>
+      <c r="S140" s="5">
+        <f t="shared" si="9"/>
+        <v>6.258097492642529E-3</v>
+      </c>
+      <c r="T140" s="5">
+        <f t="shared" si="9"/>
+        <v>0.36387177097233581</v>
+      </c>
+      <c r="U140" s="5">
+        <f t="shared" si="9"/>
+        <v>0.44365418653370781</v>
+      </c>
+      <c r="V140" s="5">
+        <f t="shared" si="9"/>
+        <v>0.18698230389002543</v>
+      </c>
+    </row>
+    <row r="141" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E141" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F141" s="5">
+        <f t="shared" si="8"/>
+        <v>-1.3135830072666294E-2</v>
+      </c>
+      <c r="G141" s="5">
+        <f t="shared" si="9"/>
+        <v>5.4723614067793622E-2</v>
+      </c>
+      <c r="H141" s="5">
+        <f t="shared" si="9"/>
+        <v>0.34327262518412227</v>
+      </c>
+      <c r="I141" s="5">
+        <f t="shared" si="9"/>
+        <v>0.35248127028338561</v>
+      </c>
+      <c r="J141" s="5">
+        <f t="shared" si="9"/>
+        <v>0.23161002933740252</v>
+      </c>
+      <c r="K141" s="5">
+        <f t="shared" si="9"/>
+        <v>4.2185557137315616E-2</v>
+      </c>
+      <c r="L141" s="5">
+        <f t="shared" si="9"/>
+        <v>4.3463593267862123E-2</v>
+      </c>
+      <c r="M141" s="5">
+        <f t="shared" si="9"/>
+        <v>0.56784968684759918</v>
+      </c>
+      <c r="N141" s="5">
+        <f t="shared" si="9"/>
+        <v>0.47391828684564286</v>
+      </c>
+      <c r="O141" s="5">
+        <f t="shared" si="9"/>
+        <v>0.12312962215455614</v>
+      </c>
+      <c r="P141" s="5">
+        <f t="shared" si="9"/>
+        <v>0.23079284345578174</v>
+      </c>
+      <c r="Q141" s="5">
+        <f t="shared" si="9"/>
+        <v>3.1844572325925267E-2</v>
+      </c>
+      <c r="R141" s="5">
+        <f t="shared" si="9"/>
+        <v>0.24380952955032789</v>
+      </c>
+      <c r="S141" s="5">
+        <f t="shared" si="9"/>
+        <v>0.40407556617392187</v>
+      </c>
+      <c r="T141" s="5">
+        <f t="shared" si="9"/>
+        <v>0.44537227580393335</v>
+      </c>
+      <c r="U141" s="5">
+        <f t="shared" si="9"/>
+        <v>0.2813636947573438</v>
+      </c>
+      <c r="V141" s="5">
+        <f t="shared" si="9"/>
+        <v>8.2126520387608468E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E142" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F142" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G142" s="5">
+        <f t="shared" si="9"/>
+        <v>6.4343290852080848E-2</v>
+      </c>
+      <c r="H142" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.68514773610807944</v>
+      </c>
+      <c r="J142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.35773951283542832</v>
+      </c>
+      <c r="K142" s="5">
+        <f t="shared" si="9"/>
+        <v>9.4307024979685183E-2</v>
+      </c>
+      <c r="L142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.42889227141797065</v>
+      </c>
+      <c r="M142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.79540709812108568</v>
+      </c>
+      <c r="N142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.56429084555349596</v>
+      </c>
+      <c r="O142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.10673493130932279</v>
+      </c>
+      <c r="P142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.26840634893858029</v>
+      </c>
+      <c r="Q142" s="5">
+        <f t="shared" si="9"/>
+        <v>5.0634120543114206E-3</v>
+      </c>
+      <c r="R142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.71656465115001611</v>
+      </c>
+      <c r="S142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.68910048908420474</v>
+      </c>
+      <c r="T142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.49715749741686643</v>
+      </c>
+      <c r="U142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.68772686827695528</v>
+      </c>
+      <c r="V142" s="5">
+        <f t="shared" si="9"/>
+        <v>0.70732956591927776</v>
+      </c>
+    </row>
+    <row r="143" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E143" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F143" s="5">
+        <f t="shared" si="8"/>
+        <v>0.49273337059809952</v>
+      </c>
+      <c r="G143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.28877889803821005</v>
+      </c>
+      <c r="H143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.39139872848742596</v>
+      </c>
+      <c r="I143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.42130063806412388</v>
+      </c>
+      <c r="J143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.43727723937267438</v>
+      </c>
+      <c r="K143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.46227939899856429</v>
+      </c>
+      <c r="L143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.82040255095527492</v>
+      </c>
+      <c r="M143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.80793319415448861</v>
+      </c>
+      <c r="N143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.33839479757133395</v>
+      </c>
+      <c r="O143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.12743445319106841</v>
+      </c>
+      <c r="P143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.10145067590133047</v>
+      </c>
+      <c r="Q143" s="5">
+        <f t="shared" si="9"/>
+        <v>1.2527449000146212E-2</v>
+      </c>
+      <c r="R143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.10852056252541289</v>
+      </c>
+      <c r="S143" s="5">
+        <f t="shared" si="9"/>
+        <v>8.1162721639530755E-2</v>
+      </c>
+      <c r="T143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.11077246181385958</v>
+      </c>
+      <c r="U143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.49234104055187999</v>
+      </c>
+      <c r="V143" s="5">
+        <f t="shared" si="9"/>
+        <v>0.15944148100354849</v>
+      </c>
+    </row>
+    <row r="144" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E144" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F144" s="5">
+        <f t="shared" si="8"/>
+        <v>-1.2017887087758524E-2</v>
+      </c>
+      <c r="G144" s="5">
+        <f t="shared" si="9"/>
+        <v>0.15609655496173161</v>
+      </c>
+      <c r="H144" s="5">
+        <f t="shared" si="9"/>
+        <v>0.47835113732227524</v>
+      </c>
+      <c r="I144" s="5">
+        <f t="shared" si="9"/>
+        <v>0.46341189465537863</v>
+      </c>
+      <c r="J144" s="5">
+        <f t="shared" si="9"/>
+        <v>0.83809182972577245</v>
+      </c>
+      <c r="K144" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L144" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M144" s="5">
+        <f t="shared" si="9"/>
+        <v>0.89144050104384143</v>
+      </c>
+      <c r="N144" s="5">
+        <f t="shared" si="9"/>
+        <v>0.40804990632410898</v>
+      </c>
+      <c r="O144" s="5">
+        <f t="shared" si="9"/>
+        <v>0.50969342042533139</v>
+      </c>
+      <c r="P144" s="5">
+        <f t="shared" si="9"/>
+        <v>7.7492918661101931E-2</v>
+      </c>
+      <c r="Q144" s="5">
+        <f t="shared" si="9"/>
+        <v>1.6597540682883258E-3</v>
+      </c>
+      <c r="R144" s="5">
+        <f t="shared" si="9"/>
+        <v>1.5477536995563836E-2</v>
+      </c>
+      <c r="S144" s="5">
+        <f t="shared" si="9"/>
+        <v>1.8194581022368879E-2</v>
+      </c>
+      <c r="T144" s="5">
+        <f t="shared" si="9"/>
+        <v>0.12198169459703806</v>
+      </c>
+      <c r="U144" s="5">
+        <f t="shared" si="9"/>
+        <v>0.61017193236876766</v>
+      </c>
+      <c r="V144" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7288724624338884E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E145" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F145" s="5">
+        <f t="shared" si="8"/>
+        <v>-5.4220234768026829E-2</v>
+      </c>
+      <c r="G145" s="5">
+        <f t="shared" si="9"/>
+        <v>0.32144102486869613</v>
+      </c>
+      <c r="H145" s="5">
+        <f t="shared" si="9"/>
+        <v>0.66007616111878287</v>
+      </c>
+      <c r="I145" s="5">
+        <f t="shared" si="9"/>
+        <v>0.6303444247410851</v>
+      </c>
+      <c r="J145" s="5">
+        <f t="shared" si="9"/>
+        <v>0.65497481806928481</v>
+      </c>
+      <c r="K145" s="5">
+        <f t="shared" si="9"/>
+        <v>0.13672392197250327</v>
+      </c>
+      <c r="L145" s="5">
+        <f t="shared" si="9"/>
+        <v>0.39783427933986337</v>
+      </c>
+      <c r="M145" s="5">
+        <f t="shared" si="9"/>
+        <v>0.49478079331941544</v>
+      </c>
+      <c r="N145" s="5">
+        <f t="shared" si="9"/>
+        <v>0.26076439151723874</v>
+      </c>
+      <c r="O145" s="5">
+        <f t="shared" si="9"/>
+        <v>0.3692564959311001</v>
+      </c>
+      <c r="P145" s="5">
+        <f t="shared" si="9"/>
+        <v>4.4533850853774377E-2</v>
+      </c>
+      <c r="Q145" s="5">
+        <f t="shared" si="9"/>
+        <v>5.3510186066826405E-4</v>
+      </c>
+      <c r="R145" s="5">
+        <f t="shared" si="9"/>
+        <v>7.6601446721373229E-2</v>
+      </c>
+      <c r="S145" s="5">
+        <f t="shared" si="9"/>
+        <v>3.8979481185657507E-2</v>
+      </c>
+      <c r="T145" s="5">
+        <f t="shared" si="9"/>
+        <v>4.2650013507125113E-2</v>
+      </c>
+      <c r="U145" s="5">
+        <f t="shared" si="9"/>
+        <v>0.70054719810299282</v>
+      </c>
+      <c r="V145" s="5">
+        <f t="shared" si="9"/>
+        <v>0.23218433008734304</v>
+      </c>
+    </row>
+    <row r="146" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E146" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F146" s="5">
+        <f t="shared" si="8"/>
+        <v>-3.8010061486864172E-2</v>
+      </c>
+      <c r="G146" s="5">
+        <f t="shared" si="9"/>
+        <v>1.1281750699767038E-2</v>
+      </c>
+      <c r="H146" s="5">
+        <f t="shared" si="9"/>
+        <v>0.5173330634619514</v>
+      </c>
+      <c r="I146" s="5">
+        <f t="shared" si="9"/>
+        <v>0.37101100096873174</v>
+      </c>
+      <c r="J146" s="5">
+        <f t="shared" si="9"/>
+        <v>0.45823367077092353</v>
+      </c>
+      <c r="K146" s="5">
+        <f t="shared" si="9"/>
+        <v>7.1236826062257508E-2</v>
+      </c>
+      <c r="L146" s="5">
+        <f t="shared" si="9"/>
+        <v>0.4008393392814612</v>
+      </c>
+      <c r="M146" s="5">
+        <f t="shared" si="9"/>
+        <v>0.41336116910229648</v>
+      </c>
+      <c r="N146" s="5">
+        <f t="shared" si="9"/>
+        <v>0.33102762019503618</v>
+      </c>
+      <c r="O146" s="5">
+        <f t="shared" si="9"/>
+        <v>8.0399901365738435E-2</v>
+      </c>
+      <c r="P146" s="5">
+        <f t="shared" si="9"/>
+        <v>0.42420837679629902</v>
+      </c>
+      <c r="Q146" s="5">
+        <f t="shared" si="9"/>
+        <v>1.7833346804393135E-2</v>
+      </c>
+      <c r="R146" s="5">
+        <f t="shared" si="9"/>
+        <v>0.1473402886887743</v>
+      </c>
+      <c r="S146" s="5">
+        <f t="shared" si="9"/>
+        <v>0.11285393388996996</v>
+      </c>
+      <c r="T146" s="5">
+        <f t="shared" si="9"/>
+        <v>0.67510523150932222</v>
+      </c>
+      <c r="U146" s="5">
+        <f t="shared" si="9"/>
+        <v>0.901112382446566</v>
+      </c>
+      <c r="V146" s="5">
+        <f t="shared" si="9"/>
+        <v>2.4291849916527386E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F147" s="1"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F5:F27">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G27">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H27">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I27">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J27">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K27">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L27">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M27">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N27">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O27">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P27">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q27">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R27">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S27">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T27">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U27">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V27">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:F120">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -22685,7 +29290,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G27">
+  <conditionalFormatting sqref="G98:G120">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -22697,7 +29302,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H27">
+  <conditionalFormatting sqref="H98:H120">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -22709,7 +29314,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I27">
+  <conditionalFormatting sqref="I98:I120">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -22721,7 +29326,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J27">
+  <conditionalFormatting sqref="J98:J120">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -22733,7 +29338,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K27">
+  <conditionalFormatting sqref="K98:K120">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -22745,7 +29350,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L27">
+  <conditionalFormatting sqref="L98:L120">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -22757,7 +29362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M27">
+  <conditionalFormatting sqref="M98:M120">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -22769,7 +29374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N27">
+  <conditionalFormatting sqref="N98:N120">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -22781,7 +29386,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O27">
+  <conditionalFormatting sqref="O98:O120">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -22793,7 +29398,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P27">
+  <conditionalFormatting sqref="P98:P120">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -22805,7 +29410,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q27">
+  <conditionalFormatting sqref="Q98:Q120">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -22817,7 +29422,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R27">
+  <conditionalFormatting sqref="R98:R120">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -22829,7 +29434,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S27">
+  <conditionalFormatting sqref="S98:S120">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -22841,7 +29446,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T27">
+  <conditionalFormatting sqref="T98:T120">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -22853,7 +29458,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U27">
+  <conditionalFormatting sqref="U98:U120">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -22865,7 +29470,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V27">
+  <conditionalFormatting sqref="V98:V120">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -22878,6 +29483,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -814,7 +813,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1040,7 +1038,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1254,7 +1251,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1440,7 +1436,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1666,7 +1661,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1770,7 +1764,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1868,7 +1861,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2054,7 +2046,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2280,7 +2271,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8291,7 +8281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hospitals</c:v>
+                  <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8386,67 +8376,67 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>0.12568076516798499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8606845138561078E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11174399139616201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28189123221952139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10128174406165703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2954665628119813E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1734353030358628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.679916978061288E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11680584557984318</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19394539154812782</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33528709074047874</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16914500941619626</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56411931299104734</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13604087567654888</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21963406849117609</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.40322825832748654</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.16659887222639255</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1987481665064999</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12213262797109038</c:v>
+                  <c:v>0.25279367060976321</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3977498911172145E-2</c:v>
+                  <c:v>3.595616414701959E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41804535775375551</c:v>
+                  <c:v>0.12451048365692267</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91058441851034133</c:v>
+                  <c:v>2.7288959811283365E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36387177097233581</c:v>
+                  <c:v>0.18698230389002543</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.44537227580393335</c:v>
+                  <c:v>8.2126520387608468E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.49715749741686643</c:v>
+                  <c:v>0.70732956591927776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11077246181385958</c:v>
+                  <c:v>0.15944148100354849</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12198169459703806</c:v>
+                  <c:v>8.7288724624338884E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.2650013507125113E-2</c:v>
+                  <c:v>0.23218433008734304</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.67510523150932222</c:v>
+                  <c:v>2.4291849916527386E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8466,7 +8456,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>beforeschool</c:v>
+                  <c:v>hospitals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8564,64 +8554,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44581708331797359</c:v>
+                  <c:v>0.19394539154812782</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8701380336029475</c:v>
+                  <c:v>0.33528709074047874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56458318183755452</c:v>
+                  <c:v>0.16914500941619626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57430956957757273</c:v>
+                  <c:v>0.56411931299104734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87706698465334498</c:v>
+                  <c:v>0.13604087567654888</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50283393650247632</c:v>
+                  <c:v>0.21963406849117609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56124551301735437</c:v>
+                  <c:v>0.40322825832748654</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62736508357137322</c:v>
+                  <c:v>0.16659887222639255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70889503388310182</c:v>
+                  <c:v>0.1987481665064999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60992237271044392</c:v>
+                  <c:v>0.12213262797109038</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29837084111149786</c:v>
+                  <c:v>6.3977498911172145E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72881422723943745</c:v>
+                  <c:v>0.41804535775375551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.60121079467880367</c:v>
+                  <c:v>0.91058441851034133</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.44365418653370781</c:v>
+                  <c:v>0.36387177097233581</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2813636947573438</c:v>
+                  <c:v>0.44537227580393335</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.68772686827695528</c:v>
+                  <c:v>0.49715749741686643</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.49234104055187999</c:v>
+                  <c:v>0.11077246181385958</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.61017193236876766</c:v>
+                  <c:v>0.12198169459703806</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.70054719810299282</c:v>
+                  <c:v>4.2650013507125113E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.901112382446566</c:v>
+                  <c:v>0.67510523150932222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8641,7 +8631,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>factoriescap</c:v>
+                  <c:v>beforeschool</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8736,67 +8726,67 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.12568076516798499</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8606845138561078E-2</c:v>
+                  <c:v>0.44581708331797359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11174399139616201</c:v>
+                  <c:v>0.8701380336029475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28189123221952139</c:v>
+                  <c:v>0.56458318183755452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10128174406165703</c:v>
+                  <c:v>0.57430956957757273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2954665628119813E-2</c:v>
+                  <c:v>0.87706698465334498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1734353030358628</c:v>
+                  <c:v>0.50283393650247632</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.679916978061288E-2</c:v>
+                  <c:v>0.56124551301735437</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11680584557984318</c:v>
+                  <c:v>0.62736508357137322</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.70889503388310182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25279367060976321</c:v>
+                  <c:v>0.60992237271044392</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.595616414701959E-2</c:v>
+                  <c:v>0.29837084111149786</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12451048365692267</c:v>
+                  <c:v>0.72881422723943745</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7288959811283365E-2</c:v>
+                  <c:v>0.60121079467880367</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18698230389002543</c:v>
+                  <c:v>0.44365418653370781</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2126520387608468E-2</c:v>
+                  <c:v>0.2813636947573438</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.70732956591927776</c:v>
+                  <c:v>0.68772686827695528</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15944148100354849</c:v>
+                  <c:v>0.49234104055187999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.7288724624338884E-2</c:v>
+                  <c:v>0.61017193236876766</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.23218433008734304</c:v>
+                  <c:v>0.70054719810299282</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.4291849916527386E-2</c:v>
+                  <c:v>0.901112382446566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9135,7 +9125,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -21933,7 +21923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AM155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R20" sqref="R20:R25"/>
     </sheetView>
   </sheetViews>
@@ -33143,10 +33133,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:V147"/>
+  <dimension ref="C4:Y147"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V179" sqref="V179"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W153" sqref="W153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35920,7 +35910,7 @@
         <v>153.74505778284589</v>
       </c>
     </row>
-    <row r="113" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F113" s="1">
         <v>-449.99999999999989</v>
       </c>
@@ -35973,7 +35963,7 @@
         <v>33.696300743477607</v>
       </c>
     </row>
-    <row r="114" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F114" s="1">
         <v>-1897</v>
       </c>
@@ -36026,7 +36016,7 @@
         <v>230.88501684045355</v>
       </c>
     </row>
-    <row r="115" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F115" s="1">
         <v>-47</v>
       </c>
@@ -36079,7 +36069,7 @@
         <v>101.40950586368483</v>
       </c>
     </row>
-    <row r="116" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F116" s="1">
         <v>3578</v>
       </c>
@@ -36132,7 +36122,7 @@
         <v>873.40777892583776</v>
       </c>
     </row>
-    <row r="117" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F117" s="1">
         <v>1763</v>
       </c>
@@ -36185,7 +36175,7 @@
         <v>196.87771655772673</v>
       </c>
     </row>
-    <row r="118" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F118" s="1">
         <v>-43</v>
       </c>
@@ -36238,7 +36228,7 @@
         <v>107.78377544607469</v>
       </c>
     </row>
-    <row r="119" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F119" s="1">
         <v>-194</v>
       </c>
@@ -36291,7 +36281,7 @@
         <v>286.70030183089074</v>
       </c>
     </row>
-    <row r="120" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F120" s="1">
         <v>-136</v>
       </c>
@@ -36344,7 +36334,7 @@
         <v>29.9954811785929</v>
       </c>
     </row>
-    <row r="122" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F122" s="1">
         <f>MAX(F98:F120)</f>
         <v>3578</v>
@@ -36414,7 +36404,7 @@
         <v>1234.7960851752566</v>
       </c>
     </row>
-    <row r="123" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E123" s="3" t="s">
         <v>19</v>
       </c>
@@ -36461,16 +36451,16 @@
         <v>13</v>
       </c>
       <c r="T123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U123" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U123" s="2" t="s">
+      <c r="V123" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V123" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="124" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E124" s="4">
         <v>1</v>
       </c>
@@ -36479,7 +36469,7 @@
         <v>-4.2202347680268308E-2</v>
       </c>
       <c r="G124" s="5">
-        <f t="shared" ref="G124:V139" si="7">G98/G$122</f>
+        <f t="shared" ref="G124:S139" si="7">G98/G$122</f>
         <v>1.5232737835993318E-2</v>
       </c>
       <c r="H124" s="5">
@@ -36531,24 +36521,24 @@
         <v>3.6857769952494929E-2</v>
       </c>
       <c r="T124" s="5">
-        <f t="shared" si="7"/>
+        <v>0.12568076516798499</v>
+      </c>
+      <c r="U124" s="5">
         <v>1</v>
       </c>
-      <c r="U124" s="5">
-        <f t="shared" si="7"/>
+      <c r="V124" s="5">
         <v>1</v>
       </c>
-      <c r="V124" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y124">
         <v>0.12568076516798499</v>
       </c>
     </row>
-    <row r="125" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E125" s="4">
         <v>2</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" ref="F125:U146" si="8">F99/F$122</f>
+        <f t="shared" ref="F125:S146" si="8">F99/F$122</f>
         <v>6.4561207378423663E-2</v>
       </c>
       <c r="G125" s="5">
@@ -36604,19 +36594,19 @@
         <v>0.39435528952302118</v>
       </c>
       <c r="T125" s="5">
-        <f t="shared" si="8"/>
+        <v>9.8606845138561078E-2</v>
+      </c>
+      <c r="U125" s="5">
         <v>0.19394539154812782</v>
       </c>
-      <c r="U125" s="5">
-        <f t="shared" si="8"/>
+      <c r="V125" s="5">
         <v>0.44581708331797359</v>
       </c>
-      <c r="V125" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y125">
         <v>9.8606845138561078E-2</v>
       </c>
     </row>
-    <row r="126" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E126" s="4">
         <v>3</v>
       </c>
@@ -36677,19 +36667,19 @@
         <v>6.8924858352955642E-2</v>
       </c>
       <c r="T126" s="5">
-        <f t="shared" si="7"/>
+        <v>0.11174399139616201</v>
+      </c>
+      <c r="U126" s="5">
         <v>0.33528709074047874</v>
       </c>
-      <c r="U126" s="5">
-        <f t="shared" si="7"/>
+      <c r="V126" s="5">
         <v>0.8701380336029475</v>
       </c>
-      <c r="V126" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y126">
         <v>0.11174399139616201</v>
       </c>
     </row>
-    <row r="127" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E127" s="4">
         <v>4</v>
       </c>
@@ -36750,19 +36740,19 @@
         <v>0.70440850722790427</v>
       </c>
       <c r="T127" s="5">
-        <f t="shared" si="7"/>
+        <v>0.28189123221952139</v>
+      </c>
+      <c r="U127" s="5">
         <v>0.16914500941619626</v>
       </c>
-      <c r="U127" s="5">
-        <f t="shared" si="7"/>
+      <c r="V127" s="5">
         <v>0.56458318183755452</v>
       </c>
-      <c r="V127" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y127">
         <v>0.28189123221952139</v>
       </c>
     </row>
-    <row r="128" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E128" s="18">
         <v>5</v>
       </c>
@@ -36823,19 +36813,19 @@
         <v>0.46437342211624355</v>
       </c>
       <c r="T128" s="5">
-        <f t="shared" si="7"/>
+        <v>0.10128174406165703</v>
+      </c>
+      <c r="U128" s="5">
         <v>0.56411931299104734</v>
       </c>
-      <c r="U128" s="5">
-        <f t="shared" si="7"/>
+      <c r="V128" s="5">
         <v>0.57430956957757273</v>
       </c>
-      <c r="V128" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y128">
         <v>0.10128174406165703</v>
       </c>
     </row>
-    <row r="129" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E129" s="18">
         <v>6</v>
       </c>
@@ -36896,19 +36886,19 @@
         <v>1.2438202462098154E-2</v>
       </c>
       <c r="T129" s="5">
-        <f t="shared" si="7"/>
+        <v>6.2954665628119813E-2</v>
+      </c>
+      <c r="U129" s="5">
         <v>0.13604087567654888</v>
       </c>
-      <c r="U129" s="5">
-        <f t="shared" si="7"/>
+      <c r="V129" s="5">
         <v>0.87706698465334498</v>
       </c>
-      <c r="V129" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y129">
         <v>6.2954665628119813E-2</v>
       </c>
     </row>
-    <row r="130" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
@@ -36927,7 +36917,7 @@
       <c r="U130" s="5"/>
       <c r="V130" s="5"/>
     </row>
-    <row r="131" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E131" s="10">
         <v>7</v>
       </c>
@@ -36988,19 +36978,19 @@
         <v>1</v>
       </c>
       <c r="T131" s="5">
-        <f t="shared" si="7"/>
+        <v>0.1734353030358628</v>
+      </c>
+      <c r="U131" s="5">
         <v>0.21963406849117609</v>
       </c>
-      <c r="U131" s="5">
-        <f t="shared" si="7"/>
+      <c r="V131" s="5">
         <v>0.50283393650247632</v>
       </c>
-      <c r="V131" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y131">
         <v>0.1734353030358628</v>
       </c>
     </row>
-    <row r="132" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E132" s="1">
         <v>8</v>
       </c>
@@ -37061,19 +37051,19 @@
         <v>0.33002466585613993</v>
       </c>
       <c r="T132" s="5">
-        <f t="shared" si="7"/>
+        <v>3.679916978061288E-2</v>
+      </c>
+      <c r="U132" s="5">
         <v>0.40322825832748654</v>
       </c>
-      <c r="U132" s="5">
-        <f t="shared" si="7"/>
+      <c r="V132" s="5">
         <v>0.56124551301735437</v>
       </c>
-      <c r="V132" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y132">
         <v>3.679916978061288E-2</v>
       </c>
     </row>
-    <row r="133" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E133" s="1">
         <v>9</v>
       </c>
@@ -37134,19 +37124,19 @@
         <v>1.5631165010061669E-2</v>
       </c>
       <c r="T133" s="5">
-        <f t="shared" si="7"/>
+        <v>0.11680584557984318</v>
+      </c>
+      <c r="U133" s="5">
         <v>0.16659887222639255</v>
       </c>
-      <c r="U133" s="5">
-        <f t="shared" si="7"/>
+      <c r="V133" s="5">
         <v>0.62736508357137322</v>
       </c>
-      <c r="V133" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y133">
         <v>0.11680584557984318</v>
       </c>
     </row>
-    <row r="134" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E134" s="14">
         <v>10</v>
       </c>
@@ -37207,19 +37197,19 @@
         <v>3.294336227799162E-2</v>
       </c>
       <c r="T134" s="5">
-        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U134" s="5">
         <v>0.1987481665064999</v>
       </c>
-      <c r="U134" s="5">
-        <f t="shared" si="7"/>
+      <c r="V134" s="5">
         <v>0.70889503388310182</v>
       </c>
-      <c r="V134" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E135" s="15">
         <v>11</v>
       </c>
@@ -37280,19 +37270,19 @@
         <v>3.0192330378873394E-2</v>
       </c>
       <c r="T135" s="5">
-        <f t="shared" si="7"/>
+        <v>0.25279367060976321</v>
+      </c>
+      <c r="U135" s="5">
         <v>0.12213262797109038</v>
       </c>
-      <c r="U135" s="5">
-        <f t="shared" si="7"/>
+      <c r="V135" s="5">
         <v>0.60992237271044392</v>
       </c>
-      <c r="V135" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y135">
         <v>0.25279367060976321</v>
       </c>
     </row>
-    <row r="136" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E136" s="15">
         <v>12</v>
       </c>
@@ -37353,19 +37343,19 @@
         <v>3.2491883284695134E-3</v>
       </c>
       <c r="T136" s="5">
-        <f t="shared" si="7"/>
+        <v>3.595616414701959E-2</v>
+      </c>
+      <c r="U136" s="5">
         <v>6.3977498911172145E-2</v>
       </c>
-      <c r="U136" s="5">
-        <f t="shared" si="7"/>
+      <c r="V136" s="5">
         <v>0.29837084111149786</v>
       </c>
-      <c r="V136" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y136">
         <v>3.595616414701959E-2</v>
       </c>
     </row>
-    <row r="137" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
@@ -37384,7 +37374,7 @@
       <c r="U137" s="5"/>
       <c r="V137" s="5"/>
     </row>
-    <row r="138" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E138" s="1">
         <v>13</v>
       </c>
@@ -37445,19 +37435,19 @@
         <v>0.11104575632994823</v>
       </c>
       <c r="T138" s="5">
-        <f t="shared" si="7"/>
+        <v>0.12451048365692267</v>
+      </c>
+      <c r="U138" s="5">
         <v>0.41804535775375551</v>
       </c>
-      <c r="U138" s="5">
-        <f t="shared" si="7"/>
+      <c r="V138" s="5">
         <v>0.72881422723943745</v>
       </c>
-      <c r="V138" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y138">
         <v>0.12451048365692267</v>
       </c>
     </row>
-    <row r="139" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E139" s="1">
         <v>14</v>
       </c>
@@ -37518,19 +37508,19 @@
         <v>0.27789356602929971</v>
       </c>
       <c r="T139" s="5">
-        <f t="shared" si="7"/>
+        <v>2.7288959811283365E-2</v>
+      </c>
+      <c r="U139" s="5">
         <v>0.91058441851034133</v>
       </c>
-      <c r="U139" s="5">
-        <f t="shared" si="7"/>
+      <c r="V139" s="5">
         <v>0.60121079467880367</v>
       </c>
-      <c r="V139" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y139">
         <v>2.7288959811283365E-2</v>
       </c>
     </row>
-    <row r="140" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E140" s="1">
         <v>15</v>
       </c>
@@ -37539,7 +37529,7 @@
         <v>-0.53018446059250979</v>
       </c>
       <c r="G140" s="5">
-        <f t="shared" ref="G140:V146" si="9">G114/G$122</f>
+        <f t="shared" ref="G140:S146" si="9">G114/G$122</f>
         <v>0.60701245944878846</v>
       </c>
       <c r="H140" s="5">
@@ -37591,19 +37581,19 @@
         <v>6.258097492642529E-3</v>
       </c>
       <c r="T140" s="5">
-        <f t="shared" si="9"/>
+        <v>0.18698230389002543</v>
+      </c>
+      <c r="U140" s="5">
         <v>0.36387177097233581</v>
       </c>
-      <c r="U140" s="5">
-        <f t="shared" si="9"/>
+      <c r="V140" s="5">
         <v>0.44365418653370781</v>
       </c>
-      <c r="V140" s="5">
-        <f t="shared" si="9"/>
+      <c r="Y140">
         <v>0.18698230389002543</v>
       </c>
     </row>
-    <row r="141" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E141" s="1">
         <v>16</v>
       </c>
@@ -37664,19 +37654,19 @@
         <v>0.40407556617392187</v>
       </c>
       <c r="T141" s="5">
-        <f t="shared" si="9"/>
+        <v>8.2126520387608468E-2</v>
+      </c>
+      <c r="U141" s="5">
         <v>0.44537227580393335</v>
       </c>
-      <c r="U141" s="5">
-        <f t="shared" si="9"/>
+      <c r="V141" s="5">
         <v>0.2813636947573438</v>
       </c>
-      <c r="V141" s="5">
-        <f t="shared" si="9"/>
+      <c r="Y141">
         <v>8.2126520387608468E-2</v>
       </c>
     </row>
-    <row r="142" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E142" s="1">
         <v>17</v>
       </c>
@@ -37737,19 +37727,19 @@
         <v>0.68910048908420474</v>
       </c>
       <c r="T142" s="5">
-        <f t="shared" si="9"/>
+        <v>0.70732956591927776</v>
+      </c>
+      <c r="U142" s="5">
         <v>0.49715749741686643</v>
       </c>
-      <c r="U142" s="5">
-        <f t="shared" si="9"/>
+      <c r="V142" s="5">
         <v>0.68772686827695528</v>
       </c>
-      <c r="V142" s="5">
-        <f t="shared" si="9"/>
+      <c r="Y142">
         <v>0.70732956591927776</v>
       </c>
     </row>
-    <row r="143" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E143" s="1">
         <v>18</v>
       </c>
@@ -37810,19 +37800,19 @@
         <v>8.1162721639530755E-2</v>
       </c>
       <c r="T143" s="5">
-        <f t="shared" si="9"/>
+        <v>0.15944148100354849</v>
+      </c>
+      <c r="U143" s="5">
         <v>0.11077246181385958</v>
       </c>
-      <c r="U143" s="5">
-        <f t="shared" si="9"/>
+      <c r="V143" s="5">
         <v>0.49234104055187999</v>
       </c>
-      <c r="V143" s="5">
-        <f t="shared" si="9"/>
+      <c r="Y143">
         <v>0.15944148100354849</v>
       </c>
     </row>
-    <row r="144" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E144" s="1">
         <v>19</v>
       </c>
@@ -37883,19 +37873,19 @@
         <v>1.8194581022368879E-2</v>
       </c>
       <c r="T144" s="5">
-        <f t="shared" si="9"/>
+        <v>8.7288724624338884E-2</v>
+      </c>
+      <c r="U144" s="5">
         <v>0.12198169459703806</v>
       </c>
-      <c r="U144" s="5">
-        <f t="shared" si="9"/>
+      <c r="V144" s="5">
         <v>0.61017193236876766</v>
       </c>
-      <c r="V144" s="5">
-        <f t="shared" si="9"/>
+      <c r="Y144">
         <v>8.7288724624338884E-2</v>
       </c>
     </row>
-    <row r="145" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E145" s="1">
         <v>20</v>
       </c>
@@ -37956,19 +37946,19 @@
         <v>3.8979481185657507E-2</v>
       </c>
       <c r="T145" s="5">
-        <f t="shared" si="9"/>
+        <v>0.23218433008734304</v>
+      </c>
+      <c r="U145" s="5">
         <v>4.2650013507125113E-2</v>
       </c>
-      <c r="U145" s="5">
-        <f t="shared" si="9"/>
+      <c r="V145" s="5">
         <v>0.70054719810299282</v>
       </c>
-      <c r="V145" s="5">
-        <f t="shared" si="9"/>
+      <c r="Y145">
         <v>0.23218433008734304</v>
       </c>
     </row>
-    <row r="146" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E146" s="1">
         <v>21</v>
       </c>
@@ -38029,19 +38019,19 @@
         <v>0.11285393388996996</v>
       </c>
       <c r="T146" s="5">
-        <f t="shared" si="9"/>
+        <v>2.4291849916527386E-2</v>
+      </c>
+      <c r="U146" s="5">
         <v>0.67510523150932222</v>
       </c>
-      <c r="U146" s="5">
-        <f t="shared" si="9"/>
+      <c r="V146" s="5">
         <v>0.901112382446566</v>
       </c>
-      <c r="V146" s="5">
-        <f t="shared" si="9"/>
+      <c r="Y146">
         <v>2.4291849916527386E-2</v>
       </c>
     </row>
-    <row r="147" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F147" s="1"/>
     </row>
   </sheetData>

--- a/migforecasting/social conflicts/soc-conflicts analysis.xlsx
+++ b/migforecasting/social conflicts/soc-conflicts analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="anti-garbage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="80">
   <si>
     <t>saldo</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>preschool</t>
   </si>
 </sst>
 </file>
@@ -504,11 +507,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -517,9 +519,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1050"/>
-              <a:t>Анти-мусорный </a:t>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ecological conflicts</a:t>
             </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -527,8 +542,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19062097581914436"/>
-          <c:y val="2.252826993783566E-2"/>
+          <c:x val="0.14302918191171157"/>
+          <c:y val="1.9309945661001995E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -544,11 +559,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -582,13 +596,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -606,7 +632,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -628,6 +654,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -767,13 +794,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -791,7 +830,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -813,6 +852,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -946,7 +986,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="42"/>
+        <c:gapWidth val="70"/>
         <c:overlap val="100"/>
         <c:axId val="1592701007"/>
         <c:axId val="1592701423"/>
@@ -960,14 +1000,13 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -978,11 +1017,11 @@
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -994,7 +1033,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1038,6 +1077,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37599901886638187"/>
+          <c:y val="0.10649435032042601"/>
+          <c:w val="0.41240963691242699"/>
+          <c:h val="6.2099720918068806E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1051,9 +1100,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1070,7 +1122,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1102,1239 +1154,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1050"/>
-              <a:t>Этнический</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1050" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1050"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24191147477946903"/>
-          <c:y val="2.5746594214669325E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'agestruct (h2h)'!$Z$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'agestruct (h2h)'!$Y$46:$Y$59</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5-9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10-14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15-19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20-24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65-69</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'agestruct (h2h)'!$Z$46:$Z$59</c:f>
-              <c:numCache>
-                <c:formatCode>0.00;0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>-6.1648333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.7969999999999989E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6.3073333333333328E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.6136666666666668E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.5016666666666665E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-8.1431666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-9.5040000000000013E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8.4433333333333346E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-7.22E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6.7595000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.12463333333333332</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-6.8003333333333332E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.133333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.1446666666666666E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3FB1-4B4A-B369-039A5CC98054}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'agestruct (h2h)'!$AA$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'agestruct (h2h)'!$Y$46:$Y$59</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5-9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10-14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15-19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20-24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65-69</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'agestruct (h2h)'!$AA$46:$AA$59</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>5.8711666666666669E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.3541666666666663E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8631666666666672E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4183333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.405666666666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.516500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.0186666666666679E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.1025E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.109E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.9954999999999989E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13244999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.2865000000000013E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9099999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.9068333333333325E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3FB1-4B4A-B369-039A5CC98054}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="42"/>
-        <c:overlap val="100"/>
-        <c:axId val="1592701007"/>
-        <c:axId val="1592701423"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1592701007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1592701423"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1592701423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00;0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1592701007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1050"/>
-              <a:t>Анти-индустриальный</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'agestruct (h2h)'!$Z$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'agestruct (h2h)'!$Y$63:$Y$76</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5-9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10-14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15-19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20-24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65-69</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'agestruct (h2h)'!$Z$63:$Z$76</c:f>
-              <c:numCache>
-                <c:formatCode>0.00;0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>-6.6968888888888897E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-7.5780000000000014E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6.7593333333333339E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.6293333333333334E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.0565555555555558E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-6.5604444444444437E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.7082222222222228E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8.3453333333333324E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-7.407777777777777E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6.7683333333333331E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.11773333333333334</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7.1395555555555545E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.8141111111111111E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.7668888888888893E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6515-41F3-A2FB-D3A2D93AC3F7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'agestruct (h2h)'!$AA$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'agestruct (h2h)'!$Y$63:$Y$76</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5-9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10-14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15-19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20-24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65-69</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'agestruct (h2h)'!$AA$63:$AA$76</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6.0237777777777772E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8191111111111119E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0548888888888888E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8548888888888891E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6885555555555555E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.3635555555555561E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0311111111111111E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.9699999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3934444444444442E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.9478888888888896E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.12966333333333335</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0006666666666684E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.3306666666666668E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5547777777777788E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6515-41F3-A2FB-D3A2D93AC3F7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="42"/>
-        <c:overlap val="100"/>
-        <c:axId val="1592701007"/>
-        <c:axId val="1592701423"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1592701007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1592701423"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1592701423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00;0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1592701007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -5060,7 +3879,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5092,6 +3910,1322 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ethnic conflicts</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20792708269457447"/>
+          <c:y val="1.9309945661001995E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'agestruct (h2h)'!$Z$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+              